--- a/Data/g8.2.xlsx
+++ b/Data/g8.2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E967"/>
+  <dimension ref="A1:E985"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16163,7 +16163,7 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>01/02/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
@@ -16177,7 +16177,7 @@
         </is>
       </c>
       <c r="D630" t="n">
-        <v>86.386</v>
+        <v>81.98999999999999</v>
       </c>
       <c r="E630" t="inlineStr">
         <is>
@@ -16188,7 +16188,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>01/02/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
@@ -16202,7 +16202,7 @@
         </is>
       </c>
       <c r="D631" t="n">
-        <v>1067.749</v>
+        <v>1782.844</v>
       </c>
       <c r="E631" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/02/2023</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
@@ -16227,7 +16227,7 @@
         </is>
       </c>
       <c r="D632" t="n">
-        <v>86.289</v>
+        <v>86.386</v>
       </c>
       <c r="E632" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/02/2023</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
@@ -16252,7 +16252,7 @@
         </is>
       </c>
       <c r="D633" t="n">
-        <v>1168.05</v>
+        <v>1067.749</v>
       </c>
       <c r="E633" t="inlineStr">
         <is>
@@ -16263,7 +16263,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
@@ -16277,7 +16277,7 @@
         </is>
       </c>
       <c r="D634" t="n">
-        <v>66.23099999999999</v>
+        <v>86.289</v>
       </c>
       <c r="E634" t="inlineStr">
         <is>
@@ -16288,7 +16288,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
@@ -16302,7 +16302,7 @@
         </is>
       </c>
       <c r="D635" t="n">
-        <v>1466.205</v>
+        <v>1168.05</v>
       </c>
       <c r="E635" t="inlineStr">
         <is>
@@ -16313,7 +16313,7 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>01/06/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D636" t="n">
-        <v>74.974</v>
+        <v>66.23099999999999</v>
       </c>
       <c r="E636" t="inlineStr">
         <is>
@@ -16338,7 +16338,7 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>01/06/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
@@ -16352,7 +16352,7 @@
         </is>
       </c>
       <c r="D637" t="n">
-        <v>1449.328</v>
+        <v>1466.205</v>
       </c>
       <c r="E637" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>01/05/2023</t>
+          <t>01/06/2023</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
@@ -16377,7 +16377,7 @@
         </is>
       </c>
       <c r="D638" t="n">
-        <v>84.584</v>
+        <v>74.974</v>
       </c>
       <c r="E638" t="inlineStr">
         <is>
@@ -16388,7 +16388,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>01/05/2023</t>
+          <t>01/06/2023</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
@@ -16402,7 +16402,7 @@
         </is>
       </c>
       <c r="D639" t="n">
-        <v>1531.448</v>
+        <v>1449.328</v>
       </c>
       <c r="E639" t="inlineStr">
         <is>
@@ -16413,7 +16413,7 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>01/03/2023</t>
+          <t>01/05/2023</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
@@ -16427,7 +16427,7 @@
         </is>
       </c>
       <c r="D640" t="n">
-        <v>92.61</v>
+        <v>84.584</v>
       </c>
       <c r="E640" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>01/03/2023</t>
+          <t>01/05/2023</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
@@ -16452,7 +16452,7 @@
         </is>
       </c>
       <c r="D641" t="n">
-        <v>1557.696</v>
+        <v>1531.448</v>
       </c>
       <c r="E641" t="inlineStr">
         <is>
@@ -16463,7 +16463,7 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/03/2023</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
@@ -16477,7 +16477,7 @@
         </is>
       </c>
       <c r="D642" t="n">
-        <v>77.86799999999999</v>
+        <v>92.61</v>
       </c>
       <c r="E642" t="inlineStr">
         <is>
@@ -16488,7 +16488,7 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/03/2023</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
@@ -16502,7 +16502,7 @@
         </is>
       </c>
       <c r="D643" t="n">
-        <v>1565.777</v>
+        <v>1557.696</v>
       </c>
       <c r="E643" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>01/09/2023</t>
+          <t>01/11/2023</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
@@ -16527,7 +16527,7 @@
         </is>
       </c>
       <c r="D644" t="n">
-        <v>58.752</v>
+        <v>79.14400000000001</v>
       </c>
       <c r="E644" t="inlineStr">
         <is>
@@ -16538,7 +16538,7 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>01/09/2023</t>
+          <t>01/11/2023</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
@@ -16552,7 +16552,7 @@
         </is>
       </c>
       <c r="D645" t="n">
-        <v>1615.853</v>
+        <v>1743.128</v>
       </c>
       <c r="E645" t="inlineStr">
         <is>
@@ -16563,21 +16563,21 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>01/04/1997</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA</t>
+          <t>MAR</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>LGN</t>
+          <t>GÁS NATURAL</t>
         </is>
       </c>
       <c r="D646" t="n">
-        <v>20951</v>
+        <v>77.86799999999999</v>
       </c>
       <c r="E646" t="inlineStr">
         <is>
@@ -16588,21 +16588,21 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>01/08/1997</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA</t>
+          <t>TERRA</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>LGN</t>
+          <t>GÁS NATURAL</t>
         </is>
       </c>
       <c r="D647" t="n">
-        <v>24698</v>
+        <v>1565.777</v>
       </c>
       <c r="E647" t="inlineStr">
         <is>
@@ -16613,21 +16613,21 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>01/12/1997</t>
+          <t>01/09/2023</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA</t>
+          <t>MAR</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>LGN</t>
+          <t>GÁS NATURAL</t>
         </is>
       </c>
       <c r="D648" t="n">
-        <v>23230</v>
+        <v>58.752</v>
       </c>
       <c r="E648" t="inlineStr">
         <is>
@@ -16638,21 +16638,21 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>01/02/1997</t>
+          <t>01/09/2023</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA</t>
+          <t>TERRA</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>LGN</t>
+          <t>GÁS NATURAL</t>
         </is>
       </c>
       <c r="D649" t="n">
-        <v>19007</v>
+        <v>1615.853</v>
       </c>
       <c r="E649" t="inlineStr">
         <is>
@@ -16663,21 +16663,21 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>01/01/1997</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA</t>
+          <t>MAR</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>LGN</t>
+          <t>GÁS NATURAL</t>
         </is>
       </c>
       <c r="D650" t="n">
-        <v>18978</v>
+        <v>67.581</v>
       </c>
       <c r="E650" t="inlineStr">
         <is>
@@ -16688,21 +16688,21 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>01/07/1997</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA</t>
+          <t>TERRA</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>LGN</t>
+          <t>GÁS NATURAL</t>
         </is>
       </c>
       <c r="D651" t="n">
-        <v>23232</v>
+        <v>1835.078</v>
       </c>
       <c r="E651" t="inlineStr">
         <is>
@@ -16713,21 +16713,21 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>01/06/1997</t>
+          <t>01/02/2024</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA</t>
+          <t>MAR</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>LGN</t>
+          <t>GÁS NATURAL</t>
         </is>
       </c>
       <c r="D652" t="n">
-        <v>22449</v>
+        <v>69.839</v>
       </c>
       <c r="E652" t="inlineStr">
         <is>
@@ -16738,21 +16738,21 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>01/05/1997</t>
+          <t>01/02/2024</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA</t>
+          <t>TERRA</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>LGN</t>
+          <t>GÁS NATURAL</t>
         </is>
       </c>
       <c r="D653" t="n">
-        <v>24757</v>
+        <v>1544.116</v>
       </c>
       <c r="E653" t="inlineStr">
         <is>
@@ -16763,21 +16763,21 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>01/03/1997</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA</t>
+          <t>MAR</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>LGN</t>
+          <t>GÁS NATURAL</t>
         </is>
       </c>
       <c r="D654" t="n">
-        <v>19807</v>
+        <v>78.95999999999999</v>
       </c>
       <c r="E654" t="inlineStr">
         <is>
@@ -16788,21 +16788,21 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>01/11/1997</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA</t>
+          <t>TERRA</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>LGN</t>
+          <t>GÁS NATURAL</t>
         </is>
       </c>
       <c r="D655" t="n">
-        <v>22027</v>
+        <v>1774.621</v>
       </c>
       <c r="E655" t="inlineStr">
         <is>
@@ -16813,21 +16813,21 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>01/10/1997</t>
+          <t>01/03/2024</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA</t>
+          <t>MAR</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>LGN</t>
+          <t>GÁS NATURAL</t>
         </is>
       </c>
       <c r="D656" t="n">
-        <v>21890</v>
+        <v>72.51000000000001</v>
       </c>
       <c r="E656" t="inlineStr">
         <is>
@@ -16838,21 +16838,21 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>01/09/1997</t>
+          <t>01/03/2024</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA</t>
+          <t>TERRA</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>LGN</t>
+          <t>GÁS NATURAL</t>
         </is>
       </c>
       <c r="D657" t="n">
-        <v>22749</v>
+        <v>1639.846</v>
       </c>
       <c r="E657" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>01/04/1998</t>
+          <t>01/04/1997</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
@@ -16877,7 +16877,7 @@
         </is>
       </c>
       <c r="D658" t="n">
-        <v>131778.0699</v>
+        <v>20951</v>
       </c>
       <c r="E658" t="inlineStr">
         <is>
@@ -16888,7 +16888,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>01/08/1998</t>
+          <t>01/08/1997</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
@@ -16902,7 +16902,7 @@
         </is>
       </c>
       <c r="D659" t="n">
-        <v>155346.0346</v>
+        <v>24698</v>
       </c>
       <c r="E659" t="inlineStr">
         <is>
@@ -16913,7 +16913,7 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>01/12/1998</t>
+          <t>01/12/1997</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
@@ -16927,7 +16927,7 @@
         </is>
       </c>
       <c r="D660" t="n">
-        <v>146112.5752</v>
+        <v>23230</v>
       </c>
       <c r="E660" t="inlineStr">
         <is>
@@ -16938,7 +16938,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>01/02/1998</t>
+          <t>01/02/1997</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
@@ -16952,7 +16952,7 @@
         </is>
       </c>
       <c r="D661" t="n">
-        <v>119550.6551</v>
+        <v>19007</v>
       </c>
       <c r="E661" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>01/01/1998</t>
+          <t>01/01/1997</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
@@ -16977,7 +16977,7 @@
         </is>
       </c>
       <c r="D662" t="n">
-        <v>119368.2502</v>
+        <v>18978</v>
       </c>
       <c r="E662" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>01/07/1998</t>
+          <t>01/07/1997</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
@@ -17002,7 +17002,7 @@
         </is>
       </c>
       <c r="D663" t="n">
-        <v>146125.1549</v>
+        <v>23232</v>
       </c>
       <c r="E663" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>01/06/1998</t>
+          <t>01/06/1997</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
@@ -17027,7 +17027,7 @@
         </is>
       </c>
       <c r="D664" t="n">
-        <v>141200.2239</v>
+        <v>22449</v>
       </c>
       <c r="E664" t="inlineStr">
         <is>
@@ -17038,7 +17038,7 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>01/05/1998</t>
+          <t>01/05/1997</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
@@ -17052,7 +17052,7 @@
         </is>
       </c>
       <c r="D665" t="n">
-        <v>155717.1341</v>
+        <v>24757</v>
       </c>
       <c r="E665" t="inlineStr">
         <is>
@@ -17063,7 +17063,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>01/03/1998</t>
+          <t>01/03/1997</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
@@ -17077,7 +17077,7 @@
         </is>
       </c>
       <c r="D666" t="n">
-        <v>124582.513</v>
+        <v>19807</v>
       </c>
       <c r="E666" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>01/11/1998</t>
+          <t>01/11/1997</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
@@ -17102,7 +17102,7 @@
         </is>
       </c>
       <c r="D667" t="n">
-        <v>138545.9188</v>
+        <v>22027</v>
       </c>
       <c r="E667" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>01/10/1998</t>
+          <t>01/10/1997</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D668" t="n">
-        <v>137684.2132</v>
+        <v>21890</v>
       </c>
       <c r="E668" t="inlineStr">
         <is>
@@ -17138,7 +17138,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>01/09/1998</t>
+          <t>01/09/1997</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
@@ -17152,7 +17152,7 @@
         </is>
       </c>
       <c r="D669" t="n">
-        <v>143087.1706</v>
+        <v>22749</v>
       </c>
       <c r="E669" t="inlineStr">
         <is>
@@ -17163,7 +17163,7 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>01/04/1999</t>
+          <t>01/04/1998</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
@@ -17177,7 +17177,7 @@
         </is>
       </c>
       <c r="D670" t="n">
-        <v>24546</v>
+        <v>131778.0699</v>
       </c>
       <c r="E670" t="inlineStr">
         <is>
@@ -17188,7 +17188,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>01/08/1999</t>
+          <t>01/08/1998</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
@@ -17202,7 +17202,7 @@
         </is>
       </c>
       <c r="D671" t="n">
-        <v>23247</v>
+        <v>155346.0346</v>
       </c>
       <c r="E671" t="inlineStr">
         <is>
@@ -17213,7 +17213,7 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>01/12/1999</t>
+          <t>01/12/1998</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="D672" t="n">
-        <v>24640</v>
+        <v>146112.5752</v>
       </c>
       <c r="E672" t="inlineStr">
         <is>
@@ -17238,7 +17238,7 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>01/02/1999</t>
+          <t>01/02/1998</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
@@ -17252,7 +17252,7 @@
         </is>
       </c>
       <c r="D673" t="n">
-        <v>22448</v>
+        <v>119550.6551</v>
       </c>
       <c r="E673" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>01/01/1999</t>
+          <t>01/01/1998</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
@@ -17277,7 +17277,7 @@
         </is>
       </c>
       <c r="D674" t="n">
-        <v>24629</v>
+        <v>119368.2502</v>
       </c>
       <c r="E674" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>01/07/1999</t>
+          <t>01/07/1998</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
@@ -17302,7 +17302,7 @@
         </is>
       </c>
       <c r="D675" t="n">
-        <v>22323</v>
+        <v>146125.1549</v>
       </c>
       <c r="E675" t="inlineStr">
         <is>
@@ -17313,7 +17313,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>01/06/1999</t>
+          <t>01/06/1998</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
@@ -17327,7 +17327,7 @@
         </is>
       </c>
       <c r="D676" t="n">
-        <v>24653</v>
+        <v>141200.2239</v>
       </c>
       <c r="E676" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>01/05/1999</t>
+          <t>01/05/1998</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
@@ -17352,7 +17352,7 @@
         </is>
       </c>
       <c r="D677" t="n">
-        <v>25678</v>
+        <v>155717.1341</v>
       </c>
       <c r="E677" t="inlineStr">
         <is>
@@ -17363,7 +17363,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>01/03/1999</t>
+          <t>01/03/1998</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
@@ -17377,7 +17377,7 @@
         </is>
       </c>
       <c r="D678" t="n">
-        <v>25737</v>
+        <v>124582.513</v>
       </c>
       <c r="E678" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>01/11/1999</t>
+          <t>01/11/1998</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
@@ -17402,7 +17402,7 @@
         </is>
       </c>
       <c r="D679" t="n">
-        <v>25481</v>
+        <v>138545.9188</v>
       </c>
       <c r="E679" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>01/10/1999</t>
+          <t>01/10/1998</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
@@ -17427,7 +17427,7 @@
         </is>
       </c>
       <c r="D680" t="n">
-        <v>25601</v>
+        <v>137684.2132</v>
       </c>
       <c r="E680" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>01/09/1999</t>
+          <t>01/09/1998</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
@@ -17452,7 +17452,7 @@
         </is>
       </c>
       <c r="D681" t="n">
-        <v>24686</v>
+        <v>143087.1706</v>
       </c>
       <c r="E681" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>01/04/2000</t>
+          <t>01/04/1999</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
@@ -17477,7 +17477,7 @@
         </is>
       </c>
       <c r="D682" t="n">
-        <v>25440</v>
+        <v>24546</v>
       </c>
       <c r="E682" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>01/08/2000</t>
+          <t>01/08/1999</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
@@ -17502,7 +17502,7 @@
         </is>
       </c>
       <c r="D683" t="n">
-        <v>27353</v>
+        <v>23247</v>
       </c>
       <c r="E683" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>01/12/2000</t>
+          <t>01/12/1999</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D684" t="n">
-        <v>26071</v>
+        <v>24640</v>
       </c>
       <c r="E684" t="inlineStr">
         <is>
@@ -17538,7 +17538,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>01/02/2000</t>
+          <t>01/02/1999</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
@@ -17552,7 +17552,7 @@
         </is>
       </c>
       <c r="D685" t="n">
-        <v>25123</v>
+        <v>22448</v>
       </c>
       <c r="E685" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>01/01/2000</t>
+          <t>01/01/1999</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
@@ -17577,7 +17577,7 @@
         </is>
       </c>
       <c r="D686" t="n">
-        <v>26480</v>
+        <v>24629</v>
       </c>
       <c r="E686" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>01/07/2000</t>
+          <t>01/07/1999</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
@@ -17602,7 +17602,7 @@
         </is>
       </c>
       <c r="D687" t="n">
-        <v>26914</v>
+        <v>22323</v>
       </c>
       <c r="E687" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>01/06/2000</t>
+          <t>01/06/1999</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
@@ -17627,7 +17627,7 @@
         </is>
       </c>
       <c r="D688" t="n">
-        <v>26044</v>
+        <v>24653</v>
       </c>
       <c r="E688" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>01/05/2000</t>
+          <t>01/05/1999</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
@@ -17652,7 +17652,7 @@
         </is>
       </c>
       <c r="D689" t="n">
-        <v>26406</v>
+        <v>25678</v>
       </c>
       <c r="E689" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>01/03/2000</t>
+          <t>01/03/1999</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
@@ -17677,7 +17677,7 @@
         </is>
       </c>
       <c r="D690" t="n">
-        <v>26572</v>
+        <v>25737</v>
       </c>
       <c r="E690" t="inlineStr">
         <is>
@@ -17688,7 +17688,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>01/11/2000</t>
+          <t>01/11/1999</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
@@ -17702,7 +17702,7 @@
         </is>
       </c>
       <c r="D691" t="n">
-        <v>13928</v>
+        <v>25481</v>
       </c>
       <c r="E691" t="inlineStr">
         <is>
@@ -17713,7 +17713,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>01/10/2000</t>
+          <t>01/10/1999</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
@@ -17727,7 +17727,7 @@
         </is>
       </c>
       <c r="D692" t="n">
-        <v>26965</v>
+        <v>25601</v>
       </c>
       <c r="E692" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>01/09/2000</t>
+          <t>01/09/1999</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
@@ -17752,7 +17752,7 @@
         </is>
       </c>
       <c r="D693" t="n">
-        <v>26129</v>
+        <v>24686</v>
       </c>
       <c r="E693" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>01/04/2001</t>
+          <t>01/04/2000</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
@@ -17777,7 +17777,7 @@
         </is>
       </c>
       <c r="D694" t="n">
-        <v>18378</v>
+        <v>25440</v>
       </c>
       <c r="E694" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>01/08/2001</t>
+          <t>01/08/2000</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
@@ -17802,7 +17802,7 @@
         </is>
       </c>
       <c r="D695" t="n">
-        <v>26465</v>
+        <v>27353</v>
       </c>
       <c r="E695" t="inlineStr">
         <is>
@@ -17813,7 +17813,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>01/12/2001</t>
+          <t>01/12/2000</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
@@ -17827,7 +17827,7 @@
         </is>
       </c>
       <c r="D696" t="n">
-        <v>26876</v>
+        <v>26071</v>
       </c>
       <c r="E696" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>01/02/2001</t>
+          <t>01/02/2000</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
@@ -17852,7 +17852,7 @@
         </is>
       </c>
       <c r="D697" t="n">
-        <v>23797</v>
+        <v>25123</v>
       </c>
       <c r="E697" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>01/01/2001</t>
+          <t>01/01/2000</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
@@ -17877,7 +17877,7 @@
         </is>
       </c>
       <c r="D698" t="n">
-        <v>26536</v>
+        <v>26480</v>
       </c>
       <c r="E698" t="inlineStr">
         <is>
@@ -17888,7 +17888,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>01/07/2001</t>
+          <t>01/07/2000</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
@@ -17902,7 +17902,7 @@
         </is>
       </c>
       <c r="D699" t="n">
-        <v>27236</v>
+        <v>26914</v>
       </c>
       <c r="E699" t="inlineStr">
         <is>
@@ -17913,7 +17913,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>01/06/2001</t>
+          <t>01/06/2000</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D700" t="n">
-        <v>25806</v>
+        <v>26044</v>
       </c>
       <c r="E700" t="inlineStr">
         <is>
@@ -17938,7 +17938,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>01/05/2001</t>
+          <t>01/05/2000</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
@@ -17952,7 +17952,7 @@
         </is>
       </c>
       <c r="D701" t="n">
-        <v>22691</v>
+        <v>26406</v>
       </c>
       <c r="E701" t="inlineStr">
         <is>
@@ -17963,7 +17963,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>01/03/2001</t>
+          <t>01/03/2000</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
@@ -17977,7 +17977,7 @@
         </is>
       </c>
       <c r="D702" t="n">
-        <v>25605</v>
+        <v>26572</v>
       </c>
       <c r="E702" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>01/11/2001</t>
+          <t>01/11/2000</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
@@ -18002,7 +18002,7 @@
         </is>
       </c>
       <c r="D703" t="n">
-        <v>25852</v>
+        <v>13928</v>
       </c>
       <c r="E703" t="inlineStr">
         <is>
@@ -18013,7 +18013,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>01/10/2001</t>
+          <t>01/10/2000</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
@@ -18027,7 +18027,7 @@
         </is>
       </c>
       <c r="D704" t="n">
-        <v>26322</v>
+        <v>26965</v>
       </c>
       <c r="E704" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>01/09/2001</t>
+          <t>01/09/2000</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
@@ -18052,7 +18052,7 @@
         </is>
       </c>
       <c r="D705" t="n">
-        <v>23625</v>
+        <v>26129</v>
       </c>
       <c r="E705" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>01/04/2002</t>
+          <t>01/04/2001</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
@@ -18077,7 +18077,7 @@
         </is>
       </c>
       <c r="D706" t="n">
-        <v>23065</v>
+        <v>18378</v>
       </c>
       <c r="E706" t="inlineStr">
         <is>
@@ -18088,7 +18088,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>01/08/2002</t>
+          <t>01/08/2001</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
@@ -18102,7 +18102,7 @@
         </is>
       </c>
       <c r="D707" t="n">
-        <v>25580</v>
+        <v>26465</v>
       </c>
       <c r="E707" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>01/12/2002</t>
+          <t>01/12/2001</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
@@ -18127,7 +18127,7 @@
         </is>
       </c>
       <c r="D708" t="n">
-        <v>24957</v>
+        <v>26876</v>
       </c>
       <c r="E708" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>01/02/2002</t>
+          <t>01/02/2001</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
@@ -18152,7 +18152,7 @@
         </is>
       </c>
       <c r="D709" t="n">
-        <v>24096</v>
+        <v>23797</v>
       </c>
       <c r="E709" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>01/01/2002</t>
+          <t>01/01/2001</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
@@ -18177,7 +18177,7 @@
         </is>
       </c>
       <c r="D710" t="n">
-        <v>27239</v>
+        <v>26536</v>
       </c>
       <c r="E710" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>01/07/2002</t>
+          <t>01/07/2001</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
@@ -18202,7 +18202,7 @@
         </is>
       </c>
       <c r="D711" t="n">
-        <v>25911</v>
+        <v>27236</v>
       </c>
       <c r="E711" t="inlineStr">
         <is>
@@ -18213,7 +18213,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>01/06/2002</t>
+          <t>01/06/2001</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
@@ -18227,7 +18227,7 @@
         </is>
       </c>
       <c r="D712" t="n">
-        <v>24854</v>
+        <v>25806</v>
       </c>
       <c r="E712" t="inlineStr">
         <is>
@@ -18238,7 +18238,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>01/05/2002</t>
+          <t>01/05/2001</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
@@ -18252,7 +18252,7 @@
         </is>
       </c>
       <c r="D713" t="n">
-        <v>24983</v>
+        <v>22691</v>
       </c>
       <c r="E713" t="inlineStr">
         <is>
@@ -18263,7 +18263,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>01/03/2002</t>
+          <t>01/03/2001</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
@@ -18277,7 +18277,7 @@
         </is>
       </c>
       <c r="D714" t="n">
-        <v>25381</v>
+        <v>25605</v>
       </c>
       <c r="E714" t="inlineStr">
         <is>
@@ -18288,7 +18288,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>01/11/2002</t>
+          <t>01/11/2001</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
@@ -18302,7 +18302,7 @@
         </is>
       </c>
       <c r="D715" t="n">
-        <v>24648</v>
+        <v>25852</v>
       </c>
       <c r="E715" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>01/10/2002</t>
+          <t>01/10/2001</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D716" t="n">
-        <v>24992</v>
+        <v>26322</v>
       </c>
       <c r="E716" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>01/09/2002</t>
+          <t>01/09/2001</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
@@ -18352,7 +18352,7 @@
         </is>
       </c>
       <c r="D717" t="n">
-        <v>24400</v>
+        <v>23625</v>
       </c>
       <c r="E717" t="inlineStr">
         <is>
@@ -18363,7 +18363,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>01/04/2003</t>
+          <t>01/04/2002</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
@@ -18377,7 +18377,7 @@
         </is>
       </c>
       <c r="D718" t="n">
-        <v>20841</v>
+        <v>23065</v>
       </c>
       <c r="E718" t="inlineStr">
         <is>
@@ -18388,7 +18388,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>01/08/2003</t>
+          <t>01/08/2002</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
@@ -18402,7 +18402,7 @@
         </is>
       </c>
       <c r="D719" t="n">
-        <v>25463</v>
+        <v>25580</v>
       </c>
       <c r="E719" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>01/12/2003</t>
+          <t>01/12/2002</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
@@ -18427,7 +18427,7 @@
         </is>
       </c>
       <c r="D720" t="n">
-        <v>24965</v>
+        <v>24957</v>
       </c>
       <c r="E720" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>01/02/2003</t>
+          <t>01/02/2002</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
@@ -18452,7 +18452,7 @@
         </is>
       </c>
       <c r="D721" t="n">
-        <v>20388</v>
+        <v>24096</v>
       </c>
       <c r="E721" t="inlineStr">
         <is>
@@ -18463,7 +18463,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>01/01/2003</t>
+          <t>01/01/2002</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D722" t="n">
-        <v>24971</v>
+        <v>27239</v>
       </c>
       <c r="E722" t="inlineStr">
         <is>
@@ -18488,7 +18488,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>01/07/2003</t>
+          <t>01/07/2002</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
@@ -18502,7 +18502,7 @@
         </is>
       </c>
       <c r="D723" t="n">
-        <v>23560</v>
+        <v>25911</v>
       </c>
       <c r="E723" t="inlineStr">
         <is>
@@ -18513,7 +18513,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>01/06/2003</t>
+          <t>01/06/2002</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
@@ -18527,7 +18527,7 @@
         </is>
       </c>
       <c r="D724" t="n">
-        <v>22761</v>
+        <v>24854</v>
       </c>
       <c r="E724" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>01/05/2003</t>
+          <t>01/05/2002</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
@@ -18552,7 +18552,7 @@
         </is>
       </c>
       <c r="D725" t="n">
-        <v>23510</v>
+        <v>24983</v>
       </c>
       <c r="E725" t="inlineStr">
         <is>
@@ -18563,7 +18563,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>01/03/2003</t>
+          <t>01/03/2002</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
@@ -18577,7 +18577,7 @@
         </is>
       </c>
       <c r="D726" t="n">
-        <v>25907</v>
+        <v>25381</v>
       </c>
       <c r="E726" t="inlineStr">
         <is>
@@ -18588,7 +18588,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>01/11/2003</t>
+          <t>01/11/2002</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
@@ -18602,7 +18602,7 @@
         </is>
       </c>
       <c r="D727" t="n">
-        <v>24041</v>
+        <v>24648</v>
       </c>
       <c r="E727" t="inlineStr">
         <is>
@@ -18613,7 +18613,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>01/10/2003</t>
+          <t>01/10/2002</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
@@ -18627,7 +18627,7 @@
         </is>
       </c>
       <c r="D728" t="n">
-        <v>24023</v>
+        <v>24992</v>
       </c>
       <c r="E728" t="inlineStr">
         <is>
@@ -18638,7 +18638,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>01/09/2003</t>
+          <t>01/09/2002</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
@@ -18652,7 +18652,7 @@
         </is>
       </c>
       <c r="D729" t="n">
-        <v>24294</v>
+        <v>24400</v>
       </c>
       <c r="E729" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>01/04/2004</t>
+          <t>01/04/2003</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
@@ -18677,7 +18677,7 @@
         </is>
       </c>
       <c r="D730" t="n">
-        <v>24411</v>
+        <v>20841</v>
       </c>
       <c r="E730" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>01/08/2004</t>
+          <t>01/08/2003</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
@@ -18702,7 +18702,7 @@
         </is>
       </c>
       <c r="D731" t="n">
-        <v>25873</v>
+        <v>25463</v>
       </c>
       <c r="E731" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>01/12/2004</t>
+          <t>01/12/2003</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D732" t="n">
-        <v>25343</v>
+        <v>24965</v>
       </c>
       <c r="E732" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>01/02/2004</t>
+          <t>01/02/2003</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
@@ -18752,7 +18752,7 @@
         </is>
       </c>
       <c r="D733" t="n">
-        <v>23497</v>
+        <v>20388</v>
       </c>
       <c r="E733" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>01/01/2004</t>
+          <t>01/01/2003</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
@@ -18777,7 +18777,7 @@
         </is>
       </c>
       <c r="D734" t="n">
-        <v>23975</v>
+        <v>24971</v>
       </c>
       <c r="E734" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>01/07/2003</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
@@ -18802,7 +18802,7 @@
         </is>
       </c>
       <c r="D735" t="n">
-        <v>24979</v>
+        <v>23560</v>
       </c>
       <c r="E735" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>01/06/2004</t>
+          <t>01/06/2003</t>
         </is>
       </c>
       <c r="B736" t="inlineStr">
@@ -18827,7 +18827,7 @@
         </is>
       </c>
       <c r="D736" t="n">
-        <v>23413</v>
+        <v>22761</v>
       </c>
       <c r="E736" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>01/05/2004</t>
+          <t>01/05/2003</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
@@ -18852,7 +18852,7 @@
         </is>
       </c>
       <c r="D737" t="n">
-        <v>21313</v>
+        <v>23510</v>
       </c>
       <c r="E737" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>01/03/2004</t>
+          <t>01/03/2003</t>
         </is>
       </c>
       <c r="B738" t="inlineStr">
@@ -18877,7 +18877,7 @@
         </is>
       </c>
       <c r="D738" t="n">
-        <v>25118</v>
+        <v>25907</v>
       </c>
       <c r="E738" t="inlineStr">
         <is>
@@ -18888,7 +18888,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>01/11/2004</t>
+          <t>01/11/2003</t>
         </is>
       </c>
       <c r="B739" t="inlineStr">
@@ -18902,7 +18902,7 @@
         </is>
       </c>
       <c r="D739" t="n">
-        <v>24463</v>
+        <v>24041</v>
       </c>
       <c r="E739" t="inlineStr">
         <is>
@@ -18913,7 +18913,7 @@
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>01/10/2004</t>
+          <t>01/10/2003</t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
@@ -18927,7 +18927,7 @@
         </is>
       </c>
       <c r="D740" t="n">
-        <v>25566</v>
+        <v>24023</v>
       </c>
       <c r="E740" t="inlineStr">
         <is>
@@ -18938,7 +18938,7 @@
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>01/09/2004</t>
+          <t>01/09/2003</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
@@ -18952,7 +18952,7 @@
         </is>
       </c>
       <c r="D741" t="n">
-        <v>24720</v>
+        <v>24294</v>
       </c>
       <c r="E741" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>01/04/2005</t>
+          <t>01/04/2004</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
@@ -18977,7 +18977,7 @@
         </is>
       </c>
       <c r="D742" t="n">
-        <v>23924</v>
+        <v>24411</v>
       </c>
       <c r="E742" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>01/08/2005</t>
+          <t>01/08/2004</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
@@ -19002,7 +19002,7 @@
         </is>
       </c>
       <c r="D743" t="n">
-        <v>25213</v>
+        <v>25873</v>
       </c>
       <c r="E743" t="inlineStr">
         <is>
@@ -19013,7 +19013,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>01/12/2005</t>
+          <t>01/12/2004</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="D744" t="n">
-        <v>24602</v>
+        <v>25343</v>
       </c>
       <c r="E744" t="inlineStr">
         <is>
@@ -19038,7 +19038,7 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>01/02/2005</t>
+          <t>01/02/2004</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
@@ -19052,7 +19052,7 @@
         </is>
       </c>
       <c r="D745" t="n">
-        <v>22710</v>
+        <v>23497</v>
       </c>
       <c r="E745" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>01/01/2005</t>
+          <t>01/01/2004</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
@@ -19077,7 +19077,7 @@
         </is>
       </c>
       <c r="D746" t="n">
-        <v>24972</v>
+        <v>23975</v>
       </c>
       <c r="E746" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>01/07/2005</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
@@ -19102,7 +19102,7 @@
         </is>
       </c>
       <c r="D747" t="n">
-        <v>25582</v>
+        <v>24979</v>
       </c>
       <c r="E747" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>01/06/2005</t>
+          <t>01/06/2004</t>
         </is>
       </c>
       <c r="B748" t="inlineStr">
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D748" t="n">
-        <v>24359</v>
+        <v>23413</v>
       </c>
       <c r="E748" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>01/05/2005</t>
+          <t>01/05/2004</t>
         </is>
       </c>
       <c r="B749" t="inlineStr">
@@ -19152,7 +19152,7 @@
         </is>
       </c>
       <c r="D749" t="n">
-        <v>24053</v>
+        <v>21313</v>
       </c>
       <c r="E749" t="inlineStr">
         <is>
@@ -19163,7 +19163,7 @@
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>01/03/2005</t>
+          <t>01/03/2004</t>
         </is>
       </c>
       <c r="B750" t="inlineStr">
@@ -19177,7 +19177,7 @@
         </is>
       </c>
       <c r="D750" t="n">
-        <v>24836</v>
+        <v>25118</v>
       </c>
       <c r="E750" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>01/11/2005</t>
+          <t>01/11/2004</t>
         </is>
       </c>
       <c r="B751" t="inlineStr">
@@ -19202,7 +19202,7 @@
         </is>
       </c>
       <c r="D751" t="n">
-        <v>24169</v>
+        <v>24463</v>
       </c>
       <c r="E751" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>01/10/2005</t>
+          <t>01/10/2004</t>
         </is>
       </c>
       <c r="B752" t="inlineStr">
@@ -19227,7 +19227,7 @@
         </is>
       </c>
       <c r="D752" t="n">
-        <v>26281</v>
+        <v>25566</v>
       </c>
       <c r="E752" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>01/09/2005</t>
+          <t>01/09/2004</t>
         </is>
       </c>
       <c r="B753" t="inlineStr">
@@ -19252,7 +19252,7 @@
         </is>
       </c>
       <c r="D753" t="n">
-        <v>24180</v>
+        <v>24720</v>
       </c>
       <c r="E753" t="inlineStr">
         <is>
@@ -19263,7 +19263,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>01/04/2006</t>
+          <t>01/04/2005</t>
         </is>
       </c>
       <c r="B754" t="inlineStr">
@@ -19277,7 +19277,7 @@
         </is>
       </c>
       <c r="D754" t="n">
-        <v>24527</v>
+        <v>23924</v>
       </c>
       <c r="E754" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>01/08/2006</t>
+          <t>01/08/2005</t>
         </is>
       </c>
       <c r="B755" t="inlineStr">
@@ -19302,7 +19302,7 @@
         </is>
       </c>
       <c r="D755" t="n">
-        <v>25491</v>
+        <v>25213</v>
       </c>
       <c r="E755" t="inlineStr">
         <is>
@@ -19313,7 +19313,7 @@
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>01/12/2006</t>
+          <t>01/12/2005</t>
         </is>
       </c>
       <c r="B756" t="inlineStr">
@@ -19327,7 +19327,7 @@
         </is>
       </c>
       <c r="D756" t="n">
-        <v>25271</v>
+        <v>24602</v>
       </c>
       <c r="E756" t="inlineStr">
         <is>
@@ -19338,7 +19338,7 @@
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>01/02/2006</t>
+          <t>01/02/2005</t>
         </is>
       </c>
       <c r="B757" t="inlineStr">
@@ -19352,7 +19352,7 @@
         </is>
       </c>
       <c r="D757" t="n">
-        <v>23056</v>
+        <v>22710</v>
       </c>
       <c r="E757" t="inlineStr">
         <is>
@@ -19363,7 +19363,7 @@
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>01/01/2006</t>
+          <t>01/01/2005</t>
         </is>
       </c>
       <c r="B758" t="inlineStr">
@@ -19377,7 +19377,7 @@
         </is>
       </c>
       <c r="D758" t="n">
-        <v>24843</v>
+        <v>24972</v>
       </c>
       <c r="E758" t="inlineStr">
         <is>
@@ -19388,7 +19388,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>01/07/2006</t>
+          <t>01/07/2005</t>
         </is>
       </c>
       <c r="B759" t="inlineStr">
@@ -19402,7 +19402,7 @@
         </is>
       </c>
       <c r="D759" t="n">
-        <v>25344</v>
+        <v>25582</v>
       </c>
       <c r="E759" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>01/06/2006</t>
+          <t>01/06/2005</t>
         </is>
       </c>
       <c r="B760" t="inlineStr">
@@ -19427,7 +19427,7 @@
         </is>
       </c>
       <c r="D760" t="n">
-        <v>25090</v>
+        <v>24359</v>
       </c>
       <c r="E760" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>01/05/2006</t>
+          <t>01/05/2005</t>
         </is>
       </c>
       <c r="B761" t="inlineStr">
@@ -19452,7 +19452,7 @@
         </is>
       </c>
       <c r="D761" t="n">
-        <v>25719</v>
+        <v>24053</v>
       </c>
       <c r="E761" t="inlineStr">
         <is>
@@ -19463,7 +19463,7 @@
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>01/03/2006</t>
+          <t>01/03/2005</t>
         </is>
       </c>
       <c r="B762" t="inlineStr">
@@ -19477,7 +19477,7 @@
         </is>
       </c>
       <c r="D762" t="n">
-        <v>11740</v>
+        <v>24836</v>
       </c>
       <c r="E762" t="inlineStr">
         <is>
@@ -19488,7 +19488,7 @@
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>01/11/2006</t>
+          <t>01/11/2005</t>
         </is>
       </c>
       <c r="B763" t="inlineStr">
@@ -19502,7 +19502,7 @@
         </is>
       </c>
       <c r="D763" t="n">
-        <v>23278</v>
+        <v>24169</v>
       </c>
       <c r="E763" t="inlineStr">
         <is>
@@ -19513,7 +19513,7 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>01/10/2006</t>
+          <t>01/10/2005</t>
         </is>
       </c>
       <c r="B764" t="inlineStr">
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D764" t="n">
-        <v>23622</v>
+        <v>26281</v>
       </c>
       <c r="E764" t="inlineStr">
         <is>
@@ -19538,7 +19538,7 @@
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>01/09/2006</t>
+          <t>01/09/2005</t>
         </is>
       </c>
       <c r="B765" t="inlineStr">
@@ -19552,7 +19552,7 @@
         </is>
       </c>
       <c r="D765" t="n">
-        <v>24562</v>
+        <v>24180</v>
       </c>
       <c r="E765" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>01/04/2007</t>
+          <t>01/04/2006</t>
         </is>
       </c>
       <c r="B766" t="inlineStr">
@@ -19577,7 +19577,7 @@
         </is>
       </c>
       <c r="D766" t="n">
-        <v>21384</v>
+        <v>24527</v>
       </c>
       <c r="E766" t="inlineStr">
         <is>
@@ -19588,7 +19588,7 @@
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>01/08/2007</t>
+          <t>01/08/2006</t>
         </is>
       </c>
       <c r="B767" t="inlineStr">
@@ -19602,7 +19602,7 @@
         </is>
       </c>
       <c r="D767" t="n">
-        <v>23805</v>
+        <v>25491</v>
       </c>
       <c r="E767" t="inlineStr">
         <is>
@@ -19613,7 +19613,7 @@
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>01/12/2007</t>
+          <t>01/12/2006</t>
         </is>
       </c>
       <c r="B768" t="inlineStr">
@@ -19627,7 +19627,7 @@
         </is>
       </c>
       <c r="D768" t="n">
-        <v>22898</v>
+        <v>25271</v>
       </c>
       <c r="E768" t="inlineStr">
         <is>
@@ -19638,7 +19638,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>01/02/2007</t>
+          <t>01/02/2006</t>
         </is>
       </c>
       <c r="B769" t="inlineStr">
@@ -19652,7 +19652,7 @@
         </is>
       </c>
       <c r="D769" t="n">
-        <v>21968</v>
+        <v>23056</v>
       </c>
       <c r="E769" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>01/01/2007</t>
+          <t>01/01/2006</t>
         </is>
       </c>
       <c r="B770" t="inlineStr">
@@ -19677,7 +19677,7 @@
         </is>
       </c>
       <c r="D770" t="n">
-        <v>25496</v>
+        <v>24843</v>
       </c>
       <c r="E770" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>01/07/2007</t>
+          <t>01/07/2006</t>
         </is>
       </c>
       <c r="B771" t="inlineStr">
@@ -19702,7 +19702,7 @@
         </is>
       </c>
       <c r="D771" t="n">
-        <v>23875</v>
+        <v>25344</v>
       </c>
       <c r="E771" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>01/06/2007</t>
+          <t>01/06/2006</t>
         </is>
       </c>
       <c r="B772" t="inlineStr">
@@ -19727,7 +19727,7 @@
         </is>
       </c>
       <c r="D772" t="n">
-        <v>22080</v>
+        <v>25090</v>
       </c>
       <c r="E772" t="inlineStr">
         <is>
@@ -19738,7 +19738,7 @@
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>01/05/2007</t>
+          <t>01/05/2006</t>
         </is>
       </c>
       <c r="B773" t="inlineStr">
@@ -19752,7 +19752,7 @@
         </is>
       </c>
       <c r="D773" t="n">
-        <v>18737</v>
+        <v>25719</v>
       </c>
       <c r="E773" t="inlineStr">
         <is>
@@ -19763,7 +19763,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>01/03/2007</t>
+          <t>01/03/2006</t>
         </is>
       </c>
       <c r="B774" t="inlineStr">
@@ -19777,7 +19777,7 @@
         </is>
       </c>
       <c r="D774" t="n">
-        <v>24212</v>
+        <v>11740</v>
       </c>
       <c r="E774" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>01/11/2007</t>
+          <t>01/11/2006</t>
         </is>
       </c>
       <c r="B775" t="inlineStr">
@@ -19802,7 +19802,7 @@
         </is>
       </c>
       <c r="D775" t="n">
-        <v>22033</v>
+        <v>23278</v>
       </c>
       <c r="E775" t="inlineStr">
         <is>
@@ -19813,7 +19813,7 @@
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>01/10/2007</t>
+          <t>01/10/2006</t>
         </is>
       </c>
       <c r="B776" t="inlineStr">
@@ -19827,7 +19827,7 @@
         </is>
       </c>
       <c r="D776" t="n">
-        <v>23866</v>
+        <v>23622</v>
       </c>
       <c r="E776" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>01/09/2007</t>
+          <t>01/09/2006</t>
         </is>
       </c>
       <c r="B777" t="inlineStr">
@@ -19852,7 +19852,7 @@
         </is>
       </c>
       <c r="D777" t="n">
-        <v>24017</v>
+        <v>24562</v>
       </c>
       <c r="E777" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>01/04/2008</t>
+          <t>01/04/2007</t>
         </is>
       </c>
       <c r="B778" t="inlineStr">
@@ -19877,7 +19877,7 @@
         </is>
       </c>
       <c r="D778" t="n">
-        <v>22341</v>
+        <v>21384</v>
       </c>
       <c r="E778" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>01/08/2008</t>
+          <t>01/08/2007</t>
         </is>
       </c>
       <c r="B779" t="inlineStr">
@@ -19902,7 +19902,7 @@
         </is>
       </c>
       <c r="D779" t="n">
-        <v>23413.9993</v>
+        <v>23805</v>
       </c>
       <c r="E779" t="inlineStr">
         <is>
@@ -19913,7 +19913,7 @@
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>01/12/2008</t>
+          <t>01/12/2007</t>
         </is>
       </c>
       <c r="B780" t="inlineStr">
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D780" t="n">
-        <v>21243.0011</v>
+        <v>22898</v>
       </c>
       <c r="E780" t="inlineStr">
         <is>
@@ -19938,7 +19938,7 @@
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>01/02/2008</t>
+          <t>01/02/2007</t>
         </is>
       </c>
       <c r="B781" t="inlineStr">
@@ -19952,7 +19952,7 @@
         </is>
       </c>
       <c r="D781" t="n">
-        <v>20461</v>
+        <v>21968</v>
       </c>
       <c r="E781" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>01/01/2008</t>
+          <t>01/01/2007</t>
         </is>
       </c>
       <c r="B782" t="inlineStr">
@@ -19977,7 +19977,7 @@
         </is>
       </c>
       <c r="D782" t="n">
-        <v>22454</v>
+        <v>25496</v>
       </c>
       <c r="E782" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>01/07/2008</t>
+          <t>01/07/2007</t>
         </is>
       </c>
       <c r="B783" t="inlineStr">
@@ -20002,7 +20002,7 @@
         </is>
       </c>
       <c r="D783" t="n">
-        <v>22084.0001</v>
+        <v>23875</v>
       </c>
       <c r="E783" t="inlineStr">
         <is>
@@ -20013,7 +20013,7 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>01/06/2008</t>
+          <t>01/06/2007</t>
         </is>
       </c>
       <c r="B784" t="inlineStr">
@@ -20027,7 +20027,7 @@
         </is>
       </c>
       <c r="D784" t="n">
-        <v>21446.001</v>
+        <v>22080</v>
       </c>
       <c r="E784" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>01/05/2008</t>
+          <t>01/05/2007</t>
         </is>
       </c>
       <c r="B785" t="inlineStr">
@@ -20052,7 +20052,7 @@
         </is>
       </c>
       <c r="D785" t="n">
-        <v>22333</v>
+        <v>18737</v>
       </c>
       <c r="E785" t="inlineStr">
         <is>
@@ -20063,7 +20063,7 @@
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>01/03/2008</t>
+          <t>01/03/2007</t>
         </is>
       </c>
       <c r="B786" t="inlineStr">
@@ -20077,7 +20077,7 @@
         </is>
       </c>
       <c r="D786" t="n">
-        <v>22425</v>
+        <v>24212</v>
       </c>
       <c r="E786" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>01/11/2008</t>
+          <t>01/11/2007</t>
         </is>
       </c>
       <c r="B787" t="inlineStr">
@@ -20102,7 +20102,7 @@
         </is>
       </c>
       <c r="D787" t="n">
-        <v>20454</v>
+        <v>22033</v>
       </c>
       <c r="E787" t="inlineStr">
         <is>
@@ -20113,7 +20113,7 @@
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>01/10/2007</t>
         </is>
       </c>
       <c r="B788" t="inlineStr">
@@ -20127,7 +20127,7 @@
         </is>
       </c>
       <c r="D788" t="n">
-        <v>19738.9989</v>
+        <v>23866</v>
       </c>
       <c r="E788" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>01/09/2008</t>
+          <t>01/09/2007</t>
         </is>
       </c>
       <c r="B789" t="inlineStr">
@@ -20152,7 +20152,7 @@
         </is>
       </c>
       <c r="D789" t="n">
-        <v>21581.001</v>
+        <v>24017</v>
       </c>
       <c r="E789" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>01/04/2009</t>
+          <t>01/04/2008</t>
         </is>
       </c>
       <c r="B790" t="inlineStr">
@@ -20177,7 +20177,7 @@
         </is>
       </c>
       <c r="D790" t="n">
-        <v>20352.999</v>
+        <v>22341</v>
       </c>
       <c r="E790" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>01/08/2009</t>
+          <t>01/08/2008</t>
         </is>
       </c>
       <c r="B791" t="inlineStr">
@@ -20202,7 +20202,7 @@
         </is>
       </c>
       <c r="D791" t="n">
-        <v>19636.0014</v>
+        <v>23413.9993</v>
       </c>
       <c r="E791" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>01/12/2009</t>
+          <t>01/12/2008</t>
         </is>
       </c>
       <c r="B792" t="inlineStr">
@@ -20227,7 +20227,7 @@
         </is>
       </c>
       <c r="D792" t="n">
-        <v>20058.9995</v>
+        <v>21243.0011</v>
       </c>
       <c r="E792" t="inlineStr">
         <is>
@@ -20238,7 +20238,7 @@
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>01/02/2009</t>
+          <t>01/02/2008</t>
         </is>
       </c>
       <c r="B793" t="inlineStr">
@@ -20252,7 +20252,7 @@
         </is>
       </c>
       <c r="D793" t="n">
-        <v>18858.9996</v>
+        <v>20461</v>
       </c>
       <c r="E793" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>01/01/2009</t>
+          <t>01/01/2008</t>
         </is>
       </c>
       <c r="B794" t="inlineStr">
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D794" t="n">
-        <v>22225.0005</v>
+        <v>22454</v>
       </c>
       <c r="E794" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>01/07/2009</t>
+          <t>01/07/2008</t>
         </is>
       </c>
       <c r="B795" t="inlineStr">
@@ -20302,7 +20302,7 @@
         </is>
       </c>
       <c r="D795" t="n">
-        <v>20578.0015</v>
+        <v>22084.0001</v>
       </c>
       <c r="E795" t="inlineStr">
         <is>
@@ -20313,7 +20313,7 @@
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>01/06/2009</t>
+          <t>01/06/2008</t>
         </is>
       </c>
       <c r="B796" t="inlineStr">
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D796" t="n">
-        <v>20096.001</v>
+        <v>21446.001</v>
       </c>
       <c r="E796" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>01/05/2009</t>
+          <t>01/05/2008</t>
         </is>
       </c>
       <c r="B797" t="inlineStr">
@@ -20352,7 +20352,7 @@
         </is>
       </c>
       <c r="D797" t="n">
-        <v>20487.001</v>
+        <v>22333</v>
       </c>
       <c r="E797" t="inlineStr">
         <is>
@@ -20363,7 +20363,7 @@
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>01/03/2009</t>
+          <t>01/03/2008</t>
         </is>
       </c>
       <c r="B798" t="inlineStr">
@@ -20377,7 +20377,7 @@
         </is>
       </c>
       <c r="D798" t="n">
-        <v>21078.9987</v>
+        <v>22425</v>
       </c>
       <c r="E798" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>01/11/2009</t>
+          <t>01/11/2008</t>
         </is>
       </c>
       <c r="B799" t="inlineStr">
@@ -20402,7 +20402,7 @@
         </is>
       </c>
       <c r="D799" t="n">
-        <v>19530</v>
+        <v>20454</v>
       </c>
       <c r="E799" t="inlineStr">
         <is>
@@ -20413,7 +20413,7 @@
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>01/10/2009</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="B800" t="inlineStr">
@@ -20427,7 +20427,7 @@
         </is>
       </c>
       <c r="D800" t="n">
-        <v>19538.0011</v>
+        <v>19738.9989</v>
       </c>
       <c r="E800" t="inlineStr">
         <is>
@@ -20438,7 +20438,7 @@
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>01/09/2009</t>
+          <t>01/09/2008</t>
         </is>
       </c>
       <c r="B801" t="inlineStr">
@@ -20452,7 +20452,7 @@
         </is>
       </c>
       <c r="D801" t="n">
-        <v>19464</v>
+        <v>21581.001</v>
       </c>
       <c r="E801" t="inlineStr">
         <is>
@@ -20463,7 +20463,7 @@
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>01/04/2010</t>
+          <t>01/04/2009</t>
         </is>
       </c>
       <c r="B802" t="inlineStr">
@@ -20477,7 +20477,7 @@
         </is>
       </c>
       <c r="D802" t="n">
-        <v>18477</v>
+        <v>20352.999</v>
       </c>
       <c r="E802" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>01/08/2010</t>
+          <t>01/08/2009</t>
         </is>
       </c>
       <c r="B803" t="inlineStr">
@@ -20502,7 +20502,7 @@
         </is>
       </c>
       <c r="D803" t="n">
-        <v>19472</v>
+        <v>19636.0014</v>
       </c>
       <c r="E803" t="inlineStr">
         <is>
@@ -20513,7 +20513,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>01/12/2010</t>
+          <t>01/12/2009</t>
         </is>
       </c>
       <c r="B804" t="inlineStr">
@@ -20527,7 +20527,7 @@
         </is>
       </c>
       <c r="D804" t="n">
-        <v>19253</v>
+        <v>20058.9995</v>
       </c>
       <c r="E804" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>01/02/2010</t>
+          <t>01/02/2009</t>
         </is>
       </c>
       <c r="B805" t="inlineStr">
@@ -20552,7 +20552,7 @@
         </is>
       </c>
       <c r="D805" t="n">
-        <v>17250</v>
+        <v>18858.9996</v>
       </c>
       <c r="E805" t="inlineStr">
         <is>
@@ -20563,7 +20563,7 @@
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>01/01/2010</t>
+          <t>01/01/2009</t>
         </is>
       </c>
       <c r="B806" t="inlineStr">
@@ -20577,7 +20577,7 @@
         </is>
       </c>
       <c r="D806" t="n">
-        <v>19822</v>
+        <v>22225.0005</v>
       </c>
       <c r="E806" t="inlineStr">
         <is>
@@ -20588,7 +20588,7 @@
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>01/07/2010</t>
+          <t>01/07/2009</t>
         </is>
       </c>
       <c r="B807" t="inlineStr">
@@ -20602,7 +20602,7 @@
         </is>
       </c>
       <c r="D807" t="n">
-        <v>19943</v>
+        <v>20578.0015</v>
       </c>
       <c r="E807" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>01/06/2010</t>
+          <t>01/06/2009</t>
         </is>
       </c>
       <c r="B808" t="inlineStr">
@@ -20627,7 +20627,7 @@
         </is>
       </c>
       <c r="D808" t="n">
-        <v>18899</v>
+        <v>20096.001</v>
       </c>
       <c r="E808" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>01/05/2010</t>
+          <t>01/05/2009</t>
         </is>
       </c>
       <c r="B809" t="inlineStr">
@@ -20652,7 +20652,7 @@
         </is>
       </c>
       <c r="D809" t="n">
-        <v>19225</v>
+        <v>20487.001</v>
       </c>
       <c r="E809" t="inlineStr">
         <is>
@@ -20663,7 +20663,7 @@
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>01/03/2010</t>
+          <t>01/03/2009</t>
         </is>
       </c>
       <c r="B810" t="inlineStr">
@@ -20677,7 +20677,7 @@
         </is>
       </c>
       <c r="D810" t="n">
-        <v>18557</v>
+        <v>21078.9987</v>
       </c>
       <c r="E810" t="inlineStr">
         <is>
@@ -20688,7 +20688,7 @@
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>01/11/2010</t>
+          <t>01/11/2009</t>
         </is>
       </c>
       <c r="B811" t="inlineStr">
@@ -20702,7 +20702,7 @@
         </is>
       </c>
       <c r="D811" t="n">
-        <v>18252</v>
+        <v>19530</v>
       </c>
       <c r="E811" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>01/10/2010</t>
+          <t>01/10/2009</t>
         </is>
       </c>
       <c r="B812" t="inlineStr">
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D812" t="n">
-        <v>19679</v>
+        <v>19538.0011</v>
       </c>
       <c r="E812" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>01/09/2010</t>
+          <t>01/09/2009</t>
         </is>
       </c>
       <c r="B813" t="inlineStr">
@@ -20752,7 +20752,7 @@
         </is>
       </c>
       <c r="D813" t="n">
-        <v>18162</v>
+        <v>19464</v>
       </c>
       <c r="E813" t="inlineStr">
         <is>
@@ -20763,7 +20763,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>01/04/2011</t>
+          <t>01/04/2010</t>
         </is>
       </c>
       <c r="B814" t="inlineStr">
@@ -20777,7 +20777,7 @@
         </is>
       </c>
       <c r="D814" t="n">
-        <v>14211.9</v>
+        <v>18477</v>
       </c>
       <c r="E814" t="inlineStr">
         <is>
@@ -20788,7 +20788,7 @@
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>01/08/2011</t>
+          <t>01/08/2010</t>
         </is>
       </c>
       <c r="B815" t="inlineStr">
@@ -20802,7 +20802,7 @@
         </is>
       </c>
       <c r="D815" t="n">
-        <v>15656.1</v>
+        <v>19472</v>
       </c>
       <c r="E815" t="inlineStr">
         <is>
@@ -20813,7 +20813,7 @@
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>01/12/2011</t>
+          <t>01/12/2010</t>
         </is>
       </c>
       <c r="B816" t="inlineStr">
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="D816" t="n">
-        <v>16836.5</v>
+        <v>19253</v>
       </c>
       <c r="E816" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>01/02/2011</t>
+          <t>01/02/2010</t>
         </is>
       </c>
       <c r="B817" t="inlineStr">
@@ -20852,7 +20852,7 @@
         </is>
       </c>
       <c r="D817" t="n">
-        <v>15945.6</v>
+        <v>17250</v>
       </c>
       <c r="E817" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>01/01/2011</t>
+          <t>01/01/2010</t>
         </is>
       </c>
       <c r="B818" t="inlineStr">
@@ -20877,7 +20877,7 @@
         </is>
       </c>
       <c r="D818" t="n">
-        <v>18522.8</v>
+        <v>19822</v>
       </c>
       <c r="E818" t="inlineStr">
         <is>
@@ -20888,7 +20888,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>01/07/2011</t>
+          <t>01/07/2010</t>
         </is>
       </c>
       <c r="B819" t="inlineStr">
@@ -20902,7 +20902,7 @@
         </is>
       </c>
       <c r="D819" t="n">
-        <v>14478.2</v>
+        <v>19943</v>
       </c>
       <c r="E819" t="inlineStr">
         <is>
@@ -20913,7 +20913,7 @@
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>01/06/2011</t>
+          <t>01/06/2010</t>
         </is>
       </c>
       <c r="B820" t="inlineStr">
@@ -20927,7 +20927,7 @@
         </is>
       </c>
       <c r="D820" t="n">
-        <v>15871.3</v>
+        <v>18899</v>
       </c>
       <c r="E820" t="inlineStr">
         <is>
@@ -20938,7 +20938,7 @@
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>01/05/2011</t>
+          <t>01/05/2010</t>
         </is>
       </c>
       <c r="B821" t="inlineStr">
@@ -20952,7 +20952,7 @@
         </is>
       </c>
       <c r="D821" t="n">
-        <v>17668.9</v>
+        <v>19225</v>
       </c>
       <c r="E821" t="inlineStr">
         <is>
@@ -20963,7 +20963,7 @@
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>01/03/2011</t>
+          <t>01/03/2010</t>
         </is>
       </c>
       <c r="B822" t="inlineStr">
@@ -20977,7 +20977,7 @@
         </is>
       </c>
       <c r="D822" t="n">
-        <v>10940.8</v>
+        <v>18557</v>
       </c>
       <c r="E822" t="inlineStr">
         <is>
@@ -20988,7 +20988,7 @@
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>01/11/2011</t>
+          <t>01/11/2010</t>
         </is>
       </c>
       <c r="B823" t="inlineStr">
@@ -21002,7 +21002,7 @@
         </is>
       </c>
       <c r="D823" t="n">
-        <v>15787.4</v>
+        <v>18252</v>
       </c>
       <c r="E823" t="inlineStr">
         <is>
@@ -21013,7 +21013,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>01/10/2011</t>
+          <t>01/10/2010</t>
         </is>
       </c>
       <c r="B824" t="inlineStr">
@@ -21027,7 +21027,7 @@
         </is>
       </c>
       <c r="D824" t="n">
-        <v>16134.4</v>
+        <v>19679</v>
       </c>
       <c r="E824" t="inlineStr">
         <is>
@@ -21038,7 +21038,7 @@
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>01/09/2011</t>
+          <t>01/09/2010</t>
         </is>
       </c>
       <c r="B825" t="inlineStr">
@@ -21052,7 +21052,7 @@
         </is>
       </c>
       <c r="D825" t="n">
-        <v>15096.4</v>
+        <v>18162</v>
       </c>
       <c r="E825" t="inlineStr">
         <is>
@@ -21063,7 +21063,7 @@
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>01/04/2012</t>
+          <t>01/04/2011</t>
         </is>
       </c>
       <c r="B826" t="inlineStr">
@@ -21077,7 +21077,7 @@
         </is>
       </c>
       <c r="D826" t="n">
-        <v>10707.1</v>
+        <v>14211.9</v>
       </c>
       <c r="E826" t="inlineStr">
         <is>
@@ -21088,7 +21088,7 @@
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>01/08/2012</t>
+          <t>01/08/2011</t>
         </is>
       </c>
       <c r="B827" t="inlineStr">
@@ -21102,7 +21102,7 @@
         </is>
       </c>
       <c r="D827" t="n">
-        <v>16193.1</v>
+        <v>15656.1</v>
       </c>
       <c r="E827" t="inlineStr">
         <is>
@@ -21113,7 +21113,7 @@
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>01/12/2012</t>
+          <t>01/12/2011</t>
         </is>
       </c>
       <c r="B828" t="inlineStr">
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D828" t="n">
-        <v>17393.3</v>
+        <v>16836.5</v>
       </c>
       <c r="E828" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>01/02/2012</t>
+          <t>01/02/2011</t>
         </is>
       </c>
       <c r="B829" t="inlineStr">
@@ -21152,7 +21152,7 @@
         </is>
       </c>
       <c r="D829" t="n">
-        <v>14260.4</v>
+        <v>15945.6</v>
       </c>
       <c r="E829" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>01/01/2011</t>
         </is>
       </c>
       <c r="B830" t="inlineStr">
@@ -21177,7 +21177,7 @@
         </is>
       </c>
       <c r="D830" t="n">
-        <v>16058.3</v>
+        <v>18522.8</v>
       </c>
       <c r="E830" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>01/07/2012</t>
+          <t>01/07/2011</t>
         </is>
       </c>
       <c r="B831" t="inlineStr">
@@ -21202,7 +21202,7 @@
         </is>
       </c>
       <c r="D831" t="n">
-        <v>12701.4</v>
+        <v>14478.2</v>
       </c>
       <c r="E831" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>01/06/2012</t>
+          <t>01/06/2011</t>
         </is>
       </c>
       <c r="B832" t="inlineStr">
@@ -21227,7 +21227,7 @@
         </is>
       </c>
       <c r="D832" t="n">
-        <v>10851.8</v>
+        <v>15871.3</v>
       </c>
       <c r="E832" t="inlineStr">
         <is>
@@ -21238,7 +21238,7 @@
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>01/05/2012</t>
+          <t>01/05/2011</t>
         </is>
       </c>
       <c r="B833" t="inlineStr">
@@ -21252,7 +21252,7 @@
         </is>
       </c>
       <c r="D833" t="n">
-        <v>10692</v>
+        <v>17668.9</v>
       </c>
       <c r="E833" t="inlineStr">
         <is>
@@ -21263,7 +21263,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>01/03/2012</t>
+          <t>01/03/2011</t>
         </is>
       </c>
       <c r="B834" t="inlineStr">
@@ -21277,7 +21277,7 @@
         </is>
       </c>
       <c r="D834" t="n">
-        <v>14311.3</v>
+        <v>10940.8</v>
       </c>
       <c r="E834" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>01/11/2012</t>
+          <t>01/11/2011</t>
         </is>
       </c>
       <c r="B835" t="inlineStr">
@@ -21302,7 +21302,7 @@
         </is>
       </c>
       <c r="D835" t="n">
-        <v>16574.9</v>
+        <v>15787.4</v>
       </c>
       <c r="E835" t="inlineStr">
         <is>
@@ -21313,7 +21313,7 @@
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>01/10/2012</t>
+          <t>01/10/2011</t>
         </is>
       </c>
       <c r="B836" t="inlineStr">
@@ -21327,7 +21327,7 @@
         </is>
       </c>
       <c r="D836" t="n">
-        <v>13682.2</v>
+        <v>16134.4</v>
       </c>
       <c r="E836" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>01/09/2012</t>
+          <t>01/09/2011</t>
         </is>
       </c>
       <c r="B837" t="inlineStr">
@@ -21352,7 +21352,7 @@
         </is>
       </c>
       <c r="D837" t="n">
-        <v>12246</v>
+        <v>15096.4</v>
       </c>
       <c r="E837" t="inlineStr">
         <is>
@@ -21363,7 +21363,7 @@
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>01/04/2013</t>
+          <t>01/04/2012</t>
         </is>
       </c>
       <c r="B838" t="inlineStr">
@@ -21377,7 +21377,7 @@
         </is>
       </c>
       <c r="D838" t="n">
-        <v>15186.2</v>
+        <v>10707.1</v>
       </c>
       <c r="E838" t="inlineStr">
         <is>
@@ -21388,7 +21388,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>01/08/2013</t>
+          <t>01/08/2012</t>
         </is>
       </c>
       <c r="B839" t="inlineStr">
@@ -21402,7 +21402,7 @@
         </is>
       </c>
       <c r="D839" t="n">
-        <v>14998.4</v>
+        <v>16193.1</v>
       </c>
       <c r="E839" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>01/12/2013</t>
+          <t>01/12/2012</t>
         </is>
       </c>
       <c r="B840" t="inlineStr">
@@ -21427,7 +21427,7 @@
         </is>
       </c>
       <c r="D840" t="n">
-        <v>15576.1</v>
+        <v>17393.3</v>
       </c>
       <c r="E840" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>01/02/2013</t>
+          <t>01/02/2012</t>
         </is>
       </c>
       <c r="B841" t="inlineStr">
@@ -21452,7 +21452,7 @@
         </is>
       </c>
       <c r="D841" t="n">
-        <v>14992.1</v>
+        <v>14260.4</v>
       </c>
       <c r="E841" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="B842" t="inlineStr">
@@ -21477,7 +21477,7 @@
         </is>
       </c>
       <c r="D842" t="n">
-        <v>16653.1</v>
+        <v>16058.3</v>
       </c>
       <c r="E842" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>01/07/2013</t>
+          <t>01/07/2012</t>
         </is>
       </c>
       <c r="B843" t="inlineStr">
@@ -21502,7 +21502,7 @@
         </is>
       </c>
       <c r="D843" t="n">
-        <v>15326.3</v>
+        <v>12701.4</v>
       </c>
       <c r="E843" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>01/06/2013</t>
+          <t>01/06/2012</t>
         </is>
       </c>
       <c r="B844" t="inlineStr">
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D844" t="n">
-        <v>15355.6</v>
+        <v>10851.8</v>
       </c>
       <c r="E844" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>01/05/2013</t>
+          <t>01/05/2012</t>
         </is>
       </c>
       <c r="B845" t="inlineStr">
@@ -21552,7 +21552,7 @@
         </is>
       </c>
       <c r="D845" t="n">
-        <v>14825.2</v>
+        <v>10692</v>
       </c>
       <c r="E845" t="inlineStr">
         <is>
@@ -21563,7 +21563,7 @@
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>01/03/2013</t>
+          <t>01/03/2012</t>
         </is>
       </c>
       <c r="B846" t="inlineStr">
@@ -21577,7 +21577,7 @@
         </is>
       </c>
       <c r="D846" t="n">
-        <v>15537.2</v>
+        <v>14311.3</v>
       </c>
       <c r="E846" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>01/11/2013</t>
+          <t>01/11/2012</t>
         </is>
       </c>
       <c r="B847" t="inlineStr">
@@ -21602,7 +21602,7 @@
         </is>
       </c>
       <c r="D847" t="n">
-        <v>14997.2</v>
+        <v>16574.9</v>
       </c>
       <c r="E847" t="inlineStr">
         <is>
@@ -21613,7 +21613,7 @@
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>01/10/2012</t>
         </is>
       </c>
       <c r="B848" t="inlineStr">
@@ -21627,7 +21627,7 @@
         </is>
       </c>
       <c r="D848" t="n">
-        <v>14495.7</v>
+        <v>13682.2</v>
       </c>
       <c r="E848" t="inlineStr">
         <is>
@@ -21638,7 +21638,7 @@
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>01/09/2013</t>
+          <t>01/09/2012</t>
         </is>
       </c>
       <c r="B849" t="inlineStr">
@@ -21652,7 +21652,7 @@
         </is>
       </c>
       <c r="D849" t="n">
-        <v>14777.2</v>
+        <v>12246</v>
       </c>
       <c r="E849" t="inlineStr">
         <is>
@@ -21663,7 +21663,7 @@
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>01/04/2014</t>
+          <t>01/04/2013</t>
         </is>
       </c>
       <c r="B850" t="inlineStr">
@@ -21677,7 +21677,7 @@
         </is>
       </c>
       <c r="D850" t="n">
-        <v>15228.7</v>
+        <v>15186.2</v>
       </c>
       <c r="E850" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>01/08/2014</t>
+          <t>01/08/2013</t>
         </is>
       </c>
       <c r="B851" t="inlineStr">
@@ -21702,7 +21702,7 @@
         </is>
       </c>
       <c r="D851" t="n">
-        <v>14545.5</v>
+        <v>14998.4</v>
       </c>
       <c r="E851" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>01/12/2014</t>
+          <t>01/12/2013</t>
         </is>
       </c>
       <c r="B852" t="inlineStr">
@@ -21727,7 +21727,7 @@
         </is>
       </c>
       <c r="D852" t="n">
-        <v>13264.2</v>
+        <v>15576.1</v>
       </c>
       <c r="E852" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>01/02/2014</t>
+          <t>01/02/2013</t>
         </is>
       </c>
       <c r="B853" t="inlineStr">
@@ -21752,7 +21752,7 @@
         </is>
       </c>
       <c r="D853" t="n">
-        <v>13542.3</v>
+        <v>14992.1</v>
       </c>
       <c r="E853" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="B854" t="inlineStr">
@@ -21777,7 +21777,7 @@
         </is>
       </c>
       <c r="D854" t="n">
-        <v>15019.1</v>
+        <v>16653.1</v>
       </c>
       <c r="E854" t="inlineStr">
         <is>
@@ -21788,7 +21788,7 @@
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
+          <t>01/07/2013</t>
         </is>
       </c>
       <c r="B855" t="inlineStr">
@@ -21802,7 +21802,7 @@
         </is>
       </c>
       <c r="D855" t="n">
-        <v>14900.7</v>
+        <v>15326.3</v>
       </c>
       <c r="E855" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>01/06/2014</t>
+          <t>01/06/2013</t>
         </is>
       </c>
       <c r="B856" t="inlineStr">
@@ -21827,7 +21827,7 @@
         </is>
       </c>
       <c r="D856" t="n">
-        <v>14977.9</v>
+        <v>15355.6</v>
       </c>
       <c r="E856" t="inlineStr">
         <is>
@@ -21838,7 +21838,7 @@
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>01/05/2014</t>
+          <t>01/05/2013</t>
         </is>
       </c>
       <c r="B857" t="inlineStr">
@@ -21852,7 +21852,7 @@
         </is>
       </c>
       <c r="D857" t="n">
-        <v>16141.5</v>
+        <v>14825.2</v>
       </c>
       <c r="E857" t="inlineStr">
         <is>
@@ -21863,7 +21863,7 @@
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>01/03/2014</t>
+          <t>01/03/2013</t>
         </is>
       </c>
       <c r="B858" t="inlineStr">
@@ -21877,7 +21877,7 @@
         </is>
       </c>
       <c r="D858" t="n">
-        <v>15178.7</v>
+        <v>15537.2</v>
       </c>
       <c r="E858" t="inlineStr">
         <is>
@@ -21888,7 +21888,7 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>01/11/2014</t>
+          <t>01/11/2013</t>
         </is>
       </c>
       <c r="B859" t="inlineStr">
@@ -21902,7 +21902,7 @@
         </is>
       </c>
       <c r="D859" t="n">
-        <v>11227.8</v>
+        <v>14997.2</v>
       </c>
       <c r="E859" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>01/10/2014</t>
+          <t>01/10/2013</t>
         </is>
       </c>
       <c r="B860" t="inlineStr">
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D860" t="n">
-        <v>14384.8</v>
+        <v>14495.7</v>
       </c>
       <c r="E860" t="inlineStr">
         <is>
@@ -21938,7 +21938,7 @@
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>01/09/2014</t>
+          <t>01/09/2013</t>
         </is>
       </c>
       <c r="B861" t="inlineStr">
@@ -21952,7 +21952,7 @@
         </is>
       </c>
       <c r="D861" t="n">
-        <v>13936.6</v>
+        <v>14777.2</v>
       </c>
       <c r="E861" t="inlineStr">
         <is>
@@ -21963,7 +21963,7 @@
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>01/04/2015</t>
+          <t>01/04/2014</t>
         </is>
       </c>
       <c r="B862" t="inlineStr">
@@ -21977,7 +21977,7 @@
         </is>
       </c>
       <c r="D862" t="n">
-        <v>13917.8</v>
+        <v>15228.7</v>
       </c>
       <c r="E862" t="inlineStr">
         <is>
@@ -21988,7 +21988,7 @@
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>01/08/2015</t>
+          <t>01/08/2014</t>
         </is>
       </c>
       <c r="B863" t="inlineStr">
@@ -22002,7 +22002,7 @@
         </is>
       </c>
       <c r="D863" t="n">
-        <v>11403.3</v>
+        <v>14545.5</v>
       </c>
       <c r="E863" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>01/12/2015</t>
+          <t>01/12/2014</t>
         </is>
       </c>
       <c r="B864" t="inlineStr">
@@ -22027,7 +22027,7 @@
         </is>
       </c>
       <c r="D864" t="n">
-        <v>9425.700000000001</v>
+        <v>13264.2</v>
       </c>
       <c r="E864" t="inlineStr">
         <is>
@@ -22038,7 +22038,7 @@
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>01/02/2015</t>
+          <t>01/02/2014</t>
         </is>
       </c>
       <c r="B865" t="inlineStr">
@@ -22052,7 +22052,7 @@
         </is>
       </c>
       <c r="D865" t="n">
-        <v>13004.4</v>
+        <v>13542.3</v>
       </c>
       <c r="E865" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="B866" t="inlineStr">
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D866" t="n">
-        <v>14478.2</v>
+        <v>15019.1</v>
       </c>
       <c r="E866" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>01/07/2015</t>
+          <t>01/07/2014</t>
         </is>
       </c>
       <c r="B867" t="inlineStr">
@@ -22102,7 +22102,7 @@
         </is>
       </c>
       <c r="D867" t="n">
-        <v>11946.4</v>
+        <v>14900.7</v>
       </c>
       <c r="E867" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>01/06/2015</t>
+          <t>01/06/2014</t>
         </is>
       </c>
       <c r="B868" t="inlineStr">
@@ -22127,7 +22127,7 @@
         </is>
       </c>
       <c r="D868" t="n">
-        <v>12385.6</v>
+        <v>14977.9</v>
       </c>
       <c r="E868" t="inlineStr">
         <is>
@@ -22138,7 +22138,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>01/05/2015</t>
+          <t>01/05/2014</t>
         </is>
       </c>
       <c r="B869" t="inlineStr">
@@ -22152,7 +22152,7 @@
         </is>
       </c>
       <c r="D869" t="n">
-        <v>12823.9</v>
+        <v>16141.5</v>
       </c>
       <c r="E869" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>01/03/2015</t>
+          <t>01/03/2014</t>
         </is>
       </c>
       <c r="B870" t="inlineStr">
@@ -22177,7 +22177,7 @@
         </is>
       </c>
       <c r="D870" t="n">
-        <v>14916.8</v>
+        <v>15178.7</v>
       </c>
       <c r="E870" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>01/11/2015</t>
+          <t>01/11/2014</t>
         </is>
       </c>
       <c r="B871" t="inlineStr">
@@ -22202,7 +22202,7 @@
         </is>
       </c>
       <c r="D871" t="n">
-        <v>5361.7</v>
+        <v>11227.8</v>
       </c>
       <c r="E871" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/10/2014</t>
         </is>
       </c>
       <c r="B872" t="inlineStr">
@@ -22227,7 +22227,7 @@
         </is>
       </c>
       <c r="D872" t="n">
-        <v>11384.7</v>
+        <v>14384.8</v>
       </c>
       <c r="E872" t="inlineStr">
         <is>
@@ -22238,7 +22238,7 @@
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>01/09/2015</t>
+          <t>01/09/2014</t>
         </is>
       </c>
       <c r="B873" t="inlineStr">
@@ -22252,7 +22252,7 @@
         </is>
       </c>
       <c r="D873" t="n">
-        <v>11927.3</v>
+        <v>13936.6</v>
       </c>
       <c r="E873" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>01/04/2016</t>
+          <t>01/04/2015</t>
         </is>
       </c>
       <c r="B874" t="inlineStr">
@@ -22277,7 +22277,7 @@
         </is>
       </c>
       <c r="D874" t="n">
-        <v>9074.1</v>
+        <v>13917.8</v>
       </c>
       <c r="E874" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>01/08/2016</t>
+          <t>01/08/2015</t>
         </is>
       </c>
       <c r="B875" t="inlineStr">
@@ -22302,7 +22302,7 @@
         </is>
       </c>
       <c r="D875" t="n">
-        <v>9273.799999999999</v>
+        <v>11403.3</v>
       </c>
       <c r="E875" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>01/12/2016</t>
+          <t>01/12/2015</t>
         </is>
       </c>
       <c r="B876" t="inlineStr">
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D876" t="n">
-        <v>3213.5</v>
+        <v>9425.700000000001</v>
       </c>
       <c r="E876" t="inlineStr">
         <is>
@@ -22338,7 +22338,7 @@
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>01/02/2016</t>
+          <t>01/02/2015</t>
         </is>
       </c>
       <c r="B877" t="inlineStr">
@@ -22352,7 +22352,7 @@
         </is>
       </c>
       <c r="D877" t="n">
-        <v>8886.4</v>
+        <v>13004.4</v>
       </c>
       <c r="E877" t="inlineStr">
         <is>
@@ -22363,7 +22363,7 @@
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="B878" t="inlineStr">
@@ -22377,7 +22377,7 @@
         </is>
       </c>
       <c r="D878" t="n">
-        <v>9118.200000000001</v>
+        <v>14478.2</v>
       </c>
       <c r="E878" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="B879" t="inlineStr">
@@ -22402,7 +22402,7 @@
         </is>
       </c>
       <c r="D879" t="n">
-        <v>9093.799999999999</v>
+        <v>11946.4</v>
       </c>
       <c r="E879" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>01/06/2016</t>
+          <t>01/06/2015</t>
         </is>
       </c>
       <c r="B880" t="inlineStr">
@@ -22427,7 +22427,7 @@
         </is>
       </c>
       <c r="D880" t="n">
-        <v>8134.5</v>
+        <v>12385.6</v>
       </c>
       <c r="E880" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>01/05/2016</t>
+          <t>01/05/2015</t>
         </is>
       </c>
       <c r="B881" t="inlineStr">
@@ -22452,7 +22452,7 @@
         </is>
       </c>
       <c r="D881" t="n">
-        <v>9412.299999999999</v>
+        <v>12823.9</v>
       </c>
       <c r="E881" t="inlineStr">
         <is>
@@ -22463,7 +22463,7 @@
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>01/03/2016</t>
+          <t>01/03/2015</t>
         </is>
       </c>
       <c r="B882" t="inlineStr">
@@ -22477,7 +22477,7 @@
         </is>
       </c>
       <c r="D882" t="n">
-        <v>9861.1</v>
+        <v>14916.8</v>
       </c>
       <c r="E882" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>01/11/2016</t>
+          <t>01/11/2015</t>
         </is>
       </c>
       <c r="B883" t="inlineStr">
@@ -22502,7 +22502,7 @@
         </is>
       </c>
       <c r="D883" t="n">
-        <v>7657.6</v>
+        <v>5361.7</v>
       </c>
       <c r="E883" t="inlineStr">
         <is>
@@ -22513,7 +22513,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/10/2015</t>
         </is>
       </c>
       <c r="B884" t="inlineStr">
@@ -22527,7 +22527,7 @@
         </is>
       </c>
       <c r="D884" t="n">
-        <v>8933.1</v>
+        <v>11384.7</v>
       </c>
       <c r="E884" t="inlineStr">
         <is>
@@ -22538,7 +22538,7 @@
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>01/09/2016</t>
+          <t>01/09/2015</t>
         </is>
       </c>
       <c r="B885" t="inlineStr">
@@ -22552,7 +22552,7 @@
         </is>
       </c>
       <c r="D885" t="n">
-        <v>8977.299999999999</v>
+        <v>11927.3</v>
       </c>
       <c r="E885" t="inlineStr">
         <is>
@@ -22563,7 +22563,7 @@
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>01/04/2017</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="B886" t="inlineStr">
@@ -22577,7 +22577,7 @@
         </is>
       </c>
       <c r="D886" t="n">
-        <v>6856.1</v>
+        <v>9074.1</v>
       </c>
       <c r="E886" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>01/08/2017</t>
+          <t>01/08/2016</t>
         </is>
       </c>
       <c r="B887" t="inlineStr">
@@ -22602,7 +22602,7 @@
         </is>
       </c>
       <c r="D887" t="n">
-        <v>7185.4</v>
+        <v>9273.799999999999</v>
       </c>
       <c r="E887" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>01/12/2017</t>
+          <t>01/12/2016</t>
         </is>
       </c>
       <c r="B888" t="inlineStr">
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="D888" t="n">
-        <v>9617.700000000001</v>
+        <v>3213.5</v>
       </c>
       <c r="E888" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>01/02/2017</t>
+          <t>01/02/2016</t>
         </is>
       </c>
       <c r="B889" t="inlineStr">
@@ -22652,7 +22652,7 @@
         </is>
       </c>
       <c r="D889" t="n">
-        <v>6279.5</v>
+        <v>8886.4</v>
       </c>
       <c r="E889" t="inlineStr">
         <is>
@@ -22663,7 +22663,7 @@
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="B890" t="inlineStr">
@@ -22677,7 +22677,7 @@
         </is>
       </c>
       <c r="D890" t="n">
-        <v>7743.8</v>
+        <v>9118.200000000001</v>
       </c>
       <c r="E890" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="B891" t="inlineStr">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="D891" t="n">
-        <v>6753.2</v>
+        <v>9093.799999999999</v>
       </c>
       <c r="E891" t="inlineStr">
         <is>
@@ -22713,7 +22713,7 @@
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>01/06/2017</t>
+          <t>01/06/2016</t>
         </is>
       </c>
       <c r="B892" t="inlineStr">
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D892" t="n">
-        <v>6679</v>
+        <v>8134.5</v>
       </c>
       <c r="E892" t="inlineStr">
         <is>
@@ -22738,7 +22738,7 @@
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>01/05/2017</t>
+          <t>01/05/2016</t>
         </is>
       </c>
       <c r="B893" t="inlineStr">
@@ -22752,7 +22752,7 @@
         </is>
       </c>
       <c r="D893" t="n">
-        <v>6777</v>
+        <v>9412.299999999999</v>
       </c>
       <c r="E893" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>01/03/2017</t>
+          <t>01/03/2016</t>
         </is>
       </c>
       <c r="B894" t="inlineStr">
@@ -22777,7 +22777,7 @@
         </is>
       </c>
       <c r="D894" t="n">
-        <v>7180</v>
+        <v>9861.1</v>
       </c>
       <c r="E894" t="inlineStr">
         <is>
@@ -22788,7 +22788,7 @@
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>01/11/2017</t>
+          <t>01/11/2016</t>
         </is>
       </c>
       <c r="B895" t="inlineStr">
@@ -22802,7 +22802,7 @@
         </is>
       </c>
       <c r="D895" t="n">
-        <v>7720.9</v>
+        <v>7657.6</v>
       </c>
       <c r="E895" t="inlineStr">
         <is>
@@ -22813,7 +22813,7 @@
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/10/2016</t>
         </is>
       </c>
       <c r="B896" t="inlineStr">
@@ -22827,7 +22827,7 @@
         </is>
       </c>
       <c r="D896" t="n">
-        <v>7765.07</v>
+        <v>8933.1</v>
       </c>
       <c r="E896" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>01/09/2017</t>
+          <t>01/09/2016</t>
         </is>
       </c>
       <c r="B897" t="inlineStr">
@@ -22852,7 +22852,7 @@
         </is>
       </c>
       <c r="D897" t="n">
-        <v>7191.4</v>
+        <v>8977.299999999999</v>
       </c>
       <c r="E897" t="inlineStr">
         <is>
@@ -22863,7 +22863,7 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>01/04/2018</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="B898" t="inlineStr">
@@ -22877,7 +22877,7 @@
         </is>
       </c>
       <c r="D898" t="n">
-        <v>6020</v>
+        <v>6856.1</v>
       </c>
       <c r="E898" t="inlineStr">
         <is>
@@ -22888,7 +22888,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>01/08/2018</t>
+          <t>01/08/2017</t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
@@ -22902,7 +22902,7 @@
         </is>
       </c>
       <c r="D899" t="n">
-        <v>5969</v>
+        <v>7185.4</v>
       </c>
       <c r="E899" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>01/12/2018</t>
+          <t>01/12/2017</t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
@@ -22927,7 +22927,7 @@
         </is>
       </c>
       <c r="D900" t="n">
-        <v>6061</v>
+        <v>9617.700000000001</v>
       </c>
       <c r="E900" t="inlineStr">
         <is>
@@ -22938,7 +22938,7 @@
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>01/02/2018</t>
+          <t>01/02/2017</t>
         </is>
       </c>
       <c r="B901" t="inlineStr">
@@ -22952,7 +22952,7 @@
         </is>
       </c>
       <c r="D901" t="n">
-        <v>6141.6</v>
+        <v>6279.5</v>
       </c>
       <c r="E901" t="inlineStr">
         <is>
@@ -22963,7 +22963,7 @@
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="B902" t="inlineStr">
@@ -22977,7 +22977,7 @@
         </is>
       </c>
       <c r="D902" t="n">
-        <v>7289.478</v>
+        <v>7743.8</v>
       </c>
       <c r="E902" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="B903" t="inlineStr">
@@ -23002,7 +23002,7 @@
         </is>
       </c>
       <c r="D903" t="n">
-        <v>5621.504</v>
+        <v>6753.2</v>
       </c>
       <c r="E903" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>01/06/2018</t>
+          <t>01/06/2017</t>
         </is>
       </c>
       <c r="B904" t="inlineStr">
@@ -23027,7 +23027,7 @@
         </is>
       </c>
       <c r="D904" t="n">
-        <v>5487.042</v>
+        <v>6679</v>
       </c>
       <c r="E904" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>01/05/2018</t>
+          <t>01/05/2017</t>
         </is>
       </c>
       <c r="B905" t="inlineStr">
@@ -23052,7 +23052,7 @@
         </is>
       </c>
       <c r="D905" t="n">
-        <v>5549.7</v>
+        <v>6777</v>
       </c>
       <c r="E905" t="inlineStr">
         <is>
@@ -23063,7 +23063,7 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>01/03/2018</t>
+          <t>01/03/2017</t>
         </is>
       </c>
       <c r="B906" t="inlineStr">
@@ -23077,7 +23077,7 @@
         </is>
       </c>
       <c r="D906" t="n">
-        <v>6426.258</v>
+        <v>7180</v>
       </c>
       <c r="E906" t="inlineStr">
         <is>
@@ -23088,7 +23088,7 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>01/11/2018</t>
+          <t>01/11/2017</t>
         </is>
       </c>
       <c r="B907" t="inlineStr">
@@ -23102,7 +23102,7 @@
         </is>
       </c>
       <c r="D907" t="n">
-        <v>5685.5</v>
+        <v>7720.9</v>
       </c>
       <c r="E907" t="inlineStr">
         <is>
@@ -23113,7 +23113,7 @@
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="B908" t="inlineStr">
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D908" t="n">
-        <v>5916.66</v>
+        <v>7765.07</v>
       </c>
       <c r="E908" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>01/09/2018</t>
+          <t>01/09/2017</t>
         </is>
       </c>
       <c r="B909" t="inlineStr">
@@ -23152,7 +23152,7 @@
         </is>
       </c>
       <c r="D909" t="n">
-        <v>5970.399</v>
+        <v>7191.4</v>
       </c>
       <c r="E909" t="inlineStr">
         <is>
@@ -23163,7 +23163,7 @@
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="B910" t="inlineStr">
@@ -23177,7 +23177,7 @@
         </is>
       </c>
       <c r="D910" t="n">
-        <v>5391.2</v>
+        <v>6020</v>
       </c>
       <c r="E910" t="inlineStr">
         <is>
@@ -23188,7 +23188,7 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>01/08/2019</t>
+          <t>01/08/2018</t>
         </is>
       </c>
       <c r="B911" t="inlineStr">
@@ -23202,7 +23202,7 @@
         </is>
       </c>
       <c r="D911" t="n">
-        <v>4054.5</v>
+        <v>5969</v>
       </c>
       <c r="E911" t="inlineStr">
         <is>
@@ -23213,7 +23213,7 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>01/12/2019</t>
+          <t>01/12/2018</t>
         </is>
       </c>
       <c r="B912" t="inlineStr">
@@ -23227,7 +23227,7 @@
         </is>
       </c>
       <c r="D912" t="n">
-        <v>4830.4</v>
+        <v>6061</v>
       </c>
       <c r="E912" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>01/02/2019</t>
+          <t>01/02/2018</t>
         </is>
       </c>
       <c r="B913" t="inlineStr">
@@ -23252,7 +23252,7 @@
         </is>
       </c>
       <c r="D913" t="n">
-        <v>3997.1</v>
+        <v>6141.6</v>
       </c>
       <c r="E913" t="inlineStr">
         <is>
@@ -23263,7 +23263,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="B914" t="inlineStr">
@@ -23277,7 +23277,7 @@
         </is>
       </c>
       <c r="D914" t="n">
-        <v>5711.1</v>
+        <v>7289.478</v>
       </c>
       <c r="E914" t="inlineStr">
         <is>
@@ -23288,7 +23288,7 @@
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="B915" t="inlineStr">
@@ -23302,7 +23302,7 @@
         </is>
       </c>
       <c r="D915" t="n">
-        <v>4524.82</v>
+        <v>5621.504</v>
       </c>
       <c r="E915" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>01/06/2019</t>
+          <t>01/06/2018</t>
         </is>
       </c>
       <c r="B916" t="inlineStr">
@@ -23327,7 +23327,7 @@
         </is>
       </c>
       <c r="D916" t="n">
-        <v>4716.577</v>
+        <v>5487.042</v>
       </c>
       <c r="E916" t="inlineStr">
         <is>
@@ -23338,7 +23338,7 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>01/05/2019</t>
+          <t>01/05/2018</t>
         </is>
       </c>
       <c r="B917" t="inlineStr">
@@ -23352,7 +23352,7 @@
         </is>
       </c>
       <c r="D917" t="n">
-        <v>5361.2</v>
+        <v>5549.7</v>
       </c>
       <c r="E917" t="inlineStr">
         <is>
@@ -23363,7 +23363,7 @@
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>01/03/2019</t>
+          <t>01/03/2018</t>
         </is>
       </c>
       <c r="B918" t="inlineStr">
@@ -23377,7 +23377,7 @@
         </is>
       </c>
       <c r="D918" t="n">
-        <v>4734.9</v>
+        <v>6426.258</v>
       </c>
       <c r="E918" t="inlineStr">
         <is>
@@ -23388,7 +23388,7 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>01/11/2019</t>
+          <t>01/11/2018</t>
         </is>
       </c>
       <c r="B919" t="inlineStr">
@@ -23402,7 +23402,7 @@
         </is>
       </c>
       <c r="D919" t="n">
-        <v>3812.4</v>
+        <v>5685.5</v>
       </c>
       <c r="E919" t="inlineStr">
         <is>
@@ -23413,7 +23413,7 @@
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
@@ -23427,7 +23427,7 @@
         </is>
       </c>
       <c r="D920" t="n">
-        <v>4339.8</v>
+        <v>5916.66</v>
       </c>
       <c r="E920" t="inlineStr">
         <is>
@@ -23438,7 +23438,7 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>01/09/2019</t>
+          <t>01/09/2018</t>
         </is>
       </c>
       <c r="B921" t="inlineStr">
@@ -23452,7 +23452,7 @@
         </is>
       </c>
       <c r="D921" t="n">
-        <v>3820.9</v>
+        <v>5970.399</v>
       </c>
       <c r="E921" t="inlineStr">
         <is>
@@ -23463,7 +23463,7 @@
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="B922" t="inlineStr">
@@ -23477,7 +23477,7 @@
         </is>
       </c>
       <c r="D922" t="n">
-        <v>0</v>
+        <v>5391.2</v>
       </c>
       <c r="E922" t="inlineStr">
         <is>
@@ -23488,7 +23488,7 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>01/08/2020</t>
+          <t>01/08/2019</t>
         </is>
       </c>
       <c r="B923" t="inlineStr">
@@ -23502,7 +23502,7 @@
         </is>
       </c>
       <c r="D923" t="n">
-        <v>0</v>
+        <v>4054.5</v>
       </c>
       <c r="E923" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>01/12/2020</t>
+          <t>01/12/2019</t>
         </is>
       </c>
       <c r="B924" t="inlineStr">
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D924" t="n">
-        <v>0</v>
+        <v>4830.4</v>
       </c>
       <c r="E924" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>01/02/2020</t>
+          <t>01/02/2019</t>
         </is>
       </c>
       <c r="B925" t="inlineStr">
@@ -23552,7 +23552,7 @@
         </is>
       </c>
       <c r="D925" t="n">
-        <v>5762.358</v>
+        <v>3997.1</v>
       </c>
       <c r="E925" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="B926" t="inlineStr">
@@ -23577,7 +23577,7 @@
         </is>
       </c>
       <c r="D926" t="n">
-        <v>5560.337</v>
+        <v>5711.1</v>
       </c>
       <c r="E926" t="inlineStr">
         <is>
@@ -23588,7 +23588,7 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="B927" t="inlineStr">
@@ -23602,7 +23602,7 @@
         </is>
       </c>
       <c r="D927" t="n">
-        <v>0</v>
+        <v>4524.82</v>
       </c>
       <c r="E927" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>01/06/2020</t>
+          <t>01/06/2019</t>
         </is>
       </c>
       <c r="B928" t="inlineStr">
@@ -23627,7 +23627,7 @@
         </is>
       </c>
       <c r="D928" t="n">
-        <v>0</v>
+        <v>4716.577</v>
       </c>
       <c r="E928" t="inlineStr">
         <is>
@@ -23638,7 +23638,7 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>01/05/2020</t>
+          <t>01/05/2019</t>
         </is>
       </c>
       <c r="B929" t="inlineStr">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="D929" t="n">
-        <v>0</v>
+        <v>5361.2</v>
       </c>
       <c r="E929" t="inlineStr">
         <is>
@@ -23663,7 +23663,7 @@
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>01/03/2020</t>
+          <t>01/03/2019</t>
         </is>
       </c>
       <c r="B930" t="inlineStr">
@@ -23677,7 +23677,7 @@
         </is>
       </c>
       <c r="D930" t="n">
-        <v>5496</v>
+        <v>4734.9</v>
       </c>
       <c r="E930" t="inlineStr">
         <is>
@@ -23688,7 +23688,7 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>01/11/2020</t>
+          <t>01/11/2019</t>
         </is>
       </c>
       <c r="B931" t="inlineStr">
@@ -23702,7 +23702,7 @@
         </is>
       </c>
       <c r="D931" t="n">
-        <v>0</v>
+        <v>3812.4</v>
       </c>
       <c r="E931" t="inlineStr">
         <is>
@@ -23713,7 +23713,7 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="B932" t="inlineStr">
@@ -23727,7 +23727,7 @@
         </is>
       </c>
       <c r="D932" t="n">
-        <v>0</v>
+        <v>4339.8</v>
       </c>
       <c r="E932" t="inlineStr">
         <is>
@@ -23738,7 +23738,7 @@
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>01/09/2020</t>
+          <t>01/09/2019</t>
         </is>
       </c>
       <c r="B933" t="inlineStr">
@@ -23752,7 +23752,7 @@
         </is>
       </c>
       <c r="D933" t="n">
-        <v>0</v>
+        <v>3820.9</v>
       </c>
       <c r="E933" t="inlineStr">
         <is>
@@ -23763,7 +23763,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="B934" t="inlineStr">
@@ -23788,7 +23788,7 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>01/08/2021</t>
+          <t>01/08/2020</t>
         </is>
       </c>
       <c r="B935" t="inlineStr">
@@ -23813,7 +23813,7 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>01/12/2021</t>
+          <t>01/12/2020</t>
         </is>
       </c>
       <c r="B936" t="inlineStr">
@@ -23838,7 +23838,7 @@
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>01/02/2021</t>
+          <t>01/02/2020</t>
         </is>
       </c>
       <c r="B937" t="inlineStr">
@@ -23852,7 +23852,7 @@
         </is>
       </c>
       <c r="D937" t="n">
-        <v>0</v>
+        <v>5762.358</v>
       </c>
       <c r="E937" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="B938" t="inlineStr">
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D938" t="n">
-        <v>0</v>
+        <v>5560.337</v>
       </c>
       <c r="E938" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="B939" t="inlineStr">
@@ -23913,7 +23913,7 @@
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>01/06/2021</t>
+          <t>01/06/2020</t>
         </is>
       </c>
       <c r="B940" t="inlineStr">
@@ -23938,7 +23938,7 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>01/05/2021</t>
+          <t>01/05/2020</t>
         </is>
       </c>
       <c r="B941" t="inlineStr">
@@ -23963,7 +23963,7 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>01/03/2021</t>
+          <t>01/03/2020</t>
         </is>
       </c>
       <c r="B942" t="inlineStr">
@@ -23977,7 +23977,7 @@
         </is>
       </c>
       <c r="D942" t="n">
-        <v>0</v>
+        <v>5496</v>
       </c>
       <c r="E942" t="inlineStr">
         <is>
@@ -23988,7 +23988,7 @@
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>01/11/2021</t>
+          <t>01/11/2020</t>
         </is>
       </c>
       <c r="B943" t="inlineStr">
@@ -24013,7 +24013,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="B944" t="inlineStr">
@@ -24038,7 +24038,7 @@
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>01/09/2021</t>
+          <t>01/09/2020</t>
         </is>
       </c>
       <c r="B945" t="inlineStr">
@@ -24063,7 +24063,7 @@
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="B946" t="inlineStr">
@@ -24088,7 +24088,7 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>01/08/2022</t>
+          <t>01/08/2021</t>
         </is>
       </c>
       <c r="B947" t="inlineStr">
@@ -24113,7 +24113,7 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>01/12/2022</t>
+          <t>01/12/2021</t>
         </is>
       </c>
       <c r="B948" t="inlineStr">
@@ -24138,7 +24138,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>01/02/2022</t>
+          <t>01/02/2021</t>
         </is>
       </c>
       <c r="B949" t="inlineStr">
@@ -24163,7 +24163,7 @@
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="B950" t="inlineStr">
@@ -24188,7 +24188,7 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="B951" t="inlineStr">
@@ -24213,7 +24213,7 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>01/06/2022</t>
+          <t>01/06/2021</t>
         </is>
       </c>
       <c r="B952" t="inlineStr">
@@ -24238,7 +24238,7 @@
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>01/05/2022</t>
+          <t>01/05/2021</t>
         </is>
       </c>
       <c r="B953" t="inlineStr">
@@ -24263,7 +24263,7 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>01/03/2022</t>
+          <t>01/03/2021</t>
         </is>
       </c>
       <c r="B954" t="inlineStr">
@@ -24288,7 +24288,7 @@
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>01/11/2022</t>
+          <t>01/11/2021</t>
         </is>
       </c>
       <c r="B955" t="inlineStr">
@@ -24313,7 +24313,7 @@
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="B956" t="inlineStr">
@@ -24338,7 +24338,7 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>01/09/2022</t>
+          <t>01/09/2021</t>
         </is>
       </c>
       <c r="B957" t="inlineStr">
@@ -24363,7 +24363,7 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="B958" t="inlineStr">
@@ -24388,7 +24388,7 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01/08/2022</t>
         </is>
       </c>
       <c r="B959" t="inlineStr">
@@ -24413,7 +24413,7 @@
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>01/02/2023</t>
+          <t>01/12/2022</t>
         </is>
       </c>
       <c r="B960" t="inlineStr">
@@ -24438,7 +24438,7 @@
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/02/2022</t>
         </is>
       </c>
       <c r="B961" t="inlineStr">
@@ -24463,7 +24463,7 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="B962" t="inlineStr">
@@ -24488,7 +24488,7 @@
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>01/06/2023</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="B963" t="inlineStr">
@@ -24513,7 +24513,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>01/05/2023</t>
+          <t>01/06/2022</t>
         </is>
       </c>
       <c r="B964" t="inlineStr">
@@ -24538,7 +24538,7 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>01/03/2023</t>
+          <t>01/05/2022</t>
         </is>
       </c>
       <c r="B965" t="inlineStr">
@@ -24563,7 +24563,7 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/03/2022</t>
         </is>
       </c>
       <c r="B966" t="inlineStr">
@@ -24588,7 +24588,7 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>01/09/2023</t>
+          <t>01/11/2022</t>
         </is>
       </c>
       <c r="B967" t="inlineStr">
@@ -24605,6 +24605,456 @@
         <v>0</v>
       </c>
       <c r="E967" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="inlineStr">
+        <is>
+          <t>01/10/2022</t>
+        </is>
+      </c>
+      <c r="B968" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C968" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D968" t="n">
+        <v>0</v>
+      </c>
+      <c r="E968" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="inlineStr">
+        <is>
+          <t>01/09/2022</t>
+        </is>
+      </c>
+      <c r="B969" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C969" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D969" t="n">
+        <v>0</v>
+      </c>
+      <c r="E969" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="inlineStr">
+        <is>
+          <t>01/04/2023</t>
+        </is>
+      </c>
+      <c r="B970" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C970" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D970" t="n">
+        <v>0</v>
+      </c>
+      <c r="E970" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="inlineStr">
+        <is>
+          <t>01/08/2023</t>
+        </is>
+      </c>
+      <c r="B971" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C971" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D971" t="n">
+        <v>0</v>
+      </c>
+      <c r="E971" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="inlineStr">
+        <is>
+          <t>01/12/2023</t>
+        </is>
+      </c>
+      <c r="B972" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C972" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D972" t="n">
+        <v>0</v>
+      </c>
+      <c r="E972" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="inlineStr">
+        <is>
+          <t>01/02/2023</t>
+        </is>
+      </c>
+      <c r="B973" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C973" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D973" t="n">
+        <v>0</v>
+      </c>
+      <c r="E973" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="B974" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C974" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D974" t="n">
+        <v>0</v>
+      </c>
+      <c r="E974" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="inlineStr">
+        <is>
+          <t>01/07/2023</t>
+        </is>
+      </c>
+      <c r="B975" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C975" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D975" t="n">
+        <v>0</v>
+      </c>
+      <c r="E975" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="inlineStr">
+        <is>
+          <t>01/06/2023</t>
+        </is>
+      </c>
+      <c r="B976" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C976" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D976" t="n">
+        <v>0</v>
+      </c>
+      <c r="E976" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="inlineStr">
+        <is>
+          <t>01/05/2023</t>
+        </is>
+      </c>
+      <c r="B977" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C977" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D977" t="n">
+        <v>0</v>
+      </c>
+      <c r="E977" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="inlineStr">
+        <is>
+          <t>01/03/2023</t>
+        </is>
+      </c>
+      <c r="B978" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C978" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D978" t="n">
+        <v>0</v>
+      </c>
+      <c r="E978" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="inlineStr">
+        <is>
+          <t>01/11/2023</t>
+        </is>
+      </c>
+      <c r="B979" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C979" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D979" t="n">
+        <v>0</v>
+      </c>
+      <c r="E979" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="inlineStr">
+        <is>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="B980" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C980" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D980" t="n">
+        <v>0</v>
+      </c>
+      <c r="E980" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B981" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C981" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D981" t="n">
+        <v>0</v>
+      </c>
+      <c r="E981" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+      <c r="B982" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C982" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D982" t="n">
+        <v>0</v>
+      </c>
+      <c r="E982" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B983" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C983" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D983" t="n">
+        <v>0</v>
+      </c>
+      <c r="E983" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="inlineStr">
+        <is>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="B984" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C984" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D984" t="n">
+        <v>0</v>
+      </c>
+      <c r="E984" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="inlineStr">
+        <is>
+          <t>01/03/2024</t>
+        </is>
+      </c>
+      <c r="B985" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C985" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D985" t="n">
+        <v>0</v>
+      </c>
+      <c r="E985" t="inlineStr">
         <is>
           <t>SERGIPE</t>
         </is>

--- a/Data/g8.2.xlsx
+++ b/Data/g8.2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E985"/>
+  <dimension ref="A1:E988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16813,7 +16813,7 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>01/03/2024</t>
+          <t>01/05/2024</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
@@ -16827,7 +16827,7 @@
         </is>
       </c>
       <c r="D656" t="n">
-        <v>72.51000000000001</v>
+        <v>68.96599999999999</v>
       </c>
       <c r="E656" t="inlineStr">
         <is>
@@ -16838,7 +16838,7 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>01/03/2024</t>
+          <t>01/05/2024</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
@@ -16852,7 +16852,7 @@
         </is>
       </c>
       <c r="D657" t="n">
-        <v>1639.846</v>
+        <v>1893.56</v>
       </c>
       <c r="E657" t="inlineStr">
         <is>
@@ -16863,21 +16863,21 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>01/04/1997</t>
+          <t>01/03/2024</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA</t>
+          <t>MAR</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>LGN</t>
+          <t>GÁS NATURAL</t>
         </is>
       </c>
       <c r="D658" t="n">
-        <v>20951</v>
+        <v>72.51000000000001</v>
       </c>
       <c r="E658" t="inlineStr">
         <is>
@@ -16888,21 +16888,21 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>01/08/1997</t>
+          <t>01/03/2024</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA</t>
+          <t>TERRA</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>LGN</t>
+          <t>GÁS NATURAL</t>
         </is>
       </c>
       <c r="D659" t="n">
-        <v>24698</v>
+        <v>1639.846</v>
       </c>
       <c r="E659" t="inlineStr">
         <is>
@@ -16913,7 +16913,7 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>01/12/1997</t>
+          <t>01/04/1997</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
@@ -16927,7 +16927,7 @@
         </is>
       </c>
       <c r="D660" t="n">
-        <v>23230</v>
+        <v>20951</v>
       </c>
       <c r="E660" t="inlineStr">
         <is>
@@ -16938,7 +16938,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>01/02/1997</t>
+          <t>01/08/1997</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
@@ -16952,7 +16952,7 @@
         </is>
       </c>
       <c r="D661" t="n">
-        <v>19007</v>
+        <v>24698</v>
       </c>
       <c r="E661" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>01/01/1997</t>
+          <t>01/12/1997</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
@@ -16977,7 +16977,7 @@
         </is>
       </c>
       <c r="D662" t="n">
-        <v>18978</v>
+        <v>23230</v>
       </c>
       <c r="E662" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>01/07/1997</t>
+          <t>01/02/1997</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
@@ -17002,7 +17002,7 @@
         </is>
       </c>
       <c r="D663" t="n">
-        <v>23232</v>
+        <v>19007</v>
       </c>
       <c r="E663" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>01/06/1997</t>
+          <t>01/01/1997</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
@@ -17027,7 +17027,7 @@
         </is>
       </c>
       <c r="D664" t="n">
-        <v>22449</v>
+        <v>18978</v>
       </c>
       <c r="E664" t="inlineStr">
         <is>
@@ -17038,7 +17038,7 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>01/05/1997</t>
+          <t>01/07/1997</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
@@ -17052,7 +17052,7 @@
         </is>
       </c>
       <c r="D665" t="n">
-        <v>24757</v>
+        <v>23232</v>
       </c>
       <c r="E665" t="inlineStr">
         <is>
@@ -17063,7 +17063,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>01/03/1997</t>
+          <t>01/06/1997</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
@@ -17077,7 +17077,7 @@
         </is>
       </c>
       <c r="D666" t="n">
-        <v>19807</v>
+        <v>22449</v>
       </c>
       <c r="E666" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>01/11/1997</t>
+          <t>01/05/1997</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
@@ -17102,7 +17102,7 @@
         </is>
       </c>
       <c r="D667" t="n">
-        <v>22027</v>
+        <v>24757</v>
       </c>
       <c r="E667" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>01/10/1997</t>
+          <t>01/03/1997</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D668" t="n">
-        <v>21890</v>
+        <v>19807</v>
       </c>
       <c r="E668" t="inlineStr">
         <is>
@@ -17138,7 +17138,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>01/09/1997</t>
+          <t>01/11/1997</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
@@ -17152,7 +17152,7 @@
         </is>
       </c>
       <c r="D669" t="n">
-        <v>22749</v>
+        <v>22027</v>
       </c>
       <c r="E669" t="inlineStr">
         <is>
@@ -17163,7 +17163,7 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>01/04/1998</t>
+          <t>01/10/1997</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
@@ -17177,7 +17177,7 @@
         </is>
       </c>
       <c r="D670" t="n">
-        <v>131778.0699</v>
+        <v>21890</v>
       </c>
       <c r="E670" t="inlineStr">
         <is>
@@ -17188,7 +17188,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>01/08/1998</t>
+          <t>01/09/1997</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
@@ -17202,7 +17202,7 @@
         </is>
       </c>
       <c r="D671" t="n">
-        <v>155346.0346</v>
+        <v>22749</v>
       </c>
       <c r="E671" t="inlineStr">
         <is>
@@ -17213,7 +17213,7 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>01/12/1998</t>
+          <t>01/04/1998</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="D672" t="n">
-        <v>146112.5752</v>
+        <v>131778.0699</v>
       </c>
       <c r="E672" t="inlineStr">
         <is>
@@ -17238,7 +17238,7 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>01/02/1998</t>
+          <t>01/08/1998</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
@@ -17252,7 +17252,7 @@
         </is>
       </c>
       <c r="D673" t="n">
-        <v>119550.6551</v>
+        <v>155346.0346</v>
       </c>
       <c r="E673" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>01/01/1998</t>
+          <t>01/12/1998</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
@@ -17277,7 +17277,7 @@
         </is>
       </c>
       <c r="D674" t="n">
-        <v>119368.2502</v>
+        <v>146112.5752</v>
       </c>
       <c r="E674" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>01/07/1998</t>
+          <t>01/02/1998</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
@@ -17302,7 +17302,7 @@
         </is>
       </c>
       <c r="D675" t="n">
-        <v>146125.1549</v>
+        <v>119550.6551</v>
       </c>
       <c r="E675" t="inlineStr">
         <is>
@@ -17313,7 +17313,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>01/06/1998</t>
+          <t>01/01/1998</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
@@ -17327,7 +17327,7 @@
         </is>
       </c>
       <c r="D676" t="n">
-        <v>141200.2239</v>
+        <v>119368.2502</v>
       </c>
       <c r="E676" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>01/05/1998</t>
+          <t>01/07/1998</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
@@ -17352,7 +17352,7 @@
         </is>
       </c>
       <c r="D677" t="n">
-        <v>155717.1341</v>
+        <v>146125.1549</v>
       </c>
       <c r="E677" t="inlineStr">
         <is>
@@ -17363,7 +17363,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>01/03/1998</t>
+          <t>01/06/1998</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
@@ -17377,7 +17377,7 @@
         </is>
       </c>
       <c r="D678" t="n">
-        <v>124582.513</v>
+        <v>141200.2239</v>
       </c>
       <c r="E678" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>01/11/1998</t>
+          <t>01/05/1998</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
@@ -17402,7 +17402,7 @@
         </is>
       </c>
       <c r="D679" t="n">
-        <v>138545.9188</v>
+        <v>155717.1341</v>
       </c>
       <c r="E679" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>01/10/1998</t>
+          <t>01/03/1998</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
@@ -17427,7 +17427,7 @@
         </is>
       </c>
       <c r="D680" t="n">
-        <v>137684.2132</v>
+        <v>124582.513</v>
       </c>
       <c r="E680" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>01/09/1998</t>
+          <t>01/11/1998</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
@@ -17452,7 +17452,7 @@
         </is>
       </c>
       <c r="D681" t="n">
-        <v>143087.1706</v>
+        <v>138545.9188</v>
       </c>
       <c r="E681" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>01/04/1999</t>
+          <t>01/10/1998</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
@@ -17477,7 +17477,7 @@
         </is>
       </c>
       <c r="D682" t="n">
-        <v>24546</v>
+        <v>137684.2132</v>
       </c>
       <c r="E682" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>01/08/1999</t>
+          <t>01/09/1998</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
@@ -17502,7 +17502,7 @@
         </is>
       </c>
       <c r="D683" t="n">
-        <v>23247</v>
+        <v>143087.1706</v>
       </c>
       <c r="E683" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>01/12/1999</t>
+          <t>01/04/1999</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D684" t="n">
-        <v>24640</v>
+        <v>24546</v>
       </c>
       <c r="E684" t="inlineStr">
         <is>
@@ -17538,7 +17538,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>01/02/1999</t>
+          <t>01/08/1999</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
@@ -17552,7 +17552,7 @@
         </is>
       </c>
       <c r="D685" t="n">
-        <v>22448</v>
+        <v>23247</v>
       </c>
       <c r="E685" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>01/01/1999</t>
+          <t>01/12/1999</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
@@ -17577,7 +17577,7 @@
         </is>
       </c>
       <c r="D686" t="n">
-        <v>24629</v>
+        <v>24640</v>
       </c>
       <c r="E686" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>01/07/1999</t>
+          <t>01/02/1999</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
@@ -17602,7 +17602,7 @@
         </is>
       </c>
       <c r="D687" t="n">
-        <v>22323</v>
+        <v>22448</v>
       </c>
       <c r="E687" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>01/06/1999</t>
+          <t>01/01/1999</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
@@ -17627,7 +17627,7 @@
         </is>
       </c>
       <c r="D688" t="n">
-        <v>24653</v>
+        <v>24629</v>
       </c>
       <c r="E688" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>01/05/1999</t>
+          <t>01/07/1999</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
@@ -17652,7 +17652,7 @@
         </is>
       </c>
       <c r="D689" t="n">
-        <v>25678</v>
+        <v>22323</v>
       </c>
       <c r="E689" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>01/03/1999</t>
+          <t>01/06/1999</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
@@ -17677,7 +17677,7 @@
         </is>
       </c>
       <c r="D690" t="n">
-        <v>25737</v>
+        <v>24653</v>
       </c>
       <c r="E690" t="inlineStr">
         <is>
@@ -17688,7 +17688,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>01/11/1999</t>
+          <t>01/05/1999</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
@@ -17702,7 +17702,7 @@
         </is>
       </c>
       <c r="D691" t="n">
-        <v>25481</v>
+        <v>25678</v>
       </c>
       <c r="E691" t="inlineStr">
         <is>
@@ -17713,7 +17713,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>01/10/1999</t>
+          <t>01/03/1999</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
@@ -17727,7 +17727,7 @@
         </is>
       </c>
       <c r="D692" t="n">
-        <v>25601</v>
+        <v>25737</v>
       </c>
       <c r="E692" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>01/09/1999</t>
+          <t>01/11/1999</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
@@ -17752,7 +17752,7 @@
         </is>
       </c>
       <c r="D693" t="n">
-        <v>24686</v>
+        <v>25481</v>
       </c>
       <c r="E693" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>01/04/2000</t>
+          <t>01/10/1999</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
@@ -17777,7 +17777,7 @@
         </is>
       </c>
       <c r="D694" t="n">
-        <v>25440</v>
+        <v>25601</v>
       </c>
       <c r="E694" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>01/08/2000</t>
+          <t>01/09/1999</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
@@ -17802,7 +17802,7 @@
         </is>
       </c>
       <c r="D695" t="n">
-        <v>27353</v>
+        <v>24686</v>
       </c>
       <c r="E695" t="inlineStr">
         <is>
@@ -17813,7 +17813,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>01/12/2000</t>
+          <t>01/04/2000</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
@@ -17827,7 +17827,7 @@
         </is>
       </c>
       <c r="D696" t="n">
-        <v>26071</v>
+        <v>25440</v>
       </c>
       <c r="E696" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>01/02/2000</t>
+          <t>01/08/2000</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
@@ -17852,7 +17852,7 @@
         </is>
       </c>
       <c r="D697" t="n">
-        <v>25123</v>
+        <v>27353</v>
       </c>
       <c r="E697" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>01/01/2000</t>
+          <t>01/12/2000</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
@@ -17877,7 +17877,7 @@
         </is>
       </c>
       <c r="D698" t="n">
-        <v>26480</v>
+        <v>26071</v>
       </c>
       <c r="E698" t="inlineStr">
         <is>
@@ -17888,7 +17888,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>01/07/2000</t>
+          <t>01/02/2000</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
@@ -17902,7 +17902,7 @@
         </is>
       </c>
       <c r="D699" t="n">
-        <v>26914</v>
+        <v>25123</v>
       </c>
       <c r="E699" t="inlineStr">
         <is>
@@ -17913,7 +17913,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>01/06/2000</t>
+          <t>01/01/2000</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D700" t="n">
-        <v>26044</v>
+        <v>26480</v>
       </c>
       <c r="E700" t="inlineStr">
         <is>
@@ -17938,7 +17938,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>01/05/2000</t>
+          <t>01/07/2000</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
@@ -17952,7 +17952,7 @@
         </is>
       </c>
       <c r="D701" t="n">
-        <v>26406</v>
+        <v>26914</v>
       </c>
       <c r="E701" t="inlineStr">
         <is>
@@ -17963,7 +17963,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>01/03/2000</t>
+          <t>01/06/2000</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
@@ -17977,7 +17977,7 @@
         </is>
       </c>
       <c r="D702" t="n">
-        <v>26572</v>
+        <v>26044</v>
       </c>
       <c r="E702" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>01/11/2000</t>
+          <t>01/05/2000</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
@@ -18002,7 +18002,7 @@
         </is>
       </c>
       <c r="D703" t="n">
-        <v>13928</v>
+        <v>26406</v>
       </c>
       <c r="E703" t="inlineStr">
         <is>
@@ -18013,7 +18013,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>01/10/2000</t>
+          <t>01/03/2000</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
@@ -18027,7 +18027,7 @@
         </is>
       </c>
       <c r="D704" t="n">
-        <v>26965</v>
+        <v>26572</v>
       </c>
       <c r="E704" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>01/09/2000</t>
+          <t>01/11/2000</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
@@ -18052,7 +18052,7 @@
         </is>
       </c>
       <c r="D705" t="n">
-        <v>26129</v>
+        <v>13928</v>
       </c>
       <c r="E705" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>01/04/2001</t>
+          <t>01/10/2000</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
@@ -18077,7 +18077,7 @@
         </is>
       </c>
       <c r="D706" t="n">
-        <v>18378</v>
+        <v>26965</v>
       </c>
       <c r="E706" t="inlineStr">
         <is>
@@ -18088,7 +18088,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>01/08/2001</t>
+          <t>01/09/2000</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
@@ -18102,7 +18102,7 @@
         </is>
       </c>
       <c r="D707" t="n">
-        <v>26465</v>
+        <v>26129</v>
       </c>
       <c r="E707" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>01/12/2001</t>
+          <t>01/04/2001</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
@@ -18127,7 +18127,7 @@
         </is>
       </c>
       <c r="D708" t="n">
-        <v>26876</v>
+        <v>18378</v>
       </c>
       <c r="E708" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>01/02/2001</t>
+          <t>01/08/2001</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
@@ -18152,7 +18152,7 @@
         </is>
       </c>
       <c r="D709" t="n">
-        <v>23797</v>
+        <v>26465</v>
       </c>
       <c r="E709" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>01/01/2001</t>
+          <t>01/12/2001</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
@@ -18177,7 +18177,7 @@
         </is>
       </c>
       <c r="D710" t="n">
-        <v>26536</v>
+        <v>26876</v>
       </c>
       <c r="E710" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>01/07/2001</t>
+          <t>01/02/2001</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
@@ -18202,7 +18202,7 @@
         </is>
       </c>
       <c r="D711" t="n">
-        <v>27236</v>
+        <v>23797</v>
       </c>
       <c r="E711" t="inlineStr">
         <is>
@@ -18213,7 +18213,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>01/06/2001</t>
+          <t>01/01/2001</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
@@ -18227,7 +18227,7 @@
         </is>
       </c>
       <c r="D712" t="n">
-        <v>25806</v>
+        <v>26536</v>
       </c>
       <c r="E712" t="inlineStr">
         <is>
@@ -18238,7 +18238,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>01/05/2001</t>
+          <t>01/07/2001</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
@@ -18252,7 +18252,7 @@
         </is>
       </c>
       <c r="D713" t="n">
-        <v>22691</v>
+        <v>27236</v>
       </c>
       <c r="E713" t="inlineStr">
         <is>
@@ -18263,7 +18263,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>01/03/2001</t>
+          <t>01/06/2001</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
@@ -18277,7 +18277,7 @@
         </is>
       </c>
       <c r="D714" t="n">
-        <v>25605</v>
+        <v>25806</v>
       </c>
       <c r="E714" t="inlineStr">
         <is>
@@ -18288,7 +18288,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>01/11/2001</t>
+          <t>01/05/2001</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
@@ -18302,7 +18302,7 @@
         </is>
       </c>
       <c r="D715" t="n">
-        <v>25852</v>
+        <v>22691</v>
       </c>
       <c r="E715" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>01/10/2001</t>
+          <t>01/03/2001</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D716" t="n">
-        <v>26322</v>
+        <v>25605</v>
       </c>
       <c r="E716" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>01/09/2001</t>
+          <t>01/11/2001</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
@@ -18352,7 +18352,7 @@
         </is>
       </c>
       <c r="D717" t="n">
-        <v>23625</v>
+        <v>25852</v>
       </c>
       <c r="E717" t="inlineStr">
         <is>
@@ -18363,7 +18363,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>01/04/2002</t>
+          <t>01/10/2001</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
@@ -18377,7 +18377,7 @@
         </is>
       </c>
       <c r="D718" t="n">
-        <v>23065</v>
+        <v>26322</v>
       </c>
       <c r="E718" t="inlineStr">
         <is>
@@ -18388,7 +18388,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>01/08/2002</t>
+          <t>01/09/2001</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
@@ -18402,7 +18402,7 @@
         </is>
       </c>
       <c r="D719" t="n">
-        <v>25580</v>
+        <v>23625</v>
       </c>
       <c r="E719" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>01/12/2002</t>
+          <t>01/04/2002</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
@@ -18427,7 +18427,7 @@
         </is>
       </c>
       <c r="D720" t="n">
-        <v>24957</v>
+        <v>23065</v>
       </c>
       <c r="E720" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>01/02/2002</t>
+          <t>01/08/2002</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
@@ -18452,7 +18452,7 @@
         </is>
       </c>
       <c r="D721" t="n">
-        <v>24096</v>
+        <v>25580</v>
       </c>
       <c r="E721" t="inlineStr">
         <is>
@@ -18463,7 +18463,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>01/01/2002</t>
+          <t>01/12/2002</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D722" t="n">
-        <v>27239</v>
+        <v>24957</v>
       </c>
       <c r="E722" t="inlineStr">
         <is>
@@ -18488,7 +18488,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>01/07/2002</t>
+          <t>01/02/2002</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
@@ -18502,7 +18502,7 @@
         </is>
       </c>
       <c r="D723" t="n">
-        <v>25911</v>
+        <v>24096</v>
       </c>
       <c r="E723" t="inlineStr">
         <is>
@@ -18513,7 +18513,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>01/06/2002</t>
+          <t>01/01/2002</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
@@ -18527,7 +18527,7 @@
         </is>
       </c>
       <c r="D724" t="n">
-        <v>24854</v>
+        <v>27239</v>
       </c>
       <c r="E724" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>01/05/2002</t>
+          <t>01/07/2002</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
@@ -18552,7 +18552,7 @@
         </is>
       </c>
       <c r="D725" t="n">
-        <v>24983</v>
+        <v>25911</v>
       </c>
       <c r="E725" t="inlineStr">
         <is>
@@ -18563,7 +18563,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>01/03/2002</t>
+          <t>01/06/2002</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
@@ -18577,7 +18577,7 @@
         </is>
       </c>
       <c r="D726" t="n">
-        <v>25381</v>
+        <v>24854</v>
       </c>
       <c r="E726" t="inlineStr">
         <is>
@@ -18588,7 +18588,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>01/11/2002</t>
+          <t>01/05/2002</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
@@ -18602,7 +18602,7 @@
         </is>
       </c>
       <c r="D727" t="n">
-        <v>24648</v>
+        <v>24983</v>
       </c>
       <c r="E727" t="inlineStr">
         <is>
@@ -18613,7 +18613,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>01/10/2002</t>
+          <t>01/03/2002</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
@@ -18627,7 +18627,7 @@
         </is>
       </c>
       <c r="D728" t="n">
-        <v>24992</v>
+        <v>25381</v>
       </c>
       <c r="E728" t="inlineStr">
         <is>
@@ -18638,7 +18638,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>01/09/2002</t>
+          <t>01/11/2002</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
@@ -18652,7 +18652,7 @@
         </is>
       </c>
       <c r="D729" t="n">
-        <v>24400</v>
+        <v>24648</v>
       </c>
       <c r="E729" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>01/04/2003</t>
+          <t>01/10/2002</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
@@ -18677,7 +18677,7 @@
         </is>
       </c>
       <c r="D730" t="n">
-        <v>20841</v>
+        <v>24992</v>
       </c>
       <c r="E730" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>01/08/2003</t>
+          <t>01/09/2002</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
@@ -18702,7 +18702,7 @@
         </is>
       </c>
       <c r="D731" t="n">
-        <v>25463</v>
+        <v>24400</v>
       </c>
       <c r="E731" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>01/12/2003</t>
+          <t>01/04/2003</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D732" t="n">
-        <v>24965</v>
+        <v>20841</v>
       </c>
       <c r="E732" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>01/02/2003</t>
+          <t>01/08/2003</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
@@ -18752,7 +18752,7 @@
         </is>
       </c>
       <c r="D733" t="n">
-        <v>20388</v>
+        <v>25463</v>
       </c>
       <c r="E733" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>01/01/2003</t>
+          <t>01/12/2003</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
@@ -18777,7 +18777,7 @@
         </is>
       </c>
       <c r="D734" t="n">
-        <v>24971</v>
+        <v>24965</v>
       </c>
       <c r="E734" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>01/07/2003</t>
+          <t>01/02/2003</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
@@ -18802,7 +18802,7 @@
         </is>
       </c>
       <c r="D735" t="n">
-        <v>23560</v>
+        <v>20388</v>
       </c>
       <c r="E735" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>01/06/2003</t>
+          <t>01/01/2003</t>
         </is>
       </c>
       <c r="B736" t="inlineStr">
@@ -18827,7 +18827,7 @@
         </is>
       </c>
       <c r="D736" t="n">
-        <v>22761</v>
+        <v>24971</v>
       </c>
       <c r="E736" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>01/05/2003</t>
+          <t>01/07/2003</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
@@ -18852,7 +18852,7 @@
         </is>
       </c>
       <c r="D737" t="n">
-        <v>23510</v>
+        <v>23560</v>
       </c>
       <c r="E737" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>01/03/2003</t>
+          <t>01/06/2003</t>
         </is>
       </c>
       <c r="B738" t="inlineStr">
@@ -18877,7 +18877,7 @@
         </is>
       </c>
       <c r="D738" t="n">
-        <v>25907</v>
+        <v>22761</v>
       </c>
       <c r="E738" t="inlineStr">
         <is>
@@ -18888,7 +18888,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>01/11/2003</t>
+          <t>01/05/2003</t>
         </is>
       </c>
       <c r="B739" t="inlineStr">
@@ -18902,7 +18902,7 @@
         </is>
       </c>
       <c r="D739" t="n">
-        <v>24041</v>
+        <v>23510</v>
       </c>
       <c r="E739" t="inlineStr">
         <is>
@@ -18913,7 +18913,7 @@
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>01/10/2003</t>
+          <t>01/03/2003</t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
@@ -18927,7 +18927,7 @@
         </is>
       </c>
       <c r="D740" t="n">
-        <v>24023</v>
+        <v>25907</v>
       </c>
       <c r="E740" t="inlineStr">
         <is>
@@ -18938,7 +18938,7 @@
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>01/09/2003</t>
+          <t>01/11/2003</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
@@ -18952,7 +18952,7 @@
         </is>
       </c>
       <c r="D741" t="n">
-        <v>24294</v>
+        <v>24041</v>
       </c>
       <c r="E741" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>01/04/2004</t>
+          <t>01/10/2003</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
@@ -18977,7 +18977,7 @@
         </is>
       </c>
       <c r="D742" t="n">
-        <v>24411</v>
+        <v>24023</v>
       </c>
       <c r="E742" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>01/08/2004</t>
+          <t>01/09/2003</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
@@ -19002,7 +19002,7 @@
         </is>
       </c>
       <c r="D743" t="n">
-        <v>25873</v>
+        <v>24294</v>
       </c>
       <c r="E743" t="inlineStr">
         <is>
@@ -19013,7 +19013,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>01/12/2004</t>
+          <t>01/04/2004</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="D744" t="n">
-        <v>25343</v>
+        <v>24411</v>
       </c>
       <c r="E744" t="inlineStr">
         <is>
@@ -19038,7 +19038,7 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>01/02/2004</t>
+          <t>01/08/2004</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
@@ -19052,7 +19052,7 @@
         </is>
       </c>
       <c r="D745" t="n">
-        <v>23497</v>
+        <v>25873</v>
       </c>
       <c r="E745" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>01/01/2004</t>
+          <t>01/12/2004</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
@@ -19077,7 +19077,7 @@
         </is>
       </c>
       <c r="D746" t="n">
-        <v>23975</v>
+        <v>25343</v>
       </c>
       <c r="E746" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>01/02/2004</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
@@ -19102,7 +19102,7 @@
         </is>
       </c>
       <c r="D747" t="n">
-        <v>24979</v>
+        <v>23497</v>
       </c>
       <c r="E747" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>01/06/2004</t>
+          <t>01/01/2004</t>
         </is>
       </c>
       <c r="B748" t="inlineStr">
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D748" t="n">
-        <v>23413</v>
+        <v>23975</v>
       </c>
       <c r="E748" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>01/05/2004</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="B749" t="inlineStr">
@@ -19152,7 +19152,7 @@
         </is>
       </c>
       <c r="D749" t="n">
-        <v>21313</v>
+        <v>24979</v>
       </c>
       <c r="E749" t="inlineStr">
         <is>
@@ -19163,7 +19163,7 @@
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>01/03/2004</t>
+          <t>01/06/2004</t>
         </is>
       </c>
       <c r="B750" t="inlineStr">
@@ -19177,7 +19177,7 @@
         </is>
       </c>
       <c r="D750" t="n">
-        <v>25118</v>
+        <v>23413</v>
       </c>
       <c r="E750" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>01/11/2004</t>
+          <t>01/05/2004</t>
         </is>
       </c>
       <c r="B751" t="inlineStr">
@@ -19202,7 +19202,7 @@
         </is>
       </c>
       <c r="D751" t="n">
-        <v>24463</v>
+        <v>21313</v>
       </c>
       <c r="E751" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>01/10/2004</t>
+          <t>01/03/2004</t>
         </is>
       </c>
       <c r="B752" t="inlineStr">
@@ -19227,7 +19227,7 @@
         </is>
       </c>
       <c r="D752" t="n">
-        <v>25566</v>
+        <v>25118</v>
       </c>
       <c r="E752" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>01/09/2004</t>
+          <t>01/11/2004</t>
         </is>
       </c>
       <c r="B753" t="inlineStr">
@@ -19252,7 +19252,7 @@
         </is>
       </c>
       <c r="D753" t="n">
-        <v>24720</v>
+        <v>24463</v>
       </c>
       <c r="E753" t="inlineStr">
         <is>
@@ -19263,7 +19263,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>01/04/2005</t>
+          <t>01/10/2004</t>
         </is>
       </c>
       <c r="B754" t="inlineStr">
@@ -19277,7 +19277,7 @@
         </is>
       </c>
       <c r="D754" t="n">
-        <v>23924</v>
+        <v>25566</v>
       </c>
       <c r="E754" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>01/08/2005</t>
+          <t>01/09/2004</t>
         </is>
       </c>
       <c r="B755" t="inlineStr">
@@ -19302,7 +19302,7 @@
         </is>
       </c>
       <c r="D755" t="n">
-        <v>25213</v>
+        <v>24720</v>
       </c>
       <c r="E755" t="inlineStr">
         <is>
@@ -19313,7 +19313,7 @@
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>01/12/2005</t>
+          <t>01/04/2005</t>
         </is>
       </c>
       <c r="B756" t="inlineStr">
@@ -19327,7 +19327,7 @@
         </is>
       </c>
       <c r="D756" t="n">
-        <v>24602</v>
+        <v>23924</v>
       </c>
       <c r="E756" t="inlineStr">
         <is>
@@ -19338,7 +19338,7 @@
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>01/02/2005</t>
+          <t>01/08/2005</t>
         </is>
       </c>
       <c r="B757" t="inlineStr">
@@ -19352,7 +19352,7 @@
         </is>
       </c>
       <c r="D757" t="n">
-        <v>22710</v>
+        <v>25213</v>
       </c>
       <c r="E757" t="inlineStr">
         <is>
@@ -19363,7 +19363,7 @@
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>01/01/2005</t>
+          <t>01/12/2005</t>
         </is>
       </c>
       <c r="B758" t="inlineStr">
@@ -19377,7 +19377,7 @@
         </is>
       </c>
       <c r="D758" t="n">
-        <v>24972</v>
+        <v>24602</v>
       </c>
       <c r="E758" t="inlineStr">
         <is>
@@ -19388,7 +19388,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>01/07/2005</t>
+          <t>01/02/2005</t>
         </is>
       </c>
       <c r="B759" t="inlineStr">
@@ -19402,7 +19402,7 @@
         </is>
       </c>
       <c r="D759" t="n">
-        <v>25582</v>
+        <v>22710</v>
       </c>
       <c r="E759" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>01/06/2005</t>
+          <t>01/01/2005</t>
         </is>
       </c>
       <c r="B760" t="inlineStr">
@@ -19427,7 +19427,7 @@
         </is>
       </c>
       <c r="D760" t="n">
-        <v>24359</v>
+        <v>24972</v>
       </c>
       <c r="E760" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>01/05/2005</t>
+          <t>01/07/2005</t>
         </is>
       </c>
       <c r="B761" t="inlineStr">
@@ -19452,7 +19452,7 @@
         </is>
       </c>
       <c r="D761" t="n">
-        <v>24053</v>
+        <v>25582</v>
       </c>
       <c r="E761" t="inlineStr">
         <is>
@@ -19463,7 +19463,7 @@
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>01/03/2005</t>
+          <t>01/06/2005</t>
         </is>
       </c>
       <c r="B762" t="inlineStr">
@@ -19477,7 +19477,7 @@
         </is>
       </c>
       <c r="D762" t="n">
-        <v>24836</v>
+        <v>24359</v>
       </c>
       <c r="E762" t="inlineStr">
         <is>
@@ -19488,7 +19488,7 @@
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>01/11/2005</t>
+          <t>01/05/2005</t>
         </is>
       </c>
       <c r="B763" t="inlineStr">
@@ -19502,7 +19502,7 @@
         </is>
       </c>
       <c r="D763" t="n">
-        <v>24169</v>
+        <v>24053</v>
       </c>
       <c r="E763" t="inlineStr">
         <is>
@@ -19513,7 +19513,7 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>01/10/2005</t>
+          <t>01/03/2005</t>
         </is>
       </c>
       <c r="B764" t="inlineStr">
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D764" t="n">
-        <v>26281</v>
+        <v>24836</v>
       </c>
       <c r="E764" t="inlineStr">
         <is>
@@ -19538,7 +19538,7 @@
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>01/09/2005</t>
+          <t>01/11/2005</t>
         </is>
       </c>
       <c r="B765" t="inlineStr">
@@ -19552,7 +19552,7 @@
         </is>
       </c>
       <c r="D765" t="n">
-        <v>24180</v>
+        <v>24169</v>
       </c>
       <c r="E765" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>01/04/2006</t>
+          <t>01/10/2005</t>
         </is>
       </c>
       <c r="B766" t="inlineStr">
@@ -19577,7 +19577,7 @@
         </is>
       </c>
       <c r="D766" t="n">
-        <v>24527</v>
+        <v>26281</v>
       </c>
       <c r="E766" t="inlineStr">
         <is>
@@ -19588,7 +19588,7 @@
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>01/08/2006</t>
+          <t>01/09/2005</t>
         </is>
       </c>
       <c r="B767" t="inlineStr">
@@ -19602,7 +19602,7 @@
         </is>
       </c>
       <c r="D767" t="n">
-        <v>25491</v>
+        <v>24180</v>
       </c>
       <c r="E767" t="inlineStr">
         <is>
@@ -19613,7 +19613,7 @@
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>01/12/2006</t>
+          <t>01/04/2006</t>
         </is>
       </c>
       <c r="B768" t="inlineStr">
@@ -19627,7 +19627,7 @@
         </is>
       </c>
       <c r="D768" t="n">
-        <v>25271</v>
+        <v>24527</v>
       </c>
       <c r="E768" t="inlineStr">
         <is>
@@ -19638,7 +19638,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>01/02/2006</t>
+          <t>01/08/2006</t>
         </is>
       </c>
       <c r="B769" t="inlineStr">
@@ -19652,7 +19652,7 @@
         </is>
       </c>
       <c r="D769" t="n">
-        <v>23056</v>
+        <v>25491</v>
       </c>
       <c r="E769" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>01/01/2006</t>
+          <t>01/12/2006</t>
         </is>
       </c>
       <c r="B770" t="inlineStr">
@@ -19677,7 +19677,7 @@
         </is>
       </c>
       <c r="D770" t="n">
-        <v>24843</v>
+        <v>25271</v>
       </c>
       <c r="E770" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>01/07/2006</t>
+          <t>01/02/2006</t>
         </is>
       </c>
       <c r="B771" t="inlineStr">
@@ -19702,7 +19702,7 @@
         </is>
       </c>
       <c r="D771" t="n">
-        <v>25344</v>
+        <v>23056</v>
       </c>
       <c r="E771" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>01/06/2006</t>
+          <t>01/01/2006</t>
         </is>
       </c>
       <c r="B772" t="inlineStr">
@@ -19727,7 +19727,7 @@
         </is>
       </c>
       <c r="D772" t="n">
-        <v>25090</v>
+        <v>24843</v>
       </c>
       <c r="E772" t="inlineStr">
         <is>
@@ -19738,7 +19738,7 @@
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>01/05/2006</t>
+          <t>01/07/2006</t>
         </is>
       </c>
       <c r="B773" t="inlineStr">
@@ -19752,7 +19752,7 @@
         </is>
       </c>
       <c r="D773" t="n">
-        <v>25719</v>
+        <v>25344</v>
       </c>
       <c r="E773" t="inlineStr">
         <is>
@@ -19763,7 +19763,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>01/03/2006</t>
+          <t>01/06/2006</t>
         </is>
       </c>
       <c r="B774" t="inlineStr">
@@ -19777,7 +19777,7 @@
         </is>
       </c>
       <c r="D774" t="n">
-        <v>11740</v>
+        <v>25090</v>
       </c>
       <c r="E774" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>01/11/2006</t>
+          <t>01/05/2006</t>
         </is>
       </c>
       <c r="B775" t="inlineStr">
@@ -19802,7 +19802,7 @@
         </is>
       </c>
       <c r="D775" t="n">
-        <v>23278</v>
+        <v>25719</v>
       </c>
       <c r="E775" t="inlineStr">
         <is>
@@ -19813,7 +19813,7 @@
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>01/10/2006</t>
+          <t>01/03/2006</t>
         </is>
       </c>
       <c r="B776" t="inlineStr">
@@ -19827,7 +19827,7 @@
         </is>
       </c>
       <c r="D776" t="n">
-        <v>23622</v>
+        <v>11740</v>
       </c>
       <c r="E776" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>01/09/2006</t>
+          <t>01/11/2006</t>
         </is>
       </c>
       <c r="B777" t="inlineStr">
@@ -19852,7 +19852,7 @@
         </is>
       </c>
       <c r="D777" t="n">
-        <v>24562</v>
+        <v>23278</v>
       </c>
       <c r="E777" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>01/04/2007</t>
+          <t>01/10/2006</t>
         </is>
       </c>
       <c r="B778" t="inlineStr">
@@ -19877,7 +19877,7 @@
         </is>
       </c>
       <c r="D778" t="n">
-        <v>21384</v>
+        <v>23622</v>
       </c>
       <c r="E778" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>01/08/2007</t>
+          <t>01/09/2006</t>
         </is>
       </c>
       <c r="B779" t="inlineStr">
@@ -19902,7 +19902,7 @@
         </is>
       </c>
       <c r="D779" t="n">
-        <v>23805</v>
+        <v>24562</v>
       </c>
       <c r="E779" t="inlineStr">
         <is>
@@ -19913,7 +19913,7 @@
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>01/12/2007</t>
+          <t>01/04/2007</t>
         </is>
       </c>
       <c r="B780" t="inlineStr">
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D780" t="n">
-        <v>22898</v>
+        <v>21384</v>
       </c>
       <c r="E780" t="inlineStr">
         <is>
@@ -19938,7 +19938,7 @@
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>01/02/2007</t>
+          <t>01/08/2007</t>
         </is>
       </c>
       <c r="B781" t="inlineStr">
@@ -19952,7 +19952,7 @@
         </is>
       </c>
       <c r="D781" t="n">
-        <v>21968</v>
+        <v>23805</v>
       </c>
       <c r="E781" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>01/01/2007</t>
+          <t>01/12/2007</t>
         </is>
       </c>
       <c r="B782" t="inlineStr">
@@ -19977,7 +19977,7 @@
         </is>
       </c>
       <c r="D782" t="n">
-        <v>25496</v>
+        <v>22898</v>
       </c>
       <c r="E782" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>01/07/2007</t>
+          <t>01/02/2007</t>
         </is>
       </c>
       <c r="B783" t="inlineStr">
@@ -20002,7 +20002,7 @@
         </is>
       </c>
       <c r="D783" t="n">
-        <v>23875</v>
+        <v>21968</v>
       </c>
       <c r="E783" t="inlineStr">
         <is>
@@ -20013,7 +20013,7 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>01/06/2007</t>
+          <t>01/01/2007</t>
         </is>
       </c>
       <c r="B784" t="inlineStr">
@@ -20027,7 +20027,7 @@
         </is>
       </c>
       <c r="D784" t="n">
-        <v>22080</v>
+        <v>25496</v>
       </c>
       <c r="E784" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>01/05/2007</t>
+          <t>01/07/2007</t>
         </is>
       </c>
       <c r="B785" t="inlineStr">
@@ -20052,7 +20052,7 @@
         </is>
       </c>
       <c r="D785" t="n">
-        <v>18737</v>
+        <v>23875</v>
       </c>
       <c r="E785" t="inlineStr">
         <is>
@@ -20063,7 +20063,7 @@
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>01/03/2007</t>
+          <t>01/06/2007</t>
         </is>
       </c>
       <c r="B786" t="inlineStr">
@@ -20077,7 +20077,7 @@
         </is>
       </c>
       <c r="D786" t="n">
-        <v>24212</v>
+        <v>22080</v>
       </c>
       <c r="E786" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>01/11/2007</t>
+          <t>01/05/2007</t>
         </is>
       </c>
       <c r="B787" t="inlineStr">
@@ -20102,7 +20102,7 @@
         </is>
       </c>
       <c r="D787" t="n">
-        <v>22033</v>
+        <v>18737</v>
       </c>
       <c r="E787" t="inlineStr">
         <is>
@@ -20113,7 +20113,7 @@
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>01/10/2007</t>
+          <t>01/03/2007</t>
         </is>
       </c>
       <c r="B788" t="inlineStr">
@@ -20127,7 +20127,7 @@
         </is>
       </c>
       <c r="D788" t="n">
-        <v>23866</v>
+        <v>24212</v>
       </c>
       <c r="E788" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>01/09/2007</t>
+          <t>01/11/2007</t>
         </is>
       </c>
       <c r="B789" t="inlineStr">
@@ -20152,7 +20152,7 @@
         </is>
       </c>
       <c r="D789" t="n">
-        <v>24017</v>
+        <v>22033</v>
       </c>
       <c r="E789" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>01/04/2008</t>
+          <t>01/10/2007</t>
         </is>
       </c>
       <c r="B790" t="inlineStr">
@@ -20177,7 +20177,7 @@
         </is>
       </c>
       <c r="D790" t="n">
-        <v>22341</v>
+        <v>23866</v>
       </c>
       <c r="E790" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>01/08/2008</t>
+          <t>01/09/2007</t>
         </is>
       </c>
       <c r="B791" t="inlineStr">
@@ -20202,7 +20202,7 @@
         </is>
       </c>
       <c r="D791" t="n">
-        <v>23413.9993</v>
+        <v>24017</v>
       </c>
       <c r="E791" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>01/12/2008</t>
+          <t>01/04/2008</t>
         </is>
       </c>
       <c r="B792" t="inlineStr">
@@ -20227,7 +20227,7 @@
         </is>
       </c>
       <c r="D792" t="n">
-        <v>21243.0011</v>
+        <v>22341</v>
       </c>
       <c r="E792" t="inlineStr">
         <is>
@@ -20238,7 +20238,7 @@
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>01/02/2008</t>
+          <t>01/08/2008</t>
         </is>
       </c>
       <c r="B793" t="inlineStr">
@@ -20252,7 +20252,7 @@
         </is>
       </c>
       <c r="D793" t="n">
-        <v>20461</v>
+        <v>23413.9993</v>
       </c>
       <c r="E793" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>01/01/2008</t>
+          <t>01/12/2008</t>
         </is>
       </c>
       <c r="B794" t="inlineStr">
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D794" t="n">
-        <v>22454</v>
+        <v>21243.0011</v>
       </c>
       <c r="E794" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>01/07/2008</t>
+          <t>01/02/2008</t>
         </is>
       </c>
       <c r="B795" t="inlineStr">
@@ -20302,7 +20302,7 @@
         </is>
       </c>
       <c r="D795" t="n">
-        <v>22084.0001</v>
+        <v>20461</v>
       </c>
       <c r="E795" t="inlineStr">
         <is>
@@ -20313,7 +20313,7 @@
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>01/06/2008</t>
+          <t>01/01/2008</t>
         </is>
       </c>
       <c r="B796" t="inlineStr">
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D796" t="n">
-        <v>21446.001</v>
+        <v>22454</v>
       </c>
       <c r="E796" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>01/05/2008</t>
+          <t>01/07/2008</t>
         </is>
       </c>
       <c r="B797" t="inlineStr">
@@ -20352,7 +20352,7 @@
         </is>
       </c>
       <c r="D797" t="n">
-        <v>22333</v>
+        <v>22084.0001</v>
       </c>
       <c r="E797" t="inlineStr">
         <is>
@@ -20363,7 +20363,7 @@
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>01/03/2008</t>
+          <t>01/06/2008</t>
         </is>
       </c>
       <c r="B798" t="inlineStr">
@@ -20377,7 +20377,7 @@
         </is>
       </c>
       <c r="D798" t="n">
-        <v>22425</v>
+        <v>21446.001</v>
       </c>
       <c r="E798" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>01/11/2008</t>
+          <t>01/05/2008</t>
         </is>
       </c>
       <c r="B799" t="inlineStr">
@@ -20402,7 +20402,7 @@
         </is>
       </c>
       <c r="D799" t="n">
-        <v>20454</v>
+        <v>22333</v>
       </c>
       <c r="E799" t="inlineStr">
         <is>
@@ -20413,7 +20413,7 @@
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>01/03/2008</t>
         </is>
       </c>
       <c r="B800" t="inlineStr">
@@ -20427,7 +20427,7 @@
         </is>
       </c>
       <c r="D800" t="n">
-        <v>19738.9989</v>
+        <v>22425</v>
       </c>
       <c r="E800" t="inlineStr">
         <is>
@@ -20438,7 +20438,7 @@
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>01/09/2008</t>
+          <t>01/11/2008</t>
         </is>
       </c>
       <c r="B801" t="inlineStr">
@@ -20452,7 +20452,7 @@
         </is>
       </c>
       <c r="D801" t="n">
-        <v>21581.001</v>
+        <v>20454</v>
       </c>
       <c r="E801" t="inlineStr">
         <is>
@@ -20463,7 +20463,7 @@
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>01/04/2009</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="B802" t="inlineStr">
@@ -20477,7 +20477,7 @@
         </is>
       </c>
       <c r="D802" t="n">
-        <v>20352.999</v>
+        <v>19738.9989</v>
       </c>
       <c r="E802" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>01/08/2009</t>
+          <t>01/09/2008</t>
         </is>
       </c>
       <c r="B803" t="inlineStr">
@@ -20502,7 +20502,7 @@
         </is>
       </c>
       <c r="D803" t="n">
-        <v>19636.0014</v>
+        <v>21581.001</v>
       </c>
       <c r="E803" t="inlineStr">
         <is>
@@ -20513,7 +20513,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>01/12/2009</t>
+          <t>01/04/2009</t>
         </is>
       </c>
       <c r="B804" t="inlineStr">
@@ -20527,7 +20527,7 @@
         </is>
       </c>
       <c r="D804" t="n">
-        <v>20058.9995</v>
+        <v>20352.999</v>
       </c>
       <c r="E804" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>01/02/2009</t>
+          <t>01/08/2009</t>
         </is>
       </c>
       <c r="B805" t="inlineStr">
@@ -20552,7 +20552,7 @@
         </is>
       </c>
       <c r="D805" t="n">
-        <v>18858.9996</v>
+        <v>19636.0014</v>
       </c>
       <c r="E805" t="inlineStr">
         <is>
@@ -20563,7 +20563,7 @@
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>01/01/2009</t>
+          <t>01/12/2009</t>
         </is>
       </c>
       <c r="B806" t="inlineStr">
@@ -20577,7 +20577,7 @@
         </is>
       </c>
       <c r="D806" t="n">
-        <v>22225.0005</v>
+        <v>20058.9995</v>
       </c>
       <c r="E806" t="inlineStr">
         <is>
@@ -20588,7 +20588,7 @@
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>01/07/2009</t>
+          <t>01/02/2009</t>
         </is>
       </c>
       <c r="B807" t="inlineStr">
@@ -20602,7 +20602,7 @@
         </is>
       </c>
       <c r="D807" t="n">
-        <v>20578.0015</v>
+        <v>18858.9996</v>
       </c>
       <c r="E807" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>01/06/2009</t>
+          <t>01/01/2009</t>
         </is>
       </c>
       <c r="B808" t="inlineStr">
@@ -20627,7 +20627,7 @@
         </is>
       </c>
       <c r="D808" t="n">
-        <v>20096.001</v>
+        <v>22225.0005</v>
       </c>
       <c r="E808" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>01/05/2009</t>
+          <t>01/07/2009</t>
         </is>
       </c>
       <c r="B809" t="inlineStr">
@@ -20652,7 +20652,7 @@
         </is>
       </c>
       <c r="D809" t="n">
-        <v>20487.001</v>
+        <v>20578.0015</v>
       </c>
       <c r="E809" t="inlineStr">
         <is>
@@ -20663,7 +20663,7 @@
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>01/03/2009</t>
+          <t>01/06/2009</t>
         </is>
       </c>
       <c r="B810" t="inlineStr">
@@ -20677,7 +20677,7 @@
         </is>
       </c>
       <c r="D810" t="n">
-        <v>21078.9987</v>
+        <v>20096.001</v>
       </c>
       <c r="E810" t="inlineStr">
         <is>
@@ -20688,7 +20688,7 @@
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>01/11/2009</t>
+          <t>01/05/2009</t>
         </is>
       </c>
       <c r="B811" t="inlineStr">
@@ -20702,7 +20702,7 @@
         </is>
       </c>
       <c r="D811" t="n">
-        <v>19530</v>
+        <v>20487.001</v>
       </c>
       <c r="E811" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>01/10/2009</t>
+          <t>01/03/2009</t>
         </is>
       </c>
       <c r="B812" t="inlineStr">
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D812" t="n">
-        <v>19538.0011</v>
+        <v>21078.9987</v>
       </c>
       <c r="E812" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>01/09/2009</t>
+          <t>01/11/2009</t>
         </is>
       </c>
       <c r="B813" t="inlineStr">
@@ -20752,7 +20752,7 @@
         </is>
       </c>
       <c r="D813" t="n">
-        <v>19464</v>
+        <v>19530</v>
       </c>
       <c r="E813" t="inlineStr">
         <is>
@@ -20763,7 +20763,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>01/04/2010</t>
+          <t>01/10/2009</t>
         </is>
       </c>
       <c r="B814" t="inlineStr">
@@ -20777,7 +20777,7 @@
         </is>
       </c>
       <c r="D814" t="n">
-        <v>18477</v>
+        <v>19538.0011</v>
       </c>
       <c r="E814" t="inlineStr">
         <is>
@@ -20788,7 +20788,7 @@
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>01/08/2010</t>
+          <t>01/09/2009</t>
         </is>
       </c>
       <c r="B815" t="inlineStr">
@@ -20802,7 +20802,7 @@
         </is>
       </c>
       <c r="D815" t="n">
-        <v>19472</v>
+        <v>19464</v>
       </c>
       <c r="E815" t="inlineStr">
         <is>
@@ -20813,7 +20813,7 @@
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>01/12/2010</t>
+          <t>01/04/2010</t>
         </is>
       </c>
       <c r="B816" t="inlineStr">
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="D816" t="n">
-        <v>19253</v>
+        <v>18477</v>
       </c>
       <c r="E816" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>01/02/2010</t>
+          <t>01/08/2010</t>
         </is>
       </c>
       <c r="B817" t="inlineStr">
@@ -20852,7 +20852,7 @@
         </is>
       </c>
       <c r="D817" t="n">
-        <v>17250</v>
+        <v>19472</v>
       </c>
       <c r="E817" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>01/01/2010</t>
+          <t>01/12/2010</t>
         </is>
       </c>
       <c r="B818" t="inlineStr">
@@ -20877,7 +20877,7 @@
         </is>
       </c>
       <c r="D818" t="n">
-        <v>19822</v>
+        <v>19253</v>
       </c>
       <c r="E818" t="inlineStr">
         <is>
@@ -20888,7 +20888,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>01/07/2010</t>
+          <t>01/02/2010</t>
         </is>
       </c>
       <c r="B819" t="inlineStr">
@@ -20902,7 +20902,7 @@
         </is>
       </c>
       <c r="D819" t="n">
-        <v>19943</v>
+        <v>17250</v>
       </c>
       <c r="E819" t="inlineStr">
         <is>
@@ -20913,7 +20913,7 @@
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>01/06/2010</t>
+          <t>01/01/2010</t>
         </is>
       </c>
       <c r="B820" t="inlineStr">
@@ -20927,7 +20927,7 @@
         </is>
       </c>
       <c r="D820" t="n">
-        <v>18899</v>
+        <v>19822</v>
       </c>
       <c r="E820" t="inlineStr">
         <is>
@@ -20938,7 +20938,7 @@
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>01/05/2010</t>
+          <t>01/07/2010</t>
         </is>
       </c>
       <c r="B821" t="inlineStr">
@@ -20952,7 +20952,7 @@
         </is>
       </c>
       <c r="D821" t="n">
-        <v>19225</v>
+        <v>19943</v>
       </c>
       <c r="E821" t="inlineStr">
         <is>
@@ -20963,7 +20963,7 @@
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>01/03/2010</t>
+          <t>01/06/2010</t>
         </is>
       </c>
       <c r="B822" t="inlineStr">
@@ -20977,7 +20977,7 @@
         </is>
       </c>
       <c r="D822" t="n">
-        <v>18557</v>
+        <v>18899</v>
       </c>
       <c r="E822" t="inlineStr">
         <is>
@@ -20988,7 +20988,7 @@
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>01/11/2010</t>
+          <t>01/05/2010</t>
         </is>
       </c>
       <c r="B823" t="inlineStr">
@@ -21002,7 +21002,7 @@
         </is>
       </c>
       <c r="D823" t="n">
-        <v>18252</v>
+        <v>19225</v>
       </c>
       <c r="E823" t="inlineStr">
         <is>
@@ -21013,7 +21013,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>01/10/2010</t>
+          <t>01/03/2010</t>
         </is>
       </c>
       <c r="B824" t="inlineStr">
@@ -21027,7 +21027,7 @@
         </is>
       </c>
       <c r="D824" t="n">
-        <v>19679</v>
+        <v>18557</v>
       </c>
       <c r="E824" t="inlineStr">
         <is>
@@ -21038,7 +21038,7 @@
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>01/09/2010</t>
+          <t>01/11/2010</t>
         </is>
       </c>
       <c r="B825" t="inlineStr">
@@ -21052,7 +21052,7 @@
         </is>
       </c>
       <c r="D825" t="n">
-        <v>18162</v>
+        <v>18252</v>
       </c>
       <c r="E825" t="inlineStr">
         <is>
@@ -21063,7 +21063,7 @@
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>01/04/2011</t>
+          <t>01/10/2010</t>
         </is>
       </c>
       <c r="B826" t="inlineStr">
@@ -21077,7 +21077,7 @@
         </is>
       </c>
       <c r="D826" t="n">
-        <v>14211.9</v>
+        <v>19679</v>
       </c>
       <c r="E826" t="inlineStr">
         <is>
@@ -21088,7 +21088,7 @@
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>01/08/2011</t>
+          <t>01/09/2010</t>
         </is>
       </c>
       <c r="B827" t="inlineStr">
@@ -21102,7 +21102,7 @@
         </is>
       </c>
       <c r="D827" t="n">
-        <v>15656.1</v>
+        <v>18162</v>
       </c>
       <c r="E827" t="inlineStr">
         <is>
@@ -21113,7 +21113,7 @@
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>01/12/2011</t>
+          <t>01/04/2011</t>
         </is>
       </c>
       <c r="B828" t="inlineStr">
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D828" t="n">
-        <v>16836.5</v>
+        <v>14211.9</v>
       </c>
       <c r="E828" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>01/02/2011</t>
+          <t>01/08/2011</t>
         </is>
       </c>
       <c r="B829" t="inlineStr">
@@ -21152,7 +21152,7 @@
         </is>
       </c>
       <c r="D829" t="n">
-        <v>15945.6</v>
+        <v>15656.1</v>
       </c>
       <c r="E829" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>01/01/2011</t>
+          <t>01/12/2011</t>
         </is>
       </c>
       <c r="B830" t="inlineStr">
@@ -21177,7 +21177,7 @@
         </is>
       </c>
       <c r="D830" t="n">
-        <v>18522.8</v>
+        <v>16836.5</v>
       </c>
       <c r="E830" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>01/07/2011</t>
+          <t>01/02/2011</t>
         </is>
       </c>
       <c r="B831" t="inlineStr">
@@ -21202,7 +21202,7 @@
         </is>
       </c>
       <c r="D831" t="n">
-        <v>14478.2</v>
+        <v>15945.6</v>
       </c>
       <c r="E831" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>01/06/2011</t>
+          <t>01/01/2011</t>
         </is>
       </c>
       <c r="B832" t="inlineStr">
@@ -21227,7 +21227,7 @@
         </is>
       </c>
       <c r="D832" t="n">
-        <v>15871.3</v>
+        <v>18522.8</v>
       </c>
       <c r="E832" t="inlineStr">
         <is>
@@ -21238,7 +21238,7 @@
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>01/05/2011</t>
+          <t>01/07/2011</t>
         </is>
       </c>
       <c r="B833" t="inlineStr">
@@ -21252,7 +21252,7 @@
         </is>
       </c>
       <c r="D833" t="n">
-        <v>17668.9</v>
+        <v>14478.2</v>
       </c>
       <c r="E833" t="inlineStr">
         <is>
@@ -21263,7 +21263,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>01/03/2011</t>
+          <t>01/06/2011</t>
         </is>
       </c>
       <c r="B834" t="inlineStr">
@@ -21277,7 +21277,7 @@
         </is>
       </c>
       <c r="D834" t="n">
-        <v>10940.8</v>
+        <v>15871.3</v>
       </c>
       <c r="E834" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>01/11/2011</t>
+          <t>01/05/2011</t>
         </is>
       </c>
       <c r="B835" t="inlineStr">
@@ -21302,7 +21302,7 @@
         </is>
       </c>
       <c r="D835" t="n">
-        <v>15787.4</v>
+        <v>17668.9</v>
       </c>
       <c r="E835" t="inlineStr">
         <is>
@@ -21313,7 +21313,7 @@
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>01/10/2011</t>
+          <t>01/03/2011</t>
         </is>
       </c>
       <c r="B836" t="inlineStr">
@@ -21327,7 +21327,7 @@
         </is>
       </c>
       <c r="D836" t="n">
-        <v>16134.4</v>
+        <v>10940.8</v>
       </c>
       <c r="E836" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>01/09/2011</t>
+          <t>01/11/2011</t>
         </is>
       </c>
       <c r="B837" t="inlineStr">
@@ -21352,7 +21352,7 @@
         </is>
       </c>
       <c r="D837" t="n">
-        <v>15096.4</v>
+        <v>15787.4</v>
       </c>
       <c r="E837" t="inlineStr">
         <is>
@@ -21363,7 +21363,7 @@
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>01/04/2012</t>
+          <t>01/10/2011</t>
         </is>
       </c>
       <c r="B838" t="inlineStr">
@@ -21377,7 +21377,7 @@
         </is>
       </c>
       <c r="D838" t="n">
-        <v>10707.1</v>
+        <v>16134.4</v>
       </c>
       <c r="E838" t="inlineStr">
         <is>
@@ -21388,7 +21388,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>01/08/2012</t>
+          <t>01/09/2011</t>
         </is>
       </c>
       <c r="B839" t="inlineStr">
@@ -21402,7 +21402,7 @@
         </is>
       </c>
       <c r="D839" t="n">
-        <v>16193.1</v>
+        <v>15096.4</v>
       </c>
       <c r="E839" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>01/12/2012</t>
+          <t>01/04/2012</t>
         </is>
       </c>
       <c r="B840" t="inlineStr">
@@ -21427,7 +21427,7 @@
         </is>
       </c>
       <c r="D840" t="n">
-        <v>17393.3</v>
+        <v>10707.1</v>
       </c>
       <c r="E840" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>01/02/2012</t>
+          <t>01/08/2012</t>
         </is>
       </c>
       <c r="B841" t="inlineStr">
@@ -21452,7 +21452,7 @@
         </is>
       </c>
       <c r="D841" t="n">
-        <v>14260.4</v>
+        <v>16193.1</v>
       </c>
       <c r="E841" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>01/12/2012</t>
         </is>
       </c>
       <c r="B842" t="inlineStr">
@@ -21477,7 +21477,7 @@
         </is>
       </c>
       <c r="D842" t="n">
-        <v>16058.3</v>
+        <v>17393.3</v>
       </c>
       <c r="E842" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>01/07/2012</t>
+          <t>01/02/2012</t>
         </is>
       </c>
       <c r="B843" t="inlineStr">
@@ -21502,7 +21502,7 @@
         </is>
       </c>
       <c r="D843" t="n">
-        <v>12701.4</v>
+        <v>14260.4</v>
       </c>
       <c r="E843" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>01/06/2012</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="B844" t="inlineStr">
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D844" t="n">
-        <v>10851.8</v>
+        <v>16058.3</v>
       </c>
       <c r="E844" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>01/05/2012</t>
+          <t>01/07/2012</t>
         </is>
       </c>
       <c r="B845" t="inlineStr">
@@ -21552,7 +21552,7 @@
         </is>
       </c>
       <c r="D845" t="n">
-        <v>10692</v>
+        <v>12701.4</v>
       </c>
       <c r="E845" t="inlineStr">
         <is>
@@ -21563,7 +21563,7 @@
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>01/03/2012</t>
+          <t>01/06/2012</t>
         </is>
       </c>
       <c r="B846" t="inlineStr">
@@ -21577,7 +21577,7 @@
         </is>
       </c>
       <c r="D846" t="n">
-        <v>14311.3</v>
+        <v>10851.8</v>
       </c>
       <c r="E846" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>01/11/2012</t>
+          <t>01/05/2012</t>
         </is>
       </c>
       <c r="B847" t="inlineStr">
@@ -21602,7 +21602,7 @@
         </is>
       </c>
       <c r="D847" t="n">
-        <v>16574.9</v>
+        <v>10692</v>
       </c>
       <c r="E847" t="inlineStr">
         <is>
@@ -21613,7 +21613,7 @@
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>01/10/2012</t>
+          <t>01/03/2012</t>
         </is>
       </c>
       <c r="B848" t="inlineStr">
@@ -21627,7 +21627,7 @@
         </is>
       </c>
       <c r="D848" t="n">
-        <v>13682.2</v>
+        <v>14311.3</v>
       </c>
       <c r="E848" t="inlineStr">
         <is>
@@ -21638,7 +21638,7 @@
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>01/09/2012</t>
+          <t>01/11/2012</t>
         </is>
       </c>
       <c r="B849" t="inlineStr">
@@ -21652,7 +21652,7 @@
         </is>
       </c>
       <c r="D849" t="n">
-        <v>12246</v>
+        <v>16574.9</v>
       </c>
       <c r="E849" t="inlineStr">
         <is>
@@ -21663,7 +21663,7 @@
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>01/04/2013</t>
+          <t>01/10/2012</t>
         </is>
       </c>
       <c r="B850" t="inlineStr">
@@ -21677,7 +21677,7 @@
         </is>
       </c>
       <c r="D850" t="n">
-        <v>15186.2</v>
+        <v>13682.2</v>
       </c>
       <c r="E850" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>01/08/2013</t>
+          <t>01/09/2012</t>
         </is>
       </c>
       <c r="B851" t="inlineStr">
@@ -21702,7 +21702,7 @@
         </is>
       </c>
       <c r="D851" t="n">
-        <v>14998.4</v>
+        <v>12246</v>
       </c>
       <c r="E851" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>01/12/2013</t>
+          <t>01/04/2013</t>
         </is>
       </c>
       <c r="B852" t="inlineStr">
@@ -21727,7 +21727,7 @@
         </is>
       </c>
       <c r="D852" t="n">
-        <v>15576.1</v>
+        <v>15186.2</v>
       </c>
       <c r="E852" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>01/02/2013</t>
+          <t>01/08/2013</t>
         </is>
       </c>
       <c r="B853" t="inlineStr">
@@ -21752,7 +21752,7 @@
         </is>
       </c>
       <c r="D853" t="n">
-        <v>14992.1</v>
+        <v>14998.4</v>
       </c>
       <c r="E853" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/12/2013</t>
         </is>
       </c>
       <c r="B854" t="inlineStr">
@@ -21777,7 +21777,7 @@
         </is>
       </c>
       <c r="D854" t="n">
-        <v>16653.1</v>
+        <v>15576.1</v>
       </c>
       <c r="E854" t="inlineStr">
         <is>
@@ -21788,7 +21788,7 @@
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>01/07/2013</t>
+          <t>01/02/2013</t>
         </is>
       </c>
       <c r="B855" t="inlineStr">
@@ -21802,7 +21802,7 @@
         </is>
       </c>
       <c r="D855" t="n">
-        <v>15326.3</v>
+        <v>14992.1</v>
       </c>
       <c r="E855" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>01/06/2013</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="B856" t="inlineStr">
@@ -21827,7 +21827,7 @@
         </is>
       </c>
       <c r="D856" t="n">
-        <v>15355.6</v>
+        <v>16653.1</v>
       </c>
       <c r="E856" t="inlineStr">
         <is>
@@ -21838,7 +21838,7 @@
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>01/05/2013</t>
+          <t>01/07/2013</t>
         </is>
       </c>
       <c r="B857" t="inlineStr">
@@ -21852,7 +21852,7 @@
         </is>
       </c>
       <c r="D857" t="n">
-        <v>14825.2</v>
+        <v>15326.3</v>
       </c>
       <c r="E857" t="inlineStr">
         <is>
@@ -21863,7 +21863,7 @@
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>01/03/2013</t>
+          <t>01/06/2013</t>
         </is>
       </c>
       <c r="B858" t="inlineStr">
@@ -21877,7 +21877,7 @@
         </is>
       </c>
       <c r="D858" t="n">
-        <v>15537.2</v>
+        <v>15355.6</v>
       </c>
       <c r="E858" t="inlineStr">
         <is>
@@ -21888,7 +21888,7 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>01/11/2013</t>
+          <t>01/05/2013</t>
         </is>
       </c>
       <c r="B859" t="inlineStr">
@@ -21902,7 +21902,7 @@
         </is>
       </c>
       <c r="D859" t="n">
-        <v>14997.2</v>
+        <v>14825.2</v>
       </c>
       <c r="E859" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>01/03/2013</t>
         </is>
       </c>
       <c r="B860" t="inlineStr">
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D860" t="n">
-        <v>14495.7</v>
+        <v>15537.2</v>
       </c>
       <c r="E860" t="inlineStr">
         <is>
@@ -21938,7 +21938,7 @@
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>01/09/2013</t>
+          <t>01/11/2013</t>
         </is>
       </c>
       <c r="B861" t="inlineStr">
@@ -21952,7 +21952,7 @@
         </is>
       </c>
       <c r="D861" t="n">
-        <v>14777.2</v>
+        <v>14997.2</v>
       </c>
       <c r="E861" t="inlineStr">
         <is>
@@ -21963,7 +21963,7 @@
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>01/04/2014</t>
+          <t>01/10/2013</t>
         </is>
       </c>
       <c r="B862" t="inlineStr">
@@ -21977,7 +21977,7 @@
         </is>
       </c>
       <c r="D862" t="n">
-        <v>15228.7</v>
+        <v>14495.7</v>
       </c>
       <c r="E862" t="inlineStr">
         <is>
@@ -21988,7 +21988,7 @@
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>01/08/2014</t>
+          <t>01/09/2013</t>
         </is>
       </c>
       <c r="B863" t="inlineStr">
@@ -22002,7 +22002,7 @@
         </is>
       </c>
       <c r="D863" t="n">
-        <v>14545.5</v>
+        <v>14777.2</v>
       </c>
       <c r="E863" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>01/12/2014</t>
+          <t>01/04/2014</t>
         </is>
       </c>
       <c r="B864" t="inlineStr">
@@ -22027,7 +22027,7 @@
         </is>
       </c>
       <c r="D864" t="n">
-        <v>13264.2</v>
+        <v>15228.7</v>
       </c>
       <c r="E864" t="inlineStr">
         <is>
@@ -22038,7 +22038,7 @@
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>01/02/2014</t>
+          <t>01/08/2014</t>
         </is>
       </c>
       <c r="B865" t="inlineStr">
@@ -22052,7 +22052,7 @@
         </is>
       </c>
       <c r="D865" t="n">
-        <v>13542.3</v>
+        <v>14545.5</v>
       </c>
       <c r="E865" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/12/2014</t>
         </is>
       </c>
       <c r="B866" t="inlineStr">
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D866" t="n">
-        <v>15019.1</v>
+        <v>13264.2</v>
       </c>
       <c r="E866" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
+          <t>01/02/2014</t>
         </is>
       </c>
       <c r="B867" t="inlineStr">
@@ -22102,7 +22102,7 @@
         </is>
       </c>
       <c r="D867" t="n">
-        <v>14900.7</v>
+        <v>13542.3</v>
       </c>
       <c r="E867" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>01/06/2014</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="B868" t="inlineStr">
@@ -22127,7 +22127,7 @@
         </is>
       </c>
       <c r="D868" t="n">
-        <v>14977.9</v>
+        <v>15019.1</v>
       </c>
       <c r="E868" t="inlineStr">
         <is>
@@ -22138,7 +22138,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>01/05/2014</t>
+          <t>01/07/2014</t>
         </is>
       </c>
       <c r="B869" t="inlineStr">
@@ -22152,7 +22152,7 @@
         </is>
       </c>
       <c r="D869" t="n">
-        <v>16141.5</v>
+        <v>14900.7</v>
       </c>
       <c r="E869" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>01/03/2014</t>
+          <t>01/06/2014</t>
         </is>
       </c>
       <c r="B870" t="inlineStr">
@@ -22177,7 +22177,7 @@
         </is>
       </c>
       <c r="D870" t="n">
-        <v>15178.7</v>
+        <v>14977.9</v>
       </c>
       <c r="E870" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>01/11/2014</t>
+          <t>01/05/2014</t>
         </is>
       </c>
       <c r="B871" t="inlineStr">
@@ -22202,7 +22202,7 @@
         </is>
       </c>
       <c r="D871" t="n">
-        <v>11227.8</v>
+        <v>16141.5</v>
       </c>
       <c r="E871" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>01/10/2014</t>
+          <t>01/03/2014</t>
         </is>
       </c>
       <c r="B872" t="inlineStr">
@@ -22227,7 +22227,7 @@
         </is>
       </c>
       <c r="D872" t="n">
-        <v>14384.8</v>
+        <v>15178.7</v>
       </c>
       <c r="E872" t="inlineStr">
         <is>
@@ -22238,7 +22238,7 @@
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>01/09/2014</t>
+          <t>01/11/2014</t>
         </is>
       </c>
       <c r="B873" t="inlineStr">
@@ -22252,7 +22252,7 @@
         </is>
       </c>
       <c r="D873" t="n">
-        <v>13936.6</v>
+        <v>11227.8</v>
       </c>
       <c r="E873" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>01/04/2015</t>
+          <t>01/10/2014</t>
         </is>
       </c>
       <c r="B874" t="inlineStr">
@@ -22277,7 +22277,7 @@
         </is>
       </c>
       <c r="D874" t="n">
-        <v>13917.8</v>
+        <v>14384.8</v>
       </c>
       <c r="E874" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>01/08/2015</t>
+          <t>01/09/2014</t>
         </is>
       </c>
       <c r="B875" t="inlineStr">
@@ -22302,7 +22302,7 @@
         </is>
       </c>
       <c r="D875" t="n">
-        <v>11403.3</v>
+        <v>13936.6</v>
       </c>
       <c r="E875" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>01/12/2015</t>
+          <t>01/04/2015</t>
         </is>
       </c>
       <c r="B876" t="inlineStr">
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D876" t="n">
-        <v>9425.700000000001</v>
+        <v>13917.8</v>
       </c>
       <c r="E876" t="inlineStr">
         <is>
@@ -22338,7 +22338,7 @@
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>01/02/2015</t>
+          <t>01/08/2015</t>
         </is>
       </c>
       <c r="B877" t="inlineStr">
@@ -22352,7 +22352,7 @@
         </is>
       </c>
       <c r="D877" t="n">
-        <v>13004.4</v>
+        <v>11403.3</v>
       </c>
       <c r="E877" t="inlineStr">
         <is>
@@ -22363,7 +22363,7 @@
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/12/2015</t>
         </is>
       </c>
       <c r="B878" t="inlineStr">
@@ -22377,7 +22377,7 @@
         </is>
       </c>
       <c r="D878" t="n">
-        <v>14478.2</v>
+        <v>9425.700000000001</v>
       </c>
       <c r="E878" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>01/07/2015</t>
+          <t>01/02/2015</t>
         </is>
       </c>
       <c r="B879" t="inlineStr">
@@ -22402,7 +22402,7 @@
         </is>
       </c>
       <c r="D879" t="n">
-        <v>11946.4</v>
+        <v>13004.4</v>
       </c>
       <c r="E879" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>01/06/2015</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="B880" t="inlineStr">
@@ -22427,7 +22427,7 @@
         </is>
       </c>
       <c r="D880" t="n">
-        <v>12385.6</v>
+        <v>14478.2</v>
       </c>
       <c r="E880" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>01/05/2015</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="B881" t="inlineStr">
@@ -22452,7 +22452,7 @@
         </is>
       </c>
       <c r="D881" t="n">
-        <v>12823.9</v>
+        <v>11946.4</v>
       </c>
       <c r="E881" t="inlineStr">
         <is>
@@ -22463,7 +22463,7 @@
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>01/03/2015</t>
+          <t>01/06/2015</t>
         </is>
       </c>
       <c r="B882" t="inlineStr">
@@ -22477,7 +22477,7 @@
         </is>
       </c>
       <c r="D882" t="n">
-        <v>14916.8</v>
+        <v>12385.6</v>
       </c>
       <c r="E882" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>01/11/2015</t>
+          <t>01/05/2015</t>
         </is>
       </c>
       <c r="B883" t="inlineStr">
@@ -22502,7 +22502,7 @@
         </is>
       </c>
       <c r="D883" t="n">
-        <v>5361.7</v>
+        <v>12823.9</v>
       </c>
       <c r="E883" t="inlineStr">
         <is>
@@ -22513,7 +22513,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/03/2015</t>
         </is>
       </c>
       <c r="B884" t="inlineStr">
@@ -22527,7 +22527,7 @@
         </is>
       </c>
       <c r="D884" t="n">
-        <v>11384.7</v>
+        <v>14916.8</v>
       </c>
       <c r="E884" t="inlineStr">
         <is>
@@ -22538,7 +22538,7 @@
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>01/09/2015</t>
+          <t>01/11/2015</t>
         </is>
       </c>
       <c r="B885" t="inlineStr">
@@ -22552,7 +22552,7 @@
         </is>
       </c>
       <c r="D885" t="n">
-        <v>11927.3</v>
+        <v>5361.7</v>
       </c>
       <c r="E885" t="inlineStr">
         <is>
@@ -22563,7 +22563,7 @@
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>01/04/2016</t>
+          <t>01/10/2015</t>
         </is>
       </c>
       <c r="B886" t="inlineStr">
@@ -22577,7 +22577,7 @@
         </is>
       </c>
       <c r="D886" t="n">
-        <v>9074.1</v>
+        <v>11384.7</v>
       </c>
       <c r="E886" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>01/08/2016</t>
+          <t>01/09/2015</t>
         </is>
       </c>
       <c r="B887" t="inlineStr">
@@ -22602,7 +22602,7 @@
         </is>
       </c>
       <c r="D887" t="n">
-        <v>9273.799999999999</v>
+        <v>11927.3</v>
       </c>
       <c r="E887" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>01/12/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="B888" t="inlineStr">
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="D888" t="n">
-        <v>3213.5</v>
+        <v>9074.1</v>
       </c>
       <c r="E888" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>01/02/2016</t>
+          <t>01/08/2016</t>
         </is>
       </c>
       <c r="B889" t="inlineStr">
@@ -22652,7 +22652,7 @@
         </is>
       </c>
       <c r="D889" t="n">
-        <v>8886.4</v>
+        <v>9273.799999999999</v>
       </c>
       <c r="E889" t="inlineStr">
         <is>
@@ -22663,7 +22663,7 @@
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/12/2016</t>
         </is>
       </c>
       <c r="B890" t="inlineStr">
@@ -22677,7 +22677,7 @@
         </is>
       </c>
       <c r="D890" t="n">
-        <v>9118.200000000001</v>
+        <v>3213.5</v>
       </c>
       <c r="E890" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
+          <t>01/02/2016</t>
         </is>
       </c>
       <c r="B891" t="inlineStr">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="D891" t="n">
-        <v>9093.799999999999</v>
+        <v>8886.4</v>
       </c>
       <c r="E891" t="inlineStr">
         <is>
@@ -22713,7 +22713,7 @@
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>01/06/2016</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="B892" t="inlineStr">
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D892" t="n">
-        <v>8134.5</v>
+        <v>9118.200000000001</v>
       </c>
       <c r="E892" t="inlineStr">
         <is>
@@ -22738,7 +22738,7 @@
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>01/05/2016</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="B893" t="inlineStr">
@@ -22752,7 +22752,7 @@
         </is>
       </c>
       <c r="D893" t="n">
-        <v>9412.299999999999</v>
+        <v>9093.799999999999</v>
       </c>
       <c r="E893" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>01/03/2016</t>
+          <t>01/06/2016</t>
         </is>
       </c>
       <c r="B894" t="inlineStr">
@@ -22777,7 +22777,7 @@
         </is>
       </c>
       <c r="D894" t="n">
-        <v>9861.1</v>
+        <v>8134.5</v>
       </c>
       <c r="E894" t="inlineStr">
         <is>
@@ -22788,7 +22788,7 @@
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>01/11/2016</t>
+          <t>01/05/2016</t>
         </is>
       </c>
       <c r="B895" t="inlineStr">
@@ -22802,7 +22802,7 @@
         </is>
       </c>
       <c r="D895" t="n">
-        <v>7657.6</v>
+        <v>9412.299999999999</v>
       </c>
       <c r="E895" t="inlineStr">
         <is>
@@ -22813,7 +22813,7 @@
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/03/2016</t>
         </is>
       </c>
       <c r="B896" t="inlineStr">
@@ -22827,7 +22827,7 @@
         </is>
       </c>
       <c r="D896" t="n">
-        <v>8933.1</v>
+        <v>9861.1</v>
       </c>
       <c r="E896" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>01/09/2016</t>
+          <t>01/11/2016</t>
         </is>
       </c>
       <c r="B897" t="inlineStr">
@@ -22852,7 +22852,7 @@
         </is>
       </c>
       <c r="D897" t="n">
-        <v>8977.299999999999</v>
+        <v>7657.6</v>
       </c>
       <c r="E897" t="inlineStr">
         <is>
@@ -22863,7 +22863,7 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>01/04/2017</t>
+          <t>01/10/2016</t>
         </is>
       </c>
       <c r="B898" t="inlineStr">
@@ -22877,7 +22877,7 @@
         </is>
       </c>
       <c r="D898" t="n">
-        <v>6856.1</v>
+        <v>8933.1</v>
       </c>
       <c r="E898" t="inlineStr">
         <is>
@@ -22888,7 +22888,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>01/08/2017</t>
+          <t>01/09/2016</t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
@@ -22902,7 +22902,7 @@
         </is>
       </c>
       <c r="D899" t="n">
-        <v>7185.4</v>
+        <v>8977.299999999999</v>
       </c>
       <c r="E899" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>01/12/2017</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
@@ -22927,7 +22927,7 @@
         </is>
       </c>
       <c r="D900" t="n">
-        <v>9617.700000000001</v>
+        <v>6856.1</v>
       </c>
       <c r="E900" t="inlineStr">
         <is>
@@ -22938,7 +22938,7 @@
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>01/02/2017</t>
+          <t>01/08/2017</t>
         </is>
       </c>
       <c r="B901" t="inlineStr">
@@ -22952,7 +22952,7 @@
         </is>
       </c>
       <c r="D901" t="n">
-        <v>6279.5</v>
+        <v>7185.4</v>
       </c>
       <c r="E901" t="inlineStr">
         <is>
@@ -22963,7 +22963,7 @@
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/12/2017</t>
         </is>
       </c>
       <c r="B902" t="inlineStr">
@@ -22977,7 +22977,7 @@
         </is>
       </c>
       <c r="D902" t="n">
-        <v>7743.8</v>
+        <v>9617.700000000001</v>
       </c>
       <c r="E902" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
+          <t>01/02/2017</t>
         </is>
       </c>
       <c r="B903" t="inlineStr">
@@ -23002,7 +23002,7 @@
         </is>
       </c>
       <c r="D903" t="n">
-        <v>6753.2</v>
+        <v>6279.5</v>
       </c>
       <c r="E903" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>01/06/2017</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="B904" t="inlineStr">
@@ -23027,7 +23027,7 @@
         </is>
       </c>
       <c r="D904" t="n">
-        <v>6679</v>
+        <v>7743.8</v>
       </c>
       <c r="E904" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>01/05/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="B905" t="inlineStr">
@@ -23052,7 +23052,7 @@
         </is>
       </c>
       <c r="D905" t="n">
-        <v>6777</v>
+        <v>6753.2</v>
       </c>
       <c r="E905" t="inlineStr">
         <is>
@@ -23063,7 +23063,7 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>01/03/2017</t>
+          <t>01/06/2017</t>
         </is>
       </c>
       <c r="B906" t="inlineStr">
@@ -23077,7 +23077,7 @@
         </is>
       </c>
       <c r="D906" t="n">
-        <v>7180</v>
+        <v>6679</v>
       </c>
       <c r="E906" t="inlineStr">
         <is>
@@ -23088,7 +23088,7 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>01/11/2017</t>
+          <t>01/05/2017</t>
         </is>
       </c>
       <c r="B907" t="inlineStr">
@@ -23102,7 +23102,7 @@
         </is>
       </c>
       <c r="D907" t="n">
-        <v>7720.9</v>
+        <v>6777</v>
       </c>
       <c r="E907" t="inlineStr">
         <is>
@@ -23113,7 +23113,7 @@
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/03/2017</t>
         </is>
       </c>
       <c r="B908" t="inlineStr">
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D908" t="n">
-        <v>7765.07</v>
+        <v>7180</v>
       </c>
       <c r="E908" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>01/09/2017</t>
+          <t>01/11/2017</t>
         </is>
       </c>
       <c r="B909" t="inlineStr">
@@ -23152,7 +23152,7 @@
         </is>
       </c>
       <c r="D909" t="n">
-        <v>7191.4</v>
+        <v>7720.9</v>
       </c>
       <c r="E909" t="inlineStr">
         <is>
@@ -23163,7 +23163,7 @@
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>01/04/2018</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="B910" t="inlineStr">
@@ -23177,7 +23177,7 @@
         </is>
       </c>
       <c r="D910" t="n">
-        <v>6020</v>
+        <v>7765.07</v>
       </c>
       <c r="E910" t="inlineStr">
         <is>
@@ -23188,7 +23188,7 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>01/08/2018</t>
+          <t>01/09/2017</t>
         </is>
       </c>
       <c r="B911" t="inlineStr">
@@ -23202,7 +23202,7 @@
         </is>
       </c>
       <c r="D911" t="n">
-        <v>5969</v>
+        <v>7191.4</v>
       </c>
       <c r="E911" t="inlineStr">
         <is>
@@ -23213,7 +23213,7 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>01/12/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="B912" t="inlineStr">
@@ -23227,7 +23227,7 @@
         </is>
       </c>
       <c r="D912" t="n">
-        <v>6061</v>
+        <v>6020</v>
       </c>
       <c r="E912" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>01/02/2018</t>
+          <t>01/08/2018</t>
         </is>
       </c>
       <c r="B913" t="inlineStr">
@@ -23252,7 +23252,7 @@
         </is>
       </c>
       <c r="D913" t="n">
-        <v>6141.6</v>
+        <v>5969</v>
       </c>
       <c r="E913" t="inlineStr">
         <is>
@@ -23263,7 +23263,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/12/2018</t>
         </is>
       </c>
       <c r="B914" t="inlineStr">
@@ -23277,7 +23277,7 @@
         </is>
       </c>
       <c r="D914" t="n">
-        <v>7289.478</v>
+        <v>6061</v>
       </c>
       <c r="E914" t="inlineStr">
         <is>
@@ -23288,7 +23288,7 @@
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>01/02/2018</t>
         </is>
       </c>
       <c r="B915" t="inlineStr">
@@ -23302,7 +23302,7 @@
         </is>
       </c>
       <c r="D915" t="n">
-        <v>5621.504</v>
+        <v>6141.6</v>
       </c>
       <c r="E915" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>01/06/2018</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="B916" t="inlineStr">
@@ -23327,7 +23327,7 @@
         </is>
       </c>
       <c r="D916" t="n">
-        <v>5487.042</v>
+        <v>7289.478</v>
       </c>
       <c r="E916" t="inlineStr">
         <is>
@@ -23338,7 +23338,7 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>01/05/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="B917" t="inlineStr">
@@ -23352,7 +23352,7 @@
         </is>
       </c>
       <c r="D917" t="n">
-        <v>5549.7</v>
+        <v>5621.504</v>
       </c>
       <c r="E917" t="inlineStr">
         <is>
@@ -23363,7 +23363,7 @@
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>01/03/2018</t>
+          <t>01/06/2018</t>
         </is>
       </c>
       <c r="B918" t="inlineStr">
@@ -23377,7 +23377,7 @@
         </is>
       </c>
       <c r="D918" t="n">
-        <v>6426.258</v>
+        <v>5487.042</v>
       </c>
       <c r="E918" t="inlineStr">
         <is>
@@ -23388,7 +23388,7 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>01/11/2018</t>
+          <t>01/05/2018</t>
         </is>
       </c>
       <c r="B919" t="inlineStr">
@@ -23402,7 +23402,7 @@
         </is>
       </c>
       <c r="D919" t="n">
-        <v>5685.5</v>
+        <v>5549.7</v>
       </c>
       <c r="E919" t="inlineStr">
         <is>
@@ -23413,7 +23413,7 @@
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/03/2018</t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
@@ -23427,7 +23427,7 @@
         </is>
       </c>
       <c r="D920" t="n">
-        <v>5916.66</v>
+        <v>6426.258</v>
       </c>
       <c r="E920" t="inlineStr">
         <is>
@@ -23438,7 +23438,7 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>01/09/2018</t>
+          <t>01/11/2018</t>
         </is>
       </c>
       <c r="B921" t="inlineStr">
@@ -23452,7 +23452,7 @@
         </is>
       </c>
       <c r="D921" t="n">
-        <v>5970.399</v>
+        <v>5685.5</v>
       </c>
       <c r="E921" t="inlineStr">
         <is>
@@ -23463,7 +23463,7 @@
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="B922" t="inlineStr">
@@ -23477,7 +23477,7 @@
         </is>
       </c>
       <c r="D922" t="n">
-        <v>5391.2</v>
+        <v>5916.66</v>
       </c>
       <c r="E922" t="inlineStr">
         <is>
@@ -23488,7 +23488,7 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>01/08/2019</t>
+          <t>01/09/2018</t>
         </is>
       </c>
       <c r="B923" t="inlineStr">
@@ -23502,7 +23502,7 @@
         </is>
       </c>
       <c r="D923" t="n">
-        <v>4054.5</v>
+        <v>5970.399</v>
       </c>
       <c r="E923" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>01/12/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="B924" t="inlineStr">
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D924" t="n">
-        <v>4830.4</v>
+        <v>5391.2</v>
       </c>
       <c r="E924" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>01/02/2019</t>
+          <t>01/08/2019</t>
         </is>
       </c>
       <c r="B925" t="inlineStr">
@@ -23552,7 +23552,7 @@
         </is>
       </c>
       <c r="D925" t="n">
-        <v>3997.1</v>
+        <v>4054.5</v>
       </c>
       <c r="E925" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/12/2019</t>
         </is>
       </c>
       <c r="B926" t="inlineStr">
@@ -23577,7 +23577,7 @@
         </is>
       </c>
       <c r="D926" t="n">
-        <v>5711.1</v>
+        <v>4830.4</v>
       </c>
       <c r="E926" t="inlineStr">
         <is>
@@ -23588,7 +23588,7 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/02/2019</t>
         </is>
       </c>
       <c r="B927" t="inlineStr">
@@ -23602,7 +23602,7 @@
         </is>
       </c>
       <c r="D927" t="n">
-        <v>4524.82</v>
+        <v>3997.1</v>
       </c>
       <c r="E927" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>01/06/2019</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="B928" t="inlineStr">
@@ -23627,7 +23627,7 @@
         </is>
       </c>
       <c r="D928" t="n">
-        <v>4716.577</v>
+        <v>5711.1</v>
       </c>
       <c r="E928" t="inlineStr">
         <is>
@@ -23638,7 +23638,7 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>01/05/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="B929" t="inlineStr">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="D929" t="n">
-        <v>5361.2</v>
+        <v>4524.82</v>
       </c>
       <c r="E929" t="inlineStr">
         <is>
@@ -23663,7 +23663,7 @@
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>01/03/2019</t>
+          <t>01/06/2019</t>
         </is>
       </c>
       <c r="B930" t="inlineStr">
@@ -23677,7 +23677,7 @@
         </is>
       </c>
       <c r="D930" t="n">
-        <v>4734.9</v>
+        <v>4716.577</v>
       </c>
       <c r="E930" t="inlineStr">
         <is>
@@ -23688,7 +23688,7 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>01/11/2019</t>
+          <t>01/05/2019</t>
         </is>
       </c>
       <c r="B931" t="inlineStr">
@@ -23702,7 +23702,7 @@
         </is>
       </c>
       <c r="D931" t="n">
-        <v>3812.4</v>
+        <v>5361.2</v>
       </c>
       <c r="E931" t="inlineStr">
         <is>
@@ -23713,7 +23713,7 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/03/2019</t>
         </is>
       </c>
       <c r="B932" t="inlineStr">
@@ -23727,7 +23727,7 @@
         </is>
       </c>
       <c r="D932" t="n">
-        <v>4339.8</v>
+        <v>4734.9</v>
       </c>
       <c r="E932" t="inlineStr">
         <is>
@@ -23738,7 +23738,7 @@
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>01/09/2019</t>
+          <t>01/11/2019</t>
         </is>
       </c>
       <c r="B933" t="inlineStr">
@@ -23752,7 +23752,7 @@
         </is>
       </c>
       <c r="D933" t="n">
-        <v>3820.9</v>
+        <v>3812.4</v>
       </c>
       <c r="E933" t="inlineStr">
         <is>
@@ -23763,7 +23763,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="B934" t="inlineStr">
@@ -23777,7 +23777,7 @@
         </is>
       </c>
       <c r="D934" t="n">
-        <v>0</v>
+        <v>4339.8</v>
       </c>
       <c r="E934" t="inlineStr">
         <is>
@@ -23788,7 +23788,7 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>01/08/2020</t>
+          <t>01/09/2019</t>
         </is>
       </c>
       <c r="B935" t="inlineStr">
@@ -23802,7 +23802,7 @@
         </is>
       </c>
       <c r="D935" t="n">
-        <v>0</v>
+        <v>3820.9</v>
       </c>
       <c r="E935" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>01/12/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="B936" t="inlineStr">
@@ -23838,7 +23838,7 @@
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>01/02/2020</t>
+          <t>01/08/2020</t>
         </is>
       </c>
       <c r="B937" t="inlineStr">
@@ -23852,7 +23852,7 @@
         </is>
       </c>
       <c r="D937" t="n">
-        <v>5762.358</v>
+        <v>0</v>
       </c>
       <c r="E937" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/12/2020</t>
         </is>
       </c>
       <c r="B938" t="inlineStr">
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D938" t="n">
-        <v>5560.337</v>
+        <v>0</v>
       </c>
       <c r="E938" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/02/2020</t>
         </is>
       </c>
       <c r="B939" t="inlineStr">
@@ -23902,7 +23902,7 @@
         </is>
       </c>
       <c r="D939" t="n">
-        <v>0</v>
+        <v>5762.358</v>
       </c>
       <c r="E939" t="inlineStr">
         <is>
@@ -23913,7 +23913,7 @@
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>01/06/2020</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="B940" t="inlineStr">
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D940" t="n">
-        <v>0</v>
+        <v>5560.337</v>
       </c>
       <c r="E940" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>01/05/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="B941" t="inlineStr">
@@ -23963,7 +23963,7 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>01/03/2020</t>
+          <t>01/06/2020</t>
         </is>
       </c>
       <c r="B942" t="inlineStr">
@@ -23977,7 +23977,7 @@
         </is>
       </c>
       <c r="D942" t="n">
-        <v>5496</v>
+        <v>0</v>
       </c>
       <c r="E942" t="inlineStr">
         <is>
@@ -23988,7 +23988,7 @@
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>01/11/2020</t>
+          <t>01/05/2020</t>
         </is>
       </c>
       <c r="B943" t="inlineStr">
@@ -24013,7 +24013,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/03/2020</t>
         </is>
       </c>
       <c r="B944" t="inlineStr">
@@ -24027,7 +24027,7 @@
         </is>
       </c>
       <c r="D944" t="n">
-        <v>0</v>
+        <v>5496</v>
       </c>
       <c r="E944" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>01/09/2020</t>
+          <t>01/11/2020</t>
         </is>
       </c>
       <c r="B945" t="inlineStr">
@@ -24063,7 +24063,7 @@
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="B946" t="inlineStr">
@@ -24088,7 +24088,7 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>01/08/2021</t>
+          <t>01/09/2020</t>
         </is>
       </c>
       <c r="B947" t="inlineStr">
@@ -24113,7 +24113,7 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>01/12/2021</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="B948" t="inlineStr">
@@ -24138,7 +24138,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>01/02/2021</t>
+          <t>01/08/2021</t>
         </is>
       </c>
       <c r="B949" t="inlineStr">
@@ -24163,7 +24163,7 @@
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/12/2021</t>
         </is>
       </c>
       <c r="B950" t="inlineStr">
@@ -24188,7 +24188,7 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/02/2021</t>
         </is>
       </c>
       <c r="B951" t="inlineStr">
@@ -24213,7 +24213,7 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>01/06/2021</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="B952" t="inlineStr">
@@ -24238,7 +24238,7 @@
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>01/05/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="B953" t="inlineStr">
@@ -24263,7 +24263,7 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>01/03/2021</t>
+          <t>01/06/2021</t>
         </is>
       </c>
       <c r="B954" t="inlineStr">
@@ -24288,7 +24288,7 @@
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>01/11/2021</t>
+          <t>01/05/2021</t>
         </is>
       </c>
       <c r="B955" t="inlineStr">
@@ -24313,7 +24313,7 @@
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/03/2021</t>
         </is>
       </c>
       <c r="B956" t="inlineStr">
@@ -24338,7 +24338,7 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>01/09/2021</t>
+          <t>01/11/2021</t>
         </is>
       </c>
       <c r="B957" t="inlineStr">
@@ -24363,7 +24363,7 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="B958" t="inlineStr">
@@ -24388,7 +24388,7 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>01/08/2022</t>
+          <t>01/09/2021</t>
         </is>
       </c>
       <c r="B959" t="inlineStr">
@@ -24413,7 +24413,7 @@
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>01/12/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="B960" t="inlineStr">
@@ -24438,7 +24438,7 @@
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>01/02/2022</t>
+          <t>01/08/2022</t>
         </is>
       </c>
       <c r="B961" t="inlineStr">
@@ -24463,7 +24463,7 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/12/2022</t>
         </is>
       </c>
       <c r="B962" t="inlineStr">
@@ -24488,7 +24488,7 @@
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/02/2022</t>
         </is>
       </c>
       <c r="B963" t="inlineStr">
@@ -24513,7 +24513,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>01/06/2022</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="B964" t="inlineStr">
@@ -24538,7 +24538,7 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>01/05/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="B965" t="inlineStr">
@@ -24563,7 +24563,7 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>01/03/2022</t>
+          <t>01/06/2022</t>
         </is>
       </c>
       <c r="B966" t="inlineStr">
@@ -24588,7 +24588,7 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>01/11/2022</t>
+          <t>01/05/2022</t>
         </is>
       </c>
       <c r="B967" t="inlineStr">
@@ -24613,7 +24613,7 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/03/2022</t>
         </is>
       </c>
       <c r="B968" t="inlineStr">
@@ -24638,7 +24638,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>01/09/2022</t>
+          <t>01/11/2022</t>
         </is>
       </c>
       <c r="B969" t="inlineStr">
@@ -24663,7 +24663,7 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="B970" t="inlineStr">
@@ -24688,7 +24688,7 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01/09/2022</t>
         </is>
       </c>
       <c r="B971" t="inlineStr">
@@ -24713,7 +24713,7 @@
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="B972" t="inlineStr">
@@ -24738,7 +24738,7 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>01/02/2023</t>
+          <t>01/08/2023</t>
         </is>
       </c>
       <c r="B973" t="inlineStr">
@@ -24763,7 +24763,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="B974" t="inlineStr">
@@ -24788,7 +24788,7 @@
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/02/2023</t>
         </is>
       </c>
       <c r="B975" t="inlineStr">
@@ -24813,7 +24813,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>01/06/2023</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="B976" t="inlineStr">
@@ -24838,7 +24838,7 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>01/05/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="B977" t="inlineStr">
@@ -24863,7 +24863,7 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>01/03/2023</t>
+          <t>01/06/2023</t>
         </is>
       </c>
       <c r="B978" t="inlineStr">
@@ -24888,7 +24888,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>01/11/2023</t>
+          <t>01/05/2023</t>
         </is>
       </c>
       <c r="B979" t="inlineStr">
@@ -24913,7 +24913,7 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/03/2023</t>
         </is>
       </c>
       <c r="B980" t="inlineStr">
@@ -24938,7 +24938,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>01/09/2023</t>
+          <t>01/11/2023</t>
         </is>
       </c>
       <c r="B981" t="inlineStr">
@@ -24963,7 +24963,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="B982" t="inlineStr">
@@ -24988,7 +24988,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>01/02/2024</t>
+          <t>01/09/2023</t>
         </is>
       </c>
       <c r="B983" t="inlineStr">
@@ -25013,7 +25013,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="B984" t="inlineStr">
@@ -25038,7 +25038,7 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>01/03/2024</t>
+          <t>01/02/2024</t>
         </is>
       </c>
       <c r="B985" t="inlineStr">
@@ -25055,6 +25055,81 @@
         <v>0</v>
       </c>
       <c r="E985" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="inlineStr">
+        <is>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C986" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D986" t="n">
+        <v>0</v>
+      </c>
+      <c r="E986" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="inlineStr">
+        <is>
+          <t>01/05/2024</t>
+        </is>
+      </c>
+      <c r="B987" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C987" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D987" t="n">
+        <v>0</v>
+      </c>
+      <c r="E987" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="inlineStr">
+        <is>
+          <t>01/03/2024</t>
+        </is>
+      </c>
+      <c r="B988" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C988" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D988" t="n">
+        <v>0</v>
+      </c>
+      <c r="E988" t="inlineStr">
         <is>
           <t>SERGIPE</t>
         </is>

--- a/Data/g8.2.xlsx
+++ b/Data/g8.2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E988"/>
+  <dimension ref="A1:E991"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16813,7 +16813,7 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>01/05/2024</t>
+          <t>01/06/2024</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
@@ -16827,7 +16827,7 @@
         </is>
       </c>
       <c r="D656" t="n">
-        <v>68.96599999999999</v>
+        <v>64.83499999999999</v>
       </c>
       <c r="E656" t="inlineStr">
         <is>
@@ -16838,7 +16838,7 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>01/05/2024</t>
+          <t>01/06/2024</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
@@ -16852,7 +16852,7 @@
         </is>
       </c>
       <c r="D657" t="n">
-        <v>1893.56</v>
+        <v>1974.229</v>
       </c>
       <c r="E657" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>01/03/2024</t>
+          <t>01/05/2024</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
@@ -16877,7 +16877,7 @@
         </is>
       </c>
       <c r="D658" t="n">
-        <v>72.51000000000001</v>
+        <v>68.96599999999999</v>
       </c>
       <c r="E658" t="inlineStr">
         <is>
@@ -16888,7 +16888,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>01/03/2024</t>
+          <t>01/05/2024</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
@@ -16902,7 +16902,7 @@
         </is>
       </c>
       <c r="D659" t="n">
-        <v>1639.846</v>
+        <v>1893.56</v>
       </c>
       <c r="E659" t="inlineStr">
         <is>
@@ -16913,21 +16913,21 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>01/04/1997</t>
+          <t>01/03/2024</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA</t>
+          <t>MAR</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>LGN</t>
+          <t>GÁS NATURAL</t>
         </is>
       </c>
       <c r="D660" t="n">
-        <v>20951</v>
+        <v>72.51000000000001</v>
       </c>
       <c r="E660" t="inlineStr">
         <is>
@@ -16938,21 +16938,21 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>01/08/1997</t>
+          <t>01/03/2024</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA</t>
+          <t>TERRA</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>LGN</t>
+          <t>GÁS NATURAL</t>
         </is>
       </c>
       <c r="D661" t="n">
-        <v>24698</v>
+        <v>1639.846</v>
       </c>
       <c r="E661" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>01/12/1997</t>
+          <t>01/04/1997</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
@@ -16977,7 +16977,7 @@
         </is>
       </c>
       <c r="D662" t="n">
-        <v>23230</v>
+        <v>20951</v>
       </c>
       <c r="E662" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>01/02/1997</t>
+          <t>01/08/1997</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
@@ -17002,7 +17002,7 @@
         </is>
       </c>
       <c r="D663" t="n">
-        <v>19007</v>
+        <v>24698</v>
       </c>
       <c r="E663" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>01/01/1997</t>
+          <t>01/12/1997</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
@@ -17027,7 +17027,7 @@
         </is>
       </c>
       <c r="D664" t="n">
-        <v>18978</v>
+        <v>23230</v>
       </c>
       <c r="E664" t="inlineStr">
         <is>
@@ -17038,7 +17038,7 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>01/07/1997</t>
+          <t>01/02/1997</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
@@ -17052,7 +17052,7 @@
         </is>
       </c>
       <c r="D665" t="n">
-        <v>23232</v>
+        <v>19007</v>
       </c>
       <c r="E665" t="inlineStr">
         <is>
@@ -17063,7 +17063,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>01/06/1997</t>
+          <t>01/01/1997</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
@@ -17077,7 +17077,7 @@
         </is>
       </c>
       <c r="D666" t="n">
-        <v>22449</v>
+        <v>18978</v>
       </c>
       <c r="E666" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>01/05/1997</t>
+          <t>01/07/1997</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
@@ -17102,7 +17102,7 @@
         </is>
       </c>
       <c r="D667" t="n">
-        <v>24757</v>
+        <v>23232</v>
       </c>
       <c r="E667" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>01/03/1997</t>
+          <t>01/06/1997</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D668" t="n">
-        <v>19807</v>
+        <v>22449</v>
       </c>
       <c r="E668" t="inlineStr">
         <is>
@@ -17138,7 +17138,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>01/11/1997</t>
+          <t>01/05/1997</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
@@ -17152,7 +17152,7 @@
         </is>
       </c>
       <c r="D669" t="n">
-        <v>22027</v>
+        <v>24757</v>
       </c>
       <c r="E669" t="inlineStr">
         <is>
@@ -17163,7 +17163,7 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>01/10/1997</t>
+          <t>01/03/1997</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
@@ -17177,7 +17177,7 @@
         </is>
       </c>
       <c r="D670" t="n">
-        <v>21890</v>
+        <v>19807</v>
       </c>
       <c r="E670" t="inlineStr">
         <is>
@@ -17188,7 +17188,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>01/09/1997</t>
+          <t>01/11/1997</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
@@ -17202,7 +17202,7 @@
         </is>
       </c>
       <c r="D671" t="n">
-        <v>22749</v>
+        <v>22027</v>
       </c>
       <c r="E671" t="inlineStr">
         <is>
@@ -17213,7 +17213,7 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>01/04/1998</t>
+          <t>01/10/1997</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="D672" t="n">
-        <v>131778.0699</v>
+        <v>21890</v>
       </c>
       <c r="E672" t="inlineStr">
         <is>
@@ -17238,7 +17238,7 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>01/08/1998</t>
+          <t>01/09/1997</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
@@ -17252,7 +17252,7 @@
         </is>
       </c>
       <c r="D673" t="n">
-        <v>155346.0346</v>
+        <v>22749</v>
       </c>
       <c r="E673" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>01/12/1998</t>
+          <t>01/04/1998</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
@@ -17277,7 +17277,7 @@
         </is>
       </c>
       <c r="D674" t="n">
-        <v>146112.5752</v>
+        <v>131778.0699</v>
       </c>
       <c r="E674" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>01/02/1998</t>
+          <t>01/08/1998</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
@@ -17302,7 +17302,7 @@
         </is>
       </c>
       <c r="D675" t="n">
-        <v>119550.6551</v>
+        <v>155346.0346</v>
       </c>
       <c r="E675" t="inlineStr">
         <is>
@@ -17313,7 +17313,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>01/01/1998</t>
+          <t>01/12/1998</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
@@ -17327,7 +17327,7 @@
         </is>
       </c>
       <c r="D676" t="n">
-        <v>119368.2502</v>
+        <v>146112.5752</v>
       </c>
       <c r="E676" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>01/07/1998</t>
+          <t>01/02/1998</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
@@ -17352,7 +17352,7 @@
         </is>
       </c>
       <c r="D677" t="n">
-        <v>146125.1549</v>
+        <v>119550.6551</v>
       </c>
       <c r="E677" t="inlineStr">
         <is>
@@ -17363,7 +17363,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>01/06/1998</t>
+          <t>01/01/1998</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
@@ -17377,7 +17377,7 @@
         </is>
       </c>
       <c r="D678" t="n">
-        <v>141200.2239</v>
+        <v>119368.2502</v>
       </c>
       <c r="E678" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>01/05/1998</t>
+          <t>01/07/1998</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
@@ -17402,7 +17402,7 @@
         </is>
       </c>
       <c r="D679" t="n">
-        <v>155717.1341</v>
+        <v>146125.1549</v>
       </c>
       <c r="E679" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>01/03/1998</t>
+          <t>01/06/1998</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
@@ -17427,7 +17427,7 @@
         </is>
       </c>
       <c r="D680" t="n">
-        <v>124582.513</v>
+        <v>141200.2239</v>
       </c>
       <c r="E680" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>01/11/1998</t>
+          <t>01/05/1998</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
@@ -17452,7 +17452,7 @@
         </is>
       </c>
       <c r="D681" t="n">
-        <v>138545.9188</v>
+        <v>155717.1341</v>
       </c>
       <c r="E681" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>01/10/1998</t>
+          <t>01/03/1998</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
@@ -17477,7 +17477,7 @@
         </is>
       </c>
       <c r="D682" t="n">
-        <v>137684.2132</v>
+        <v>124582.513</v>
       </c>
       <c r="E682" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>01/09/1998</t>
+          <t>01/11/1998</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
@@ -17502,7 +17502,7 @@
         </is>
       </c>
       <c r="D683" t="n">
-        <v>143087.1706</v>
+        <v>138545.9188</v>
       </c>
       <c r="E683" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>01/04/1999</t>
+          <t>01/10/1998</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D684" t="n">
-        <v>24546</v>
+        <v>137684.2132</v>
       </c>
       <c r="E684" t="inlineStr">
         <is>
@@ -17538,7 +17538,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>01/08/1999</t>
+          <t>01/09/1998</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
@@ -17552,7 +17552,7 @@
         </is>
       </c>
       <c r="D685" t="n">
-        <v>23247</v>
+        <v>143087.1706</v>
       </c>
       <c r="E685" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>01/12/1999</t>
+          <t>01/04/1999</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
@@ -17577,7 +17577,7 @@
         </is>
       </c>
       <c r="D686" t="n">
-        <v>24640</v>
+        <v>24546</v>
       </c>
       <c r="E686" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>01/02/1999</t>
+          <t>01/08/1999</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
@@ -17602,7 +17602,7 @@
         </is>
       </c>
       <c r="D687" t="n">
-        <v>22448</v>
+        <v>23247</v>
       </c>
       <c r="E687" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>01/01/1999</t>
+          <t>01/12/1999</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
@@ -17627,7 +17627,7 @@
         </is>
       </c>
       <c r="D688" t="n">
-        <v>24629</v>
+        <v>24640</v>
       </c>
       <c r="E688" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>01/07/1999</t>
+          <t>01/02/1999</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
@@ -17652,7 +17652,7 @@
         </is>
       </c>
       <c r="D689" t="n">
-        <v>22323</v>
+        <v>22448</v>
       </c>
       <c r="E689" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>01/06/1999</t>
+          <t>01/01/1999</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
@@ -17677,7 +17677,7 @@
         </is>
       </c>
       <c r="D690" t="n">
-        <v>24653</v>
+        <v>24629</v>
       </c>
       <c r="E690" t="inlineStr">
         <is>
@@ -17688,7 +17688,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>01/05/1999</t>
+          <t>01/07/1999</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
@@ -17702,7 +17702,7 @@
         </is>
       </c>
       <c r="D691" t="n">
-        <v>25678</v>
+        <v>22323</v>
       </c>
       <c r="E691" t="inlineStr">
         <is>
@@ -17713,7 +17713,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>01/03/1999</t>
+          <t>01/06/1999</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
@@ -17727,7 +17727,7 @@
         </is>
       </c>
       <c r="D692" t="n">
-        <v>25737</v>
+        <v>24653</v>
       </c>
       <c r="E692" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>01/11/1999</t>
+          <t>01/05/1999</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
@@ -17752,7 +17752,7 @@
         </is>
       </c>
       <c r="D693" t="n">
-        <v>25481</v>
+        <v>25678</v>
       </c>
       <c r="E693" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>01/10/1999</t>
+          <t>01/03/1999</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
@@ -17777,7 +17777,7 @@
         </is>
       </c>
       <c r="D694" t="n">
-        <v>25601</v>
+        <v>25737</v>
       </c>
       <c r="E694" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>01/09/1999</t>
+          <t>01/11/1999</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
@@ -17802,7 +17802,7 @@
         </is>
       </c>
       <c r="D695" t="n">
-        <v>24686</v>
+        <v>25481</v>
       </c>
       <c r="E695" t="inlineStr">
         <is>
@@ -17813,7 +17813,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>01/04/2000</t>
+          <t>01/10/1999</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
@@ -17827,7 +17827,7 @@
         </is>
       </c>
       <c r="D696" t="n">
-        <v>25440</v>
+        <v>25601</v>
       </c>
       <c r="E696" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>01/08/2000</t>
+          <t>01/09/1999</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
@@ -17852,7 +17852,7 @@
         </is>
       </c>
       <c r="D697" t="n">
-        <v>27353</v>
+        <v>24686</v>
       </c>
       <c r="E697" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>01/12/2000</t>
+          <t>01/04/2000</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
@@ -17877,7 +17877,7 @@
         </is>
       </c>
       <c r="D698" t="n">
-        <v>26071</v>
+        <v>25440</v>
       </c>
       <c r="E698" t="inlineStr">
         <is>
@@ -17888,7 +17888,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>01/02/2000</t>
+          <t>01/08/2000</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
@@ -17902,7 +17902,7 @@
         </is>
       </c>
       <c r="D699" t="n">
-        <v>25123</v>
+        <v>27353</v>
       </c>
       <c r="E699" t="inlineStr">
         <is>
@@ -17913,7 +17913,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>01/01/2000</t>
+          <t>01/12/2000</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D700" t="n">
-        <v>26480</v>
+        <v>26071</v>
       </c>
       <c r="E700" t="inlineStr">
         <is>
@@ -17938,7 +17938,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>01/07/2000</t>
+          <t>01/02/2000</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
@@ -17952,7 +17952,7 @@
         </is>
       </c>
       <c r="D701" t="n">
-        <v>26914</v>
+        <v>25123</v>
       </c>
       <c r="E701" t="inlineStr">
         <is>
@@ -17963,7 +17963,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>01/06/2000</t>
+          <t>01/01/2000</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
@@ -17977,7 +17977,7 @@
         </is>
       </c>
       <c r="D702" t="n">
-        <v>26044</v>
+        <v>26480</v>
       </c>
       <c r="E702" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>01/05/2000</t>
+          <t>01/07/2000</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
@@ -18002,7 +18002,7 @@
         </is>
       </c>
       <c r="D703" t="n">
-        <v>26406</v>
+        <v>26914</v>
       </c>
       <c r="E703" t="inlineStr">
         <is>
@@ -18013,7 +18013,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>01/03/2000</t>
+          <t>01/06/2000</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
@@ -18027,7 +18027,7 @@
         </is>
       </c>
       <c r="D704" t="n">
-        <v>26572</v>
+        <v>26044</v>
       </c>
       <c r="E704" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>01/11/2000</t>
+          <t>01/05/2000</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
@@ -18052,7 +18052,7 @@
         </is>
       </c>
       <c r="D705" t="n">
-        <v>13928</v>
+        <v>26406</v>
       </c>
       <c r="E705" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>01/10/2000</t>
+          <t>01/03/2000</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
@@ -18077,7 +18077,7 @@
         </is>
       </c>
       <c r="D706" t="n">
-        <v>26965</v>
+        <v>26572</v>
       </c>
       <c r="E706" t="inlineStr">
         <is>
@@ -18088,7 +18088,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>01/09/2000</t>
+          <t>01/11/2000</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
@@ -18102,7 +18102,7 @@
         </is>
       </c>
       <c r="D707" t="n">
-        <v>26129</v>
+        <v>13928</v>
       </c>
       <c r="E707" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>01/04/2001</t>
+          <t>01/10/2000</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
@@ -18127,7 +18127,7 @@
         </is>
       </c>
       <c r="D708" t="n">
-        <v>18378</v>
+        <v>26965</v>
       </c>
       <c r="E708" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>01/08/2001</t>
+          <t>01/09/2000</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
@@ -18152,7 +18152,7 @@
         </is>
       </c>
       <c r="D709" t="n">
-        <v>26465</v>
+        <v>26129</v>
       </c>
       <c r="E709" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>01/12/2001</t>
+          <t>01/04/2001</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
@@ -18177,7 +18177,7 @@
         </is>
       </c>
       <c r="D710" t="n">
-        <v>26876</v>
+        <v>18378</v>
       </c>
       <c r="E710" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>01/02/2001</t>
+          <t>01/08/2001</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
@@ -18202,7 +18202,7 @@
         </is>
       </c>
       <c r="D711" t="n">
-        <v>23797</v>
+        <v>26465</v>
       </c>
       <c r="E711" t="inlineStr">
         <is>
@@ -18213,7 +18213,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>01/01/2001</t>
+          <t>01/12/2001</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
@@ -18227,7 +18227,7 @@
         </is>
       </c>
       <c r="D712" t="n">
-        <v>26536</v>
+        <v>26876</v>
       </c>
       <c r="E712" t="inlineStr">
         <is>
@@ -18238,7 +18238,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>01/07/2001</t>
+          <t>01/02/2001</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
@@ -18252,7 +18252,7 @@
         </is>
       </c>
       <c r="D713" t="n">
-        <v>27236</v>
+        <v>23797</v>
       </c>
       <c r="E713" t="inlineStr">
         <is>
@@ -18263,7 +18263,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>01/06/2001</t>
+          <t>01/01/2001</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
@@ -18277,7 +18277,7 @@
         </is>
       </c>
       <c r="D714" t="n">
-        <v>25806</v>
+        <v>26536</v>
       </c>
       <c r="E714" t="inlineStr">
         <is>
@@ -18288,7 +18288,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>01/05/2001</t>
+          <t>01/07/2001</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
@@ -18302,7 +18302,7 @@
         </is>
       </c>
       <c r="D715" t="n">
-        <v>22691</v>
+        <v>27236</v>
       </c>
       <c r="E715" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>01/03/2001</t>
+          <t>01/06/2001</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D716" t="n">
-        <v>25605</v>
+        <v>25806</v>
       </c>
       <c r="E716" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>01/11/2001</t>
+          <t>01/05/2001</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
@@ -18352,7 +18352,7 @@
         </is>
       </c>
       <c r="D717" t="n">
-        <v>25852</v>
+        <v>22691</v>
       </c>
       <c r="E717" t="inlineStr">
         <is>
@@ -18363,7 +18363,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>01/10/2001</t>
+          <t>01/03/2001</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
@@ -18377,7 +18377,7 @@
         </is>
       </c>
       <c r="D718" t="n">
-        <v>26322</v>
+        <v>25605</v>
       </c>
       <c r="E718" t="inlineStr">
         <is>
@@ -18388,7 +18388,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>01/09/2001</t>
+          <t>01/11/2001</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
@@ -18402,7 +18402,7 @@
         </is>
       </c>
       <c r="D719" t="n">
-        <v>23625</v>
+        <v>25852</v>
       </c>
       <c r="E719" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>01/04/2002</t>
+          <t>01/10/2001</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
@@ -18427,7 +18427,7 @@
         </is>
       </c>
       <c r="D720" t="n">
-        <v>23065</v>
+        <v>26322</v>
       </c>
       <c r="E720" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>01/08/2002</t>
+          <t>01/09/2001</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
@@ -18452,7 +18452,7 @@
         </is>
       </c>
       <c r="D721" t="n">
-        <v>25580</v>
+        <v>23625</v>
       </c>
       <c r="E721" t="inlineStr">
         <is>
@@ -18463,7 +18463,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>01/12/2002</t>
+          <t>01/04/2002</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D722" t="n">
-        <v>24957</v>
+        <v>23065</v>
       </c>
       <c r="E722" t="inlineStr">
         <is>
@@ -18488,7 +18488,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>01/02/2002</t>
+          <t>01/08/2002</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
@@ -18502,7 +18502,7 @@
         </is>
       </c>
       <c r="D723" t="n">
-        <v>24096</v>
+        <v>25580</v>
       </c>
       <c r="E723" t="inlineStr">
         <is>
@@ -18513,7 +18513,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>01/01/2002</t>
+          <t>01/12/2002</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
@@ -18527,7 +18527,7 @@
         </is>
       </c>
       <c r="D724" t="n">
-        <v>27239</v>
+        <v>24957</v>
       </c>
       <c r="E724" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>01/07/2002</t>
+          <t>01/02/2002</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
@@ -18552,7 +18552,7 @@
         </is>
       </c>
       <c r="D725" t="n">
-        <v>25911</v>
+        <v>24096</v>
       </c>
       <c r="E725" t="inlineStr">
         <is>
@@ -18563,7 +18563,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>01/06/2002</t>
+          <t>01/01/2002</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
@@ -18577,7 +18577,7 @@
         </is>
       </c>
       <c r="D726" t="n">
-        <v>24854</v>
+        <v>27239</v>
       </c>
       <c r="E726" t="inlineStr">
         <is>
@@ -18588,7 +18588,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>01/05/2002</t>
+          <t>01/07/2002</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
@@ -18602,7 +18602,7 @@
         </is>
       </c>
       <c r="D727" t="n">
-        <v>24983</v>
+        <v>25911</v>
       </c>
       <c r="E727" t="inlineStr">
         <is>
@@ -18613,7 +18613,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>01/03/2002</t>
+          <t>01/06/2002</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
@@ -18627,7 +18627,7 @@
         </is>
       </c>
       <c r="D728" t="n">
-        <v>25381</v>
+        <v>24854</v>
       </c>
       <c r="E728" t="inlineStr">
         <is>
@@ -18638,7 +18638,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>01/11/2002</t>
+          <t>01/05/2002</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
@@ -18652,7 +18652,7 @@
         </is>
       </c>
       <c r="D729" t="n">
-        <v>24648</v>
+        <v>24983</v>
       </c>
       <c r="E729" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>01/10/2002</t>
+          <t>01/03/2002</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
@@ -18677,7 +18677,7 @@
         </is>
       </c>
       <c r="D730" t="n">
-        <v>24992</v>
+        <v>25381</v>
       </c>
       <c r="E730" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>01/09/2002</t>
+          <t>01/11/2002</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
@@ -18702,7 +18702,7 @@
         </is>
       </c>
       <c r="D731" t="n">
-        <v>24400</v>
+        <v>24648</v>
       </c>
       <c r="E731" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>01/04/2003</t>
+          <t>01/10/2002</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D732" t="n">
-        <v>20841</v>
+        <v>24992</v>
       </c>
       <c r="E732" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>01/08/2003</t>
+          <t>01/09/2002</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
@@ -18752,7 +18752,7 @@
         </is>
       </c>
       <c r="D733" t="n">
-        <v>25463</v>
+        <v>24400</v>
       </c>
       <c r="E733" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>01/12/2003</t>
+          <t>01/04/2003</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
@@ -18777,7 +18777,7 @@
         </is>
       </c>
       <c r="D734" t="n">
-        <v>24965</v>
+        <v>20841</v>
       </c>
       <c r="E734" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>01/02/2003</t>
+          <t>01/08/2003</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
@@ -18802,7 +18802,7 @@
         </is>
       </c>
       <c r="D735" t="n">
-        <v>20388</v>
+        <v>25463</v>
       </c>
       <c r="E735" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>01/01/2003</t>
+          <t>01/12/2003</t>
         </is>
       </c>
       <c r="B736" t="inlineStr">
@@ -18827,7 +18827,7 @@
         </is>
       </c>
       <c r="D736" t="n">
-        <v>24971</v>
+        <v>24965</v>
       </c>
       <c r="E736" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>01/07/2003</t>
+          <t>01/02/2003</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
@@ -18852,7 +18852,7 @@
         </is>
       </c>
       <c r="D737" t="n">
-        <v>23560</v>
+        <v>20388</v>
       </c>
       <c r="E737" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>01/06/2003</t>
+          <t>01/01/2003</t>
         </is>
       </c>
       <c r="B738" t="inlineStr">
@@ -18877,7 +18877,7 @@
         </is>
       </c>
       <c r="D738" t="n">
-        <v>22761</v>
+        <v>24971</v>
       </c>
       <c r="E738" t="inlineStr">
         <is>
@@ -18888,7 +18888,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>01/05/2003</t>
+          <t>01/07/2003</t>
         </is>
       </c>
       <c r="B739" t="inlineStr">
@@ -18902,7 +18902,7 @@
         </is>
       </c>
       <c r="D739" t="n">
-        <v>23510</v>
+        <v>23560</v>
       </c>
       <c r="E739" t="inlineStr">
         <is>
@@ -18913,7 +18913,7 @@
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>01/03/2003</t>
+          <t>01/06/2003</t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
@@ -18927,7 +18927,7 @@
         </is>
       </c>
       <c r="D740" t="n">
-        <v>25907</v>
+        <v>22761</v>
       </c>
       <c r="E740" t="inlineStr">
         <is>
@@ -18938,7 +18938,7 @@
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>01/11/2003</t>
+          <t>01/05/2003</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
@@ -18952,7 +18952,7 @@
         </is>
       </c>
       <c r="D741" t="n">
-        <v>24041</v>
+        <v>23510</v>
       </c>
       <c r="E741" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>01/10/2003</t>
+          <t>01/03/2003</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
@@ -18977,7 +18977,7 @@
         </is>
       </c>
       <c r="D742" t="n">
-        <v>24023</v>
+        <v>25907</v>
       </c>
       <c r="E742" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>01/09/2003</t>
+          <t>01/11/2003</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
@@ -19002,7 +19002,7 @@
         </is>
       </c>
       <c r="D743" t="n">
-        <v>24294</v>
+        <v>24041</v>
       </c>
       <c r="E743" t="inlineStr">
         <is>
@@ -19013,7 +19013,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>01/04/2004</t>
+          <t>01/10/2003</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="D744" t="n">
-        <v>24411</v>
+        <v>24023</v>
       </c>
       <c r="E744" t="inlineStr">
         <is>
@@ -19038,7 +19038,7 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>01/08/2004</t>
+          <t>01/09/2003</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
@@ -19052,7 +19052,7 @@
         </is>
       </c>
       <c r="D745" t="n">
-        <v>25873</v>
+        <v>24294</v>
       </c>
       <c r="E745" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>01/12/2004</t>
+          <t>01/04/2004</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
@@ -19077,7 +19077,7 @@
         </is>
       </c>
       <c r="D746" t="n">
-        <v>25343</v>
+        <v>24411</v>
       </c>
       <c r="E746" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>01/02/2004</t>
+          <t>01/08/2004</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
@@ -19102,7 +19102,7 @@
         </is>
       </c>
       <c r="D747" t="n">
-        <v>23497</v>
+        <v>25873</v>
       </c>
       <c r="E747" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>01/01/2004</t>
+          <t>01/12/2004</t>
         </is>
       </c>
       <c r="B748" t="inlineStr">
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D748" t="n">
-        <v>23975</v>
+        <v>25343</v>
       </c>
       <c r="E748" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>01/02/2004</t>
         </is>
       </c>
       <c r="B749" t="inlineStr">
@@ -19152,7 +19152,7 @@
         </is>
       </c>
       <c r="D749" t="n">
-        <v>24979</v>
+        <v>23497</v>
       </c>
       <c r="E749" t="inlineStr">
         <is>
@@ -19163,7 +19163,7 @@
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>01/06/2004</t>
+          <t>01/01/2004</t>
         </is>
       </c>
       <c r="B750" t="inlineStr">
@@ -19177,7 +19177,7 @@
         </is>
       </c>
       <c r="D750" t="n">
-        <v>23413</v>
+        <v>23975</v>
       </c>
       <c r="E750" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>01/05/2004</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="B751" t="inlineStr">
@@ -19202,7 +19202,7 @@
         </is>
       </c>
       <c r="D751" t="n">
-        <v>21313</v>
+        <v>24979</v>
       </c>
       <c r="E751" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>01/03/2004</t>
+          <t>01/06/2004</t>
         </is>
       </c>
       <c r="B752" t="inlineStr">
@@ -19227,7 +19227,7 @@
         </is>
       </c>
       <c r="D752" t="n">
-        <v>25118</v>
+        <v>23413</v>
       </c>
       <c r="E752" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>01/11/2004</t>
+          <t>01/05/2004</t>
         </is>
       </c>
       <c r="B753" t="inlineStr">
@@ -19252,7 +19252,7 @@
         </is>
       </c>
       <c r="D753" t="n">
-        <v>24463</v>
+        <v>21313</v>
       </c>
       <c r="E753" t="inlineStr">
         <is>
@@ -19263,7 +19263,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>01/10/2004</t>
+          <t>01/03/2004</t>
         </is>
       </c>
       <c r="B754" t="inlineStr">
@@ -19277,7 +19277,7 @@
         </is>
       </c>
       <c r="D754" t="n">
-        <v>25566</v>
+        <v>25118</v>
       </c>
       <c r="E754" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>01/09/2004</t>
+          <t>01/11/2004</t>
         </is>
       </c>
       <c r="B755" t="inlineStr">
@@ -19302,7 +19302,7 @@
         </is>
       </c>
       <c r="D755" t="n">
-        <v>24720</v>
+        <v>24463</v>
       </c>
       <c r="E755" t="inlineStr">
         <is>
@@ -19313,7 +19313,7 @@
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>01/04/2005</t>
+          <t>01/10/2004</t>
         </is>
       </c>
       <c r="B756" t="inlineStr">
@@ -19327,7 +19327,7 @@
         </is>
       </c>
       <c r="D756" t="n">
-        <v>23924</v>
+        <v>25566</v>
       </c>
       <c r="E756" t="inlineStr">
         <is>
@@ -19338,7 +19338,7 @@
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>01/08/2005</t>
+          <t>01/09/2004</t>
         </is>
       </c>
       <c r="B757" t="inlineStr">
@@ -19352,7 +19352,7 @@
         </is>
       </c>
       <c r="D757" t="n">
-        <v>25213</v>
+        <v>24720</v>
       </c>
       <c r="E757" t="inlineStr">
         <is>
@@ -19363,7 +19363,7 @@
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>01/12/2005</t>
+          <t>01/04/2005</t>
         </is>
       </c>
       <c r="B758" t="inlineStr">
@@ -19377,7 +19377,7 @@
         </is>
       </c>
       <c r="D758" t="n">
-        <v>24602</v>
+        <v>23924</v>
       </c>
       <c r="E758" t="inlineStr">
         <is>
@@ -19388,7 +19388,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>01/02/2005</t>
+          <t>01/08/2005</t>
         </is>
       </c>
       <c r="B759" t="inlineStr">
@@ -19402,7 +19402,7 @@
         </is>
       </c>
       <c r="D759" t="n">
-        <v>22710</v>
+        <v>25213</v>
       </c>
       <c r="E759" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>01/01/2005</t>
+          <t>01/12/2005</t>
         </is>
       </c>
       <c r="B760" t="inlineStr">
@@ -19427,7 +19427,7 @@
         </is>
       </c>
       <c r="D760" t="n">
-        <v>24972</v>
+        <v>24602</v>
       </c>
       <c r="E760" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>01/07/2005</t>
+          <t>01/02/2005</t>
         </is>
       </c>
       <c r="B761" t="inlineStr">
@@ -19452,7 +19452,7 @@
         </is>
       </c>
       <c r="D761" t="n">
-        <v>25582</v>
+        <v>22710</v>
       </c>
       <c r="E761" t="inlineStr">
         <is>
@@ -19463,7 +19463,7 @@
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>01/06/2005</t>
+          <t>01/01/2005</t>
         </is>
       </c>
       <c r="B762" t="inlineStr">
@@ -19477,7 +19477,7 @@
         </is>
       </c>
       <c r="D762" t="n">
-        <v>24359</v>
+        <v>24972</v>
       </c>
       <c r="E762" t="inlineStr">
         <is>
@@ -19488,7 +19488,7 @@
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>01/05/2005</t>
+          <t>01/07/2005</t>
         </is>
       </c>
       <c r="B763" t="inlineStr">
@@ -19502,7 +19502,7 @@
         </is>
       </c>
       <c r="D763" t="n">
-        <v>24053</v>
+        <v>25582</v>
       </c>
       <c r="E763" t="inlineStr">
         <is>
@@ -19513,7 +19513,7 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>01/03/2005</t>
+          <t>01/06/2005</t>
         </is>
       </c>
       <c r="B764" t="inlineStr">
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D764" t="n">
-        <v>24836</v>
+        <v>24359</v>
       </c>
       <c r="E764" t="inlineStr">
         <is>
@@ -19538,7 +19538,7 @@
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>01/11/2005</t>
+          <t>01/05/2005</t>
         </is>
       </c>
       <c r="B765" t="inlineStr">
@@ -19552,7 +19552,7 @@
         </is>
       </c>
       <c r="D765" t="n">
-        <v>24169</v>
+        <v>24053</v>
       </c>
       <c r="E765" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>01/10/2005</t>
+          <t>01/03/2005</t>
         </is>
       </c>
       <c r="B766" t="inlineStr">
@@ -19577,7 +19577,7 @@
         </is>
       </c>
       <c r="D766" t="n">
-        <v>26281</v>
+        <v>24836</v>
       </c>
       <c r="E766" t="inlineStr">
         <is>
@@ -19588,7 +19588,7 @@
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>01/09/2005</t>
+          <t>01/11/2005</t>
         </is>
       </c>
       <c r="B767" t="inlineStr">
@@ -19602,7 +19602,7 @@
         </is>
       </c>
       <c r="D767" t="n">
-        <v>24180</v>
+        <v>24169</v>
       </c>
       <c r="E767" t="inlineStr">
         <is>
@@ -19613,7 +19613,7 @@
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>01/04/2006</t>
+          <t>01/10/2005</t>
         </is>
       </c>
       <c r="B768" t="inlineStr">
@@ -19627,7 +19627,7 @@
         </is>
       </c>
       <c r="D768" t="n">
-        <v>24527</v>
+        <v>26281</v>
       </c>
       <c r="E768" t="inlineStr">
         <is>
@@ -19638,7 +19638,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>01/08/2006</t>
+          <t>01/09/2005</t>
         </is>
       </c>
       <c r="B769" t="inlineStr">
@@ -19652,7 +19652,7 @@
         </is>
       </c>
       <c r="D769" t="n">
-        <v>25491</v>
+        <v>24180</v>
       </c>
       <c r="E769" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>01/12/2006</t>
+          <t>01/04/2006</t>
         </is>
       </c>
       <c r="B770" t="inlineStr">
@@ -19677,7 +19677,7 @@
         </is>
       </c>
       <c r="D770" t="n">
-        <v>25271</v>
+        <v>24527</v>
       </c>
       <c r="E770" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>01/02/2006</t>
+          <t>01/08/2006</t>
         </is>
       </c>
       <c r="B771" t="inlineStr">
@@ -19702,7 +19702,7 @@
         </is>
       </c>
       <c r="D771" t="n">
-        <v>23056</v>
+        <v>25491</v>
       </c>
       <c r="E771" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>01/01/2006</t>
+          <t>01/12/2006</t>
         </is>
       </c>
       <c r="B772" t="inlineStr">
@@ -19727,7 +19727,7 @@
         </is>
       </c>
       <c r="D772" t="n">
-        <v>24843</v>
+        <v>25271</v>
       </c>
       <c r="E772" t="inlineStr">
         <is>
@@ -19738,7 +19738,7 @@
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>01/07/2006</t>
+          <t>01/02/2006</t>
         </is>
       </c>
       <c r="B773" t="inlineStr">
@@ -19752,7 +19752,7 @@
         </is>
       </c>
       <c r="D773" t="n">
-        <v>25344</v>
+        <v>23056</v>
       </c>
       <c r="E773" t="inlineStr">
         <is>
@@ -19763,7 +19763,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>01/06/2006</t>
+          <t>01/01/2006</t>
         </is>
       </c>
       <c r="B774" t="inlineStr">
@@ -19777,7 +19777,7 @@
         </is>
       </c>
       <c r="D774" t="n">
-        <v>25090</v>
+        <v>24843</v>
       </c>
       <c r="E774" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>01/05/2006</t>
+          <t>01/07/2006</t>
         </is>
       </c>
       <c r="B775" t="inlineStr">
@@ -19802,7 +19802,7 @@
         </is>
       </c>
       <c r="D775" t="n">
-        <v>25719</v>
+        <v>25344</v>
       </c>
       <c r="E775" t="inlineStr">
         <is>
@@ -19813,7 +19813,7 @@
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>01/03/2006</t>
+          <t>01/06/2006</t>
         </is>
       </c>
       <c r="B776" t="inlineStr">
@@ -19827,7 +19827,7 @@
         </is>
       </c>
       <c r="D776" t="n">
-        <v>11740</v>
+        <v>25090</v>
       </c>
       <c r="E776" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>01/11/2006</t>
+          <t>01/05/2006</t>
         </is>
       </c>
       <c r="B777" t="inlineStr">
@@ -19852,7 +19852,7 @@
         </is>
       </c>
       <c r="D777" t="n">
-        <v>23278</v>
+        <v>25719</v>
       </c>
       <c r="E777" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>01/10/2006</t>
+          <t>01/03/2006</t>
         </is>
       </c>
       <c r="B778" t="inlineStr">
@@ -19877,7 +19877,7 @@
         </is>
       </c>
       <c r="D778" t="n">
-        <v>23622</v>
+        <v>11740</v>
       </c>
       <c r="E778" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>01/09/2006</t>
+          <t>01/11/2006</t>
         </is>
       </c>
       <c r="B779" t="inlineStr">
@@ -19902,7 +19902,7 @@
         </is>
       </c>
       <c r="D779" t="n">
-        <v>24562</v>
+        <v>23278</v>
       </c>
       <c r="E779" t="inlineStr">
         <is>
@@ -19913,7 +19913,7 @@
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>01/04/2007</t>
+          <t>01/10/2006</t>
         </is>
       </c>
       <c r="B780" t="inlineStr">
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D780" t="n">
-        <v>21384</v>
+        <v>23622</v>
       </c>
       <c r="E780" t="inlineStr">
         <is>
@@ -19938,7 +19938,7 @@
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>01/08/2007</t>
+          <t>01/09/2006</t>
         </is>
       </c>
       <c r="B781" t="inlineStr">
@@ -19952,7 +19952,7 @@
         </is>
       </c>
       <c r="D781" t="n">
-        <v>23805</v>
+        <v>24562</v>
       </c>
       <c r="E781" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>01/12/2007</t>
+          <t>01/04/2007</t>
         </is>
       </c>
       <c r="B782" t="inlineStr">
@@ -19977,7 +19977,7 @@
         </is>
       </c>
       <c r="D782" t="n">
-        <v>22898</v>
+        <v>21384</v>
       </c>
       <c r="E782" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>01/02/2007</t>
+          <t>01/08/2007</t>
         </is>
       </c>
       <c r="B783" t="inlineStr">
@@ -20002,7 +20002,7 @@
         </is>
       </c>
       <c r="D783" t="n">
-        <v>21968</v>
+        <v>23805</v>
       </c>
       <c r="E783" t="inlineStr">
         <is>
@@ -20013,7 +20013,7 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>01/01/2007</t>
+          <t>01/12/2007</t>
         </is>
       </c>
       <c r="B784" t="inlineStr">
@@ -20027,7 +20027,7 @@
         </is>
       </c>
       <c r="D784" t="n">
-        <v>25496</v>
+        <v>22898</v>
       </c>
       <c r="E784" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>01/07/2007</t>
+          <t>01/02/2007</t>
         </is>
       </c>
       <c r="B785" t="inlineStr">
@@ -20052,7 +20052,7 @@
         </is>
       </c>
       <c r="D785" t="n">
-        <v>23875</v>
+        <v>21968</v>
       </c>
       <c r="E785" t="inlineStr">
         <is>
@@ -20063,7 +20063,7 @@
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>01/06/2007</t>
+          <t>01/01/2007</t>
         </is>
       </c>
       <c r="B786" t="inlineStr">
@@ -20077,7 +20077,7 @@
         </is>
       </c>
       <c r="D786" t="n">
-        <v>22080</v>
+        <v>25496</v>
       </c>
       <c r="E786" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>01/05/2007</t>
+          <t>01/07/2007</t>
         </is>
       </c>
       <c r="B787" t="inlineStr">
@@ -20102,7 +20102,7 @@
         </is>
       </c>
       <c r="D787" t="n">
-        <v>18737</v>
+        <v>23875</v>
       </c>
       <c r="E787" t="inlineStr">
         <is>
@@ -20113,7 +20113,7 @@
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>01/03/2007</t>
+          <t>01/06/2007</t>
         </is>
       </c>
       <c r="B788" t="inlineStr">
@@ -20127,7 +20127,7 @@
         </is>
       </c>
       <c r="D788" t="n">
-        <v>24212</v>
+        <v>22080</v>
       </c>
       <c r="E788" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>01/11/2007</t>
+          <t>01/05/2007</t>
         </is>
       </c>
       <c r="B789" t="inlineStr">
@@ -20152,7 +20152,7 @@
         </is>
       </c>
       <c r="D789" t="n">
-        <v>22033</v>
+        <v>18737</v>
       </c>
       <c r="E789" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>01/10/2007</t>
+          <t>01/03/2007</t>
         </is>
       </c>
       <c r="B790" t="inlineStr">
@@ -20177,7 +20177,7 @@
         </is>
       </c>
       <c r="D790" t="n">
-        <v>23866</v>
+        <v>24212</v>
       </c>
       <c r="E790" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>01/09/2007</t>
+          <t>01/11/2007</t>
         </is>
       </c>
       <c r="B791" t="inlineStr">
@@ -20202,7 +20202,7 @@
         </is>
       </c>
       <c r="D791" t="n">
-        <v>24017</v>
+        <v>22033</v>
       </c>
       <c r="E791" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>01/04/2008</t>
+          <t>01/10/2007</t>
         </is>
       </c>
       <c r="B792" t="inlineStr">
@@ -20227,7 +20227,7 @@
         </is>
       </c>
       <c r="D792" t="n">
-        <v>22341</v>
+        <v>23866</v>
       </c>
       <c r="E792" t="inlineStr">
         <is>
@@ -20238,7 +20238,7 @@
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>01/08/2008</t>
+          <t>01/09/2007</t>
         </is>
       </c>
       <c r="B793" t="inlineStr">
@@ -20252,7 +20252,7 @@
         </is>
       </c>
       <c r="D793" t="n">
-        <v>23413.9993</v>
+        <v>24017</v>
       </c>
       <c r="E793" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>01/12/2008</t>
+          <t>01/04/2008</t>
         </is>
       </c>
       <c r="B794" t="inlineStr">
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D794" t="n">
-        <v>21243.0011</v>
+        <v>22341</v>
       </c>
       <c r="E794" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>01/02/2008</t>
+          <t>01/08/2008</t>
         </is>
       </c>
       <c r="B795" t="inlineStr">
@@ -20302,7 +20302,7 @@
         </is>
       </c>
       <c r="D795" t="n">
-        <v>20461</v>
+        <v>23413.9993</v>
       </c>
       <c r="E795" t="inlineStr">
         <is>
@@ -20313,7 +20313,7 @@
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>01/01/2008</t>
+          <t>01/12/2008</t>
         </is>
       </c>
       <c r="B796" t="inlineStr">
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D796" t="n">
-        <v>22454</v>
+        <v>21243.0011</v>
       </c>
       <c r="E796" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>01/07/2008</t>
+          <t>01/02/2008</t>
         </is>
       </c>
       <c r="B797" t="inlineStr">
@@ -20352,7 +20352,7 @@
         </is>
       </c>
       <c r="D797" t="n">
-        <v>22084.0001</v>
+        <v>20461</v>
       </c>
       <c r="E797" t="inlineStr">
         <is>
@@ -20363,7 +20363,7 @@
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>01/06/2008</t>
+          <t>01/01/2008</t>
         </is>
       </c>
       <c r="B798" t="inlineStr">
@@ -20377,7 +20377,7 @@
         </is>
       </c>
       <c r="D798" t="n">
-        <v>21446.001</v>
+        <v>22454</v>
       </c>
       <c r="E798" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>01/05/2008</t>
+          <t>01/07/2008</t>
         </is>
       </c>
       <c r="B799" t="inlineStr">
@@ -20402,7 +20402,7 @@
         </is>
       </c>
       <c r="D799" t="n">
-        <v>22333</v>
+        <v>22084.0001</v>
       </c>
       <c r="E799" t="inlineStr">
         <is>
@@ -20413,7 +20413,7 @@
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>01/03/2008</t>
+          <t>01/06/2008</t>
         </is>
       </c>
       <c r="B800" t="inlineStr">
@@ -20427,7 +20427,7 @@
         </is>
       </c>
       <c r="D800" t="n">
-        <v>22425</v>
+        <v>21446.001</v>
       </c>
       <c r="E800" t="inlineStr">
         <is>
@@ -20438,7 +20438,7 @@
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>01/11/2008</t>
+          <t>01/05/2008</t>
         </is>
       </c>
       <c r="B801" t="inlineStr">
@@ -20452,7 +20452,7 @@
         </is>
       </c>
       <c r="D801" t="n">
-        <v>20454</v>
+        <v>22333</v>
       </c>
       <c r="E801" t="inlineStr">
         <is>
@@ -20463,7 +20463,7 @@
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>01/03/2008</t>
         </is>
       </c>
       <c r="B802" t="inlineStr">
@@ -20477,7 +20477,7 @@
         </is>
       </c>
       <c r="D802" t="n">
-        <v>19738.9989</v>
+        <v>22425</v>
       </c>
       <c r="E802" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>01/09/2008</t>
+          <t>01/11/2008</t>
         </is>
       </c>
       <c r="B803" t="inlineStr">
@@ -20502,7 +20502,7 @@
         </is>
       </c>
       <c r="D803" t="n">
-        <v>21581.001</v>
+        <v>20454</v>
       </c>
       <c r="E803" t="inlineStr">
         <is>
@@ -20513,7 +20513,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>01/04/2009</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="B804" t="inlineStr">
@@ -20527,7 +20527,7 @@
         </is>
       </c>
       <c r="D804" t="n">
-        <v>20352.999</v>
+        <v>19738.9989</v>
       </c>
       <c r="E804" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>01/08/2009</t>
+          <t>01/09/2008</t>
         </is>
       </c>
       <c r="B805" t="inlineStr">
@@ -20552,7 +20552,7 @@
         </is>
       </c>
       <c r="D805" t="n">
-        <v>19636.0014</v>
+        <v>21581.001</v>
       </c>
       <c r="E805" t="inlineStr">
         <is>
@@ -20563,7 +20563,7 @@
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>01/12/2009</t>
+          <t>01/04/2009</t>
         </is>
       </c>
       <c r="B806" t="inlineStr">
@@ -20577,7 +20577,7 @@
         </is>
       </c>
       <c r="D806" t="n">
-        <v>20058.9995</v>
+        <v>20352.999</v>
       </c>
       <c r="E806" t="inlineStr">
         <is>
@@ -20588,7 +20588,7 @@
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>01/02/2009</t>
+          <t>01/08/2009</t>
         </is>
       </c>
       <c r="B807" t="inlineStr">
@@ -20602,7 +20602,7 @@
         </is>
       </c>
       <c r="D807" t="n">
-        <v>18858.9996</v>
+        <v>19636.0014</v>
       </c>
       <c r="E807" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>01/01/2009</t>
+          <t>01/12/2009</t>
         </is>
       </c>
       <c r="B808" t="inlineStr">
@@ -20627,7 +20627,7 @@
         </is>
       </c>
       <c r="D808" t="n">
-        <v>22225.0005</v>
+        <v>20058.9995</v>
       </c>
       <c r="E808" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>01/07/2009</t>
+          <t>01/02/2009</t>
         </is>
       </c>
       <c r="B809" t="inlineStr">
@@ -20652,7 +20652,7 @@
         </is>
       </c>
       <c r="D809" t="n">
-        <v>20578.0015</v>
+        <v>18858.9996</v>
       </c>
       <c r="E809" t="inlineStr">
         <is>
@@ -20663,7 +20663,7 @@
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>01/06/2009</t>
+          <t>01/01/2009</t>
         </is>
       </c>
       <c r="B810" t="inlineStr">
@@ -20677,7 +20677,7 @@
         </is>
       </c>
       <c r="D810" t="n">
-        <v>20096.001</v>
+        <v>22225.0005</v>
       </c>
       <c r="E810" t="inlineStr">
         <is>
@@ -20688,7 +20688,7 @@
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>01/05/2009</t>
+          <t>01/07/2009</t>
         </is>
       </c>
       <c r="B811" t="inlineStr">
@@ -20702,7 +20702,7 @@
         </is>
       </c>
       <c r="D811" t="n">
-        <v>20487.001</v>
+        <v>20578.0015</v>
       </c>
       <c r="E811" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>01/03/2009</t>
+          <t>01/06/2009</t>
         </is>
       </c>
       <c r="B812" t="inlineStr">
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D812" t="n">
-        <v>21078.9987</v>
+        <v>20096.001</v>
       </c>
       <c r="E812" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>01/11/2009</t>
+          <t>01/05/2009</t>
         </is>
       </c>
       <c r="B813" t="inlineStr">
@@ -20752,7 +20752,7 @@
         </is>
       </c>
       <c r="D813" t="n">
-        <v>19530</v>
+        <v>20487.001</v>
       </c>
       <c r="E813" t="inlineStr">
         <is>
@@ -20763,7 +20763,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>01/10/2009</t>
+          <t>01/03/2009</t>
         </is>
       </c>
       <c r="B814" t="inlineStr">
@@ -20777,7 +20777,7 @@
         </is>
       </c>
       <c r="D814" t="n">
-        <v>19538.0011</v>
+        <v>21078.9987</v>
       </c>
       <c r="E814" t="inlineStr">
         <is>
@@ -20788,7 +20788,7 @@
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>01/09/2009</t>
+          <t>01/11/2009</t>
         </is>
       </c>
       <c r="B815" t="inlineStr">
@@ -20802,7 +20802,7 @@
         </is>
       </c>
       <c r="D815" t="n">
-        <v>19464</v>
+        <v>19530</v>
       </c>
       <c r="E815" t="inlineStr">
         <is>
@@ -20813,7 +20813,7 @@
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>01/04/2010</t>
+          <t>01/10/2009</t>
         </is>
       </c>
       <c r="B816" t="inlineStr">
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="D816" t="n">
-        <v>18477</v>
+        <v>19538.0011</v>
       </c>
       <c r="E816" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>01/08/2010</t>
+          <t>01/09/2009</t>
         </is>
       </c>
       <c r="B817" t="inlineStr">
@@ -20852,7 +20852,7 @@
         </is>
       </c>
       <c r="D817" t="n">
-        <v>19472</v>
+        <v>19464</v>
       </c>
       <c r="E817" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>01/12/2010</t>
+          <t>01/04/2010</t>
         </is>
       </c>
       <c r="B818" t="inlineStr">
@@ -20877,7 +20877,7 @@
         </is>
       </c>
       <c r="D818" t="n">
-        <v>19253</v>
+        <v>18477</v>
       </c>
       <c r="E818" t="inlineStr">
         <is>
@@ -20888,7 +20888,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>01/02/2010</t>
+          <t>01/08/2010</t>
         </is>
       </c>
       <c r="B819" t="inlineStr">
@@ -20902,7 +20902,7 @@
         </is>
       </c>
       <c r="D819" t="n">
-        <v>17250</v>
+        <v>19472</v>
       </c>
       <c r="E819" t="inlineStr">
         <is>
@@ -20913,7 +20913,7 @@
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>01/01/2010</t>
+          <t>01/12/2010</t>
         </is>
       </c>
       <c r="B820" t="inlineStr">
@@ -20927,7 +20927,7 @@
         </is>
       </c>
       <c r="D820" t="n">
-        <v>19822</v>
+        <v>19253</v>
       </c>
       <c r="E820" t="inlineStr">
         <is>
@@ -20938,7 +20938,7 @@
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>01/07/2010</t>
+          <t>01/02/2010</t>
         </is>
       </c>
       <c r="B821" t="inlineStr">
@@ -20952,7 +20952,7 @@
         </is>
       </c>
       <c r="D821" t="n">
-        <v>19943</v>
+        <v>17250</v>
       </c>
       <c r="E821" t="inlineStr">
         <is>
@@ -20963,7 +20963,7 @@
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>01/06/2010</t>
+          <t>01/01/2010</t>
         </is>
       </c>
       <c r="B822" t="inlineStr">
@@ -20977,7 +20977,7 @@
         </is>
       </c>
       <c r="D822" t="n">
-        <v>18899</v>
+        <v>19822</v>
       </c>
       <c r="E822" t="inlineStr">
         <is>
@@ -20988,7 +20988,7 @@
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>01/05/2010</t>
+          <t>01/07/2010</t>
         </is>
       </c>
       <c r="B823" t="inlineStr">
@@ -21002,7 +21002,7 @@
         </is>
       </c>
       <c r="D823" t="n">
-        <v>19225</v>
+        <v>19943</v>
       </c>
       <c r="E823" t="inlineStr">
         <is>
@@ -21013,7 +21013,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>01/03/2010</t>
+          <t>01/06/2010</t>
         </is>
       </c>
       <c r="B824" t="inlineStr">
@@ -21027,7 +21027,7 @@
         </is>
       </c>
       <c r="D824" t="n">
-        <v>18557</v>
+        <v>18899</v>
       </c>
       <c r="E824" t="inlineStr">
         <is>
@@ -21038,7 +21038,7 @@
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>01/11/2010</t>
+          <t>01/05/2010</t>
         </is>
       </c>
       <c r="B825" t="inlineStr">
@@ -21052,7 +21052,7 @@
         </is>
       </c>
       <c r="D825" t="n">
-        <v>18252</v>
+        <v>19225</v>
       </c>
       <c r="E825" t="inlineStr">
         <is>
@@ -21063,7 +21063,7 @@
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>01/10/2010</t>
+          <t>01/03/2010</t>
         </is>
       </c>
       <c r="B826" t="inlineStr">
@@ -21077,7 +21077,7 @@
         </is>
       </c>
       <c r="D826" t="n">
-        <v>19679</v>
+        <v>18557</v>
       </c>
       <c r="E826" t="inlineStr">
         <is>
@@ -21088,7 +21088,7 @@
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>01/09/2010</t>
+          <t>01/11/2010</t>
         </is>
       </c>
       <c r="B827" t="inlineStr">
@@ -21102,7 +21102,7 @@
         </is>
       </c>
       <c r="D827" t="n">
-        <v>18162</v>
+        <v>18252</v>
       </c>
       <c r="E827" t="inlineStr">
         <is>
@@ -21113,7 +21113,7 @@
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>01/04/2011</t>
+          <t>01/10/2010</t>
         </is>
       </c>
       <c r="B828" t="inlineStr">
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D828" t="n">
-        <v>14211.9</v>
+        <v>19679</v>
       </c>
       <c r="E828" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>01/08/2011</t>
+          <t>01/09/2010</t>
         </is>
       </c>
       <c r="B829" t="inlineStr">
@@ -21152,7 +21152,7 @@
         </is>
       </c>
       <c r="D829" t="n">
-        <v>15656.1</v>
+        <v>18162</v>
       </c>
       <c r="E829" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>01/12/2011</t>
+          <t>01/04/2011</t>
         </is>
       </c>
       <c r="B830" t="inlineStr">
@@ -21177,7 +21177,7 @@
         </is>
       </c>
       <c r="D830" t="n">
-        <v>16836.5</v>
+        <v>14211.9</v>
       </c>
       <c r="E830" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>01/02/2011</t>
+          <t>01/08/2011</t>
         </is>
       </c>
       <c r="B831" t="inlineStr">
@@ -21202,7 +21202,7 @@
         </is>
       </c>
       <c r="D831" t="n">
-        <v>15945.6</v>
+        <v>15656.1</v>
       </c>
       <c r="E831" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>01/01/2011</t>
+          <t>01/12/2011</t>
         </is>
       </c>
       <c r="B832" t="inlineStr">
@@ -21227,7 +21227,7 @@
         </is>
       </c>
       <c r="D832" t="n">
-        <v>18522.8</v>
+        <v>16836.5</v>
       </c>
       <c r="E832" t="inlineStr">
         <is>
@@ -21238,7 +21238,7 @@
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>01/07/2011</t>
+          <t>01/02/2011</t>
         </is>
       </c>
       <c r="B833" t="inlineStr">
@@ -21252,7 +21252,7 @@
         </is>
       </c>
       <c r="D833" t="n">
-        <v>14478.2</v>
+        <v>15945.6</v>
       </c>
       <c r="E833" t="inlineStr">
         <is>
@@ -21263,7 +21263,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>01/06/2011</t>
+          <t>01/01/2011</t>
         </is>
       </c>
       <c r="B834" t="inlineStr">
@@ -21277,7 +21277,7 @@
         </is>
       </c>
       <c r="D834" t="n">
-        <v>15871.3</v>
+        <v>18522.8</v>
       </c>
       <c r="E834" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>01/05/2011</t>
+          <t>01/07/2011</t>
         </is>
       </c>
       <c r="B835" t="inlineStr">
@@ -21302,7 +21302,7 @@
         </is>
       </c>
       <c r="D835" t="n">
-        <v>17668.9</v>
+        <v>14478.2</v>
       </c>
       <c r="E835" t="inlineStr">
         <is>
@@ -21313,7 +21313,7 @@
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>01/03/2011</t>
+          <t>01/06/2011</t>
         </is>
       </c>
       <c r="B836" t="inlineStr">
@@ -21327,7 +21327,7 @@
         </is>
       </c>
       <c r="D836" t="n">
-        <v>10940.8</v>
+        <v>15871.3</v>
       </c>
       <c r="E836" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>01/11/2011</t>
+          <t>01/05/2011</t>
         </is>
       </c>
       <c r="B837" t="inlineStr">
@@ -21352,7 +21352,7 @@
         </is>
       </c>
       <c r="D837" t="n">
-        <v>15787.4</v>
+        <v>17668.9</v>
       </c>
       <c r="E837" t="inlineStr">
         <is>
@@ -21363,7 +21363,7 @@
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>01/10/2011</t>
+          <t>01/03/2011</t>
         </is>
       </c>
       <c r="B838" t="inlineStr">
@@ -21377,7 +21377,7 @@
         </is>
       </c>
       <c r="D838" t="n">
-        <v>16134.4</v>
+        <v>10940.8</v>
       </c>
       <c r="E838" t="inlineStr">
         <is>
@@ -21388,7 +21388,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>01/09/2011</t>
+          <t>01/11/2011</t>
         </is>
       </c>
       <c r="B839" t="inlineStr">
@@ -21402,7 +21402,7 @@
         </is>
       </c>
       <c r="D839" t="n">
-        <v>15096.4</v>
+        <v>15787.4</v>
       </c>
       <c r="E839" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>01/04/2012</t>
+          <t>01/10/2011</t>
         </is>
       </c>
       <c r="B840" t="inlineStr">
@@ -21427,7 +21427,7 @@
         </is>
       </c>
       <c r="D840" t="n">
-        <v>10707.1</v>
+        <v>16134.4</v>
       </c>
       <c r="E840" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>01/08/2012</t>
+          <t>01/09/2011</t>
         </is>
       </c>
       <c r="B841" t="inlineStr">
@@ -21452,7 +21452,7 @@
         </is>
       </c>
       <c r="D841" t="n">
-        <v>16193.1</v>
+        <v>15096.4</v>
       </c>
       <c r="E841" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>01/12/2012</t>
+          <t>01/04/2012</t>
         </is>
       </c>
       <c r="B842" t="inlineStr">
@@ -21477,7 +21477,7 @@
         </is>
       </c>
       <c r="D842" t="n">
-        <v>17393.3</v>
+        <v>10707.1</v>
       </c>
       <c r="E842" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>01/02/2012</t>
+          <t>01/08/2012</t>
         </is>
       </c>
       <c r="B843" t="inlineStr">
@@ -21502,7 +21502,7 @@
         </is>
       </c>
       <c r="D843" t="n">
-        <v>14260.4</v>
+        <v>16193.1</v>
       </c>
       <c r="E843" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>01/12/2012</t>
         </is>
       </c>
       <c r="B844" t="inlineStr">
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D844" t="n">
-        <v>16058.3</v>
+        <v>17393.3</v>
       </c>
       <c r="E844" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>01/07/2012</t>
+          <t>01/02/2012</t>
         </is>
       </c>
       <c r="B845" t="inlineStr">
@@ -21552,7 +21552,7 @@
         </is>
       </c>
       <c r="D845" t="n">
-        <v>12701.4</v>
+        <v>14260.4</v>
       </c>
       <c r="E845" t="inlineStr">
         <is>
@@ -21563,7 +21563,7 @@
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>01/06/2012</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="B846" t="inlineStr">
@@ -21577,7 +21577,7 @@
         </is>
       </c>
       <c r="D846" t="n">
-        <v>10851.8</v>
+        <v>16058.3</v>
       </c>
       <c r="E846" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>01/05/2012</t>
+          <t>01/07/2012</t>
         </is>
       </c>
       <c r="B847" t="inlineStr">
@@ -21602,7 +21602,7 @@
         </is>
       </c>
       <c r="D847" t="n">
-        <v>10692</v>
+        <v>12701.4</v>
       </c>
       <c r="E847" t="inlineStr">
         <is>
@@ -21613,7 +21613,7 @@
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>01/03/2012</t>
+          <t>01/06/2012</t>
         </is>
       </c>
       <c r="B848" t="inlineStr">
@@ -21627,7 +21627,7 @@
         </is>
       </c>
       <c r="D848" t="n">
-        <v>14311.3</v>
+        <v>10851.8</v>
       </c>
       <c r="E848" t="inlineStr">
         <is>
@@ -21638,7 +21638,7 @@
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>01/11/2012</t>
+          <t>01/05/2012</t>
         </is>
       </c>
       <c r="B849" t="inlineStr">
@@ -21652,7 +21652,7 @@
         </is>
       </c>
       <c r="D849" t="n">
-        <v>16574.9</v>
+        <v>10692</v>
       </c>
       <c r="E849" t="inlineStr">
         <is>
@@ -21663,7 +21663,7 @@
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>01/10/2012</t>
+          <t>01/03/2012</t>
         </is>
       </c>
       <c r="B850" t="inlineStr">
@@ -21677,7 +21677,7 @@
         </is>
       </c>
       <c r="D850" t="n">
-        <v>13682.2</v>
+        <v>14311.3</v>
       </c>
       <c r="E850" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>01/09/2012</t>
+          <t>01/11/2012</t>
         </is>
       </c>
       <c r="B851" t="inlineStr">
@@ -21702,7 +21702,7 @@
         </is>
       </c>
       <c r="D851" t="n">
-        <v>12246</v>
+        <v>16574.9</v>
       </c>
       <c r="E851" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>01/04/2013</t>
+          <t>01/10/2012</t>
         </is>
       </c>
       <c r="B852" t="inlineStr">
@@ -21727,7 +21727,7 @@
         </is>
       </c>
       <c r="D852" t="n">
-        <v>15186.2</v>
+        <v>13682.2</v>
       </c>
       <c r="E852" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>01/08/2013</t>
+          <t>01/09/2012</t>
         </is>
       </c>
       <c r="B853" t="inlineStr">
@@ -21752,7 +21752,7 @@
         </is>
       </c>
       <c r="D853" t="n">
-        <v>14998.4</v>
+        <v>12246</v>
       </c>
       <c r="E853" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>01/12/2013</t>
+          <t>01/04/2013</t>
         </is>
       </c>
       <c r="B854" t="inlineStr">
@@ -21777,7 +21777,7 @@
         </is>
       </c>
       <c r="D854" t="n">
-        <v>15576.1</v>
+        <v>15186.2</v>
       </c>
       <c r="E854" t="inlineStr">
         <is>
@@ -21788,7 +21788,7 @@
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>01/02/2013</t>
+          <t>01/08/2013</t>
         </is>
       </c>
       <c r="B855" t="inlineStr">
@@ -21802,7 +21802,7 @@
         </is>
       </c>
       <c r="D855" t="n">
-        <v>14992.1</v>
+        <v>14998.4</v>
       </c>
       <c r="E855" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/12/2013</t>
         </is>
       </c>
       <c r="B856" t="inlineStr">
@@ -21827,7 +21827,7 @@
         </is>
       </c>
       <c r="D856" t="n">
-        <v>16653.1</v>
+        <v>15576.1</v>
       </c>
       <c r="E856" t="inlineStr">
         <is>
@@ -21838,7 +21838,7 @@
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>01/07/2013</t>
+          <t>01/02/2013</t>
         </is>
       </c>
       <c r="B857" t="inlineStr">
@@ -21852,7 +21852,7 @@
         </is>
       </c>
       <c r="D857" t="n">
-        <v>15326.3</v>
+        <v>14992.1</v>
       </c>
       <c r="E857" t="inlineStr">
         <is>
@@ -21863,7 +21863,7 @@
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>01/06/2013</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="B858" t="inlineStr">
@@ -21877,7 +21877,7 @@
         </is>
       </c>
       <c r="D858" t="n">
-        <v>15355.6</v>
+        <v>16653.1</v>
       </c>
       <c r="E858" t="inlineStr">
         <is>
@@ -21888,7 +21888,7 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>01/05/2013</t>
+          <t>01/07/2013</t>
         </is>
       </c>
       <c r="B859" t="inlineStr">
@@ -21902,7 +21902,7 @@
         </is>
       </c>
       <c r="D859" t="n">
-        <v>14825.2</v>
+        <v>15326.3</v>
       </c>
       <c r="E859" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>01/03/2013</t>
+          <t>01/06/2013</t>
         </is>
       </c>
       <c r="B860" t="inlineStr">
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D860" t="n">
-        <v>15537.2</v>
+        <v>15355.6</v>
       </c>
       <c r="E860" t="inlineStr">
         <is>
@@ -21938,7 +21938,7 @@
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>01/11/2013</t>
+          <t>01/05/2013</t>
         </is>
       </c>
       <c r="B861" t="inlineStr">
@@ -21952,7 +21952,7 @@
         </is>
       </c>
       <c r="D861" t="n">
-        <v>14997.2</v>
+        <v>14825.2</v>
       </c>
       <c r="E861" t="inlineStr">
         <is>
@@ -21963,7 +21963,7 @@
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>01/03/2013</t>
         </is>
       </c>
       <c r="B862" t="inlineStr">
@@ -21977,7 +21977,7 @@
         </is>
       </c>
       <c r="D862" t="n">
-        <v>14495.7</v>
+        <v>15537.2</v>
       </c>
       <c r="E862" t="inlineStr">
         <is>
@@ -21988,7 +21988,7 @@
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>01/09/2013</t>
+          <t>01/11/2013</t>
         </is>
       </c>
       <c r="B863" t="inlineStr">
@@ -22002,7 +22002,7 @@
         </is>
       </c>
       <c r="D863" t="n">
-        <v>14777.2</v>
+        <v>14997.2</v>
       </c>
       <c r="E863" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>01/04/2014</t>
+          <t>01/10/2013</t>
         </is>
       </c>
       <c r="B864" t="inlineStr">
@@ -22027,7 +22027,7 @@
         </is>
       </c>
       <c r="D864" t="n">
-        <v>15228.7</v>
+        <v>14495.7</v>
       </c>
       <c r="E864" t="inlineStr">
         <is>
@@ -22038,7 +22038,7 @@
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>01/08/2014</t>
+          <t>01/09/2013</t>
         </is>
       </c>
       <c r="B865" t="inlineStr">
@@ -22052,7 +22052,7 @@
         </is>
       </c>
       <c r="D865" t="n">
-        <v>14545.5</v>
+        <v>14777.2</v>
       </c>
       <c r="E865" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>01/12/2014</t>
+          <t>01/04/2014</t>
         </is>
       </c>
       <c r="B866" t="inlineStr">
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D866" t="n">
-        <v>13264.2</v>
+        <v>15228.7</v>
       </c>
       <c r="E866" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>01/02/2014</t>
+          <t>01/08/2014</t>
         </is>
       </c>
       <c r="B867" t="inlineStr">
@@ -22102,7 +22102,7 @@
         </is>
       </c>
       <c r="D867" t="n">
-        <v>13542.3</v>
+        <v>14545.5</v>
       </c>
       <c r="E867" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/12/2014</t>
         </is>
       </c>
       <c r="B868" t="inlineStr">
@@ -22127,7 +22127,7 @@
         </is>
       </c>
       <c r="D868" t="n">
-        <v>15019.1</v>
+        <v>13264.2</v>
       </c>
       <c r="E868" t="inlineStr">
         <is>
@@ -22138,7 +22138,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
+          <t>01/02/2014</t>
         </is>
       </c>
       <c r="B869" t="inlineStr">
@@ -22152,7 +22152,7 @@
         </is>
       </c>
       <c r="D869" t="n">
-        <v>14900.7</v>
+        <v>13542.3</v>
       </c>
       <c r="E869" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>01/06/2014</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="B870" t="inlineStr">
@@ -22177,7 +22177,7 @@
         </is>
       </c>
       <c r="D870" t="n">
-        <v>14977.9</v>
+        <v>15019.1</v>
       </c>
       <c r="E870" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>01/05/2014</t>
+          <t>01/07/2014</t>
         </is>
       </c>
       <c r="B871" t="inlineStr">
@@ -22202,7 +22202,7 @@
         </is>
       </c>
       <c r="D871" t="n">
-        <v>16141.5</v>
+        <v>14900.7</v>
       </c>
       <c r="E871" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>01/03/2014</t>
+          <t>01/06/2014</t>
         </is>
       </c>
       <c r="B872" t="inlineStr">
@@ -22227,7 +22227,7 @@
         </is>
       </c>
       <c r="D872" t="n">
-        <v>15178.7</v>
+        <v>14977.9</v>
       </c>
       <c r="E872" t="inlineStr">
         <is>
@@ -22238,7 +22238,7 @@
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>01/11/2014</t>
+          <t>01/05/2014</t>
         </is>
       </c>
       <c r="B873" t="inlineStr">
@@ -22252,7 +22252,7 @@
         </is>
       </c>
       <c r="D873" t="n">
-        <v>11227.8</v>
+        <v>16141.5</v>
       </c>
       <c r="E873" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>01/10/2014</t>
+          <t>01/03/2014</t>
         </is>
       </c>
       <c r="B874" t="inlineStr">
@@ -22277,7 +22277,7 @@
         </is>
       </c>
       <c r="D874" t="n">
-        <v>14384.8</v>
+        <v>15178.7</v>
       </c>
       <c r="E874" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>01/09/2014</t>
+          <t>01/11/2014</t>
         </is>
       </c>
       <c r="B875" t="inlineStr">
@@ -22302,7 +22302,7 @@
         </is>
       </c>
       <c r="D875" t="n">
-        <v>13936.6</v>
+        <v>11227.8</v>
       </c>
       <c r="E875" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>01/04/2015</t>
+          <t>01/10/2014</t>
         </is>
       </c>
       <c r="B876" t="inlineStr">
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D876" t="n">
-        <v>13917.8</v>
+        <v>14384.8</v>
       </c>
       <c r="E876" t="inlineStr">
         <is>
@@ -22338,7 +22338,7 @@
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>01/08/2015</t>
+          <t>01/09/2014</t>
         </is>
       </c>
       <c r="B877" t="inlineStr">
@@ -22352,7 +22352,7 @@
         </is>
       </c>
       <c r="D877" t="n">
-        <v>11403.3</v>
+        <v>13936.6</v>
       </c>
       <c r="E877" t="inlineStr">
         <is>
@@ -22363,7 +22363,7 @@
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>01/12/2015</t>
+          <t>01/04/2015</t>
         </is>
       </c>
       <c r="B878" t="inlineStr">
@@ -22377,7 +22377,7 @@
         </is>
       </c>
       <c r="D878" t="n">
-        <v>9425.700000000001</v>
+        <v>13917.8</v>
       </c>
       <c r="E878" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>01/02/2015</t>
+          <t>01/08/2015</t>
         </is>
       </c>
       <c r="B879" t="inlineStr">
@@ -22402,7 +22402,7 @@
         </is>
       </c>
       <c r="D879" t="n">
-        <v>13004.4</v>
+        <v>11403.3</v>
       </c>
       <c r="E879" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/12/2015</t>
         </is>
       </c>
       <c r="B880" t="inlineStr">
@@ -22427,7 +22427,7 @@
         </is>
       </c>
       <c r="D880" t="n">
-        <v>14478.2</v>
+        <v>9425.700000000001</v>
       </c>
       <c r="E880" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>01/07/2015</t>
+          <t>01/02/2015</t>
         </is>
       </c>
       <c r="B881" t="inlineStr">
@@ -22452,7 +22452,7 @@
         </is>
       </c>
       <c r="D881" t="n">
-        <v>11946.4</v>
+        <v>13004.4</v>
       </c>
       <c r="E881" t="inlineStr">
         <is>
@@ -22463,7 +22463,7 @@
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>01/06/2015</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="B882" t="inlineStr">
@@ -22477,7 +22477,7 @@
         </is>
       </c>
       <c r="D882" t="n">
-        <v>12385.6</v>
+        <v>14478.2</v>
       </c>
       <c r="E882" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>01/05/2015</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="B883" t="inlineStr">
@@ -22502,7 +22502,7 @@
         </is>
       </c>
       <c r="D883" t="n">
-        <v>12823.9</v>
+        <v>11946.4</v>
       </c>
       <c r="E883" t="inlineStr">
         <is>
@@ -22513,7 +22513,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>01/03/2015</t>
+          <t>01/06/2015</t>
         </is>
       </c>
       <c r="B884" t="inlineStr">
@@ -22527,7 +22527,7 @@
         </is>
       </c>
       <c r="D884" t="n">
-        <v>14916.8</v>
+        <v>12385.6</v>
       </c>
       <c r="E884" t="inlineStr">
         <is>
@@ -22538,7 +22538,7 @@
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>01/11/2015</t>
+          <t>01/05/2015</t>
         </is>
       </c>
       <c r="B885" t="inlineStr">
@@ -22552,7 +22552,7 @@
         </is>
       </c>
       <c r="D885" t="n">
-        <v>5361.7</v>
+        <v>12823.9</v>
       </c>
       <c r="E885" t="inlineStr">
         <is>
@@ -22563,7 +22563,7 @@
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/03/2015</t>
         </is>
       </c>
       <c r="B886" t="inlineStr">
@@ -22577,7 +22577,7 @@
         </is>
       </c>
       <c r="D886" t="n">
-        <v>11384.7</v>
+        <v>14916.8</v>
       </c>
       <c r="E886" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>01/09/2015</t>
+          <t>01/11/2015</t>
         </is>
       </c>
       <c r="B887" t="inlineStr">
@@ -22602,7 +22602,7 @@
         </is>
       </c>
       <c r="D887" t="n">
-        <v>11927.3</v>
+        <v>5361.7</v>
       </c>
       <c r="E887" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>01/04/2016</t>
+          <t>01/10/2015</t>
         </is>
       </c>
       <c r="B888" t="inlineStr">
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="D888" t="n">
-        <v>9074.1</v>
+        <v>11384.7</v>
       </c>
       <c r="E888" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>01/08/2016</t>
+          <t>01/09/2015</t>
         </is>
       </c>
       <c r="B889" t="inlineStr">
@@ -22652,7 +22652,7 @@
         </is>
       </c>
       <c r="D889" t="n">
-        <v>9273.799999999999</v>
+        <v>11927.3</v>
       </c>
       <c r="E889" t="inlineStr">
         <is>
@@ -22663,7 +22663,7 @@
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>01/12/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="B890" t="inlineStr">
@@ -22677,7 +22677,7 @@
         </is>
       </c>
       <c r="D890" t="n">
-        <v>3213.5</v>
+        <v>9074.1</v>
       </c>
       <c r="E890" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>01/02/2016</t>
+          <t>01/08/2016</t>
         </is>
       </c>
       <c r="B891" t="inlineStr">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="D891" t="n">
-        <v>8886.4</v>
+        <v>9273.799999999999</v>
       </c>
       <c r="E891" t="inlineStr">
         <is>
@@ -22713,7 +22713,7 @@
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/12/2016</t>
         </is>
       </c>
       <c r="B892" t="inlineStr">
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D892" t="n">
-        <v>9118.200000000001</v>
+        <v>3213.5</v>
       </c>
       <c r="E892" t="inlineStr">
         <is>
@@ -22738,7 +22738,7 @@
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
+          <t>01/02/2016</t>
         </is>
       </c>
       <c r="B893" t="inlineStr">
@@ -22752,7 +22752,7 @@
         </is>
       </c>
       <c r="D893" t="n">
-        <v>9093.799999999999</v>
+        <v>8886.4</v>
       </c>
       <c r="E893" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>01/06/2016</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="B894" t="inlineStr">
@@ -22777,7 +22777,7 @@
         </is>
       </c>
       <c r="D894" t="n">
-        <v>8134.5</v>
+        <v>9118.200000000001</v>
       </c>
       <c r="E894" t="inlineStr">
         <is>
@@ -22788,7 +22788,7 @@
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>01/05/2016</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="B895" t="inlineStr">
@@ -22802,7 +22802,7 @@
         </is>
       </c>
       <c r="D895" t="n">
-        <v>9412.299999999999</v>
+        <v>9093.799999999999</v>
       </c>
       <c r="E895" t="inlineStr">
         <is>
@@ -22813,7 +22813,7 @@
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>01/03/2016</t>
+          <t>01/06/2016</t>
         </is>
       </c>
       <c r="B896" t="inlineStr">
@@ -22827,7 +22827,7 @@
         </is>
       </c>
       <c r="D896" t="n">
-        <v>9861.1</v>
+        <v>8134.5</v>
       </c>
       <c r="E896" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>01/11/2016</t>
+          <t>01/05/2016</t>
         </is>
       </c>
       <c r="B897" t="inlineStr">
@@ -22852,7 +22852,7 @@
         </is>
       </c>
       <c r="D897" t="n">
-        <v>7657.6</v>
+        <v>9412.299999999999</v>
       </c>
       <c r="E897" t="inlineStr">
         <is>
@@ -22863,7 +22863,7 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/03/2016</t>
         </is>
       </c>
       <c r="B898" t="inlineStr">
@@ -22877,7 +22877,7 @@
         </is>
       </c>
       <c r="D898" t="n">
-        <v>8933.1</v>
+        <v>9861.1</v>
       </c>
       <c r="E898" t="inlineStr">
         <is>
@@ -22888,7 +22888,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>01/09/2016</t>
+          <t>01/11/2016</t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
@@ -22902,7 +22902,7 @@
         </is>
       </c>
       <c r="D899" t="n">
-        <v>8977.299999999999</v>
+        <v>7657.6</v>
       </c>
       <c r="E899" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>01/04/2017</t>
+          <t>01/10/2016</t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
@@ -22927,7 +22927,7 @@
         </is>
       </c>
       <c r="D900" t="n">
-        <v>6856.1</v>
+        <v>8933.1</v>
       </c>
       <c r="E900" t="inlineStr">
         <is>
@@ -22938,7 +22938,7 @@
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>01/08/2017</t>
+          <t>01/09/2016</t>
         </is>
       </c>
       <c r="B901" t="inlineStr">
@@ -22952,7 +22952,7 @@
         </is>
       </c>
       <c r="D901" t="n">
-        <v>7185.4</v>
+        <v>8977.299999999999</v>
       </c>
       <c r="E901" t="inlineStr">
         <is>
@@ -22963,7 +22963,7 @@
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>01/12/2017</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="B902" t="inlineStr">
@@ -22977,7 +22977,7 @@
         </is>
       </c>
       <c r="D902" t="n">
-        <v>9617.700000000001</v>
+        <v>6856.1</v>
       </c>
       <c r="E902" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>01/02/2017</t>
+          <t>01/08/2017</t>
         </is>
       </c>
       <c r="B903" t="inlineStr">
@@ -23002,7 +23002,7 @@
         </is>
       </c>
       <c r="D903" t="n">
-        <v>6279.5</v>
+        <v>7185.4</v>
       </c>
       <c r="E903" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/12/2017</t>
         </is>
       </c>
       <c r="B904" t="inlineStr">
@@ -23027,7 +23027,7 @@
         </is>
       </c>
       <c r="D904" t="n">
-        <v>7743.8</v>
+        <v>9617.700000000001</v>
       </c>
       <c r="E904" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
+          <t>01/02/2017</t>
         </is>
       </c>
       <c r="B905" t="inlineStr">
@@ -23052,7 +23052,7 @@
         </is>
       </c>
       <c r="D905" t="n">
-        <v>6753.2</v>
+        <v>6279.5</v>
       </c>
       <c r="E905" t="inlineStr">
         <is>
@@ -23063,7 +23063,7 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>01/06/2017</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="B906" t="inlineStr">
@@ -23077,7 +23077,7 @@
         </is>
       </c>
       <c r="D906" t="n">
-        <v>6679</v>
+        <v>7743.8</v>
       </c>
       <c r="E906" t="inlineStr">
         <is>
@@ -23088,7 +23088,7 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>01/05/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="B907" t="inlineStr">
@@ -23102,7 +23102,7 @@
         </is>
       </c>
       <c r="D907" t="n">
-        <v>6777</v>
+        <v>6753.2</v>
       </c>
       <c r="E907" t="inlineStr">
         <is>
@@ -23113,7 +23113,7 @@
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>01/03/2017</t>
+          <t>01/06/2017</t>
         </is>
       </c>
       <c r="B908" t="inlineStr">
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D908" t="n">
-        <v>7180</v>
+        <v>6679</v>
       </c>
       <c r="E908" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>01/11/2017</t>
+          <t>01/05/2017</t>
         </is>
       </c>
       <c r="B909" t="inlineStr">
@@ -23152,7 +23152,7 @@
         </is>
       </c>
       <c r="D909" t="n">
-        <v>7720.9</v>
+        <v>6777</v>
       </c>
       <c r="E909" t="inlineStr">
         <is>
@@ -23163,7 +23163,7 @@
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/03/2017</t>
         </is>
       </c>
       <c r="B910" t="inlineStr">
@@ -23177,7 +23177,7 @@
         </is>
       </c>
       <c r="D910" t="n">
-        <v>7765.07</v>
+        <v>7180</v>
       </c>
       <c r="E910" t="inlineStr">
         <is>
@@ -23188,7 +23188,7 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>01/09/2017</t>
+          <t>01/11/2017</t>
         </is>
       </c>
       <c r="B911" t="inlineStr">
@@ -23202,7 +23202,7 @@
         </is>
       </c>
       <c r="D911" t="n">
-        <v>7191.4</v>
+        <v>7720.9</v>
       </c>
       <c r="E911" t="inlineStr">
         <is>
@@ -23213,7 +23213,7 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>01/04/2018</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="B912" t="inlineStr">
@@ -23227,7 +23227,7 @@
         </is>
       </c>
       <c r="D912" t="n">
-        <v>6020</v>
+        <v>7765.07</v>
       </c>
       <c r="E912" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>01/08/2018</t>
+          <t>01/09/2017</t>
         </is>
       </c>
       <c r="B913" t="inlineStr">
@@ -23252,7 +23252,7 @@
         </is>
       </c>
       <c r="D913" t="n">
-        <v>5969</v>
+        <v>7191.4</v>
       </c>
       <c r="E913" t="inlineStr">
         <is>
@@ -23263,7 +23263,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>01/12/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="B914" t="inlineStr">
@@ -23277,7 +23277,7 @@
         </is>
       </c>
       <c r="D914" t="n">
-        <v>6061</v>
+        <v>6020</v>
       </c>
       <c r="E914" t="inlineStr">
         <is>
@@ -23288,7 +23288,7 @@
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>01/02/2018</t>
+          <t>01/08/2018</t>
         </is>
       </c>
       <c r="B915" t="inlineStr">
@@ -23302,7 +23302,7 @@
         </is>
       </c>
       <c r="D915" t="n">
-        <v>6141.6</v>
+        <v>5969</v>
       </c>
       <c r="E915" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/12/2018</t>
         </is>
       </c>
       <c r="B916" t="inlineStr">
@@ -23327,7 +23327,7 @@
         </is>
       </c>
       <c r="D916" t="n">
-        <v>7289.478</v>
+        <v>6061</v>
       </c>
       <c r="E916" t="inlineStr">
         <is>
@@ -23338,7 +23338,7 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>01/02/2018</t>
         </is>
       </c>
       <c r="B917" t="inlineStr">
@@ -23352,7 +23352,7 @@
         </is>
       </c>
       <c r="D917" t="n">
-        <v>5621.504</v>
+        <v>6141.6</v>
       </c>
       <c r="E917" t="inlineStr">
         <is>
@@ -23363,7 +23363,7 @@
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>01/06/2018</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="B918" t="inlineStr">
@@ -23377,7 +23377,7 @@
         </is>
       </c>
       <c r="D918" t="n">
-        <v>5487.042</v>
+        <v>7289.478</v>
       </c>
       <c r="E918" t="inlineStr">
         <is>
@@ -23388,7 +23388,7 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>01/05/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="B919" t="inlineStr">
@@ -23402,7 +23402,7 @@
         </is>
       </c>
       <c r="D919" t="n">
-        <v>5549.7</v>
+        <v>5621.504</v>
       </c>
       <c r="E919" t="inlineStr">
         <is>
@@ -23413,7 +23413,7 @@
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>01/03/2018</t>
+          <t>01/06/2018</t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
@@ -23427,7 +23427,7 @@
         </is>
       </c>
       <c r="D920" t="n">
-        <v>6426.258</v>
+        <v>5487.042</v>
       </c>
       <c r="E920" t="inlineStr">
         <is>
@@ -23438,7 +23438,7 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>01/11/2018</t>
+          <t>01/05/2018</t>
         </is>
       </c>
       <c r="B921" t="inlineStr">
@@ -23452,7 +23452,7 @@
         </is>
       </c>
       <c r="D921" t="n">
-        <v>5685.5</v>
+        <v>5549.7</v>
       </c>
       <c r="E921" t="inlineStr">
         <is>
@@ -23463,7 +23463,7 @@
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/03/2018</t>
         </is>
       </c>
       <c r="B922" t="inlineStr">
@@ -23477,7 +23477,7 @@
         </is>
       </c>
       <c r="D922" t="n">
-        <v>5916.66</v>
+        <v>6426.258</v>
       </c>
       <c r="E922" t="inlineStr">
         <is>
@@ -23488,7 +23488,7 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>01/09/2018</t>
+          <t>01/11/2018</t>
         </is>
       </c>
       <c r="B923" t="inlineStr">
@@ -23502,7 +23502,7 @@
         </is>
       </c>
       <c r="D923" t="n">
-        <v>5970.399</v>
+        <v>5685.5</v>
       </c>
       <c r="E923" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="B924" t="inlineStr">
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D924" t="n">
-        <v>5391.2</v>
+        <v>5916.66</v>
       </c>
       <c r="E924" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>01/08/2019</t>
+          <t>01/09/2018</t>
         </is>
       </c>
       <c r="B925" t="inlineStr">
@@ -23552,7 +23552,7 @@
         </is>
       </c>
       <c r="D925" t="n">
-        <v>4054.5</v>
+        <v>5970.399</v>
       </c>
       <c r="E925" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>01/12/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="B926" t="inlineStr">
@@ -23577,7 +23577,7 @@
         </is>
       </c>
       <c r="D926" t="n">
-        <v>4830.4</v>
+        <v>5391.2</v>
       </c>
       <c r="E926" t="inlineStr">
         <is>
@@ -23588,7 +23588,7 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>01/02/2019</t>
+          <t>01/08/2019</t>
         </is>
       </c>
       <c r="B927" t="inlineStr">
@@ -23602,7 +23602,7 @@
         </is>
       </c>
       <c r="D927" t="n">
-        <v>3997.1</v>
+        <v>4054.5</v>
       </c>
       <c r="E927" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/12/2019</t>
         </is>
       </c>
       <c r="B928" t="inlineStr">
@@ -23627,7 +23627,7 @@
         </is>
       </c>
       <c r="D928" t="n">
-        <v>5711.1</v>
+        <v>4830.4</v>
       </c>
       <c r="E928" t="inlineStr">
         <is>
@@ -23638,7 +23638,7 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/02/2019</t>
         </is>
       </c>
       <c r="B929" t="inlineStr">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="D929" t="n">
-        <v>4524.82</v>
+        <v>3997.1</v>
       </c>
       <c r="E929" t="inlineStr">
         <is>
@@ -23663,7 +23663,7 @@
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>01/06/2019</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="B930" t="inlineStr">
@@ -23677,7 +23677,7 @@
         </is>
       </c>
       <c r="D930" t="n">
-        <v>4716.577</v>
+        <v>5711.1</v>
       </c>
       <c r="E930" t="inlineStr">
         <is>
@@ -23688,7 +23688,7 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>01/05/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="B931" t="inlineStr">
@@ -23702,7 +23702,7 @@
         </is>
       </c>
       <c r="D931" t="n">
-        <v>5361.2</v>
+        <v>4524.82</v>
       </c>
       <c r="E931" t="inlineStr">
         <is>
@@ -23713,7 +23713,7 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>01/03/2019</t>
+          <t>01/06/2019</t>
         </is>
       </c>
       <c r="B932" t="inlineStr">
@@ -23727,7 +23727,7 @@
         </is>
       </c>
       <c r="D932" t="n">
-        <v>4734.9</v>
+        <v>4716.577</v>
       </c>
       <c r="E932" t="inlineStr">
         <is>
@@ -23738,7 +23738,7 @@
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>01/11/2019</t>
+          <t>01/05/2019</t>
         </is>
       </c>
       <c r="B933" t="inlineStr">
@@ -23752,7 +23752,7 @@
         </is>
       </c>
       <c r="D933" t="n">
-        <v>3812.4</v>
+        <v>5361.2</v>
       </c>
       <c r="E933" t="inlineStr">
         <is>
@@ -23763,7 +23763,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/03/2019</t>
         </is>
       </c>
       <c r="B934" t="inlineStr">
@@ -23777,7 +23777,7 @@
         </is>
       </c>
       <c r="D934" t="n">
-        <v>4339.8</v>
+        <v>4734.9</v>
       </c>
       <c r="E934" t="inlineStr">
         <is>
@@ -23788,7 +23788,7 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>01/09/2019</t>
+          <t>01/11/2019</t>
         </is>
       </c>
       <c r="B935" t="inlineStr">
@@ -23802,7 +23802,7 @@
         </is>
       </c>
       <c r="D935" t="n">
-        <v>3820.9</v>
+        <v>3812.4</v>
       </c>
       <c r="E935" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="B936" t="inlineStr">
@@ -23827,7 +23827,7 @@
         </is>
       </c>
       <c r="D936" t="n">
-        <v>0</v>
+        <v>4339.8</v>
       </c>
       <c r="E936" t="inlineStr">
         <is>
@@ -23838,7 +23838,7 @@
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>01/08/2020</t>
+          <t>01/09/2019</t>
         </is>
       </c>
       <c r="B937" t="inlineStr">
@@ -23852,7 +23852,7 @@
         </is>
       </c>
       <c r="D937" t="n">
-        <v>0</v>
+        <v>3820.9</v>
       </c>
       <c r="E937" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>01/12/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="B938" t="inlineStr">
@@ -23888,7 +23888,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>01/02/2020</t>
+          <t>01/08/2020</t>
         </is>
       </c>
       <c r="B939" t="inlineStr">
@@ -23902,7 +23902,7 @@
         </is>
       </c>
       <c r="D939" t="n">
-        <v>5762.358</v>
+        <v>0</v>
       </c>
       <c r="E939" t="inlineStr">
         <is>
@@ -23913,7 +23913,7 @@
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/12/2020</t>
         </is>
       </c>
       <c r="B940" t="inlineStr">
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D940" t="n">
-        <v>5560.337</v>
+        <v>0</v>
       </c>
       <c r="E940" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/02/2020</t>
         </is>
       </c>
       <c r="B941" t="inlineStr">
@@ -23952,7 +23952,7 @@
         </is>
       </c>
       <c r="D941" t="n">
-        <v>0</v>
+        <v>5762.358</v>
       </c>
       <c r="E941" t="inlineStr">
         <is>
@@ -23963,7 +23963,7 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>01/06/2020</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="B942" t="inlineStr">
@@ -23977,7 +23977,7 @@
         </is>
       </c>
       <c r="D942" t="n">
-        <v>0</v>
+        <v>5560.337</v>
       </c>
       <c r="E942" t="inlineStr">
         <is>
@@ -23988,7 +23988,7 @@
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>01/05/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="B943" t="inlineStr">
@@ -24013,7 +24013,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>01/03/2020</t>
+          <t>01/06/2020</t>
         </is>
       </c>
       <c r="B944" t="inlineStr">
@@ -24027,7 +24027,7 @@
         </is>
       </c>
       <c r="D944" t="n">
-        <v>5496</v>
+        <v>0</v>
       </c>
       <c r="E944" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>01/11/2020</t>
+          <t>01/05/2020</t>
         </is>
       </c>
       <c r="B945" t="inlineStr">
@@ -24063,7 +24063,7 @@
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/03/2020</t>
         </is>
       </c>
       <c r="B946" t="inlineStr">
@@ -24077,7 +24077,7 @@
         </is>
       </c>
       <c r="D946" t="n">
-        <v>0</v>
+        <v>5496</v>
       </c>
       <c r="E946" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>01/09/2020</t>
+          <t>01/11/2020</t>
         </is>
       </c>
       <c r="B947" t="inlineStr">
@@ -24113,7 +24113,7 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="B948" t="inlineStr">
@@ -24138,7 +24138,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>01/08/2021</t>
+          <t>01/09/2020</t>
         </is>
       </c>
       <c r="B949" t="inlineStr">
@@ -24163,7 +24163,7 @@
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>01/12/2021</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="B950" t="inlineStr">
@@ -24188,7 +24188,7 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>01/02/2021</t>
+          <t>01/08/2021</t>
         </is>
       </c>
       <c r="B951" t="inlineStr">
@@ -24213,7 +24213,7 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/12/2021</t>
         </is>
       </c>
       <c r="B952" t="inlineStr">
@@ -24238,7 +24238,7 @@
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/02/2021</t>
         </is>
       </c>
       <c r="B953" t="inlineStr">
@@ -24263,7 +24263,7 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>01/06/2021</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="B954" t="inlineStr">
@@ -24288,7 +24288,7 @@
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>01/05/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="B955" t="inlineStr">
@@ -24313,7 +24313,7 @@
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>01/03/2021</t>
+          <t>01/06/2021</t>
         </is>
       </c>
       <c r="B956" t="inlineStr">
@@ -24338,7 +24338,7 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>01/11/2021</t>
+          <t>01/05/2021</t>
         </is>
       </c>
       <c r="B957" t="inlineStr">
@@ -24363,7 +24363,7 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/03/2021</t>
         </is>
       </c>
       <c r="B958" t="inlineStr">
@@ -24388,7 +24388,7 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>01/09/2021</t>
+          <t>01/11/2021</t>
         </is>
       </c>
       <c r="B959" t="inlineStr">
@@ -24413,7 +24413,7 @@
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="B960" t="inlineStr">
@@ -24438,7 +24438,7 @@
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>01/08/2022</t>
+          <t>01/09/2021</t>
         </is>
       </c>
       <c r="B961" t="inlineStr">
@@ -24463,7 +24463,7 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>01/12/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="B962" t="inlineStr">
@@ -24488,7 +24488,7 @@
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>01/02/2022</t>
+          <t>01/08/2022</t>
         </is>
       </c>
       <c r="B963" t="inlineStr">
@@ -24513,7 +24513,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/12/2022</t>
         </is>
       </c>
       <c r="B964" t="inlineStr">
@@ -24538,7 +24538,7 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/02/2022</t>
         </is>
       </c>
       <c r="B965" t="inlineStr">
@@ -24563,7 +24563,7 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>01/06/2022</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="B966" t="inlineStr">
@@ -24588,7 +24588,7 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>01/05/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="B967" t="inlineStr">
@@ -24613,7 +24613,7 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>01/03/2022</t>
+          <t>01/06/2022</t>
         </is>
       </c>
       <c r="B968" t="inlineStr">
@@ -24638,7 +24638,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>01/11/2022</t>
+          <t>01/05/2022</t>
         </is>
       </c>
       <c r="B969" t="inlineStr">
@@ -24663,7 +24663,7 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/03/2022</t>
         </is>
       </c>
       <c r="B970" t="inlineStr">
@@ -24688,7 +24688,7 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>01/09/2022</t>
+          <t>01/11/2022</t>
         </is>
       </c>
       <c r="B971" t="inlineStr">
@@ -24713,7 +24713,7 @@
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="B972" t="inlineStr">
@@ -24738,7 +24738,7 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01/09/2022</t>
         </is>
       </c>
       <c r="B973" t="inlineStr">
@@ -24763,7 +24763,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="B974" t="inlineStr">
@@ -24788,7 +24788,7 @@
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>01/02/2023</t>
+          <t>01/08/2023</t>
         </is>
       </c>
       <c r="B975" t="inlineStr">
@@ -24813,7 +24813,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="B976" t="inlineStr">
@@ -24838,7 +24838,7 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/02/2023</t>
         </is>
       </c>
       <c r="B977" t="inlineStr">
@@ -24863,7 +24863,7 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>01/06/2023</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="B978" t="inlineStr">
@@ -24888,7 +24888,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>01/05/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="B979" t="inlineStr">
@@ -24913,7 +24913,7 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>01/03/2023</t>
+          <t>01/06/2023</t>
         </is>
       </c>
       <c r="B980" t="inlineStr">
@@ -24938,7 +24938,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>01/11/2023</t>
+          <t>01/05/2023</t>
         </is>
       </c>
       <c r="B981" t="inlineStr">
@@ -24963,7 +24963,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/03/2023</t>
         </is>
       </c>
       <c r="B982" t="inlineStr">
@@ -24988,7 +24988,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>01/09/2023</t>
+          <t>01/11/2023</t>
         </is>
       </c>
       <c r="B983" t="inlineStr">
@@ -25013,7 +25013,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="B984" t="inlineStr">
@@ -25038,7 +25038,7 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>01/02/2024</t>
+          <t>01/09/2023</t>
         </is>
       </c>
       <c r="B985" t="inlineStr">
@@ -25063,7 +25063,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="B986" t="inlineStr">
@@ -25088,7 +25088,7 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>01/05/2024</t>
+          <t>01/02/2024</t>
         </is>
       </c>
       <c r="B987" t="inlineStr">
@@ -25113,7 +25113,7 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>01/03/2024</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="B988" t="inlineStr">
@@ -25130,6 +25130,81 @@
         <v>0</v>
       </c>
       <c r="E988" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="inlineStr">
+        <is>
+          <t>01/06/2024</t>
+        </is>
+      </c>
+      <c r="B989" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C989" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D989" t="n">
+        <v>0</v>
+      </c>
+      <c r="E989" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="inlineStr">
+        <is>
+          <t>01/05/2024</t>
+        </is>
+      </c>
+      <c r="B990" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C990" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D990" t="n">
+        <v>0</v>
+      </c>
+      <c r="E990" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="inlineStr">
+        <is>
+          <t>01/03/2024</t>
+        </is>
+      </c>
+      <c r="B991" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C991" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D991" t="n">
+        <v>0</v>
+      </c>
+      <c r="E991" t="inlineStr">
         <is>
           <t>SERGIPE</t>
         </is>

--- a/Data/g8.2.xlsx
+++ b/Data/g8.2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E991"/>
+  <dimension ref="A1:E994"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16813,7 +16813,7 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>01/06/2024</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
@@ -16827,7 +16827,7 @@
         </is>
       </c>
       <c r="D656" t="n">
-        <v>64.83499999999999</v>
+        <v>68.252</v>
       </c>
       <c r="E656" t="inlineStr">
         <is>
@@ -16838,7 +16838,7 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>01/06/2024</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
@@ -16852,7 +16852,7 @@
         </is>
       </c>
       <c r="D657" t="n">
-        <v>1974.229</v>
+        <v>2178.435</v>
       </c>
       <c r="E657" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>01/05/2024</t>
+          <t>01/06/2024</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
@@ -16877,7 +16877,7 @@
         </is>
       </c>
       <c r="D658" t="n">
-        <v>68.96599999999999</v>
+        <v>64.83499999999999</v>
       </c>
       <c r="E658" t="inlineStr">
         <is>
@@ -16888,7 +16888,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>01/05/2024</t>
+          <t>01/06/2024</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
@@ -16902,7 +16902,7 @@
         </is>
       </c>
       <c r="D659" t="n">
-        <v>1893.56</v>
+        <v>1974.229</v>
       </c>
       <c r="E659" t="inlineStr">
         <is>
@@ -16913,7 +16913,7 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>01/03/2024</t>
+          <t>01/05/2024</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
@@ -16927,7 +16927,7 @@
         </is>
       </c>
       <c r="D660" t="n">
-        <v>72.51000000000001</v>
+        <v>68.96599999999999</v>
       </c>
       <c r="E660" t="inlineStr">
         <is>
@@ -16938,7 +16938,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>01/03/2024</t>
+          <t>01/05/2024</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
@@ -16952,7 +16952,7 @@
         </is>
       </c>
       <c r="D661" t="n">
-        <v>1639.846</v>
+        <v>1893.56</v>
       </c>
       <c r="E661" t="inlineStr">
         <is>
@@ -16963,21 +16963,21 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>01/04/1997</t>
+          <t>01/03/2024</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA</t>
+          <t>MAR</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>LGN</t>
+          <t>GÁS NATURAL</t>
         </is>
       </c>
       <c r="D662" t="n">
-        <v>20951</v>
+        <v>72.51000000000001</v>
       </c>
       <c r="E662" t="inlineStr">
         <is>
@@ -16988,21 +16988,21 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>01/08/1997</t>
+          <t>01/03/2024</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA</t>
+          <t>TERRA</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>LGN</t>
+          <t>GÁS NATURAL</t>
         </is>
       </c>
       <c r="D663" t="n">
-        <v>24698</v>
+        <v>1639.846</v>
       </c>
       <c r="E663" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>01/12/1997</t>
+          <t>01/04/1997</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
@@ -17027,7 +17027,7 @@
         </is>
       </c>
       <c r="D664" t="n">
-        <v>23230</v>
+        <v>20951</v>
       </c>
       <c r="E664" t="inlineStr">
         <is>
@@ -17038,7 +17038,7 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>01/02/1997</t>
+          <t>01/08/1997</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
@@ -17052,7 +17052,7 @@
         </is>
       </c>
       <c r="D665" t="n">
-        <v>19007</v>
+        <v>24698</v>
       </c>
       <c r="E665" t="inlineStr">
         <is>
@@ -17063,7 +17063,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>01/01/1997</t>
+          <t>01/12/1997</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
@@ -17077,7 +17077,7 @@
         </is>
       </c>
       <c r="D666" t="n">
-        <v>18978</v>
+        <v>23230</v>
       </c>
       <c r="E666" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>01/07/1997</t>
+          <t>01/02/1997</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
@@ -17102,7 +17102,7 @@
         </is>
       </c>
       <c r="D667" t="n">
-        <v>23232</v>
+        <v>19007</v>
       </c>
       <c r="E667" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>01/06/1997</t>
+          <t>01/01/1997</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D668" t="n">
-        <v>22449</v>
+        <v>18978</v>
       </c>
       <c r="E668" t="inlineStr">
         <is>
@@ -17138,7 +17138,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>01/05/1997</t>
+          <t>01/07/1997</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
@@ -17152,7 +17152,7 @@
         </is>
       </c>
       <c r="D669" t="n">
-        <v>24757</v>
+        <v>23232</v>
       </c>
       <c r="E669" t="inlineStr">
         <is>
@@ -17163,7 +17163,7 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>01/03/1997</t>
+          <t>01/06/1997</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
@@ -17177,7 +17177,7 @@
         </is>
       </c>
       <c r="D670" t="n">
-        <v>19807</v>
+        <v>22449</v>
       </c>
       <c r="E670" t="inlineStr">
         <is>
@@ -17188,7 +17188,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>01/11/1997</t>
+          <t>01/05/1997</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
@@ -17202,7 +17202,7 @@
         </is>
       </c>
       <c r="D671" t="n">
-        <v>22027</v>
+        <v>24757</v>
       </c>
       <c r="E671" t="inlineStr">
         <is>
@@ -17213,7 +17213,7 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>01/10/1997</t>
+          <t>01/03/1997</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="D672" t="n">
-        <v>21890</v>
+        <v>19807</v>
       </c>
       <c r="E672" t="inlineStr">
         <is>
@@ -17238,7 +17238,7 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>01/09/1997</t>
+          <t>01/11/1997</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
@@ -17252,7 +17252,7 @@
         </is>
       </c>
       <c r="D673" t="n">
-        <v>22749</v>
+        <v>22027</v>
       </c>
       <c r="E673" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>01/04/1998</t>
+          <t>01/10/1997</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
@@ -17277,7 +17277,7 @@
         </is>
       </c>
       <c r="D674" t="n">
-        <v>131778.0699</v>
+        <v>21890</v>
       </c>
       <c r="E674" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>01/08/1998</t>
+          <t>01/09/1997</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
@@ -17302,7 +17302,7 @@
         </is>
       </c>
       <c r="D675" t="n">
-        <v>155346.0346</v>
+        <v>22749</v>
       </c>
       <c r="E675" t="inlineStr">
         <is>
@@ -17313,7 +17313,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>01/12/1998</t>
+          <t>01/04/1998</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
@@ -17327,7 +17327,7 @@
         </is>
       </c>
       <c r="D676" t="n">
-        <v>146112.5752</v>
+        <v>131778.0699</v>
       </c>
       <c r="E676" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>01/02/1998</t>
+          <t>01/08/1998</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
@@ -17352,7 +17352,7 @@
         </is>
       </c>
       <c r="D677" t="n">
-        <v>119550.6551</v>
+        <v>155346.0346</v>
       </c>
       <c r="E677" t="inlineStr">
         <is>
@@ -17363,7 +17363,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>01/01/1998</t>
+          <t>01/12/1998</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
@@ -17377,7 +17377,7 @@
         </is>
       </c>
       <c r="D678" t="n">
-        <v>119368.2502</v>
+        <v>146112.5752</v>
       </c>
       <c r="E678" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>01/07/1998</t>
+          <t>01/02/1998</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
@@ -17402,7 +17402,7 @@
         </is>
       </c>
       <c r="D679" t="n">
-        <v>146125.1549</v>
+        <v>119550.6551</v>
       </c>
       <c r="E679" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>01/06/1998</t>
+          <t>01/01/1998</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
@@ -17427,7 +17427,7 @@
         </is>
       </c>
       <c r="D680" t="n">
-        <v>141200.2239</v>
+        <v>119368.2502</v>
       </c>
       <c r="E680" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>01/05/1998</t>
+          <t>01/07/1998</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
@@ -17452,7 +17452,7 @@
         </is>
       </c>
       <c r="D681" t="n">
-        <v>155717.1341</v>
+        <v>146125.1549</v>
       </c>
       <c r="E681" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>01/03/1998</t>
+          <t>01/06/1998</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
@@ -17477,7 +17477,7 @@
         </is>
       </c>
       <c r="D682" t="n">
-        <v>124582.513</v>
+        <v>141200.2239</v>
       </c>
       <c r="E682" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>01/11/1998</t>
+          <t>01/05/1998</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
@@ -17502,7 +17502,7 @@
         </is>
       </c>
       <c r="D683" t="n">
-        <v>138545.9188</v>
+        <v>155717.1341</v>
       </c>
       <c r="E683" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>01/10/1998</t>
+          <t>01/03/1998</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D684" t="n">
-        <v>137684.2132</v>
+        <v>124582.513</v>
       </c>
       <c r="E684" t="inlineStr">
         <is>
@@ -17538,7 +17538,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>01/09/1998</t>
+          <t>01/11/1998</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
@@ -17552,7 +17552,7 @@
         </is>
       </c>
       <c r="D685" t="n">
-        <v>143087.1706</v>
+        <v>138545.9188</v>
       </c>
       <c r="E685" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>01/04/1999</t>
+          <t>01/10/1998</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
@@ -17577,7 +17577,7 @@
         </is>
       </c>
       <c r="D686" t="n">
-        <v>24546</v>
+        <v>137684.2132</v>
       </c>
       <c r="E686" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>01/08/1999</t>
+          <t>01/09/1998</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
@@ -17602,7 +17602,7 @@
         </is>
       </c>
       <c r="D687" t="n">
-        <v>23247</v>
+        <v>143087.1706</v>
       </c>
       <c r="E687" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>01/12/1999</t>
+          <t>01/04/1999</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
@@ -17627,7 +17627,7 @@
         </is>
       </c>
       <c r="D688" t="n">
-        <v>24640</v>
+        <v>24546</v>
       </c>
       <c r="E688" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>01/02/1999</t>
+          <t>01/08/1999</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
@@ -17652,7 +17652,7 @@
         </is>
       </c>
       <c r="D689" t="n">
-        <v>22448</v>
+        <v>23247</v>
       </c>
       <c r="E689" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>01/01/1999</t>
+          <t>01/12/1999</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
@@ -17677,7 +17677,7 @@
         </is>
       </c>
       <c r="D690" t="n">
-        <v>24629</v>
+        <v>24640</v>
       </c>
       <c r="E690" t="inlineStr">
         <is>
@@ -17688,7 +17688,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>01/07/1999</t>
+          <t>01/02/1999</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
@@ -17702,7 +17702,7 @@
         </is>
       </c>
       <c r="D691" t="n">
-        <v>22323</v>
+        <v>22448</v>
       </c>
       <c r="E691" t="inlineStr">
         <is>
@@ -17713,7 +17713,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>01/06/1999</t>
+          <t>01/01/1999</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
@@ -17727,7 +17727,7 @@
         </is>
       </c>
       <c r="D692" t="n">
-        <v>24653</v>
+        <v>24629</v>
       </c>
       <c r="E692" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>01/05/1999</t>
+          <t>01/07/1999</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
@@ -17752,7 +17752,7 @@
         </is>
       </c>
       <c r="D693" t="n">
-        <v>25678</v>
+        <v>22323</v>
       </c>
       <c r="E693" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>01/03/1999</t>
+          <t>01/06/1999</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
@@ -17777,7 +17777,7 @@
         </is>
       </c>
       <c r="D694" t="n">
-        <v>25737</v>
+        <v>24653</v>
       </c>
       <c r="E694" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>01/11/1999</t>
+          <t>01/05/1999</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
@@ -17802,7 +17802,7 @@
         </is>
       </c>
       <c r="D695" t="n">
-        <v>25481</v>
+        <v>25678</v>
       </c>
       <c r="E695" t="inlineStr">
         <is>
@@ -17813,7 +17813,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>01/10/1999</t>
+          <t>01/03/1999</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
@@ -17827,7 +17827,7 @@
         </is>
       </c>
       <c r="D696" t="n">
-        <v>25601</v>
+        <v>25737</v>
       </c>
       <c r="E696" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>01/09/1999</t>
+          <t>01/11/1999</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
@@ -17852,7 +17852,7 @@
         </is>
       </c>
       <c r="D697" t="n">
-        <v>24686</v>
+        <v>25481</v>
       </c>
       <c r="E697" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>01/04/2000</t>
+          <t>01/10/1999</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
@@ -17877,7 +17877,7 @@
         </is>
       </c>
       <c r="D698" t="n">
-        <v>25440</v>
+        <v>25601</v>
       </c>
       <c r="E698" t="inlineStr">
         <is>
@@ -17888,7 +17888,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>01/08/2000</t>
+          <t>01/09/1999</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
@@ -17902,7 +17902,7 @@
         </is>
       </c>
       <c r="D699" t="n">
-        <v>27353</v>
+        <v>24686</v>
       </c>
       <c r="E699" t="inlineStr">
         <is>
@@ -17913,7 +17913,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>01/12/2000</t>
+          <t>01/04/2000</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D700" t="n">
-        <v>26071</v>
+        <v>25440</v>
       </c>
       <c r="E700" t="inlineStr">
         <is>
@@ -17938,7 +17938,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>01/02/2000</t>
+          <t>01/08/2000</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
@@ -17952,7 +17952,7 @@
         </is>
       </c>
       <c r="D701" t="n">
-        <v>25123</v>
+        <v>27353</v>
       </c>
       <c r="E701" t="inlineStr">
         <is>
@@ -17963,7 +17963,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>01/01/2000</t>
+          <t>01/12/2000</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
@@ -17977,7 +17977,7 @@
         </is>
       </c>
       <c r="D702" t="n">
-        <v>26480</v>
+        <v>26071</v>
       </c>
       <c r="E702" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>01/07/2000</t>
+          <t>01/02/2000</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
@@ -18002,7 +18002,7 @@
         </is>
       </c>
       <c r="D703" t="n">
-        <v>26914</v>
+        <v>25123</v>
       </c>
       <c r="E703" t="inlineStr">
         <is>
@@ -18013,7 +18013,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>01/06/2000</t>
+          <t>01/01/2000</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
@@ -18027,7 +18027,7 @@
         </is>
       </c>
       <c r="D704" t="n">
-        <v>26044</v>
+        <v>26480</v>
       </c>
       <c r="E704" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>01/05/2000</t>
+          <t>01/07/2000</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
@@ -18052,7 +18052,7 @@
         </is>
       </c>
       <c r="D705" t="n">
-        <v>26406</v>
+        <v>26914</v>
       </c>
       <c r="E705" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>01/03/2000</t>
+          <t>01/06/2000</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
@@ -18077,7 +18077,7 @@
         </is>
       </c>
       <c r="D706" t="n">
-        <v>26572</v>
+        <v>26044</v>
       </c>
       <c r="E706" t="inlineStr">
         <is>
@@ -18088,7 +18088,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>01/11/2000</t>
+          <t>01/05/2000</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
@@ -18102,7 +18102,7 @@
         </is>
       </c>
       <c r="D707" t="n">
-        <v>13928</v>
+        <v>26406</v>
       </c>
       <c r="E707" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>01/10/2000</t>
+          <t>01/03/2000</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
@@ -18127,7 +18127,7 @@
         </is>
       </c>
       <c r="D708" t="n">
-        <v>26965</v>
+        <v>26572</v>
       </c>
       <c r="E708" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>01/09/2000</t>
+          <t>01/11/2000</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
@@ -18152,7 +18152,7 @@
         </is>
       </c>
       <c r="D709" t="n">
-        <v>26129</v>
+        <v>13928</v>
       </c>
       <c r="E709" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>01/04/2001</t>
+          <t>01/10/2000</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
@@ -18177,7 +18177,7 @@
         </is>
       </c>
       <c r="D710" t="n">
-        <v>18378</v>
+        <v>26965</v>
       </c>
       <c r="E710" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>01/08/2001</t>
+          <t>01/09/2000</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
@@ -18202,7 +18202,7 @@
         </is>
       </c>
       <c r="D711" t="n">
-        <v>26465</v>
+        <v>26129</v>
       </c>
       <c r="E711" t="inlineStr">
         <is>
@@ -18213,7 +18213,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>01/12/2001</t>
+          <t>01/04/2001</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
@@ -18227,7 +18227,7 @@
         </is>
       </c>
       <c r="D712" t="n">
-        <v>26876</v>
+        <v>18378</v>
       </c>
       <c r="E712" t="inlineStr">
         <is>
@@ -18238,7 +18238,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>01/02/2001</t>
+          <t>01/08/2001</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
@@ -18252,7 +18252,7 @@
         </is>
       </c>
       <c r="D713" t="n">
-        <v>23797</v>
+        <v>26465</v>
       </c>
       <c r="E713" t="inlineStr">
         <is>
@@ -18263,7 +18263,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>01/01/2001</t>
+          <t>01/12/2001</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
@@ -18277,7 +18277,7 @@
         </is>
       </c>
       <c r="D714" t="n">
-        <v>26536</v>
+        <v>26876</v>
       </c>
       <c r="E714" t="inlineStr">
         <is>
@@ -18288,7 +18288,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>01/07/2001</t>
+          <t>01/02/2001</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
@@ -18302,7 +18302,7 @@
         </is>
       </c>
       <c r="D715" t="n">
-        <v>27236</v>
+        <v>23797</v>
       </c>
       <c r="E715" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>01/06/2001</t>
+          <t>01/01/2001</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D716" t="n">
-        <v>25806</v>
+        <v>26536</v>
       </c>
       <c r="E716" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>01/05/2001</t>
+          <t>01/07/2001</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
@@ -18352,7 +18352,7 @@
         </is>
       </c>
       <c r="D717" t="n">
-        <v>22691</v>
+        <v>27236</v>
       </c>
       <c r="E717" t="inlineStr">
         <is>
@@ -18363,7 +18363,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>01/03/2001</t>
+          <t>01/06/2001</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
@@ -18377,7 +18377,7 @@
         </is>
       </c>
       <c r="D718" t="n">
-        <v>25605</v>
+        <v>25806</v>
       </c>
       <c r="E718" t="inlineStr">
         <is>
@@ -18388,7 +18388,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>01/11/2001</t>
+          <t>01/05/2001</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
@@ -18402,7 +18402,7 @@
         </is>
       </c>
       <c r="D719" t="n">
-        <v>25852</v>
+        <v>22691</v>
       </c>
       <c r="E719" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>01/10/2001</t>
+          <t>01/03/2001</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
@@ -18427,7 +18427,7 @@
         </is>
       </c>
       <c r="D720" t="n">
-        <v>26322</v>
+        <v>25605</v>
       </c>
       <c r="E720" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>01/09/2001</t>
+          <t>01/11/2001</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
@@ -18452,7 +18452,7 @@
         </is>
       </c>
       <c r="D721" t="n">
-        <v>23625</v>
+        <v>25852</v>
       </c>
       <c r="E721" t="inlineStr">
         <is>
@@ -18463,7 +18463,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>01/04/2002</t>
+          <t>01/10/2001</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D722" t="n">
-        <v>23065</v>
+        <v>26322</v>
       </c>
       <c r="E722" t="inlineStr">
         <is>
@@ -18488,7 +18488,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>01/08/2002</t>
+          <t>01/09/2001</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
@@ -18502,7 +18502,7 @@
         </is>
       </c>
       <c r="D723" t="n">
-        <v>25580</v>
+        <v>23625</v>
       </c>
       <c r="E723" t="inlineStr">
         <is>
@@ -18513,7 +18513,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>01/12/2002</t>
+          <t>01/04/2002</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
@@ -18527,7 +18527,7 @@
         </is>
       </c>
       <c r="D724" t="n">
-        <v>24957</v>
+        <v>23065</v>
       </c>
       <c r="E724" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>01/02/2002</t>
+          <t>01/08/2002</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
@@ -18552,7 +18552,7 @@
         </is>
       </c>
       <c r="D725" t="n">
-        <v>24096</v>
+        <v>25580</v>
       </c>
       <c r="E725" t="inlineStr">
         <is>
@@ -18563,7 +18563,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>01/01/2002</t>
+          <t>01/12/2002</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
@@ -18577,7 +18577,7 @@
         </is>
       </c>
       <c r="D726" t="n">
-        <v>27239</v>
+        <v>24957</v>
       </c>
       <c r="E726" t="inlineStr">
         <is>
@@ -18588,7 +18588,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>01/07/2002</t>
+          <t>01/02/2002</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
@@ -18602,7 +18602,7 @@
         </is>
       </c>
       <c r="D727" t="n">
-        <v>25911</v>
+        <v>24096</v>
       </c>
       <c r="E727" t="inlineStr">
         <is>
@@ -18613,7 +18613,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>01/06/2002</t>
+          <t>01/01/2002</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
@@ -18627,7 +18627,7 @@
         </is>
       </c>
       <c r="D728" t="n">
-        <v>24854</v>
+        <v>27239</v>
       </c>
       <c r="E728" t="inlineStr">
         <is>
@@ -18638,7 +18638,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>01/05/2002</t>
+          <t>01/07/2002</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
@@ -18652,7 +18652,7 @@
         </is>
       </c>
       <c r="D729" t="n">
-        <v>24983</v>
+        <v>25911</v>
       </c>
       <c r="E729" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>01/03/2002</t>
+          <t>01/06/2002</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
@@ -18677,7 +18677,7 @@
         </is>
       </c>
       <c r="D730" t="n">
-        <v>25381</v>
+        <v>24854</v>
       </c>
       <c r="E730" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>01/11/2002</t>
+          <t>01/05/2002</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
@@ -18702,7 +18702,7 @@
         </is>
       </c>
       <c r="D731" t="n">
-        <v>24648</v>
+        <v>24983</v>
       </c>
       <c r="E731" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>01/10/2002</t>
+          <t>01/03/2002</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D732" t="n">
-        <v>24992</v>
+        <v>25381</v>
       </c>
       <c r="E732" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>01/09/2002</t>
+          <t>01/11/2002</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
@@ -18752,7 +18752,7 @@
         </is>
       </c>
       <c r="D733" t="n">
-        <v>24400</v>
+        <v>24648</v>
       </c>
       <c r="E733" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>01/04/2003</t>
+          <t>01/10/2002</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
@@ -18777,7 +18777,7 @@
         </is>
       </c>
       <c r="D734" t="n">
-        <v>20841</v>
+        <v>24992</v>
       </c>
       <c r="E734" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>01/08/2003</t>
+          <t>01/09/2002</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
@@ -18802,7 +18802,7 @@
         </is>
       </c>
       <c r="D735" t="n">
-        <v>25463</v>
+        <v>24400</v>
       </c>
       <c r="E735" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>01/12/2003</t>
+          <t>01/04/2003</t>
         </is>
       </c>
       <c r="B736" t="inlineStr">
@@ -18827,7 +18827,7 @@
         </is>
       </c>
       <c r="D736" t="n">
-        <v>24965</v>
+        <v>20841</v>
       </c>
       <c r="E736" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>01/02/2003</t>
+          <t>01/08/2003</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
@@ -18852,7 +18852,7 @@
         </is>
       </c>
       <c r="D737" t="n">
-        <v>20388</v>
+        <v>25463</v>
       </c>
       <c r="E737" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>01/01/2003</t>
+          <t>01/12/2003</t>
         </is>
       </c>
       <c r="B738" t="inlineStr">
@@ -18877,7 +18877,7 @@
         </is>
       </c>
       <c r="D738" t="n">
-        <v>24971</v>
+        <v>24965</v>
       </c>
       <c r="E738" t="inlineStr">
         <is>
@@ -18888,7 +18888,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>01/07/2003</t>
+          <t>01/02/2003</t>
         </is>
       </c>
       <c r="B739" t="inlineStr">
@@ -18902,7 +18902,7 @@
         </is>
       </c>
       <c r="D739" t="n">
-        <v>23560</v>
+        <v>20388</v>
       </c>
       <c r="E739" t="inlineStr">
         <is>
@@ -18913,7 +18913,7 @@
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>01/06/2003</t>
+          <t>01/01/2003</t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
@@ -18927,7 +18927,7 @@
         </is>
       </c>
       <c r="D740" t="n">
-        <v>22761</v>
+        <v>24971</v>
       </c>
       <c r="E740" t="inlineStr">
         <is>
@@ -18938,7 +18938,7 @@
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>01/05/2003</t>
+          <t>01/07/2003</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
@@ -18952,7 +18952,7 @@
         </is>
       </c>
       <c r="D741" t="n">
-        <v>23510</v>
+        <v>23560</v>
       </c>
       <c r="E741" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>01/03/2003</t>
+          <t>01/06/2003</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
@@ -18977,7 +18977,7 @@
         </is>
       </c>
       <c r="D742" t="n">
-        <v>25907</v>
+        <v>22761</v>
       </c>
       <c r="E742" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>01/11/2003</t>
+          <t>01/05/2003</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
@@ -19002,7 +19002,7 @@
         </is>
       </c>
       <c r="D743" t="n">
-        <v>24041</v>
+        <v>23510</v>
       </c>
       <c r="E743" t="inlineStr">
         <is>
@@ -19013,7 +19013,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>01/10/2003</t>
+          <t>01/03/2003</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="D744" t="n">
-        <v>24023</v>
+        <v>25907</v>
       </c>
       <c r="E744" t="inlineStr">
         <is>
@@ -19038,7 +19038,7 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>01/09/2003</t>
+          <t>01/11/2003</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
@@ -19052,7 +19052,7 @@
         </is>
       </c>
       <c r="D745" t="n">
-        <v>24294</v>
+        <v>24041</v>
       </c>
       <c r="E745" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>01/04/2004</t>
+          <t>01/10/2003</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
@@ -19077,7 +19077,7 @@
         </is>
       </c>
       <c r="D746" t="n">
-        <v>24411</v>
+        <v>24023</v>
       </c>
       <c r="E746" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>01/08/2004</t>
+          <t>01/09/2003</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
@@ -19102,7 +19102,7 @@
         </is>
       </c>
       <c r="D747" t="n">
-        <v>25873</v>
+        <v>24294</v>
       </c>
       <c r="E747" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>01/12/2004</t>
+          <t>01/04/2004</t>
         </is>
       </c>
       <c r="B748" t="inlineStr">
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D748" t="n">
-        <v>25343</v>
+        <v>24411</v>
       </c>
       <c r="E748" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>01/02/2004</t>
+          <t>01/08/2004</t>
         </is>
       </c>
       <c r="B749" t="inlineStr">
@@ -19152,7 +19152,7 @@
         </is>
       </c>
       <c r="D749" t="n">
-        <v>23497</v>
+        <v>25873</v>
       </c>
       <c r="E749" t="inlineStr">
         <is>
@@ -19163,7 +19163,7 @@
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>01/01/2004</t>
+          <t>01/12/2004</t>
         </is>
       </c>
       <c r="B750" t="inlineStr">
@@ -19177,7 +19177,7 @@
         </is>
       </c>
       <c r="D750" t="n">
-        <v>23975</v>
+        <v>25343</v>
       </c>
       <c r="E750" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>01/02/2004</t>
         </is>
       </c>
       <c r="B751" t="inlineStr">
@@ -19202,7 +19202,7 @@
         </is>
       </c>
       <c r="D751" t="n">
-        <v>24979</v>
+        <v>23497</v>
       </c>
       <c r="E751" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>01/06/2004</t>
+          <t>01/01/2004</t>
         </is>
       </c>
       <c r="B752" t="inlineStr">
@@ -19227,7 +19227,7 @@
         </is>
       </c>
       <c r="D752" t="n">
-        <v>23413</v>
+        <v>23975</v>
       </c>
       <c r="E752" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>01/05/2004</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="B753" t="inlineStr">
@@ -19252,7 +19252,7 @@
         </is>
       </c>
       <c r="D753" t="n">
-        <v>21313</v>
+        <v>24979</v>
       </c>
       <c r="E753" t="inlineStr">
         <is>
@@ -19263,7 +19263,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>01/03/2004</t>
+          <t>01/06/2004</t>
         </is>
       </c>
       <c r="B754" t="inlineStr">
@@ -19277,7 +19277,7 @@
         </is>
       </c>
       <c r="D754" t="n">
-        <v>25118</v>
+        <v>23413</v>
       </c>
       <c r="E754" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>01/11/2004</t>
+          <t>01/05/2004</t>
         </is>
       </c>
       <c r="B755" t="inlineStr">
@@ -19302,7 +19302,7 @@
         </is>
       </c>
       <c r="D755" t="n">
-        <v>24463</v>
+        <v>21313</v>
       </c>
       <c r="E755" t="inlineStr">
         <is>
@@ -19313,7 +19313,7 @@
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>01/10/2004</t>
+          <t>01/03/2004</t>
         </is>
       </c>
       <c r="B756" t="inlineStr">
@@ -19327,7 +19327,7 @@
         </is>
       </c>
       <c r="D756" t="n">
-        <v>25566</v>
+        <v>25118</v>
       </c>
       <c r="E756" t="inlineStr">
         <is>
@@ -19338,7 +19338,7 @@
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>01/09/2004</t>
+          <t>01/11/2004</t>
         </is>
       </c>
       <c r="B757" t="inlineStr">
@@ -19352,7 +19352,7 @@
         </is>
       </c>
       <c r="D757" t="n">
-        <v>24720</v>
+        <v>24463</v>
       </c>
       <c r="E757" t="inlineStr">
         <is>
@@ -19363,7 +19363,7 @@
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>01/04/2005</t>
+          <t>01/10/2004</t>
         </is>
       </c>
       <c r="B758" t="inlineStr">
@@ -19377,7 +19377,7 @@
         </is>
       </c>
       <c r="D758" t="n">
-        <v>23924</v>
+        <v>25566</v>
       </c>
       <c r="E758" t="inlineStr">
         <is>
@@ -19388,7 +19388,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>01/08/2005</t>
+          <t>01/09/2004</t>
         </is>
       </c>
       <c r="B759" t="inlineStr">
@@ -19402,7 +19402,7 @@
         </is>
       </c>
       <c r="D759" t="n">
-        <v>25213</v>
+        <v>24720</v>
       </c>
       <c r="E759" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>01/12/2005</t>
+          <t>01/04/2005</t>
         </is>
       </c>
       <c r="B760" t="inlineStr">
@@ -19427,7 +19427,7 @@
         </is>
       </c>
       <c r="D760" t="n">
-        <v>24602</v>
+        <v>23924</v>
       </c>
       <c r="E760" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>01/02/2005</t>
+          <t>01/08/2005</t>
         </is>
       </c>
       <c r="B761" t="inlineStr">
@@ -19452,7 +19452,7 @@
         </is>
       </c>
       <c r="D761" t="n">
-        <v>22710</v>
+        <v>25213</v>
       </c>
       <c r="E761" t="inlineStr">
         <is>
@@ -19463,7 +19463,7 @@
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>01/01/2005</t>
+          <t>01/12/2005</t>
         </is>
       </c>
       <c r="B762" t="inlineStr">
@@ -19477,7 +19477,7 @@
         </is>
       </c>
       <c r="D762" t="n">
-        <v>24972</v>
+        <v>24602</v>
       </c>
       <c r="E762" t="inlineStr">
         <is>
@@ -19488,7 +19488,7 @@
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>01/07/2005</t>
+          <t>01/02/2005</t>
         </is>
       </c>
       <c r="B763" t="inlineStr">
@@ -19502,7 +19502,7 @@
         </is>
       </c>
       <c r="D763" t="n">
-        <v>25582</v>
+        <v>22710</v>
       </c>
       <c r="E763" t="inlineStr">
         <is>
@@ -19513,7 +19513,7 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>01/06/2005</t>
+          <t>01/01/2005</t>
         </is>
       </c>
       <c r="B764" t="inlineStr">
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D764" t="n">
-        <v>24359</v>
+        <v>24972</v>
       </c>
       <c r="E764" t="inlineStr">
         <is>
@@ -19538,7 +19538,7 @@
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>01/05/2005</t>
+          <t>01/07/2005</t>
         </is>
       </c>
       <c r="B765" t="inlineStr">
@@ -19552,7 +19552,7 @@
         </is>
       </c>
       <c r="D765" t="n">
-        <v>24053</v>
+        <v>25582</v>
       </c>
       <c r="E765" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>01/03/2005</t>
+          <t>01/06/2005</t>
         </is>
       </c>
       <c r="B766" t="inlineStr">
@@ -19577,7 +19577,7 @@
         </is>
       </c>
       <c r="D766" t="n">
-        <v>24836</v>
+        <v>24359</v>
       </c>
       <c r="E766" t="inlineStr">
         <is>
@@ -19588,7 +19588,7 @@
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>01/11/2005</t>
+          <t>01/05/2005</t>
         </is>
       </c>
       <c r="B767" t="inlineStr">
@@ -19602,7 +19602,7 @@
         </is>
       </c>
       <c r="D767" t="n">
-        <v>24169</v>
+        <v>24053</v>
       </c>
       <c r="E767" t="inlineStr">
         <is>
@@ -19613,7 +19613,7 @@
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>01/10/2005</t>
+          <t>01/03/2005</t>
         </is>
       </c>
       <c r="B768" t="inlineStr">
@@ -19627,7 +19627,7 @@
         </is>
       </c>
       <c r="D768" t="n">
-        <v>26281</v>
+        <v>24836</v>
       </c>
       <c r="E768" t="inlineStr">
         <is>
@@ -19638,7 +19638,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>01/09/2005</t>
+          <t>01/11/2005</t>
         </is>
       </c>
       <c r="B769" t="inlineStr">
@@ -19652,7 +19652,7 @@
         </is>
       </c>
       <c r="D769" t="n">
-        <v>24180</v>
+        <v>24169</v>
       </c>
       <c r="E769" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>01/04/2006</t>
+          <t>01/10/2005</t>
         </is>
       </c>
       <c r="B770" t="inlineStr">
@@ -19677,7 +19677,7 @@
         </is>
       </c>
       <c r="D770" t="n">
-        <v>24527</v>
+        <v>26281</v>
       </c>
       <c r="E770" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>01/08/2006</t>
+          <t>01/09/2005</t>
         </is>
       </c>
       <c r="B771" t="inlineStr">
@@ -19702,7 +19702,7 @@
         </is>
       </c>
       <c r="D771" t="n">
-        <v>25491</v>
+        <v>24180</v>
       </c>
       <c r="E771" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>01/12/2006</t>
+          <t>01/04/2006</t>
         </is>
       </c>
       <c r="B772" t="inlineStr">
@@ -19727,7 +19727,7 @@
         </is>
       </c>
       <c r="D772" t="n">
-        <v>25271</v>
+        <v>24527</v>
       </c>
       <c r="E772" t="inlineStr">
         <is>
@@ -19738,7 +19738,7 @@
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>01/02/2006</t>
+          <t>01/08/2006</t>
         </is>
       </c>
       <c r="B773" t="inlineStr">
@@ -19752,7 +19752,7 @@
         </is>
       </c>
       <c r="D773" t="n">
-        <v>23056</v>
+        <v>25491</v>
       </c>
       <c r="E773" t="inlineStr">
         <is>
@@ -19763,7 +19763,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>01/01/2006</t>
+          <t>01/12/2006</t>
         </is>
       </c>
       <c r="B774" t="inlineStr">
@@ -19777,7 +19777,7 @@
         </is>
       </c>
       <c r="D774" t="n">
-        <v>24843</v>
+        <v>25271</v>
       </c>
       <c r="E774" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>01/07/2006</t>
+          <t>01/02/2006</t>
         </is>
       </c>
       <c r="B775" t="inlineStr">
@@ -19802,7 +19802,7 @@
         </is>
       </c>
       <c r="D775" t="n">
-        <v>25344</v>
+        <v>23056</v>
       </c>
       <c r="E775" t="inlineStr">
         <is>
@@ -19813,7 +19813,7 @@
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>01/06/2006</t>
+          <t>01/01/2006</t>
         </is>
       </c>
       <c r="B776" t="inlineStr">
@@ -19827,7 +19827,7 @@
         </is>
       </c>
       <c r="D776" t="n">
-        <v>25090</v>
+        <v>24843</v>
       </c>
       <c r="E776" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>01/05/2006</t>
+          <t>01/07/2006</t>
         </is>
       </c>
       <c r="B777" t="inlineStr">
@@ -19852,7 +19852,7 @@
         </is>
       </c>
       <c r="D777" t="n">
-        <v>25719</v>
+        <v>25344</v>
       </c>
       <c r="E777" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>01/03/2006</t>
+          <t>01/06/2006</t>
         </is>
       </c>
       <c r="B778" t="inlineStr">
@@ -19877,7 +19877,7 @@
         </is>
       </c>
       <c r="D778" t="n">
-        <v>11740</v>
+        <v>25090</v>
       </c>
       <c r="E778" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>01/11/2006</t>
+          <t>01/05/2006</t>
         </is>
       </c>
       <c r="B779" t="inlineStr">
@@ -19902,7 +19902,7 @@
         </is>
       </c>
       <c r="D779" t="n">
-        <v>23278</v>
+        <v>25719</v>
       </c>
       <c r="E779" t="inlineStr">
         <is>
@@ -19913,7 +19913,7 @@
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>01/10/2006</t>
+          <t>01/03/2006</t>
         </is>
       </c>
       <c r="B780" t="inlineStr">
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D780" t="n">
-        <v>23622</v>
+        <v>11740</v>
       </c>
       <c r="E780" t="inlineStr">
         <is>
@@ -19938,7 +19938,7 @@
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>01/09/2006</t>
+          <t>01/11/2006</t>
         </is>
       </c>
       <c r="B781" t="inlineStr">
@@ -19952,7 +19952,7 @@
         </is>
       </c>
       <c r="D781" t="n">
-        <v>24562</v>
+        <v>23278</v>
       </c>
       <c r="E781" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>01/04/2007</t>
+          <t>01/10/2006</t>
         </is>
       </c>
       <c r="B782" t="inlineStr">
@@ -19977,7 +19977,7 @@
         </is>
       </c>
       <c r="D782" t="n">
-        <v>21384</v>
+        <v>23622</v>
       </c>
       <c r="E782" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>01/08/2007</t>
+          <t>01/09/2006</t>
         </is>
       </c>
       <c r="B783" t="inlineStr">
@@ -20002,7 +20002,7 @@
         </is>
       </c>
       <c r="D783" t="n">
-        <v>23805</v>
+        <v>24562</v>
       </c>
       <c r="E783" t="inlineStr">
         <is>
@@ -20013,7 +20013,7 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>01/12/2007</t>
+          <t>01/04/2007</t>
         </is>
       </c>
       <c r="B784" t="inlineStr">
@@ -20027,7 +20027,7 @@
         </is>
       </c>
       <c r="D784" t="n">
-        <v>22898</v>
+        <v>21384</v>
       </c>
       <c r="E784" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>01/02/2007</t>
+          <t>01/08/2007</t>
         </is>
       </c>
       <c r="B785" t="inlineStr">
@@ -20052,7 +20052,7 @@
         </is>
       </c>
       <c r="D785" t="n">
-        <v>21968</v>
+        <v>23805</v>
       </c>
       <c r="E785" t="inlineStr">
         <is>
@@ -20063,7 +20063,7 @@
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>01/01/2007</t>
+          <t>01/12/2007</t>
         </is>
       </c>
       <c r="B786" t="inlineStr">
@@ -20077,7 +20077,7 @@
         </is>
       </c>
       <c r="D786" t="n">
-        <v>25496</v>
+        <v>22898</v>
       </c>
       <c r="E786" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>01/07/2007</t>
+          <t>01/02/2007</t>
         </is>
       </c>
       <c r="B787" t="inlineStr">
@@ -20102,7 +20102,7 @@
         </is>
       </c>
       <c r="D787" t="n">
-        <v>23875</v>
+        <v>21968</v>
       </c>
       <c r="E787" t="inlineStr">
         <is>
@@ -20113,7 +20113,7 @@
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>01/06/2007</t>
+          <t>01/01/2007</t>
         </is>
       </c>
       <c r="B788" t="inlineStr">
@@ -20127,7 +20127,7 @@
         </is>
       </c>
       <c r="D788" t="n">
-        <v>22080</v>
+        <v>25496</v>
       </c>
       <c r="E788" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>01/05/2007</t>
+          <t>01/07/2007</t>
         </is>
       </c>
       <c r="B789" t="inlineStr">
@@ -20152,7 +20152,7 @@
         </is>
       </c>
       <c r="D789" t="n">
-        <v>18737</v>
+        <v>23875</v>
       </c>
       <c r="E789" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>01/03/2007</t>
+          <t>01/06/2007</t>
         </is>
       </c>
       <c r="B790" t="inlineStr">
@@ -20177,7 +20177,7 @@
         </is>
       </c>
       <c r="D790" t="n">
-        <v>24212</v>
+        <v>22080</v>
       </c>
       <c r="E790" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>01/11/2007</t>
+          <t>01/05/2007</t>
         </is>
       </c>
       <c r="B791" t="inlineStr">
@@ -20202,7 +20202,7 @@
         </is>
       </c>
       <c r="D791" t="n">
-        <v>22033</v>
+        <v>18737</v>
       </c>
       <c r="E791" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>01/10/2007</t>
+          <t>01/03/2007</t>
         </is>
       </c>
       <c r="B792" t="inlineStr">
@@ -20227,7 +20227,7 @@
         </is>
       </c>
       <c r="D792" t="n">
-        <v>23866</v>
+        <v>24212</v>
       </c>
       <c r="E792" t="inlineStr">
         <is>
@@ -20238,7 +20238,7 @@
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>01/09/2007</t>
+          <t>01/11/2007</t>
         </is>
       </c>
       <c r="B793" t="inlineStr">
@@ -20252,7 +20252,7 @@
         </is>
       </c>
       <c r="D793" t="n">
-        <v>24017</v>
+        <v>22033</v>
       </c>
       <c r="E793" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>01/04/2008</t>
+          <t>01/10/2007</t>
         </is>
       </c>
       <c r="B794" t="inlineStr">
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D794" t="n">
-        <v>22341</v>
+        <v>23866</v>
       </c>
       <c r="E794" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>01/08/2008</t>
+          <t>01/09/2007</t>
         </is>
       </c>
       <c r="B795" t="inlineStr">
@@ -20302,7 +20302,7 @@
         </is>
       </c>
       <c r="D795" t="n">
-        <v>23413.9993</v>
+        <v>24017</v>
       </c>
       <c r="E795" t="inlineStr">
         <is>
@@ -20313,7 +20313,7 @@
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>01/12/2008</t>
+          <t>01/04/2008</t>
         </is>
       </c>
       <c r="B796" t="inlineStr">
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D796" t="n">
-        <v>21243.0011</v>
+        <v>22341</v>
       </c>
       <c r="E796" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>01/02/2008</t>
+          <t>01/08/2008</t>
         </is>
       </c>
       <c r="B797" t="inlineStr">
@@ -20352,7 +20352,7 @@
         </is>
       </c>
       <c r="D797" t="n">
-        <v>20461</v>
+        <v>23413.9993</v>
       </c>
       <c r="E797" t="inlineStr">
         <is>
@@ -20363,7 +20363,7 @@
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>01/01/2008</t>
+          <t>01/12/2008</t>
         </is>
       </c>
       <c r="B798" t="inlineStr">
@@ -20377,7 +20377,7 @@
         </is>
       </c>
       <c r="D798" t="n">
-        <v>22454</v>
+        <v>21243.0011</v>
       </c>
       <c r="E798" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>01/07/2008</t>
+          <t>01/02/2008</t>
         </is>
       </c>
       <c r="B799" t="inlineStr">
@@ -20402,7 +20402,7 @@
         </is>
       </c>
       <c r="D799" t="n">
-        <v>22084.0001</v>
+        <v>20461</v>
       </c>
       <c r="E799" t="inlineStr">
         <is>
@@ -20413,7 +20413,7 @@
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>01/06/2008</t>
+          <t>01/01/2008</t>
         </is>
       </c>
       <c r="B800" t="inlineStr">
@@ -20427,7 +20427,7 @@
         </is>
       </c>
       <c r="D800" t="n">
-        <v>21446.001</v>
+        <v>22454</v>
       </c>
       <c r="E800" t="inlineStr">
         <is>
@@ -20438,7 +20438,7 @@
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>01/05/2008</t>
+          <t>01/07/2008</t>
         </is>
       </c>
       <c r="B801" t="inlineStr">
@@ -20452,7 +20452,7 @@
         </is>
       </c>
       <c r="D801" t="n">
-        <v>22333</v>
+        <v>22084.0001</v>
       </c>
       <c r="E801" t="inlineStr">
         <is>
@@ -20463,7 +20463,7 @@
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>01/03/2008</t>
+          <t>01/06/2008</t>
         </is>
       </c>
       <c r="B802" t="inlineStr">
@@ -20477,7 +20477,7 @@
         </is>
       </c>
       <c r="D802" t="n">
-        <v>22425</v>
+        <v>21446.001</v>
       </c>
       <c r="E802" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>01/11/2008</t>
+          <t>01/05/2008</t>
         </is>
       </c>
       <c r="B803" t="inlineStr">
@@ -20502,7 +20502,7 @@
         </is>
       </c>
       <c r="D803" t="n">
-        <v>20454</v>
+        <v>22333</v>
       </c>
       <c r="E803" t="inlineStr">
         <is>
@@ -20513,7 +20513,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>01/03/2008</t>
         </is>
       </c>
       <c r="B804" t="inlineStr">
@@ -20527,7 +20527,7 @@
         </is>
       </c>
       <c r="D804" t="n">
-        <v>19738.9989</v>
+        <v>22425</v>
       </c>
       <c r="E804" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>01/09/2008</t>
+          <t>01/11/2008</t>
         </is>
       </c>
       <c r="B805" t="inlineStr">
@@ -20552,7 +20552,7 @@
         </is>
       </c>
       <c r="D805" t="n">
-        <v>21581.001</v>
+        <v>20454</v>
       </c>
       <c r="E805" t="inlineStr">
         <is>
@@ -20563,7 +20563,7 @@
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>01/04/2009</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="B806" t="inlineStr">
@@ -20577,7 +20577,7 @@
         </is>
       </c>
       <c r="D806" t="n">
-        <v>20352.999</v>
+        <v>19738.9989</v>
       </c>
       <c r="E806" t="inlineStr">
         <is>
@@ -20588,7 +20588,7 @@
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>01/08/2009</t>
+          <t>01/09/2008</t>
         </is>
       </c>
       <c r="B807" t="inlineStr">
@@ -20602,7 +20602,7 @@
         </is>
       </c>
       <c r="D807" t="n">
-        <v>19636.0014</v>
+        <v>21581.001</v>
       </c>
       <c r="E807" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>01/12/2009</t>
+          <t>01/04/2009</t>
         </is>
       </c>
       <c r="B808" t="inlineStr">
@@ -20627,7 +20627,7 @@
         </is>
       </c>
       <c r="D808" t="n">
-        <v>20058.9995</v>
+        <v>20352.999</v>
       </c>
       <c r="E808" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>01/02/2009</t>
+          <t>01/08/2009</t>
         </is>
       </c>
       <c r="B809" t="inlineStr">
@@ -20652,7 +20652,7 @@
         </is>
       </c>
       <c r="D809" t="n">
-        <v>18858.9996</v>
+        <v>19636.0014</v>
       </c>
       <c r="E809" t="inlineStr">
         <is>
@@ -20663,7 +20663,7 @@
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>01/01/2009</t>
+          <t>01/12/2009</t>
         </is>
       </c>
       <c r="B810" t="inlineStr">
@@ -20677,7 +20677,7 @@
         </is>
       </c>
       <c r="D810" t="n">
-        <v>22225.0005</v>
+        <v>20058.9995</v>
       </c>
       <c r="E810" t="inlineStr">
         <is>
@@ -20688,7 +20688,7 @@
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>01/07/2009</t>
+          <t>01/02/2009</t>
         </is>
       </c>
       <c r="B811" t="inlineStr">
@@ -20702,7 +20702,7 @@
         </is>
       </c>
       <c r="D811" t="n">
-        <v>20578.0015</v>
+        <v>18858.9996</v>
       </c>
       <c r="E811" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>01/06/2009</t>
+          <t>01/01/2009</t>
         </is>
       </c>
       <c r="B812" t="inlineStr">
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D812" t="n">
-        <v>20096.001</v>
+        <v>22225.0005</v>
       </c>
       <c r="E812" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>01/05/2009</t>
+          <t>01/07/2009</t>
         </is>
       </c>
       <c r="B813" t="inlineStr">
@@ -20752,7 +20752,7 @@
         </is>
       </c>
       <c r="D813" t="n">
-        <v>20487.001</v>
+        <v>20578.0015</v>
       </c>
       <c r="E813" t="inlineStr">
         <is>
@@ -20763,7 +20763,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>01/03/2009</t>
+          <t>01/06/2009</t>
         </is>
       </c>
       <c r="B814" t="inlineStr">
@@ -20777,7 +20777,7 @@
         </is>
       </c>
       <c r="D814" t="n">
-        <v>21078.9987</v>
+        <v>20096.001</v>
       </c>
       <c r="E814" t="inlineStr">
         <is>
@@ -20788,7 +20788,7 @@
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>01/11/2009</t>
+          <t>01/05/2009</t>
         </is>
       </c>
       <c r="B815" t="inlineStr">
@@ -20802,7 +20802,7 @@
         </is>
       </c>
       <c r="D815" t="n">
-        <v>19530</v>
+        <v>20487.001</v>
       </c>
       <c r="E815" t="inlineStr">
         <is>
@@ -20813,7 +20813,7 @@
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>01/10/2009</t>
+          <t>01/03/2009</t>
         </is>
       </c>
       <c r="B816" t="inlineStr">
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="D816" t="n">
-        <v>19538.0011</v>
+        <v>21078.9987</v>
       </c>
       <c r="E816" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>01/09/2009</t>
+          <t>01/11/2009</t>
         </is>
       </c>
       <c r="B817" t="inlineStr">
@@ -20852,7 +20852,7 @@
         </is>
       </c>
       <c r="D817" t="n">
-        <v>19464</v>
+        <v>19530</v>
       </c>
       <c r="E817" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>01/04/2010</t>
+          <t>01/10/2009</t>
         </is>
       </c>
       <c r="B818" t="inlineStr">
@@ -20877,7 +20877,7 @@
         </is>
       </c>
       <c r="D818" t="n">
-        <v>18477</v>
+        <v>19538.0011</v>
       </c>
       <c r="E818" t="inlineStr">
         <is>
@@ -20888,7 +20888,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>01/08/2010</t>
+          <t>01/09/2009</t>
         </is>
       </c>
       <c r="B819" t="inlineStr">
@@ -20902,7 +20902,7 @@
         </is>
       </c>
       <c r="D819" t="n">
-        <v>19472</v>
+        <v>19464</v>
       </c>
       <c r="E819" t="inlineStr">
         <is>
@@ -20913,7 +20913,7 @@
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>01/12/2010</t>
+          <t>01/04/2010</t>
         </is>
       </c>
       <c r="B820" t="inlineStr">
@@ -20927,7 +20927,7 @@
         </is>
       </c>
       <c r="D820" t="n">
-        <v>19253</v>
+        <v>18477</v>
       </c>
       <c r="E820" t="inlineStr">
         <is>
@@ -20938,7 +20938,7 @@
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>01/02/2010</t>
+          <t>01/08/2010</t>
         </is>
       </c>
       <c r="B821" t="inlineStr">
@@ -20952,7 +20952,7 @@
         </is>
       </c>
       <c r="D821" t="n">
-        <v>17250</v>
+        <v>19472</v>
       </c>
       <c r="E821" t="inlineStr">
         <is>
@@ -20963,7 +20963,7 @@
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>01/01/2010</t>
+          <t>01/12/2010</t>
         </is>
       </c>
       <c r="B822" t="inlineStr">
@@ -20977,7 +20977,7 @@
         </is>
       </c>
       <c r="D822" t="n">
-        <v>19822</v>
+        <v>19253</v>
       </c>
       <c r="E822" t="inlineStr">
         <is>
@@ -20988,7 +20988,7 @@
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>01/07/2010</t>
+          <t>01/02/2010</t>
         </is>
       </c>
       <c r="B823" t="inlineStr">
@@ -21002,7 +21002,7 @@
         </is>
       </c>
       <c r="D823" t="n">
-        <v>19943</v>
+        <v>17250</v>
       </c>
       <c r="E823" t="inlineStr">
         <is>
@@ -21013,7 +21013,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>01/06/2010</t>
+          <t>01/01/2010</t>
         </is>
       </c>
       <c r="B824" t="inlineStr">
@@ -21027,7 +21027,7 @@
         </is>
       </c>
       <c r="D824" t="n">
-        <v>18899</v>
+        <v>19822</v>
       </c>
       <c r="E824" t="inlineStr">
         <is>
@@ -21038,7 +21038,7 @@
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>01/05/2010</t>
+          <t>01/07/2010</t>
         </is>
       </c>
       <c r="B825" t="inlineStr">
@@ -21052,7 +21052,7 @@
         </is>
       </c>
       <c r="D825" t="n">
-        <v>19225</v>
+        <v>19943</v>
       </c>
       <c r="E825" t="inlineStr">
         <is>
@@ -21063,7 +21063,7 @@
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>01/03/2010</t>
+          <t>01/06/2010</t>
         </is>
       </c>
       <c r="B826" t="inlineStr">
@@ -21077,7 +21077,7 @@
         </is>
       </c>
       <c r="D826" t="n">
-        <v>18557</v>
+        <v>18899</v>
       </c>
       <c r="E826" t="inlineStr">
         <is>
@@ -21088,7 +21088,7 @@
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>01/11/2010</t>
+          <t>01/05/2010</t>
         </is>
       </c>
       <c r="B827" t="inlineStr">
@@ -21102,7 +21102,7 @@
         </is>
       </c>
       <c r="D827" t="n">
-        <v>18252</v>
+        <v>19225</v>
       </c>
       <c r="E827" t="inlineStr">
         <is>
@@ -21113,7 +21113,7 @@
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>01/10/2010</t>
+          <t>01/03/2010</t>
         </is>
       </c>
       <c r="B828" t="inlineStr">
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D828" t="n">
-        <v>19679</v>
+        <v>18557</v>
       </c>
       <c r="E828" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>01/09/2010</t>
+          <t>01/11/2010</t>
         </is>
       </c>
       <c r="B829" t="inlineStr">
@@ -21152,7 +21152,7 @@
         </is>
       </c>
       <c r="D829" t="n">
-        <v>18162</v>
+        <v>18252</v>
       </c>
       <c r="E829" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>01/04/2011</t>
+          <t>01/10/2010</t>
         </is>
       </c>
       <c r="B830" t="inlineStr">
@@ -21177,7 +21177,7 @@
         </is>
       </c>
       <c r="D830" t="n">
-        <v>14211.9</v>
+        <v>19679</v>
       </c>
       <c r="E830" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>01/08/2011</t>
+          <t>01/09/2010</t>
         </is>
       </c>
       <c r="B831" t="inlineStr">
@@ -21202,7 +21202,7 @@
         </is>
       </c>
       <c r="D831" t="n">
-        <v>15656.1</v>
+        <v>18162</v>
       </c>
       <c r="E831" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>01/12/2011</t>
+          <t>01/04/2011</t>
         </is>
       </c>
       <c r="B832" t="inlineStr">
@@ -21227,7 +21227,7 @@
         </is>
       </c>
       <c r="D832" t="n">
-        <v>16836.5</v>
+        <v>14211.9</v>
       </c>
       <c r="E832" t="inlineStr">
         <is>
@@ -21238,7 +21238,7 @@
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>01/02/2011</t>
+          <t>01/08/2011</t>
         </is>
       </c>
       <c r="B833" t="inlineStr">
@@ -21252,7 +21252,7 @@
         </is>
       </c>
       <c r="D833" t="n">
-        <v>15945.6</v>
+        <v>15656.1</v>
       </c>
       <c r="E833" t="inlineStr">
         <is>
@@ -21263,7 +21263,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>01/01/2011</t>
+          <t>01/12/2011</t>
         </is>
       </c>
       <c r="B834" t="inlineStr">
@@ -21277,7 +21277,7 @@
         </is>
       </c>
       <c r="D834" t="n">
-        <v>18522.8</v>
+        <v>16836.5</v>
       </c>
       <c r="E834" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>01/07/2011</t>
+          <t>01/02/2011</t>
         </is>
       </c>
       <c r="B835" t="inlineStr">
@@ -21302,7 +21302,7 @@
         </is>
       </c>
       <c r="D835" t="n">
-        <v>14478.2</v>
+        <v>15945.6</v>
       </c>
       <c r="E835" t="inlineStr">
         <is>
@@ -21313,7 +21313,7 @@
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>01/06/2011</t>
+          <t>01/01/2011</t>
         </is>
       </c>
       <c r="B836" t="inlineStr">
@@ -21327,7 +21327,7 @@
         </is>
       </c>
       <c r="D836" t="n">
-        <v>15871.3</v>
+        <v>18522.8</v>
       </c>
       <c r="E836" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>01/05/2011</t>
+          <t>01/07/2011</t>
         </is>
       </c>
       <c r="B837" t="inlineStr">
@@ -21352,7 +21352,7 @@
         </is>
       </c>
       <c r="D837" t="n">
-        <v>17668.9</v>
+        <v>14478.2</v>
       </c>
       <c r="E837" t="inlineStr">
         <is>
@@ -21363,7 +21363,7 @@
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>01/03/2011</t>
+          <t>01/06/2011</t>
         </is>
       </c>
       <c r="B838" t="inlineStr">
@@ -21377,7 +21377,7 @@
         </is>
       </c>
       <c r="D838" t="n">
-        <v>10940.8</v>
+        <v>15871.3</v>
       </c>
       <c r="E838" t="inlineStr">
         <is>
@@ -21388,7 +21388,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>01/11/2011</t>
+          <t>01/05/2011</t>
         </is>
       </c>
       <c r="B839" t="inlineStr">
@@ -21402,7 +21402,7 @@
         </is>
       </c>
       <c r="D839" t="n">
-        <v>15787.4</v>
+        <v>17668.9</v>
       </c>
       <c r="E839" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>01/10/2011</t>
+          <t>01/03/2011</t>
         </is>
       </c>
       <c r="B840" t="inlineStr">
@@ -21427,7 +21427,7 @@
         </is>
       </c>
       <c r="D840" t="n">
-        <v>16134.4</v>
+        <v>10940.8</v>
       </c>
       <c r="E840" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>01/09/2011</t>
+          <t>01/11/2011</t>
         </is>
       </c>
       <c r="B841" t="inlineStr">
@@ -21452,7 +21452,7 @@
         </is>
       </c>
       <c r="D841" t="n">
-        <v>15096.4</v>
+        <v>15787.4</v>
       </c>
       <c r="E841" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>01/04/2012</t>
+          <t>01/10/2011</t>
         </is>
       </c>
       <c r="B842" t="inlineStr">
@@ -21477,7 +21477,7 @@
         </is>
       </c>
       <c r="D842" t="n">
-        <v>10707.1</v>
+        <v>16134.4</v>
       </c>
       <c r="E842" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>01/08/2012</t>
+          <t>01/09/2011</t>
         </is>
       </c>
       <c r="B843" t="inlineStr">
@@ -21502,7 +21502,7 @@
         </is>
       </c>
       <c r="D843" t="n">
-        <v>16193.1</v>
+        <v>15096.4</v>
       </c>
       <c r="E843" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>01/12/2012</t>
+          <t>01/04/2012</t>
         </is>
       </c>
       <c r="B844" t="inlineStr">
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D844" t="n">
-        <v>17393.3</v>
+        <v>10707.1</v>
       </c>
       <c r="E844" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>01/02/2012</t>
+          <t>01/08/2012</t>
         </is>
       </c>
       <c r="B845" t="inlineStr">
@@ -21552,7 +21552,7 @@
         </is>
       </c>
       <c r="D845" t="n">
-        <v>14260.4</v>
+        <v>16193.1</v>
       </c>
       <c r="E845" t="inlineStr">
         <is>
@@ -21563,7 +21563,7 @@
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>01/12/2012</t>
         </is>
       </c>
       <c r="B846" t="inlineStr">
@@ -21577,7 +21577,7 @@
         </is>
       </c>
       <c r="D846" t="n">
-        <v>16058.3</v>
+        <v>17393.3</v>
       </c>
       <c r="E846" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>01/07/2012</t>
+          <t>01/02/2012</t>
         </is>
       </c>
       <c r="B847" t="inlineStr">
@@ -21602,7 +21602,7 @@
         </is>
       </c>
       <c r="D847" t="n">
-        <v>12701.4</v>
+        <v>14260.4</v>
       </c>
       <c r="E847" t="inlineStr">
         <is>
@@ -21613,7 +21613,7 @@
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>01/06/2012</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="B848" t="inlineStr">
@@ -21627,7 +21627,7 @@
         </is>
       </c>
       <c r="D848" t="n">
-        <v>10851.8</v>
+        <v>16058.3</v>
       </c>
       <c r="E848" t="inlineStr">
         <is>
@@ -21638,7 +21638,7 @@
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>01/05/2012</t>
+          <t>01/07/2012</t>
         </is>
       </c>
       <c r="B849" t="inlineStr">
@@ -21652,7 +21652,7 @@
         </is>
       </c>
       <c r="D849" t="n">
-        <v>10692</v>
+        <v>12701.4</v>
       </c>
       <c r="E849" t="inlineStr">
         <is>
@@ -21663,7 +21663,7 @@
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>01/03/2012</t>
+          <t>01/06/2012</t>
         </is>
       </c>
       <c r="B850" t="inlineStr">
@@ -21677,7 +21677,7 @@
         </is>
       </c>
       <c r="D850" t="n">
-        <v>14311.3</v>
+        <v>10851.8</v>
       </c>
       <c r="E850" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>01/11/2012</t>
+          <t>01/05/2012</t>
         </is>
       </c>
       <c r="B851" t="inlineStr">
@@ -21702,7 +21702,7 @@
         </is>
       </c>
       <c r="D851" t="n">
-        <v>16574.9</v>
+        <v>10692</v>
       </c>
       <c r="E851" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>01/10/2012</t>
+          <t>01/03/2012</t>
         </is>
       </c>
       <c r="B852" t="inlineStr">
@@ -21727,7 +21727,7 @@
         </is>
       </c>
       <c r="D852" t="n">
-        <v>13682.2</v>
+        <v>14311.3</v>
       </c>
       <c r="E852" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>01/09/2012</t>
+          <t>01/11/2012</t>
         </is>
       </c>
       <c r="B853" t="inlineStr">
@@ -21752,7 +21752,7 @@
         </is>
       </c>
       <c r="D853" t="n">
-        <v>12246</v>
+        <v>16574.9</v>
       </c>
       <c r="E853" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>01/04/2013</t>
+          <t>01/10/2012</t>
         </is>
       </c>
       <c r="B854" t="inlineStr">
@@ -21777,7 +21777,7 @@
         </is>
       </c>
       <c r="D854" t="n">
-        <v>15186.2</v>
+        <v>13682.2</v>
       </c>
       <c r="E854" t="inlineStr">
         <is>
@@ -21788,7 +21788,7 @@
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>01/08/2013</t>
+          <t>01/09/2012</t>
         </is>
       </c>
       <c r="B855" t="inlineStr">
@@ -21802,7 +21802,7 @@
         </is>
       </c>
       <c r="D855" t="n">
-        <v>14998.4</v>
+        <v>12246</v>
       </c>
       <c r="E855" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>01/12/2013</t>
+          <t>01/04/2013</t>
         </is>
       </c>
       <c r="B856" t="inlineStr">
@@ -21827,7 +21827,7 @@
         </is>
       </c>
       <c r="D856" t="n">
-        <v>15576.1</v>
+        <v>15186.2</v>
       </c>
       <c r="E856" t="inlineStr">
         <is>
@@ -21838,7 +21838,7 @@
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>01/02/2013</t>
+          <t>01/08/2013</t>
         </is>
       </c>
       <c r="B857" t="inlineStr">
@@ -21852,7 +21852,7 @@
         </is>
       </c>
       <c r="D857" t="n">
-        <v>14992.1</v>
+        <v>14998.4</v>
       </c>
       <c r="E857" t="inlineStr">
         <is>
@@ -21863,7 +21863,7 @@
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/12/2013</t>
         </is>
       </c>
       <c r="B858" t="inlineStr">
@@ -21877,7 +21877,7 @@
         </is>
       </c>
       <c r="D858" t="n">
-        <v>16653.1</v>
+        <v>15576.1</v>
       </c>
       <c r="E858" t="inlineStr">
         <is>
@@ -21888,7 +21888,7 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>01/07/2013</t>
+          <t>01/02/2013</t>
         </is>
       </c>
       <c r="B859" t="inlineStr">
@@ -21902,7 +21902,7 @@
         </is>
       </c>
       <c r="D859" t="n">
-        <v>15326.3</v>
+        <v>14992.1</v>
       </c>
       <c r="E859" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>01/06/2013</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="B860" t="inlineStr">
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D860" t="n">
-        <v>15355.6</v>
+        <v>16653.1</v>
       </c>
       <c r="E860" t="inlineStr">
         <is>
@@ -21938,7 +21938,7 @@
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>01/05/2013</t>
+          <t>01/07/2013</t>
         </is>
       </c>
       <c r="B861" t="inlineStr">
@@ -21952,7 +21952,7 @@
         </is>
       </c>
       <c r="D861" t="n">
-        <v>14825.2</v>
+        <v>15326.3</v>
       </c>
       <c r="E861" t="inlineStr">
         <is>
@@ -21963,7 +21963,7 @@
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>01/03/2013</t>
+          <t>01/06/2013</t>
         </is>
       </c>
       <c r="B862" t="inlineStr">
@@ -21977,7 +21977,7 @@
         </is>
       </c>
       <c r="D862" t="n">
-        <v>15537.2</v>
+        <v>15355.6</v>
       </c>
       <c r="E862" t="inlineStr">
         <is>
@@ -21988,7 +21988,7 @@
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>01/11/2013</t>
+          <t>01/05/2013</t>
         </is>
       </c>
       <c r="B863" t="inlineStr">
@@ -22002,7 +22002,7 @@
         </is>
       </c>
       <c r="D863" t="n">
-        <v>14997.2</v>
+        <v>14825.2</v>
       </c>
       <c r="E863" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>01/03/2013</t>
         </is>
       </c>
       <c r="B864" t="inlineStr">
@@ -22027,7 +22027,7 @@
         </is>
       </c>
       <c r="D864" t="n">
-        <v>14495.7</v>
+        <v>15537.2</v>
       </c>
       <c r="E864" t="inlineStr">
         <is>
@@ -22038,7 +22038,7 @@
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>01/09/2013</t>
+          <t>01/11/2013</t>
         </is>
       </c>
       <c r="B865" t="inlineStr">
@@ -22052,7 +22052,7 @@
         </is>
       </c>
       <c r="D865" t="n">
-        <v>14777.2</v>
+        <v>14997.2</v>
       </c>
       <c r="E865" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>01/04/2014</t>
+          <t>01/10/2013</t>
         </is>
       </c>
       <c r="B866" t="inlineStr">
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D866" t="n">
-        <v>15228.7</v>
+        <v>14495.7</v>
       </c>
       <c r="E866" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>01/08/2014</t>
+          <t>01/09/2013</t>
         </is>
       </c>
       <c r="B867" t="inlineStr">
@@ -22102,7 +22102,7 @@
         </is>
       </c>
       <c r="D867" t="n">
-        <v>14545.5</v>
+        <v>14777.2</v>
       </c>
       <c r="E867" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>01/12/2014</t>
+          <t>01/04/2014</t>
         </is>
       </c>
       <c r="B868" t="inlineStr">
@@ -22127,7 +22127,7 @@
         </is>
       </c>
       <c r="D868" t="n">
-        <v>13264.2</v>
+        <v>15228.7</v>
       </c>
       <c r="E868" t="inlineStr">
         <is>
@@ -22138,7 +22138,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>01/02/2014</t>
+          <t>01/08/2014</t>
         </is>
       </c>
       <c r="B869" t="inlineStr">
@@ -22152,7 +22152,7 @@
         </is>
       </c>
       <c r="D869" t="n">
-        <v>13542.3</v>
+        <v>14545.5</v>
       </c>
       <c r="E869" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/12/2014</t>
         </is>
       </c>
       <c r="B870" t="inlineStr">
@@ -22177,7 +22177,7 @@
         </is>
       </c>
       <c r="D870" t="n">
-        <v>15019.1</v>
+        <v>13264.2</v>
       </c>
       <c r="E870" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
+          <t>01/02/2014</t>
         </is>
       </c>
       <c r="B871" t="inlineStr">
@@ -22202,7 +22202,7 @@
         </is>
       </c>
       <c r="D871" t="n">
-        <v>14900.7</v>
+        <v>13542.3</v>
       </c>
       <c r="E871" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>01/06/2014</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="B872" t="inlineStr">
@@ -22227,7 +22227,7 @@
         </is>
       </c>
       <c r="D872" t="n">
-        <v>14977.9</v>
+        <v>15019.1</v>
       </c>
       <c r="E872" t="inlineStr">
         <is>
@@ -22238,7 +22238,7 @@
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>01/05/2014</t>
+          <t>01/07/2014</t>
         </is>
       </c>
       <c r="B873" t="inlineStr">
@@ -22252,7 +22252,7 @@
         </is>
       </c>
       <c r="D873" t="n">
-        <v>16141.5</v>
+        <v>14900.7</v>
       </c>
       <c r="E873" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>01/03/2014</t>
+          <t>01/06/2014</t>
         </is>
       </c>
       <c r="B874" t="inlineStr">
@@ -22277,7 +22277,7 @@
         </is>
       </c>
       <c r="D874" t="n">
-        <v>15178.7</v>
+        <v>14977.9</v>
       </c>
       <c r="E874" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>01/11/2014</t>
+          <t>01/05/2014</t>
         </is>
       </c>
       <c r="B875" t="inlineStr">
@@ -22302,7 +22302,7 @@
         </is>
       </c>
       <c r="D875" t="n">
-        <v>11227.8</v>
+        <v>16141.5</v>
       </c>
       <c r="E875" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>01/10/2014</t>
+          <t>01/03/2014</t>
         </is>
       </c>
       <c r="B876" t="inlineStr">
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D876" t="n">
-        <v>14384.8</v>
+        <v>15178.7</v>
       </c>
       <c r="E876" t="inlineStr">
         <is>
@@ -22338,7 +22338,7 @@
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>01/09/2014</t>
+          <t>01/11/2014</t>
         </is>
       </c>
       <c r="B877" t="inlineStr">
@@ -22352,7 +22352,7 @@
         </is>
       </c>
       <c r="D877" t="n">
-        <v>13936.6</v>
+        <v>11227.8</v>
       </c>
       <c r="E877" t="inlineStr">
         <is>
@@ -22363,7 +22363,7 @@
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>01/04/2015</t>
+          <t>01/10/2014</t>
         </is>
       </c>
       <c r="B878" t="inlineStr">
@@ -22377,7 +22377,7 @@
         </is>
       </c>
       <c r="D878" t="n">
-        <v>13917.8</v>
+        <v>14384.8</v>
       </c>
       <c r="E878" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>01/08/2015</t>
+          <t>01/09/2014</t>
         </is>
       </c>
       <c r="B879" t="inlineStr">
@@ -22402,7 +22402,7 @@
         </is>
       </c>
       <c r="D879" t="n">
-        <v>11403.3</v>
+        <v>13936.6</v>
       </c>
       <c r="E879" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>01/12/2015</t>
+          <t>01/04/2015</t>
         </is>
       </c>
       <c r="B880" t="inlineStr">
@@ -22427,7 +22427,7 @@
         </is>
       </c>
       <c r="D880" t="n">
-        <v>9425.700000000001</v>
+        <v>13917.8</v>
       </c>
       <c r="E880" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>01/02/2015</t>
+          <t>01/08/2015</t>
         </is>
       </c>
       <c r="B881" t="inlineStr">
@@ -22452,7 +22452,7 @@
         </is>
       </c>
       <c r="D881" t="n">
-        <v>13004.4</v>
+        <v>11403.3</v>
       </c>
       <c r="E881" t="inlineStr">
         <is>
@@ -22463,7 +22463,7 @@
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/12/2015</t>
         </is>
       </c>
       <c r="B882" t="inlineStr">
@@ -22477,7 +22477,7 @@
         </is>
       </c>
       <c r="D882" t="n">
-        <v>14478.2</v>
+        <v>9425.700000000001</v>
       </c>
       <c r="E882" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>01/07/2015</t>
+          <t>01/02/2015</t>
         </is>
       </c>
       <c r="B883" t="inlineStr">
@@ -22502,7 +22502,7 @@
         </is>
       </c>
       <c r="D883" t="n">
-        <v>11946.4</v>
+        <v>13004.4</v>
       </c>
       <c r="E883" t="inlineStr">
         <is>
@@ -22513,7 +22513,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>01/06/2015</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="B884" t="inlineStr">
@@ -22527,7 +22527,7 @@
         </is>
       </c>
       <c r="D884" t="n">
-        <v>12385.6</v>
+        <v>14478.2</v>
       </c>
       <c r="E884" t="inlineStr">
         <is>
@@ -22538,7 +22538,7 @@
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>01/05/2015</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="B885" t="inlineStr">
@@ -22552,7 +22552,7 @@
         </is>
       </c>
       <c r="D885" t="n">
-        <v>12823.9</v>
+        <v>11946.4</v>
       </c>
       <c r="E885" t="inlineStr">
         <is>
@@ -22563,7 +22563,7 @@
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>01/03/2015</t>
+          <t>01/06/2015</t>
         </is>
       </c>
       <c r="B886" t="inlineStr">
@@ -22577,7 +22577,7 @@
         </is>
       </c>
       <c r="D886" t="n">
-        <v>14916.8</v>
+        <v>12385.6</v>
       </c>
       <c r="E886" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>01/11/2015</t>
+          <t>01/05/2015</t>
         </is>
       </c>
       <c r="B887" t="inlineStr">
@@ -22602,7 +22602,7 @@
         </is>
       </c>
       <c r="D887" t="n">
-        <v>5361.7</v>
+        <v>12823.9</v>
       </c>
       <c r="E887" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/03/2015</t>
         </is>
       </c>
       <c r="B888" t="inlineStr">
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="D888" t="n">
-        <v>11384.7</v>
+        <v>14916.8</v>
       </c>
       <c r="E888" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>01/09/2015</t>
+          <t>01/11/2015</t>
         </is>
       </c>
       <c r="B889" t="inlineStr">
@@ -22652,7 +22652,7 @@
         </is>
       </c>
       <c r="D889" t="n">
-        <v>11927.3</v>
+        <v>5361.7</v>
       </c>
       <c r="E889" t="inlineStr">
         <is>
@@ -22663,7 +22663,7 @@
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>01/04/2016</t>
+          <t>01/10/2015</t>
         </is>
       </c>
       <c r="B890" t="inlineStr">
@@ -22677,7 +22677,7 @@
         </is>
       </c>
       <c r="D890" t="n">
-        <v>9074.1</v>
+        <v>11384.7</v>
       </c>
       <c r="E890" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>01/08/2016</t>
+          <t>01/09/2015</t>
         </is>
       </c>
       <c r="B891" t="inlineStr">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="D891" t="n">
-        <v>9273.799999999999</v>
+        <v>11927.3</v>
       </c>
       <c r="E891" t="inlineStr">
         <is>
@@ -22713,7 +22713,7 @@
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>01/12/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="B892" t="inlineStr">
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D892" t="n">
-        <v>3213.5</v>
+        <v>9074.1</v>
       </c>
       <c r="E892" t="inlineStr">
         <is>
@@ -22738,7 +22738,7 @@
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>01/02/2016</t>
+          <t>01/08/2016</t>
         </is>
       </c>
       <c r="B893" t="inlineStr">
@@ -22752,7 +22752,7 @@
         </is>
       </c>
       <c r="D893" t="n">
-        <v>8886.4</v>
+        <v>9273.799999999999</v>
       </c>
       <c r="E893" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/12/2016</t>
         </is>
       </c>
       <c r="B894" t="inlineStr">
@@ -22777,7 +22777,7 @@
         </is>
       </c>
       <c r="D894" t="n">
-        <v>9118.200000000001</v>
+        <v>3213.5</v>
       </c>
       <c r="E894" t="inlineStr">
         <is>
@@ -22788,7 +22788,7 @@
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
+          <t>01/02/2016</t>
         </is>
       </c>
       <c r="B895" t="inlineStr">
@@ -22802,7 +22802,7 @@
         </is>
       </c>
       <c r="D895" t="n">
-        <v>9093.799999999999</v>
+        <v>8886.4</v>
       </c>
       <c r="E895" t="inlineStr">
         <is>
@@ -22813,7 +22813,7 @@
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>01/06/2016</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="B896" t="inlineStr">
@@ -22827,7 +22827,7 @@
         </is>
       </c>
       <c r="D896" t="n">
-        <v>8134.5</v>
+        <v>9118.200000000001</v>
       </c>
       <c r="E896" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>01/05/2016</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="B897" t="inlineStr">
@@ -22852,7 +22852,7 @@
         </is>
       </c>
       <c r="D897" t="n">
-        <v>9412.299999999999</v>
+        <v>9093.799999999999</v>
       </c>
       <c r="E897" t="inlineStr">
         <is>
@@ -22863,7 +22863,7 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>01/03/2016</t>
+          <t>01/06/2016</t>
         </is>
       </c>
       <c r="B898" t="inlineStr">
@@ -22877,7 +22877,7 @@
         </is>
       </c>
       <c r="D898" t="n">
-        <v>9861.1</v>
+        <v>8134.5</v>
       </c>
       <c r="E898" t="inlineStr">
         <is>
@@ -22888,7 +22888,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>01/11/2016</t>
+          <t>01/05/2016</t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
@@ -22902,7 +22902,7 @@
         </is>
       </c>
       <c r="D899" t="n">
-        <v>7657.6</v>
+        <v>9412.299999999999</v>
       </c>
       <c r="E899" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/03/2016</t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
@@ -22927,7 +22927,7 @@
         </is>
       </c>
       <c r="D900" t="n">
-        <v>8933.1</v>
+        <v>9861.1</v>
       </c>
       <c r="E900" t="inlineStr">
         <is>
@@ -22938,7 +22938,7 @@
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>01/09/2016</t>
+          <t>01/11/2016</t>
         </is>
       </c>
       <c r="B901" t="inlineStr">
@@ -22952,7 +22952,7 @@
         </is>
       </c>
       <c r="D901" t="n">
-        <v>8977.299999999999</v>
+        <v>7657.6</v>
       </c>
       <c r="E901" t="inlineStr">
         <is>
@@ -22963,7 +22963,7 @@
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>01/04/2017</t>
+          <t>01/10/2016</t>
         </is>
       </c>
       <c r="B902" t="inlineStr">
@@ -22977,7 +22977,7 @@
         </is>
       </c>
       <c r="D902" t="n">
-        <v>6856.1</v>
+        <v>8933.1</v>
       </c>
       <c r="E902" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>01/08/2017</t>
+          <t>01/09/2016</t>
         </is>
       </c>
       <c r="B903" t="inlineStr">
@@ -23002,7 +23002,7 @@
         </is>
       </c>
       <c r="D903" t="n">
-        <v>7185.4</v>
+        <v>8977.299999999999</v>
       </c>
       <c r="E903" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>01/12/2017</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="B904" t="inlineStr">
@@ -23027,7 +23027,7 @@
         </is>
       </c>
       <c r="D904" t="n">
-        <v>9617.700000000001</v>
+        <v>6856.1</v>
       </c>
       <c r="E904" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>01/02/2017</t>
+          <t>01/08/2017</t>
         </is>
       </c>
       <c r="B905" t="inlineStr">
@@ -23052,7 +23052,7 @@
         </is>
       </c>
       <c r="D905" t="n">
-        <v>6279.5</v>
+        <v>7185.4</v>
       </c>
       <c r="E905" t="inlineStr">
         <is>
@@ -23063,7 +23063,7 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/12/2017</t>
         </is>
       </c>
       <c r="B906" t="inlineStr">
@@ -23077,7 +23077,7 @@
         </is>
       </c>
       <c r="D906" t="n">
-        <v>7743.8</v>
+        <v>9617.700000000001</v>
       </c>
       <c r="E906" t="inlineStr">
         <is>
@@ -23088,7 +23088,7 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
+          <t>01/02/2017</t>
         </is>
       </c>
       <c r="B907" t="inlineStr">
@@ -23102,7 +23102,7 @@
         </is>
       </c>
       <c r="D907" t="n">
-        <v>6753.2</v>
+        <v>6279.5</v>
       </c>
       <c r="E907" t="inlineStr">
         <is>
@@ -23113,7 +23113,7 @@
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>01/06/2017</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="B908" t="inlineStr">
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D908" t="n">
-        <v>6679</v>
+        <v>7743.8</v>
       </c>
       <c r="E908" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>01/05/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="B909" t="inlineStr">
@@ -23152,7 +23152,7 @@
         </is>
       </c>
       <c r="D909" t="n">
-        <v>6777</v>
+        <v>6753.2</v>
       </c>
       <c r="E909" t="inlineStr">
         <is>
@@ -23163,7 +23163,7 @@
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>01/03/2017</t>
+          <t>01/06/2017</t>
         </is>
       </c>
       <c r="B910" t="inlineStr">
@@ -23177,7 +23177,7 @@
         </is>
       </c>
       <c r="D910" t="n">
-        <v>7180</v>
+        <v>6679</v>
       </c>
       <c r="E910" t="inlineStr">
         <is>
@@ -23188,7 +23188,7 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>01/11/2017</t>
+          <t>01/05/2017</t>
         </is>
       </c>
       <c r="B911" t="inlineStr">
@@ -23202,7 +23202,7 @@
         </is>
       </c>
       <c r="D911" t="n">
-        <v>7720.9</v>
+        <v>6777</v>
       </c>
       <c r="E911" t="inlineStr">
         <is>
@@ -23213,7 +23213,7 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/03/2017</t>
         </is>
       </c>
       <c r="B912" t="inlineStr">
@@ -23227,7 +23227,7 @@
         </is>
       </c>
       <c r="D912" t="n">
-        <v>7765.07</v>
+        <v>7180</v>
       </c>
       <c r="E912" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>01/09/2017</t>
+          <t>01/11/2017</t>
         </is>
       </c>
       <c r="B913" t="inlineStr">
@@ -23252,7 +23252,7 @@
         </is>
       </c>
       <c r="D913" t="n">
-        <v>7191.4</v>
+        <v>7720.9</v>
       </c>
       <c r="E913" t="inlineStr">
         <is>
@@ -23263,7 +23263,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>01/04/2018</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="B914" t="inlineStr">
@@ -23277,7 +23277,7 @@
         </is>
       </c>
       <c r="D914" t="n">
-        <v>6020</v>
+        <v>7765.07</v>
       </c>
       <c r="E914" t="inlineStr">
         <is>
@@ -23288,7 +23288,7 @@
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>01/08/2018</t>
+          <t>01/09/2017</t>
         </is>
       </c>
       <c r="B915" t="inlineStr">
@@ -23302,7 +23302,7 @@
         </is>
       </c>
       <c r="D915" t="n">
-        <v>5969</v>
+        <v>7191.4</v>
       </c>
       <c r="E915" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>01/12/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="B916" t="inlineStr">
@@ -23327,7 +23327,7 @@
         </is>
       </c>
       <c r="D916" t="n">
-        <v>6061</v>
+        <v>6020</v>
       </c>
       <c r="E916" t="inlineStr">
         <is>
@@ -23338,7 +23338,7 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>01/02/2018</t>
+          <t>01/08/2018</t>
         </is>
       </c>
       <c r="B917" t="inlineStr">
@@ -23352,7 +23352,7 @@
         </is>
       </c>
       <c r="D917" t="n">
-        <v>6141.6</v>
+        <v>5969</v>
       </c>
       <c r="E917" t="inlineStr">
         <is>
@@ -23363,7 +23363,7 @@
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/12/2018</t>
         </is>
       </c>
       <c r="B918" t="inlineStr">
@@ -23377,7 +23377,7 @@
         </is>
       </c>
       <c r="D918" t="n">
-        <v>7289.478</v>
+        <v>6061</v>
       </c>
       <c r="E918" t="inlineStr">
         <is>
@@ -23388,7 +23388,7 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>01/02/2018</t>
         </is>
       </c>
       <c r="B919" t="inlineStr">
@@ -23402,7 +23402,7 @@
         </is>
       </c>
       <c r="D919" t="n">
-        <v>5621.504</v>
+        <v>6141.6</v>
       </c>
       <c r="E919" t="inlineStr">
         <is>
@@ -23413,7 +23413,7 @@
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>01/06/2018</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
@@ -23427,7 +23427,7 @@
         </is>
       </c>
       <c r="D920" t="n">
-        <v>5487.042</v>
+        <v>7289.478</v>
       </c>
       <c r="E920" t="inlineStr">
         <is>
@@ -23438,7 +23438,7 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>01/05/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="B921" t="inlineStr">
@@ -23452,7 +23452,7 @@
         </is>
       </c>
       <c r="D921" t="n">
-        <v>5549.7</v>
+        <v>5621.504</v>
       </c>
       <c r="E921" t="inlineStr">
         <is>
@@ -23463,7 +23463,7 @@
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>01/03/2018</t>
+          <t>01/06/2018</t>
         </is>
       </c>
       <c r="B922" t="inlineStr">
@@ -23477,7 +23477,7 @@
         </is>
       </c>
       <c r="D922" t="n">
-        <v>6426.258</v>
+        <v>5487.042</v>
       </c>
       <c r="E922" t="inlineStr">
         <is>
@@ -23488,7 +23488,7 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>01/11/2018</t>
+          <t>01/05/2018</t>
         </is>
       </c>
       <c r="B923" t="inlineStr">
@@ -23502,7 +23502,7 @@
         </is>
       </c>
       <c r="D923" t="n">
-        <v>5685.5</v>
+        <v>5549.7</v>
       </c>
       <c r="E923" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/03/2018</t>
         </is>
       </c>
       <c r="B924" t="inlineStr">
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D924" t="n">
-        <v>5916.66</v>
+        <v>6426.258</v>
       </c>
       <c r="E924" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>01/09/2018</t>
+          <t>01/11/2018</t>
         </is>
       </c>
       <c r="B925" t="inlineStr">
@@ -23552,7 +23552,7 @@
         </is>
       </c>
       <c r="D925" t="n">
-        <v>5970.399</v>
+        <v>5685.5</v>
       </c>
       <c r="E925" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="B926" t="inlineStr">
@@ -23577,7 +23577,7 @@
         </is>
       </c>
       <c r="D926" t="n">
-        <v>5391.2</v>
+        <v>5916.66</v>
       </c>
       <c r="E926" t="inlineStr">
         <is>
@@ -23588,7 +23588,7 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>01/08/2019</t>
+          <t>01/09/2018</t>
         </is>
       </c>
       <c r="B927" t="inlineStr">
@@ -23602,7 +23602,7 @@
         </is>
       </c>
       <c r="D927" t="n">
-        <v>4054.5</v>
+        <v>5970.399</v>
       </c>
       <c r="E927" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>01/12/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="B928" t="inlineStr">
@@ -23627,7 +23627,7 @@
         </is>
       </c>
       <c r="D928" t="n">
-        <v>4830.4</v>
+        <v>5391.2</v>
       </c>
       <c r="E928" t="inlineStr">
         <is>
@@ -23638,7 +23638,7 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>01/02/2019</t>
+          <t>01/08/2019</t>
         </is>
       </c>
       <c r="B929" t="inlineStr">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="D929" t="n">
-        <v>3997.1</v>
+        <v>4054.5</v>
       </c>
       <c r="E929" t="inlineStr">
         <is>
@@ -23663,7 +23663,7 @@
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/12/2019</t>
         </is>
       </c>
       <c r="B930" t="inlineStr">
@@ -23677,7 +23677,7 @@
         </is>
       </c>
       <c r="D930" t="n">
-        <v>5711.1</v>
+        <v>4830.4</v>
       </c>
       <c r="E930" t="inlineStr">
         <is>
@@ -23688,7 +23688,7 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/02/2019</t>
         </is>
       </c>
       <c r="B931" t="inlineStr">
@@ -23702,7 +23702,7 @@
         </is>
       </c>
       <c r="D931" t="n">
-        <v>4524.82</v>
+        <v>3997.1</v>
       </c>
       <c r="E931" t="inlineStr">
         <is>
@@ -23713,7 +23713,7 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>01/06/2019</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="B932" t="inlineStr">
@@ -23727,7 +23727,7 @@
         </is>
       </c>
       <c r="D932" t="n">
-        <v>4716.577</v>
+        <v>5711.1</v>
       </c>
       <c r="E932" t="inlineStr">
         <is>
@@ -23738,7 +23738,7 @@
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>01/05/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="B933" t="inlineStr">
@@ -23752,7 +23752,7 @@
         </is>
       </c>
       <c r="D933" t="n">
-        <v>5361.2</v>
+        <v>4524.82</v>
       </c>
       <c r="E933" t="inlineStr">
         <is>
@@ -23763,7 +23763,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>01/03/2019</t>
+          <t>01/06/2019</t>
         </is>
       </c>
       <c r="B934" t="inlineStr">
@@ -23777,7 +23777,7 @@
         </is>
       </c>
       <c r="D934" t="n">
-        <v>4734.9</v>
+        <v>4716.577</v>
       </c>
       <c r="E934" t="inlineStr">
         <is>
@@ -23788,7 +23788,7 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>01/11/2019</t>
+          <t>01/05/2019</t>
         </is>
       </c>
       <c r="B935" t="inlineStr">
@@ -23802,7 +23802,7 @@
         </is>
       </c>
       <c r="D935" t="n">
-        <v>3812.4</v>
+        <v>5361.2</v>
       </c>
       <c r="E935" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/03/2019</t>
         </is>
       </c>
       <c r="B936" t="inlineStr">
@@ -23827,7 +23827,7 @@
         </is>
       </c>
       <c r="D936" t="n">
-        <v>4339.8</v>
+        <v>4734.9</v>
       </c>
       <c r="E936" t="inlineStr">
         <is>
@@ -23838,7 +23838,7 @@
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>01/09/2019</t>
+          <t>01/11/2019</t>
         </is>
       </c>
       <c r="B937" t="inlineStr">
@@ -23852,7 +23852,7 @@
         </is>
       </c>
       <c r="D937" t="n">
-        <v>3820.9</v>
+        <v>3812.4</v>
       </c>
       <c r="E937" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="B938" t="inlineStr">
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D938" t="n">
-        <v>0</v>
+        <v>4339.8</v>
       </c>
       <c r="E938" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>01/08/2020</t>
+          <t>01/09/2019</t>
         </is>
       </c>
       <c r="B939" t="inlineStr">
@@ -23902,7 +23902,7 @@
         </is>
       </c>
       <c r="D939" t="n">
-        <v>0</v>
+        <v>3820.9</v>
       </c>
       <c r="E939" t="inlineStr">
         <is>
@@ -23913,7 +23913,7 @@
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>01/12/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="B940" t="inlineStr">
@@ -23938,7 +23938,7 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>01/02/2020</t>
+          <t>01/08/2020</t>
         </is>
       </c>
       <c r="B941" t="inlineStr">
@@ -23952,7 +23952,7 @@
         </is>
       </c>
       <c r="D941" t="n">
-        <v>5762.358</v>
+        <v>0</v>
       </c>
       <c r="E941" t="inlineStr">
         <is>
@@ -23963,7 +23963,7 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/12/2020</t>
         </is>
       </c>
       <c r="B942" t="inlineStr">
@@ -23977,7 +23977,7 @@
         </is>
       </c>
       <c r="D942" t="n">
-        <v>5560.337</v>
+        <v>0</v>
       </c>
       <c r="E942" t="inlineStr">
         <is>
@@ -23988,7 +23988,7 @@
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/02/2020</t>
         </is>
       </c>
       <c r="B943" t="inlineStr">
@@ -24002,7 +24002,7 @@
         </is>
       </c>
       <c r="D943" t="n">
-        <v>0</v>
+        <v>5762.358</v>
       </c>
       <c r="E943" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>01/06/2020</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="B944" t="inlineStr">
@@ -24027,7 +24027,7 @@
         </is>
       </c>
       <c r="D944" t="n">
-        <v>0</v>
+        <v>5560.337</v>
       </c>
       <c r="E944" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>01/05/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="B945" t="inlineStr">
@@ -24063,7 +24063,7 @@
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>01/03/2020</t>
+          <t>01/06/2020</t>
         </is>
       </c>
       <c r="B946" t="inlineStr">
@@ -24077,7 +24077,7 @@
         </is>
       </c>
       <c r="D946" t="n">
-        <v>5496</v>
+        <v>0</v>
       </c>
       <c r="E946" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>01/11/2020</t>
+          <t>01/05/2020</t>
         </is>
       </c>
       <c r="B947" t="inlineStr">
@@ -24113,7 +24113,7 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/03/2020</t>
         </is>
       </c>
       <c r="B948" t="inlineStr">
@@ -24127,7 +24127,7 @@
         </is>
       </c>
       <c r="D948" t="n">
-        <v>0</v>
+        <v>5496</v>
       </c>
       <c r="E948" t="inlineStr">
         <is>
@@ -24138,7 +24138,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>01/09/2020</t>
+          <t>01/11/2020</t>
         </is>
       </c>
       <c r="B949" t="inlineStr">
@@ -24163,7 +24163,7 @@
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="B950" t="inlineStr">
@@ -24188,7 +24188,7 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>01/08/2021</t>
+          <t>01/09/2020</t>
         </is>
       </c>
       <c r="B951" t="inlineStr">
@@ -24213,7 +24213,7 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>01/12/2021</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="B952" t="inlineStr">
@@ -24238,7 +24238,7 @@
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>01/02/2021</t>
+          <t>01/08/2021</t>
         </is>
       </c>
       <c r="B953" t="inlineStr">
@@ -24263,7 +24263,7 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/12/2021</t>
         </is>
       </c>
       <c r="B954" t="inlineStr">
@@ -24288,7 +24288,7 @@
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/02/2021</t>
         </is>
       </c>
       <c r="B955" t="inlineStr">
@@ -24313,7 +24313,7 @@
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>01/06/2021</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="B956" t="inlineStr">
@@ -24338,7 +24338,7 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>01/05/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="B957" t="inlineStr">
@@ -24363,7 +24363,7 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>01/03/2021</t>
+          <t>01/06/2021</t>
         </is>
       </c>
       <c r="B958" t="inlineStr">
@@ -24388,7 +24388,7 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>01/11/2021</t>
+          <t>01/05/2021</t>
         </is>
       </c>
       <c r="B959" t="inlineStr">
@@ -24413,7 +24413,7 @@
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/03/2021</t>
         </is>
       </c>
       <c r="B960" t="inlineStr">
@@ -24438,7 +24438,7 @@
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>01/09/2021</t>
+          <t>01/11/2021</t>
         </is>
       </c>
       <c r="B961" t="inlineStr">
@@ -24463,7 +24463,7 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="B962" t="inlineStr">
@@ -24488,7 +24488,7 @@
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>01/08/2022</t>
+          <t>01/09/2021</t>
         </is>
       </c>
       <c r="B963" t="inlineStr">
@@ -24513,7 +24513,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>01/12/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="B964" t="inlineStr">
@@ -24538,7 +24538,7 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>01/02/2022</t>
+          <t>01/08/2022</t>
         </is>
       </c>
       <c r="B965" t="inlineStr">
@@ -24563,7 +24563,7 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/12/2022</t>
         </is>
       </c>
       <c r="B966" t="inlineStr">
@@ -24588,7 +24588,7 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/02/2022</t>
         </is>
       </c>
       <c r="B967" t="inlineStr">
@@ -24613,7 +24613,7 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>01/06/2022</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="B968" t="inlineStr">
@@ -24638,7 +24638,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>01/05/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="B969" t="inlineStr">
@@ -24663,7 +24663,7 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>01/03/2022</t>
+          <t>01/06/2022</t>
         </is>
       </c>
       <c r="B970" t="inlineStr">
@@ -24688,7 +24688,7 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>01/11/2022</t>
+          <t>01/05/2022</t>
         </is>
       </c>
       <c r="B971" t="inlineStr">
@@ -24713,7 +24713,7 @@
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/03/2022</t>
         </is>
       </c>
       <c r="B972" t="inlineStr">
@@ -24738,7 +24738,7 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>01/09/2022</t>
+          <t>01/11/2022</t>
         </is>
       </c>
       <c r="B973" t="inlineStr">
@@ -24763,7 +24763,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="B974" t="inlineStr">
@@ -24788,7 +24788,7 @@
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01/09/2022</t>
         </is>
       </c>
       <c r="B975" t="inlineStr">
@@ -24813,7 +24813,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="B976" t="inlineStr">
@@ -24838,7 +24838,7 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>01/02/2023</t>
+          <t>01/08/2023</t>
         </is>
       </c>
       <c r="B977" t="inlineStr">
@@ -24863,7 +24863,7 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="B978" t="inlineStr">
@@ -24888,7 +24888,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/02/2023</t>
         </is>
       </c>
       <c r="B979" t="inlineStr">
@@ -24913,7 +24913,7 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>01/06/2023</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="B980" t="inlineStr">
@@ -24938,7 +24938,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>01/05/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="B981" t="inlineStr">
@@ -24963,7 +24963,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>01/03/2023</t>
+          <t>01/06/2023</t>
         </is>
       </c>
       <c r="B982" t="inlineStr">
@@ -24988,7 +24988,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>01/11/2023</t>
+          <t>01/05/2023</t>
         </is>
       </c>
       <c r="B983" t="inlineStr">
@@ -25013,7 +25013,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/03/2023</t>
         </is>
       </c>
       <c r="B984" t="inlineStr">
@@ -25038,7 +25038,7 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>01/09/2023</t>
+          <t>01/11/2023</t>
         </is>
       </c>
       <c r="B985" t="inlineStr">
@@ -25063,7 +25063,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="B986" t="inlineStr">
@@ -25088,7 +25088,7 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>01/02/2024</t>
+          <t>01/09/2023</t>
         </is>
       </c>
       <c r="B987" t="inlineStr">
@@ -25113,7 +25113,7 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="B988" t="inlineStr">
@@ -25138,7 +25138,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>01/06/2024</t>
+          <t>01/02/2024</t>
         </is>
       </c>
       <c r="B989" t="inlineStr">
@@ -25163,7 +25163,7 @@
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>01/05/2024</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="B990" t="inlineStr">
@@ -25188,7 +25188,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>01/03/2024</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="B991" t="inlineStr">
@@ -25205,6 +25205,81 @@
         <v>0</v>
       </c>
       <c r="E991" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="inlineStr">
+        <is>
+          <t>01/06/2024</t>
+        </is>
+      </c>
+      <c r="B992" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C992" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D992" t="n">
+        <v>0</v>
+      </c>
+      <c r="E992" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="inlineStr">
+        <is>
+          <t>01/05/2024</t>
+        </is>
+      </c>
+      <c r="B993" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C993" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D993" t="n">
+        <v>0</v>
+      </c>
+      <c r="E993" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="inlineStr">
+        <is>
+          <t>01/03/2024</t>
+        </is>
+      </c>
+      <c r="B994" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C994" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D994" t="n">
+        <v>0</v>
+      </c>
+      <c r="E994" t="inlineStr">
         <is>
           <t>SERGIPE</t>
         </is>

--- a/Data/g8.2.xlsx
+++ b/Data/g8.2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E994"/>
+  <dimension ref="A1:E997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16713,7 +16713,7 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>01/02/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D652" t="n">
-        <v>69.839</v>
+        <v>68.842</v>
       </c>
       <c r="E652" t="inlineStr">
         <is>
@@ -16738,7 +16738,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>01/02/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
@@ -16752,7 +16752,7 @@
         </is>
       </c>
       <c r="D653" t="n">
-        <v>1544.116</v>
+        <v>1435.047</v>
       </c>
       <c r="E653" t="inlineStr">
         <is>
@@ -16763,7 +16763,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/02/2024</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
@@ -16777,7 +16777,7 @@
         </is>
       </c>
       <c r="D654" t="n">
-        <v>78.95999999999999</v>
+        <v>69.839</v>
       </c>
       <c r="E654" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/02/2024</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
@@ -16802,7 +16802,7 @@
         </is>
       </c>
       <c r="D655" t="n">
-        <v>1774.621</v>
+        <v>1544.116</v>
       </c>
       <c r="E655" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
@@ -16827,7 +16827,7 @@
         </is>
       </c>
       <c r="D656" t="n">
-        <v>68.252</v>
+        <v>78.95999999999999</v>
       </c>
       <c r="E656" t="inlineStr">
         <is>
@@ -16838,7 +16838,7 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
@@ -16852,7 +16852,7 @@
         </is>
       </c>
       <c r="D657" t="n">
-        <v>2178.435</v>
+        <v>1774.621</v>
       </c>
       <c r="E657" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>01/06/2024</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
@@ -16877,7 +16877,7 @@
         </is>
       </c>
       <c r="D658" t="n">
-        <v>64.83499999999999</v>
+        <v>68.252</v>
       </c>
       <c r="E658" t="inlineStr">
         <is>
@@ -16888,7 +16888,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>01/06/2024</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
@@ -16902,7 +16902,7 @@
         </is>
       </c>
       <c r="D659" t="n">
-        <v>1974.229</v>
+        <v>2178.435</v>
       </c>
       <c r="E659" t="inlineStr">
         <is>
@@ -16913,7 +16913,7 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>01/05/2024</t>
+          <t>01/06/2024</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
@@ -16927,7 +16927,7 @@
         </is>
       </c>
       <c r="D660" t="n">
-        <v>68.96599999999999</v>
+        <v>64.83499999999999</v>
       </c>
       <c r="E660" t="inlineStr">
         <is>
@@ -16938,7 +16938,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>01/05/2024</t>
+          <t>01/06/2024</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
@@ -16952,7 +16952,7 @@
         </is>
       </c>
       <c r="D661" t="n">
-        <v>1893.56</v>
+        <v>1974.229</v>
       </c>
       <c r="E661" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>01/03/2024</t>
+          <t>01/05/2024</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
@@ -16977,7 +16977,7 @@
         </is>
       </c>
       <c r="D662" t="n">
-        <v>72.51000000000001</v>
+        <v>68.96599999999999</v>
       </c>
       <c r="E662" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>01/03/2024</t>
+          <t>01/05/2024</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
@@ -17002,7 +17002,7 @@
         </is>
       </c>
       <c r="D663" t="n">
-        <v>1639.846</v>
+        <v>1893.56</v>
       </c>
       <c r="E663" t="inlineStr">
         <is>
@@ -17013,21 +17013,21 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>01/04/1997</t>
+          <t>01/03/2024</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA</t>
+          <t>MAR</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>LGN</t>
+          <t>GÁS NATURAL</t>
         </is>
       </c>
       <c r="D664" t="n">
-        <v>20951</v>
+        <v>72.51000000000001</v>
       </c>
       <c r="E664" t="inlineStr">
         <is>
@@ -17038,21 +17038,21 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>01/08/1997</t>
+          <t>01/03/2024</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA</t>
+          <t>TERRA</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>LGN</t>
+          <t>GÁS NATURAL</t>
         </is>
       </c>
       <c r="D665" t="n">
-        <v>24698</v>
+        <v>1639.846</v>
       </c>
       <c r="E665" t="inlineStr">
         <is>
@@ -17063,7 +17063,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>01/12/1997</t>
+          <t>01/04/1997</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
@@ -17077,7 +17077,7 @@
         </is>
       </c>
       <c r="D666" t="n">
-        <v>23230</v>
+        <v>20951</v>
       </c>
       <c r="E666" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>01/02/1997</t>
+          <t>01/08/1997</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
@@ -17102,7 +17102,7 @@
         </is>
       </c>
       <c r="D667" t="n">
-        <v>19007</v>
+        <v>24698</v>
       </c>
       <c r="E667" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>01/01/1997</t>
+          <t>01/12/1997</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D668" t="n">
-        <v>18978</v>
+        <v>23230</v>
       </c>
       <c r="E668" t="inlineStr">
         <is>
@@ -17138,7 +17138,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>01/07/1997</t>
+          <t>01/02/1997</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
@@ -17152,7 +17152,7 @@
         </is>
       </c>
       <c r="D669" t="n">
-        <v>23232</v>
+        <v>19007</v>
       </c>
       <c r="E669" t="inlineStr">
         <is>
@@ -17163,7 +17163,7 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>01/06/1997</t>
+          <t>01/01/1997</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
@@ -17177,7 +17177,7 @@
         </is>
       </c>
       <c r="D670" t="n">
-        <v>22449</v>
+        <v>18978</v>
       </c>
       <c r="E670" t="inlineStr">
         <is>
@@ -17188,7 +17188,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>01/05/1997</t>
+          <t>01/07/1997</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
@@ -17202,7 +17202,7 @@
         </is>
       </c>
       <c r="D671" t="n">
-        <v>24757</v>
+        <v>23232</v>
       </c>
       <c r="E671" t="inlineStr">
         <is>
@@ -17213,7 +17213,7 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>01/03/1997</t>
+          <t>01/06/1997</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="D672" t="n">
-        <v>19807</v>
+        <v>22449</v>
       </c>
       <c r="E672" t="inlineStr">
         <is>
@@ -17238,7 +17238,7 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>01/11/1997</t>
+          <t>01/05/1997</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
@@ -17252,7 +17252,7 @@
         </is>
       </c>
       <c r="D673" t="n">
-        <v>22027</v>
+        <v>24757</v>
       </c>
       <c r="E673" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>01/10/1997</t>
+          <t>01/03/1997</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
@@ -17277,7 +17277,7 @@
         </is>
       </c>
       <c r="D674" t="n">
-        <v>21890</v>
+        <v>19807</v>
       </c>
       <c r="E674" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>01/09/1997</t>
+          <t>01/11/1997</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
@@ -17302,7 +17302,7 @@
         </is>
       </c>
       <c r="D675" t="n">
-        <v>22749</v>
+        <v>22027</v>
       </c>
       <c r="E675" t="inlineStr">
         <is>
@@ -17313,7 +17313,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>01/04/1998</t>
+          <t>01/10/1997</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
@@ -17327,7 +17327,7 @@
         </is>
       </c>
       <c r="D676" t="n">
-        <v>131778.0699</v>
+        <v>21890</v>
       </c>
       <c r="E676" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>01/08/1998</t>
+          <t>01/09/1997</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
@@ -17352,7 +17352,7 @@
         </is>
       </c>
       <c r="D677" t="n">
-        <v>155346.0346</v>
+        <v>22749</v>
       </c>
       <c r="E677" t="inlineStr">
         <is>
@@ -17363,7 +17363,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>01/12/1998</t>
+          <t>01/04/1998</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
@@ -17377,7 +17377,7 @@
         </is>
       </c>
       <c r="D678" t="n">
-        <v>146112.5752</v>
+        <v>131778.0699</v>
       </c>
       <c r="E678" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>01/02/1998</t>
+          <t>01/08/1998</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
@@ -17402,7 +17402,7 @@
         </is>
       </c>
       <c r="D679" t="n">
-        <v>119550.6551</v>
+        <v>155346.0346</v>
       </c>
       <c r="E679" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>01/01/1998</t>
+          <t>01/12/1998</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
@@ -17427,7 +17427,7 @@
         </is>
       </c>
       <c r="D680" t="n">
-        <v>119368.2502</v>
+        <v>146112.5752</v>
       </c>
       <c r="E680" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>01/07/1998</t>
+          <t>01/02/1998</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
@@ -17452,7 +17452,7 @@
         </is>
       </c>
       <c r="D681" t="n">
-        <v>146125.1549</v>
+        <v>119550.6551</v>
       </c>
       <c r="E681" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>01/06/1998</t>
+          <t>01/01/1998</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
@@ -17477,7 +17477,7 @@
         </is>
       </c>
       <c r="D682" t="n">
-        <v>141200.2239</v>
+        <v>119368.2502</v>
       </c>
       <c r="E682" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>01/05/1998</t>
+          <t>01/07/1998</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
@@ -17502,7 +17502,7 @@
         </is>
       </c>
       <c r="D683" t="n">
-        <v>155717.1341</v>
+        <v>146125.1549</v>
       </c>
       <c r="E683" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>01/03/1998</t>
+          <t>01/06/1998</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D684" t="n">
-        <v>124582.513</v>
+        <v>141200.2239</v>
       </c>
       <c r="E684" t="inlineStr">
         <is>
@@ -17538,7 +17538,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>01/11/1998</t>
+          <t>01/05/1998</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
@@ -17552,7 +17552,7 @@
         </is>
       </c>
       <c r="D685" t="n">
-        <v>138545.9188</v>
+        <v>155717.1341</v>
       </c>
       <c r="E685" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>01/10/1998</t>
+          <t>01/03/1998</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
@@ -17577,7 +17577,7 @@
         </is>
       </c>
       <c r="D686" t="n">
-        <v>137684.2132</v>
+        <v>124582.513</v>
       </c>
       <c r="E686" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>01/09/1998</t>
+          <t>01/11/1998</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
@@ -17602,7 +17602,7 @@
         </is>
       </c>
       <c r="D687" t="n">
-        <v>143087.1706</v>
+        <v>138545.9188</v>
       </c>
       <c r="E687" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>01/04/1999</t>
+          <t>01/10/1998</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
@@ -17627,7 +17627,7 @@
         </is>
       </c>
       <c r="D688" t="n">
-        <v>24546</v>
+        <v>137684.2132</v>
       </c>
       <c r="E688" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>01/08/1999</t>
+          <t>01/09/1998</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
@@ -17652,7 +17652,7 @@
         </is>
       </c>
       <c r="D689" t="n">
-        <v>23247</v>
+        <v>143087.1706</v>
       </c>
       <c r="E689" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>01/12/1999</t>
+          <t>01/04/1999</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
@@ -17677,7 +17677,7 @@
         </is>
       </c>
       <c r="D690" t="n">
-        <v>24640</v>
+        <v>24546</v>
       </c>
       <c r="E690" t="inlineStr">
         <is>
@@ -17688,7 +17688,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>01/02/1999</t>
+          <t>01/08/1999</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
@@ -17702,7 +17702,7 @@
         </is>
       </c>
       <c r="D691" t="n">
-        <v>22448</v>
+        <v>23247</v>
       </c>
       <c r="E691" t="inlineStr">
         <is>
@@ -17713,7 +17713,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>01/01/1999</t>
+          <t>01/12/1999</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
@@ -17727,7 +17727,7 @@
         </is>
       </c>
       <c r="D692" t="n">
-        <v>24629</v>
+        <v>24640</v>
       </c>
       <c r="E692" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>01/07/1999</t>
+          <t>01/02/1999</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
@@ -17752,7 +17752,7 @@
         </is>
       </c>
       <c r="D693" t="n">
-        <v>22323</v>
+        <v>22448</v>
       </c>
       <c r="E693" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>01/06/1999</t>
+          <t>01/01/1999</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
@@ -17777,7 +17777,7 @@
         </is>
       </c>
       <c r="D694" t="n">
-        <v>24653</v>
+        <v>24629</v>
       </c>
       <c r="E694" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>01/05/1999</t>
+          <t>01/07/1999</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
@@ -17802,7 +17802,7 @@
         </is>
       </c>
       <c r="D695" t="n">
-        <v>25678</v>
+        <v>22323</v>
       </c>
       <c r="E695" t="inlineStr">
         <is>
@@ -17813,7 +17813,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>01/03/1999</t>
+          <t>01/06/1999</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
@@ -17827,7 +17827,7 @@
         </is>
       </c>
       <c r="D696" t="n">
-        <v>25737</v>
+        <v>24653</v>
       </c>
       <c r="E696" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>01/11/1999</t>
+          <t>01/05/1999</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
@@ -17852,7 +17852,7 @@
         </is>
       </c>
       <c r="D697" t="n">
-        <v>25481</v>
+        <v>25678</v>
       </c>
       <c r="E697" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>01/10/1999</t>
+          <t>01/03/1999</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
@@ -17877,7 +17877,7 @@
         </is>
       </c>
       <c r="D698" t="n">
-        <v>25601</v>
+        <v>25737</v>
       </c>
       <c r="E698" t="inlineStr">
         <is>
@@ -17888,7 +17888,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>01/09/1999</t>
+          <t>01/11/1999</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
@@ -17902,7 +17902,7 @@
         </is>
       </c>
       <c r="D699" t="n">
-        <v>24686</v>
+        <v>25481</v>
       </c>
       <c r="E699" t="inlineStr">
         <is>
@@ -17913,7 +17913,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>01/04/2000</t>
+          <t>01/10/1999</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D700" t="n">
-        <v>25440</v>
+        <v>25601</v>
       </c>
       <c r="E700" t="inlineStr">
         <is>
@@ -17938,7 +17938,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>01/08/2000</t>
+          <t>01/09/1999</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
@@ -17952,7 +17952,7 @@
         </is>
       </c>
       <c r="D701" t="n">
-        <v>27353</v>
+        <v>24686</v>
       </c>
       <c r="E701" t="inlineStr">
         <is>
@@ -17963,7 +17963,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>01/12/2000</t>
+          <t>01/04/2000</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
@@ -17977,7 +17977,7 @@
         </is>
       </c>
       <c r="D702" t="n">
-        <v>26071</v>
+        <v>25440</v>
       </c>
       <c r="E702" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>01/02/2000</t>
+          <t>01/08/2000</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
@@ -18002,7 +18002,7 @@
         </is>
       </c>
       <c r="D703" t="n">
-        <v>25123</v>
+        <v>27353</v>
       </c>
       <c r="E703" t="inlineStr">
         <is>
@@ -18013,7 +18013,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>01/01/2000</t>
+          <t>01/12/2000</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
@@ -18027,7 +18027,7 @@
         </is>
       </c>
       <c r="D704" t="n">
-        <v>26480</v>
+        <v>26071</v>
       </c>
       <c r="E704" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>01/07/2000</t>
+          <t>01/02/2000</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
@@ -18052,7 +18052,7 @@
         </is>
       </c>
       <c r="D705" t="n">
-        <v>26914</v>
+        <v>25123</v>
       </c>
       <c r="E705" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>01/06/2000</t>
+          <t>01/01/2000</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
@@ -18077,7 +18077,7 @@
         </is>
       </c>
       <c r="D706" t="n">
-        <v>26044</v>
+        <v>26480</v>
       </c>
       <c r="E706" t="inlineStr">
         <is>
@@ -18088,7 +18088,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>01/05/2000</t>
+          <t>01/07/2000</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
@@ -18102,7 +18102,7 @@
         </is>
       </c>
       <c r="D707" t="n">
-        <v>26406</v>
+        <v>26914</v>
       </c>
       <c r="E707" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>01/03/2000</t>
+          <t>01/06/2000</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
@@ -18127,7 +18127,7 @@
         </is>
       </c>
       <c r="D708" t="n">
-        <v>26572</v>
+        <v>26044</v>
       </c>
       <c r="E708" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>01/11/2000</t>
+          <t>01/05/2000</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
@@ -18152,7 +18152,7 @@
         </is>
       </c>
       <c r="D709" t="n">
-        <v>13928</v>
+        <v>26406</v>
       </c>
       <c r="E709" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>01/10/2000</t>
+          <t>01/03/2000</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
@@ -18177,7 +18177,7 @@
         </is>
       </c>
       <c r="D710" t="n">
-        <v>26965</v>
+        <v>26572</v>
       </c>
       <c r="E710" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>01/09/2000</t>
+          <t>01/11/2000</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
@@ -18202,7 +18202,7 @@
         </is>
       </c>
       <c r="D711" t="n">
-        <v>26129</v>
+        <v>13928</v>
       </c>
       <c r="E711" t="inlineStr">
         <is>
@@ -18213,7 +18213,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>01/04/2001</t>
+          <t>01/10/2000</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
@@ -18227,7 +18227,7 @@
         </is>
       </c>
       <c r="D712" t="n">
-        <v>18378</v>
+        <v>26965</v>
       </c>
       <c r="E712" t="inlineStr">
         <is>
@@ -18238,7 +18238,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>01/08/2001</t>
+          <t>01/09/2000</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
@@ -18252,7 +18252,7 @@
         </is>
       </c>
       <c r="D713" t="n">
-        <v>26465</v>
+        <v>26129</v>
       </c>
       <c r="E713" t="inlineStr">
         <is>
@@ -18263,7 +18263,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>01/12/2001</t>
+          <t>01/04/2001</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
@@ -18277,7 +18277,7 @@
         </is>
       </c>
       <c r="D714" t="n">
-        <v>26876</v>
+        <v>18378</v>
       </c>
       <c r="E714" t="inlineStr">
         <is>
@@ -18288,7 +18288,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>01/02/2001</t>
+          <t>01/08/2001</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
@@ -18302,7 +18302,7 @@
         </is>
       </c>
       <c r="D715" t="n">
-        <v>23797</v>
+        <v>26465</v>
       </c>
       <c r="E715" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>01/01/2001</t>
+          <t>01/12/2001</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D716" t="n">
-        <v>26536</v>
+        <v>26876</v>
       </c>
       <c r="E716" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>01/07/2001</t>
+          <t>01/02/2001</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
@@ -18352,7 +18352,7 @@
         </is>
       </c>
       <c r="D717" t="n">
-        <v>27236</v>
+        <v>23797</v>
       </c>
       <c r="E717" t="inlineStr">
         <is>
@@ -18363,7 +18363,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>01/06/2001</t>
+          <t>01/01/2001</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
@@ -18377,7 +18377,7 @@
         </is>
       </c>
       <c r="D718" t="n">
-        <v>25806</v>
+        <v>26536</v>
       </c>
       <c r="E718" t="inlineStr">
         <is>
@@ -18388,7 +18388,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>01/05/2001</t>
+          <t>01/07/2001</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
@@ -18402,7 +18402,7 @@
         </is>
       </c>
       <c r="D719" t="n">
-        <v>22691</v>
+        <v>27236</v>
       </c>
       <c r="E719" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>01/03/2001</t>
+          <t>01/06/2001</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
@@ -18427,7 +18427,7 @@
         </is>
       </c>
       <c r="D720" t="n">
-        <v>25605</v>
+        <v>25806</v>
       </c>
       <c r="E720" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>01/11/2001</t>
+          <t>01/05/2001</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
@@ -18452,7 +18452,7 @@
         </is>
       </c>
       <c r="D721" t="n">
-        <v>25852</v>
+        <v>22691</v>
       </c>
       <c r="E721" t="inlineStr">
         <is>
@@ -18463,7 +18463,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>01/10/2001</t>
+          <t>01/03/2001</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D722" t="n">
-        <v>26322</v>
+        <v>25605</v>
       </c>
       <c r="E722" t="inlineStr">
         <is>
@@ -18488,7 +18488,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>01/09/2001</t>
+          <t>01/11/2001</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
@@ -18502,7 +18502,7 @@
         </is>
       </c>
       <c r="D723" t="n">
-        <v>23625</v>
+        <v>25852</v>
       </c>
       <c r="E723" t="inlineStr">
         <is>
@@ -18513,7 +18513,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>01/04/2002</t>
+          <t>01/10/2001</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
@@ -18527,7 +18527,7 @@
         </is>
       </c>
       <c r="D724" t="n">
-        <v>23065</v>
+        <v>26322</v>
       </c>
       <c r="E724" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>01/08/2002</t>
+          <t>01/09/2001</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
@@ -18552,7 +18552,7 @@
         </is>
       </c>
       <c r="D725" t="n">
-        <v>25580</v>
+        <v>23625</v>
       </c>
       <c r="E725" t="inlineStr">
         <is>
@@ -18563,7 +18563,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>01/12/2002</t>
+          <t>01/04/2002</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
@@ -18577,7 +18577,7 @@
         </is>
       </c>
       <c r="D726" t="n">
-        <v>24957</v>
+        <v>23065</v>
       </c>
       <c r="E726" t="inlineStr">
         <is>
@@ -18588,7 +18588,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>01/02/2002</t>
+          <t>01/08/2002</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
@@ -18602,7 +18602,7 @@
         </is>
       </c>
       <c r="D727" t="n">
-        <v>24096</v>
+        <v>25580</v>
       </c>
       <c r="E727" t="inlineStr">
         <is>
@@ -18613,7 +18613,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>01/01/2002</t>
+          <t>01/12/2002</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
@@ -18627,7 +18627,7 @@
         </is>
       </c>
       <c r="D728" t="n">
-        <v>27239</v>
+        <v>24957</v>
       </c>
       <c r="E728" t="inlineStr">
         <is>
@@ -18638,7 +18638,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>01/07/2002</t>
+          <t>01/02/2002</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
@@ -18652,7 +18652,7 @@
         </is>
       </c>
       <c r="D729" t="n">
-        <v>25911</v>
+        <v>24096</v>
       </c>
       <c r="E729" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>01/06/2002</t>
+          <t>01/01/2002</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
@@ -18677,7 +18677,7 @@
         </is>
       </c>
       <c r="D730" t="n">
-        <v>24854</v>
+        <v>27239</v>
       </c>
       <c r="E730" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>01/05/2002</t>
+          <t>01/07/2002</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
@@ -18702,7 +18702,7 @@
         </is>
       </c>
       <c r="D731" t="n">
-        <v>24983</v>
+        <v>25911</v>
       </c>
       <c r="E731" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>01/03/2002</t>
+          <t>01/06/2002</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D732" t="n">
-        <v>25381</v>
+        <v>24854</v>
       </c>
       <c r="E732" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>01/11/2002</t>
+          <t>01/05/2002</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
@@ -18752,7 +18752,7 @@
         </is>
       </c>
       <c r="D733" t="n">
-        <v>24648</v>
+        <v>24983</v>
       </c>
       <c r="E733" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>01/10/2002</t>
+          <t>01/03/2002</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
@@ -18777,7 +18777,7 @@
         </is>
       </c>
       <c r="D734" t="n">
-        <v>24992</v>
+        <v>25381</v>
       </c>
       <c r="E734" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>01/09/2002</t>
+          <t>01/11/2002</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
@@ -18802,7 +18802,7 @@
         </is>
       </c>
       <c r="D735" t="n">
-        <v>24400</v>
+        <v>24648</v>
       </c>
       <c r="E735" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>01/04/2003</t>
+          <t>01/10/2002</t>
         </is>
       </c>
       <c r="B736" t="inlineStr">
@@ -18827,7 +18827,7 @@
         </is>
       </c>
       <c r="D736" t="n">
-        <v>20841</v>
+        <v>24992</v>
       </c>
       <c r="E736" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>01/08/2003</t>
+          <t>01/09/2002</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
@@ -18852,7 +18852,7 @@
         </is>
       </c>
       <c r="D737" t="n">
-        <v>25463</v>
+        <v>24400</v>
       </c>
       <c r="E737" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>01/12/2003</t>
+          <t>01/04/2003</t>
         </is>
       </c>
       <c r="B738" t="inlineStr">
@@ -18877,7 +18877,7 @@
         </is>
       </c>
       <c r="D738" t="n">
-        <v>24965</v>
+        <v>20841</v>
       </c>
       <c r="E738" t="inlineStr">
         <is>
@@ -18888,7 +18888,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>01/02/2003</t>
+          <t>01/08/2003</t>
         </is>
       </c>
       <c r="B739" t="inlineStr">
@@ -18902,7 +18902,7 @@
         </is>
       </c>
       <c r="D739" t="n">
-        <v>20388</v>
+        <v>25463</v>
       </c>
       <c r="E739" t="inlineStr">
         <is>
@@ -18913,7 +18913,7 @@
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>01/01/2003</t>
+          <t>01/12/2003</t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
@@ -18927,7 +18927,7 @@
         </is>
       </c>
       <c r="D740" t="n">
-        <v>24971</v>
+        <v>24965</v>
       </c>
       <c r="E740" t="inlineStr">
         <is>
@@ -18938,7 +18938,7 @@
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>01/07/2003</t>
+          <t>01/02/2003</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
@@ -18952,7 +18952,7 @@
         </is>
       </c>
       <c r="D741" t="n">
-        <v>23560</v>
+        <v>20388</v>
       </c>
       <c r="E741" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>01/06/2003</t>
+          <t>01/01/2003</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
@@ -18977,7 +18977,7 @@
         </is>
       </c>
       <c r="D742" t="n">
-        <v>22761</v>
+        <v>24971</v>
       </c>
       <c r="E742" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>01/05/2003</t>
+          <t>01/07/2003</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
@@ -19002,7 +19002,7 @@
         </is>
       </c>
       <c r="D743" t="n">
-        <v>23510</v>
+        <v>23560</v>
       </c>
       <c r="E743" t="inlineStr">
         <is>
@@ -19013,7 +19013,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>01/03/2003</t>
+          <t>01/06/2003</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="D744" t="n">
-        <v>25907</v>
+        <v>22761</v>
       </c>
       <c r="E744" t="inlineStr">
         <is>
@@ -19038,7 +19038,7 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>01/11/2003</t>
+          <t>01/05/2003</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
@@ -19052,7 +19052,7 @@
         </is>
       </c>
       <c r="D745" t="n">
-        <v>24041</v>
+        <v>23510</v>
       </c>
       <c r="E745" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>01/10/2003</t>
+          <t>01/03/2003</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
@@ -19077,7 +19077,7 @@
         </is>
       </c>
       <c r="D746" t="n">
-        <v>24023</v>
+        <v>25907</v>
       </c>
       <c r="E746" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>01/09/2003</t>
+          <t>01/11/2003</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
@@ -19102,7 +19102,7 @@
         </is>
       </c>
       <c r="D747" t="n">
-        <v>24294</v>
+        <v>24041</v>
       </c>
       <c r="E747" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>01/04/2004</t>
+          <t>01/10/2003</t>
         </is>
       </c>
       <c r="B748" t="inlineStr">
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D748" t="n">
-        <v>24411</v>
+        <v>24023</v>
       </c>
       <c r="E748" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>01/08/2004</t>
+          <t>01/09/2003</t>
         </is>
       </c>
       <c r="B749" t="inlineStr">
@@ -19152,7 +19152,7 @@
         </is>
       </c>
       <c r="D749" t="n">
-        <v>25873</v>
+        <v>24294</v>
       </c>
       <c r="E749" t="inlineStr">
         <is>
@@ -19163,7 +19163,7 @@
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>01/12/2004</t>
+          <t>01/04/2004</t>
         </is>
       </c>
       <c r="B750" t="inlineStr">
@@ -19177,7 +19177,7 @@
         </is>
       </c>
       <c r="D750" t="n">
-        <v>25343</v>
+        <v>24411</v>
       </c>
       <c r="E750" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>01/02/2004</t>
+          <t>01/08/2004</t>
         </is>
       </c>
       <c r="B751" t="inlineStr">
@@ -19202,7 +19202,7 @@
         </is>
       </c>
       <c r="D751" t="n">
-        <v>23497</v>
+        <v>25873</v>
       </c>
       <c r="E751" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>01/01/2004</t>
+          <t>01/12/2004</t>
         </is>
       </c>
       <c r="B752" t="inlineStr">
@@ -19227,7 +19227,7 @@
         </is>
       </c>
       <c r="D752" t="n">
-        <v>23975</v>
+        <v>25343</v>
       </c>
       <c r="E752" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>01/02/2004</t>
         </is>
       </c>
       <c r="B753" t="inlineStr">
@@ -19252,7 +19252,7 @@
         </is>
       </c>
       <c r="D753" t="n">
-        <v>24979</v>
+        <v>23497</v>
       </c>
       <c r="E753" t="inlineStr">
         <is>
@@ -19263,7 +19263,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>01/06/2004</t>
+          <t>01/01/2004</t>
         </is>
       </c>
       <c r="B754" t="inlineStr">
@@ -19277,7 +19277,7 @@
         </is>
       </c>
       <c r="D754" t="n">
-        <v>23413</v>
+        <v>23975</v>
       </c>
       <c r="E754" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>01/05/2004</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="B755" t="inlineStr">
@@ -19302,7 +19302,7 @@
         </is>
       </c>
       <c r="D755" t="n">
-        <v>21313</v>
+        <v>24979</v>
       </c>
       <c r="E755" t="inlineStr">
         <is>
@@ -19313,7 +19313,7 @@
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>01/03/2004</t>
+          <t>01/06/2004</t>
         </is>
       </c>
       <c r="B756" t="inlineStr">
@@ -19327,7 +19327,7 @@
         </is>
       </c>
       <c r="D756" t="n">
-        <v>25118</v>
+        <v>23413</v>
       </c>
       <c r="E756" t="inlineStr">
         <is>
@@ -19338,7 +19338,7 @@
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>01/11/2004</t>
+          <t>01/05/2004</t>
         </is>
       </c>
       <c r="B757" t="inlineStr">
@@ -19352,7 +19352,7 @@
         </is>
       </c>
       <c r="D757" t="n">
-        <v>24463</v>
+        <v>21313</v>
       </c>
       <c r="E757" t="inlineStr">
         <is>
@@ -19363,7 +19363,7 @@
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>01/10/2004</t>
+          <t>01/03/2004</t>
         </is>
       </c>
       <c r="B758" t="inlineStr">
@@ -19377,7 +19377,7 @@
         </is>
       </c>
       <c r="D758" t="n">
-        <v>25566</v>
+        <v>25118</v>
       </c>
       <c r="E758" t="inlineStr">
         <is>
@@ -19388,7 +19388,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>01/09/2004</t>
+          <t>01/11/2004</t>
         </is>
       </c>
       <c r="B759" t="inlineStr">
@@ -19402,7 +19402,7 @@
         </is>
       </c>
       <c r="D759" t="n">
-        <v>24720</v>
+        <v>24463</v>
       </c>
       <c r="E759" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>01/04/2005</t>
+          <t>01/10/2004</t>
         </is>
       </c>
       <c r="B760" t="inlineStr">
@@ -19427,7 +19427,7 @@
         </is>
       </c>
       <c r="D760" t="n">
-        <v>23924</v>
+        <v>25566</v>
       </c>
       <c r="E760" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>01/08/2005</t>
+          <t>01/09/2004</t>
         </is>
       </c>
       <c r="B761" t="inlineStr">
@@ -19452,7 +19452,7 @@
         </is>
       </c>
       <c r="D761" t="n">
-        <v>25213</v>
+        <v>24720</v>
       </c>
       <c r="E761" t="inlineStr">
         <is>
@@ -19463,7 +19463,7 @@
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>01/12/2005</t>
+          <t>01/04/2005</t>
         </is>
       </c>
       <c r="B762" t="inlineStr">
@@ -19477,7 +19477,7 @@
         </is>
       </c>
       <c r="D762" t="n">
-        <v>24602</v>
+        <v>23924</v>
       </c>
       <c r="E762" t="inlineStr">
         <is>
@@ -19488,7 +19488,7 @@
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>01/02/2005</t>
+          <t>01/08/2005</t>
         </is>
       </c>
       <c r="B763" t="inlineStr">
@@ -19502,7 +19502,7 @@
         </is>
       </c>
       <c r="D763" t="n">
-        <v>22710</v>
+        <v>25213</v>
       </c>
       <c r="E763" t="inlineStr">
         <is>
@@ -19513,7 +19513,7 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>01/01/2005</t>
+          <t>01/12/2005</t>
         </is>
       </c>
       <c r="B764" t="inlineStr">
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D764" t="n">
-        <v>24972</v>
+        <v>24602</v>
       </c>
       <c r="E764" t="inlineStr">
         <is>
@@ -19538,7 +19538,7 @@
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>01/07/2005</t>
+          <t>01/02/2005</t>
         </is>
       </c>
       <c r="B765" t="inlineStr">
@@ -19552,7 +19552,7 @@
         </is>
       </c>
       <c r="D765" t="n">
-        <v>25582</v>
+        <v>22710</v>
       </c>
       <c r="E765" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>01/06/2005</t>
+          <t>01/01/2005</t>
         </is>
       </c>
       <c r="B766" t="inlineStr">
@@ -19577,7 +19577,7 @@
         </is>
       </c>
       <c r="D766" t="n">
-        <v>24359</v>
+        <v>24972</v>
       </c>
       <c r="E766" t="inlineStr">
         <is>
@@ -19588,7 +19588,7 @@
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>01/05/2005</t>
+          <t>01/07/2005</t>
         </is>
       </c>
       <c r="B767" t="inlineStr">
@@ -19602,7 +19602,7 @@
         </is>
       </c>
       <c r="D767" t="n">
-        <v>24053</v>
+        <v>25582</v>
       </c>
       <c r="E767" t="inlineStr">
         <is>
@@ -19613,7 +19613,7 @@
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>01/03/2005</t>
+          <t>01/06/2005</t>
         </is>
       </c>
       <c r="B768" t="inlineStr">
@@ -19627,7 +19627,7 @@
         </is>
       </c>
       <c r="D768" t="n">
-        <v>24836</v>
+        <v>24359</v>
       </c>
       <c r="E768" t="inlineStr">
         <is>
@@ -19638,7 +19638,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>01/11/2005</t>
+          <t>01/05/2005</t>
         </is>
       </c>
       <c r="B769" t="inlineStr">
@@ -19652,7 +19652,7 @@
         </is>
       </c>
       <c r="D769" t="n">
-        <v>24169</v>
+        <v>24053</v>
       </c>
       <c r="E769" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>01/10/2005</t>
+          <t>01/03/2005</t>
         </is>
       </c>
       <c r="B770" t="inlineStr">
@@ -19677,7 +19677,7 @@
         </is>
       </c>
       <c r="D770" t="n">
-        <v>26281</v>
+        <v>24836</v>
       </c>
       <c r="E770" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>01/09/2005</t>
+          <t>01/11/2005</t>
         </is>
       </c>
       <c r="B771" t="inlineStr">
@@ -19702,7 +19702,7 @@
         </is>
       </c>
       <c r="D771" t="n">
-        <v>24180</v>
+        <v>24169</v>
       </c>
       <c r="E771" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>01/04/2006</t>
+          <t>01/10/2005</t>
         </is>
       </c>
       <c r="B772" t="inlineStr">
@@ -19727,7 +19727,7 @@
         </is>
       </c>
       <c r="D772" t="n">
-        <v>24527</v>
+        <v>26281</v>
       </c>
       <c r="E772" t="inlineStr">
         <is>
@@ -19738,7 +19738,7 @@
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>01/08/2006</t>
+          <t>01/09/2005</t>
         </is>
       </c>
       <c r="B773" t="inlineStr">
@@ -19752,7 +19752,7 @@
         </is>
       </c>
       <c r="D773" t="n">
-        <v>25491</v>
+        <v>24180</v>
       </c>
       <c r="E773" t="inlineStr">
         <is>
@@ -19763,7 +19763,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>01/12/2006</t>
+          <t>01/04/2006</t>
         </is>
       </c>
       <c r="B774" t="inlineStr">
@@ -19777,7 +19777,7 @@
         </is>
       </c>
       <c r="D774" t="n">
-        <v>25271</v>
+        <v>24527</v>
       </c>
       <c r="E774" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>01/02/2006</t>
+          <t>01/08/2006</t>
         </is>
       </c>
       <c r="B775" t="inlineStr">
@@ -19802,7 +19802,7 @@
         </is>
       </c>
       <c r="D775" t="n">
-        <v>23056</v>
+        <v>25491</v>
       </c>
       <c r="E775" t="inlineStr">
         <is>
@@ -19813,7 +19813,7 @@
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>01/01/2006</t>
+          <t>01/12/2006</t>
         </is>
       </c>
       <c r="B776" t="inlineStr">
@@ -19827,7 +19827,7 @@
         </is>
       </c>
       <c r="D776" t="n">
-        <v>24843</v>
+        <v>25271</v>
       </c>
       <c r="E776" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>01/07/2006</t>
+          <t>01/02/2006</t>
         </is>
       </c>
       <c r="B777" t="inlineStr">
@@ -19852,7 +19852,7 @@
         </is>
       </c>
       <c r="D777" t="n">
-        <v>25344</v>
+        <v>23056</v>
       </c>
       <c r="E777" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>01/06/2006</t>
+          <t>01/01/2006</t>
         </is>
       </c>
       <c r="B778" t="inlineStr">
@@ -19877,7 +19877,7 @@
         </is>
       </c>
       <c r="D778" t="n">
-        <v>25090</v>
+        <v>24843</v>
       </c>
       <c r="E778" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>01/05/2006</t>
+          <t>01/07/2006</t>
         </is>
       </c>
       <c r="B779" t="inlineStr">
@@ -19902,7 +19902,7 @@
         </is>
       </c>
       <c r="D779" t="n">
-        <v>25719</v>
+        <v>25344</v>
       </c>
       <c r="E779" t="inlineStr">
         <is>
@@ -19913,7 +19913,7 @@
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>01/03/2006</t>
+          <t>01/06/2006</t>
         </is>
       </c>
       <c r="B780" t="inlineStr">
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D780" t="n">
-        <v>11740</v>
+        <v>25090</v>
       </c>
       <c r="E780" t="inlineStr">
         <is>
@@ -19938,7 +19938,7 @@
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>01/11/2006</t>
+          <t>01/05/2006</t>
         </is>
       </c>
       <c r="B781" t="inlineStr">
@@ -19952,7 +19952,7 @@
         </is>
       </c>
       <c r="D781" t="n">
-        <v>23278</v>
+        <v>25719</v>
       </c>
       <c r="E781" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>01/10/2006</t>
+          <t>01/03/2006</t>
         </is>
       </c>
       <c r="B782" t="inlineStr">
@@ -19977,7 +19977,7 @@
         </is>
       </c>
       <c r="D782" t="n">
-        <v>23622</v>
+        <v>11740</v>
       </c>
       <c r="E782" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>01/09/2006</t>
+          <t>01/11/2006</t>
         </is>
       </c>
       <c r="B783" t="inlineStr">
@@ -20002,7 +20002,7 @@
         </is>
       </c>
       <c r="D783" t="n">
-        <v>24562</v>
+        <v>23278</v>
       </c>
       <c r="E783" t="inlineStr">
         <is>
@@ -20013,7 +20013,7 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>01/04/2007</t>
+          <t>01/10/2006</t>
         </is>
       </c>
       <c r="B784" t="inlineStr">
@@ -20027,7 +20027,7 @@
         </is>
       </c>
       <c r="D784" t="n">
-        <v>21384</v>
+        <v>23622</v>
       </c>
       <c r="E784" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>01/08/2007</t>
+          <t>01/09/2006</t>
         </is>
       </c>
       <c r="B785" t="inlineStr">
@@ -20052,7 +20052,7 @@
         </is>
       </c>
       <c r="D785" t="n">
-        <v>23805</v>
+        <v>24562</v>
       </c>
       <c r="E785" t="inlineStr">
         <is>
@@ -20063,7 +20063,7 @@
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>01/12/2007</t>
+          <t>01/04/2007</t>
         </is>
       </c>
       <c r="B786" t="inlineStr">
@@ -20077,7 +20077,7 @@
         </is>
       </c>
       <c r="D786" t="n">
-        <v>22898</v>
+        <v>21384</v>
       </c>
       <c r="E786" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>01/02/2007</t>
+          <t>01/08/2007</t>
         </is>
       </c>
       <c r="B787" t="inlineStr">
@@ -20102,7 +20102,7 @@
         </is>
       </c>
       <c r="D787" t="n">
-        <v>21968</v>
+        <v>23805</v>
       </c>
       <c r="E787" t="inlineStr">
         <is>
@@ -20113,7 +20113,7 @@
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>01/01/2007</t>
+          <t>01/12/2007</t>
         </is>
       </c>
       <c r="B788" t="inlineStr">
@@ -20127,7 +20127,7 @@
         </is>
       </c>
       <c r="D788" t="n">
-        <v>25496</v>
+        <v>22898</v>
       </c>
       <c r="E788" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>01/07/2007</t>
+          <t>01/02/2007</t>
         </is>
       </c>
       <c r="B789" t="inlineStr">
@@ -20152,7 +20152,7 @@
         </is>
       </c>
       <c r="D789" t="n">
-        <v>23875</v>
+        <v>21968</v>
       </c>
       <c r="E789" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>01/06/2007</t>
+          <t>01/01/2007</t>
         </is>
       </c>
       <c r="B790" t="inlineStr">
@@ -20177,7 +20177,7 @@
         </is>
       </c>
       <c r="D790" t="n">
-        <v>22080</v>
+        <v>25496</v>
       </c>
       <c r="E790" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>01/05/2007</t>
+          <t>01/07/2007</t>
         </is>
       </c>
       <c r="B791" t="inlineStr">
@@ -20202,7 +20202,7 @@
         </is>
       </c>
       <c r="D791" t="n">
-        <v>18737</v>
+        <v>23875</v>
       </c>
       <c r="E791" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>01/03/2007</t>
+          <t>01/06/2007</t>
         </is>
       </c>
       <c r="B792" t="inlineStr">
@@ -20227,7 +20227,7 @@
         </is>
       </c>
       <c r="D792" t="n">
-        <v>24212</v>
+        <v>22080</v>
       </c>
       <c r="E792" t="inlineStr">
         <is>
@@ -20238,7 +20238,7 @@
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>01/11/2007</t>
+          <t>01/05/2007</t>
         </is>
       </c>
       <c r="B793" t="inlineStr">
@@ -20252,7 +20252,7 @@
         </is>
       </c>
       <c r="D793" t="n">
-        <v>22033</v>
+        <v>18737</v>
       </c>
       <c r="E793" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>01/10/2007</t>
+          <t>01/03/2007</t>
         </is>
       </c>
       <c r="B794" t="inlineStr">
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D794" t="n">
-        <v>23866</v>
+        <v>24212</v>
       </c>
       <c r="E794" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>01/09/2007</t>
+          <t>01/11/2007</t>
         </is>
       </c>
       <c r="B795" t="inlineStr">
@@ -20302,7 +20302,7 @@
         </is>
       </c>
       <c r="D795" t="n">
-        <v>24017</v>
+        <v>22033</v>
       </c>
       <c r="E795" t="inlineStr">
         <is>
@@ -20313,7 +20313,7 @@
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>01/04/2008</t>
+          <t>01/10/2007</t>
         </is>
       </c>
       <c r="B796" t="inlineStr">
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D796" t="n">
-        <v>22341</v>
+        <v>23866</v>
       </c>
       <c r="E796" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>01/08/2008</t>
+          <t>01/09/2007</t>
         </is>
       </c>
       <c r="B797" t="inlineStr">
@@ -20352,7 +20352,7 @@
         </is>
       </c>
       <c r="D797" t="n">
-        <v>23413.9993</v>
+        <v>24017</v>
       </c>
       <c r="E797" t="inlineStr">
         <is>
@@ -20363,7 +20363,7 @@
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>01/12/2008</t>
+          <t>01/04/2008</t>
         </is>
       </c>
       <c r="B798" t="inlineStr">
@@ -20377,7 +20377,7 @@
         </is>
       </c>
       <c r="D798" t="n">
-        <v>21243.0011</v>
+        <v>22341</v>
       </c>
       <c r="E798" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>01/02/2008</t>
+          <t>01/08/2008</t>
         </is>
       </c>
       <c r="B799" t="inlineStr">
@@ -20402,7 +20402,7 @@
         </is>
       </c>
       <c r="D799" t="n">
-        <v>20461</v>
+        <v>23413.9993</v>
       </c>
       <c r="E799" t="inlineStr">
         <is>
@@ -20413,7 +20413,7 @@
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>01/01/2008</t>
+          <t>01/12/2008</t>
         </is>
       </c>
       <c r="B800" t="inlineStr">
@@ -20427,7 +20427,7 @@
         </is>
       </c>
       <c r="D800" t="n">
-        <v>22454</v>
+        <v>21243.0011</v>
       </c>
       <c r="E800" t="inlineStr">
         <is>
@@ -20438,7 +20438,7 @@
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>01/07/2008</t>
+          <t>01/02/2008</t>
         </is>
       </c>
       <c r="B801" t="inlineStr">
@@ -20452,7 +20452,7 @@
         </is>
       </c>
       <c r="D801" t="n">
-        <v>22084.0001</v>
+        <v>20461</v>
       </c>
       <c r="E801" t="inlineStr">
         <is>
@@ -20463,7 +20463,7 @@
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>01/06/2008</t>
+          <t>01/01/2008</t>
         </is>
       </c>
       <c r="B802" t="inlineStr">
@@ -20477,7 +20477,7 @@
         </is>
       </c>
       <c r="D802" t="n">
-        <v>21446.001</v>
+        <v>22454</v>
       </c>
       <c r="E802" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>01/05/2008</t>
+          <t>01/07/2008</t>
         </is>
       </c>
       <c r="B803" t="inlineStr">
@@ -20502,7 +20502,7 @@
         </is>
       </c>
       <c r="D803" t="n">
-        <v>22333</v>
+        <v>22084.0001</v>
       </c>
       <c r="E803" t="inlineStr">
         <is>
@@ -20513,7 +20513,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>01/03/2008</t>
+          <t>01/06/2008</t>
         </is>
       </c>
       <c r="B804" t="inlineStr">
@@ -20527,7 +20527,7 @@
         </is>
       </c>
       <c r="D804" t="n">
-        <v>22425</v>
+        <v>21446.001</v>
       </c>
       <c r="E804" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>01/11/2008</t>
+          <t>01/05/2008</t>
         </is>
       </c>
       <c r="B805" t="inlineStr">
@@ -20552,7 +20552,7 @@
         </is>
       </c>
       <c r="D805" t="n">
-        <v>20454</v>
+        <v>22333</v>
       </c>
       <c r="E805" t="inlineStr">
         <is>
@@ -20563,7 +20563,7 @@
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>01/03/2008</t>
         </is>
       </c>
       <c r="B806" t="inlineStr">
@@ -20577,7 +20577,7 @@
         </is>
       </c>
       <c r="D806" t="n">
-        <v>19738.9989</v>
+        <v>22425</v>
       </c>
       <c r="E806" t="inlineStr">
         <is>
@@ -20588,7 +20588,7 @@
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>01/09/2008</t>
+          <t>01/11/2008</t>
         </is>
       </c>
       <c r="B807" t="inlineStr">
@@ -20602,7 +20602,7 @@
         </is>
       </c>
       <c r="D807" t="n">
-        <v>21581.001</v>
+        <v>20454</v>
       </c>
       <c r="E807" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>01/04/2009</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="B808" t="inlineStr">
@@ -20627,7 +20627,7 @@
         </is>
       </c>
       <c r="D808" t="n">
-        <v>20352.999</v>
+        <v>19738.9989</v>
       </c>
       <c r="E808" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>01/08/2009</t>
+          <t>01/09/2008</t>
         </is>
       </c>
       <c r="B809" t="inlineStr">
@@ -20652,7 +20652,7 @@
         </is>
       </c>
       <c r="D809" t="n">
-        <v>19636.0014</v>
+        <v>21581.001</v>
       </c>
       <c r="E809" t="inlineStr">
         <is>
@@ -20663,7 +20663,7 @@
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>01/12/2009</t>
+          <t>01/04/2009</t>
         </is>
       </c>
       <c r="B810" t="inlineStr">
@@ -20677,7 +20677,7 @@
         </is>
       </c>
       <c r="D810" t="n">
-        <v>20058.9995</v>
+        <v>20352.999</v>
       </c>
       <c r="E810" t="inlineStr">
         <is>
@@ -20688,7 +20688,7 @@
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>01/02/2009</t>
+          <t>01/08/2009</t>
         </is>
       </c>
       <c r="B811" t="inlineStr">
@@ -20702,7 +20702,7 @@
         </is>
       </c>
       <c r="D811" t="n">
-        <v>18858.9996</v>
+        <v>19636.0014</v>
       </c>
       <c r="E811" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>01/01/2009</t>
+          <t>01/12/2009</t>
         </is>
       </c>
       <c r="B812" t="inlineStr">
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D812" t="n">
-        <v>22225.0005</v>
+        <v>20058.9995</v>
       </c>
       <c r="E812" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>01/07/2009</t>
+          <t>01/02/2009</t>
         </is>
       </c>
       <c r="B813" t="inlineStr">
@@ -20752,7 +20752,7 @@
         </is>
       </c>
       <c r="D813" t="n">
-        <v>20578.0015</v>
+        <v>18858.9996</v>
       </c>
       <c r="E813" t="inlineStr">
         <is>
@@ -20763,7 +20763,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>01/06/2009</t>
+          <t>01/01/2009</t>
         </is>
       </c>
       <c r="B814" t="inlineStr">
@@ -20777,7 +20777,7 @@
         </is>
       </c>
       <c r="D814" t="n">
-        <v>20096.001</v>
+        <v>22225.0005</v>
       </c>
       <c r="E814" t="inlineStr">
         <is>
@@ -20788,7 +20788,7 @@
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>01/05/2009</t>
+          <t>01/07/2009</t>
         </is>
       </c>
       <c r="B815" t="inlineStr">
@@ -20802,7 +20802,7 @@
         </is>
       </c>
       <c r="D815" t="n">
-        <v>20487.001</v>
+        <v>20578.0015</v>
       </c>
       <c r="E815" t="inlineStr">
         <is>
@@ -20813,7 +20813,7 @@
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>01/03/2009</t>
+          <t>01/06/2009</t>
         </is>
       </c>
       <c r="B816" t="inlineStr">
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="D816" t="n">
-        <v>21078.9987</v>
+        <v>20096.001</v>
       </c>
       <c r="E816" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>01/11/2009</t>
+          <t>01/05/2009</t>
         </is>
       </c>
       <c r="B817" t="inlineStr">
@@ -20852,7 +20852,7 @@
         </is>
       </c>
       <c r="D817" t="n">
-        <v>19530</v>
+        <v>20487.001</v>
       </c>
       <c r="E817" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>01/10/2009</t>
+          <t>01/03/2009</t>
         </is>
       </c>
       <c r="B818" t="inlineStr">
@@ -20877,7 +20877,7 @@
         </is>
       </c>
       <c r="D818" t="n">
-        <v>19538.0011</v>
+        <v>21078.9987</v>
       </c>
       <c r="E818" t="inlineStr">
         <is>
@@ -20888,7 +20888,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>01/09/2009</t>
+          <t>01/11/2009</t>
         </is>
       </c>
       <c r="B819" t="inlineStr">
@@ -20902,7 +20902,7 @@
         </is>
       </c>
       <c r="D819" t="n">
-        <v>19464</v>
+        <v>19530</v>
       </c>
       <c r="E819" t="inlineStr">
         <is>
@@ -20913,7 +20913,7 @@
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>01/04/2010</t>
+          <t>01/10/2009</t>
         </is>
       </c>
       <c r="B820" t="inlineStr">
@@ -20927,7 +20927,7 @@
         </is>
       </c>
       <c r="D820" t="n">
-        <v>18477</v>
+        <v>19538.0011</v>
       </c>
       <c r="E820" t="inlineStr">
         <is>
@@ -20938,7 +20938,7 @@
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>01/08/2010</t>
+          <t>01/09/2009</t>
         </is>
       </c>
       <c r="B821" t="inlineStr">
@@ -20952,7 +20952,7 @@
         </is>
       </c>
       <c r="D821" t="n">
-        <v>19472</v>
+        <v>19464</v>
       </c>
       <c r="E821" t="inlineStr">
         <is>
@@ -20963,7 +20963,7 @@
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>01/12/2010</t>
+          <t>01/04/2010</t>
         </is>
       </c>
       <c r="B822" t="inlineStr">
@@ -20977,7 +20977,7 @@
         </is>
       </c>
       <c r="D822" t="n">
-        <v>19253</v>
+        <v>18477</v>
       </c>
       <c r="E822" t="inlineStr">
         <is>
@@ -20988,7 +20988,7 @@
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>01/02/2010</t>
+          <t>01/08/2010</t>
         </is>
       </c>
       <c r="B823" t="inlineStr">
@@ -21002,7 +21002,7 @@
         </is>
       </c>
       <c r="D823" t="n">
-        <v>17250</v>
+        <v>19472</v>
       </c>
       <c r="E823" t="inlineStr">
         <is>
@@ -21013,7 +21013,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>01/01/2010</t>
+          <t>01/12/2010</t>
         </is>
       </c>
       <c r="B824" t="inlineStr">
@@ -21027,7 +21027,7 @@
         </is>
       </c>
       <c r="D824" t="n">
-        <v>19822</v>
+        <v>19253</v>
       </c>
       <c r="E824" t="inlineStr">
         <is>
@@ -21038,7 +21038,7 @@
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>01/07/2010</t>
+          <t>01/02/2010</t>
         </is>
       </c>
       <c r="B825" t="inlineStr">
@@ -21052,7 +21052,7 @@
         </is>
       </c>
       <c r="D825" t="n">
-        <v>19943</v>
+        <v>17250</v>
       </c>
       <c r="E825" t="inlineStr">
         <is>
@@ -21063,7 +21063,7 @@
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>01/06/2010</t>
+          <t>01/01/2010</t>
         </is>
       </c>
       <c r="B826" t="inlineStr">
@@ -21077,7 +21077,7 @@
         </is>
       </c>
       <c r="D826" t="n">
-        <v>18899</v>
+        <v>19822</v>
       </c>
       <c r="E826" t="inlineStr">
         <is>
@@ -21088,7 +21088,7 @@
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>01/05/2010</t>
+          <t>01/07/2010</t>
         </is>
       </c>
       <c r="B827" t="inlineStr">
@@ -21102,7 +21102,7 @@
         </is>
       </c>
       <c r="D827" t="n">
-        <v>19225</v>
+        <v>19943</v>
       </c>
       <c r="E827" t="inlineStr">
         <is>
@@ -21113,7 +21113,7 @@
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>01/03/2010</t>
+          <t>01/06/2010</t>
         </is>
       </c>
       <c r="B828" t="inlineStr">
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D828" t="n">
-        <v>18557</v>
+        <v>18899</v>
       </c>
       <c r="E828" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>01/11/2010</t>
+          <t>01/05/2010</t>
         </is>
       </c>
       <c r="B829" t="inlineStr">
@@ -21152,7 +21152,7 @@
         </is>
       </c>
       <c r="D829" t="n">
-        <v>18252</v>
+        <v>19225</v>
       </c>
       <c r="E829" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>01/10/2010</t>
+          <t>01/03/2010</t>
         </is>
       </c>
       <c r="B830" t="inlineStr">
@@ -21177,7 +21177,7 @@
         </is>
       </c>
       <c r="D830" t="n">
-        <v>19679</v>
+        <v>18557</v>
       </c>
       <c r="E830" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>01/09/2010</t>
+          <t>01/11/2010</t>
         </is>
       </c>
       <c r="B831" t="inlineStr">
@@ -21202,7 +21202,7 @@
         </is>
       </c>
       <c r="D831" t="n">
-        <v>18162</v>
+        <v>18252</v>
       </c>
       <c r="E831" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>01/04/2011</t>
+          <t>01/10/2010</t>
         </is>
       </c>
       <c r="B832" t="inlineStr">
@@ -21227,7 +21227,7 @@
         </is>
       </c>
       <c r="D832" t="n">
-        <v>14211.9</v>
+        <v>19679</v>
       </c>
       <c r="E832" t="inlineStr">
         <is>
@@ -21238,7 +21238,7 @@
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>01/08/2011</t>
+          <t>01/09/2010</t>
         </is>
       </c>
       <c r="B833" t="inlineStr">
@@ -21252,7 +21252,7 @@
         </is>
       </c>
       <c r="D833" t="n">
-        <v>15656.1</v>
+        <v>18162</v>
       </c>
       <c r="E833" t="inlineStr">
         <is>
@@ -21263,7 +21263,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>01/12/2011</t>
+          <t>01/04/2011</t>
         </is>
       </c>
       <c r="B834" t="inlineStr">
@@ -21277,7 +21277,7 @@
         </is>
       </c>
       <c r="D834" t="n">
-        <v>16836.5</v>
+        <v>14211.9</v>
       </c>
       <c r="E834" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>01/02/2011</t>
+          <t>01/08/2011</t>
         </is>
       </c>
       <c r="B835" t="inlineStr">
@@ -21302,7 +21302,7 @@
         </is>
       </c>
       <c r="D835" t="n">
-        <v>15945.6</v>
+        <v>15656.1</v>
       </c>
       <c r="E835" t="inlineStr">
         <is>
@@ -21313,7 +21313,7 @@
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>01/01/2011</t>
+          <t>01/12/2011</t>
         </is>
       </c>
       <c r="B836" t="inlineStr">
@@ -21327,7 +21327,7 @@
         </is>
       </c>
       <c r="D836" t="n">
-        <v>18522.8</v>
+        <v>16836.5</v>
       </c>
       <c r="E836" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>01/07/2011</t>
+          <t>01/02/2011</t>
         </is>
       </c>
       <c r="B837" t="inlineStr">
@@ -21352,7 +21352,7 @@
         </is>
       </c>
       <c r="D837" t="n">
-        <v>14478.2</v>
+        <v>15945.6</v>
       </c>
       <c r="E837" t="inlineStr">
         <is>
@@ -21363,7 +21363,7 @@
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>01/06/2011</t>
+          <t>01/01/2011</t>
         </is>
       </c>
       <c r="B838" t="inlineStr">
@@ -21377,7 +21377,7 @@
         </is>
       </c>
       <c r="D838" t="n">
-        <v>15871.3</v>
+        <v>18522.8</v>
       </c>
       <c r="E838" t="inlineStr">
         <is>
@@ -21388,7 +21388,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>01/05/2011</t>
+          <t>01/07/2011</t>
         </is>
       </c>
       <c r="B839" t="inlineStr">
@@ -21402,7 +21402,7 @@
         </is>
       </c>
       <c r="D839" t="n">
-        <v>17668.9</v>
+        <v>14478.2</v>
       </c>
       <c r="E839" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>01/03/2011</t>
+          <t>01/06/2011</t>
         </is>
       </c>
       <c r="B840" t="inlineStr">
@@ -21427,7 +21427,7 @@
         </is>
       </c>
       <c r="D840" t="n">
-        <v>10940.8</v>
+        <v>15871.3</v>
       </c>
       <c r="E840" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>01/11/2011</t>
+          <t>01/05/2011</t>
         </is>
       </c>
       <c r="B841" t="inlineStr">
@@ -21452,7 +21452,7 @@
         </is>
       </c>
       <c r="D841" t="n">
-        <v>15787.4</v>
+        <v>17668.9</v>
       </c>
       <c r="E841" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>01/10/2011</t>
+          <t>01/03/2011</t>
         </is>
       </c>
       <c r="B842" t="inlineStr">
@@ -21477,7 +21477,7 @@
         </is>
       </c>
       <c r="D842" t="n">
-        <v>16134.4</v>
+        <v>10940.8</v>
       </c>
       <c r="E842" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>01/09/2011</t>
+          <t>01/11/2011</t>
         </is>
       </c>
       <c r="B843" t="inlineStr">
@@ -21502,7 +21502,7 @@
         </is>
       </c>
       <c r="D843" t="n">
-        <v>15096.4</v>
+        <v>15787.4</v>
       </c>
       <c r="E843" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>01/04/2012</t>
+          <t>01/10/2011</t>
         </is>
       </c>
       <c r="B844" t="inlineStr">
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D844" t="n">
-        <v>10707.1</v>
+        <v>16134.4</v>
       </c>
       <c r="E844" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>01/08/2012</t>
+          <t>01/09/2011</t>
         </is>
       </c>
       <c r="B845" t="inlineStr">
@@ -21552,7 +21552,7 @@
         </is>
       </c>
       <c r="D845" t="n">
-        <v>16193.1</v>
+        <v>15096.4</v>
       </c>
       <c r="E845" t="inlineStr">
         <is>
@@ -21563,7 +21563,7 @@
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>01/12/2012</t>
+          <t>01/04/2012</t>
         </is>
       </c>
       <c r="B846" t="inlineStr">
@@ -21577,7 +21577,7 @@
         </is>
       </c>
       <c r="D846" t="n">
-        <v>17393.3</v>
+        <v>10707.1</v>
       </c>
       <c r="E846" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>01/02/2012</t>
+          <t>01/08/2012</t>
         </is>
       </c>
       <c r="B847" t="inlineStr">
@@ -21602,7 +21602,7 @@
         </is>
       </c>
       <c r="D847" t="n">
-        <v>14260.4</v>
+        <v>16193.1</v>
       </c>
       <c r="E847" t="inlineStr">
         <is>
@@ -21613,7 +21613,7 @@
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>01/12/2012</t>
         </is>
       </c>
       <c r="B848" t="inlineStr">
@@ -21627,7 +21627,7 @@
         </is>
       </c>
       <c r="D848" t="n">
-        <v>16058.3</v>
+        <v>17393.3</v>
       </c>
       <c r="E848" t="inlineStr">
         <is>
@@ -21638,7 +21638,7 @@
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>01/07/2012</t>
+          <t>01/02/2012</t>
         </is>
       </c>
       <c r="B849" t="inlineStr">
@@ -21652,7 +21652,7 @@
         </is>
       </c>
       <c r="D849" t="n">
-        <v>12701.4</v>
+        <v>14260.4</v>
       </c>
       <c r="E849" t="inlineStr">
         <is>
@@ -21663,7 +21663,7 @@
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>01/06/2012</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="B850" t="inlineStr">
@@ -21677,7 +21677,7 @@
         </is>
       </c>
       <c r="D850" t="n">
-        <v>10851.8</v>
+        <v>16058.3</v>
       </c>
       <c r="E850" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>01/05/2012</t>
+          <t>01/07/2012</t>
         </is>
       </c>
       <c r="B851" t="inlineStr">
@@ -21702,7 +21702,7 @@
         </is>
       </c>
       <c r="D851" t="n">
-        <v>10692</v>
+        <v>12701.4</v>
       </c>
       <c r="E851" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>01/03/2012</t>
+          <t>01/06/2012</t>
         </is>
       </c>
       <c r="B852" t="inlineStr">
@@ -21727,7 +21727,7 @@
         </is>
       </c>
       <c r="D852" t="n">
-        <v>14311.3</v>
+        <v>10851.8</v>
       </c>
       <c r="E852" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>01/11/2012</t>
+          <t>01/05/2012</t>
         </is>
       </c>
       <c r="B853" t="inlineStr">
@@ -21752,7 +21752,7 @@
         </is>
       </c>
       <c r="D853" t="n">
-        <v>16574.9</v>
+        <v>10692</v>
       </c>
       <c r="E853" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>01/10/2012</t>
+          <t>01/03/2012</t>
         </is>
       </c>
       <c r="B854" t="inlineStr">
@@ -21777,7 +21777,7 @@
         </is>
       </c>
       <c r="D854" t="n">
-        <v>13682.2</v>
+        <v>14311.3</v>
       </c>
       <c r="E854" t="inlineStr">
         <is>
@@ -21788,7 +21788,7 @@
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>01/09/2012</t>
+          <t>01/11/2012</t>
         </is>
       </c>
       <c r="B855" t="inlineStr">
@@ -21802,7 +21802,7 @@
         </is>
       </c>
       <c r="D855" t="n">
-        <v>12246</v>
+        <v>16574.9</v>
       </c>
       <c r="E855" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>01/04/2013</t>
+          <t>01/10/2012</t>
         </is>
       </c>
       <c r="B856" t="inlineStr">
@@ -21827,7 +21827,7 @@
         </is>
       </c>
       <c r="D856" t="n">
-        <v>15186.2</v>
+        <v>13682.2</v>
       </c>
       <c r="E856" t="inlineStr">
         <is>
@@ -21838,7 +21838,7 @@
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>01/08/2013</t>
+          <t>01/09/2012</t>
         </is>
       </c>
       <c r="B857" t="inlineStr">
@@ -21852,7 +21852,7 @@
         </is>
       </c>
       <c r="D857" t="n">
-        <v>14998.4</v>
+        <v>12246</v>
       </c>
       <c r="E857" t="inlineStr">
         <is>
@@ -21863,7 +21863,7 @@
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>01/12/2013</t>
+          <t>01/04/2013</t>
         </is>
       </c>
       <c r="B858" t="inlineStr">
@@ -21877,7 +21877,7 @@
         </is>
       </c>
       <c r="D858" t="n">
-        <v>15576.1</v>
+        <v>15186.2</v>
       </c>
       <c r="E858" t="inlineStr">
         <is>
@@ -21888,7 +21888,7 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>01/02/2013</t>
+          <t>01/08/2013</t>
         </is>
       </c>
       <c r="B859" t="inlineStr">
@@ -21902,7 +21902,7 @@
         </is>
       </c>
       <c r="D859" t="n">
-        <v>14992.1</v>
+        <v>14998.4</v>
       </c>
       <c r="E859" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/12/2013</t>
         </is>
       </c>
       <c r="B860" t="inlineStr">
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D860" t="n">
-        <v>16653.1</v>
+        <v>15576.1</v>
       </c>
       <c r="E860" t="inlineStr">
         <is>
@@ -21938,7 +21938,7 @@
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>01/07/2013</t>
+          <t>01/02/2013</t>
         </is>
       </c>
       <c r="B861" t="inlineStr">
@@ -21952,7 +21952,7 @@
         </is>
       </c>
       <c r="D861" t="n">
-        <v>15326.3</v>
+        <v>14992.1</v>
       </c>
       <c r="E861" t="inlineStr">
         <is>
@@ -21963,7 +21963,7 @@
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>01/06/2013</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="B862" t="inlineStr">
@@ -21977,7 +21977,7 @@
         </is>
       </c>
       <c r="D862" t="n">
-        <v>15355.6</v>
+        <v>16653.1</v>
       </c>
       <c r="E862" t="inlineStr">
         <is>
@@ -21988,7 +21988,7 @@
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>01/05/2013</t>
+          <t>01/07/2013</t>
         </is>
       </c>
       <c r="B863" t="inlineStr">
@@ -22002,7 +22002,7 @@
         </is>
       </c>
       <c r="D863" t="n">
-        <v>14825.2</v>
+        <v>15326.3</v>
       </c>
       <c r="E863" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>01/03/2013</t>
+          <t>01/06/2013</t>
         </is>
       </c>
       <c r="B864" t="inlineStr">
@@ -22027,7 +22027,7 @@
         </is>
       </c>
       <c r="D864" t="n">
-        <v>15537.2</v>
+        <v>15355.6</v>
       </c>
       <c r="E864" t="inlineStr">
         <is>
@@ -22038,7 +22038,7 @@
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>01/11/2013</t>
+          <t>01/05/2013</t>
         </is>
       </c>
       <c r="B865" t="inlineStr">
@@ -22052,7 +22052,7 @@
         </is>
       </c>
       <c r="D865" t="n">
-        <v>14997.2</v>
+        <v>14825.2</v>
       </c>
       <c r="E865" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>01/03/2013</t>
         </is>
       </c>
       <c r="B866" t="inlineStr">
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D866" t="n">
-        <v>14495.7</v>
+        <v>15537.2</v>
       </c>
       <c r="E866" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>01/09/2013</t>
+          <t>01/11/2013</t>
         </is>
       </c>
       <c r="B867" t="inlineStr">
@@ -22102,7 +22102,7 @@
         </is>
       </c>
       <c r="D867" t="n">
-        <v>14777.2</v>
+        <v>14997.2</v>
       </c>
       <c r="E867" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>01/04/2014</t>
+          <t>01/10/2013</t>
         </is>
       </c>
       <c r="B868" t="inlineStr">
@@ -22127,7 +22127,7 @@
         </is>
       </c>
       <c r="D868" t="n">
-        <v>15228.7</v>
+        <v>14495.7</v>
       </c>
       <c r="E868" t="inlineStr">
         <is>
@@ -22138,7 +22138,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>01/08/2014</t>
+          <t>01/09/2013</t>
         </is>
       </c>
       <c r="B869" t="inlineStr">
@@ -22152,7 +22152,7 @@
         </is>
       </c>
       <c r="D869" t="n">
-        <v>14545.5</v>
+        <v>14777.2</v>
       </c>
       <c r="E869" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>01/12/2014</t>
+          <t>01/04/2014</t>
         </is>
       </c>
       <c r="B870" t="inlineStr">
@@ -22177,7 +22177,7 @@
         </is>
       </c>
       <c r="D870" t="n">
-        <v>13264.2</v>
+        <v>15228.7</v>
       </c>
       <c r="E870" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>01/02/2014</t>
+          <t>01/08/2014</t>
         </is>
       </c>
       <c r="B871" t="inlineStr">
@@ -22202,7 +22202,7 @@
         </is>
       </c>
       <c r="D871" t="n">
-        <v>13542.3</v>
+        <v>14545.5</v>
       </c>
       <c r="E871" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/12/2014</t>
         </is>
       </c>
       <c r="B872" t="inlineStr">
@@ -22227,7 +22227,7 @@
         </is>
       </c>
       <c r="D872" t="n">
-        <v>15019.1</v>
+        <v>13264.2</v>
       </c>
       <c r="E872" t="inlineStr">
         <is>
@@ -22238,7 +22238,7 @@
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
+          <t>01/02/2014</t>
         </is>
       </c>
       <c r="B873" t="inlineStr">
@@ -22252,7 +22252,7 @@
         </is>
       </c>
       <c r="D873" t="n">
-        <v>14900.7</v>
+        <v>13542.3</v>
       </c>
       <c r="E873" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>01/06/2014</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="B874" t="inlineStr">
@@ -22277,7 +22277,7 @@
         </is>
       </c>
       <c r="D874" t="n">
-        <v>14977.9</v>
+        <v>15019.1</v>
       </c>
       <c r="E874" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>01/05/2014</t>
+          <t>01/07/2014</t>
         </is>
       </c>
       <c r="B875" t="inlineStr">
@@ -22302,7 +22302,7 @@
         </is>
       </c>
       <c r="D875" t="n">
-        <v>16141.5</v>
+        <v>14900.7</v>
       </c>
       <c r="E875" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>01/03/2014</t>
+          <t>01/06/2014</t>
         </is>
       </c>
       <c r="B876" t="inlineStr">
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D876" t="n">
-        <v>15178.7</v>
+        <v>14977.9</v>
       </c>
       <c r="E876" t="inlineStr">
         <is>
@@ -22338,7 +22338,7 @@
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>01/11/2014</t>
+          <t>01/05/2014</t>
         </is>
       </c>
       <c r="B877" t="inlineStr">
@@ -22352,7 +22352,7 @@
         </is>
       </c>
       <c r="D877" t="n">
-        <v>11227.8</v>
+        <v>16141.5</v>
       </c>
       <c r="E877" t="inlineStr">
         <is>
@@ -22363,7 +22363,7 @@
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>01/10/2014</t>
+          <t>01/03/2014</t>
         </is>
       </c>
       <c r="B878" t="inlineStr">
@@ -22377,7 +22377,7 @@
         </is>
       </c>
       <c r="D878" t="n">
-        <v>14384.8</v>
+        <v>15178.7</v>
       </c>
       <c r="E878" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>01/09/2014</t>
+          <t>01/11/2014</t>
         </is>
       </c>
       <c r="B879" t="inlineStr">
@@ -22402,7 +22402,7 @@
         </is>
       </c>
       <c r="D879" t="n">
-        <v>13936.6</v>
+        <v>11227.8</v>
       </c>
       <c r="E879" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>01/04/2015</t>
+          <t>01/10/2014</t>
         </is>
       </c>
       <c r="B880" t="inlineStr">
@@ -22427,7 +22427,7 @@
         </is>
       </c>
       <c r="D880" t="n">
-        <v>13917.8</v>
+        <v>14384.8</v>
       </c>
       <c r="E880" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>01/08/2015</t>
+          <t>01/09/2014</t>
         </is>
       </c>
       <c r="B881" t="inlineStr">
@@ -22452,7 +22452,7 @@
         </is>
       </c>
       <c r="D881" t="n">
-        <v>11403.3</v>
+        <v>13936.6</v>
       </c>
       <c r="E881" t="inlineStr">
         <is>
@@ -22463,7 +22463,7 @@
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>01/12/2015</t>
+          <t>01/04/2015</t>
         </is>
       </c>
       <c r="B882" t="inlineStr">
@@ -22477,7 +22477,7 @@
         </is>
       </c>
       <c r="D882" t="n">
-        <v>9425.700000000001</v>
+        <v>13917.8</v>
       </c>
       <c r="E882" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>01/02/2015</t>
+          <t>01/08/2015</t>
         </is>
       </c>
       <c r="B883" t="inlineStr">
@@ -22502,7 +22502,7 @@
         </is>
       </c>
       <c r="D883" t="n">
-        <v>13004.4</v>
+        <v>11403.3</v>
       </c>
       <c r="E883" t="inlineStr">
         <is>
@@ -22513,7 +22513,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/12/2015</t>
         </is>
       </c>
       <c r="B884" t="inlineStr">
@@ -22527,7 +22527,7 @@
         </is>
       </c>
       <c r="D884" t="n">
-        <v>14478.2</v>
+        <v>9425.700000000001</v>
       </c>
       <c r="E884" t="inlineStr">
         <is>
@@ -22538,7 +22538,7 @@
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>01/07/2015</t>
+          <t>01/02/2015</t>
         </is>
       </c>
       <c r="B885" t="inlineStr">
@@ -22552,7 +22552,7 @@
         </is>
       </c>
       <c r="D885" t="n">
-        <v>11946.4</v>
+        <v>13004.4</v>
       </c>
       <c r="E885" t="inlineStr">
         <is>
@@ -22563,7 +22563,7 @@
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>01/06/2015</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="B886" t="inlineStr">
@@ -22577,7 +22577,7 @@
         </is>
       </c>
       <c r="D886" t="n">
-        <v>12385.6</v>
+        <v>14478.2</v>
       </c>
       <c r="E886" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>01/05/2015</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="B887" t="inlineStr">
@@ -22602,7 +22602,7 @@
         </is>
       </c>
       <c r="D887" t="n">
-        <v>12823.9</v>
+        <v>11946.4</v>
       </c>
       <c r="E887" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>01/03/2015</t>
+          <t>01/06/2015</t>
         </is>
       </c>
       <c r="B888" t="inlineStr">
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="D888" t="n">
-        <v>14916.8</v>
+        <v>12385.6</v>
       </c>
       <c r="E888" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>01/11/2015</t>
+          <t>01/05/2015</t>
         </is>
       </c>
       <c r="B889" t="inlineStr">
@@ -22652,7 +22652,7 @@
         </is>
       </c>
       <c r="D889" t="n">
-        <v>5361.7</v>
+        <v>12823.9</v>
       </c>
       <c r="E889" t="inlineStr">
         <is>
@@ -22663,7 +22663,7 @@
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/03/2015</t>
         </is>
       </c>
       <c r="B890" t="inlineStr">
@@ -22677,7 +22677,7 @@
         </is>
       </c>
       <c r="D890" t="n">
-        <v>11384.7</v>
+        <v>14916.8</v>
       </c>
       <c r="E890" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>01/09/2015</t>
+          <t>01/11/2015</t>
         </is>
       </c>
       <c r="B891" t="inlineStr">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="D891" t="n">
-        <v>11927.3</v>
+        <v>5361.7</v>
       </c>
       <c r="E891" t="inlineStr">
         <is>
@@ -22713,7 +22713,7 @@
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>01/04/2016</t>
+          <t>01/10/2015</t>
         </is>
       </c>
       <c r="B892" t="inlineStr">
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D892" t="n">
-        <v>9074.1</v>
+        <v>11384.7</v>
       </c>
       <c r="E892" t="inlineStr">
         <is>
@@ -22738,7 +22738,7 @@
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>01/08/2016</t>
+          <t>01/09/2015</t>
         </is>
       </c>
       <c r="B893" t="inlineStr">
@@ -22752,7 +22752,7 @@
         </is>
       </c>
       <c r="D893" t="n">
-        <v>9273.799999999999</v>
+        <v>11927.3</v>
       </c>
       <c r="E893" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>01/12/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="B894" t="inlineStr">
@@ -22777,7 +22777,7 @@
         </is>
       </c>
       <c r="D894" t="n">
-        <v>3213.5</v>
+        <v>9074.1</v>
       </c>
       <c r="E894" t="inlineStr">
         <is>
@@ -22788,7 +22788,7 @@
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>01/02/2016</t>
+          <t>01/08/2016</t>
         </is>
       </c>
       <c r="B895" t="inlineStr">
@@ -22802,7 +22802,7 @@
         </is>
       </c>
       <c r="D895" t="n">
-        <v>8886.4</v>
+        <v>9273.799999999999</v>
       </c>
       <c r="E895" t="inlineStr">
         <is>
@@ -22813,7 +22813,7 @@
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/12/2016</t>
         </is>
       </c>
       <c r="B896" t="inlineStr">
@@ -22827,7 +22827,7 @@
         </is>
       </c>
       <c r="D896" t="n">
-        <v>9118.200000000001</v>
+        <v>3213.5</v>
       </c>
       <c r="E896" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
+          <t>01/02/2016</t>
         </is>
       </c>
       <c r="B897" t="inlineStr">
@@ -22852,7 +22852,7 @@
         </is>
       </c>
       <c r="D897" t="n">
-        <v>9093.799999999999</v>
+        <v>8886.4</v>
       </c>
       <c r="E897" t="inlineStr">
         <is>
@@ -22863,7 +22863,7 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>01/06/2016</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="B898" t="inlineStr">
@@ -22877,7 +22877,7 @@
         </is>
       </c>
       <c r="D898" t="n">
-        <v>8134.5</v>
+        <v>9118.200000000001</v>
       </c>
       <c r="E898" t="inlineStr">
         <is>
@@ -22888,7 +22888,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>01/05/2016</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
@@ -22902,7 +22902,7 @@
         </is>
       </c>
       <c r="D899" t="n">
-        <v>9412.299999999999</v>
+        <v>9093.799999999999</v>
       </c>
       <c r="E899" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>01/03/2016</t>
+          <t>01/06/2016</t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
@@ -22927,7 +22927,7 @@
         </is>
       </c>
       <c r="D900" t="n">
-        <v>9861.1</v>
+        <v>8134.5</v>
       </c>
       <c r="E900" t="inlineStr">
         <is>
@@ -22938,7 +22938,7 @@
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>01/11/2016</t>
+          <t>01/05/2016</t>
         </is>
       </c>
       <c r="B901" t="inlineStr">
@@ -22952,7 +22952,7 @@
         </is>
       </c>
       <c r="D901" t="n">
-        <v>7657.6</v>
+        <v>9412.299999999999</v>
       </c>
       <c r="E901" t="inlineStr">
         <is>
@@ -22963,7 +22963,7 @@
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/03/2016</t>
         </is>
       </c>
       <c r="B902" t="inlineStr">
@@ -22977,7 +22977,7 @@
         </is>
       </c>
       <c r="D902" t="n">
-        <v>8933.1</v>
+        <v>9861.1</v>
       </c>
       <c r="E902" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>01/09/2016</t>
+          <t>01/11/2016</t>
         </is>
       </c>
       <c r="B903" t="inlineStr">
@@ -23002,7 +23002,7 @@
         </is>
       </c>
       <c r="D903" t="n">
-        <v>8977.299999999999</v>
+        <v>7657.6</v>
       </c>
       <c r="E903" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>01/04/2017</t>
+          <t>01/10/2016</t>
         </is>
       </c>
       <c r="B904" t="inlineStr">
@@ -23027,7 +23027,7 @@
         </is>
       </c>
       <c r="D904" t="n">
-        <v>6856.1</v>
+        <v>8933.1</v>
       </c>
       <c r="E904" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>01/08/2017</t>
+          <t>01/09/2016</t>
         </is>
       </c>
       <c r="B905" t="inlineStr">
@@ -23052,7 +23052,7 @@
         </is>
       </c>
       <c r="D905" t="n">
-        <v>7185.4</v>
+        <v>8977.299999999999</v>
       </c>
       <c r="E905" t="inlineStr">
         <is>
@@ -23063,7 +23063,7 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>01/12/2017</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="B906" t="inlineStr">
@@ -23077,7 +23077,7 @@
         </is>
       </c>
       <c r="D906" t="n">
-        <v>9617.700000000001</v>
+        <v>6856.1</v>
       </c>
       <c r="E906" t="inlineStr">
         <is>
@@ -23088,7 +23088,7 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>01/02/2017</t>
+          <t>01/08/2017</t>
         </is>
       </c>
       <c r="B907" t="inlineStr">
@@ -23102,7 +23102,7 @@
         </is>
       </c>
       <c r="D907" t="n">
-        <v>6279.5</v>
+        <v>7185.4</v>
       </c>
       <c r="E907" t="inlineStr">
         <is>
@@ -23113,7 +23113,7 @@
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/12/2017</t>
         </is>
       </c>
       <c r="B908" t="inlineStr">
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D908" t="n">
-        <v>7743.8</v>
+        <v>9617.700000000001</v>
       </c>
       <c r="E908" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
+          <t>01/02/2017</t>
         </is>
       </c>
       <c r="B909" t="inlineStr">
@@ -23152,7 +23152,7 @@
         </is>
       </c>
       <c r="D909" t="n">
-        <v>6753.2</v>
+        <v>6279.5</v>
       </c>
       <c r="E909" t="inlineStr">
         <is>
@@ -23163,7 +23163,7 @@
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>01/06/2017</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="B910" t="inlineStr">
@@ -23177,7 +23177,7 @@
         </is>
       </c>
       <c r="D910" t="n">
-        <v>6679</v>
+        <v>7743.8</v>
       </c>
       <c r="E910" t="inlineStr">
         <is>
@@ -23188,7 +23188,7 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>01/05/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="B911" t="inlineStr">
@@ -23202,7 +23202,7 @@
         </is>
       </c>
       <c r="D911" t="n">
-        <v>6777</v>
+        <v>6753.2</v>
       </c>
       <c r="E911" t="inlineStr">
         <is>
@@ -23213,7 +23213,7 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>01/03/2017</t>
+          <t>01/06/2017</t>
         </is>
       </c>
       <c r="B912" t="inlineStr">
@@ -23227,7 +23227,7 @@
         </is>
       </c>
       <c r="D912" t="n">
-        <v>7180</v>
+        <v>6679</v>
       </c>
       <c r="E912" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>01/11/2017</t>
+          <t>01/05/2017</t>
         </is>
       </c>
       <c r="B913" t="inlineStr">
@@ -23252,7 +23252,7 @@
         </is>
       </c>
       <c r="D913" t="n">
-        <v>7720.9</v>
+        <v>6777</v>
       </c>
       <c r="E913" t="inlineStr">
         <is>
@@ -23263,7 +23263,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/03/2017</t>
         </is>
       </c>
       <c r="B914" t="inlineStr">
@@ -23277,7 +23277,7 @@
         </is>
       </c>
       <c r="D914" t="n">
-        <v>7765.07</v>
+        <v>7180</v>
       </c>
       <c r="E914" t="inlineStr">
         <is>
@@ -23288,7 +23288,7 @@
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>01/09/2017</t>
+          <t>01/11/2017</t>
         </is>
       </c>
       <c r="B915" t="inlineStr">
@@ -23302,7 +23302,7 @@
         </is>
       </c>
       <c r="D915" t="n">
-        <v>7191.4</v>
+        <v>7720.9</v>
       </c>
       <c r="E915" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>01/04/2018</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="B916" t="inlineStr">
@@ -23327,7 +23327,7 @@
         </is>
       </c>
       <c r="D916" t="n">
-        <v>6020</v>
+        <v>7765.07</v>
       </c>
       <c r="E916" t="inlineStr">
         <is>
@@ -23338,7 +23338,7 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>01/08/2018</t>
+          <t>01/09/2017</t>
         </is>
       </c>
       <c r="B917" t="inlineStr">
@@ -23352,7 +23352,7 @@
         </is>
       </c>
       <c r="D917" t="n">
-        <v>5969</v>
+        <v>7191.4</v>
       </c>
       <c r="E917" t="inlineStr">
         <is>
@@ -23363,7 +23363,7 @@
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>01/12/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="B918" t="inlineStr">
@@ -23377,7 +23377,7 @@
         </is>
       </c>
       <c r="D918" t="n">
-        <v>6061</v>
+        <v>6020</v>
       </c>
       <c r="E918" t="inlineStr">
         <is>
@@ -23388,7 +23388,7 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>01/02/2018</t>
+          <t>01/08/2018</t>
         </is>
       </c>
       <c r="B919" t="inlineStr">
@@ -23402,7 +23402,7 @@
         </is>
       </c>
       <c r="D919" t="n">
-        <v>6141.6</v>
+        <v>5969</v>
       </c>
       <c r="E919" t="inlineStr">
         <is>
@@ -23413,7 +23413,7 @@
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/12/2018</t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
@@ -23427,7 +23427,7 @@
         </is>
       </c>
       <c r="D920" t="n">
-        <v>7289.478</v>
+        <v>6061</v>
       </c>
       <c r="E920" t="inlineStr">
         <is>
@@ -23438,7 +23438,7 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>01/02/2018</t>
         </is>
       </c>
       <c r="B921" t="inlineStr">
@@ -23452,7 +23452,7 @@
         </is>
       </c>
       <c r="D921" t="n">
-        <v>5621.504</v>
+        <v>6141.6</v>
       </c>
       <c r="E921" t="inlineStr">
         <is>
@@ -23463,7 +23463,7 @@
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>01/06/2018</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="B922" t="inlineStr">
@@ -23477,7 +23477,7 @@
         </is>
       </c>
       <c r="D922" t="n">
-        <v>5487.042</v>
+        <v>7289.478</v>
       </c>
       <c r="E922" t="inlineStr">
         <is>
@@ -23488,7 +23488,7 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>01/05/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="B923" t="inlineStr">
@@ -23502,7 +23502,7 @@
         </is>
       </c>
       <c r="D923" t="n">
-        <v>5549.7</v>
+        <v>5621.504</v>
       </c>
       <c r="E923" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>01/03/2018</t>
+          <t>01/06/2018</t>
         </is>
       </c>
       <c r="B924" t="inlineStr">
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D924" t="n">
-        <v>6426.258</v>
+        <v>5487.042</v>
       </c>
       <c r="E924" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>01/11/2018</t>
+          <t>01/05/2018</t>
         </is>
       </c>
       <c r="B925" t="inlineStr">
@@ -23552,7 +23552,7 @@
         </is>
       </c>
       <c r="D925" t="n">
-        <v>5685.5</v>
+        <v>5549.7</v>
       </c>
       <c r="E925" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/03/2018</t>
         </is>
       </c>
       <c r="B926" t="inlineStr">
@@ -23577,7 +23577,7 @@
         </is>
       </c>
       <c r="D926" t="n">
-        <v>5916.66</v>
+        <v>6426.258</v>
       </c>
       <c r="E926" t="inlineStr">
         <is>
@@ -23588,7 +23588,7 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>01/09/2018</t>
+          <t>01/11/2018</t>
         </is>
       </c>
       <c r="B927" t="inlineStr">
@@ -23602,7 +23602,7 @@
         </is>
       </c>
       <c r="D927" t="n">
-        <v>5970.399</v>
+        <v>5685.5</v>
       </c>
       <c r="E927" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="B928" t="inlineStr">
@@ -23627,7 +23627,7 @@
         </is>
       </c>
       <c r="D928" t="n">
-        <v>5391.2</v>
+        <v>5916.66</v>
       </c>
       <c r="E928" t="inlineStr">
         <is>
@@ -23638,7 +23638,7 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>01/08/2019</t>
+          <t>01/09/2018</t>
         </is>
       </c>
       <c r="B929" t="inlineStr">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="D929" t="n">
-        <v>4054.5</v>
+        <v>5970.399</v>
       </c>
       <c r="E929" t="inlineStr">
         <is>
@@ -23663,7 +23663,7 @@
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>01/12/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="B930" t="inlineStr">
@@ -23677,7 +23677,7 @@
         </is>
       </c>
       <c r="D930" t="n">
-        <v>4830.4</v>
+        <v>5391.2</v>
       </c>
       <c r="E930" t="inlineStr">
         <is>
@@ -23688,7 +23688,7 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>01/02/2019</t>
+          <t>01/08/2019</t>
         </is>
       </c>
       <c r="B931" t="inlineStr">
@@ -23702,7 +23702,7 @@
         </is>
       </c>
       <c r="D931" t="n">
-        <v>3997.1</v>
+        <v>4054.5</v>
       </c>
       <c r="E931" t="inlineStr">
         <is>
@@ -23713,7 +23713,7 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/12/2019</t>
         </is>
       </c>
       <c r="B932" t="inlineStr">
@@ -23727,7 +23727,7 @@
         </is>
       </c>
       <c r="D932" t="n">
-        <v>5711.1</v>
+        <v>4830.4</v>
       </c>
       <c r="E932" t="inlineStr">
         <is>
@@ -23738,7 +23738,7 @@
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/02/2019</t>
         </is>
       </c>
       <c r="B933" t="inlineStr">
@@ -23752,7 +23752,7 @@
         </is>
       </c>
       <c r="D933" t="n">
-        <v>4524.82</v>
+        <v>3997.1</v>
       </c>
       <c r="E933" t="inlineStr">
         <is>
@@ -23763,7 +23763,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>01/06/2019</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="B934" t="inlineStr">
@@ -23777,7 +23777,7 @@
         </is>
       </c>
       <c r="D934" t="n">
-        <v>4716.577</v>
+        <v>5711.1</v>
       </c>
       <c r="E934" t="inlineStr">
         <is>
@@ -23788,7 +23788,7 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>01/05/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="B935" t="inlineStr">
@@ -23802,7 +23802,7 @@
         </is>
       </c>
       <c r="D935" t="n">
-        <v>5361.2</v>
+        <v>4524.82</v>
       </c>
       <c r="E935" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>01/03/2019</t>
+          <t>01/06/2019</t>
         </is>
       </c>
       <c r="B936" t="inlineStr">
@@ -23827,7 +23827,7 @@
         </is>
       </c>
       <c r="D936" t="n">
-        <v>4734.9</v>
+        <v>4716.577</v>
       </c>
       <c r="E936" t="inlineStr">
         <is>
@@ -23838,7 +23838,7 @@
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>01/11/2019</t>
+          <t>01/05/2019</t>
         </is>
       </c>
       <c r="B937" t="inlineStr">
@@ -23852,7 +23852,7 @@
         </is>
       </c>
       <c r="D937" t="n">
-        <v>3812.4</v>
+        <v>5361.2</v>
       </c>
       <c r="E937" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/03/2019</t>
         </is>
       </c>
       <c r="B938" t="inlineStr">
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D938" t="n">
-        <v>4339.8</v>
+        <v>4734.9</v>
       </c>
       <c r="E938" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>01/09/2019</t>
+          <t>01/11/2019</t>
         </is>
       </c>
       <c r="B939" t="inlineStr">
@@ -23902,7 +23902,7 @@
         </is>
       </c>
       <c r="D939" t="n">
-        <v>3820.9</v>
+        <v>3812.4</v>
       </c>
       <c r="E939" t="inlineStr">
         <is>
@@ -23913,7 +23913,7 @@
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="B940" t="inlineStr">
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D940" t="n">
-        <v>0</v>
+        <v>4339.8</v>
       </c>
       <c r="E940" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>01/08/2020</t>
+          <t>01/09/2019</t>
         </is>
       </c>
       <c r="B941" t="inlineStr">
@@ -23952,7 +23952,7 @@
         </is>
       </c>
       <c r="D941" t="n">
-        <v>0</v>
+        <v>3820.9</v>
       </c>
       <c r="E941" t="inlineStr">
         <is>
@@ -23963,7 +23963,7 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>01/12/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="B942" t="inlineStr">
@@ -23988,7 +23988,7 @@
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>01/02/2020</t>
+          <t>01/08/2020</t>
         </is>
       </c>
       <c r="B943" t="inlineStr">
@@ -24002,7 +24002,7 @@
         </is>
       </c>
       <c r="D943" t="n">
-        <v>5762.358</v>
+        <v>0</v>
       </c>
       <c r="E943" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/12/2020</t>
         </is>
       </c>
       <c r="B944" t="inlineStr">
@@ -24027,7 +24027,7 @@
         </is>
       </c>
       <c r="D944" t="n">
-        <v>5560.337</v>
+        <v>0</v>
       </c>
       <c r="E944" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/02/2020</t>
         </is>
       </c>
       <c r="B945" t="inlineStr">
@@ -24052,7 +24052,7 @@
         </is>
       </c>
       <c r="D945" t="n">
-        <v>0</v>
+        <v>5762.358</v>
       </c>
       <c r="E945" t="inlineStr">
         <is>
@@ -24063,7 +24063,7 @@
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>01/06/2020</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="B946" t="inlineStr">
@@ -24077,7 +24077,7 @@
         </is>
       </c>
       <c r="D946" t="n">
-        <v>0</v>
+        <v>5560.337</v>
       </c>
       <c r="E946" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>01/05/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="B947" t="inlineStr">
@@ -24113,7 +24113,7 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>01/03/2020</t>
+          <t>01/06/2020</t>
         </is>
       </c>
       <c r="B948" t="inlineStr">
@@ -24127,7 +24127,7 @@
         </is>
       </c>
       <c r="D948" t="n">
-        <v>5496</v>
+        <v>0</v>
       </c>
       <c r="E948" t="inlineStr">
         <is>
@@ -24138,7 +24138,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>01/11/2020</t>
+          <t>01/05/2020</t>
         </is>
       </c>
       <c r="B949" t="inlineStr">
@@ -24163,7 +24163,7 @@
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/03/2020</t>
         </is>
       </c>
       <c r="B950" t="inlineStr">
@@ -24177,7 +24177,7 @@
         </is>
       </c>
       <c r="D950" t="n">
-        <v>0</v>
+        <v>5496</v>
       </c>
       <c r="E950" t="inlineStr">
         <is>
@@ -24188,7 +24188,7 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>01/09/2020</t>
+          <t>01/11/2020</t>
         </is>
       </c>
       <c r="B951" t="inlineStr">
@@ -24213,7 +24213,7 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="B952" t="inlineStr">
@@ -24238,7 +24238,7 @@
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>01/08/2021</t>
+          <t>01/09/2020</t>
         </is>
       </c>
       <c r="B953" t="inlineStr">
@@ -24263,7 +24263,7 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>01/12/2021</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="B954" t="inlineStr">
@@ -24288,7 +24288,7 @@
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>01/02/2021</t>
+          <t>01/08/2021</t>
         </is>
       </c>
       <c r="B955" t="inlineStr">
@@ -24313,7 +24313,7 @@
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/12/2021</t>
         </is>
       </c>
       <c r="B956" t="inlineStr">
@@ -24338,7 +24338,7 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/02/2021</t>
         </is>
       </c>
       <c r="B957" t="inlineStr">
@@ -24363,7 +24363,7 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>01/06/2021</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="B958" t="inlineStr">
@@ -24388,7 +24388,7 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>01/05/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="B959" t="inlineStr">
@@ -24413,7 +24413,7 @@
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>01/03/2021</t>
+          <t>01/06/2021</t>
         </is>
       </c>
       <c r="B960" t="inlineStr">
@@ -24438,7 +24438,7 @@
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>01/11/2021</t>
+          <t>01/05/2021</t>
         </is>
       </c>
       <c r="B961" t="inlineStr">
@@ -24463,7 +24463,7 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/03/2021</t>
         </is>
       </c>
       <c r="B962" t="inlineStr">
@@ -24488,7 +24488,7 @@
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>01/09/2021</t>
+          <t>01/11/2021</t>
         </is>
       </c>
       <c r="B963" t="inlineStr">
@@ -24513,7 +24513,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="B964" t="inlineStr">
@@ -24538,7 +24538,7 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>01/08/2022</t>
+          <t>01/09/2021</t>
         </is>
       </c>
       <c r="B965" t="inlineStr">
@@ -24563,7 +24563,7 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>01/12/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="B966" t="inlineStr">
@@ -24588,7 +24588,7 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>01/02/2022</t>
+          <t>01/08/2022</t>
         </is>
       </c>
       <c r="B967" t="inlineStr">
@@ -24613,7 +24613,7 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/12/2022</t>
         </is>
       </c>
       <c r="B968" t="inlineStr">
@@ -24638,7 +24638,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/02/2022</t>
         </is>
       </c>
       <c r="B969" t="inlineStr">
@@ -24663,7 +24663,7 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>01/06/2022</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="B970" t="inlineStr">
@@ -24688,7 +24688,7 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>01/05/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="B971" t="inlineStr">
@@ -24713,7 +24713,7 @@
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>01/03/2022</t>
+          <t>01/06/2022</t>
         </is>
       </c>
       <c r="B972" t="inlineStr">
@@ -24738,7 +24738,7 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>01/11/2022</t>
+          <t>01/05/2022</t>
         </is>
       </c>
       <c r="B973" t="inlineStr">
@@ -24763,7 +24763,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/03/2022</t>
         </is>
       </c>
       <c r="B974" t="inlineStr">
@@ -24788,7 +24788,7 @@
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>01/09/2022</t>
+          <t>01/11/2022</t>
         </is>
       </c>
       <c r="B975" t="inlineStr">
@@ -24813,7 +24813,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="B976" t="inlineStr">
@@ -24838,7 +24838,7 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01/09/2022</t>
         </is>
       </c>
       <c r="B977" t="inlineStr">
@@ -24863,7 +24863,7 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="B978" t="inlineStr">
@@ -24888,7 +24888,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>01/02/2023</t>
+          <t>01/08/2023</t>
         </is>
       </c>
       <c r="B979" t="inlineStr">
@@ -24913,7 +24913,7 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="B980" t="inlineStr">
@@ -24938,7 +24938,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/02/2023</t>
         </is>
       </c>
       <c r="B981" t="inlineStr">
@@ -24963,7 +24963,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>01/06/2023</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="B982" t="inlineStr">
@@ -24988,7 +24988,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>01/05/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="B983" t="inlineStr">
@@ -25013,7 +25013,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>01/03/2023</t>
+          <t>01/06/2023</t>
         </is>
       </c>
       <c r="B984" t="inlineStr">
@@ -25038,7 +25038,7 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>01/11/2023</t>
+          <t>01/05/2023</t>
         </is>
       </c>
       <c r="B985" t="inlineStr">
@@ -25063,7 +25063,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/03/2023</t>
         </is>
       </c>
       <c r="B986" t="inlineStr">
@@ -25088,7 +25088,7 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>01/09/2023</t>
+          <t>01/11/2023</t>
         </is>
       </c>
       <c r="B987" t="inlineStr">
@@ -25113,7 +25113,7 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="B988" t="inlineStr">
@@ -25138,7 +25138,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>01/02/2024</t>
+          <t>01/09/2023</t>
         </is>
       </c>
       <c r="B989" t="inlineStr">
@@ -25163,7 +25163,7 @@
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="B990" t="inlineStr">
@@ -25188,7 +25188,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B991" t="inlineStr">
@@ -25213,7 +25213,7 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>01/06/2024</t>
+          <t>01/02/2024</t>
         </is>
       </c>
       <c r="B992" t="inlineStr">
@@ -25238,7 +25238,7 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>01/05/2024</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="B993" t="inlineStr">
@@ -25263,7 +25263,7 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>01/03/2024</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="B994" t="inlineStr">
@@ -25280,6 +25280,81 @@
         <v>0</v>
       </c>
       <c r="E994" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="inlineStr">
+        <is>
+          <t>01/06/2024</t>
+        </is>
+      </c>
+      <c r="B995" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C995" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D995" t="n">
+        <v>0</v>
+      </c>
+      <c r="E995" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="inlineStr">
+        <is>
+          <t>01/05/2024</t>
+        </is>
+      </c>
+      <c r="B996" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C996" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D996" t="n">
+        <v>0</v>
+      </c>
+      <c r="E996" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="inlineStr">
+        <is>
+          <t>01/03/2024</t>
+        </is>
+      </c>
+      <c r="B997" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C997" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D997" t="n">
+        <v>0</v>
+      </c>
+      <c r="E997" t="inlineStr">
         <is>
           <t>SERGIPE</t>
         </is>

--- a/Data/g8.2.xlsx
+++ b/Data/g8.2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E997"/>
+  <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17063,21 +17063,21 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>01/04/1997</t>
+          <t>01/09/2024</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA</t>
+          <t>MAR</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t>LGN</t>
+          <t>GÁS NATURAL</t>
         </is>
       </c>
       <c r="D666" t="n">
-        <v>20951</v>
+        <v>57.802</v>
       </c>
       <c r="E666" t="inlineStr">
         <is>
@@ -17088,21 +17088,21 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>01/08/1997</t>
+          <t>01/09/2024</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA</t>
+          <t>TERRA</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>LGN</t>
+          <t>GÁS NATURAL</t>
         </is>
       </c>
       <c r="D667" t="n">
-        <v>24698</v>
+        <v>1610.794</v>
       </c>
       <c r="E667" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>01/12/1997</t>
+          <t>01/04/1997</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D668" t="n">
-        <v>23230</v>
+        <v>20951</v>
       </c>
       <c r="E668" t="inlineStr">
         <is>
@@ -17138,7 +17138,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>01/02/1997</t>
+          <t>01/08/1997</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
@@ -17152,7 +17152,7 @@
         </is>
       </c>
       <c r="D669" t="n">
-        <v>19007</v>
+        <v>24698</v>
       </c>
       <c r="E669" t="inlineStr">
         <is>
@@ -17163,7 +17163,7 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>01/01/1997</t>
+          <t>01/12/1997</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
@@ -17177,7 +17177,7 @@
         </is>
       </c>
       <c r="D670" t="n">
-        <v>18978</v>
+        <v>23230</v>
       </c>
       <c r="E670" t="inlineStr">
         <is>
@@ -17188,7 +17188,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>01/07/1997</t>
+          <t>01/02/1997</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
@@ -17202,7 +17202,7 @@
         </is>
       </c>
       <c r="D671" t="n">
-        <v>23232</v>
+        <v>19007</v>
       </c>
       <c r="E671" t="inlineStr">
         <is>
@@ -17213,7 +17213,7 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>01/06/1997</t>
+          <t>01/01/1997</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="D672" t="n">
-        <v>22449</v>
+        <v>18978</v>
       </c>
       <c r="E672" t="inlineStr">
         <is>
@@ -17238,7 +17238,7 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>01/05/1997</t>
+          <t>01/07/1997</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
@@ -17252,7 +17252,7 @@
         </is>
       </c>
       <c r="D673" t="n">
-        <v>24757</v>
+        <v>23232</v>
       </c>
       <c r="E673" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>01/03/1997</t>
+          <t>01/06/1997</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
@@ -17277,7 +17277,7 @@
         </is>
       </c>
       <c r="D674" t="n">
-        <v>19807</v>
+        <v>22449</v>
       </c>
       <c r="E674" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>01/11/1997</t>
+          <t>01/05/1997</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
@@ -17302,7 +17302,7 @@
         </is>
       </c>
       <c r="D675" t="n">
-        <v>22027</v>
+        <v>24757</v>
       </c>
       <c r="E675" t="inlineStr">
         <is>
@@ -17313,7 +17313,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>01/10/1997</t>
+          <t>01/03/1997</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
@@ -17327,7 +17327,7 @@
         </is>
       </c>
       <c r="D676" t="n">
-        <v>21890</v>
+        <v>19807</v>
       </c>
       <c r="E676" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>01/09/1997</t>
+          <t>01/11/1997</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
@@ -17352,7 +17352,7 @@
         </is>
       </c>
       <c r="D677" t="n">
-        <v>22749</v>
+        <v>22027</v>
       </c>
       <c r="E677" t="inlineStr">
         <is>
@@ -17363,7 +17363,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>01/04/1998</t>
+          <t>01/10/1997</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
@@ -17377,7 +17377,7 @@
         </is>
       </c>
       <c r="D678" t="n">
-        <v>131778.0699</v>
+        <v>21890</v>
       </c>
       <c r="E678" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>01/08/1998</t>
+          <t>01/09/1997</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
@@ -17402,7 +17402,7 @@
         </is>
       </c>
       <c r="D679" t="n">
-        <v>155346.0346</v>
+        <v>22749</v>
       </c>
       <c r="E679" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>01/12/1998</t>
+          <t>01/04/1998</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
@@ -17427,7 +17427,7 @@
         </is>
       </c>
       <c r="D680" t="n">
-        <v>146112.5752</v>
+        <v>131778.0699</v>
       </c>
       <c r="E680" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>01/02/1998</t>
+          <t>01/08/1998</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
@@ -17452,7 +17452,7 @@
         </is>
       </c>
       <c r="D681" t="n">
-        <v>119550.6551</v>
+        <v>155346.0346</v>
       </c>
       <c r="E681" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>01/01/1998</t>
+          <t>01/12/1998</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
@@ -17477,7 +17477,7 @@
         </is>
       </c>
       <c r="D682" t="n">
-        <v>119368.2502</v>
+        <v>146112.5752</v>
       </c>
       <c r="E682" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>01/07/1998</t>
+          <t>01/02/1998</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
@@ -17502,7 +17502,7 @@
         </is>
       </c>
       <c r="D683" t="n">
-        <v>146125.1549</v>
+        <v>119550.6551</v>
       </c>
       <c r="E683" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>01/06/1998</t>
+          <t>01/01/1998</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D684" t="n">
-        <v>141200.2239</v>
+        <v>119368.2502</v>
       </c>
       <c r="E684" t="inlineStr">
         <is>
@@ -17538,7 +17538,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>01/05/1998</t>
+          <t>01/07/1998</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
@@ -17552,7 +17552,7 @@
         </is>
       </c>
       <c r="D685" t="n">
-        <v>155717.1341</v>
+        <v>146125.1549</v>
       </c>
       <c r="E685" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>01/03/1998</t>
+          <t>01/06/1998</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
@@ -17577,7 +17577,7 @@
         </is>
       </c>
       <c r="D686" t="n">
-        <v>124582.513</v>
+        <v>141200.2239</v>
       </c>
       <c r="E686" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>01/11/1998</t>
+          <t>01/05/1998</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
@@ -17602,7 +17602,7 @@
         </is>
       </c>
       <c r="D687" t="n">
-        <v>138545.9188</v>
+        <v>155717.1341</v>
       </c>
       <c r="E687" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>01/10/1998</t>
+          <t>01/03/1998</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
@@ -17627,7 +17627,7 @@
         </is>
       </c>
       <c r="D688" t="n">
-        <v>137684.2132</v>
+        <v>124582.513</v>
       </c>
       <c r="E688" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>01/09/1998</t>
+          <t>01/11/1998</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
@@ -17652,7 +17652,7 @@
         </is>
       </c>
       <c r="D689" t="n">
-        <v>143087.1706</v>
+        <v>138545.9188</v>
       </c>
       <c r="E689" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>01/04/1999</t>
+          <t>01/10/1998</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
@@ -17677,7 +17677,7 @@
         </is>
       </c>
       <c r="D690" t="n">
-        <v>24546</v>
+        <v>137684.2132</v>
       </c>
       <c r="E690" t="inlineStr">
         <is>
@@ -17688,7 +17688,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>01/08/1999</t>
+          <t>01/09/1998</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
@@ -17702,7 +17702,7 @@
         </is>
       </c>
       <c r="D691" t="n">
-        <v>23247</v>
+        <v>143087.1706</v>
       </c>
       <c r="E691" t="inlineStr">
         <is>
@@ -17713,7 +17713,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>01/12/1999</t>
+          <t>01/04/1999</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
@@ -17727,7 +17727,7 @@
         </is>
       </c>
       <c r="D692" t="n">
-        <v>24640</v>
+        <v>24546</v>
       </c>
       <c r="E692" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>01/02/1999</t>
+          <t>01/08/1999</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
@@ -17752,7 +17752,7 @@
         </is>
       </c>
       <c r="D693" t="n">
-        <v>22448</v>
+        <v>23247</v>
       </c>
       <c r="E693" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>01/01/1999</t>
+          <t>01/12/1999</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
@@ -17777,7 +17777,7 @@
         </is>
       </c>
       <c r="D694" t="n">
-        <v>24629</v>
+        <v>24640</v>
       </c>
       <c r="E694" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>01/07/1999</t>
+          <t>01/02/1999</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
@@ -17802,7 +17802,7 @@
         </is>
       </c>
       <c r="D695" t="n">
-        <v>22323</v>
+        <v>22448</v>
       </c>
       <c r="E695" t="inlineStr">
         <is>
@@ -17813,7 +17813,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>01/06/1999</t>
+          <t>01/01/1999</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
@@ -17827,7 +17827,7 @@
         </is>
       </c>
       <c r="D696" t="n">
-        <v>24653</v>
+        <v>24629</v>
       </c>
       <c r="E696" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>01/05/1999</t>
+          <t>01/07/1999</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
@@ -17852,7 +17852,7 @@
         </is>
       </c>
       <c r="D697" t="n">
-        <v>25678</v>
+        <v>22323</v>
       </c>
       <c r="E697" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>01/03/1999</t>
+          <t>01/06/1999</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
@@ -17877,7 +17877,7 @@
         </is>
       </c>
       <c r="D698" t="n">
-        <v>25737</v>
+        <v>24653</v>
       </c>
       <c r="E698" t="inlineStr">
         <is>
@@ -17888,7 +17888,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>01/11/1999</t>
+          <t>01/05/1999</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
@@ -17902,7 +17902,7 @@
         </is>
       </c>
       <c r="D699" t="n">
-        <v>25481</v>
+        <v>25678</v>
       </c>
       <c r="E699" t="inlineStr">
         <is>
@@ -17913,7 +17913,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>01/10/1999</t>
+          <t>01/03/1999</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D700" t="n">
-        <v>25601</v>
+        <v>25737</v>
       </c>
       <c r="E700" t="inlineStr">
         <is>
@@ -17938,7 +17938,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>01/09/1999</t>
+          <t>01/11/1999</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
@@ -17952,7 +17952,7 @@
         </is>
       </c>
       <c r="D701" t="n">
-        <v>24686</v>
+        <v>25481</v>
       </c>
       <c r="E701" t="inlineStr">
         <is>
@@ -17963,7 +17963,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>01/04/2000</t>
+          <t>01/10/1999</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
@@ -17977,7 +17977,7 @@
         </is>
       </c>
       <c r="D702" t="n">
-        <v>25440</v>
+        <v>25601</v>
       </c>
       <c r="E702" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>01/08/2000</t>
+          <t>01/09/1999</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
@@ -18002,7 +18002,7 @@
         </is>
       </c>
       <c r="D703" t="n">
-        <v>27353</v>
+        <v>24686</v>
       </c>
       <c r="E703" t="inlineStr">
         <is>
@@ -18013,7 +18013,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>01/12/2000</t>
+          <t>01/04/2000</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
@@ -18027,7 +18027,7 @@
         </is>
       </c>
       <c r="D704" t="n">
-        <v>26071</v>
+        <v>25440</v>
       </c>
       <c r="E704" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>01/02/2000</t>
+          <t>01/08/2000</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
@@ -18052,7 +18052,7 @@
         </is>
       </c>
       <c r="D705" t="n">
-        <v>25123</v>
+        <v>27353</v>
       </c>
       <c r="E705" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>01/01/2000</t>
+          <t>01/12/2000</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
@@ -18077,7 +18077,7 @@
         </is>
       </c>
       <c r="D706" t="n">
-        <v>26480</v>
+        <v>26071</v>
       </c>
       <c r="E706" t="inlineStr">
         <is>
@@ -18088,7 +18088,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>01/07/2000</t>
+          <t>01/02/2000</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
@@ -18102,7 +18102,7 @@
         </is>
       </c>
       <c r="D707" t="n">
-        <v>26914</v>
+        <v>25123</v>
       </c>
       <c r="E707" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>01/06/2000</t>
+          <t>01/01/2000</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
@@ -18127,7 +18127,7 @@
         </is>
       </c>
       <c r="D708" t="n">
-        <v>26044</v>
+        <v>26480</v>
       </c>
       <c r="E708" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>01/05/2000</t>
+          <t>01/07/2000</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
@@ -18152,7 +18152,7 @@
         </is>
       </c>
       <c r="D709" t="n">
-        <v>26406</v>
+        <v>26914</v>
       </c>
       <c r="E709" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>01/03/2000</t>
+          <t>01/06/2000</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
@@ -18177,7 +18177,7 @@
         </is>
       </c>
       <c r="D710" t="n">
-        <v>26572</v>
+        <v>26044</v>
       </c>
       <c r="E710" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>01/11/2000</t>
+          <t>01/05/2000</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
@@ -18202,7 +18202,7 @@
         </is>
       </c>
       <c r="D711" t="n">
-        <v>13928</v>
+        <v>26406</v>
       </c>
       <c r="E711" t="inlineStr">
         <is>
@@ -18213,7 +18213,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>01/10/2000</t>
+          <t>01/03/2000</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
@@ -18227,7 +18227,7 @@
         </is>
       </c>
       <c r="D712" t="n">
-        <v>26965</v>
+        <v>26572</v>
       </c>
       <c r="E712" t="inlineStr">
         <is>
@@ -18238,7 +18238,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>01/09/2000</t>
+          <t>01/11/2000</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
@@ -18252,7 +18252,7 @@
         </is>
       </c>
       <c r="D713" t="n">
-        <v>26129</v>
+        <v>13928</v>
       </c>
       <c r="E713" t="inlineStr">
         <is>
@@ -18263,7 +18263,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>01/04/2001</t>
+          <t>01/10/2000</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
@@ -18277,7 +18277,7 @@
         </is>
       </c>
       <c r="D714" t="n">
-        <v>18378</v>
+        <v>26965</v>
       </c>
       <c r="E714" t="inlineStr">
         <is>
@@ -18288,7 +18288,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>01/08/2001</t>
+          <t>01/09/2000</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
@@ -18302,7 +18302,7 @@
         </is>
       </c>
       <c r="D715" t="n">
-        <v>26465</v>
+        <v>26129</v>
       </c>
       <c r="E715" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>01/12/2001</t>
+          <t>01/04/2001</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D716" t="n">
-        <v>26876</v>
+        <v>18378</v>
       </c>
       <c r="E716" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>01/02/2001</t>
+          <t>01/08/2001</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
@@ -18352,7 +18352,7 @@
         </is>
       </c>
       <c r="D717" t="n">
-        <v>23797</v>
+        <v>26465</v>
       </c>
       <c r="E717" t="inlineStr">
         <is>
@@ -18363,7 +18363,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>01/01/2001</t>
+          <t>01/12/2001</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
@@ -18377,7 +18377,7 @@
         </is>
       </c>
       <c r="D718" t="n">
-        <v>26536</v>
+        <v>26876</v>
       </c>
       <c r="E718" t="inlineStr">
         <is>
@@ -18388,7 +18388,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>01/07/2001</t>
+          <t>01/02/2001</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
@@ -18402,7 +18402,7 @@
         </is>
       </c>
       <c r="D719" t="n">
-        <v>27236</v>
+        <v>23797</v>
       </c>
       <c r="E719" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>01/06/2001</t>
+          <t>01/01/2001</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
@@ -18427,7 +18427,7 @@
         </is>
       </c>
       <c r="D720" t="n">
-        <v>25806</v>
+        <v>26536</v>
       </c>
       <c r="E720" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>01/05/2001</t>
+          <t>01/07/2001</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
@@ -18452,7 +18452,7 @@
         </is>
       </c>
       <c r="D721" t="n">
-        <v>22691</v>
+        <v>27236</v>
       </c>
       <c r="E721" t="inlineStr">
         <is>
@@ -18463,7 +18463,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>01/03/2001</t>
+          <t>01/06/2001</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D722" t="n">
-        <v>25605</v>
+        <v>25806</v>
       </c>
       <c r="E722" t="inlineStr">
         <is>
@@ -18488,7 +18488,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>01/11/2001</t>
+          <t>01/05/2001</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
@@ -18502,7 +18502,7 @@
         </is>
       </c>
       <c r="D723" t="n">
-        <v>25852</v>
+        <v>22691</v>
       </c>
       <c r="E723" t="inlineStr">
         <is>
@@ -18513,7 +18513,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>01/10/2001</t>
+          <t>01/03/2001</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
@@ -18527,7 +18527,7 @@
         </is>
       </c>
       <c r="D724" t="n">
-        <v>26322</v>
+        <v>25605</v>
       </c>
       <c r="E724" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>01/09/2001</t>
+          <t>01/11/2001</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
@@ -18552,7 +18552,7 @@
         </is>
       </c>
       <c r="D725" t="n">
-        <v>23625</v>
+        <v>25852</v>
       </c>
       <c r="E725" t="inlineStr">
         <is>
@@ -18563,7 +18563,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>01/04/2002</t>
+          <t>01/10/2001</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
@@ -18577,7 +18577,7 @@
         </is>
       </c>
       <c r="D726" t="n">
-        <v>23065</v>
+        <v>26322</v>
       </c>
       <c r="E726" t="inlineStr">
         <is>
@@ -18588,7 +18588,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>01/08/2002</t>
+          <t>01/09/2001</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
@@ -18602,7 +18602,7 @@
         </is>
       </c>
       <c r="D727" t="n">
-        <v>25580</v>
+        <v>23625</v>
       </c>
       <c r="E727" t="inlineStr">
         <is>
@@ -18613,7 +18613,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>01/12/2002</t>
+          <t>01/04/2002</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
@@ -18627,7 +18627,7 @@
         </is>
       </c>
       <c r="D728" t="n">
-        <v>24957</v>
+        <v>23065</v>
       </c>
       <c r="E728" t="inlineStr">
         <is>
@@ -18638,7 +18638,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>01/02/2002</t>
+          <t>01/08/2002</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
@@ -18652,7 +18652,7 @@
         </is>
       </c>
       <c r="D729" t="n">
-        <v>24096</v>
+        <v>25580</v>
       </c>
       <c r="E729" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>01/01/2002</t>
+          <t>01/12/2002</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
@@ -18677,7 +18677,7 @@
         </is>
       </c>
       <c r="D730" t="n">
-        <v>27239</v>
+        <v>24957</v>
       </c>
       <c r="E730" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>01/07/2002</t>
+          <t>01/02/2002</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
@@ -18702,7 +18702,7 @@
         </is>
       </c>
       <c r="D731" t="n">
-        <v>25911</v>
+        <v>24096</v>
       </c>
       <c r="E731" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>01/06/2002</t>
+          <t>01/01/2002</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D732" t="n">
-        <v>24854</v>
+        <v>27239</v>
       </c>
       <c r="E732" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>01/05/2002</t>
+          <t>01/07/2002</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
@@ -18752,7 +18752,7 @@
         </is>
       </c>
       <c r="D733" t="n">
-        <v>24983</v>
+        <v>25911</v>
       </c>
       <c r="E733" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>01/03/2002</t>
+          <t>01/06/2002</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
@@ -18777,7 +18777,7 @@
         </is>
       </c>
       <c r="D734" t="n">
-        <v>25381</v>
+        <v>24854</v>
       </c>
       <c r="E734" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>01/11/2002</t>
+          <t>01/05/2002</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
@@ -18802,7 +18802,7 @@
         </is>
       </c>
       <c r="D735" t="n">
-        <v>24648</v>
+        <v>24983</v>
       </c>
       <c r="E735" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>01/10/2002</t>
+          <t>01/03/2002</t>
         </is>
       </c>
       <c r="B736" t="inlineStr">
@@ -18827,7 +18827,7 @@
         </is>
       </c>
       <c r="D736" t="n">
-        <v>24992</v>
+        <v>25381</v>
       </c>
       <c r="E736" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>01/09/2002</t>
+          <t>01/11/2002</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
@@ -18852,7 +18852,7 @@
         </is>
       </c>
       <c r="D737" t="n">
-        <v>24400</v>
+        <v>24648</v>
       </c>
       <c r="E737" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>01/04/2003</t>
+          <t>01/10/2002</t>
         </is>
       </c>
       <c r="B738" t="inlineStr">
@@ -18877,7 +18877,7 @@
         </is>
       </c>
       <c r="D738" t="n">
-        <v>20841</v>
+        <v>24992</v>
       </c>
       <c r="E738" t="inlineStr">
         <is>
@@ -18888,7 +18888,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>01/08/2003</t>
+          <t>01/09/2002</t>
         </is>
       </c>
       <c r="B739" t="inlineStr">
@@ -18902,7 +18902,7 @@
         </is>
       </c>
       <c r="D739" t="n">
-        <v>25463</v>
+        <v>24400</v>
       </c>
       <c r="E739" t="inlineStr">
         <is>
@@ -18913,7 +18913,7 @@
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>01/12/2003</t>
+          <t>01/04/2003</t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
@@ -18927,7 +18927,7 @@
         </is>
       </c>
       <c r="D740" t="n">
-        <v>24965</v>
+        <v>20841</v>
       </c>
       <c r="E740" t="inlineStr">
         <is>
@@ -18938,7 +18938,7 @@
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>01/02/2003</t>
+          <t>01/08/2003</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
@@ -18952,7 +18952,7 @@
         </is>
       </c>
       <c r="D741" t="n">
-        <v>20388</v>
+        <v>25463</v>
       </c>
       <c r="E741" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>01/01/2003</t>
+          <t>01/12/2003</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
@@ -18977,7 +18977,7 @@
         </is>
       </c>
       <c r="D742" t="n">
-        <v>24971</v>
+        <v>24965</v>
       </c>
       <c r="E742" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>01/07/2003</t>
+          <t>01/02/2003</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
@@ -19002,7 +19002,7 @@
         </is>
       </c>
       <c r="D743" t="n">
-        <v>23560</v>
+        <v>20388</v>
       </c>
       <c r="E743" t="inlineStr">
         <is>
@@ -19013,7 +19013,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>01/06/2003</t>
+          <t>01/01/2003</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="D744" t="n">
-        <v>22761</v>
+        <v>24971</v>
       </c>
       <c r="E744" t="inlineStr">
         <is>
@@ -19038,7 +19038,7 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>01/05/2003</t>
+          <t>01/07/2003</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
@@ -19052,7 +19052,7 @@
         </is>
       </c>
       <c r="D745" t="n">
-        <v>23510</v>
+        <v>23560</v>
       </c>
       <c r="E745" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>01/03/2003</t>
+          <t>01/06/2003</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
@@ -19077,7 +19077,7 @@
         </is>
       </c>
       <c r="D746" t="n">
-        <v>25907</v>
+        <v>22761</v>
       </c>
       <c r="E746" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>01/11/2003</t>
+          <t>01/05/2003</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
@@ -19102,7 +19102,7 @@
         </is>
       </c>
       <c r="D747" t="n">
-        <v>24041</v>
+        <v>23510</v>
       </c>
       <c r="E747" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>01/10/2003</t>
+          <t>01/03/2003</t>
         </is>
       </c>
       <c r="B748" t="inlineStr">
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D748" t="n">
-        <v>24023</v>
+        <v>25907</v>
       </c>
       <c r="E748" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>01/09/2003</t>
+          <t>01/11/2003</t>
         </is>
       </c>
       <c r="B749" t="inlineStr">
@@ -19152,7 +19152,7 @@
         </is>
       </c>
       <c r="D749" t="n">
-        <v>24294</v>
+        <v>24041</v>
       </c>
       <c r="E749" t="inlineStr">
         <is>
@@ -19163,7 +19163,7 @@
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>01/04/2004</t>
+          <t>01/10/2003</t>
         </is>
       </c>
       <c r="B750" t="inlineStr">
@@ -19177,7 +19177,7 @@
         </is>
       </c>
       <c r="D750" t="n">
-        <v>24411</v>
+        <v>24023</v>
       </c>
       <c r="E750" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>01/08/2004</t>
+          <t>01/09/2003</t>
         </is>
       </c>
       <c r="B751" t="inlineStr">
@@ -19202,7 +19202,7 @@
         </is>
       </c>
       <c r="D751" t="n">
-        <v>25873</v>
+        <v>24294</v>
       </c>
       <c r="E751" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>01/12/2004</t>
+          <t>01/04/2004</t>
         </is>
       </c>
       <c r="B752" t="inlineStr">
@@ -19227,7 +19227,7 @@
         </is>
       </c>
       <c r="D752" t="n">
-        <v>25343</v>
+        <v>24411</v>
       </c>
       <c r="E752" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>01/02/2004</t>
+          <t>01/08/2004</t>
         </is>
       </c>
       <c r="B753" t="inlineStr">
@@ -19252,7 +19252,7 @@
         </is>
       </c>
       <c r="D753" t="n">
-        <v>23497</v>
+        <v>25873</v>
       </c>
       <c r="E753" t="inlineStr">
         <is>
@@ -19263,7 +19263,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>01/01/2004</t>
+          <t>01/12/2004</t>
         </is>
       </c>
       <c r="B754" t="inlineStr">
@@ -19277,7 +19277,7 @@
         </is>
       </c>
       <c r="D754" t="n">
-        <v>23975</v>
+        <v>25343</v>
       </c>
       <c r="E754" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>01/02/2004</t>
         </is>
       </c>
       <c r="B755" t="inlineStr">
@@ -19302,7 +19302,7 @@
         </is>
       </c>
       <c r="D755" t="n">
-        <v>24979</v>
+        <v>23497</v>
       </c>
       <c r="E755" t="inlineStr">
         <is>
@@ -19313,7 +19313,7 @@
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>01/06/2004</t>
+          <t>01/01/2004</t>
         </is>
       </c>
       <c r="B756" t="inlineStr">
@@ -19327,7 +19327,7 @@
         </is>
       </c>
       <c r="D756" t="n">
-        <v>23413</v>
+        <v>23975</v>
       </c>
       <c r="E756" t="inlineStr">
         <is>
@@ -19338,7 +19338,7 @@
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>01/05/2004</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="B757" t="inlineStr">
@@ -19352,7 +19352,7 @@
         </is>
       </c>
       <c r="D757" t="n">
-        <v>21313</v>
+        <v>24979</v>
       </c>
       <c r="E757" t="inlineStr">
         <is>
@@ -19363,7 +19363,7 @@
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>01/03/2004</t>
+          <t>01/06/2004</t>
         </is>
       </c>
       <c r="B758" t="inlineStr">
@@ -19377,7 +19377,7 @@
         </is>
       </c>
       <c r="D758" t="n">
-        <v>25118</v>
+        <v>23413</v>
       </c>
       <c r="E758" t="inlineStr">
         <is>
@@ -19388,7 +19388,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>01/11/2004</t>
+          <t>01/05/2004</t>
         </is>
       </c>
       <c r="B759" t="inlineStr">
@@ -19402,7 +19402,7 @@
         </is>
       </c>
       <c r="D759" t="n">
-        <v>24463</v>
+        <v>21313</v>
       </c>
       <c r="E759" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>01/10/2004</t>
+          <t>01/03/2004</t>
         </is>
       </c>
       <c r="B760" t="inlineStr">
@@ -19427,7 +19427,7 @@
         </is>
       </c>
       <c r="D760" t="n">
-        <v>25566</v>
+        <v>25118</v>
       </c>
       <c r="E760" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>01/09/2004</t>
+          <t>01/11/2004</t>
         </is>
       </c>
       <c r="B761" t="inlineStr">
@@ -19452,7 +19452,7 @@
         </is>
       </c>
       <c r="D761" t="n">
-        <v>24720</v>
+        <v>24463</v>
       </c>
       <c r="E761" t="inlineStr">
         <is>
@@ -19463,7 +19463,7 @@
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>01/04/2005</t>
+          <t>01/10/2004</t>
         </is>
       </c>
       <c r="B762" t="inlineStr">
@@ -19477,7 +19477,7 @@
         </is>
       </c>
       <c r="D762" t="n">
-        <v>23924</v>
+        <v>25566</v>
       </c>
       <c r="E762" t="inlineStr">
         <is>
@@ -19488,7 +19488,7 @@
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>01/08/2005</t>
+          <t>01/09/2004</t>
         </is>
       </c>
       <c r="B763" t="inlineStr">
@@ -19502,7 +19502,7 @@
         </is>
       </c>
       <c r="D763" t="n">
-        <v>25213</v>
+        <v>24720</v>
       </c>
       <c r="E763" t="inlineStr">
         <is>
@@ -19513,7 +19513,7 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>01/12/2005</t>
+          <t>01/04/2005</t>
         </is>
       </c>
       <c r="B764" t="inlineStr">
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D764" t="n">
-        <v>24602</v>
+        <v>23924</v>
       </c>
       <c r="E764" t="inlineStr">
         <is>
@@ -19538,7 +19538,7 @@
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>01/02/2005</t>
+          <t>01/08/2005</t>
         </is>
       </c>
       <c r="B765" t="inlineStr">
@@ -19552,7 +19552,7 @@
         </is>
       </c>
       <c r="D765" t="n">
-        <v>22710</v>
+        <v>25213</v>
       </c>
       <c r="E765" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>01/01/2005</t>
+          <t>01/12/2005</t>
         </is>
       </c>
       <c r="B766" t="inlineStr">
@@ -19577,7 +19577,7 @@
         </is>
       </c>
       <c r="D766" t="n">
-        <v>24972</v>
+        <v>24602</v>
       </c>
       <c r="E766" t="inlineStr">
         <is>
@@ -19588,7 +19588,7 @@
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>01/07/2005</t>
+          <t>01/02/2005</t>
         </is>
       </c>
       <c r="B767" t="inlineStr">
@@ -19602,7 +19602,7 @@
         </is>
       </c>
       <c r="D767" t="n">
-        <v>25582</v>
+        <v>22710</v>
       </c>
       <c r="E767" t="inlineStr">
         <is>
@@ -19613,7 +19613,7 @@
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>01/06/2005</t>
+          <t>01/01/2005</t>
         </is>
       </c>
       <c r="B768" t="inlineStr">
@@ -19627,7 +19627,7 @@
         </is>
       </c>
       <c r="D768" t="n">
-        <v>24359</v>
+        <v>24972</v>
       </c>
       <c r="E768" t="inlineStr">
         <is>
@@ -19638,7 +19638,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>01/05/2005</t>
+          <t>01/07/2005</t>
         </is>
       </c>
       <c r="B769" t="inlineStr">
@@ -19652,7 +19652,7 @@
         </is>
       </c>
       <c r="D769" t="n">
-        <v>24053</v>
+        <v>25582</v>
       </c>
       <c r="E769" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>01/03/2005</t>
+          <t>01/06/2005</t>
         </is>
       </c>
       <c r="B770" t="inlineStr">
@@ -19677,7 +19677,7 @@
         </is>
       </c>
       <c r="D770" t="n">
-        <v>24836</v>
+        <v>24359</v>
       </c>
       <c r="E770" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>01/11/2005</t>
+          <t>01/05/2005</t>
         </is>
       </c>
       <c r="B771" t="inlineStr">
@@ -19702,7 +19702,7 @@
         </is>
       </c>
       <c r="D771" t="n">
-        <v>24169</v>
+        <v>24053</v>
       </c>
       <c r="E771" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>01/10/2005</t>
+          <t>01/03/2005</t>
         </is>
       </c>
       <c r="B772" t="inlineStr">
@@ -19727,7 +19727,7 @@
         </is>
       </c>
       <c r="D772" t="n">
-        <v>26281</v>
+        <v>24836</v>
       </c>
       <c r="E772" t="inlineStr">
         <is>
@@ -19738,7 +19738,7 @@
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>01/09/2005</t>
+          <t>01/11/2005</t>
         </is>
       </c>
       <c r="B773" t="inlineStr">
@@ -19752,7 +19752,7 @@
         </is>
       </c>
       <c r="D773" t="n">
-        <v>24180</v>
+        <v>24169</v>
       </c>
       <c r="E773" t="inlineStr">
         <is>
@@ -19763,7 +19763,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>01/04/2006</t>
+          <t>01/10/2005</t>
         </is>
       </c>
       <c r="B774" t="inlineStr">
@@ -19777,7 +19777,7 @@
         </is>
       </c>
       <c r="D774" t="n">
-        <v>24527</v>
+        <v>26281</v>
       </c>
       <c r="E774" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>01/08/2006</t>
+          <t>01/09/2005</t>
         </is>
       </c>
       <c r="B775" t="inlineStr">
@@ -19802,7 +19802,7 @@
         </is>
       </c>
       <c r="D775" t="n">
-        <v>25491</v>
+        <v>24180</v>
       </c>
       <c r="E775" t="inlineStr">
         <is>
@@ -19813,7 +19813,7 @@
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>01/12/2006</t>
+          <t>01/04/2006</t>
         </is>
       </c>
       <c r="B776" t="inlineStr">
@@ -19827,7 +19827,7 @@
         </is>
       </c>
       <c r="D776" t="n">
-        <v>25271</v>
+        <v>24527</v>
       </c>
       <c r="E776" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>01/02/2006</t>
+          <t>01/08/2006</t>
         </is>
       </c>
       <c r="B777" t="inlineStr">
@@ -19852,7 +19852,7 @@
         </is>
       </c>
       <c r="D777" t="n">
-        <v>23056</v>
+        <v>25491</v>
       </c>
       <c r="E777" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>01/01/2006</t>
+          <t>01/12/2006</t>
         </is>
       </c>
       <c r="B778" t="inlineStr">
@@ -19877,7 +19877,7 @@
         </is>
       </c>
       <c r="D778" t="n">
-        <v>24843</v>
+        <v>25271</v>
       </c>
       <c r="E778" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>01/07/2006</t>
+          <t>01/02/2006</t>
         </is>
       </c>
       <c r="B779" t="inlineStr">
@@ -19902,7 +19902,7 @@
         </is>
       </c>
       <c r="D779" t="n">
-        <v>25344</v>
+        <v>23056</v>
       </c>
       <c r="E779" t="inlineStr">
         <is>
@@ -19913,7 +19913,7 @@
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>01/06/2006</t>
+          <t>01/01/2006</t>
         </is>
       </c>
       <c r="B780" t="inlineStr">
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D780" t="n">
-        <v>25090</v>
+        <v>24843</v>
       </c>
       <c r="E780" t="inlineStr">
         <is>
@@ -19938,7 +19938,7 @@
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>01/05/2006</t>
+          <t>01/07/2006</t>
         </is>
       </c>
       <c r="B781" t="inlineStr">
@@ -19952,7 +19952,7 @@
         </is>
       </c>
       <c r="D781" t="n">
-        <v>25719</v>
+        <v>25344</v>
       </c>
       <c r="E781" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>01/03/2006</t>
+          <t>01/06/2006</t>
         </is>
       </c>
       <c r="B782" t="inlineStr">
@@ -19977,7 +19977,7 @@
         </is>
       </c>
       <c r="D782" t="n">
-        <v>11740</v>
+        <v>25090</v>
       </c>
       <c r="E782" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>01/11/2006</t>
+          <t>01/05/2006</t>
         </is>
       </c>
       <c r="B783" t="inlineStr">
@@ -20002,7 +20002,7 @@
         </is>
       </c>
       <c r="D783" t="n">
-        <v>23278</v>
+        <v>25719</v>
       </c>
       <c r="E783" t="inlineStr">
         <is>
@@ -20013,7 +20013,7 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>01/10/2006</t>
+          <t>01/03/2006</t>
         </is>
       </c>
       <c r="B784" t="inlineStr">
@@ -20027,7 +20027,7 @@
         </is>
       </c>
       <c r="D784" t="n">
-        <v>23622</v>
+        <v>11740</v>
       </c>
       <c r="E784" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>01/09/2006</t>
+          <t>01/11/2006</t>
         </is>
       </c>
       <c r="B785" t="inlineStr">
@@ -20052,7 +20052,7 @@
         </is>
       </c>
       <c r="D785" t="n">
-        <v>24562</v>
+        <v>23278</v>
       </c>
       <c r="E785" t="inlineStr">
         <is>
@@ -20063,7 +20063,7 @@
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>01/04/2007</t>
+          <t>01/10/2006</t>
         </is>
       </c>
       <c r="B786" t="inlineStr">
@@ -20077,7 +20077,7 @@
         </is>
       </c>
       <c r="D786" t="n">
-        <v>21384</v>
+        <v>23622</v>
       </c>
       <c r="E786" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>01/08/2007</t>
+          <t>01/09/2006</t>
         </is>
       </c>
       <c r="B787" t="inlineStr">
@@ -20102,7 +20102,7 @@
         </is>
       </c>
       <c r="D787" t="n">
-        <v>23805</v>
+        <v>24562</v>
       </c>
       <c r="E787" t="inlineStr">
         <is>
@@ -20113,7 +20113,7 @@
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>01/12/2007</t>
+          <t>01/04/2007</t>
         </is>
       </c>
       <c r="B788" t="inlineStr">
@@ -20127,7 +20127,7 @@
         </is>
       </c>
       <c r="D788" t="n">
-        <v>22898</v>
+        <v>21384</v>
       </c>
       <c r="E788" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>01/02/2007</t>
+          <t>01/08/2007</t>
         </is>
       </c>
       <c r="B789" t="inlineStr">
@@ -20152,7 +20152,7 @@
         </is>
       </c>
       <c r="D789" t="n">
-        <v>21968</v>
+        <v>23805</v>
       </c>
       <c r="E789" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>01/01/2007</t>
+          <t>01/12/2007</t>
         </is>
       </c>
       <c r="B790" t="inlineStr">
@@ -20177,7 +20177,7 @@
         </is>
       </c>
       <c r="D790" t="n">
-        <v>25496</v>
+        <v>22898</v>
       </c>
       <c r="E790" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>01/07/2007</t>
+          <t>01/02/2007</t>
         </is>
       </c>
       <c r="B791" t="inlineStr">
@@ -20202,7 +20202,7 @@
         </is>
       </c>
       <c r="D791" t="n">
-        <v>23875</v>
+        <v>21968</v>
       </c>
       <c r="E791" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>01/06/2007</t>
+          <t>01/01/2007</t>
         </is>
       </c>
       <c r="B792" t="inlineStr">
@@ -20227,7 +20227,7 @@
         </is>
       </c>
       <c r="D792" t="n">
-        <v>22080</v>
+        <v>25496</v>
       </c>
       <c r="E792" t="inlineStr">
         <is>
@@ -20238,7 +20238,7 @@
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>01/05/2007</t>
+          <t>01/07/2007</t>
         </is>
       </c>
       <c r="B793" t="inlineStr">
@@ -20252,7 +20252,7 @@
         </is>
       </c>
       <c r="D793" t="n">
-        <v>18737</v>
+        <v>23875</v>
       </c>
       <c r="E793" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>01/03/2007</t>
+          <t>01/06/2007</t>
         </is>
       </c>
       <c r="B794" t="inlineStr">
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D794" t="n">
-        <v>24212</v>
+        <v>22080</v>
       </c>
       <c r="E794" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>01/11/2007</t>
+          <t>01/05/2007</t>
         </is>
       </c>
       <c r="B795" t="inlineStr">
@@ -20302,7 +20302,7 @@
         </is>
       </c>
       <c r="D795" t="n">
-        <v>22033</v>
+        <v>18737</v>
       </c>
       <c r="E795" t="inlineStr">
         <is>
@@ -20313,7 +20313,7 @@
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>01/10/2007</t>
+          <t>01/03/2007</t>
         </is>
       </c>
       <c r="B796" t="inlineStr">
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D796" t="n">
-        <v>23866</v>
+        <v>24212</v>
       </c>
       <c r="E796" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>01/09/2007</t>
+          <t>01/11/2007</t>
         </is>
       </c>
       <c r="B797" t="inlineStr">
@@ -20352,7 +20352,7 @@
         </is>
       </c>
       <c r="D797" t="n">
-        <v>24017</v>
+        <v>22033</v>
       </c>
       <c r="E797" t="inlineStr">
         <is>
@@ -20363,7 +20363,7 @@
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>01/04/2008</t>
+          <t>01/10/2007</t>
         </is>
       </c>
       <c r="B798" t="inlineStr">
@@ -20377,7 +20377,7 @@
         </is>
       </c>
       <c r="D798" t="n">
-        <v>22341</v>
+        <v>23866</v>
       </c>
       <c r="E798" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>01/08/2008</t>
+          <t>01/09/2007</t>
         </is>
       </c>
       <c r="B799" t="inlineStr">
@@ -20402,7 +20402,7 @@
         </is>
       </c>
       <c r="D799" t="n">
-        <v>23413.9993</v>
+        <v>24017</v>
       </c>
       <c r="E799" t="inlineStr">
         <is>
@@ -20413,7 +20413,7 @@
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>01/12/2008</t>
+          <t>01/04/2008</t>
         </is>
       </c>
       <c r="B800" t="inlineStr">
@@ -20427,7 +20427,7 @@
         </is>
       </c>
       <c r="D800" t="n">
-        <v>21243.0011</v>
+        <v>22341</v>
       </c>
       <c r="E800" t="inlineStr">
         <is>
@@ -20438,7 +20438,7 @@
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>01/02/2008</t>
+          <t>01/08/2008</t>
         </is>
       </c>
       <c r="B801" t="inlineStr">
@@ -20452,7 +20452,7 @@
         </is>
       </c>
       <c r="D801" t="n">
-        <v>20461</v>
+        <v>23413.9993</v>
       </c>
       <c r="E801" t="inlineStr">
         <is>
@@ -20463,7 +20463,7 @@
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>01/01/2008</t>
+          <t>01/12/2008</t>
         </is>
       </c>
       <c r="B802" t="inlineStr">
@@ -20477,7 +20477,7 @@
         </is>
       </c>
       <c r="D802" t="n">
-        <v>22454</v>
+        <v>21243.0011</v>
       </c>
       <c r="E802" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>01/07/2008</t>
+          <t>01/02/2008</t>
         </is>
       </c>
       <c r="B803" t="inlineStr">
@@ -20502,7 +20502,7 @@
         </is>
       </c>
       <c r="D803" t="n">
-        <v>22084.0001</v>
+        <v>20461</v>
       </c>
       <c r="E803" t="inlineStr">
         <is>
@@ -20513,7 +20513,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>01/06/2008</t>
+          <t>01/01/2008</t>
         </is>
       </c>
       <c r="B804" t="inlineStr">
@@ -20527,7 +20527,7 @@
         </is>
       </c>
       <c r="D804" t="n">
-        <v>21446.001</v>
+        <v>22454</v>
       </c>
       <c r="E804" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>01/05/2008</t>
+          <t>01/07/2008</t>
         </is>
       </c>
       <c r="B805" t="inlineStr">
@@ -20552,7 +20552,7 @@
         </is>
       </c>
       <c r="D805" t="n">
-        <v>22333</v>
+        <v>22084.0001</v>
       </c>
       <c r="E805" t="inlineStr">
         <is>
@@ -20563,7 +20563,7 @@
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>01/03/2008</t>
+          <t>01/06/2008</t>
         </is>
       </c>
       <c r="B806" t="inlineStr">
@@ -20577,7 +20577,7 @@
         </is>
       </c>
       <c r="D806" t="n">
-        <v>22425</v>
+        <v>21446.001</v>
       </c>
       <c r="E806" t="inlineStr">
         <is>
@@ -20588,7 +20588,7 @@
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>01/11/2008</t>
+          <t>01/05/2008</t>
         </is>
       </c>
       <c r="B807" t="inlineStr">
@@ -20602,7 +20602,7 @@
         </is>
       </c>
       <c r="D807" t="n">
-        <v>20454</v>
+        <v>22333</v>
       </c>
       <c r="E807" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>01/03/2008</t>
         </is>
       </c>
       <c r="B808" t="inlineStr">
@@ -20627,7 +20627,7 @@
         </is>
       </c>
       <c r="D808" t="n">
-        <v>19738.9989</v>
+        <v>22425</v>
       </c>
       <c r="E808" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>01/09/2008</t>
+          <t>01/11/2008</t>
         </is>
       </c>
       <c r="B809" t="inlineStr">
@@ -20652,7 +20652,7 @@
         </is>
       </c>
       <c r="D809" t="n">
-        <v>21581.001</v>
+        <v>20454</v>
       </c>
       <c r="E809" t="inlineStr">
         <is>
@@ -20663,7 +20663,7 @@
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>01/04/2009</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="B810" t="inlineStr">
@@ -20677,7 +20677,7 @@
         </is>
       </c>
       <c r="D810" t="n">
-        <v>20352.999</v>
+        <v>19738.9989</v>
       </c>
       <c r="E810" t="inlineStr">
         <is>
@@ -20688,7 +20688,7 @@
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>01/08/2009</t>
+          <t>01/09/2008</t>
         </is>
       </c>
       <c r="B811" t="inlineStr">
@@ -20702,7 +20702,7 @@
         </is>
       </c>
       <c r="D811" t="n">
-        <v>19636.0014</v>
+        <v>21581.001</v>
       </c>
       <c r="E811" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>01/12/2009</t>
+          <t>01/04/2009</t>
         </is>
       </c>
       <c r="B812" t="inlineStr">
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D812" t="n">
-        <v>20058.9995</v>
+        <v>20352.999</v>
       </c>
       <c r="E812" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>01/02/2009</t>
+          <t>01/08/2009</t>
         </is>
       </c>
       <c r="B813" t="inlineStr">
@@ -20752,7 +20752,7 @@
         </is>
       </c>
       <c r="D813" t="n">
-        <v>18858.9996</v>
+        <v>19636.0014</v>
       </c>
       <c r="E813" t="inlineStr">
         <is>
@@ -20763,7 +20763,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>01/01/2009</t>
+          <t>01/12/2009</t>
         </is>
       </c>
       <c r="B814" t="inlineStr">
@@ -20777,7 +20777,7 @@
         </is>
       </c>
       <c r="D814" t="n">
-        <v>22225.0005</v>
+        <v>20058.9995</v>
       </c>
       <c r="E814" t="inlineStr">
         <is>
@@ -20788,7 +20788,7 @@
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>01/07/2009</t>
+          <t>01/02/2009</t>
         </is>
       </c>
       <c r="B815" t="inlineStr">
@@ -20802,7 +20802,7 @@
         </is>
       </c>
       <c r="D815" t="n">
-        <v>20578.0015</v>
+        <v>18858.9996</v>
       </c>
       <c r="E815" t="inlineStr">
         <is>
@@ -20813,7 +20813,7 @@
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>01/06/2009</t>
+          <t>01/01/2009</t>
         </is>
       </c>
       <c r="B816" t="inlineStr">
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="D816" t="n">
-        <v>20096.001</v>
+        <v>22225.0005</v>
       </c>
       <c r="E816" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>01/05/2009</t>
+          <t>01/07/2009</t>
         </is>
       </c>
       <c r="B817" t="inlineStr">
@@ -20852,7 +20852,7 @@
         </is>
       </c>
       <c r="D817" t="n">
-        <v>20487.001</v>
+        <v>20578.0015</v>
       </c>
       <c r="E817" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>01/03/2009</t>
+          <t>01/06/2009</t>
         </is>
       </c>
       <c r="B818" t="inlineStr">
@@ -20877,7 +20877,7 @@
         </is>
       </c>
       <c r="D818" t="n">
-        <v>21078.9987</v>
+        <v>20096.001</v>
       </c>
       <c r="E818" t="inlineStr">
         <is>
@@ -20888,7 +20888,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>01/11/2009</t>
+          <t>01/05/2009</t>
         </is>
       </c>
       <c r="B819" t="inlineStr">
@@ -20902,7 +20902,7 @@
         </is>
       </c>
       <c r="D819" t="n">
-        <v>19530</v>
+        <v>20487.001</v>
       </c>
       <c r="E819" t="inlineStr">
         <is>
@@ -20913,7 +20913,7 @@
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>01/10/2009</t>
+          <t>01/03/2009</t>
         </is>
       </c>
       <c r="B820" t="inlineStr">
@@ -20927,7 +20927,7 @@
         </is>
       </c>
       <c r="D820" t="n">
-        <v>19538.0011</v>
+        <v>21078.9987</v>
       </c>
       <c r="E820" t="inlineStr">
         <is>
@@ -20938,7 +20938,7 @@
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>01/09/2009</t>
+          <t>01/11/2009</t>
         </is>
       </c>
       <c r="B821" t="inlineStr">
@@ -20952,7 +20952,7 @@
         </is>
       </c>
       <c r="D821" t="n">
-        <v>19464</v>
+        <v>19530</v>
       </c>
       <c r="E821" t="inlineStr">
         <is>
@@ -20963,7 +20963,7 @@
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>01/04/2010</t>
+          <t>01/10/2009</t>
         </is>
       </c>
       <c r="B822" t="inlineStr">
@@ -20977,7 +20977,7 @@
         </is>
       </c>
       <c r="D822" t="n">
-        <v>18477</v>
+        <v>19538.0011</v>
       </c>
       <c r="E822" t="inlineStr">
         <is>
@@ -20988,7 +20988,7 @@
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>01/08/2010</t>
+          <t>01/09/2009</t>
         </is>
       </c>
       <c r="B823" t="inlineStr">
@@ -21002,7 +21002,7 @@
         </is>
       </c>
       <c r="D823" t="n">
-        <v>19472</v>
+        <v>19464</v>
       </c>
       <c r="E823" t="inlineStr">
         <is>
@@ -21013,7 +21013,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>01/12/2010</t>
+          <t>01/04/2010</t>
         </is>
       </c>
       <c r="B824" t="inlineStr">
@@ -21027,7 +21027,7 @@
         </is>
       </c>
       <c r="D824" t="n">
-        <v>19253</v>
+        <v>18477</v>
       </c>
       <c r="E824" t="inlineStr">
         <is>
@@ -21038,7 +21038,7 @@
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>01/02/2010</t>
+          <t>01/08/2010</t>
         </is>
       </c>
       <c r="B825" t="inlineStr">
@@ -21052,7 +21052,7 @@
         </is>
       </c>
       <c r="D825" t="n">
-        <v>17250</v>
+        <v>19472</v>
       </c>
       <c r="E825" t="inlineStr">
         <is>
@@ -21063,7 +21063,7 @@
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>01/01/2010</t>
+          <t>01/12/2010</t>
         </is>
       </c>
       <c r="B826" t="inlineStr">
@@ -21077,7 +21077,7 @@
         </is>
       </c>
       <c r="D826" t="n">
-        <v>19822</v>
+        <v>19253</v>
       </c>
       <c r="E826" t="inlineStr">
         <is>
@@ -21088,7 +21088,7 @@
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>01/07/2010</t>
+          <t>01/02/2010</t>
         </is>
       </c>
       <c r="B827" t="inlineStr">
@@ -21102,7 +21102,7 @@
         </is>
       </c>
       <c r="D827" t="n">
-        <v>19943</v>
+        <v>17250</v>
       </c>
       <c r="E827" t="inlineStr">
         <is>
@@ -21113,7 +21113,7 @@
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>01/06/2010</t>
+          <t>01/01/2010</t>
         </is>
       </c>
       <c r="B828" t="inlineStr">
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D828" t="n">
-        <v>18899</v>
+        <v>19822</v>
       </c>
       <c r="E828" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>01/05/2010</t>
+          <t>01/07/2010</t>
         </is>
       </c>
       <c r="B829" t="inlineStr">
@@ -21152,7 +21152,7 @@
         </is>
       </c>
       <c r="D829" t="n">
-        <v>19225</v>
+        <v>19943</v>
       </c>
       <c r="E829" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>01/03/2010</t>
+          <t>01/06/2010</t>
         </is>
       </c>
       <c r="B830" t="inlineStr">
@@ -21177,7 +21177,7 @@
         </is>
       </c>
       <c r="D830" t="n">
-        <v>18557</v>
+        <v>18899</v>
       </c>
       <c r="E830" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>01/11/2010</t>
+          <t>01/05/2010</t>
         </is>
       </c>
       <c r="B831" t="inlineStr">
@@ -21202,7 +21202,7 @@
         </is>
       </c>
       <c r="D831" t="n">
-        <v>18252</v>
+        <v>19225</v>
       </c>
       <c r="E831" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>01/10/2010</t>
+          <t>01/03/2010</t>
         </is>
       </c>
       <c r="B832" t="inlineStr">
@@ -21227,7 +21227,7 @@
         </is>
       </c>
       <c r="D832" t="n">
-        <v>19679</v>
+        <v>18557</v>
       </c>
       <c r="E832" t="inlineStr">
         <is>
@@ -21238,7 +21238,7 @@
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>01/09/2010</t>
+          <t>01/11/2010</t>
         </is>
       </c>
       <c r="B833" t="inlineStr">
@@ -21252,7 +21252,7 @@
         </is>
       </c>
       <c r="D833" t="n">
-        <v>18162</v>
+        <v>18252</v>
       </c>
       <c r="E833" t="inlineStr">
         <is>
@@ -21263,7 +21263,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>01/04/2011</t>
+          <t>01/10/2010</t>
         </is>
       </c>
       <c r="B834" t="inlineStr">
@@ -21277,7 +21277,7 @@
         </is>
       </c>
       <c r="D834" t="n">
-        <v>14211.9</v>
+        <v>19679</v>
       </c>
       <c r="E834" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>01/08/2011</t>
+          <t>01/09/2010</t>
         </is>
       </c>
       <c r="B835" t="inlineStr">
@@ -21302,7 +21302,7 @@
         </is>
       </c>
       <c r="D835" t="n">
-        <v>15656.1</v>
+        <v>18162</v>
       </c>
       <c r="E835" t="inlineStr">
         <is>
@@ -21313,7 +21313,7 @@
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>01/12/2011</t>
+          <t>01/04/2011</t>
         </is>
       </c>
       <c r="B836" t="inlineStr">
@@ -21327,7 +21327,7 @@
         </is>
       </c>
       <c r="D836" t="n">
-        <v>16836.5</v>
+        <v>14211.9</v>
       </c>
       <c r="E836" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>01/02/2011</t>
+          <t>01/08/2011</t>
         </is>
       </c>
       <c r="B837" t="inlineStr">
@@ -21352,7 +21352,7 @@
         </is>
       </c>
       <c r="D837" t="n">
-        <v>15945.6</v>
+        <v>15656.1</v>
       </c>
       <c r="E837" t="inlineStr">
         <is>
@@ -21363,7 +21363,7 @@
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>01/01/2011</t>
+          <t>01/12/2011</t>
         </is>
       </c>
       <c r="B838" t="inlineStr">
@@ -21377,7 +21377,7 @@
         </is>
       </c>
       <c r="D838" t="n">
-        <v>18522.8</v>
+        <v>16836.5</v>
       </c>
       <c r="E838" t="inlineStr">
         <is>
@@ -21388,7 +21388,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>01/07/2011</t>
+          <t>01/02/2011</t>
         </is>
       </c>
       <c r="B839" t="inlineStr">
@@ -21402,7 +21402,7 @@
         </is>
       </c>
       <c r="D839" t="n">
-        <v>14478.2</v>
+        <v>15945.6</v>
       </c>
       <c r="E839" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>01/06/2011</t>
+          <t>01/01/2011</t>
         </is>
       </c>
       <c r="B840" t="inlineStr">
@@ -21427,7 +21427,7 @@
         </is>
       </c>
       <c r="D840" t="n">
-        <v>15871.3</v>
+        <v>18522.8</v>
       </c>
       <c r="E840" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>01/05/2011</t>
+          <t>01/07/2011</t>
         </is>
       </c>
       <c r="B841" t="inlineStr">
@@ -21452,7 +21452,7 @@
         </is>
       </c>
       <c r="D841" t="n">
-        <v>17668.9</v>
+        <v>14478.2</v>
       </c>
       <c r="E841" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>01/03/2011</t>
+          <t>01/06/2011</t>
         </is>
       </c>
       <c r="B842" t="inlineStr">
@@ -21477,7 +21477,7 @@
         </is>
       </c>
       <c r="D842" t="n">
-        <v>10940.8</v>
+        <v>15871.3</v>
       </c>
       <c r="E842" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>01/11/2011</t>
+          <t>01/05/2011</t>
         </is>
       </c>
       <c r="B843" t="inlineStr">
@@ -21502,7 +21502,7 @@
         </is>
       </c>
       <c r="D843" t="n">
-        <v>15787.4</v>
+        <v>17668.9</v>
       </c>
       <c r="E843" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>01/10/2011</t>
+          <t>01/03/2011</t>
         </is>
       </c>
       <c r="B844" t="inlineStr">
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D844" t="n">
-        <v>16134.4</v>
+        <v>10940.8</v>
       </c>
       <c r="E844" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>01/09/2011</t>
+          <t>01/11/2011</t>
         </is>
       </c>
       <c r="B845" t="inlineStr">
@@ -21552,7 +21552,7 @@
         </is>
       </c>
       <c r="D845" t="n">
-        <v>15096.4</v>
+        <v>15787.4</v>
       </c>
       <c r="E845" t="inlineStr">
         <is>
@@ -21563,7 +21563,7 @@
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>01/04/2012</t>
+          <t>01/10/2011</t>
         </is>
       </c>
       <c r="B846" t="inlineStr">
@@ -21577,7 +21577,7 @@
         </is>
       </c>
       <c r="D846" t="n">
-        <v>10707.1</v>
+        <v>16134.4</v>
       </c>
       <c r="E846" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>01/08/2012</t>
+          <t>01/09/2011</t>
         </is>
       </c>
       <c r="B847" t="inlineStr">
@@ -21602,7 +21602,7 @@
         </is>
       </c>
       <c r="D847" t="n">
-        <v>16193.1</v>
+        <v>15096.4</v>
       </c>
       <c r="E847" t="inlineStr">
         <is>
@@ -21613,7 +21613,7 @@
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>01/12/2012</t>
+          <t>01/04/2012</t>
         </is>
       </c>
       <c r="B848" t="inlineStr">
@@ -21627,7 +21627,7 @@
         </is>
       </c>
       <c r="D848" t="n">
-        <v>17393.3</v>
+        <v>10707.1</v>
       </c>
       <c r="E848" t="inlineStr">
         <is>
@@ -21638,7 +21638,7 @@
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>01/02/2012</t>
+          <t>01/08/2012</t>
         </is>
       </c>
       <c r="B849" t="inlineStr">
@@ -21652,7 +21652,7 @@
         </is>
       </c>
       <c r="D849" t="n">
-        <v>14260.4</v>
+        <v>16193.1</v>
       </c>
       <c r="E849" t="inlineStr">
         <is>
@@ -21663,7 +21663,7 @@
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>01/12/2012</t>
         </is>
       </c>
       <c r="B850" t="inlineStr">
@@ -21677,7 +21677,7 @@
         </is>
       </c>
       <c r="D850" t="n">
-        <v>16058.3</v>
+        <v>17393.3</v>
       </c>
       <c r="E850" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>01/07/2012</t>
+          <t>01/02/2012</t>
         </is>
       </c>
       <c r="B851" t="inlineStr">
@@ -21702,7 +21702,7 @@
         </is>
       </c>
       <c r="D851" t="n">
-        <v>12701.4</v>
+        <v>14260.4</v>
       </c>
       <c r="E851" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>01/06/2012</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="B852" t="inlineStr">
@@ -21727,7 +21727,7 @@
         </is>
       </c>
       <c r="D852" t="n">
-        <v>10851.8</v>
+        <v>16058.3</v>
       </c>
       <c r="E852" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>01/05/2012</t>
+          <t>01/07/2012</t>
         </is>
       </c>
       <c r="B853" t="inlineStr">
@@ -21752,7 +21752,7 @@
         </is>
       </c>
       <c r="D853" t="n">
-        <v>10692</v>
+        <v>12701.4</v>
       </c>
       <c r="E853" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>01/03/2012</t>
+          <t>01/06/2012</t>
         </is>
       </c>
       <c r="B854" t="inlineStr">
@@ -21777,7 +21777,7 @@
         </is>
       </c>
       <c r="D854" t="n">
-        <v>14311.3</v>
+        <v>10851.8</v>
       </c>
       <c r="E854" t="inlineStr">
         <is>
@@ -21788,7 +21788,7 @@
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>01/11/2012</t>
+          <t>01/05/2012</t>
         </is>
       </c>
       <c r="B855" t="inlineStr">
@@ -21802,7 +21802,7 @@
         </is>
       </c>
       <c r="D855" t="n">
-        <v>16574.9</v>
+        <v>10692</v>
       </c>
       <c r="E855" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>01/10/2012</t>
+          <t>01/03/2012</t>
         </is>
       </c>
       <c r="B856" t="inlineStr">
@@ -21827,7 +21827,7 @@
         </is>
       </c>
       <c r="D856" t="n">
-        <v>13682.2</v>
+        <v>14311.3</v>
       </c>
       <c r="E856" t="inlineStr">
         <is>
@@ -21838,7 +21838,7 @@
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>01/09/2012</t>
+          <t>01/11/2012</t>
         </is>
       </c>
       <c r="B857" t="inlineStr">
@@ -21852,7 +21852,7 @@
         </is>
       </c>
       <c r="D857" t="n">
-        <v>12246</v>
+        <v>16574.9</v>
       </c>
       <c r="E857" t="inlineStr">
         <is>
@@ -21863,7 +21863,7 @@
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>01/04/2013</t>
+          <t>01/10/2012</t>
         </is>
       </c>
       <c r="B858" t="inlineStr">
@@ -21877,7 +21877,7 @@
         </is>
       </c>
       <c r="D858" t="n">
-        <v>15186.2</v>
+        <v>13682.2</v>
       </c>
       <c r="E858" t="inlineStr">
         <is>
@@ -21888,7 +21888,7 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>01/08/2013</t>
+          <t>01/09/2012</t>
         </is>
       </c>
       <c r="B859" t="inlineStr">
@@ -21902,7 +21902,7 @@
         </is>
       </c>
       <c r="D859" t="n">
-        <v>14998.4</v>
+        <v>12246</v>
       </c>
       <c r="E859" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>01/12/2013</t>
+          <t>01/04/2013</t>
         </is>
       </c>
       <c r="B860" t="inlineStr">
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D860" t="n">
-        <v>15576.1</v>
+        <v>15186.2</v>
       </c>
       <c r="E860" t="inlineStr">
         <is>
@@ -21938,7 +21938,7 @@
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>01/02/2013</t>
+          <t>01/08/2013</t>
         </is>
       </c>
       <c r="B861" t="inlineStr">
@@ -21952,7 +21952,7 @@
         </is>
       </c>
       <c r="D861" t="n">
-        <v>14992.1</v>
+        <v>14998.4</v>
       </c>
       <c r="E861" t="inlineStr">
         <is>
@@ -21963,7 +21963,7 @@
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/12/2013</t>
         </is>
       </c>
       <c r="B862" t="inlineStr">
@@ -21977,7 +21977,7 @@
         </is>
       </c>
       <c r="D862" t="n">
-        <v>16653.1</v>
+        <v>15576.1</v>
       </c>
       <c r="E862" t="inlineStr">
         <is>
@@ -21988,7 +21988,7 @@
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>01/07/2013</t>
+          <t>01/02/2013</t>
         </is>
       </c>
       <c r="B863" t="inlineStr">
@@ -22002,7 +22002,7 @@
         </is>
       </c>
       <c r="D863" t="n">
-        <v>15326.3</v>
+        <v>14992.1</v>
       </c>
       <c r="E863" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>01/06/2013</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="B864" t="inlineStr">
@@ -22027,7 +22027,7 @@
         </is>
       </c>
       <c r="D864" t="n">
-        <v>15355.6</v>
+        <v>16653.1</v>
       </c>
       <c r="E864" t="inlineStr">
         <is>
@@ -22038,7 +22038,7 @@
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>01/05/2013</t>
+          <t>01/07/2013</t>
         </is>
       </c>
       <c r="B865" t="inlineStr">
@@ -22052,7 +22052,7 @@
         </is>
       </c>
       <c r="D865" t="n">
-        <v>14825.2</v>
+        <v>15326.3</v>
       </c>
       <c r="E865" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>01/03/2013</t>
+          <t>01/06/2013</t>
         </is>
       </c>
       <c r="B866" t="inlineStr">
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D866" t="n">
-        <v>15537.2</v>
+        <v>15355.6</v>
       </c>
       <c r="E866" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>01/11/2013</t>
+          <t>01/05/2013</t>
         </is>
       </c>
       <c r="B867" t="inlineStr">
@@ -22102,7 +22102,7 @@
         </is>
       </c>
       <c r="D867" t="n">
-        <v>14997.2</v>
+        <v>14825.2</v>
       </c>
       <c r="E867" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>01/03/2013</t>
         </is>
       </c>
       <c r="B868" t="inlineStr">
@@ -22127,7 +22127,7 @@
         </is>
       </c>
       <c r="D868" t="n">
-        <v>14495.7</v>
+        <v>15537.2</v>
       </c>
       <c r="E868" t="inlineStr">
         <is>
@@ -22138,7 +22138,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>01/09/2013</t>
+          <t>01/11/2013</t>
         </is>
       </c>
       <c r="B869" t="inlineStr">
@@ -22152,7 +22152,7 @@
         </is>
       </c>
       <c r="D869" t="n">
-        <v>14777.2</v>
+        <v>14997.2</v>
       </c>
       <c r="E869" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>01/04/2014</t>
+          <t>01/10/2013</t>
         </is>
       </c>
       <c r="B870" t="inlineStr">
@@ -22177,7 +22177,7 @@
         </is>
       </c>
       <c r="D870" t="n">
-        <v>15228.7</v>
+        <v>14495.7</v>
       </c>
       <c r="E870" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>01/08/2014</t>
+          <t>01/09/2013</t>
         </is>
       </c>
       <c r="B871" t="inlineStr">
@@ -22202,7 +22202,7 @@
         </is>
       </c>
       <c r="D871" t="n">
-        <v>14545.5</v>
+        <v>14777.2</v>
       </c>
       <c r="E871" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>01/12/2014</t>
+          <t>01/04/2014</t>
         </is>
       </c>
       <c r="B872" t="inlineStr">
@@ -22227,7 +22227,7 @@
         </is>
       </c>
       <c r="D872" t="n">
-        <v>13264.2</v>
+        <v>15228.7</v>
       </c>
       <c r="E872" t="inlineStr">
         <is>
@@ -22238,7 +22238,7 @@
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>01/02/2014</t>
+          <t>01/08/2014</t>
         </is>
       </c>
       <c r="B873" t="inlineStr">
@@ -22252,7 +22252,7 @@
         </is>
       </c>
       <c r="D873" t="n">
-        <v>13542.3</v>
+        <v>14545.5</v>
       </c>
       <c r="E873" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/12/2014</t>
         </is>
       </c>
       <c r="B874" t="inlineStr">
@@ -22277,7 +22277,7 @@
         </is>
       </c>
       <c r="D874" t="n">
-        <v>15019.1</v>
+        <v>13264.2</v>
       </c>
       <c r="E874" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
+          <t>01/02/2014</t>
         </is>
       </c>
       <c r="B875" t="inlineStr">
@@ -22302,7 +22302,7 @@
         </is>
       </c>
       <c r="D875" t="n">
-        <v>14900.7</v>
+        <v>13542.3</v>
       </c>
       <c r="E875" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>01/06/2014</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="B876" t="inlineStr">
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D876" t="n">
-        <v>14977.9</v>
+        <v>15019.1</v>
       </c>
       <c r="E876" t="inlineStr">
         <is>
@@ -22338,7 +22338,7 @@
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>01/05/2014</t>
+          <t>01/07/2014</t>
         </is>
       </c>
       <c r="B877" t="inlineStr">
@@ -22352,7 +22352,7 @@
         </is>
       </c>
       <c r="D877" t="n">
-        <v>16141.5</v>
+        <v>14900.7</v>
       </c>
       <c r="E877" t="inlineStr">
         <is>
@@ -22363,7 +22363,7 @@
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>01/03/2014</t>
+          <t>01/06/2014</t>
         </is>
       </c>
       <c r="B878" t="inlineStr">
@@ -22377,7 +22377,7 @@
         </is>
       </c>
       <c r="D878" t="n">
-        <v>15178.7</v>
+        <v>14977.9</v>
       </c>
       <c r="E878" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>01/11/2014</t>
+          <t>01/05/2014</t>
         </is>
       </c>
       <c r="B879" t="inlineStr">
@@ -22402,7 +22402,7 @@
         </is>
       </c>
       <c r="D879" t="n">
-        <v>11227.8</v>
+        <v>16141.5</v>
       </c>
       <c r="E879" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>01/10/2014</t>
+          <t>01/03/2014</t>
         </is>
       </c>
       <c r="B880" t="inlineStr">
@@ -22427,7 +22427,7 @@
         </is>
       </c>
       <c r="D880" t="n">
-        <v>14384.8</v>
+        <v>15178.7</v>
       </c>
       <c r="E880" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>01/09/2014</t>
+          <t>01/11/2014</t>
         </is>
       </c>
       <c r="B881" t="inlineStr">
@@ -22452,7 +22452,7 @@
         </is>
       </c>
       <c r="D881" t="n">
-        <v>13936.6</v>
+        <v>11227.8</v>
       </c>
       <c r="E881" t="inlineStr">
         <is>
@@ -22463,7 +22463,7 @@
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>01/04/2015</t>
+          <t>01/10/2014</t>
         </is>
       </c>
       <c r="B882" t="inlineStr">
@@ -22477,7 +22477,7 @@
         </is>
       </c>
       <c r="D882" t="n">
-        <v>13917.8</v>
+        <v>14384.8</v>
       </c>
       <c r="E882" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>01/08/2015</t>
+          <t>01/09/2014</t>
         </is>
       </c>
       <c r="B883" t="inlineStr">
@@ -22502,7 +22502,7 @@
         </is>
       </c>
       <c r="D883" t="n">
-        <v>11403.3</v>
+        <v>13936.6</v>
       </c>
       <c r="E883" t="inlineStr">
         <is>
@@ -22513,7 +22513,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>01/12/2015</t>
+          <t>01/04/2015</t>
         </is>
       </c>
       <c r="B884" t="inlineStr">
@@ -22527,7 +22527,7 @@
         </is>
       </c>
       <c r="D884" t="n">
-        <v>9425.700000000001</v>
+        <v>13917.8</v>
       </c>
       <c r="E884" t="inlineStr">
         <is>
@@ -22538,7 +22538,7 @@
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>01/02/2015</t>
+          <t>01/08/2015</t>
         </is>
       </c>
       <c r="B885" t="inlineStr">
@@ -22552,7 +22552,7 @@
         </is>
       </c>
       <c r="D885" t="n">
-        <v>13004.4</v>
+        <v>11403.3</v>
       </c>
       <c r="E885" t="inlineStr">
         <is>
@@ -22563,7 +22563,7 @@
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/12/2015</t>
         </is>
       </c>
       <c r="B886" t="inlineStr">
@@ -22577,7 +22577,7 @@
         </is>
       </c>
       <c r="D886" t="n">
-        <v>14478.2</v>
+        <v>9425.700000000001</v>
       </c>
       <c r="E886" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>01/07/2015</t>
+          <t>01/02/2015</t>
         </is>
       </c>
       <c r="B887" t="inlineStr">
@@ -22602,7 +22602,7 @@
         </is>
       </c>
       <c r="D887" t="n">
-        <v>11946.4</v>
+        <v>13004.4</v>
       </c>
       <c r="E887" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>01/06/2015</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="B888" t="inlineStr">
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="D888" t="n">
-        <v>12385.6</v>
+        <v>14478.2</v>
       </c>
       <c r="E888" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>01/05/2015</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="B889" t="inlineStr">
@@ -22652,7 +22652,7 @@
         </is>
       </c>
       <c r="D889" t="n">
-        <v>12823.9</v>
+        <v>11946.4</v>
       </c>
       <c r="E889" t="inlineStr">
         <is>
@@ -22663,7 +22663,7 @@
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>01/03/2015</t>
+          <t>01/06/2015</t>
         </is>
       </c>
       <c r="B890" t="inlineStr">
@@ -22677,7 +22677,7 @@
         </is>
       </c>
       <c r="D890" t="n">
-        <v>14916.8</v>
+        <v>12385.6</v>
       </c>
       <c r="E890" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>01/11/2015</t>
+          <t>01/05/2015</t>
         </is>
       </c>
       <c r="B891" t="inlineStr">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="D891" t="n">
-        <v>5361.7</v>
+        <v>12823.9</v>
       </c>
       <c r="E891" t="inlineStr">
         <is>
@@ -22713,7 +22713,7 @@
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/03/2015</t>
         </is>
       </c>
       <c r="B892" t="inlineStr">
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D892" t="n">
-        <v>11384.7</v>
+        <v>14916.8</v>
       </c>
       <c r="E892" t="inlineStr">
         <is>
@@ -22738,7 +22738,7 @@
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>01/09/2015</t>
+          <t>01/11/2015</t>
         </is>
       </c>
       <c r="B893" t="inlineStr">
@@ -22752,7 +22752,7 @@
         </is>
       </c>
       <c r="D893" t="n">
-        <v>11927.3</v>
+        <v>5361.7</v>
       </c>
       <c r="E893" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>01/04/2016</t>
+          <t>01/10/2015</t>
         </is>
       </c>
       <c r="B894" t="inlineStr">
@@ -22777,7 +22777,7 @@
         </is>
       </c>
       <c r="D894" t="n">
-        <v>9074.1</v>
+        <v>11384.7</v>
       </c>
       <c r="E894" t="inlineStr">
         <is>
@@ -22788,7 +22788,7 @@
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>01/08/2016</t>
+          <t>01/09/2015</t>
         </is>
       </c>
       <c r="B895" t="inlineStr">
@@ -22802,7 +22802,7 @@
         </is>
       </c>
       <c r="D895" t="n">
-        <v>9273.799999999999</v>
+        <v>11927.3</v>
       </c>
       <c r="E895" t="inlineStr">
         <is>
@@ -22813,7 +22813,7 @@
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>01/12/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="B896" t="inlineStr">
@@ -22827,7 +22827,7 @@
         </is>
       </c>
       <c r="D896" t="n">
-        <v>3213.5</v>
+        <v>9074.1</v>
       </c>
       <c r="E896" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>01/02/2016</t>
+          <t>01/08/2016</t>
         </is>
       </c>
       <c r="B897" t="inlineStr">
@@ -22852,7 +22852,7 @@
         </is>
       </c>
       <c r="D897" t="n">
-        <v>8886.4</v>
+        <v>9273.799999999999</v>
       </c>
       <c r="E897" t="inlineStr">
         <is>
@@ -22863,7 +22863,7 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/12/2016</t>
         </is>
       </c>
       <c r="B898" t="inlineStr">
@@ -22877,7 +22877,7 @@
         </is>
       </c>
       <c r="D898" t="n">
-        <v>9118.200000000001</v>
+        <v>3213.5</v>
       </c>
       <c r="E898" t="inlineStr">
         <is>
@@ -22888,7 +22888,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
+          <t>01/02/2016</t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
@@ -22902,7 +22902,7 @@
         </is>
       </c>
       <c r="D899" t="n">
-        <v>9093.799999999999</v>
+        <v>8886.4</v>
       </c>
       <c r="E899" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>01/06/2016</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
@@ -22927,7 +22927,7 @@
         </is>
       </c>
       <c r="D900" t="n">
-        <v>8134.5</v>
+        <v>9118.200000000001</v>
       </c>
       <c r="E900" t="inlineStr">
         <is>
@@ -22938,7 +22938,7 @@
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>01/05/2016</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="B901" t="inlineStr">
@@ -22952,7 +22952,7 @@
         </is>
       </c>
       <c r="D901" t="n">
-        <v>9412.299999999999</v>
+        <v>9093.799999999999</v>
       </c>
       <c r="E901" t="inlineStr">
         <is>
@@ -22963,7 +22963,7 @@
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>01/03/2016</t>
+          <t>01/06/2016</t>
         </is>
       </c>
       <c r="B902" t="inlineStr">
@@ -22977,7 +22977,7 @@
         </is>
       </c>
       <c r="D902" t="n">
-        <v>9861.1</v>
+        <v>8134.5</v>
       </c>
       <c r="E902" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>01/11/2016</t>
+          <t>01/05/2016</t>
         </is>
       </c>
       <c r="B903" t="inlineStr">
@@ -23002,7 +23002,7 @@
         </is>
       </c>
       <c r="D903" t="n">
-        <v>7657.6</v>
+        <v>9412.299999999999</v>
       </c>
       <c r="E903" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/03/2016</t>
         </is>
       </c>
       <c r="B904" t="inlineStr">
@@ -23027,7 +23027,7 @@
         </is>
       </c>
       <c r="D904" t="n">
-        <v>8933.1</v>
+        <v>9861.1</v>
       </c>
       <c r="E904" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>01/09/2016</t>
+          <t>01/11/2016</t>
         </is>
       </c>
       <c r="B905" t="inlineStr">
@@ -23052,7 +23052,7 @@
         </is>
       </c>
       <c r="D905" t="n">
-        <v>8977.299999999999</v>
+        <v>7657.6</v>
       </c>
       <c r="E905" t="inlineStr">
         <is>
@@ -23063,7 +23063,7 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>01/04/2017</t>
+          <t>01/10/2016</t>
         </is>
       </c>
       <c r="B906" t="inlineStr">
@@ -23077,7 +23077,7 @@
         </is>
       </c>
       <c r="D906" t="n">
-        <v>6856.1</v>
+        <v>8933.1</v>
       </c>
       <c r="E906" t="inlineStr">
         <is>
@@ -23088,7 +23088,7 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>01/08/2017</t>
+          <t>01/09/2016</t>
         </is>
       </c>
       <c r="B907" t="inlineStr">
@@ -23102,7 +23102,7 @@
         </is>
       </c>
       <c r="D907" t="n">
-        <v>7185.4</v>
+        <v>8977.299999999999</v>
       </c>
       <c r="E907" t="inlineStr">
         <is>
@@ -23113,7 +23113,7 @@
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>01/12/2017</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="B908" t="inlineStr">
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D908" t="n">
-        <v>9617.700000000001</v>
+        <v>6856.1</v>
       </c>
       <c r="E908" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>01/02/2017</t>
+          <t>01/08/2017</t>
         </is>
       </c>
       <c r="B909" t="inlineStr">
@@ -23152,7 +23152,7 @@
         </is>
       </c>
       <c r="D909" t="n">
-        <v>6279.5</v>
+        <v>7185.4</v>
       </c>
       <c r="E909" t="inlineStr">
         <is>
@@ -23163,7 +23163,7 @@
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/12/2017</t>
         </is>
       </c>
       <c r="B910" t="inlineStr">
@@ -23177,7 +23177,7 @@
         </is>
       </c>
       <c r="D910" t="n">
-        <v>7743.8</v>
+        <v>9617.700000000001</v>
       </c>
       <c r="E910" t="inlineStr">
         <is>
@@ -23188,7 +23188,7 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
+          <t>01/02/2017</t>
         </is>
       </c>
       <c r="B911" t="inlineStr">
@@ -23202,7 +23202,7 @@
         </is>
       </c>
       <c r="D911" t="n">
-        <v>6753.2</v>
+        <v>6279.5</v>
       </c>
       <c r="E911" t="inlineStr">
         <is>
@@ -23213,7 +23213,7 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>01/06/2017</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="B912" t="inlineStr">
@@ -23227,7 +23227,7 @@
         </is>
       </c>
       <c r="D912" t="n">
-        <v>6679</v>
+        <v>7743.8</v>
       </c>
       <c r="E912" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>01/05/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="B913" t="inlineStr">
@@ -23252,7 +23252,7 @@
         </is>
       </c>
       <c r="D913" t="n">
-        <v>6777</v>
+        <v>6753.2</v>
       </c>
       <c r="E913" t="inlineStr">
         <is>
@@ -23263,7 +23263,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>01/03/2017</t>
+          <t>01/06/2017</t>
         </is>
       </c>
       <c r="B914" t="inlineStr">
@@ -23277,7 +23277,7 @@
         </is>
       </c>
       <c r="D914" t="n">
-        <v>7180</v>
+        <v>6679</v>
       </c>
       <c r="E914" t="inlineStr">
         <is>
@@ -23288,7 +23288,7 @@
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>01/11/2017</t>
+          <t>01/05/2017</t>
         </is>
       </c>
       <c r="B915" t="inlineStr">
@@ -23302,7 +23302,7 @@
         </is>
       </c>
       <c r="D915" t="n">
-        <v>7720.9</v>
+        <v>6777</v>
       </c>
       <c r="E915" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/03/2017</t>
         </is>
       </c>
       <c r="B916" t="inlineStr">
@@ -23327,7 +23327,7 @@
         </is>
       </c>
       <c r="D916" t="n">
-        <v>7765.07</v>
+        <v>7180</v>
       </c>
       <c r="E916" t="inlineStr">
         <is>
@@ -23338,7 +23338,7 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>01/09/2017</t>
+          <t>01/11/2017</t>
         </is>
       </c>
       <c r="B917" t="inlineStr">
@@ -23352,7 +23352,7 @@
         </is>
       </c>
       <c r="D917" t="n">
-        <v>7191.4</v>
+        <v>7720.9</v>
       </c>
       <c r="E917" t="inlineStr">
         <is>
@@ -23363,7 +23363,7 @@
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>01/04/2018</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="B918" t="inlineStr">
@@ -23377,7 +23377,7 @@
         </is>
       </c>
       <c r="D918" t="n">
-        <v>6020</v>
+        <v>7765.07</v>
       </c>
       <c r="E918" t="inlineStr">
         <is>
@@ -23388,7 +23388,7 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>01/08/2018</t>
+          <t>01/09/2017</t>
         </is>
       </c>
       <c r="B919" t="inlineStr">
@@ -23402,7 +23402,7 @@
         </is>
       </c>
       <c r="D919" t="n">
-        <v>5969</v>
+        <v>7191.4</v>
       </c>
       <c r="E919" t="inlineStr">
         <is>
@@ -23413,7 +23413,7 @@
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>01/12/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
@@ -23427,7 +23427,7 @@
         </is>
       </c>
       <c r="D920" t="n">
-        <v>6061</v>
+        <v>6020</v>
       </c>
       <c r="E920" t="inlineStr">
         <is>
@@ -23438,7 +23438,7 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>01/02/2018</t>
+          <t>01/08/2018</t>
         </is>
       </c>
       <c r="B921" t="inlineStr">
@@ -23452,7 +23452,7 @@
         </is>
       </c>
       <c r="D921" t="n">
-        <v>6141.6</v>
+        <v>5969</v>
       </c>
       <c r="E921" t="inlineStr">
         <is>
@@ -23463,7 +23463,7 @@
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/12/2018</t>
         </is>
       </c>
       <c r="B922" t="inlineStr">
@@ -23477,7 +23477,7 @@
         </is>
       </c>
       <c r="D922" t="n">
-        <v>7289.478</v>
+        <v>6061</v>
       </c>
       <c r="E922" t="inlineStr">
         <is>
@@ -23488,7 +23488,7 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>01/02/2018</t>
         </is>
       </c>
       <c r="B923" t="inlineStr">
@@ -23502,7 +23502,7 @@
         </is>
       </c>
       <c r="D923" t="n">
-        <v>5621.504</v>
+        <v>6141.6</v>
       </c>
       <c r="E923" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>01/06/2018</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="B924" t="inlineStr">
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D924" t="n">
-        <v>5487.042</v>
+        <v>7289.478</v>
       </c>
       <c r="E924" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>01/05/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="B925" t="inlineStr">
@@ -23552,7 +23552,7 @@
         </is>
       </c>
       <c r="D925" t="n">
-        <v>5549.7</v>
+        <v>5621.504</v>
       </c>
       <c r="E925" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>01/03/2018</t>
+          <t>01/06/2018</t>
         </is>
       </c>
       <c r="B926" t="inlineStr">
@@ -23577,7 +23577,7 @@
         </is>
       </c>
       <c r="D926" t="n">
-        <v>6426.258</v>
+        <v>5487.042</v>
       </c>
       <c r="E926" t="inlineStr">
         <is>
@@ -23588,7 +23588,7 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>01/11/2018</t>
+          <t>01/05/2018</t>
         </is>
       </c>
       <c r="B927" t="inlineStr">
@@ -23602,7 +23602,7 @@
         </is>
       </c>
       <c r="D927" t="n">
-        <v>5685.5</v>
+        <v>5549.7</v>
       </c>
       <c r="E927" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/03/2018</t>
         </is>
       </c>
       <c r="B928" t="inlineStr">
@@ -23627,7 +23627,7 @@
         </is>
       </c>
       <c r="D928" t="n">
-        <v>5916.66</v>
+        <v>6426.258</v>
       </c>
       <c r="E928" t="inlineStr">
         <is>
@@ -23638,7 +23638,7 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>01/09/2018</t>
+          <t>01/11/2018</t>
         </is>
       </c>
       <c r="B929" t="inlineStr">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="D929" t="n">
-        <v>5970.399</v>
+        <v>5685.5</v>
       </c>
       <c r="E929" t="inlineStr">
         <is>
@@ -23663,7 +23663,7 @@
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="B930" t="inlineStr">
@@ -23677,7 +23677,7 @@
         </is>
       </c>
       <c r="D930" t="n">
-        <v>5391.2</v>
+        <v>5916.66</v>
       </c>
       <c r="E930" t="inlineStr">
         <is>
@@ -23688,7 +23688,7 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>01/08/2019</t>
+          <t>01/09/2018</t>
         </is>
       </c>
       <c r="B931" t="inlineStr">
@@ -23702,7 +23702,7 @@
         </is>
       </c>
       <c r="D931" t="n">
-        <v>4054.5</v>
+        <v>5970.399</v>
       </c>
       <c r="E931" t="inlineStr">
         <is>
@@ -23713,7 +23713,7 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>01/12/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="B932" t="inlineStr">
@@ -23727,7 +23727,7 @@
         </is>
       </c>
       <c r="D932" t="n">
-        <v>4830.4</v>
+        <v>5391.2</v>
       </c>
       <c r="E932" t="inlineStr">
         <is>
@@ -23738,7 +23738,7 @@
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>01/02/2019</t>
+          <t>01/08/2019</t>
         </is>
       </c>
       <c r="B933" t="inlineStr">
@@ -23752,7 +23752,7 @@
         </is>
       </c>
       <c r="D933" t="n">
-        <v>3997.1</v>
+        <v>4054.5</v>
       </c>
       <c r="E933" t="inlineStr">
         <is>
@@ -23763,7 +23763,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/12/2019</t>
         </is>
       </c>
       <c r="B934" t="inlineStr">
@@ -23777,7 +23777,7 @@
         </is>
       </c>
       <c r="D934" t="n">
-        <v>5711.1</v>
+        <v>4830.4</v>
       </c>
       <c r="E934" t="inlineStr">
         <is>
@@ -23788,7 +23788,7 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/02/2019</t>
         </is>
       </c>
       <c r="B935" t="inlineStr">
@@ -23802,7 +23802,7 @@
         </is>
       </c>
       <c r="D935" t="n">
-        <v>4524.82</v>
+        <v>3997.1</v>
       </c>
       <c r="E935" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>01/06/2019</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="B936" t="inlineStr">
@@ -23827,7 +23827,7 @@
         </is>
       </c>
       <c r="D936" t="n">
-        <v>4716.577</v>
+        <v>5711.1</v>
       </c>
       <c r="E936" t="inlineStr">
         <is>
@@ -23838,7 +23838,7 @@
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>01/05/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="B937" t="inlineStr">
@@ -23852,7 +23852,7 @@
         </is>
       </c>
       <c r="D937" t="n">
-        <v>5361.2</v>
+        <v>4524.82</v>
       </c>
       <c r="E937" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>01/03/2019</t>
+          <t>01/06/2019</t>
         </is>
       </c>
       <c r="B938" t="inlineStr">
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D938" t="n">
-        <v>4734.9</v>
+        <v>4716.577</v>
       </c>
       <c r="E938" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>01/11/2019</t>
+          <t>01/05/2019</t>
         </is>
       </c>
       <c r="B939" t="inlineStr">
@@ -23902,7 +23902,7 @@
         </is>
       </c>
       <c r="D939" t="n">
-        <v>3812.4</v>
+        <v>5361.2</v>
       </c>
       <c r="E939" t="inlineStr">
         <is>
@@ -23913,7 +23913,7 @@
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/03/2019</t>
         </is>
       </c>
       <c r="B940" t="inlineStr">
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D940" t="n">
-        <v>4339.8</v>
+        <v>4734.9</v>
       </c>
       <c r="E940" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>01/09/2019</t>
+          <t>01/11/2019</t>
         </is>
       </c>
       <c r="B941" t="inlineStr">
@@ -23952,7 +23952,7 @@
         </is>
       </c>
       <c r="D941" t="n">
-        <v>3820.9</v>
+        <v>3812.4</v>
       </c>
       <c r="E941" t="inlineStr">
         <is>
@@ -23963,7 +23963,7 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="B942" t="inlineStr">
@@ -23977,7 +23977,7 @@
         </is>
       </c>
       <c r="D942" t="n">
-        <v>0</v>
+        <v>4339.8</v>
       </c>
       <c r="E942" t="inlineStr">
         <is>
@@ -23988,7 +23988,7 @@
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>01/08/2020</t>
+          <t>01/09/2019</t>
         </is>
       </c>
       <c r="B943" t="inlineStr">
@@ -24002,7 +24002,7 @@
         </is>
       </c>
       <c r="D943" t="n">
-        <v>0</v>
+        <v>3820.9</v>
       </c>
       <c r="E943" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>01/12/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="B944" t="inlineStr">
@@ -24038,7 +24038,7 @@
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>01/02/2020</t>
+          <t>01/08/2020</t>
         </is>
       </c>
       <c r="B945" t="inlineStr">
@@ -24052,7 +24052,7 @@
         </is>
       </c>
       <c r="D945" t="n">
-        <v>5762.358</v>
+        <v>0</v>
       </c>
       <c r="E945" t="inlineStr">
         <is>
@@ -24063,7 +24063,7 @@
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/12/2020</t>
         </is>
       </c>
       <c r="B946" t="inlineStr">
@@ -24077,7 +24077,7 @@
         </is>
       </c>
       <c r="D946" t="n">
-        <v>5560.337</v>
+        <v>0</v>
       </c>
       <c r="E946" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/02/2020</t>
         </is>
       </c>
       <c r="B947" t="inlineStr">
@@ -24102,7 +24102,7 @@
         </is>
       </c>
       <c r="D947" t="n">
-        <v>0</v>
+        <v>5762.358</v>
       </c>
       <c r="E947" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>01/06/2020</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="B948" t="inlineStr">
@@ -24127,7 +24127,7 @@
         </is>
       </c>
       <c r="D948" t="n">
-        <v>0</v>
+        <v>5560.337</v>
       </c>
       <c r="E948" t="inlineStr">
         <is>
@@ -24138,7 +24138,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>01/05/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="B949" t="inlineStr">
@@ -24163,7 +24163,7 @@
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>01/03/2020</t>
+          <t>01/06/2020</t>
         </is>
       </c>
       <c r="B950" t="inlineStr">
@@ -24177,7 +24177,7 @@
         </is>
       </c>
       <c r="D950" t="n">
-        <v>5496</v>
+        <v>0</v>
       </c>
       <c r="E950" t="inlineStr">
         <is>
@@ -24188,7 +24188,7 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>01/11/2020</t>
+          <t>01/05/2020</t>
         </is>
       </c>
       <c r="B951" t="inlineStr">
@@ -24213,7 +24213,7 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/03/2020</t>
         </is>
       </c>
       <c r="B952" t="inlineStr">
@@ -24227,7 +24227,7 @@
         </is>
       </c>
       <c r="D952" t="n">
-        <v>0</v>
+        <v>5496</v>
       </c>
       <c r="E952" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>01/09/2020</t>
+          <t>01/11/2020</t>
         </is>
       </c>
       <c r="B953" t="inlineStr">
@@ -24263,7 +24263,7 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="B954" t="inlineStr">
@@ -24288,7 +24288,7 @@
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>01/08/2021</t>
+          <t>01/09/2020</t>
         </is>
       </c>
       <c r="B955" t="inlineStr">
@@ -24313,7 +24313,7 @@
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>01/12/2021</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="B956" t="inlineStr">
@@ -24338,7 +24338,7 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>01/02/2021</t>
+          <t>01/08/2021</t>
         </is>
       </c>
       <c r="B957" t="inlineStr">
@@ -24363,7 +24363,7 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/12/2021</t>
         </is>
       </c>
       <c r="B958" t="inlineStr">
@@ -24388,7 +24388,7 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/02/2021</t>
         </is>
       </c>
       <c r="B959" t="inlineStr">
@@ -24413,7 +24413,7 @@
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>01/06/2021</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="B960" t="inlineStr">
@@ -24438,7 +24438,7 @@
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>01/05/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="B961" t="inlineStr">
@@ -24463,7 +24463,7 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>01/03/2021</t>
+          <t>01/06/2021</t>
         </is>
       </c>
       <c r="B962" t="inlineStr">
@@ -24488,7 +24488,7 @@
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>01/11/2021</t>
+          <t>01/05/2021</t>
         </is>
       </c>
       <c r="B963" t="inlineStr">
@@ -24513,7 +24513,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/03/2021</t>
         </is>
       </c>
       <c r="B964" t="inlineStr">
@@ -24538,7 +24538,7 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>01/09/2021</t>
+          <t>01/11/2021</t>
         </is>
       </c>
       <c r="B965" t="inlineStr">
@@ -24563,7 +24563,7 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="B966" t="inlineStr">
@@ -24588,7 +24588,7 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>01/08/2022</t>
+          <t>01/09/2021</t>
         </is>
       </c>
       <c r="B967" t="inlineStr">
@@ -24613,7 +24613,7 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>01/12/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="B968" t="inlineStr">
@@ -24638,7 +24638,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>01/02/2022</t>
+          <t>01/08/2022</t>
         </is>
       </c>
       <c r="B969" t="inlineStr">
@@ -24663,7 +24663,7 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/12/2022</t>
         </is>
       </c>
       <c r="B970" t="inlineStr">
@@ -24688,7 +24688,7 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/02/2022</t>
         </is>
       </c>
       <c r="B971" t="inlineStr">
@@ -24713,7 +24713,7 @@
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>01/06/2022</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="B972" t="inlineStr">
@@ -24738,7 +24738,7 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>01/05/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="B973" t="inlineStr">
@@ -24763,7 +24763,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>01/03/2022</t>
+          <t>01/06/2022</t>
         </is>
       </c>
       <c r="B974" t="inlineStr">
@@ -24788,7 +24788,7 @@
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>01/11/2022</t>
+          <t>01/05/2022</t>
         </is>
       </c>
       <c r="B975" t="inlineStr">
@@ -24813,7 +24813,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/03/2022</t>
         </is>
       </c>
       <c r="B976" t="inlineStr">
@@ -24838,7 +24838,7 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>01/09/2022</t>
+          <t>01/11/2022</t>
         </is>
       </c>
       <c r="B977" t="inlineStr">
@@ -24863,7 +24863,7 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="B978" t="inlineStr">
@@ -24888,7 +24888,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01/09/2022</t>
         </is>
       </c>
       <c r="B979" t="inlineStr">
@@ -24913,7 +24913,7 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="B980" t="inlineStr">
@@ -24938,7 +24938,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>01/02/2023</t>
+          <t>01/08/2023</t>
         </is>
       </c>
       <c r="B981" t="inlineStr">
@@ -24963,7 +24963,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="B982" t="inlineStr">
@@ -24988,7 +24988,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/02/2023</t>
         </is>
       </c>
       <c r="B983" t="inlineStr">
@@ -25013,7 +25013,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>01/06/2023</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="B984" t="inlineStr">
@@ -25038,7 +25038,7 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>01/05/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="B985" t="inlineStr">
@@ -25063,7 +25063,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>01/03/2023</t>
+          <t>01/06/2023</t>
         </is>
       </c>
       <c r="B986" t="inlineStr">
@@ -25088,7 +25088,7 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>01/11/2023</t>
+          <t>01/05/2023</t>
         </is>
       </c>
       <c r="B987" t="inlineStr">
@@ -25113,7 +25113,7 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/03/2023</t>
         </is>
       </c>
       <c r="B988" t="inlineStr">
@@ -25138,7 +25138,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>01/09/2023</t>
+          <t>01/11/2023</t>
         </is>
       </c>
       <c r="B989" t="inlineStr">
@@ -25163,7 +25163,7 @@
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="B990" t="inlineStr">
@@ -25188,7 +25188,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>01/09/2023</t>
         </is>
       </c>
       <c r="B991" t="inlineStr">
@@ -25213,7 +25213,7 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>01/02/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="B992" t="inlineStr">
@@ -25238,7 +25238,7 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B993" t="inlineStr">
@@ -25263,7 +25263,7 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
+          <t>01/02/2024</t>
         </is>
       </c>
       <c r="B994" t="inlineStr">
@@ -25288,7 +25288,7 @@
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>01/06/2024</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="B995" t="inlineStr">
@@ -25313,7 +25313,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>01/05/2024</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="B996" t="inlineStr">
@@ -25338,7 +25338,7 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>01/03/2024</t>
+          <t>01/06/2024</t>
         </is>
       </c>
       <c r="B997" t="inlineStr">
@@ -25355,6 +25355,81 @@
         <v>0</v>
       </c>
       <c r="E997" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="inlineStr">
+        <is>
+          <t>01/05/2024</t>
+        </is>
+      </c>
+      <c r="B998" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C998" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D998" t="n">
+        <v>0</v>
+      </c>
+      <c r="E998" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="inlineStr">
+        <is>
+          <t>01/03/2024</t>
+        </is>
+      </c>
+      <c r="B999" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C999" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D999" t="n">
+        <v>0</v>
+      </c>
+      <c r="E999" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="B1000" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C1000" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1000" t="inlineStr">
         <is>
           <t>SERGIPE</t>
         </is>

--- a/Data/g8.2.xlsx
+++ b/Data/g8.2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E985"/>
+  <dimension ref="A1:E1003"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16713,7 +16713,7 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>01/02/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D652" t="n">
-        <v>69.839</v>
+        <v>68.842</v>
       </c>
       <c r="E652" t="inlineStr">
         <is>
@@ -16738,7 +16738,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>01/02/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
@@ -16752,7 +16752,7 @@
         </is>
       </c>
       <c r="D653" t="n">
-        <v>1544.116</v>
+        <v>1435.047</v>
       </c>
       <c r="E653" t="inlineStr">
         <is>
@@ -16763,7 +16763,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/02/2024</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
@@ -16777,7 +16777,7 @@
         </is>
       </c>
       <c r="D654" t="n">
-        <v>78.95999999999999</v>
+        <v>69.839</v>
       </c>
       <c r="E654" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/02/2024</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
@@ -16802,7 +16802,7 @@
         </is>
       </c>
       <c r="D655" t="n">
-        <v>1774.621</v>
+        <v>1544.116</v>
       </c>
       <c r="E655" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>01/03/2024</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
@@ -16827,7 +16827,7 @@
         </is>
       </c>
       <c r="D656" t="n">
-        <v>72.51000000000001</v>
+        <v>78.95999999999999</v>
       </c>
       <c r="E656" t="inlineStr">
         <is>
@@ -16838,7 +16838,7 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>01/03/2024</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
@@ -16852,7 +16852,7 @@
         </is>
       </c>
       <c r="D657" t="n">
-        <v>1639.846</v>
+        <v>1774.621</v>
       </c>
       <c r="E657" t="inlineStr">
         <is>
@@ -16863,21 +16863,21 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>01/04/1997</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA</t>
+          <t>MAR</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>LGN</t>
+          <t>GÁS NATURAL</t>
         </is>
       </c>
       <c r="D658" t="n">
-        <v>20951</v>
+        <v>68.252</v>
       </c>
       <c r="E658" t="inlineStr">
         <is>
@@ -16888,21 +16888,21 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>01/08/1997</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA</t>
+          <t>TERRA</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>LGN</t>
+          <t>GÁS NATURAL</t>
         </is>
       </c>
       <c r="D659" t="n">
-        <v>24698</v>
+        <v>2178.435</v>
       </c>
       <c r="E659" t="inlineStr">
         <is>
@@ -16913,21 +16913,21 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>01/12/1997</t>
+          <t>01/06/2024</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA</t>
+          <t>MAR</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>LGN</t>
+          <t>GÁS NATURAL</t>
         </is>
       </c>
       <c r="D660" t="n">
-        <v>23230</v>
+        <v>64.83499999999999</v>
       </c>
       <c r="E660" t="inlineStr">
         <is>
@@ -16938,21 +16938,21 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>01/02/1997</t>
+          <t>01/06/2024</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA</t>
+          <t>TERRA</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>LGN</t>
+          <t>GÁS NATURAL</t>
         </is>
       </c>
       <c r="D661" t="n">
-        <v>19007</v>
+        <v>1974.229</v>
       </c>
       <c r="E661" t="inlineStr">
         <is>
@@ -16963,21 +16963,21 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>01/01/1997</t>
+          <t>01/05/2024</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA</t>
+          <t>MAR</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>LGN</t>
+          <t>GÁS NATURAL</t>
         </is>
       </c>
       <c r="D662" t="n">
-        <v>18978</v>
+        <v>68.96599999999999</v>
       </c>
       <c r="E662" t="inlineStr">
         <is>
@@ -16988,21 +16988,21 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>01/07/1997</t>
+          <t>01/05/2024</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA</t>
+          <t>TERRA</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>LGN</t>
+          <t>GÁS NATURAL</t>
         </is>
       </c>
       <c r="D663" t="n">
-        <v>23232</v>
+        <v>1893.56</v>
       </c>
       <c r="E663" t="inlineStr">
         <is>
@@ -17013,21 +17013,21 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>01/06/1997</t>
+          <t>01/03/2024</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA</t>
+          <t>MAR</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>LGN</t>
+          <t>GÁS NATURAL</t>
         </is>
       </c>
       <c r="D664" t="n">
-        <v>22449</v>
+        <v>72.51000000000001</v>
       </c>
       <c r="E664" t="inlineStr">
         <is>
@@ -17038,21 +17038,21 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>01/05/1997</t>
+          <t>01/03/2024</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA</t>
+          <t>TERRA</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>LGN</t>
+          <t>GÁS NATURAL</t>
         </is>
       </c>
       <c r="D665" t="n">
-        <v>24757</v>
+        <v>1639.846</v>
       </c>
       <c r="E665" t="inlineStr">
         <is>
@@ -17063,21 +17063,21 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>01/03/1997</t>
+          <t>01/10/2024</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA</t>
+          <t>MAR</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t>LGN</t>
+          <t>GÁS NATURAL</t>
         </is>
       </c>
       <c r="D666" t="n">
-        <v>19807</v>
+        <v>69.205</v>
       </c>
       <c r="E666" t="inlineStr">
         <is>
@@ -17088,21 +17088,21 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>01/11/1997</t>
+          <t>01/10/2024</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA</t>
+          <t>TERRA</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>LGN</t>
+          <t>GÁS NATURAL</t>
         </is>
       </c>
       <c r="D667" t="n">
-        <v>22027</v>
+        <v>1677.056</v>
       </c>
       <c r="E667" t="inlineStr">
         <is>
@@ -17113,21 +17113,21 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>01/10/1997</t>
+          <t>01/09/2024</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA</t>
+          <t>MAR</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>LGN</t>
+          <t>GÁS NATURAL</t>
         </is>
       </c>
       <c r="D668" t="n">
-        <v>21890</v>
+        <v>57.802</v>
       </c>
       <c r="E668" t="inlineStr">
         <is>
@@ -17138,21 +17138,21 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>01/09/1997</t>
+          <t>01/09/2024</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA</t>
+          <t>TERRA</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>LGN</t>
+          <t>GÁS NATURAL</t>
         </is>
       </c>
       <c r="D669" t="n">
-        <v>22749</v>
+        <v>1610.794</v>
       </c>
       <c r="E669" t="inlineStr">
         <is>
@@ -17163,7 +17163,7 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>01/04/1998</t>
+          <t>01/04/1997</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
@@ -17177,7 +17177,7 @@
         </is>
       </c>
       <c r="D670" t="n">
-        <v>131778.0699</v>
+        <v>20951</v>
       </c>
       <c r="E670" t="inlineStr">
         <is>
@@ -17188,7 +17188,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>01/08/1998</t>
+          <t>01/08/1997</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
@@ -17202,7 +17202,7 @@
         </is>
       </c>
       <c r="D671" t="n">
-        <v>155346.0346</v>
+        <v>24698</v>
       </c>
       <c r="E671" t="inlineStr">
         <is>
@@ -17213,7 +17213,7 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>01/12/1998</t>
+          <t>01/12/1997</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="D672" t="n">
-        <v>146112.5752</v>
+        <v>23230</v>
       </c>
       <c r="E672" t="inlineStr">
         <is>
@@ -17238,7 +17238,7 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>01/02/1998</t>
+          <t>01/02/1997</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
@@ -17252,7 +17252,7 @@
         </is>
       </c>
       <c r="D673" t="n">
-        <v>119550.6551</v>
+        <v>19007</v>
       </c>
       <c r="E673" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>01/01/1998</t>
+          <t>01/01/1997</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
@@ -17277,7 +17277,7 @@
         </is>
       </c>
       <c r="D674" t="n">
-        <v>119368.2502</v>
+        <v>18978</v>
       </c>
       <c r="E674" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>01/07/1998</t>
+          <t>01/07/1997</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
@@ -17302,7 +17302,7 @@
         </is>
       </c>
       <c r="D675" t="n">
-        <v>146125.1549</v>
+        <v>23232</v>
       </c>
       <c r="E675" t="inlineStr">
         <is>
@@ -17313,7 +17313,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>01/06/1998</t>
+          <t>01/06/1997</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
@@ -17327,7 +17327,7 @@
         </is>
       </c>
       <c r="D676" t="n">
-        <v>141200.2239</v>
+        <v>22449</v>
       </c>
       <c r="E676" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>01/05/1998</t>
+          <t>01/05/1997</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
@@ -17352,7 +17352,7 @@
         </is>
       </c>
       <c r="D677" t="n">
-        <v>155717.1341</v>
+        <v>24757</v>
       </c>
       <c r="E677" t="inlineStr">
         <is>
@@ -17363,7 +17363,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>01/03/1998</t>
+          <t>01/03/1997</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
@@ -17377,7 +17377,7 @@
         </is>
       </c>
       <c r="D678" t="n">
-        <v>124582.513</v>
+        <v>19807</v>
       </c>
       <c r="E678" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>01/11/1998</t>
+          <t>01/11/1997</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
@@ -17402,7 +17402,7 @@
         </is>
       </c>
       <c r="D679" t="n">
-        <v>138545.9188</v>
+        <v>22027</v>
       </c>
       <c r="E679" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>01/10/1998</t>
+          <t>01/10/1997</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
@@ -17427,7 +17427,7 @@
         </is>
       </c>
       <c r="D680" t="n">
-        <v>137684.2132</v>
+        <v>21890</v>
       </c>
       <c r="E680" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>01/09/1998</t>
+          <t>01/09/1997</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
@@ -17452,7 +17452,7 @@
         </is>
       </c>
       <c r="D681" t="n">
-        <v>143087.1706</v>
+        <v>22749</v>
       </c>
       <c r="E681" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>01/04/1999</t>
+          <t>01/04/1998</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
@@ -17477,7 +17477,7 @@
         </is>
       </c>
       <c r="D682" t="n">
-        <v>24546</v>
+        <v>131778.0699</v>
       </c>
       <c r="E682" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>01/08/1999</t>
+          <t>01/08/1998</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
@@ -17502,7 +17502,7 @@
         </is>
       </c>
       <c r="D683" t="n">
-        <v>23247</v>
+        <v>155346.0346</v>
       </c>
       <c r="E683" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>01/12/1999</t>
+          <t>01/12/1998</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D684" t="n">
-        <v>24640</v>
+        <v>146112.5752</v>
       </c>
       <c r="E684" t="inlineStr">
         <is>
@@ -17538,7 +17538,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>01/02/1999</t>
+          <t>01/02/1998</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
@@ -17552,7 +17552,7 @@
         </is>
       </c>
       <c r="D685" t="n">
-        <v>22448</v>
+        <v>119550.6551</v>
       </c>
       <c r="E685" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>01/01/1999</t>
+          <t>01/01/1998</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
@@ -17577,7 +17577,7 @@
         </is>
       </c>
       <c r="D686" t="n">
-        <v>24629</v>
+        <v>119368.2502</v>
       </c>
       <c r="E686" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>01/07/1999</t>
+          <t>01/07/1998</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
@@ -17602,7 +17602,7 @@
         </is>
       </c>
       <c r="D687" t="n">
-        <v>22323</v>
+        <v>146125.1549</v>
       </c>
       <c r="E687" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>01/06/1999</t>
+          <t>01/06/1998</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
@@ -17627,7 +17627,7 @@
         </is>
       </c>
       <c r="D688" t="n">
-        <v>24653</v>
+        <v>141200.2239</v>
       </c>
       <c r="E688" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>01/05/1999</t>
+          <t>01/05/1998</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
@@ -17652,7 +17652,7 @@
         </is>
       </c>
       <c r="D689" t="n">
-        <v>25678</v>
+        <v>155717.1341</v>
       </c>
       <c r="E689" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>01/03/1999</t>
+          <t>01/03/1998</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
@@ -17677,7 +17677,7 @@
         </is>
       </c>
       <c r="D690" t="n">
-        <v>25737</v>
+        <v>124582.513</v>
       </c>
       <c r="E690" t="inlineStr">
         <is>
@@ -17688,7 +17688,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>01/11/1999</t>
+          <t>01/11/1998</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
@@ -17702,7 +17702,7 @@
         </is>
       </c>
       <c r="D691" t="n">
-        <v>25481</v>
+        <v>138545.9188</v>
       </c>
       <c r="E691" t="inlineStr">
         <is>
@@ -17713,7 +17713,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>01/10/1999</t>
+          <t>01/10/1998</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
@@ -17727,7 +17727,7 @@
         </is>
       </c>
       <c r="D692" t="n">
-        <v>25601</v>
+        <v>137684.2132</v>
       </c>
       <c r="E692" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>01/09/1999</t>
+          <t>01/09/1998</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
@@ -17752,7 +17752,7 @@
         </is>
       </c>
       <c r="D693" t="n">
-        <v>24686</v>
+        <v>143087.1706</v>
       </c>
       <c r="E693" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>01/04/2000</t>
+          <t>01/04/1999</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
@@ -17777,7 +17777,7 @@
         </is>
       </c>
       <c r="D694" t="n">
-        <v>25440</v>
+        <v>24546</v>
       </c>
       <c r="E694" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>01/08/2000</t>
+          <t>01/08/1999</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
@@ -17802,7 +17802,7 @@
         </is>
       </c>
       <c r="D695" t="n">
-        <v>27353</v>
+        <v>23247</v>
       </c>
       <c r="E695" t="inlineStr">
         <is>
@@ -17813,7 +17813,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>01/12/2000</t>
+          <t>01/12/1999</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
@@ -17827,7 +17827,7 @@
         </is>
       </c>
       <c r="D696" t="n">
-        <v>26071</v>
+        <v>24640</v>
       </c>
       <c r="E696" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>01/02/2000</t>
+          <t>01/02/1999</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
@@ -17852,7 +17852,7 @@
         </is>
       </c>
       <c r="D697" t="n">
-        <v>25123</v>
+        <v>22448</v>
       </c>
       <c r="E697" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>01/01/2000</t>
+          <t>01/01/1999</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
@@ -17877,7 +17877,7 @@
         </is>
       </c>
       <c r="D698" t="n">
-        <v>26480</v>
+        <v>24629</v>
       </c>
       <c r="E698" t="inlineStr">
         <is>
@@ -17888,7 +17888,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>01/07/2000</t>
+          <t>01/07/1999</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
@@ -17902,7 +17902,7 @@
         </is>
       </c>
       <c r="D699" t="n">
-        <v>26914</v>
+        <v>22323</v>
       </c>
       <c r="E699" t="inlineStr">
         <is>
@@ -17913,7 +17913,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>01/06/2000</t>
+          <t>01/06/1999</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D700" t="n">
-        <v>26044</v>
+        <v>24653</v>
       </c>
       <c r="E700" t="inlineStr">
         <is>
@@ -17938,7 +17938,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>01/05/2000</t>
+          <t>01/05/1999</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
@@ -17952,7 +17952,7 @@
         </is>
       </c>
       <c r="D701" t="n">
-        <v>26406</v>
+        <v>25678</v>
       </c>
       <c r="E701" t="inlineStr">
         <is>
@@ -17963,7 +17963,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>01/03/2000</t>
+          <t>01/03/1999</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
@@ -17977,7 +17977,7 @@
         </is>
       </c>
       <c r="D702" t="n">
-        <v>26572</v>
+        <v>25737</v>
       </c>
       <c r="E702" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>01/11/2000</t>
+          <t>01/11/1999</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
@@ -18002,7 +18002,7 @@
         </is>
       </c>
       <c r="D703" t="n">
-        <v>13928</v>
+        <v>25481</v>
       </c>
       <c r="E703" t="inlineStr">
         <is>
@@ -18013,7 +18013,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>01/10/2000</t>
+          <t>01/10/1999</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
@@ -18027,7 +18027,7 @@
         </is>
       </c>
       <c r="D704" t="n">
-        <v>26965</v>
+        <v>25601</v>
       </c>
       <c r="E704" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>01/09/2000</t>
+          <t>01/09/1999</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
@@ -18052,7 +18052,7 @@
         </is>
       </c>
       <c r="D705" t="n">
-        <v>26129</v>
+        <v>24686</v>
       </c>
       <c r="E705" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>01/04/2001</t>
+          <t>01/04/2000</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
@@ -18077,7 +18077,7 @@
         </is>
       </c>
       <c r="D706" t="n">
-        <v>18378</v>
+        <v>25440</v>
       </c>
       <c r="E706" t="inlineStr">
         <is>
@@ -18088,7 +18088,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>01/08/2001</t>
+          <t>01/08/2000</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
@@ -18102,7 +18102,7 @@
         </is>
       </c>
       <c r="D707" t="n">
-        <v>26465</v>
+        <v>27353</v>
       </c>
       <c r="E707" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>01/12/2001</t>
+          <t>01/12/2000</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
@@ -18127,7 +18127,7 @@
         </is>
       </c>
       <c r="D708" t="n">
-        <v>26876</v>
+        <v>26071</v>
       </c>
       <c r="E708" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>01/02/2001</t>
+          <t>01/02/2000</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
@@ -18152,7 +18152,7 @@
         </is>
       </c>
       <c r="D709" t="n">
-        <v>23797</v>
+        <v>25123</v>
       </c>
       <c r="E709" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>01/01/2001</t>
+          <t>01/01/2000</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
@@ -18177,7 +18177,7 @@
         </is>
       </c>
       <c r="D710" t="n">
-        <v>26536</v>
+        <v>26480</v>
       </c>
       <c r="E710" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>01/07/2001</t>
+          <t>01/07/2000</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
@@ -18202,7 +18202,7 @@
         </is>
       </c>
       <c r="D711" t="n">
-        <v>27236</v>
+        <v>26914</v>
       </c>
       <c r="E711" t="inlineStr">
         <is>
@@ -18213,7 +18213,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>01/06/2001</t>
+          <t>01/06/2000</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
@@ -18227,7 +18227,7 @@
         </is>
       </c>
       <c r="D712" t="n">
-        <v>25806</v>
+        <v>26044</v>
       </c>
       <c r="E712" t="inlineStr">
         <is>
@@ -18238,7 +18238,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>01/05/2001</t>
+          <t>01/05/2000</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
@@ -18252,7 +18252,7 @@
         </is>
       </c>
       <c r="D713" t="n">
-        <v>22691</v>
+        <v>26406</v>
       </c>
       <c r="E713" t="inlineStr">
         <is>
@@ -18263,7 +18263,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>01/03/2001</t>
+          <t>01/03/2000</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
@@ -18277,7 +18277,7 @@
         </is>
       </c>
       <c r="D714" t="n">
-        <v>25605</v>
+        <v>26572</v>
       </c>
       <c r="E714" t="inlineStr">
         <is>
@@ -18288,7 +18288,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>01/11/2001</t>
+          <t>01/11/2000</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
@@ -18302,7 +18302,7 @@
         </is>
       </c>
       <c r="D715" t="n">
-        <v>25852</v>
+        <v>13928</v>
       </c>
       <c r="E715" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>01/10/2001</t>
+          <t>01/10/2000</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D716" t="n">
-        <v>26322</v>
+        <v>26965</v>
       </c>
       <c r="E716" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>01/09/2001</t>
+          <t>01/09/2000</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
@@ -18352,7 +18352,7 @@
         </is>
       </c>
       <c r="D717" t="n">
-        <v>23625</v>
+        <v>26129</v>
       </c>
       <c r="E717" t="inlineStr">
         <is>
@@ -18363,7 +18363,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>01/04/2002</t>
+          <t>01/04/2001</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
@@ -18377,7 +18377,7 @@
         </is>
       </c>
       <c r="D718" t="n">
-        <v>23065</v>
+        <v>18378</v>
       </c>
       <c r="E718" t="inlineStr">
         <is>
@@ -18388,7 +18388,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>01/08/2002</t>
+          <t>01/08/2001</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
@@ -18402,7 +18402,7 @@
         </is>
       </c>
       <c r="D719" t="n">
-        <v>25580</v>
+        <v>26465</v>
       </c>
       <c r="E719" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>01/12/2002</t>
+          <t>01/12/2001</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
@@ -18427,7 +18427,7 @@
         </is>
       </c>
       <c r="D720" t="n">
-        <v>24957</v>
+        <v>26876</v>
       </c>
       <c r="E720" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>01/02/2002</t>
+          <t>01/02/2001</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
@@ -18452,7 +18452,7 @@
         </is>
       </c>
       <c r="D721" t="n">
-        <v>24096</v>
+        <v>23797</v>
       </c>
       <c r="E721" t="inlineStr">
         <is>
@@ -18463,7 +18463,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>01/01/2002</t>
+          <t>01/01/2001</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D722" t="n">
-        <v>27239</v>
+        <v>26536</v>
       </c>
       <c r="E722" t="inlineStr">
         <is>
@@ -18488,7 +18488,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>01/07/2002</t>
+          <t>01/07/2001</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
@@ -18502,7 +18502,7 @@
         </is>
       </c>
       <c r="D723" t="n">
-        <v>25911</v>
+        <v>27236</v>
       </c>
       <c r="E723" t="inlineStr">
         <is>
@@ -18513,7 +18513,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>01/06/2002</t>
+          <t>01/06/2001</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
@@ -18527,7 +18527,7 @@
         </is>
       </c>
       <c r="D724" t="n">
-        <v>24854</v>
+        <v>25806</v>
       </c>
       <c r="E724" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>01/05/2002</t>
+          <t>01/05/2001</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
@@ -18552,7 +18552,7 @@
         </is>
       </c>
       <c r="D725" t="n">
-        <v>24983</v>
+        <v>22691</v>
       </c>
       <c r="E725" t="inlineStr">
         <is>
@@ -18563,7 +18563,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>01/03/2002</t>
+          <t>01/03/2001</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
@@ -18577,7 +18577,7 @@
         </is>
       </c>
       <c r="D726" t="n">
-        <v>25381</v>
+        <v>25605</v>
       </c>
       <c r="E726" t="inlineStr">
         <is>
@@ -18588,7 +18588,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>01/11/2002</t>
+          <t>01/11/2001</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
@@ -18602,7 +18602,7 @@
         </is>
       </c>
       <c r="D727" t="n">
-        <v>24648</v>
+        <v>25852</v>
       </c>
       <c r="E727" t="inlineStr">
         <is>
@@ -18613,7 +18613,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>01/10/2002</t>
+          <t>01/10/2001</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
@@ -18627,7 +18627,7 @@
         </is>
       </c>
       <c r="D728" t="n">
-        <v>24992</v>
+        <v>26322</v>
       </c>
       <c r="E728" t="inlineStr">
         <is>
@@ -18638,7 +18638,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>01/09/2002</t>
+          <t>01/09/2001</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
@@ -18652,7 +18652,7 @@
         </is>
       </c>
       <c r="D729" t="n">
-        <v>24400</v>
+        <v>23625</v>
       </c>
       <c r="E729" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>01/04/2003</t>
+          <t>01/04/2002</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
@@ -18677,7 +18677,7 @@
         </is>
       </c>
       <c r="D730" t="n">
-        <v>20841</v>
+        <v>23065</v>
       </c>
       <c r="E730" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>01/08/2003</t>
+          <t>01/08/2002</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
@@ -18702,7 +18702,7 @@
         </is>
       </c>
       <c r="D731" t="n">
-        <v>25463</v>
+        <v>25580</v>
       </c>
       <c r="E731" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>01/12/2003</t>
+          <t>01/12/2002</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D732" t="n">
-        <v>24965</v>
+        <v>24957</v>
       </c>
       <c r="E732" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>01/02/2003</t>
+          <t>01/02/2002</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
@@ -18752,7 +18752,7 @@
         </is>
       </c>
       <c r="D733" t="n">
-        <v>20388</v>
+        <v>24096</v>
       </c>
       <c r="E733" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>01/01/2003</t>
+          <t>01/01/2002</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
@@ -18777,7 +18777,7 @@
         </is>
       </c>
       <c r="D734" t="n">
-        <v>24971</v>
+        <v>27239</v>
       </c>
       <c r="E734" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>01/07/2003</t>
+          <t>01/07/2002</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
@@ -18802,7 +18802,7 @@
         </is>
       </c>
       <c r="D735" t="n">
-        <v>23560</v>
+        <v>25911</v>
       </c>
       <c r="E735" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>01/06/2003</t>
+          <t>01/06/2002</t>
         </is>
       </c>
       <c r="B736" t="inlineStr">
@@ -18827,7 +18827,7 @@
         </is>
       </c>
       <c r="D736" t="n">
-        <v>22761</v>
+        <v>24854</v>
       </c>
       <c r="E736" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>01/05/2003</t>
+          <t>01/05/2002</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
@@ -18852,7 +18852,7 @@
         </is>
       </c>
       <c r="D737" t="n">
-        <v>23510</v>
+        <v>24983</v>
       </c>
       <c r="E737" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>01/03/2003</t>
+          <t>01/03/2002</t>
         </is>
       </c>
       <c r="B738" t="inlineStr">
@@ -18877,7 +18877,7 @@
         </is>
       </c>
       <c r="D738" t="n">
-        <v>25907</v>
+        <v>25381</v>
       </c>
       <c r="E738" t="inlineStr">
         <is>
@@ -18888,7 +18888,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>01/11/2003</t>
+          <t>01/11/2002</t>
         </is>
       </c>
       <c r="B739" t="inlineStr">
@@ -18902,7 +18902,7 @@
         </is>
       </c>
       <c r="D739" t="n">
-        <v>24041</v>
+        <v>24648</v>
       </c>
       <c r="E739" t="inlineStr">
         <is>
@@ -18913,7 +18913,7 @@
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>01/10/2003</t>
+          <t>01/10/2002</t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
@@ -18927,7 +18927,7 @@
         </is>
       </c>
       <c r="D740" t="n">
-        <v>24023</v>
+        <v>24992</v>
       </c>
       <c r="E740" t="inlineStr">
         <is>
@@ -18938,7 +18938,7 @@
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>01/09/2003</t>
+          <t>01/09/2002</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
@@ -18952,7 +18952,7 @@
         </is>
       </c>
       <c r="D741" t="n">
-        <v>24294</v>
+        <v>24400</v>
       </c>
       <c r="E741" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>01/04/2004</t>
+          <t>01/04/2003</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
@@ -18977,7 +18977,7 @@
         </is>
       </c>
       <c r="D742" t="n">
-        <v>24411</v>
+        <v>20841</v>
       </c>
       <c r="E742" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>01/08/2004</t>
+          <t>01/08/2003</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
@@ -19002,7 +19002,7 @@
         </is>
       </c>
       <c r="D743" t="n">
-        <v>25873</v>
+        <v>25463</v>
       </c>
       <c r="E743" t="inlineStr">
         <is>
@@ -19013,7 +19013,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>01/12/2004</t>
+          <t>01/12/2003</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="D744" t="n">
-        <v>25343</v>
+        <v>24965</v>
       </c>
       <c r="E744" t="inlineStr">
         <is>
@@ -19038,7 +19038,7 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>01/02/2004</t>
+          <t>01/02/2003</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
@@ -19052,7 +19052,7 @@
         </is>
       </c>
       <c r="D745" t="n">
-        <v>23497</v>
+        <v>20388</v>
       </c>
       <c r="E745" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>01/01/2004</t>
+          <t>01/01/2003</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
@@ -19077,7 +19077,7 @@
         </is>
       </c>
       <c r="D746" t="n">
-        <v>23975</v>
+        <v>24971</v>
       </c>
       <c r="E746" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>01/07/2003</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
@@ -19102,7 +19102,7 @@
         </is>
       </c>
       <c r="D747" t="n">
-        <v>24979</v>
+        <v>23560</v>
       </c>
       <c r="E747" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>01/06/2004</t>
+          <t>01/06/2003</t>
         </is>
       </c>
       <c r="B748" t="inlineStr">
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D748" t="n">
-        <v>23413</v>
+        <v>22761</v>
       </c>
       <c r="E748" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>01/05/2004</t>
+          <t>01/05/2003</t>
         </is>
       </c>
       <c r="B749" t="inlineStr">
@@ -19152,7 +19152,7 @@
         </is>
       </c>
       <c r="D749" t="n">
-        <v>21313</v>
+        <v>23510</v>
       </c>
       <c r="E749" t="inlineStr">
         <is>
@@ -19163,7 +19163,7 @@
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>01/03/2004</t>
+          <t>01/03/2003</t>
         </is>
       </c>
       <c r="B750" t="inlineStr">
@@ -19177,7 +19177,7 @@
         </is>
       </c>
       <c r="D750" t="n">
-        <v>25118</v>
+        <v>25907</v>
       </c>
       <c r="E750" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>01/11/2004</t>
+          <t>01/11/2003</t>
         </is>
       </c>
       <c r="B751" t="inlineStr">
@@ -19202,7 +19202,7 @@
         </is>
       </c>
       <c r="D751" t="n">
-        <v>24463</v>
+        <v>24041</v>
       </c>
       <c r="E751" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>01/10/2004</t>
+          <t>01/10/2003</t>
         </is>
       </c>
       <c r="B752" t="inlineStr">
@@ -19227,7 +19227,7 @@
         </is>
       </c>
       <c r="D752" t="n">
-        <v>25566</v>
+        <v>24023</v>
       </c>
       <c r="E752" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>01/09/2004</t>
+          <t>01/09/2003</t>
         </is>
       </c>
       <c r="B753" t="inlineStr">
@@ -19252,7 +19252,7 @@
         </is>
       </c>
       <c r="D753" t="n">
-        <v>24720</v>
+        <v>24294</v>
       </c>
       <c r="E753" t="inlineStr">
         <is>
@@ -19263,7 +19263,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>01/04/2005</t>
+          <t>01/04/2004</t>
         </is>
       </c>
       <c r="B754" t="inlineStr">
@@ -19277,7 +19277,7 @@
         </is>
       </c>
       <c r="D754" t="n">
-        <v>23924</v>
+        <v>24411</v>
       </c>
       <c r="E754" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>01/08/2005</t>
+          <t>01/08/2004</t>
         </is>
       </c>
       <c r="B755" t="inlineStr">
@@ -19302,7 +19302,7 @@
         </is>
       </c>
       <c r="D755" t="n">
-        <v>25213</v>
+        <v>25873</v>
       </c>
       <c r="E755" t="inlineStr">
         <is>
@@ -19313,7 +19313,7 @@
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>01/12/2005</t>
+          <t>01/12/2004</t>
         </is>
       </c>
       <c r="B756" t="inlineStr">
@@ -19327,7 +19327,7 @@
         </is>
       </c>
       <c r="D756" t="n">
-        <v>24602</v>
+        <v>25343</v>
       </c>
       <c r="E756" t="inlineStr">
         <is>
@@ -19338,7 +19338,7 @@
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>01/02/2005</t>
+          <t>01/02/2004</t>
         </is>
       </c>
       <c r="B757" t="inlineStr">
@@ -19352,7 +19352,7 @@
         </is>
       </c>
       <c r="D757" t="n">
-        <v>22710</v>
+        <v>23497</v>
       </c>
       <c r="E757" t="inlineStr">
         <is>
@@ -19363,7 +19363,7 @@
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>01/01/2005</t>
+          <t>01/01/2004</t>
         </is>
       </c>
       <c r="B758" t="inlineStr">
@@ -19377,7 +19377,7 @@
         </is>
       </c>
       <c r="D758" t="n">
-        <v>24972</v>
+        <v>23975</v>
       </c>
       <c r="E758" t="inlineStr">
         <is>
@@ -19388,7 +19388,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>01/07/2005</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="B759" t="inlineStr">
@@ -19402,7 +19402,7 @@
         </is>
       </c>
       <c r="D759" t="n">
-        <v>25582</v>
+        <v>24979</v>
       </c>
       <c r="E759" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>01/06/2005</t>
+          <t>01/06/2004</t>
         </is>
       </c>
       <c r="B760" t="inlineStr">
@@ -19427,7 +19427,7 @@
         </is>
       </c>
       <c r="D760" t="n">
-        <v>24359</v>
+        <v>23413</v>
       </c>
       <c r="E760" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>01/05/2005</t>
+          <t>01/05/2004</t>
         </is>
       </c>
       <c r="B761" t="inlineStr">
@@ -19452,7 +19452,7 @@
         </is>
       </c>
       <c r="D761" t="n">
-        <v>24053</v>
+        <v>21313</v>
       </c>
       <c r="E761" t="inlineStr">
         <is>
@@ -19463,7 +19463,7 @@
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>01/03/2005</t>
+          <t>01/03/2004</t>
         </is>
       </c>
       <c r="B762" t="inlineStr">
@@ -19477,7 +19477,7 @@
         </is>
       </c>
       <c r="D762" t="n">
-        <v>24836</v>
+        <v>25118</v>
       </c>
       <c r="E762" t="inlineStr">
         <is>
@@ -19488,7 +19488,7 @@
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>01/11/2005</t>
+          <t>01/11/2004</t>
         </is>
       </c>
       <c r="B763" t="inlineStr">
@@ -19502,7 +19502,7 @@
         </is>
       </c>
       <c r="D763" t="n">
-        <v>24169</v>
+        <v>24463</v>
       </c>
       <c r="E763" t="inlineStr">
         <is>
@@ -19513,7 +19513,7 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>01/10/2005</t>
+          <t>01/10/2004</t>
         </is>
       </c>
       <c r="B764" t="inlineStr">
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D764" t="n">
-        <v>26281</v>
+        <v>25566</v>
       </c>
       <c r="E764" t="inlineStr">
         <is>
@@ -19538,7 +19538,7 @@
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>01/09/2005</t>
+          <t>01/09/2004</t>
         </is>
       </c>
       <c r="B765" t="inlineStr">
@@ -19552,7 +19552,7 @@
         </is>
       </c>
       <c r="D765" t="n">
-        <v>24180</v>
+        <v>24720</v>
       </c>
       <c r="E765" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>01/04/2006</t>
+          <t>01/04/2005</t>
         </is>
       </c>
       <c r="B766" t="inlineStr">
@@ -19577,7 +19577,7 @@
         </is>
       </c>
       <c r="D766" t="n">
-        <v>24527</v>
+        <v>23924</v>
       </c>
       <c r="E766" t="inlineStr">
         <is>
@@ -19588,7 +19588,7 @@
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>01/08/2006</t>
+          <t>01/08/2005</t>
         </is>
       </c>
       <c r="B767" t="inlineStr">
@@ -19602,7 +19602,7 @@
         </is>
       </c>
       <c r="D767" t="n">
-        <v>25491</v>
+        <v>25213</v>
       </c>
       <c r="E767" t="inlineStr">
         <is>
@@ -19613,7 +19613,7 @@
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>01/12/2006</t>
+          <t>01/12/2005</t>
         </is>
       </c>
       <c r="B768" t="inlineStr">
@@ -19627,7 +19627,7 @@
         </is>
       </c>
       <c r="D768" t="n">
-        <v>25271</v>
+        <v>24602</v>
       </c>
       <c r="E768" t="inlineStr">
         <is>
@@ -19638,7 +19638,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>01/02/2006</t>
+          <t>01/02/2005</t>
         </is>
       </c>
       <c r="B769" t="inlineStr">
@@ -19652,7 +19652,7 @@
         </is>
       </c>
       <c r="D769" t="n">
-        <v>23056</v>
+        <v>22710</v>
       </c>
       <c r="E769" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>01/01/2006</t>
+          <t>01/01/2005</t>
         </is>
       </c>
       <c r="B770" t="inlineStr">
@@ -19677,7 +19677,7 @@
         </is>
       </c>
       <c r="D770" t="n">
-        <v>24843</v>
+        <v>24972</v>
       </c>
       <c r="E770" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>01/07/2006</t>
+          <t>01/07/2005</t>
         </is>
       </c>
       <c r="B771" t="inlineStr">
@@ -19702,7 +19702,7 @@
         </is>
       </c>
       <c r="D771" t="n">
-        <v>25344</v>
+        <v>25582</v>
       </c>
       <c r="E771" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>01/06/2006</t>
+          <t>01/06/2005</t>
         </is>
       </c>
       <c r="B772" t="inlineStr">
@@ -19727,7 +19727,7 @@
         </is>
       </c>
       <c r="D772" t="n">
-        <v>25090</v>
+        <v>24359</v>
       </c>
       <c r="E772" t="inlineStr">
         <is>
@@ -19738,7 +19738,7 @@
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>01/05/2006</t>
+          <t>01/05/2005</t>
         </is>
       </c>
       <c r="B773" t="inlineStr">
@@ -19752,7 +19752,7 @@
         </is>
       </c>
       <c r="D773" t="n">
-        <v>25719</v>
+        <v>24053</v>
       </c>
       <c r="E773" t="inlineStr">
         <is>
@@ -19763,7 +19763,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>01/03/2006</t>
+          <t>01/03/2005</t>
         </is>
       </c>
       <c r="B774" t="inlineStr">
@@ -19777,7 +19777,7 @@
         </is>
       </c>
       <c r="D774" t="n">
-        <v>11740</v>
+        <v>24836</v>
       </c>
       <c r="E774" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>01/11/2006</t>
+          <t>01/11/2005</t>
         </is>
       </c>
       <c r="B775" t="inlineStr">
@@ -19802,7 +19802,7 @@
         </is>
       </c>
       <c r="D775" t="n">
-        <v>23278</v>
+        <v>24169</v>
       </c>
       <c r="E775" t="inlineStr">
         <is>
@@ -19813,7 +19813,7 @@
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>01/10/2006</t>
+          <t>01/10/2005</t>
         </is>
       </c>
       <c r="B776" t="inlineStr">
@@ -19827,7 +19827,7 @@
         </is>
       </c>
       <c r="D776" t="n">
-        <v>23622</v>
+        <v>26281</v>
       </c>
       <c r="E776" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>01/09/2006</t>
+          <t>01/09/2005</t>
         </is>
       </c>
       <c r="B777" t="inlineStr">
@@ -19852,7 +19852,7 @@
         </is>
       </c>
       <c r="D777" t="n">
-        <v>24562</v>
+        <v>24180</v>
       </c>
       <c r="E777" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>01/04/2007</t>
+          <t>01/04/2006</t>
         </is>
       </c>
       <c r="B778" t="inlineStr">
@@ -19877,7 +19877,7 @@
         </is>
       </c>
       <c r="D778" t="n">
-        <v>21384</v>
+        <v>24527</v>
       </c>
       <c r="E778" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>01/08/2007</t>
+          <t>01/08/2006</t>
         </is>
       </c>
       <c r="B779" t="inlineStr">
@@ -19902,7 +19902,7 @@
         </is>
       </c>
       <c r="D779" t="n">
-        <v>23805</v>
+        <v>25491</v>
       </c>
       <c r="E779" t="inlineStr">
         <is>
@@ -19913,7 +19913,7 @@
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>01/12/2007</t>
+          <t>01/12/2006</t>
         </is>
       </c>
       <c r="B780" t="inlineStr">
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D780" t="n">
-        <v>22898</v>
+        <v>25271</v>
       </c>
       <c r="E780" t="inlineStr">
         <is>
@@ -19938,7 +19938,7 @@
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>01/02/2007</t>
+          <t>01/02/2006</t>
         </is>
       </c>
       <c r="B781" t="inlineStr">
@@ -19952,7 +19952,7 @@
         </is>
       </c>
       <c r="D781" t="n">
-        <v>21968</v>
+        <v>23056</v>
       </c>
       <c r="E781" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>01/01/2007</t>
+          <t>01/01/2006</t>
         </is>
       </c>
       <c r="B782" t="inlineStr">
@@ -19977,7 +19977,7 @@
         </is>
       </c>
       <c r="D782" t="n">
-        <v>25496</v>
+        <v>24843</v>
       </c>
       <c r="E782" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>01/07/2007</t>
+          <t>01/07/2006</t>
         </is>
       </c>
       <c r="B783" t="inlineStr">
@@ -20002,7 +20002,7 @@
         </is>
       </c>
       <c r="D783" t="n">
-        <v>23875</v>
+        <v>25344</v>
       </c>
       <c r="E783" t="inlineStr">
         <is>
@@ -20013,7 +20013,7 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>01/06/2007</t>
+          <t>01/06/2006</t>
         </is>
       </c>
       <c r="B784" t="inlineStr">
@@ -20027,7 +20027,7 @@
         </is>
       </c>
       <c r="D784" t="n">
-        <v>22080</v>
+        <v>25090</v>
       </c>
       <c r="E784" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>01/05/2007</t>
+          <t>01/05/2006</t>
         </is>
       </c>
       <c r="B785" t="inlineStr">
@@ -20052,7 +20052,7 @@
         </is>
       </c>
       <c r="D785" t="n">
-        <v>18737</v>
+        <v>25719</v>
       </c>
       <c r="E785" t="inlineStr">
         <is>
@@ -20063,7 +20063,7 @@
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>01/03/2007</t>
+          <t>01/03/2006</t>
         </is>
       </c>
       <c r="B786" t="inlineStr">
@@ -20077,7 +20077,7 @@
         </is>
       </c>
       <c r="D786" t="n">
-        <v>24212</v>
+        <v>11740</v>
       </c>
       <c r="E786" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>01/11/2007</t>
+          <t>01/11/2006</t>
         </is>
       </c>
       <c r="B787" t="inlineStr">
@@ -20102,7 +20102,7 @@
         </is>
       </c>
       <c r="D787" t="n">
-        <v>22033</v>
+        <v>23278</v>
       </c>
       <c r="E787" t="inlineStr">
         <is>
@@ -20113,7 +20113,7 @@
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>01/10/2007</t>
+          <t>01/10/2006</t>
         </is>
       </c>
       <c r="B788" t="inlineStr">
@@ -20127,7 +20127,7 @@
         </is>
       </c>
       <c r="D788" t="n">
-        <v>23866</v>
+        <v>23622</v>
       </c>
       <c r="E788" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>01/09/2007</t>
+          <t>01/09/2006</t>
         </is>
       </c>
       <c r="B789" t="inlineStr">
@@ -20152,7 +20152,7 @@
         </is>
       </c>
       <c r="D789" t="n">
-        <v>24017</v>
+        <v>24562</v>
       </c>
       <c r="E789" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>01/04/2008</t>
+          <t>01/04/2007</t>
         </is>
       </c>
       <c r="B790" t="inlineStr">
@@ -20177,7 +20177,7 @@
         </is>
       </c>
       <c r="D790" t="n">
-        <v>22341</v>
+        <v>21384</v>
       </c>
       <c r="E790" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>01/08/2008</t>
+          <t>01/08/2007</t>
         </is>
       </c>
       <c r="B791" t="inlineStr">
@@ -20202,7 +20202,7 @@
         </is>
       </c>
       <c r="D791" t="n">
-        <v>23413.9993</v>
+        <v>23805</v>
       </c>
       <c r="E791" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>01/12/2008</t>
+          <t>01/12/2007</t>
         </is>
       </c>
       <c r="B792" t="inlineStr">
@@ -20227,7 +20227,7 @@
         </is>
       </c>
       <c r="D792" t="n">
-        <v>21243.0011</v>
+        <v>22898</v>
       </c>
       <c r="E792" t="inlineStr">
         <is>
@@ -20238,7 +20238,7 @@
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>01/02/2008</t>
+          <t>01/02/2007</t>
         </is>
       </c>
       <c r="B793" t="inlineStr">
@@ -20252,7 +20252,7 @@
         </is>
       </c>
       <c r="D793" t="n">
-        <v>20461</v>
+        <v>21968</v>
       </c>
       <c r="E793" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>01/01/2008</t>
+          <t>01/01/2007</t>
         </is>
       </c>
       <c r="B794" t="inlineStr">
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D794" t="n">
-        <v>22454</v>
+        <v>25496</v>
       </c>
       <c r="E794" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>01/07/2008</t>
+          <t>01/07/2007</t>
         </is>
       </c>
       <c r="B795" t="inlineStr">
@@ -20302,7 +20302,7 @@
         </is>
       </c>
       <c r="D795" t="n">
-        <v>22084.0001</v>
+        <v>23875</v>
       </c>
       <c r="E795" t="inlineStr">
         <is>
@@ -20313,7 +20313,7 @@
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>01/06/2008</t>
+          <t>01/06/2007</t>
         </is>
       </c>
       <c r="B796" t="inlineStr">
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D796" t="n">
-        <v>21446.001</v>
+        <v>22080</v>
       </c>
       <c r="E796" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>01/05/2008</t>
+          <t>01/05/2007</t>
         </is>
       </c>
       <c r="B797" t="inlineStr">
@@ -20352,7 +20352,7 @@
         </is>
       </c>
       <c r="D797" t="n">
-        <v>22333</v>
+        <v>18737</v>
       </c>
       <c r="E797" t="inlineStr">
         <is>
@@ -20363,7 +20363,7 @@
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>01/03/2008</t>
+          <t>01/03/2007</t>
         </is>
       </c>
       <c r="B798" t="inlineStr">
@@ -20377,7 +20377,7 @@
         </is>
       </c>
       <c r="D798" t="n">
-        <v>22425</v>
+        <v>24212</v>
       </c>
       <c r="E798" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>01/11/2008</t>
+          <t>01/11/2007</t>
         </is>
       </c>
       <c r="B799" t="inlineStr">
@@ -20402,7 +20402,7 @@
         </is>
       </c>
       <c r="D799" t="n">
-        <v>20454</v>
+        <v>22033</v>
       </c>
       <c r="E799" t="inlineStr">
         <is>
@@ -20413,7 +20413,7 @@
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>01/10/2007</t>
         </is>
       </c>
       <c r="B800" t="inlineStr">
@@ -20427,7 +20427,7 @@
         </is>
       </c>
       <c r="D800" t="n">
-        <v>19738.9989</v>
+        <v>23866</v>
       </c>
       <c r="E800" t="inlineStr">
         <is>
@@ -20438,7 +20438,7 @@
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>01/09/2008</t>
+          <t>01/09/2007</t>
         </is>
       </c>
       <c r="B801" t="inlineStr">
@@ -20452,7 +20452,7 @@
         </is>
       </c>
       <c r="D801" t="n">
-        <v>21581.001</v>
+        <v>24017</v>
       </c>
       <c r="E801" t="inlineStr">
         <is>
@@ -20463,7 +20463,7 @@
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>01/04/2009</t>
+          <t>01/04/2008</t>
         </is>
       </c>
       <c r="B802" t="inlineStr">
@@ -20477,7 +20477,7 @@
         </is>
       </c>
       <c r="D802" t="n">
-        <v>20352.999</v>
+        <v>22341</v>
       </c>
       <c r="E802" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>01/08/2009</t>
+          <t>01/08/2008</t>
         </is>
       </c>
       <c r="B803" t="inlineStr">
@@ -20502,7 +20502,7 @@
         </is>
       </c>
       <c r="D803" t="n">
-        <v>19636.0014</v>
+        <v>23413.9993</v>
       </c>
       <c r="E803" t="inlineStr">
         <is>
@@ -20513,7 +20513,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>01/12/2009</t>
+          <t>01/12/2008</t>
         </is>
       </c>
       <c r="B804" t="inlineStr">
@@ -20527,7 +20527,7 @@
         </is>
       </c>
       <c r="D804" t="n">
-        <v>20058.9995</v>
+        <v>21243.0011</v>
       </c>
       <c r="E804" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>01/02/2009</t>
+          <t>01/02/2008</t>
         </is>
       </c>
       <c r="B805" t="inlineStr">
@@ -20552,7 +20552,7 @@
         </is>
       </c>
       <c r="D805" t="n">
-        <v>18858.9996</v>
+        <v>20461</v>
       </c>
       <c r="E805" t="inlineStr">
         <is>
@@ -20563,7 +20563,7 @@
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>01/01/2009</t>
+          <t>01/01/2008</t>
         </is>
       </c>
       <c r="B806" t="inlineStr">
@@ -20577,7 +20577,7 @@
         </is>
       </c>
       <c r="D806" t="n">
-        <v>22225.0005</v>
+        <v>22454</v>
       </c>
       <c r="E806" t="inlineStr">
         <is>
@@ -20588,7 +20588,7 @@
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>01/07/2009</t>
+          <t>01/07/2008</t>
         </is>
       </c>
       <c r="B807" t="inlineStr">
@@ -20602,7 +20602,7 @@
         </is>
       </c>
       <c r="D807" t="n">
-        <v>20578.0015</v>
+        <v>22084.0001</v>
       </c>
       <c r="E807" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>01/06/2009</t>
+          <t>01/06/2008</t>
         </is>
       </c>
       <c r="B808" t="inlineStr">
@@ -20627,7 +20627,7 @@
         </is>
       </c>
       <c r="D808" t="n">
-        <v>20096.001</v>
+        <v>21446.001</v>
       </c>
       <c r="E808" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>01/05/2009</t>
+          <t>01/05/2008</t>
         </is>
       </c>
       <c r="B809" t="inlineStr">
@@ -20652,7 +20652,7 @@
         </is>
       </c>
       <c r="D809" t="n">
-        <v>20487.001</v>
+        <v>22333</v>
       </c>
       <c r="E809" t="inlineStr">
         <is>
@@ -20663,7 +20663,7 @@
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>01/03/2009</t>
+          <t>01/03/2008</t>
         </is>
       </c>
       <c r="B810" t="inlineStr">
@@ -20677,7 +20677,7 @@
         </is>
       </c>
       <c r="D810" t="n">
-        <v>21078.9987</v>
+        <v>22425</v>
       </c>
       <c r="E810" t="inlineStr">
         <is>
@@ -20688,7 +20688,7 @@
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>01/11/2009</t>
+          <t>01/11/2008</t>
         </is>
       </c>
       <c r="B811" t="inlineStr">
@@ -20702,7 +20702,7 @@
         </is>
       </c>
       <c r="D811" t="n">
-        <v>19530</v>
+        <v>20454</v>
       </c>
       <c r="E811" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>01/10/2009</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="B812" t="inlineStr">
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D812" t="n">
-        <v>19538.0011</v>
+        <v>19738.9989</v>
       </c>
       <c r="E812" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>01/09/2009</t>
+          <t>01/09/2008</t>
         </is>
       </c>
       <c r="B813" t="inlineStr">
@@ -20752,7 +20752,7 @@
         </is>
       </c>
       <c r="D813" t="n">
-        <v>19464</v>
+        <v>21581.001</v>
       </c>
       <c r="E813" t="inlineStr">
         <is>
@@ -20763,7 +20763,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>01/04/2010</t>
+          <t>01/04/2009</t>
         </is>
       </c>
       <c r="B814" t="inlineStr">
@@ -20777,7 +20777,7 @@
         </is>
       </c>
       <c r="D814" t="n">
-        <v>18477</v>
+        <v>20352.999</v>
       </c>
       <c r="E814" t="inlineStr">
         <is>
@@ -20788,7 +20788,7 @@
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>01/08/2010</t>
+          <t>01/08/2009</t>
         </is>
       </c>
       <c r="B815" t="inlineStr">
@@ -20802,7 +20802,7 @@
         </is>
       </c>
       <c r="D815" t="n">
-        <v>19472</v>
+        <v>19636.0014</v>
       </c>
       <c r="E815" t="inlineStr">
         <is>
@@ -20813,7 +20813,7 @@
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>01/12/2010</t>
+          <t>01/12/2009</t>
         </is>
       </c>
       <c r="B816" t="inlineStr">
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="D816" t="n">
-        <v>19253</v>
+        <v>20058.9995</v>
       </c>
       <c r="E816" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>01/02/2010</t>
+          <t>01/02/2009</t>
         </is>
       </c>
       <c r="B817" t="inlineStr">
@@ -20852,7 +20852,7 @@
         </is>
       </c>
       <c r="D817" t="n">
-        <v>17250</v>
+        <v>18858.9996</v>
       </c>
       <c r="E817" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>01/01/2010</t>
+          <t>01/01/2009</t>
         </is>
       </c>
       <c r="B818" t="inlineStr">
@@ -20877,7 +20877,7 @@
         </is>
       </c>
       <c r="D818" t="n">
-        <v>19822</v>
+        <v>22225.0005</v>
       </c>
       <c r="E818" t="inlineStr">
         <is>
@@ -20888,7 +20888,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>01/07/2010</t>
+          <t>01/07/2009</t>
         </is>
       </c>
       <c r="B819" t="inlineStr">
@@ -20902,7 +20902,7 @@
         </is>
       </c>
       <c r="D819" t="n">
-        <v>19943</v>
+        <v>20578.0015</v>
       </c>
       <c r="E819" t="inlineStr">
         <is>
@@ -20913,7 +20913,7 @@
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>01/06/2010</t>
+          <t>01/06/2009</t>
         </is>
       </c>
       <c r="B820" t="inlineStr">
@@ -20927,7 +20927,7 @@
         </is>
       </c>
       <c r="D820" t="n">
-        <v>18899</v>
+        <v>20096.001</v>
       </c>
       <c r="E820" t="inlineStr">
         <is>
@@ -20938,7 +20938,7 @@
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>01/05/2010</t>
+          <t>01/05/2009</t>
         </is>
       </c>
       <c r="B821" t="inlineStr">
@@ -20952,7 +20952,7 @@
         </is>
       </c>
       <c r="D821" t="n">
-        <v>19225</v>
+        <v>20487.001</v>
       </c>
       <c r="E821" t="inlineStr">
         <is>
@@ -20963,7 +20963,7 @@
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>01/03/2010</t>
+          <t>01/03/2009</t>
         </is>
       </c>
       <c r="B822" t="inlineStr">
@@ -20977,7 +20977,7 @@
         </is>
       </c>
       <c r="D822" t="n">
-        <v>18557</v>
+        <v>21078.9987</v>
       </c>
       <c r="E822" t="inlineStr">
         <is>
@@ -20988,7 +20988,7 @@
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>01/11/2010</t>
+          <t>01/11/2009</t>
         </is>
       </c>
       <c r="B823" t="inlineStr">
@@ -21002,7 +21002,7 @@
         </is>
       </c>
       <c r="D823" t="n">
-        <v>18252</v>
+        <v>19530</v>
       </c>
       <c r="E823" t="inlineStr">
         <is>
@@ -21013,7 +21013,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>01/10/2010</t>
+          <t>01/10/2009</t>
         </is>
       </c>
       <c r="B824" t="inlineStr">
@@ -21027,7 +21027,7 @@
         </is>
       </c>
       <c r="D824" t="n">
-        <v>19679</v>
+        <v>19538.0011</v>
       </c>
       <c r="E824" t="inlineStr">
         <is>
@@ -21038,7 +21038,7 @@
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>01/09/2010</t>
+          <t>01/09/2009</t>
         </is>
       </c>
       <c r="B825" t="inlineStr">
@@ -21052,7 +21052,7 @@
         </is>
       </c>
       <c r="D825" t="n">
-        <v>18162</v>
+        <v>19464</v>
       </c>
       <c r="E825" t="inlineStr">
         <is>
@@ -21063,7 +21063,7 @@
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>01/04/2011</t>
+          <t>01/04/2010</t>
         </is>
       </c>
       <c r="B826" t="inlineStr">
@@ -21077,7 +21077,7 @@
         </is>
       </c>
       <c r="D826" t="n">
-        <v>14211.9</v>
+        <v>18477</v>
       </c>
       <c r="E826" t="inlineStr">
         <is>
@@ -21088,7 +21088,7 @@
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>01/08/2011</t>
+          <t>01/08/2010</t>
         </is>
       </c>
       <c r="B827" t="inlineStr">
@@ -21102,7 +21102,7 @@
         </is>
       </c>
       <c r="D827" t="n">
-        <v>15656.1</v>
+        <v>19472</v>
       </c>
       <c r="E827" t="inlineStr">
         <is>
@@ -21113,7 +21113,7 @@
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>01/12/2011</t>
+          <t>01/12/2010</t>
         </is>
       </c>
       <c r="B828" t="inlineStr">
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D828" t="n">
-        <v>16836.5</v>
+        <v>19253</v>
       </c>
       <c r="E828" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>01/02/2011</t>
+          <t>01/02/2010</t>
         </is>
       </c>
       <c r="B829" t="inlineStr">
@@ -21152,7 +21152,7 @@
         </is>
       </c>
       <c r="D829" t="n">
-        <v>15945.6</v>
+        <v>17250</v>
       </c>
       <c r="E829" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>01/01/2011</t>
+          <t>01/01/2010</t>
         </is>
       </c>
       <c r="B830" t="inlineStr">
@@ -21177,7 +21177,7 @@
         </is>
       </c>
       <c r="D830" t="n">
-        <v>18522.8</v>
+        <v>19822</v>
       </c>
       <c r="E830" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>01/07/2011</t>
+          <t>01/07/2010</t>
         </is>
       </c>
       <c r="B831" t="inlineStr">
@@ -21202,7 +21202,7 @@
         </is>
       </c>
       <c r="D831" t="n">
-        <v>14478.2</v>
+        <v>19943</v>
       </c>
       <c r="E831" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>01/06/2011</t>
+          <t>01/06/2010</t>
         </is>
       </c>
       <c r="B832" t="inlineStr">
@@ -21227,7 +21227,7 @@
         </is>
       </c>
       <c r="D832" t="n">
-        <v>15871.3</v>
+        <v>18899</v>
       </c>
       <c r="E832" t="inlineStr">
         <is>
@@ -21238,7 +21238,7 @@
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>01/05/2011</t>
+          <t>01/05/2010</t>
         </is>
       </c>
       <c r="B833" t="inlineStr">
@@ -21252,7 +21252,7 @@
         </is>
       </c>
       <c r="D833" t="n">
-        <v>17668.9</v>
+        <v>19225</v>
       </c>
       <c r="E833" t="inlineStr">
         <is>
@@ -21263,7 +21263,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>01/03/2011</t>
+          <t>01/03/2010</t>
         </is>
       </c>
       <c r="B834" t="inlineStr">
@@ -21277,7 +21277,7 @@
         </is>
       </c>
       <c r="D834" t="n">
-        <v>10940.8</v>
+        <v>18557</v>
       </c>
       <c r="E834" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>01/11/2011</t>
+          <t>01/11/2010</t>
         </is>
       </c>
       <c r="B835" t="inlineStr">
@@ -21302,7 +21302,7 @@
         </is>
       </c>
       <c r="D835" t="n">
-        <v>15787.4</v>
+        <v>18252</v>
       </c>
       <c r="E835" t="inlineStr">
         <is>
@@ -21313,7 +21313,7 @@
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>01/10/2011</t>
+          <t>01/10/2010</t>
         </is>
       </c>
       <c r="B836" t="inlineStr">
@@ -21327,7 +21327,7 @@
         </is>
       </c>
       <c r="D836" t="n">
-        <v>16134.4</v>
+        <v>19679</v>
       </c>
       <c r="E836" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>01/09/2011</t>
+          <t>01/09/2010</t>
         </is>
       </c>
       <c r="B837" t="inlineStr">
@@ -21352,7 +21352,7 @@
         </is>
       </c>
       <c r="D837" t="n">
-        <v>15096.4</v>
+        <v>18162</v>
       </c>
       <c r="E837" t="inlineStr">
         <is>
@@ -21363,7 +21363,7 @@
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>01/04/2012</t>
+          <t>01/04/2011</t>
         </is>
       </c>
       <c r="B838" t="inlineStr">
@@ -21377,7 +21377,7 @@
         </is>
       </c>
       <c r="D838" t="n">
-        <v>10707.1</v>
+        <v>14211.9</v>
       </c>
       <c r="E838" t="inlineStr">
         <is>
@@ -21388,7 +21388,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>01/08/2012</t>
+          <t>01/08/2011</t>
         </is>
       </c>
       <c r="B839" t="inlineStr">
@@ -21402,7 +21402,7 @@
         </is>
       </c>
       <c r="D839" t="n">
-        <v>16193.1</v>
+        <v>15656.1</v>
       </c>
       <c r="E839" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>01/12/2012</t>
+          <t>01/12/2011</t>
         </is>
       </c>
       <c r="B840" t="inlineStr">
@@ -21427,7 +21427,7 @@
         </is>
       </c>
       <c r="D840" t="n">
-        <v>17393.3</v>
+        <v>16836.5</v>
       </c>
       <c r="E840" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>01/02/2012</t>
+          <t>01/02/2011</t>
         </is>
       </c>
       <c r="B841" t="inlineStr">
@@ -21452,7 +21452,7 @@
         </is>
       </c>
       <c r="D841" t="n">
-        <v>14260.4</v>
+        <v>15945.6</v>
       </c>
       <c r="E841" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>01/01/2011</t>
         </is>
       </c>
       <c r="B842" t="inlineStr">
@@ -21477,7 +21477,7 @@
         </is>
       </c>
       <c r="D842" t="n">
-        <v>16058.3</v>
+        <v>18522.8</v>
       </c>
       <c r="E842" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>01/07/2012</t>
+          <t>01/07/2011</t>
         </is>
       </c>
       <c r="B843" t="inlineStr">
@@ -21502,7 +21502,7 @@
         </is>
       </c>
       <c r="D843" t="n">
-        <v>12701.4</v>
+        <v>14478.2</v>
       </c>
       <c r="E843" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>01/06/2012</t>
+          <t>01/06/2011</t>
         </is>
       </c>
       <c r="B844" t="inlineStr">
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D844" t="n">
-        <v>10851.8</v>
+        <v>15871.3</v>
       </c>
       <c r="E844" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>01/05/2012</t>
+          <t>01/05/2011</t>
         </is>
       </c>
       <c r="B845" t="inlineStr">
@@ -21552,7 +21552,7 @@
         </is>
       </c>
       <c r="D845" t="n">
-        <v>10692</v>
+        <v>17668.9</v>
       </c>
       <c r="E845" t="inlineStr">
         <is>
@@ -21563,7 +21563,7 @@
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>01/03/2012</t>
+          <t>01/03/2011</t>
         </is>
       </c>
       <c r="B846" t="inlineStr">
@@ -21577,7 +21577,7 @@
         </is>
       </c>
       <c r="D846" t="n">
-        <v>14311.3</v>
+        <v>10940.8</v>
       </c>
       <c r="E846" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>01/11/2012</t>
+          <t>01/11/2011</t>
         </is>
       </c>
       <c r="B847" t="inlineStr">
@@ -21602,7 +21602,7 @@
         </is>
       </c>
       <c r="D847" t="n">
-        <v>16574.9</v>
+        <v>15787.4</v>
       </c>
       <c r="E847" t="inlineStr">
         <is>
@@ -21613,7 +21613,7 @@
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>01/10/2012</t>
+          <t>01/10/2011</t>
         </is>
       </c>
       <c r="B848" t="inlineStr">
@@ -21627,7 +21627,7 @@
         </is>
       </c>
       <c r="D848" t="n">
-        <v>13682.2</v>
+        <v>16134.4</v>
       </c>
       <c r="E848" t="inlineStr">
         <is>
@@ -21638,7 +21638,7 @@
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>01/09/2012</t>
+          <t>01/09/2011</t>
         </is>
       </c>
       <c r="B849" t="inlineStr">
@@ -21652,7 +21652,7 @@
         </is>
       </c>
       <c r="D849" t="n">
-        <v>12246</v>
+        <v>15096.4</v>
       </c>
       <c r="E849" t="inlineStr">
         <is>
@@ -21663,7 +21663,7 @@
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>01/04/2013</t>
+          <t>01/04/2012</t>
         </is>
       </c>
       <c r="B850" t="inlineStr">
@@ -21677,7 +21677,7 @@
         </is>
       </c>
       <c r="D850" t="n">
-        <v>15186.2</v>
+        <v>10707.1</v>
       </c>
       <c r="E850" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>01/08/2013</t>
+          <t>01/08/2012</t>
         </is>
       </c>
       <c r="B851" t="inlineStr">
@@ -21702,7 +21702,7 @@
         </is>
       </c>
       <c r="D851" t="n">
-        <v>14998.4</v>
+        <v>16193.1</v>
       </c>
       <c r="E851" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>01/12/2013</t>
+          <t>01/12/2012</t>
         </is>
       </c>
       <c r="B852" t="inlineStr">
@@ -21727,7 +21727,7 @@
         </is>
       </c>
       <c r="D852" t="n">
-        <v>15576.1</v>
+        <v>17393.3</v>
       </c>
       <c r="E852" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>01/02/2013</t>
+          <t>01/02/2012</t>
         </is>
       </c>
       <c r="B853" t="inlineStr">
@@ -21752,7 +21752,7 @@
         </is>
       </c>
       <c r="D853" t="n">
-        <v>14992.1</v>
+        <v>14260.4</v>
       </c>
       <c r="E853" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="B854" t="inlineStr">
@@ -21777,7 +21777,7 @@
         </is>
       </c>
       <c r="D854" t="n">
-        <v>16653.1</v>
+        <v>16058.3</v>
       </c>
       <c r="E854" t="inlineStr">
         <is>
@@ -21788,7 +21788,7 @@
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>01/07/2013</t>
+          <t>01/07/2012</t>
         </is>
       </c>
       <c r="B855" t="inlineStr">
@@ -21802,7 +21802,7 @@
         </is>
       </c>
       <c r="D855" t="n">
-        <v>15326.3</v>
+        <v>12701.4</v>
       </c>
       <c r="E855" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>01/06/2013</t>
+          <t>01/06/2012</t>
         </is>
       </c>
       <c r="B856" t="inlineStr">
@@ -21827,7 +21827,7 @@
         </is>
       </c>
       <c r="D856" t="n">
-        <v>15355.6</v>
+        <v>10851.8</v>
       </c>
       <c r="E856" t="inlineStr">
         <is>
@@ -21838,7 +21838,7 @@
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>01/05/2013</t>
+          <t>01/05/2012</t>
         </is>
       </c>
       <c r="B857" t="inlineStr">
@@ -21852,7 +21852,7 @@
         </is>
       </c>
       <c r="D857" t="n">
-        <v>14825.2</v>
+        <v>10692</v>
       </c>
       <c r="E857" t="inlineStr">
         <is>
@@ -21863,7 +21863,7 @@
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>01/03/2013</t>
+          <t>01/03/2012</t>
         </is>
       </c>
       <c r="B858" t="inlineStr">
@@ -21877,7 +21877,7 @@
         </is>
       </c>
       <c r="D858" t="n">
-        <v>15537.2</v>
+        <v>14311.3</v>
       </c>
       <c r="E858" t="inlineStr">
         <is>
@@ -21888,7 +21888,7 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>01/11/2013</t>
+          <t>01/11/2012</t>
         </is>
       </c>
       <c r="B859" t="inlineStr">
@@ -21902,7 +21902,7 @@
         </is>
       </c>
       <c r="D859" t="n">
-        <v>14997.2</v>
+        <v>16574.9</v>
       </c>
       <c r="E859" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>01/10/2012</t>
         </is>
       </c>
       <c r="B860" t="inlineStr">
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D860" t="n">
-        <v>14495.7</v>
+        <v>13682.2</v>
       </c>
       <c r="E860" t="inlineStr">
         <is>
@@ -21938,7 +21938,7 @@
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>01/09/2013</t>
+          <t>01/09/2012</t>
         </is>
       </c>
       <c r="B861" t="inlineStr">
@@ -21952,7 +21952,7 @@
         </is>
       </c>
       <c r="D861" t="n">
-        <v>14777.2</v>
+        <v>12246</v>
       </c>
       <c r="E861" t="inlineStr">
         <is>
@@ -21963,7 +21963,7 @@
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>01/04/2014</t>
+          <t>01/04/2013</t>
         </is>
       </c>
       <c r="B862" t="inlineStr">
@@ -21977,7 +21977,7 @@
         </is>
       </c>
       <c r="D862" t="n">
-        <v>15228.7</v>
+        <v>15186.2</v>
       </c>
       <c r="E862" t="inlineStr">
         <is>
@@ -21988,7 +21988,7 @@
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>01/08/2014</t>
+          <t>01/08/2013</t>
         </is>
       </c>
       <c r="B863" t="inlineStr">
@@ -22002,7 +22002,7 @@
         </is>
       </c>
       <c r="D863" t="n">
-        <v>14545.5</v>
+        <v>14998.4</v>
       </c>
       <c r="E863" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>01/12/2014</t>
+          <t>01/12/2013</t>
         </is>
       </c>
       <c r="B864" t="inlineStr">
@@ -22027,7 +22027,7 @@
         </is>
       </c>
       <c r="D864" t="n">
-        <v>13264.2</v>
+        <v>15576.1</v>
       </c>
       <c r="E864" t="inlineStr">
         <is>
@@ -22038,7 +22038,7 @@
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>01/02/2014</t>
+          <t>01/02/2013</t>
         </is>
       </c>
       <c r="B865" t="inlineStr">
@@ -22052,7 +22052,7 @@
         </is>
       </c>
       <c r="D865" t="n">
-        <v>13542.3</v>
+        <v>14992.1</v>
       </c>
       <c r="E865" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="B866" t="inlineStr">
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D866" t="n">
-        <v>15019.1</v>
+        <v>16653.1</v>
       </c>
       <c r="E866" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
+          <t>01/07/2013</t>
         </is>
       </c>
       <c r="B867" t="inlineStr">
@@ -22102,7 +22102,7 @@
         </is>
       </c>
       <c r="D867" t="n">
-        <v>14900.7</v>
+        <v>15326.3</v>
       </c>
       <c r="E867" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>01/06/2014</t>
+          <t>01/06/2013</t>
         </is>
       </c>
       <c r="B868" t="inlineStr">
@@ -22127,7 +22127,7 @@
         </is>
       </c>
       <c r="D868" t="n">
-        <v>14977.9</v>
+        <v>15355.6</v>
       </c>
       <c r="E868" t="inlineStr">
         <is>
@@ -22138,7 +22138,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>01/05/2014</t>
+          <t>01/05/2013</t>
         </is>
       </c>
       <c r="B869" t="inlineStr">
@@ -22152,7 +22152,7 @@
         </is>
       </c>
       <c r="D869" t="n">
-        <v>16141.5</v>
+        <v>14825.2</v>
       </c>
       <c r="E869" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>01/03/2014</t>
+          <t>01/03/2013</t>
         </is>
       </c>
       <c r="B870" t="inlineStr">
@@ -22177,7 +22177,7 @@
         </is>
       </c>
       <c r="D870" t="n">
-        <v>15178.7</v>
+        <v>15537.2</v>
       </c>
       <c r="E870" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>01/11/2014</t>
+          <t>01/11/2013</t>
         </is>
       </c>
       <c r="B871" t="inlineStr">
@@ -22202,7 +22202,7 @@
         </is>
       </c>
       <c r="D871" t="n">
-        <v>11227.8</v>
+        <v>14997.2</v>
       </c>
       <c r="E871" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>01/10/2014</t>
+          <t>01/10/2013</t>
         </is>
       </c>
       <c r="B872" t="inlineStr">
@@ -22227,7 +22227,7 @@
         </is>
       </c>
       <c r="D872" t="n">
-        <v>14384.8</v>
+        <v>14495.7</v>
       </c>
       <c r="E872" t="inlineStr">
         <is>
@@ -22238,7 +22238,7 @@
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>01/09/2014</t>
+          <t>01/09/2013</t>
         </is>
       </c>
       <c r="B873" t="inlineStr">
@@ -22252,7 +22252,7 @@
         </is>
       </c>
       <c r="D873" t="n">
-        <v>13936.6</v>
+        <v>14777.2</v>
       </c>
       <c r="E873" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>01/04/2015</t>
+          <t>01/04/2014</t>
         </is>
       </c>
       <c r="B874" t="inlineStr">
@@ -22277,7 +22277,7 @@
         </is>
       </c>
       <c r="D874" t="n">
-        <v>13917.8</v>
+        <v>15228.7</v>
       </c>
       <c r="E874" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>01/08/2015</t>
+          <t>01/08/2014</t>
         </is>
       </c>
       <c r="B875" t="inlineStr">
@@ -22302,7 +22302,7 @@
         </is>
       </c>
       <c r="D875" t="n">
-        <v>11403.3</v>
+        <v>14545.5</v>
       </c>
       <c r="E875" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>01/12/2015</t>
+          <t>01/12/2014</t>
         </is>
       </c>
       <c r="B876" t="inlineStr">
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D876" t="n">
-        <v>9425.700000000001</v>
+        <v>13264.2</v>
       </c>
       <c r="E876" t="inlineStr">
         <is>
@@ -22338,7 +22338,7 @@
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>01/02/2015</t>
+          <t>01/02/2014</t>
         </is>
       </c>
       <c r="B877" t="inlineStr">
@@ -22352,7 +22352,7 @@
         </is>
       </c>
       <c r="D877" t="n">
-        <v>13004.4</v>
+        <v>13542.3</v>
       </c>
       <c r="E877" t="inlineStr">
         <is>
@@ -22363,7 +22363,7 @@
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="B878" t="inlineStr">
@@ -22377,7 +22377,7 @@
         </is>
       </c>
       <c r="D878" t="n">
-        <v>14478.2</v>
+        <v>15019.1</v>
       </c>
       <c r="E878" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>01/07/2015</t>
+          <t>01/07/2014</t>
         </is>
       </c>
       <c r="B879" t="inlineStr">
@@ -22402,7 +22402,7 @@
         </is>
       </c>
       <c r="D879" t="n">
-        <v>11946.4</v>
+        <v>14900.7</v>
       </c>
       <c r="E879" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>01/06/2015</t>
+          <t>01/06/2014</t>
         </is>
       </c>
       <c r="B880" t="inlineStr">
@@ -22427,7 +22427,7 @@
         </is>
       </c>
       <c r="D880" t="n">
-        <v>12385.6</v>
+        <v>14977.9</v>
       </c>
       <c r="E880" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>01/05/2015</t>
+          <t>01/05/2014</t>
         </is>
       </c>
       <c r="B881" t="inlineStr">
@@ -22452,7 +22452,7 @@
         </is>
       </c>
       <c r="D881" t="n">
-        <v>12823.9</v>
+        <v>16141.5</v>
       </c>
       <c r="E881" t="inlineStr">
         <is>
@@ -22463,7 +22463,7 @@
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>01/03/2015</t>
+          <t>01/03/2014</t>
         </is>
       </c>
       <c r="B882" t="inlineStr">
@@ -22477,7 +22477,7 @@
         </is>
       </c>
       <c r="D882" t="n">
-        <v>14916.8</v>
+        <v>15178.7</v>
       </c>
       <c r="E882" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>01/11/2015</t>
+          <t>01/11/2014</t>
         </is>
       </c>
       <c r="B883" t="inlineStr">
@@ -22502,7 +22502,7 @@
         </is>
       </c>
       <c r="D883" t="n">
-        <v>5361.7</v>
+        <v>11227.8</v>
       </c>
       <c r="E883" t="inlineStr">
         <is>
@@ -22513,7 +22513,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/10/2014</t>
         </is>
       </c>
       <c r="B884" t="inlineStr">
@@ -22527,7 +22527,7 @@
         </is>
       </c>
       <c r="D884" t="n">
-        <v>11384.7</v>
+        <v>14384.8</v>
       </c>
       <c r="E884" t="inlineStr">
         <is>
@@ -22538,7 +22538,7 @@
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>01/09/2015</t>
+          <t>01/09/2014</t>
         </is>
       </c>
       <c r="B885" t="inlineStr">
@@ -22552,7 +22552,7 @@
         </is>
       </c>
       <c r="D885" t="n">
-        <v>11927.3</v>
+        <v>13936.6</v>
       </c>
       <c r="E885" t="inlineStr">
         <is>
@@ -22563,7 +22563,7 @@
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>01/04/2016</t>
+          <t>01/04/2015</t>
         </is>
       </c>
       <c r="B886" t="inlineStr">
@@ -22577,7 +22577,7 @@
         </is>
       </c>
       <c r="D886" t="n">
-        <v>9074.1</v>
+        <v>13917.8</v>
       </c>
       <c r="E886" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>01/08/2016</t>
+          <t>01/08/2015</t>
         </is>
       </c>
       <c r="B887" t="inlineStr">
@@ -22602,7 +22602,7 @@
         </is>
       </c>
       <c r="D887" t="n">
-        <v>9273.799999999999</v>
+        <v>11403.3</v>
       </c>
       <c r="E887" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>01/12/2016</t>
+          <t>01/12/2015</t>
         </is>
       </c>
       <c r="B888" t="inlineStr">
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="D888" t="n">
-        <v>3213.5</v>
+        <v>9425.700000000001</v>
       </c>
       <c r="E888" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>01/02/2016</t>
+          <t>01/02/2015</t>
         </is>
       </c>
       <c r="B889" t="inlineStr">
@@ -22652,7 +22652,7 @@
         </is>
       </c>
       <c r="D889" t="n">
-        <v>8886.4</v>
+        <v>13004.4</v>
       </c>
       <c r="E889" t="inlineStr">
         <is>
@@ -22663,7 +22663,7 @@
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="B890" t="inlineStr">
@@ -22677,7 +22677,7 @@
         </is>
       </c>
       <c r="D890" t="n">
-        <v>9118.200000000001</v>
+        <v>14478.2</v>
       </c>
       <c r="E890" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="B891" t="inlineStr">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="D891" t="n">
-        <v>9093.799999999999</v>
+        <v>11946.4</v>
       </c>
       <c r="E891" t="inlineStr">
         <is>
@@ -22713,7 +22713,7 @@
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>01/06/2016</t>
+          <t>01/06/2015</t>
         </is>
       </c>
       <c r="B892" t="inlineStr">
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D892" t="n">
-        <v>8134.5</v>
+        <v>12385.6</v>
       </c>
       <c r="E892" t="inlineStr">
         <is>
@@ -22738,7 +22738,7 @@
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>01/05/2016</t>
+          <t>01/05/2015</t>
         </is>
       </c>
       <c r="B893" t="inlineStr">
@@ -22752,7 +22752,7 @@
         </is>
       </c>
       <c r="D893" t="n">
-        <v>9412.299999999999</v>
+        <v>12823.9</v>
       </c>
       <c r="E893" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>01/03/2016</t>
+          <t>01/03/2015</t>
         </is>
       </c>
       <c r="B894" t="inlineStr">
@@ -22777,7 +22777,7 @@
         </is>
       </c>
       <c r="D894" t="n">
-        <v>9861.1</v>
+        <v>14916.8</v>
       </c>
       <c r="E894" t="inlineStr">
         <is>
@@ -22788,7 +22788,7 @@
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>01/11/2016</t>
+          <t>01/11/2015</t>
         </is>
       </c>
       <c r="B895" t="inlineStr">
@@ -22802,7 +22802,7 @@
         </is>
       </c>
       <c r="D895" t="n">
-        <v>7657.6</v>
+        <v>5361.7</v>
       </c>
       <c r="E895" t="inlineStr">
         <is>
@@ -22813,7 +22813,7 @@
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/10/2015</t>
         </is>
       </c>
       <c r="B896" t="inlineStr">
@@ -22827,7 +22827,7 @@
         </is>
       </c>
       <c r="D896" t="n">
-        <v>8933.1</v>
+        <v>11384.7</v>
       </c>
       <c r="E896" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>01/09/2016</t>
+          <t>01/09/2015</t>
         </is>
       </c>
       <c r="B897" t="inlineStr">
@@ -22852,7 +22852,7 @@
         </is>
       </c>
       <c r="D897" t="n">
-        <v>8977.299999999999</v>
+        <v>11927.3</v>
       </c>
       <c r="E897" t="inlineStr">
         <is>
@@ -22863,7 +22863,7 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>01/04/2017</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="B898" t="inlineStr">
@@ -22877,7 +22877,7 @@
         </is>
       </c>
       <c r="D898" t="n">
-        <v>6856.1</v>
+        <v>9074.1</v>
       </c>
       <c r="E898" t="inlineStr">
         <is>
@@ -22888,7 +22888,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>01/08/2017</t>
+          <t>01/08/2016</t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
@@ -22902,7 +22902,7 @@
         </is>
       </c>
       <c r="D899" t="n">
-        <v>7185.4</v>
+        <v>9273.799999999999</v>
       </c>
       <c r="E899" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>01/12/2017</t>
+          <t>01/12/2016</t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
@@ -22927,7 +22927,7 @@
         </is>
       </c>
       <c r="D900" t="n">
-        <v>9617.700000000001</v>
+        <v>3213.5</v>
       </c>
       <c r="E900" t="inlineStr">
         <is>
@@ -22938,7 +22938,7 @@
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>01/02/2017</t>
+          <t>01/02/2016</t>
         </is>
       </c>
       <c r="B901" t="inlineStr">
@@ -22952,7 +22952,7 @@
         </is>
       </c>
       <c r="D901" t="n">
-        <v>6279.5</v>
+        <v>8886.4</v>
       </c>
       <c r="E901" t="inlineStr">
         <is>
@@ -22963,7 +22963,7 @@
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="B902" t="inlineStr">
@@ -22977,7 +22977,7 @@
         </is>
       </c>
       <c r="D902" t="n">
-        <v>7743.8</v>
+        <v>9118.200000000001</v>
       </c>
       <c r="E902" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="B903" t="inlineStr">
@@ -23002,7 +23002,7 @@
         </is>
       </c>
       <c r="D903" t="n">
-        <v>6753.2</v>
+        <v>9093.799999999999</v>
       </c>
       <c r="E903" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>01/06/2017</t>
+          <t>01/06/2016</t>
         </is>
       </c>
       <c r="B904" t="inlineStr">
@@ -23027,7 +23027,7 @@
         </is>
       </c>
       <c r="D904" t="n">
-        <v>6679</v>
+        <v>8134.5</v>
       </c>
       <c r="E904" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>01/05/2017</t>
+          <t>01/05/2016</t>
         </is>
       </c>
       <c r="B905" t="inlineStr">
@@ -23052,7 +23052,7 @@
         </is>
       </c>
       <c r="D905" t="n">
-        <v>6777</v>
+        <v>9412.299999999999</v>
       </c>
       <c r="E905" t="inlineStr">
         <is>
@@ -23063,7 +23063,7 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>01/03/2017</t>
+          <t>01/03/2016</t>
         </is>
       </c>
       <c r="B906" t="inlineStr">
@@ -23077,7 +23077,7 @@
         </is>
       </c>
       <c r="D906" t="n">
-        <v>7180</v>
+        <v>9861.1</v>
       </c>
       <c r="E906" t="inlineStr">
         <is>
@@ -23088,7 +23088,7 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>01/11/2017</t>
+          <t>01/11/2016</t>
         </is>
       </c>
       <c r="B907" t="inlineStr">
@@ -23102,7 +23102,7 @@
         </is>
       </c>
       <c r="D907" t="n">
-        <v>7720.9</v>
+        <v>7657.6</v>
       </c>
       <c r="E907" t="inlineStr">
         <is>
@@ -23113,7 +23113,7 @@
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/10/2016</t>
         </is>
       </c>
       <c r="B908" t="inlineStr">
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D908" t="n">
-        <v>7765.07</v>
+        <v>8933.1</v>
       </c>
       <c r="E908" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>01/09/2017</t>
+          <t>01/09/2016</t>
         </is>
       </c>
       <c r="B909" t="inlineStr">
@@ -23152,7 +23152,7 @@
         </is>
       </c>
       <c r="D909" t="n">
-        <v>7191.4</v>
+        <v>8977.299999999999</v>
       </c>
       <c r="E909" t="inlineStr">
         <is>
@@ -23163,7 +23163,7 @@
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>01/04/2018</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="B910" t="inlineStr">
@@ -23177,7 +23177,7 @@
         </is>
       </c>
       <c r="D910" t="n">
-        <v>6020</v>
+        <v>6856.1</v>
       </c>
       <c r="E910" t="inlineStr">
         <is>
@@ -23188,7 +23188,7 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>01/08/2018</t>
+          <t>01/08/2017</t>
         </is>
       </c>
       <c r="B911" t="inlineStr">
@@ -23202,7 +23202,7 @@
         </is>
       </c>
       <c r="D911" t="n">
-        <v>5969</v>
+        <v>7185.4</v>
       </c>
       <c r="E911" t="inlineStr">
         <is>
@@ -23213,7 +23213,7 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>01/12/2018</t>
+          <t>01/12/2017</t>
         </is>
       </c>
       <c r="B912" t="inlineStr">
@@ -23227,7 +23227,7 @@
         </is>
       </c>
       <c r="D912" t="n">
-        <v>6061</v>
+        <v>9617.700000000001</v>
       </c>
       <c r="E912" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>01/02/2018</t>
+          <t>01/02/2017</t>
         </is>
       </c>
       <c r="B913" t="inlineStr">
@@ -23252,7 +23252,7 @@
         </is>
       </c>
       <c r="D913" t="n">
-        <v>6141.6</v>
+        <v>6279.5</v>
       </c>
       <c r="E913" t="inlineStr">
         <is>
@@ -23263,7 +23263,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="B914" t="inlineStr">
@@ -23277,7 +23277,7 @@
         </is>
       </c>
       <c r="D914" t="n">
-        <v>7289.478</v>
+        <v>7743.8</v>
       </c>
       <c r="E914" t="inlineStr">
         <is>
@@ -23288,7 +23288,7 @@
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="B915" t="inlineStr">
@@ -23302,7 +23302,7 @@
         </is>
       </c>
       <c r="D915" t="n">
-        <v>5621.504</v>
+        <v>6753.2</v>
       </c>
       <c r="E915" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>01/06/2018</t>
+          <t>01/06/2017</t>
         </is>
       </c>
       <c r="B916" t="inlineStr">
@@ -23327,7 +23327,7 @@
         </is>
       </c>
       <c r="D916" t="n">
-        <v>5487.042</v>
+        <v>6679</v>
       </c>
       <c r="E916" t="inlineStr">
         <is>
@@ -23338,7 +23338,7 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>01/05/2018</t>
+          <t>01/05/2017</t>
         </is>
       </c>
       <c r="B917" t="inlineStr">
@@ -23352,7 +23352,7 @@
         </is>
       </c>
       <c r="D917" t="n">
-        <v>5549.7</v>
+        <v>6777</v>
       </c>
       <c r="E917" t="inlineStr">
         <is>
@@ -23363,7 +23363,7 @@
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>01/03/2018</t>
+          <t>01/03/2017</t>
         </is>
       </c>
       <c r="B918" t="inlineStr">
@@ -23377,7 +23377,7 @@
         </is>
       </c>
       <c r="D918" t="n">
-        <v>6426.258</v>
+        <v>7180</v>
       </c>
       <c r="E918" t="inlineStr">
         <is>
@@ -23388,7 +23388,7 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>01/11/2018</t>
+          <t>01/11/2017</t>
         </is>
       </c>
       <c r="B919" t="inlineStr">
@@ -23402,7 +23402,7 @@
         </is>
       </c>
       <c r="D919" t="n">
-        <v>5685.5</v>
+        <v>7720.9</v>
       </c>
       <c r="E919" t="inlineStr">
         <is>
@@ -23413,7 +23413,7 @@
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
@@ -23427,7 +23427,7 @@
         </is>
       </c>
       <c r="D920" t="n">
-        <v>5916.66</v>
+        <v>7765.07</v>
       </c>
       <c r="E920" t="inlineStr">
         <is>
@@ -23438,7 +23438,7 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>01/09/2018</t>
+          <t>01/09/2017</t>
         </is>
       </c>
       <c r="B921" t="inlineStr">
@@ -23452,7 +23452,7 @@
         </is>
       </c>
       <c r="D921" t="n">
-        <v>5970.399</v>
+        <v>7191.4</v>
       </c>
       <c r="E921" t="inlineStr">
         <is>
@@ -23463,7 +23463,7 @@
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="B922" t="inlineStr">
@@ -23477,7 +23477,7 @@
         </is>
       </c>
       <c r="D922" t="n">
-        <v>5391.2</v>
+        <v>6020</v>
       </c>
       <c r="E922" t="inlineStr">
         <is>
@@ -23488,7 +23488,7 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>01/08/2019</t>
+          <t>01/08/2018</t>
         </is>
       </c>
       <c r="B923" t="inlineStr">
@@ -23502,7 +23502,7 @@
         </is>
       </c>
       <c r="D923" t="n">
-        <v>4054.5</v>
+        <v>5969</v>
       </c>
       <c r="E923" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>01/12/2019</t>
+          <t>01/12/2018</t>
         </is>
       </c>
       <c r="B924" t="inlineStr">
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D924" t="n">
-        <v>4830.4</v>
+        <v>6061</v>
       </c>
       <c r="E924" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>01/02/2019</t>
+          <t>01/02/2018</t>
         </is>
       </c>
       <c r="B925" t="inlineStr">
@@ -23552,7 +23552,7 @@
         </is>
       </c>
       <c r="D925" t="n">
-        <v>3997.1</v>
+        <v>6141.6</v>
       </c>
       <c r="E925" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="B926" t="inlineStr">
@@ -23577,7 +23577,7 @@
         </is>
       </c>
       <c r="D926" t="n">
-        <v>5711.1</v>
+        <v>7289.478</v>
       </c>
       <c r="E926" t="inlineStr">
         <is>
@@ -23588,7 +23588,7 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="B927" t="inlineStr">
@@ -23602,7 +23602,7 @@
         </is>
       </c>
       <c r="D927" t="n">
-        <v>4524.82</v>
+        <v>5621.504</v>
       </c>
       <c r="E927" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>01/06/2019</t>
+          <t>01/06/2018</t>
         </is>
       </c>
       <c r="B928" t="inlineStr">
@@ -23627,7 +23627,7 @@
         </is>
       </c>
       <c r="D928" t="n">
-        <v>4716.577</v>
+        <v>5487.042</v>
       </c>
       <c r="E928" t="inlineStr">
         <is>
@@ -23638,7 +23638,7 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>01/05/2019</t>
+          <t>01/05/2018</t>
         </is>
       </c>
       <c r="B929" t="inlineStr">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="D929" t="n">
-        <v>5361.2</v>
+        <v>5549.7</v>
       </c>
       <c r="E929" t="inlineStr">
         <is>
@@ -23663,7 +23663,7 @@
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>01/03/2019</t>
+          <t>01/03/2018</t>
         </is>
       </c>
       <c r="B930" t="inlineStr">
@@ -23677,7 +23677,7 @@
         </is>
       </c>
       <c r="D930" t="n">
-        <v>4734.9</v>
+        <v>6426.258</v>
       </c>
       <c r="E930" t="inlineStr">
         <is>
@@ -23688,7 +23688,7 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>01/11/2019</t>
+          <t>01/11/2018</t>
         </is>
       </c>
       <c r="B931" t="inlineStr">
@@ -23702,7 +23702,7 @@
         </is>
       </c>
       <c r="D931" t="n">
-        <v>3812.4</v>
+        <v>5685.5</v>
       </c>
       <c r="E931" t="inlineStr">
         <is>
@@ -23713,7 +23713,7 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="B932" t="inlineStr">
@@ -23727,7 +23727,7 @@
         </is>
       </c>
       <c r="D932" t="n">
-        <v>4339.8</v>
+        <v>5916.66</v>
       </c>
       <c r="E932" t="inlineStr">
         <is>
@@ -23738,7 +23738,7 @@
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>01/09/2019</t>
+          <t>01/09/2018</t>
         </is>
       </c>
       <c r="B933" t="inlineStr">
@@ -23752,7 +23752,7 @@
         </is>
       </c>
       <c r="D933" t="n">
-        <v>3820.9</v>
+        <v>5970.399</v>
       </c>
       <c r="E933" t="inlineStr">
         <is>
@@ -23763,7 +23763,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="B934" t="inlineStr">
@@ -23777,7 +23777,7 @@
         </is>
       </c>
       <c r="D934" t="n">
-        <v>0</v>
+        <v>5391.2</v>
       </c>
       <c r="E934" t="inlineStr">
         <is>
@@ -23788,7 +23788,7 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>01/08/2020</t>
+          <t>01/08/2019</t>
         </is>
       </c>
       <c r="B935" t="inlineStr">
@@ -23802,7 +23802,7 @@
         </is>
       </c>
       <c r="D935" t="n">
-        <v>0</v>
+        <v>4054.5</v>
       </c>
       <c r="E935" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>01/12/2020</t>
+          <t>01/12/2019</t>
         </is>
       </c>
       <c r="B936" t="inlineStr">
@@ -23827,7 +23827,7 @@
         </is>
       </c>
       <c r="D936" t="n">
-        <v>0</v>
+        <v>4830.4</v>
       </c>
       <c r="E936" t="inlineStr">
         <is>
@@ -23838,7 +23838,7 @@
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>01/02/2020</t>
+          <t>01/02/2019</t>
         </is>
       </c>
       <c r="B937" t="inlineStr">
@@ -23852,7 +23852,7 @@
         </is>
       </c>
       <c r="D937" t="n">
-        <v>5762.358</v>
+        <v>3997.1</v>
       </c>
       <c r="E937" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="B938" t="inlineStr">
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D938" t="n">
-        <v>5560.337</v>
+        <v>5711.1</v>
       </c>
       <c r="E938" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="B939" t="inlineStr">
@@ -23902,7 +23902,7 @@
         </is>
       </c>
       <c r="D939" t="n">
-        <v>0</v>
+        <v>4524.82</v>
       </c>
       <c r="E939" t="inlineStr">
         <is>
@@ -23913,7 +23913,7 @@
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>01/06/2020</t>
+          <t>01/06/2019</t>
         </is>
       </c>
       <c r="B940" t="inlineStr">
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D940" t="n">
-        <v>0</v>
+        <v>4716.577</v>
       </c>
       <c r="E940" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>01/05/2020</t>
+          <t>01/05/2019</t>
         </is>
       </c>
       <c r="B941" t="inlineStr">
@@ -23952,7 +23952,7 @@
         </is>
       </c>
       <c r="D941" t="n">
-        <v>0</v>
+        <v>5361.2</v>
       </c>
       <c r="E941" t="inlineStr">
         <is>
@@ -23963,7 +23963,7 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>01/03/2020</t>
+          <t>01/03/2019</t>
         </is>
       </c>
       <c r="B942" t="inlineStr">
@@ -23977,7 +23977,7 @@
         </is>
       </c>
       <c r="D942" t="n">
-        <v>5496</v>
+        <v>4734.9</v>
       </c>
       <c r="E942" t="inlineStr">
         <is>
@@ -23988,7 +23988,7 @@
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>01/11/2020</t>
+          <t>01/11/2019</t>
         </is>
       </c>
       <c r="B943" t="inlineStr">
@@ -24002,7 +24002,7 @@
         </is>
       </c>
       <c r="D943" t="n">
-        <v>0</v>
+        <v>3812.4</v>
       </c>
       <c r="E943" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="B944" t="inlineStr">
@@ -24027,7 +24027,7 @@
         </is>
       </c>
       <c r="D944" t="n">
-        <v>0</v>
+        <v>4339.8</v>
       </c>
       <c r="E944" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>01/09/2020</t>
+          <t>01/09/2019</t>
         </is>
       </c>
       <c r="B945" t="inlineStr">
@@ -24052,7 +24052,7 @@
         </is>
       </c>
       <c r="D945" t="n">
-        <v>0</v>
+        <v>3820.9</v>
       </c>
       <c r="E945" t="inlineStr">
         <is>
@@ -24063,7 +24063,7 @@
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="B946" t="inlineStr">
@@ -24088,7 +24088,7 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>01/08/2021</t>
+          <t>01/08/2020</t>
         </is>
       </c>
       <c r="B947" t="inlineStr">
@@ -24113,7 +24113,7 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>01/12/2021</t>
+          <t>01/12/2020</t>
         </is>
       </c>
       <c r="B948" t="inlineStr">
@@ -24138,7 +24138,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>01/02/2021</t>
+          <t>01/02/2020</t>
         </is>
       </c>
       <c r="B949" t="inlineStr">
@@ -24152,7 +24152,7 @@
         </is>
       </c>
       <c r="D949" t="n">
-        <v>0</v>
+        <v>5762.358</v>
       </c>
       <c r="E949" t="inlineStr">
         <is>
@@ -24163,7 +24163,7 @@
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="B950" t="inlineStr">
@@ -24177,7 +24177,7 @@
         </is>
       </c>
       <c r="D950" t="n">
-        <v>0</v>
+        <v>5560.337</v>
       </c>
       <c r="E950" t="inlineStr">
         <is>
@@ -24188,7 +24188,7 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="B951" t="inlineStr">
@@ -24213,7 +24213,7 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>01/06/2021</t>
+          <t>01/06/2020</t>
         </is>
       </c>
       <c r="B952" t="inlineStr">
@@ -24238,7 +24238,7 @@
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>01/05/2021</t>
+          <t>01/05/2020</t>
         </is>
       </c>
       <c r="B953" t="inlineStr">
@@ -24263,7 +24263,7 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>01/03/2021</t>
+          <t>01/03/2020</t>
         </is>
       </c>
       <c r="B954" t="inlineStr">
@@ -24277,7 +24277,7 @@
         </is>
       </c>
       <c r="D954" t="n">
-        <v>0</v>
+        <v>5496</v>
       </c>
       <c r="E954" t="inlineStr">
         <is>
@@ -24288,7 +24288,7 @@
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>01/11/2021</t>
+          <t>01/11/2020</t>
         </is>
       </c>
       <c r="B955" t="inlineStr">
@@ -24313,7 +24313,7 @@
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="B956" t="inlineStr">
@@ -24338,7 +24338,7 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>01/09/2021</t>
+          <t>01/09/2020</t>
         </is>
       </c>
       <c r="B957" t="inlineStr">
@@ -24363,7 +24363,7 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="B958" t="inlineStr">
@@ -24388,7 +24388,7 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>01/08/2022</t>
+          <t>01/08/2021</t>
         </is>
       </c>
       <c r="B959" t="inlineStr">
@@ -24413,7 +24413,7 @@
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>01/12/2022</t>
+          <t>01/12/2021</t>
         </is>
       </c>
       <c r="B960" t="inlineStr">
@@ -24438,7 +24438,7 @@
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>01/02/2022</t>
+          <t>01/02/2021</t>
         </is>
       </c>
       <c r="B961" t="inlineStr">
@@ -24463,7 +24463,7 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="B962" t="inlineStr">
@@ -24488,7 +24488,7 @@
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="B963" t="inlineStr">
@@ -24513,7 +24513,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>01/06/2022</t>
+          <t>01/06/2021</t>
         </is>
       </c>
       <c r="B964" t="inlineStr">
@@ -24538,7 +24538,7 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>01/05/2022</t>
+          <t>01/05/2021</t>
         </is>
       </c>
       <c r="B965" t="inlineStr">
@@ -24563,7 +24563,7 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>01/03/2022</t>
+          <t>01/03/2021</t>
         </is>
       </c>
       <c r="B966" t="inlineStr">
@@ -24588,7 +24588,7 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>01/11/2022</t>
+          <t>01/11/2021</t>
         </is>
       </c>
       <c r="B967" t="inlineStr">
@@ -24613,7 +24613,7 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="B968" t="inlineStr">
@@ -24638,7 +24638,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>01/09/2022</t>
+          <t>01/09/2021</t>
         </is>
       </c>
       <c r="B969" t="inlineStr">
@@ -24663,7 +24663,7 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="B970" t="inlineStr">
@@ -24688,7 +24688,7 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01/08/2022</t>
         </is>
       </c>
       <c r="B971" t="inlineStr">
@@ -24713,7 +24713,7 @@
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>01/12/2022</t>
         </is>
       </c>
       <c r="B972" t="inlineStr">
@@ -24738,7 +24738,7 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>01/02/2023</t>
+          <t>01/02/2022</t>
         </is>
       </c>
       <c r="B973" t="inlineStr">
@@ -24763,7 +24763,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="B974" t="inlineStr">
@@ -24788,7 +24788,7 @@
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="B975" t="inlineStr">
@@ -24813,7 +24813,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>01/06/2023</t>
+          <t>01/06/2022</t>
         </is>
       </c>
       <c r="B976" t="inlineStr">
@@ -24838,7 +24838,7 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>01/05/2023</t>
+          <t>01/05/2022</t>
         </is>
       </c>
       <c r="B977" t="inlineStr">
@@ -24863,7 +24863,7 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>01/03/2023</t>
+          <t>01/03/2022</t>
         </is>
       </c>
       <c r="B978" t="inlineStr">
@@ -24888,7 +24888,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>01/11/2023</t>
+          <t>01/11/2022</t>
         </is>
       </c>
       <c r="B979" t="inlineStr">
@@ -24913,7 +24913,7 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="B980" t="inlineStr">
@@ -24938,7 +24938,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>01/09/2023</t>
+          <t>01/09/2022</t>
         </is>
       </c>
       <c r="B981" t="inlineStr">
@@ -24963,7 +24963,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="B982" t="inlineStr">
@@ -24988,7 +24988,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>01/02/2024</t>
+          <t>01/08/2023</t>
         </is>
       </c>
       <c r="B983" t="inlineStr">
@@ -25013,7 +25013,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="B984" t="inlineStr">
@@ -25038,7 +25038,7 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>01/03/2024</t>
+          <t>01/02/2023</t>
         </is>
       </c>
       <c r="B985" t="inlineStr">
@@ -25055,6 +25055,456 @@
         <v>0</v>
       </c>
       <c r="E985" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C986" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D986" t="n">
+        <v>0</v>
+      </c>
+      <c r="E986" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="inlineStr">
+        <is>
+          <t>01/07/2023</t>
+        </is>
+      </c>
+      <c r="B987" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C987" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D987" t="n">
+        <v>0</v>
+      </c>
+      <c r="E987" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="inlineStr">
+        <is>
+          <t>01/06/2023</t>
+        </is>
+      </c>
+      <c r="B988" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C988" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D988" t="n">
+        <v>0</v>
+      </c>
+      <c r="E988" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="inlineStr">
+        <is>
+          <t>01/05/2023</t>
+        </is>
+      </c>
+      <c r="B989" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C989" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D989" t="n">
+        <v>0</v>
+      </c>
+      <c r="E989" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="inlineStr">
+        <is>
+          <t>01/03/2023</t>
+        </is>
+      </c>
+      <c r="B990" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C990" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D990" t="n">
+        <v>0</v>
+      </c>
+      <c r="E990" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="inlineStr">
+        <is>
+          <t>01/11/2023</t>
+        </is>
+      </c>
+      <c r="B991" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C991" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D991" t="n">
+        <v>0</v>
+      </c>
+      <c r="E991" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="inlineStr">
+        <is>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="B992" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C992" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D992" t="n">
+        <v>0</v>
+      </c>
+      <c r="E992" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B993" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C993" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D993" t="n">
+        <v>0</v>
+      </c>
+      <c r="E993" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+      <c r="B994" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C994" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D994" t="n">
+        <v>0</v>
+      </c>
+      <c r="E994" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="inlineStr">
+        <is>
+          <t>01/08/2024</t>
+        </is>
+      </c>
+      <c r="B995" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C995" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D995" t="n">
+        <v>0</v>
+      </c>
+      <c r="E995" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B996" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C996" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D996" t="n">
+        <v>0</v>
+      </c>
+      <c r="E996" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="inlineStr">
+        <is>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="B997" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C997" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D997" t="n">
+        <v>0</v>
+      </c>
+      <c r="E997" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="B998" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C998" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D998" t="n">
+        <v>0</v>
+      </c>
+      <c r="E998" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="inlineStr">
+        <is>
+          <t>01/06/2024</t>
+        </is>
+      </c>
+      <c r="B999" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C999" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D999" t="n">
+        <v>0</v>
+      </c>
+      <c r="E999" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="inlineStr">
+        <is>
+          <t>01/05/2024</t>
+        </is>
+      </c>
+      <c r="B1000" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C1000" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1000" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="inlineStr">
+        <is>
+          <t>01/03/2024</t>
+        </is>
+      </c>
+      <c r="B1001" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C1001" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1001" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="inlineStr">
+        <is>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="B1002" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C1002" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1002" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="B1003" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C1003" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1003" t="inlineStr">
         <is>
           <t>SERGIPE</t>
         </is>

--- a/Data/g8.2.xlsx
+++ b/Data/g8.2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1000"/>
+  <dimension ref="A1:E1003"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17063,7 +17063,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>01/09/2024</t>
+          <t>01/10/2024</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
@@ -17077,7 +17077,7 @@
         </is>
       </c>
       <c r="D666" t="n">
-        <v>57.802</v>
+        <v>69.205</v>
       </c>
       <c r="E666" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>01/09/2024</t>
+          <t>01/10/2024</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
@@ -17102,7 +17102,7 @@
         </is>
       </c>
       <c r="D667" t="n">
-        <v>1610.794</v>
+        <v>1677.056</v>
       </c>
       <c r="E667" t="inlineStr">
         <is>
@@ -17113,21 +17113,21 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>01/04/1997</t>
+          <t>01/09/2024</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA</t>
+          <t>MAR</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>LGN</t>
+          <t>GÁS NATURAL</t>
         </is>
       </c>
       <c r="D668" t="n">
-        <v>20951</v>
+        <v>57.802</v>
       </c>
       <c r="E668" t="inlineStr">
         <is>
@@ -17138,21 +17138,21 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>01/08/1997</t>
+          <t>01/09/2024</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA</t>
+          <t>TERRA</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>LGN</t>
+          <t>GÁS NATURAL</t>
         </is>
       </c>
       <c r="D669" t="n">
-        <v>24698</v>
+        <v>1610.794</v>
       </c>
       <c r="E669" t="inlineStr">
         <is>
@@ -17163,7 +17163,7 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>01/12/1997</t>
+          <t>01/04/1997</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
@@ -17177,7 +17177,7 @@
         </is>
       </c>
       <c r="D670" t="n">
-        <v>23230</v>
+        <v>20951</v>
       </c>
       <c r="E670" t="inlineStr">
         <is>
@@ -17188,7 +17188,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>01/02/1997</t>
+          <t>01/08/1997</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
@@ -17202,7 +17202,7 @@
         </is>
       </c>
       <c r="D671" t="n">
-        <v>19007</v>
+        <v>24698</v>
       </c>
       <c r="E671" t="inlineStr">
         <is>
@@ -17213,7 +17213,7 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>01/01/1997</t>
+          <t>01/12/1997</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="D672" t="n">
-        <v>18978</v>
+        <v>23230</v>
       </c>
       <c r="E672" t="inlineStr">
         <is>
@@ -17238,7 +17238,7 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>01/07/1997</t>
+          <t>01/02/1997</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
@@ -17252,7 +17252,7 @@
         </is>
       </c>
       <c r="D673" t="n">
-        <v>23232</v>
+        <v>19007</v>
       </c>
       <c r="E673" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>01/06/1997</t>
+          <t>01/01/1997</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
@@ -17277,7 +17277,7 @@
         </is>
       </c>
       <c r="D674" t="n">
-        <v>22449</v>
+        <v>18978</v>
       </c>
       <c r="E674" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>01/05/1997</t>
+          <t>01/07/1997</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
@@ -17302,7 +17302,7 @@
         </is>
       </c>
       <c r="D675" t="n">
-        <v>24757</v>
+        <v>23232</v>
       </c>
       <c r="E675" t="inlineStr">
         <is>
@@ -17313,7 +17313,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>01/03/1997</t>
+          <t>01/06/1997</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
@@ -17327,7 +17327,7 @@
         </is>
       </c>
       <c r="D676" t="n">
-        <v>19807</v>
+        <v>22449</v>
       </c>
       <c r="E676" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>01/11/1997</t>
+          <t>01/05/1997</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
@@ -17352,7 +17352,7 @@
         </is>
       </c>
       <c r="D677" t="n">
-        <v>22027</v>
+        <v>24757</v>
       </c>
       <c r="E677" t="inlineStr">
         <is>
@@ -17363,7 +17363,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>01/10/1997</t>
+          <t>01/03/1997</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
@@ -17377,7 +17377,7 @@
         </is>
       </c>
       <c r="D678" t="n">
-        <v>21890</v>
+        <v>19807</v>
       </c>
       <c r="E678" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>01/09/1997</t>
+          <t>01/11/1997</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
@@ -17402,7 +17402,7 @@
         </is>
       </c>
       <c r="D679" t="n">
-        <v>22749</v>
+        <v>22027</v>
       </c>
       <c r="E679" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>01/04/1998</t>
+          <t>01/10/1997</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
@@ -17427,7 +17427,7 @@
         </is>
       </c>
       <c r="D680" t="n">
-        <v>131778.0699</v>
+        <v>21890</v>
       </c>
       <c r="E680" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>01/08/1998</t>
+          <t>01/09/1997</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
@@ -17452,7 +17452,7 @@
         </is>
       </c>
       <c r="D681" t="n">
-        <v>155346.0346</v>
+        <v>22749</v>
       </c>
       <c r="E681" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>01/12/1998</t>
+          <t>01/04/1998</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
@@ -17477,7 +17477,7 @@
         </is>
       </c>
       <c r="D682" t="n">
-        <v>146112.5752</v>
+        <v>131778.0699</v>
       </c>
       <c r="E682" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>01/02/1998</t>
+          <t>01/08/1998</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
@@ -17502,7 +17502,7 @@
         </is>
       </c>
       <c r="D683" t="n">
-        <v>119550.6551</v>
+        <v>155346.0346</v>
       </c>
       <c r="E683" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>01/01/1998</t>
+          <t>01/12/1998</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D684" t="n">
-        <v>119368.2502</v>
+        <v>146112.5752</v>
       </c>
       <c r="E684" t="inlineStr">
         <is>
@@ -17538,7 +17538,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>01/07/1998</t>
+          <t>01/02/1998</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
@@ -17552,7 +17552,7 @@
         </is>
       </c>
       <c r="D685" t="n">
-        <v>146125.1549</v>
+        <v>119550.6551</v>
       </c>
       <c r="E685" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>01/06/1998</t>
+          <t>01/01/1998</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
@@ -17577,7 +17577,7 @@
         </is>
       </c>
       <c r="D686" t="n">
-        <v>141200.2239</v>
+        <v>119368.2502</v>
       </c>
       <c r="E686" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>01/05/1998</t>
+          <t>01/07/1998</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
@@ -17602,7 +17602,7 @@
         </is>
       </c>
       <c r="D687" t="n">
-        <v>155717.1341</v>
+        <v>146125.1549</v>
       </c>
       <c r="E687" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>01/03/1998</t>
+          <t>01/06/1998</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
@@ -17627,7 +17627,7 @@
         </is>
       </c>
       <c r="D688" t="n">
-        <v>124582.513</v>
+        <v>141200.2239</v>
       </c>
       <c r="E688" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>01/11/1998</t>
+          <t>01/05/1998</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
@@ -17652,7 +17652,7 @@
         </is>
       </c>
       <c r="D689" t="n">
-        <v>138545.9188</v>
+        <v>155717.1341</v>
       </c>
       <c r="E689" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>01/10/1998</t>
+          <t>01/03/1998</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
@@ -17677,7 +17677,7 @@
         </is>
       </c>
       <c r="D690" t="n">
-        <v>137684.2132</v>
+        <v>124582.513</v>
       </c>
       <c r="E690" t="inlineStr">
         <is>
@@ -17688,7 +17688,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>01/09/1998</t>
+          <t>01/11/1998</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
@@ -17702,7 +17702,7 @@
         </is>
       </c>
       <c r="D691" t="n">
-        <v>143087.1706</v>
+        <v>138545.9188</v>
       </c>
       <c r="E691" t="inlineStr">
         <is>
@@ -17713,7 +17713,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>01/04/1999</t>
+          <t>01/10/1998</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
@@ -17727,7 +17727,7 @@
         </is>
       </c>
       <c r="D692" t="n">
-        <v>24546</v>
+        <v>137684.2132</v>
       </c>
       <c r="E692" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>01/08/1999</t>
+          <t>01/09/1998</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
@@ -17752,7 +17752,7 @@
         </is>
       </c>
       <c r="D693" t="n">
-        <v>23247</v>
+        <v>143087.1706</v>
       </c>
       <c r="E693" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>01/12/1999</t>
+          <t>01/04/1999</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
@@ -17777,7 +17777,7 @@
         </is>
       </c>
       <c r="D694" t="n">
-        <v>24640</v>
+        <v>24546</v>
       </c>
       <c r="E694" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>01/02/1999</t>
+          <t>01/08/1999</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
@@ -17802,7 +17802,7 @@
         </is>
       </c>
       <c r="D695" t="n">
-        <v>22448</v>
+        <v>23247</v>
       </c>
       <c r="E695" t="inlineStr">
         <is>
@@ -17813,7 +17813,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>01/01/1999</t>
+          <t>01/12/1999</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
@@ -17827,7 +17827,7 @@
         </is>
       </c>
       <c r="D696" t="n">
-        <v>24629</v>
+        <v>24640</v>
       </c>
       <c r="E696" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>01/07/1999</t>
+          <t>01/02/1999</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
@@ -17852,7 +17852,7 @@
         </is>
       </c>
       <c r="D697" t="n">
-        <v>22323</v>
+        <v>22448</v>
       </c>
       <c r="E697" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>01/06/1999</t>
+          <t>01/01/1999</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
@@ -17877,7 +17877,7 @@
         </is>
       </c>
       <c r="D698" t="n">
-        <v>24653</v>
+        <v>24629</v>
       </c>
       <c r="E698" t="inlineStr">
         <is>
@@ -17888,7 +17888,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>01/05/1999</t>
+          <t>01/07/1999</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
@@ -17902,7 +17902,7 @@
         </is>
       </c>
       <c r="D699" t="n">
-        <v>25678</v>
+        <v>22323</v>
       </c>
       <c r="E699" t="inlineStr">
         <is>
@@ -17913,7 +17913,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>01/03/1999</t>
+          <t>01/06/1999</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D700" t="n">
-        <v>25737</v>
+        <v>24653</v>
       </c>
       <c r="E700" t="inlineStr">
         <is>
@@ -17938,7 +17938,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>01/11/1999</t>
+          <t>01/05/1999</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
@@ -17952,7 +17952,7 @@
         </is>
       </c>
       <c r="D701" t="n">
-        <v>25481</v>
+        <v>25678</v>
       </c>
       <c r="E701" t="inlineStr">
         <is>
@@ -17963,7 +17963,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>01/10/1999</t>
+          <t>01/03/1999</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
@@ -17977,7 +17977,7 @@
         </is>
       </c>
       <c r="D702" t="n">
-        <v>25601</v>
+        <v>25737</v>
       </c>
       <c r="E702" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>01/09/1999</t>
+          <t>01/11/1999</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
@@ -18002,7 +18002,7 @@
         </is>
       </c>
       <c r="D703" t="n">
-        <v>24686</v>
+        <v>25481</v>
       </c>
       <c r="E703" t="inlineStr">
         <is>
@@ -18013,7 +18013,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>01/04/2000</t>
+          <t>01/10/1999</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
@@ -18027,7 +18027,7 @@
         </is>
       </c>
       <c r="D704" t="n">
-        <v>25440</v>
+        <v>25601</v>
       </c>
       <c r="E704" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>01/08/2000</t>
+          <t>01/09/1999</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
@@ -18052,7 +18052,7 @@
         </is>
       </c>
       <c r="D705" t="n">
-        <v>27353</v>
+        <v>24686</v>
       </c>
       <c r="E705" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>01/12/2000</t>
+          <t>01/04/2000</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
@@ -18077,7 +18077,7 @@
         </is>
       </c>
       <c r="D706" t="n">
-        <v>26071</v>
+        <v>25440</v>
       </c>
       <c r="E706" t="inlineStr">
         <is>
@@ -18088,7 +18088,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>01/02/2000</t>
+          <t>01/08/2000</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
@@ -18102,7 +18102,7 @@
         </is>
       </c>
       <c r="D707" t="n">
-        <v>25123</v>
+        <v>27353</v>
       </c>
       <c r="E707" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>01/01/2000</t>
+          <t>01/12/2000</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
@@ -18127,7 +18127,7 @@
         </is>
       </c>
       <c r="D708" t="n">
-        <v>26480</v>
+        <v>26071</v>
       </c>
       <c r="E708" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>01/07/2000</t>
+          <t>01/02/2000</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
@@ -18152,7 +18152,7 @@
         </is>
       </c>
       <c r="D709" t="n">
-        <v>26914</v>
+        <v>25123</v>
       </c>
       <c r="E709" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>01/06/2000</t>
+          <t>01/01/2000</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
@@ -18177,7 +18177,7 @@
         </is>
       </c>
       <c r="D710" t="n">
-        <v>26044</v>
+        <v>26480</v>
       </c>
       <c r="E710" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>01/05/2000</t>
+          <t>01/07/2000</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
@@ -18202,7 +18202,7 @@
         </is>
       </c>
       <c r="D711" t="n">
-        <v>26406</v>
+        <v>26914</v>
       </c>
       <c r="E711" t="inlineStr">
         <is>
@@ -18213,7 +18213,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>01/03/2000</t>
+          <t>01/06/2000</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
@@ -18227,7 +18227,7 @@
         </is>
       </c>
       <c r="D712" t="n">
-        <v>26572</v>
+        <v>26044</v>
       </c>
       <c r="E712" t="inlineStr">
         <is>
@@ -18238,7 +18238,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>01/11/2000</t>
+          <t>01/05/2000</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
@@ -18252,7 +18252,7 @@
         </is>
       </c>
       <c r="D713" t="n">
-        <v>13928</v>
+        <v>26406</v>
       </c>
       <c r="E713" t="inlineStr">
         <is>
@@ -18263,7 +18263,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>01/10/2000</t>
+          <t>01/03/2000</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
@@ -18277,7 +18277,7 @@
         </is>
       </c>
       <c r="D714" t="n">
-        <v>26965</v>
+        <v>26572</v>
       </c>
       <c r="E714" t="inlineStr">
         <is>
@@ -18288,7 +18288,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>01/09/2000</t>
+          <t>01/11/2000</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
@@ -18302,7 +18302,7 @@
         </is>
       </c>
       <c r="D715" t="n">
-        <v>26129</v>
+        <v>13928</v>
       </c>
       <c r="E715" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>01/04/2001</t>
+          <t>01/10/2000</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D716" t="n">
-        <v>18378</v>
+        <v>26965</v>
       </c>
       <c r="E716" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>01/08/2001</t>
+          <t>01/09/2000</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
@@ -18352,7 +18352,7 @@
         </is>
       </c>
       <c r="D717" t="n">
-        <v>26465</v>
+        <v>26129</v>
       </c>
       <c r="E717" t="inlineStr">
         <is>
@@ -18363,7 +18363,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>01/12/2001</t>
+          <t>01/04/2001</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
@@ -18377,7 +18377,7 @@
         </is>
       </c>
       <c r="D718" t="n">
-        <v>26876</v>
+        <v>18378</v>
       </c>
       <c r="E718" t="inlineStr">
         <is>
@@ -18388,7 +18388,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>01/02/2001</t>
+          <t>01/08/2001</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
@@ -18402,7 +18402,7 @@
         </is>
       </c>
       <c r="D719" t="n">
-        <v>23797</v>
+        <v>26465</v>
       </c>
       <c r="E719" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>01/01/2001</t>
+          <t>01/12/2001</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
@@ -18427,7 +18427,7 @@
         </is>
       </c>
       <c r="D720" t="n">
-        <v>26536</v>
+        <v>26876</v>
       </c>
       <c r="E720" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>01/07/2001</t>
+          <t>01/02/2001</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
@@ -18452,7 +18452,7 @@
         </is>
       </c>
       <c r="D721" t="n">
-        <v>27236</v>
+        <v>23797</v>
       </c>
       <c r="E721" t="inlineStr">
         <is>
@@ -18463,7 +18463,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>01/06/2001</t>
+          <t>01/01/2001</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D722" t="n">
-        <v>25806</v>
+        <v>26536</v>
       </c>
       <c r="E722" t="inlineStr">
         <is>
@@ -18488,7 +18488,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>01/05/2001</t>
+          <t>01/07/2001</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
@@ -18502,7 +18502,7 @@
         </is>
       </c>
       <c r="D723" t="n">
-        <v>22691</v>
+        <v>27236</v>
       </c>
       <c r="E723" t="inlineStr">
         <is>
@@ -18513,7 +18513,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>01/03/2001</t>
+          <t>01/06/2001</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
@@ -18527,7 +18527,7 @@
         </is>
       </c>
       <c r="D724" t="n">
-        <v>25605</v>
+        <v>25806</v>
       </c>
       <c r="E724" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>01/11/2001</t>
+          <t>01/05/2001</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
@@ -18552,7 +18552,7 @@
         </is>
       </c>
       <c r="D725" t="n">
-        <v>25852</v>
+        <v>22691</v>
       </c>
       <c r="E725" t="inlineStr">
         <is>
@@ -18563,7 +18563,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>01/10/2001</t>
+          <t>01/03/2001</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
@@ -18577,7 +18577,7 @@
         </is>
       </c>
       <c r="D726" t="n">
-        <v>26322</v>
+        <v>25605</v>
       </c>
       <c r="E726" t="inlineStr">
         <is>
@@ -18588,7 +18588,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>01/09/2001</t>
+          <t>01/11/2001</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
@@ -18602,7 +18602,7 @@
         </is>
       </c>
       <c r="D727" t="n">
-        <v>23625</v>
+        <v>25852</v>
       </c>
       <c r="E727" t="inlineStr">
         <is>
@@ -18613,7 +18613,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>01/04/2002</t>
+          <t>01/10/2001</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
@@ -18627,7 +18627,7 @@
         </is>
       </c>
       <c r="D728" t="n">
-        <v>23065</v>
+        <v>26322</v>
       </c>
       <c r="E728" t="inlineStr">
         <is>
@@ -18638,7 +18638,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>01/08/2002</t>
+          <t>01/09/2001</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
@@ -18652,7 +18652,7 @@
         </is>
       </c>
       <c r="D729" t="n">
-        <v>25580</v>
+        <v>23625</v>
       </c>
       <c r="E729" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>01/12/2002</t>
+          <t>01/04/2002</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
@@ -18677,7 +18677,7 @@
         </is>
       </c>
       <c r="D730" t="n">
-        <v>24957</v>
+        <v>23065</v>
       </c>
       <c r="E730" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>01/02/2002</t>
+          <t>01/08/2002</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
@@ -18702,7 +18702,7 @@
         </is>
       </c>
       <c r="D731" t="n">
-        <v>24096</v>
+        <v>25580</v>
       </c>
       <c r="E731" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>01/01/2002</t>
+          <t>01/12/2002</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D732" t="n">
-        <v>27239</v>
+        <v>24957</v>
       </c>
       <c r="E732" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>01/07/2002</t>
+          <t>01/02/2002</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
@@ -18752,7 +18752,7 @@
         </is>
       </c>
       <c r="D733" t="n">
-        <v>25911</v>
+        <v>24096</v>
       </c>
       <c r="E733" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>01/06/2002</t>
+          <t>01/01/2002</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
@@ -18777,7 +18777,7 @@
         </is>
       </c>
       <c r="D734" t="n">
-        <v>24854</v>
+        <v>27239</v>
       </c>
       <c r="E734" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>01/05/2002</t>
+          <t>01/07/2002</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
@@ -18802,7 +18802,7 @@
         </is>
       </c>
       <c r="D735" t="n">
-        <v>24983</v>
+        <v>25911</v>
       </c>
       <c r="E735" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>01/03/2002</t>
+          <t>01/06/2002</t>
         </is>
       </c>
       <c r="B736" t="inlineStr">
@@ -18827,7 +18827,7 @@
         </is>
       </c>
       <c r="D736" t="n">
-        <v>25381</v>
+        <v>24854</v>
       </c>
       <c r="E736" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>01/11/2002</t>
+          <t>01/05/2002</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
@@ -18852,7 +18852,7 @@
         </is>
       </c>
       <c r="D737" t="n">
-        <v>24648</v>
+        <v>24983</v>
       </c>
       <c r="E737" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>01/10/2002</t>
+          <t>01/03/2002</t>
         </is>
       </c>
       <c r="B738" t="inlineStr">
@@ -18877,7 +18877,7 @@
         </is>
       </c>
       <c r="D738" t="n">
-        <v>24992</v>
+        <v>25381</v>
       </c>
       <c r="E738" t="inlineStr">
         <is>
@@ -18888,7 +18888,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>01/09/2002</t>
+          <t>01/11/2002</t>
         </is>
       </c>
       <c r="B739" t="inlineStr">
@@ -18902,7 +18902,7 @@
         </is>
       </c>
       <c r="D739" t="n">
-        <v>24400</v>
+        <v>24648</v>
       </c>
       <c r="E739" t="inlineStr">
         <is>
@@ -18913,7 +18913,7 @@
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>01/04/2003</t>
+          <t>01/10/2002</t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
@@ -18927,7 +18927,7 @@
         </is>
       </c>
       <c r="D740" t="n">
-        <v>20841</v>
+        <v>24992</v>
       </c>
       <c r="E740" t="inlineStr">
         <is>
@@ -18938,7 +18938,7 @@
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>01/08/2003</t>
+          <t>01/09/2002</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
@@ -18952,7 +18952,7 @@
         </is>
       </c>
       <c r="D741" t="n">
-        <v>25463</v>
+        <v>24400</v>
       </c>
       <c r="E741" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>01/12/2003</t>
+          <t>01/04/2003</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
@@ -18977,7 +18977,7 @@
         </is>
       </c>
       <c r="D742" t="n">
-        <v>24965</v>
+        <v>20841</v>
       </c>
       <c r="E742" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>01/02/2003</t>
+          <t>01/08/2003</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
@@ -19002,7 +19002,7 @@
         </is>
       </c>
       <c r="D743" t="n">
-        <v>20388</v>
+        <v>25463</v>
       </c>
       <c r="E743" t="inlineStr">
         <is>
@@ -19013,7 +19013,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>01/01/2003</t>
+          <t>01/12/2003</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="D744" t="n">
-        <v>24971</v>
+        <v>24965</v>
       </c>
       <c r="E744" t="inlineStr">
         <is>
@@ -19038,7 +19038,7 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>01/07/2003</t>
+          <t>01/02/2003</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
@@ -19052,7 +19052,7 @@
         </is>
       </c>
       <c r="D745" t="n">
-        <v>23560</v>
+        <v>20388</v>
       </c>
       <c r="E745" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>01/06/2003</t>
+          <t>01/01/2003</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
@@ -19077,7 +19077,7 @@
         </is>
       </c>
       <c r="D746" t="n">
-        <v>22761</v>
+        <v>24971</v>
       </c>
       <c r="E746" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>01/05/2003</t>
+          <t>01/07/2003</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
@@ -19102,7 +19102,7 @@
         </is>
       </c>
       <c r="D747" t="n">
-        <v>23510</v>
+        <v>23560</v>
       </c>
       <c r="E747" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>01/03/2003</t>
+          <t>01/06/2003</t>
         </is>
       </c>
       <c r="B748" t="inlineStr">
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D748" t="n">
-        <v>25907</v>
+        <v>22761</v>
       </c>
       <c r="E748" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>01/11/2003</t>
+          <t>01/05/2003</t>
         </is>
       </c>
       <c r="B749" t="inlineStr">
@@ -19152,7 +19152,7 @@
         </is>
       </c>
       <c r="D749" t="n">
-        <v>24041</v>
+        <v>23510</v>
       </c>
       <c r="E749" t="inlineStr">
         <is>
@@ -19163,7 +19163,7 @@
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>01/10/2003</t>
+          <t>01/03/2003</t>
         </is>
       </c>
       <c r="B750" t="inlineStr">
@@ -19177,7 +19177,7 @@
         </is>
       </c>
       <c r="D750" t="n">
-        <v>24023</v>
+        <v>25907</v>
       </c>
       <c r="E750" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>01/09/2003</t>
+          <t>01/11/2003</t>
         </is>
       </c>
       <c r="B751" t="inlineStr">
@@ -19202,7 +19202,7 @@
         </is>
       </c>
       <c r="D751" t="n">
-        <v>24294</v>
+        <v>24041</v>
       </c>
       <c r="E751" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>01/04/2004</t>
+          <t>01/10/2003</t>
         </is>
       </c>
       <c r="B752" t="inlineStr">
@@ -19227,7 +19227,7 @@
         </is>
       </c>
       <c r="D752" t="n">
-        <v>24411</v>
+        <v>24023</v>
       </c>
       <c r="E752" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>01/08/2004</t>
+          <t>01/09/2003</t>
         </is>
       </c>
       <c r="B753" t="inlineStr">
@@ -19252,7 +19252,7 @@
         </is>
       </c>
       <c r="D753" t="n">
-        <v>25873</v>
+        <v>24294</v>
       </c>
       <c r="E753" t="inlineStr">
         <is>
@@ -19263,7 +19263,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>01/12/2004</t>
+          <t>01/04/2004</t>
         </is>
       </c>
       <c r="B754" t="inlineStr">
@@ -19277,7 +19277,7 @@
         </is>
       </c>
       <c r="D754" t="n">
-        <v>25343</v>
+        <v>24411</v>
       </c>
       <c r="E754" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>01/02/2004</t>
+          <t>01/08/2004</t>
         </is>
       </c>
       <c r="B755" t="inlineStr">
@@ -19302,7 +19302,7 @@
         </is>
       </c>
       <c r="D755" t="n">
-        <v>23497</v>
+        <v>25873</v>
       </c>
       <c r="E755" t="inlineStr">
         <is>
@@ -19313,7 +19313,7 @@
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>01/01/2004</t>
+          <t>01/12/2004</t>
         </is>
       </c>
       <c r="B756" t="inlineStr">
@@ -19327,7 +19327,7 @@
         </is>
       </c>
       <c r="D756" t="n">
-        <v>23975</v>
+        <v>25343</v>
       </c>
       <c r="E756" t="inlineStr">
         <is>
@@ -19338,7 +19338,7 @@
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>01/02/2004</t>
         </is>
       </c>
       <c r="B757" t="inlineStr">
@@ -19352,7 +19352,7 @@
         </is>
       </c>
       <c r="D757" t="n">
-        <v>24979</v>
+        <v>23497</v>
       </c>
       <c r="E757" t="inlineStr">
         <is>
@@ -19363,7 +19363,7 @@
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>01/06/2004</t>
+          <t>01/01/2004</t>
         </is>
       </c>
       <c r="B758" t="inlineStr">
@@ -19377,7 +19377,7 @@
         </is>
       </c>
       <c r="D758" t="n">
-        <v>23413</v>
+        <v>23975</v>
       </c>
       <c r="E758" t="inlineStr">
         <is>
@@ -19388,7 +19388,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>01/05/2004</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="B759" t="inlineStr">
@@ -19402,7 +19402,7 @@
         </is>
       </c>
       <c r="D759" t="n">
-        <v>21313</v>
+        <v>24979</v>
       </c>
       <c r="E759" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>01/03/2004</t>
+          <t>01/06/2004</t>
         </is>
       </c>
       <c r="B760" t="inlineStr">
@@ -19427,7 +19427,7 @@
         </is>
       </c>
       <c r="D760" t="n">
-        <v>25118</v>
+        <v>23413</v>
       </c>
       <c r="E760" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>01/11/2004</t>
+          <t>01/05/2004</t>
         </is>
       </c>
       <c r="B761" t="inlineStr">
@@ -19452,7 +19452,7 @@
         </is>
       </c>
       <c r="D761" t="n">
-        <v>24463</v>
+        <v>21313</v>
       </c>
       <c r="E761" t="inlineStr">
         <is>
@@ -19463,7 +19463,7 @@
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>01/10/2004</t>
+          <t>01/03/2004</t>
         </is>
       </c>
       <c r="B762" t="inlineStr">
@@ -19477,7 +19477,7 @@
         </is>
       </c>
       <c r="D762" t="n">
-        <v>25566</v>
+        <v>25118</v>
       </c>
       <c r="E762" t="inlineStr">
         <is>
@@ -19488,7 +19488,7 @@
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>01/09/2004</t>
+          <t>01/11/2004</t>
         </is>
       </c>
       <c r="B763" t="inlineStr">
@@ -19502,7 +19502,7 @@
         </is>
       </c>
       <c r="D763" t="n">
-        <v>24720</v>
+        <v>24463</v>
       </c>
       <c r="E763" t="inlineStr">
         <is>
@@ -19513,7 +19513,7 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>01/04/2005</t>
+          <t>01/10/2004</t>
         </is>
       </c>
       <c r="B764" t="inlineStr">
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D764" t="n">
-        <v>23924</v>
+        <v>25566</v>
       </c>
       <c r="E764" t="inlineStr">
         <is>
@@ -19538,7 +19538,7 @@
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>01/08/2005</t>
+          <t>01/09/2004</t>
         </is>
       </c>
       <c r="B765" t="inlineStr">
@@ -19552,7 +19552,7 @@
         </is>
       </c>
       <c r="D765" t="n">
-        <v>25213</v>
+        <v>24720</v>
       </c>
       <c r="E765" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>01/12/2005</t>
+          <t>01/04/2005</t>
         </is>
       </c>
       <c r="B766" t="inlineStr">
@@ -19577,7 +19577,7 @@
         </is>
       </c>
       <c r="D766" t="n">
-        <v>24602</v>
+        <v>23924</v>
       </c>
       <c r="E766" t="inlineStr">
         <is>
@@ -19588,7 +19588,7 @@
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>01/02/2005</t>
+          <t>01/08/2005</t>
         </is>
       </c>
       <c r="B767" t="inlineStr">
@@ -19602,7 +19602,7 @@
         </is>
       </c>
       <c r="D767" t="n">
-        <v>22710</v>
+        <v>25213</v>
       </c>
       <c r="E767" t="inlineStr">
         <is>
@@ -19613,7 +19613,7 @@
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>01/01/2005</t>
+          <t>01/12/2005</t>
         </is>
       </c>
       <c r="B768" t="inlineStr">
@@ -19627,7 +19627,7 @@
         </is>
       </c>
       <c r="D768" t="n">
-        <v>24972</v>
+        <v>24602</v>
       </c>
       <c r="E768" t="inlineStr">
         <is>
@@ -19638,7 +19638,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>01/07/2005</t>
+          <t>01/02/2005</t>
         </is>
       </c>
       <c r="B769" t="inlineStr">
@@ -19652,7 +19652,7 @@
         </is>
       </c>
       <c r="D769" t="n">
-        <v>25582</v>
+        <v>22710</v>
       </c>
       <c r="E769" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>01/06/2005</t>
+          <t>01/01/2005</t>
         </is>
       </c>
       <c r="B770" t="inlineStr">
@@ -19677,7 +19677,7 @@
         </is>
       </c>
       <c r="D770" t="n">
-        <v>24359</v>
+        <v>24972</v>
       </c>
       <c r="E770" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>01/05/2005</t>
+          <t>01/07/2005</t>
         </is>
       </c>
       <c r="B771" t="inlineStr">
@@ -19702,7 +19702,7 @@
         </is>
       </c>
       <c r="D771" t="n">
-        <v>24053</v>
+        <v>25582</v>
       </c>
       <c r="E771" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>01/03/2005</t>
+          <t>01/06/2005</t>
         </is>
       </c>
       <c r="B772" t="inlineStr">
@@ -19727,7 +19727,7 @@
         </is>
       </c>
       <c r="D772" t="n">
-        <v>24836</v>
+        <v>24359</v>
       </c>
       <c r="E772" t="inlineStr">
         <is>
@@ -19738,7 +19738,7 @@
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>01/11/2005</t>
+          <t>01/05/2005</t>
         </is>
       </c>
       <c r="B773" t="inlineStr">
@@ -19752,7 +19752,7 @@
         </is>
       </c>
       <c r="D773" t="n">
-        <v>24169</v>
+        <v>24053</v>
       </c>
       <c r="E773" t="inlineStr">
         <is>
@@ -19763,7 +19763,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>01/10/2005</t>
+          <t>01/03/2005</t>
         </is>
       </c>
       <c r="B774" t="inlineStr">
@@ -19777,7 +19777,7 @@
         </is>
       </c>
       <c r="D774" t="n">
-        <v>26281</v>
+        <v>24836</v>
       </c>
       <c r="E774" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>01/09/2005</t>
+          <t>01/11/2005</t>
         </is>
       </c>
       <c r="B775" t="inlineStr">
@@ -19802,7 +19802,7 @@
         </is>
       </c>
       <c r="D775" t="n">
-        <v>24180</v>
+        <v>24169</v>
       </c>
       <c r="E775" t="inlineStr">
         <is>
@@ -19813,7 +19813,7 @@
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>01/04/2006</t>
+          <t>01/10/2005</t>
         </is>
       </c>
       <c r="B776" t="inlineStr">
@@ -19827,7 +19827,7 @@
         </is>
       </c>
       <c r="D776" t="n">
-        <v>24527</v>
+        <v>26281</v>
       </c>
       <c r="E776" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>01/08/2006</t>
+          <t>01/09/2005</t>
         </is>
       </c>
       <c r="B777" t="inlineStr">
@@ -19852,7 +19852,7 @@
         </is>
       </c>
       <c r="D777" t="n">
-        <v>25491</v>
+        <v>24180</v>
       </c>
       <c r="E777" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>01/12/2006</t>
+          <t>01/04/2006</t>
         </is>
       </c>
       <c r="B778" t="inlineStr">
@@ -19877,7 +19877,7 @@
         </is>
       </c>
       <c r="D778" t="n">
-        <v>25271</v>
+        <v>24527</v>
       </c>
       <c r="E778" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>01/02/2006</t>
+          <t>01/08/2006</t>
         </is>
       </c>
       <c r="B779" t="inlineStr">
@@ -19902,7 +19902,7 @@
         </is>
       </c>
       <c r="D779" t="n">
-        <v>23056</v>
+        <v>25491</v>
       </c>
       <c r="E779" t="inlineStr">
         <is>
@@ -19913,7 +19913,7 @@
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>01/01/2006</t>
+          <t>01/12/2006</t>
         </is>
       </c>
       <c r="B780" t="inlineStr">
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D780" t="n">
-        <v>24843</v>
+        <v>25271</v>
       </c>
       <c r="E780" t="inlineStr">
         <is>
@@ -19938,7 +19938,7 @@
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>01/07/2006</t>
+          <t>01/02/2006</t>
         </is>
       </c>
       <c r="B781" t="inlineStr">
@@ -19952,7 +19952,7 @@
         </is>
       </c>
       <c r="D781" t="n">
-        <v>25344</v>
+        <v>23056</v>
       </c>
       <c r="E781" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>01/06/2006</t>
+          <t>01/01/2006</t>
         </is>
       </c>
       <c r="B782" t="inlineStr">
@@ -19977,7 +19977,7 @@
         </is>
       </c>
       <c r="D782" t="n">
-        <v>25090</v>
+        <v>24843</v>
       </c>
       <c r="E782" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>01/05/2006</t>
+          <t>01/07/2006</t>
         </is>
       </c>
       <c r="B783" t="inlineStr">
@@ -20002,7 +20002,7 @@
         </is>
       </c>
       <c r="D783" t="n">
-        <v>25719</v>
+        <v>25344</v>
       </c>
       <c r="E783" t="inlineStr">
         <is>
@@ -20013,7 +20013,7 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>01/03/2006</t>
+          <t>01/06/2006</t>
         </is>
       </c>
       <c r="B784" t="inlineStr">
@@ -20027,7 +20027,7 @@
         </is>
       </c>
       <c r="D784" t="n">
-        <v>11740</v>
+        <v>25090</v>
       </c>
       <c r="E784" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>01/11/2006</t>
+          <t>01/05/2006</t>
         </is>
       </c>
       <c r="B785" t="inlineStr">
@@ -20052,7 +20052,7 @@
         </is>
       </c>
       <c r="D785" t="n">
-        <v>23278</v>
+        <v>25719</v>
       </c>
       <c r="E785" t="inlineStr">
         <is>
@@ -20063,7 +20063,7 @@
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>01/10/2006</t>
+          <t>01/03/2006</t>
         </is>
       </c>
       <c r="B786" t="inlineStr">
@@ -20077,7 +20077,7 @@
         </is>
       </c>
       <c r="D786" t="n">
-        <v>23622</v>
+        <v>11740</v>
       </c>
       <c r="E786" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>01/09/2006</t>
+          <t>01/11/2006</t>
         </is>
       </c>
       <c r="B787" t="inlineStr">
@@ -20102,7 +20102,7 @@
         </is>
       </c>
       <c r="D787" t="n">
-        <v>24562</v>
+        <v>23278</v>
       </c>
       <c r="E787" t="inlineStr">
         <is>
@@ -20113,7 +20113,7 @@
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>01/04/2007</t>
+          <t>01/10/2006</t>
         </is>
       </c>
       <c r="B788" t="inlineStr">
@@ -20127,7 +20127,7 @@
         </is>
       </c>
       <c r="D788" t="n">
-        <v>21384</v>
+        <v>23622</v>
       </c>
       <c r="E788" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>01/08/2007</t>
+          <t>01/09/2006</t>
         </is>
       </c>
       <c r="B789" t="inlineStr">
@@ -20152,7 +20152,7 @@
         </is>
       </c>
       <c r="D789" t="n">
-        <v>23805</v>
+        <v>24562</v>
       </c>
       <c r="E789" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>01/12/2007</t>
+          <t>01/04/2007</t>
         </is>
       </c>
       <c r="B790" t="inlineStr">
@@ -20177,7 +20177,7 @@
         </is>
       </c>
       <c r="D790" t="n">
-        <v>22898</v>
+        <v>21384</v>
       </c>
       <c r="E790" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>01/02/2007</t>
+          <t>01/08/2007</t>
         </is>
       </c>
       <c r="B791" t="inlineStr">
@@ -20202,7 +20202,7 @@
         </is>
       </c>
       <c r="D791" t="n">
-        <v>21968</v>
+        <v>23805</v>
       </c>
       <c r="E791" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>01/01/2007</t>
+          <t>01/12/2007</t>
         </is>
       </c>
       <c r="B792" t="inlineStr">
@@ -20227,7 +20227,7 @@
         </is>
       </c>
       <c r="D792" t="n">
-        <v>25496</v>
+        <v>22898</v>
       </c>
       <c r="E792" t="inlineStr">
         <is>
@@ -20238,7 +20238,7 @@
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>01/07/2007</t>
+          <t>01/02/2007</t>
         </is>
       </c>
       <c r="B793" t="inlineStr">
@@ -20252,7 +20252,7 @@
         </is>
       </c>
       <c r="D793" t="n">
-        <v>23875</v>
+        <v>21968</v>
       </c>
       <c r="E793" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>01/06/2007</t>
+          <t>01/01/2007</t>
         </is>
       </c>
       <c r="B794" t="inlineStr">
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D794" t="n">
-        <v>22080</v>
+        <v>25496</v>
       </c>
       <c r="E794" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>01/05/2007</t>
+          <t>01/07/2007</t>
         </is>
       </c>
       <c r="B795" t="inlineStr">
@@ -20302,7 +20302,7 @@
         </is>
       </c>
       <c r="D795" t="n">
-        <v>18737</v>
+        <v>23875</v>
       </c>
       <c r="E795" t="inlineStr">
         <is>
@@ -20313,7 +20313,7 @@
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>01/03/2007</t>
+          <t>01/06/2007</t>
         </is>
       </c>
       <c r="B796" t="inlineStr">
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D796" t="n">
-        <v>24212</v>
+        <v>22080</v>
       </c>
       <c r="E796" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>01/11/2007</t>
+          <t>01/05/2007</t>
         </is>
       </c>
       <c r="B797" t="inlineStr">
@@ -20352,7 +20352,7 @@
         </is>
       </c>
       <c r="D797" t="n">
-        <v>22033</v>
+        <v>18737</v>
       </c>
       <c r="E797" t="inlineStr">
         <is>
@@ -20363,7 +20363,7 @@
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>01/10/2007</t>
+          <t>01/03/2007</t>
         </is>
       </c>
       <c r="B798" t="inlineStr">
@@ -20377,7 +20377,7 @@
         </is>
       </c>
       <c r="D798" t="n">
-        <v>23866</v>
+        <v>24212</v>
       </c>
       <c r="E798" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>01/09/2007</t>
+          <t>01/11/2007</t>
         </is>
       </c>
       <c r="B799" t="inlineStr">
@@ -20402,7 +20402,7 @@
         </is>
       </c>
       <c r="D799" t="n">
-        <v>24017</v>
+        <v>22033</v>
       </c>
       <c r="E799" t="inlineStr">
         <is>
@@ -20413,7 +20413,7 @@
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>01/04/2008</t>
+          <t>01/10/2007</t>
         </is>
       </c>
       <c r="B800" t="inlineStr">
@@ -20427,7 +20427,7 @@
         </is>
       </c>
       <c r="D800" t="n">
-        <v>22341</v>
+        <v>23866</v>
       </c>
       <c r="E800" t="inlineStr">
         <is>
@@ -20438,7 +20438,7 @@
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>01/08/2008</t>
+          <t>01/09/2007</t>
         </is>
       </c>
       <c r="B801" t="inlineStr">
@@ -20452,7 +20452,7 @@
         </is>
       </c>
       <c r="D801" t="n">
-        <v>23413.9993</v>
+        <v>24017</v>
       </c>
       <c r="E801" t="inlineStr">
         <is>
@@ -20463,7 +20463,7 @@
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>01/12/2008</t>
+          <t>01/04/2008</t>
         </is>
       </c>
       <c r="B802" t="inlineStr">
@@ -20477,7 +20477,7 @@
         </is>
       </c>
       <c r="D802" t="n">
-        <v>21243.0011</v>
+        <v>22341</v>
       </c>
       <c r="E802" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>01/02/2008</t>
+          <t>01/08/2008</t>
         </is>
       </c>
       <c r="B803" t="inlineStr">
@@ -20502,7 +20502,7 @@
         </is>
       </c>
       <c r="D803" t="n">
-        <v>20461</v>
+        <v>23413.9993</v>
       </c>
       <c r="E803" t="inlineStr">
         <is>
@@ -20513,7 +20513,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>01/01/2008</t>
+          <t>01/12/2008</t>
         </is>
       </c>
       <c r="B804" t="inlineStr">
@@ -20527,7 +20527,7 @@
         </is>
       </c>
       <c r="D804" t="n">
-        <v>22454</v>
+        <v>21243.0011</v>
       </c>
       <c r="E804" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>01/07/2008</t>
+          <t>01/02/2008</t>
         </is>
       </c>
       <c r="B805" t="inlineStr">
@@ -20552,7 +20552,7 @@
         </is>
       </c>
       <c r="D805" t="n">
-        <v>22084.0001</v>
+        <v>20461</v>
       </c>
       <c r="E805" t="inlineStr">
         <is>
@@ -20563,7 +20563,7 @@
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>01/06/2008</t>
+          <t>01/01/2008</t>
         </is>
       </c>
       <c r="B806" t="inlineStr">
@@ -20577,7 +20577,7 @@
         </is>
       </c>
       <c r="D806" t="n">
-        <v>21446.001</v>
+        <v>22454</v>
       </c>
       <c r="E806" t="inlineStr">
         <is>
@@ -20588,7 +20588,7 @@
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>01/05/2008</t>
+          <t>01/07/2008</t>
         </is>
       </c>
       <c r="B807" t="inlineStr">
@@ -20602,7 +20602,7 @@
         </is>
       </c>
       <c r="D807" t="n">
-        <v>22333</v>
+        <v>22084.0001</v>
       </c>
       <c r="E807" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>01/03/2008</t>
+          <t>01/06/2008</t>
         </is>
       </c>
       <c r="B808" t="inlineStr">
@@ -20627,7 +20627,7 @@
         </is>
       </c>
       <c r="D808" t="n">
-        <v>22425</v>
+        <v>21446.001</v>
       </c>
       <c r="E808" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>01/11/2008</t>
+          <t>01/05/2008</t>
         </is>
       </c>
       <c r="B809" t="inlineStr">
@@ -20652,7 +20652,7 @@
         </is>
       </c>
       <c r="D809" t="n">
-        <v>20454</v>
+        <v>22333</v>
       </c>
       <c r="E809" t="inlineStr">
         <is>
@@ -20663,7 +20663,7 @@
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>01/03/2008</t>
         </is>
       </c>
       <c r="B810" t="inlineStr">
@@ -20677,7 +20677,7 @@
         </is>
       </c>
       <c r="D810" t="n">
-        <v>19738.9989</v>
+        <v>22425</v>
       </c>
       <c r="E810" t="inlineStr">
         <is>
@@ -20688,7 +20688,7 @@
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>01/09/2008</t>
+          <t>01/11/2008</t>
         </is>
       </c>
       <c r="B811" t="inlineStr">
@@ -20702,7 +20702,7 @@
         </is>
       </c>
       <c r="D811" t="n">
-        <v>21581.001</v>
+        <v>20454</v>
       </c>
       <c r="E811" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>01/04/2009</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="B812" t="inlineStr">
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D812" t="n">
-        <v>20352.999</v>
+        <v>19738.9989</v>
       </c>
       <c r="E812" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>01/08/2009</t>
+          <t>01/09/2008</t>
         </is>
       </c>
       <c r="B813" t="inlineStr">
@@ -20752,7 +20752,7 @@
         </is>
       </c>
       <c r="D813" t="n">
-        <v>19636.0014</v>
+        <v>21581.001</v>
       </c>
       <c r="E813" t="inlineStr">
         <is>
@@ -20763,7 +20763,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>01/12/2009</t>
+          <t>01/04/2009</t>
         </is>
       </c>
       <c r="B814" t="inlineStr">
@@ -20777,7 +20777,7 @@
         </is>
       </c>
       <c r="D814" t="n">
-        <v>20058.9995</v>
+        <v>20352.999</v>
       </c>
       <c r="E814" t="inlineStr">
         <is>
@@ -20788,7 +20788,7 @@
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>01/02/2009</t>
+          <t>01/08/2009</t>
         </is>
       </c>
       <c r="B815" t="inlineStr">
@@ -20802,7 +20802,7 @@
         </is>
       </c>
       <c r="D815" t="n">
-        <v>18858.9996</v>
+        <v>19636.0014</v>
       </c>
       <c r="E815" t="inlineStr">
         <is>
@@ -20813,7 +20813,7 @@
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>01/01/2009</t>
+          <t>01/12/2009</t>
         </is>
       </c>
       <c r="B816" t="inlineStr">
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="D816" t="n">
-        <v>22225.0005</v>
+        <v>20058.9995</v>
       </c>
       <c r="E816" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>01/07/2009</t>
+          <t>01/02/2009</t>
         </is>
       </c>
       <c r="B817" t="inlineStr">
@@ -20852,7 +20852,7 @@
         </is>
       </c>
       <c r="D817" t="n">
-        <v>20578.0015</v>
+        <v>18858.9996</v>
       </c>
       <c r="E817" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>01/06/2009</t>
+          <t>01/01/2009</t>
         </is>
       </c>
       <c r="B818" t="inlineStr">
@@ -20877,7 +20877,7 @@
         </is>
       </c>
       <c r="D818" t="n">
-        <v>20096.001</v>
+        <v>22225.0005</v>
       </c>
       <c r="E818" t="inlineStr">
         <is>
@@ -20888,7 +20888,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>01/05/2009</t>
+          <t>01/07/2009</t>
         </is>
       </c>
       <c r="B819" t="inlineStr">
@@ -20902,7 +20902,7 @@
         </is>
       </c>
       <c r="D819" t="n">
-        <v>20487.001</v>
+        <v>20578.0015</v>
       </c>
       <c r="E819" t="inlineStr">
         <is>
@@ -20913,7 +20913,7 @@
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>01/03/2009</t>
+          <t>01/06/2009</t>
         </is>
       </c>
       <c r="B820" t="inlineStr">
@@ -20927,7 +20927,7 @@
         </is>
       </c>
       <c r="D820" t="n">
-        <v>21078.9987</v>
+        <v>20096.001</v>
       </c>
       <c r="E820" t="inlineStr">
         <is>
@@ -20938,7 +20938,7 @@
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>01/11/2009</t>
+          <t>01/05/2009</t>
         </is>
       </c>
       <c r="B821" t="inlineStr">
@@ -20952,7 +20952,7 @@
         </is>
       </c>
       <c r="D821" t="n">
-        <v>19530</v>
+        <v>20487.001</v>
       </c>
       <c r="E821" t="inlineStr">
         <is>
@@ -20963,7 +20963,7 @@
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>01/10/2009</t>
+          <t>01/03/2009</t>
         </is>
       </c>
       <c r="B822" t="inlineStr">
@@ -20977,7 +20977,7 @@
         </is>
       </c>
       <c r="D822" t="n">
-        <v>19538.0011</v>
+        <v>21078.9987</v>
       </c>
       <c r="E822" t="inlineStr">
         <is>
@@ -20988,7 +20988,7 @@
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>01/09/2009</t>
+          <t>01/11/2009</t>
         </is>
       </c>
       <c r="B823" t="inlineStr">
@@ -21002,7 +21002,7 @@
         </is>
       </c>
       <c r="D823" t="n">
-        <v>19464</v>
+        <v>19530</v>
       </c>
       <c r="E823" t="inlineStr">
         <is>
@@ -21013,7 +21013,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>01/04/2010</t>
+          <t>01/10/2009</t>
         </is>
       </c>
       <c r="B824" t="inlineStr">
@@ -21027,7 +21027,7 @@
         </is>
       </c>
       <c r="D824" t="n">
-        <v>18477</v>
+        <v>19538.0011</v>
       </c>
       <c r="E824" t="inlineStr">
         <is>
@@ -21038,7 +21038,7 @@
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>01/08/2010</t>
+          <t>01/09/2009</t>
         </is>
       </c>
       <c r="B825" t="inlineStr">
@@ -21052,7 +21052,7 @@
         </is>
       </c>
       <c r="D825" t="n">
-        <v>19472</v>
+        <v>19464</v>
       </c>
       <c r="E825" t="inlineStr">
         <is>
@@ -21063,7 +21063,7 @@
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>01/12/2010</t>
+          <t>01/04/2010</t>
         </is>
       </c>
       <c r="B826" t="inlineStr">
@@ -21077,7 +21077,7 @@
         </is>
       </c>
       <c r="D826" t="n">
-        <v>19253</v>
+        <v>18477</v>
       </c>
       <c r="E826" t="inlineStr">
         <is>
@@ -21088,7 +21088,7 @@
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>01/02/2010</t>
+          <t>01/08/2010</t>
         </is>
       </c>
       <c r="B827" t="inlineStr">
@@ -21102,7 +21102,7 @@
         </is>
       </c>
       <c r="D827" t="n">
-        <v>17250</v>
+        <v>19472</v>
       </c>
       <c r="E827" t="inlineStr">
         <is>
@@ -21113,7 +21113,7 @@
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>01/01/2010</t>
+          <t>01/12/2010</t>
         </is>
       </c>
       <c r="B828" t="inlineStr">
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D828" t="n">
-        <v>19822</v>
+        <v>19253</v>
       </c>
       <c r="E828" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>01/07/2010</t>
+          <t>01/02/2010</t>
         </is>
       </c>
       <c r="B829" t="inlineStr">
@@ -21152,7 +21152,7 @@
         </is>
       </c>
       <c r="D829" t="n">
-        <v>19943</v>
+        <v>17250</v>
       </c>
       <c r="E829" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>01/06/2010</t>
+          <t>01/01/2010</t>
         </is>
       </c>
       <c r="B830" t="inlineStr">
@@ -21177,7 +21177,7 @@
         </is>
       </c>
       <c r="D830" t="n">
-        <v>18899</v>
+        <v>19822</v>
       </c>
       <c r="E830" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>01/05/2010</t>
+          <t>01/07/2010</t>
         </is>
       </c>
       <c r="B831" t="inlineStr">
@@ -21202,7 +21202,7 @@
         </is>
       </c>
       <c r="D831" t="n">
-        <v>19225</v>
+        <v>19943</v>
       </c>
       <c r="E831" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>01/03/2010</t>
+          <t>01/06/2010</t>
         </is>
       </c>
       <c r="B832" t="inlineStr">
@@ -21227,7 +21227,7 @@
         </is>
       </c>
       <c r="D832" t="n">
-        <v>18557</v>
+        <v>18899</v>
       </c>
       <c r="E832" t="inlineStr">
         <is>
@@ -21238,7 +21238,7 @@
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>01/11/2010</t>
+          <t>01/05/2010</t>
         </is>
       </c>
       <c r="B833" t="inlineStr">
@@ -21252,7 +21252,7 @@
         </is>
       </c>
       <c r="D833" t="n">
-        <v>18252</v>
+        <v>19225</v>
       </c>
       <c r="E833" t="inlineStr">
         <is>
@@ -21263,7 +21263,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>01/10/2010</t>
+          <t>01/03/2010</t>
         </is>
       </c>
       <c r="B834" t="inlineStr">
@@ -21277,7 +21277,7 @@
         </is>
       </c>
       <c r="D834" t="n">
-        <v>19679</v>
+        <v>18557</v>
       </c>
       <c r="E834" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>01/09/2010</t>
+          <t>01/11/2010</t>
         </is>
       </c>
       <c r="B835" t="inlineStr">
@@ -21302,7 +21302,7 @@
         </is>
       </c>
       <c r="D835" t="n">
-        <v>18162</v>
+        <v>18252</v>
       </c>
       <c r="E835" t="inlineStr">
         <is>
@@ -21313,7 +21313,7 @@
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>01/04/2011</t>
+          <t>01/10/2010</t>
         </is>
       </c>
       <c r="B836" t="inlineStr">
@@ -21327,7 +21327,7 @@
         </is>
       </c>
       <c r="D836" t="n">
-        <v>14211.9</v>
+        <v>19679</v>
       </c>
       <c r="E836" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>01/08/2011</t>
+          <t>01/09/2010</t>
         </is>
       </c>
       <c r="B837" t="inlineStr">
@@ -21352,7 +21352,7 @@
         </is>
       </c>
       <c r="D837" t="n">
-        <v>15656.1</v>
+        <v>18162</v>
       </c>
       <c r="E837" t="inlineStr">
         <is>
@@ -21363,7 +21363,7 @@
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>01/12/2011</t>
+          <t>01/04/2011</t>
         </is>
       </c>
       <c r="B838" t="inlineStr">
@@ -21377,7 +21377,7 @@
         </is>
       </c>
       <c r="D838" t="n">
-        <v>16836.5</v>
+        <v>14211.9</v>
       </c>
       <c r="E838" t="inlineStr">
         <is>
@@ -21388,7 +21388,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>01/02/2011</t>
+          <t>01/08/2011</t>
         </is>
       </c>
       <c r="B839" t="inlineStr">
@@ -21402,7 +21402,7 @@
         </is>
       </c>
       <c r="D839" t="n">
-        <v>15945.6</v>
+        <v>15656.1</v>
       </c>
       <c r="E839" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>01/01/2011</t>
+          <t>01/12/2011</t>
         </is>
       </c>
       <c r="B840" t="inlineStr">
@@ -21427,7 +21427,7 @@
         </is>
       </c>
       <c r="D840" t="n">
-        <v>18522.8</v>
+        <v>16836.5</v>
       </c>
       <c r="E840" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>01/07/2011</t>
+          <t>01/02/2011</t>
         </is>
       </c>
       <c r="B841" t="inlineStr">
@@ -21452,7 +21452,7 @@
         </is>
       </c>
       <c r="D841" t="n">
-        <v>14478.2</v>
+        <v>15945.6</v>
       </c>
       <c r="E841" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>01/06/2011</t>
+          <t>01/01/2011</t>
         </is>
       </c>
       <c r="B842" t="inlineStr">
@@ -21477,7 +21477,7 @@
         </is>
       </c>
       <c r="D842" t="n">
-        <v>15871.3</v>
+        <v>18522.8</v>
       </c>
       <c r="E842" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>01/05/2011</t>
+          <t>01/07/2011</t>
         </is>
       </c>
       <c r="B843" t="inlineStr">
@@ -21502,7 +21502,7 @@
         </is>
       </c>
       <c r="D843" t="n">
-        <v>17668.9</v>
+        <v>14478.2</v>
       </c>
       <c r="E843" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>01/03/2011</t>
+          <t>01/06/2011</t>
         </is>
       </c>
       <c r="B844" t="inlineStr">
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D844" t="n">
-        <v>10940.8</v>
+        <v>15871.3</v>
       </c>
       <c r="E844" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>01/11/2011</t>
+          <t>01/05/2011</t>
         </is>
       </c>
       <c r="B845" t="inlineStr">
@@ -21552,7 +21552,7 @@
         </is>
       </c>
       <c r="D845" t="n">
-        <v>15787.4</v>
+        <v>17668.9</v>
       </c>
       <c r="E845" t="inlineStr">
         <is>
@@ -21563,7 +21563,7 @@
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>01/10/2011</t>
+          <t>01/03/2011</t>
         </is>
       </c>
       <c r="B846" t="inlineStr">
@@ -21577,7 +21577,7 @@
         </is>
       </c>
       <c r="D846" t="n">
-        <v>16134.4</v>
+        <v>10940.8</v>
       </c>
       <c r="E846" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>01/09/2011</t>
+          <t>01/11/2011</t>
         </is>
       </c>
       <c r="B847" t="inlineStr">
@@ -21602,7 +21602,7 @@
         </is>
       </c>
       <c r="D847" t="n">
-        <v>15096.4</v>
+        <v>15787.4</v>
       </c>
       <c r="E847" t="inlineStr">
         <is>
@@ -21613,7 +21613,7 @@
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>01/04/2012</t>
+          <t>01/10/2011</t>
         </is>
       </c>
       <c r="B848" t="inlineStr">
@@ -21627,7 +21627,7 @@
         </is>
       </c>
       <c r="D848" t="n">
-        <v>10707.1</v>
+        <v>16134.4</v>
       </c>
       <c r="E848" t="inlineStr">
         <is>
@@ -21638,7 +21638,7 @@
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>01/08/2012</t>
+          <t>01/09/2011</t>
         </is>
       </c>
       <c r="B849" t="inlineStr">
@@ -21652,7 +21652,7 @@
         </is>
       </c>
       <c r="D849" t="n">
-        <v>16193.1</v>
+        <v>15096.4</v>
       </c>
       <c r="E849" t="inlineStr">
         <is>
@@ -21663,7 +21663,7 @@
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>01/12/2012</t>
+          <t>01/04/2012</t>
         </is>
       </c>
       <c r="B850" t="inlineStr">
@@ -21677,7 +21677,7 @@
         </is>
       </c>
       <c r="D850" t="n">
-        <v>17393.3</v>
+        <v>10707.1</v>
       </c>
       <c r="E850" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>01/02/2012</t>
+          <t>01/08/2012</t>
         </is>
       </c>
       <c r="B851" t="inlineStr">
@@ -21702,7 +21702,7 @@
         </is>
       </c>
       <c r="D851" t="n">
-        <v>14260.4</v>
+        <v>16193.1</v>
       </c>
       <c r="E851" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>01/12/2012</t>
         </is>
       </c>
       <c r="B852" t="inlineStr">
@@ -21727,7 +21727,7 @@
         </is>
       </c>
       <c r="D852" t="n">
-        <v>16058.3</v>
+        <v>17393.3</v>
       </c>
       <c r="E852" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>01/07/2012</t>
+          <t>01/02/2012</t>
         </is>
       </c>
       <c r="B853" t="inlineStr">
@@ -21752,7 +21752,7 @@
         </is>
       </c>
       <c r="D853" t="n">
-        <v>12701.4</v>
+        <v>14260.4</v>
       </c>
       <c r="E853" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>01/06/2012</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="B854" t="inlineStr">
@@ -21777,7 +21777,7 @@
         </is>
       </c>
       <c r="D854" t="n">
-        <v>10851.8</v>
+        <v>16058.3</v>
       </c>
       <c r="E854" t="inlineStr">
         <is>
@@ -21788,7 +21788,7 @@
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>01/05/2012</t>
+          <t>01/07/2012</t>
         </is>
       </c>
       <c r="B855" t="inlineStr">
@@ -21802,7 +21802,7 @@
         </is>
       </c>
       <c r="D855" t="n">
-        <v>10692</v>
+        <v>12701.4</v>
       </c>
       <c r="E855" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>01/03/2012</t>
+          <t>01/06/2012</t>
         </is>
       </c>
       <c r="B856" t="inlineStr">
@@ -21827,7 +21827,7 @@
         </is>
       </c>
       <c r="D856" t="n">
-        <v>14311.3</v>
+        <v>10851.8</v>
       </c>
       <c r="E856" t="inlineStr">
         <is>
@@ -21838,7 +21838,7 @@
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>01/11/2012</t>
+          <t>01/05/2012</t>
         </is>
       </c>
       <c r="B857" t="inlineStr">
@@ -21852,7 +21852,7 @@
         </is>
       </c>
       <c r="D857" t="n">
-        <v>16574.9</v>
+        <v>10692</v>
       </c>
       <c r="E857" t="inlineStr">
         <is>
@@ -21863,7 +21863,7 @@
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>01/10/2012</t>
+          <t>01/03/2012</t>
         </is>
       </c>
       <c r="B858" t="inlineStr">
@@ -21877,7 +21877,7 @@
         </is>
       </c>
       <c r="D858" t="n">
-        <v>13682.2</v>
+        <v>14311.3</v>
       </c>
       <c r="E858" t="inlineStr">
         <is>
@@ -21888,7 +21888,7 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>01/09/2012</t>
+          <t>01/11/2012</t>
         </is>
       </c>
       <c r="B859" t="inlineStr">
@@ -21902,7 +21902,7 @@
         </is>
       </c>
       <c r="D859" t="n">
-        <v>12246</v>
+        <v>16574.9</v>
       </c>
       <c r="E859" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>01/04/2013</t>
+          <t>01/10/2012</t>
         </is>
       </c>
       <c r="B860" t="inlineStr">
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D860" t="n">
-        <v>15186.2</v>
+        <v>13682.2</v>
       </c>
       <c r="E860" t="inlineStr">
         <is>
@@ -21938,7 +21938,7 @@
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>01/08/2013</t>
+          <t>01/09/2012</t>
         </is>
       </c>
       <c r="B861" t="inlineStr">
@@ -21952,7 +21952,7 @@
         </is>
       </c>
       <c r="D861" t="n">
-        <v>14998.4</v>
+        <v>12246</v>
       </c>
       <c r="E861" t="inlineStr">
         <is>
@@ -21963,7 +21963,7 @@
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>01/12/2013</t>
+          <t>01/04/2013</t>
         </is>
       </c>
       <c r="B862" t="inlineStr">
@@ -21977,7 +21977,7 @@
         </is>
       </c>
       <c r="D862" t="n">
-        <v>15576.1</v>
+        <v>15186.2</v>
       </c>
       <c r="E862" t="inlineStr">
         <is>
@@ -21988,7 +21988,7 @@
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>01/02/2013</t>
+          <t>01/08/2013</t>
         </is>
       </c>
       <c r="B863" t="inlineStr">
@@ -22002,7 +22002,7 @@
         </is>
       </c>
       <c r="D863" t="n">
-        <v>14992.1</v>
+        <v>14998.4</v>
       </c>
       <c r="E863" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/12/2013</t>
         </is>
       </c>
       <c r="B864" t="inlineStr">
@@ -22027,7 +22027,7 @@
         </is>
       </c>
       <c r="D864" t="n">
-        <v>16653.1</v>
+        <v>15576.1</v>
       </c>
       <c r="E864" t="inlineStr">
         <is>
@@ -22038,7 +22038,7 @@
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>01/07/2013</t>
+          <t>01/02/2013</t>
         </is>
       </c>
       <c r="B865" t="inlineStr">
@@ -22052,7 +22052,7 @@
         </is>
       </c>
       <c r="D865" t="n">
-        <v>15326.3</v>
+        <v>14992.1</v>
       </c>
       <c r="E865" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>01/06/2013</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="B866" t="inlineStr">
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D866" t="n">
-        <v>15355.6</v>
+        <v>16653.1</v>
       </c>
       <c r="E866" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>01/05/2013</t>
+          <t>01/07/2013</t>
         </is>
       </c>
       <c r="B867" t="inlineStr">
@@ -22102,7 +22102,7 @@
         </is>
       </c>
       <c r="D867" t="n">
-        <v>14825.2</v>
+        <v>15326.3</v>
       </c>
       <c r="E867" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>01/03/2013</t>
+          <t>01/06/2013</t>
         </is>
       </c>
       <c r="B868" t="inlineStr">
@@ -22127,7 +22127,7 @@
         </is>
       </c>
       <c r="D868" t="n">
-        <v>15537.2</v>
+        <v>15355.6</v>
       </c>
       <c r="E868" t="inlineStr">
         <is>
@@ -22138,7 +22138,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>01/11/2013</t>
+          <t>01/05/2013</t>
         </is>
       </c>
       <c r="B869" t="inlineStr">
@@ -22152,7 +22152,7 @@
         </is>
       </c>
       <c r="D869" t="n">
-        <v>14997.2</v>
+        <v>14825.2</v>
       </c>
       <c r="E869" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>01/03/2013</t>
         </is>
       </c>
       <c r="B870" t="inlineStr">
@@ -22177,7 +22177,7 @@
         </is>
       </c>
       <c r="D870" t="n">
-        <v>14495.7</v>
+        <v>15537.2</v>
       </c>
       <c r="E870" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>01/09/2013</t>
+          <t>01/11/2013</t>
         </is>
       </c>
       <c r="B871" t="inlineStr">
@@ -22202,7 +22202,7 @@
         </is>
       </c>
       <c r="D871" t="n">
-        <v>14777.2</v>
+        <v>14997.2</v>
       </c>
       <c r="E871" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>01/04/2014</t>
+          <t>01/10/2013</t>
         </is>
       </c>
       <c r="B872" t="inlineStr">
@@ -22227,7 +22227,7 @@
         </is>
       </c>
       <c r="D872" t="n">
-        <v>15228.7</v>
+        <v>14495.7</v>
       </c>
       <c r="E872" t="inlineStr">
         <is>
@@ -22238,7 +22238,7 @@
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>01/08/2014</t>
+          <t>01/09/2013</t>
         </is>
       </c>
       <c r="B873" t="inlineStr">
@@ -22252,7 +22252,7 @@
         </is>
       </c>
       <c r="D873" t="n">
-        <v>14545.5</v>
+        <v>14777.2</v>
       </c>
       <c r="E873" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>01/12/2014</t>
+          <t>01/04/2014</t>
         </is>
       </c>
       <c r="B874" t="inlineStr">
@@ -22277,7 +22277,7 @@
         </is>
       </c>
       <c r="D874" t="n">
-        <v>13264.2</v>
+        <v>15228.7</v>
       </c>
       <c r="E874" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>01/02/2014</t>
+          <t>01/08/2014</t>
         </is>
       </c>
       <c r="B875" t="inlineStr">
@@ -22302,7 +22302,7 @@
         </is>
       </c>
       <c r="D875" t="n">
-        <v>13542.3</v>
+        <v>14545.5</v>
       </c>
       <c r="E875" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/12/2014</t>
         </is>
       </c>
       <c r="B876" t="inlineStr">
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D876" t="n">
-        <v>15019.1</v>
+        <v>13264.2</v>
       </c>
       <c r="E876" t="inlineStr">
         <is>
@@ -22338,7 +22338,7 @@
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
+          <t>01/02/2014</t>
         </is>
       </c>
       <c r="B877" t="inlineStr">
@@ -22352,7 +22352,7 @@
         </is>
       </c>
       <c r="D877" t="n">
-        <v>14900.7</v>
+        <v>13542.3</v>
       </c>
       <c r="E877" t="inlineStr">
         <is>
@@ -22363,7 +22363,7 @@
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>01/06/2014</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="B878" t="inlineStr">
@@ -22377,7 +22377,7 @@
         </is>
       </c>
       <c r="D878" t="n">
-        <v>14977.9</v>
+        <v>15019.1</v>
       </c>
       <c r="E878" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>01/05/2014</t>
+          <t>01/07/2014</t>
         </is>
       </c>
       <c r="B879" t="inlineStr">
@@ -22402,7 +22402,7 @@
         </is>
       </c>
       <c r="D879" t="n">
-        <v>16141.5</v>
+        <v>14900.7</v>
       </c>
       <c r="E879" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>01/03/2014</t>
+          <t>01/06/2014</t>
         </is>
       </c>
       <c r="B880" t="inlineStr">
@@ -22427,7 +22427,7 @@
         </is>
       </c>
       <c r="D880" t="n">
-        <v>15178.7</v>
+        <v>14977.9</v>
       </c>
       <c r="E880" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>01/11/2014</t>
+          <t>01/05/2014</t>
         </is>
       </c>
       <c r="B881" t="inlineStr">
@@ -22452,7 +22452,7 @@
         </is>
       </c>
       <c r="D881" t="n">
-        <v>11227.8</v>
+        <v>16141.5</v>
       </c>
       <c r="E881" t="inlineStr">
         <is>
@@ -22463,7 +22463,7 @@
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>01/10/2014</t>
+          <t>01/03/2014</t>
         </is>
       </c>
       <c r="B882" t="inlineStr">
@@ -22477,7 +22477,7 @@
         </is>
       </c>
       <c r="D882" t="n">
-        <v>14384.8</v>
+        <v>15178.7</v>
       </c>
       <c r="E882" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>01/09/2014</t>
+          <t>01/11/2014</t>
         </is>
       </c>
       <c r="B883" t="inlineStr">
@@ -22502,7 +22502,7 @@
         </is>
       </c>
       <c r="D883" t="n">
-        <v>13936.6</v>
+        <v>11227.8</v>
       </c>
       <c r="E883" t="inlineStr">
         <is>
@@ -22513,7 +22513,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>01/04/2015</t>
+          <t>01/10/2014</t>
         </is>
       </c>
       <c r="B884" t="inlineStr">
@@ -22527,7 +22527,7 @@
         </is>
       </c>
       <c r="D884" t="n">
-        <v>13917.8</v>
+        <v>14384.8</v>
       </c>
       <c r="E884" t="inlineStr">
         <is>
@@ -22538,7 +22538,7 @@
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>01/08/2015</t>
+          <t>01/09/2014</t>
         </is>
       </c>
       <c r="B885" t="inlineStr">
@@ -22552,7 +22552,7 @@
         </is>
       </c>
       <c r="D885" t="n">
-        <v>11403.3</v>
+        <v>13936.6</v>
       </c>
       <c r="E885" t="inlineStr">
         <is>
@@ -22563,7 +22563,7 @@
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>01/12/2015</t>
+          <t>01/04/2015</t>
         </is>
       </c>
       <c r="B886" t="inlineStr">
@@ -22577,7 +22577,7 @@
         </is>
       </c>
       <c r="D886" t="n">
-        <v>9425.700000000001</v>
+        <v>13917.8</v>
       </c>
       <c r="E886" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>01/02/2015</t>
+          <t>01/08/2015</t>
         </is>
       </c>
       <c r="B887" t="inlineStr">
@@ -22602,7 +22602,7 @@
         </is>
       </c>
       <c r="D887" t="n">
-        <v>13004.4</v>
+        <v>11403.3</v>
       </c>
       <c r="E887" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/12/2015</t>
         </is>
       </c>
       <c r="B888" t="inlineStr">
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="D888" t="n">
-        <v>14478.2</v>
+        <v>9425.700000000001</v>
       </c>
       <c r="E888" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>01/07/2015</t>
+          <t>01/02/2015</t>
         </is>
       </c>
       <c r="B889" t="inlineStr">
@@ -22652,7 +22652,7 @@
         </is>
       </c>
       <c r="D889" t="n">
-        <v>11946.4</v>
+        <v>13004.4</v>
       </c>
       <c r="E889" t="inlineStr">
         <is>
@@ -22663,7 +22663,7 @@
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>01/06/2015</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="B890" t="inlineStr">
@@ -22677,7 +22677,7 @@
         </is>
       </c>
       <c r="D890" t="n">
-        <v>12385.6</v>
+        <v>14478.2</v>
       </c>
       <c r="E890" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>01/05/2015</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="B891" t="inlineStr">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="D891" t="n">
-        <v>12823.9</v>
+        <v>11946.4</v>
       </c>
       <c r="E891" t="inlineStr">
         <is>
@@ -22713,7 +22713,7 @@
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>01/03/2015</t>
+          <t>01/06/2015</t>
         </is>
       </c>
       <c r="B892" t="inlineStr">
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D892" t="n">
-        <v>14916.8</v>
+        <v>12385.6</v>
       </c>
       <c r="E892" t="inlineStr">
         <is>
@@ -22738,7 +22738,7 @@
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>01/11/2015</t>
+          <t>01/05/2015</t>
         </is>
       </c>
       <c r="B893" t="inlineStr">
@@ -22752,7 +22752,7 @@
         </is>
       </c>
       <c r="D893" t="n">
-        <v>5361.7</v>
+        <v>12823.9</v>
       </c>
       <c r="E893" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/03/2015</t>
         </is>
       </c>
       <c r="B894" t="inlineStr">
@@ -22777,7 +22777,7 @@
         </is>
       </c>
       <c r="D894" t="n">
-        <v>11384.7</v>
+        <v>14916.8</v>
       </c>
       <c r="E894" t="inlineStr">
         <is>
@@ -22788,7 +22788,7 @@
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>01/09/2015</t>
+          <t>01/11/2015</t>
         </is>
       </c>
       <c r="B895" t="inlineStr">
@@ -22802,7 +22802,7 @@
         </is>
       </c>
       <c r="D895" t="n">
-        <v>11927.3</v>
+        <v>5361.7</v>
       </c>
       <c r="E895" t="inlineStr">
         <is>
@@ -22813,7 +22813,7 @@
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>01/04/2016</t>
+          <t>01/10/2015</t>
         </is>
       </c>
       <c r="B896" t="inlineStr">
@@ -22827,7 +22827,7 @@
         </is>
       </c>
       <c r="D896" t="n">
-        <v>9074.1</v>
+        <v>11384.7</v>
       </c>
       <c r="E896" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>01/08/2016</t>
+          <t>01/09/2015</t>
         </is>
       </c>
       <c r="B897" t="inlineStr">
@@ -22852,7 +22852,7 @@
         </is>
       </c>
       <c r="D897" t="n">
-        <v>9273.799999999999</v>
+        <v>11927.3</v>
       </c>
       <c r="E897" t="inlineStr">
         <is>
@@ -22863,7 +22863,7 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>01/12/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="B898" t="inlineStr">
@@ -22877,7 +22877,7 @@
         </is>
       </c>
       <c r="D898" t="n">
-        <v>3213.5</v>
+        <v>9074.1</v>
       </c>
       <c r="E898" t="inlineStr">
         <is>
@@ -22888,7 +22888,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>01/02/2016</t>
+          <t>01/08/2016</t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
@@ -22902,7 +22902,7 @@
         </is>
       </c>
       <c r="D899" t="n">
-        <v>8886.4</v>
+        <v>9273.799999999999</v>
       </c>
       <c r="E899" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/12/2016</t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
@@ -22927,7 +22927,7 @@
         </is>
       </c>
       <c r="D900" t="n">
-        <v>9118.200000000001</v>
+        <v>3213.5</v>
       </c>
       <c r="E900" t="inlineStr">
         <is>
@@ -22938,7 +22938,7 @@
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
+          <t>01/02/2016</t>
         </is>
       </c>
       <c r="B901" t="inlineStr">
@@ -22952,7 +22952,7 @@
         </is>
       </c>
       <c r="D901" t="n">
-        <v>9093.799999999999</v>
+        <v>8886.4</v>
       </c>
       <c r="E901" t="inlineStr">
         <is>
@@ -22963,7 +22963,7 @@
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>01/06/2016</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="B902" t="inlineStr">
@@ -22977,7 +22977,7 @@
         </is>
       </c>
       <c r="D902" t="n">
-        <v>8134.5</v>
+        <v>9118.200000000001</v>
       </c>
       <c r="E902" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>01/05/2016</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="B903" t="inlineStr">
@@ -23002,7 +23002,7 @@
         </is>
       </c>
       <c r="D903" t="n">
-        <v>9412.299999999999</v>
+        <v>9093.799999999999</v>
       </c>
       <c r="E903" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>01/03/2016</t>
+          <t>01/06/2016</t>
         </is>
       </c>
       <c r="B904" t="inlineStr">
@@ -23027,7 +23027,7 @@
         </is>
       </c>
       <c r="D904" t="n">
-        <v>9861.1</v>
+        <v>8134.5</v>
       </c>
       <c r="E904" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>01/11/2016</t>
+          <t>01/05/2016</t>
         </is>
       </c>
       <c r="B905" t="inlineStr">
@@ -23052,7 +23052,7 @@
         </is>
       </c>
       <c r="D905" t="n">
-        <v>7657.6</v>
+        <v>9412.299999999999</v>
       </c>
       <c r="E905" t="inlineStr">
         <is>
@@ -23063,7 +23063,7 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/03/2016</t>
         </is>
       </c>
       <c r="B906" t="inlineStr">
@@ -23077,7 +23077,7 @@
         </is>
       </c>
       <c r="D906" t="n">
-        <v>8933.1</v>
+        <v>9861.1</v>
       </c>
       <c r="E906" t="inlineStr">
         <is>
@@ -23088,7 +23088,7 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>01/09/2016</t>
+          <t>01/11/2016</t>
         </is>
       </c>
       <c r="B907" t="inlineStr">
@@ -23102,7 +23102,7 @@
         </is>
       </c>
       <c r="D907" t="n">
-        <v>8977.299999999999</v>
+        <v>7657.6</v>
       </c>
       <c r="E907" t="inlineStr">
         <is>
@@ -23113,7 +23113,7 @@
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>01/04/2017</t>
+          <t>01/10/2016</t>
         </is>
       </c>
       <c r="B908" t="inlineStr">
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D908" t="n">
-        <v>6856.1</v>
+        <v>8933.1</v>
       </c>
       <c r="E908" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>01/08/2017</t>
+          <t>01/09/2016</t>
         </is>
       </c>
       <c r="B909" t="inlineStr">
@@ -23152,7 +23152,7 @@
         </is>
       </c>
       <c r="D909" t="n">
-        <v>7185.4</v>
+        <v>8977.299999999999</v>
       </c>
       <c r="E909" t="inlineStr">
         <is>
@@ -23163,7 +23163,7 @@
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>01/12/2017</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="B910" t="inlineStr">
@@ -23177,7 +23177,7 @@
         </is>
       </c>
       <c r="D910" t="n">
-        <v>9617.700000000001</v>
+        <v>6856.1</v>
       </c>
       <c r="E910" t="inlineStr">
         <is>
@@ -23188,7 +23188,7 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>01/02/2017</t>
+          <t>01/08/2017</t>
         </is>
       </c>
       <c r="B911" t="inlineStr">
@@ -23202,7 +23202,7 @@
         </is>
       </c>
       <c r="D911" t="n">
-        <v>6279.5</v>
+        <v>7185.4</v>
       </c>
       <c r="E911" t="inlineStr">
         <is>
@@ -23213,7 +23213,7 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/12/2017</t>
         </is>
       </c>
       <c r="B912" t="inlineStr">
@@ -23227,7 +23227,7 @@
         </is>
       </c>
       <c r="D912" t="n">
-        <v>7743.8</v>
+        <v>9617.700000000001</v>
       </c>
       <c r="E912" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
+          <t>01/02/2017</t>
         </is>
       </c>
       <c r="B913" t="inlineStr">
@@ -23252,7 +23252,7 @@
         </is>
       </c>
       <c r="D913" t="n">
-        <v>6753.2</v>
+        <v>6279.5</v>
       </c>
       <c r="E913" t="inlineStr">
         <is>
@@ -23263,7 +23263,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>01/06/2017</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="B914" t="inlineStr">
@@ -23277,7 +23277,7 @@
         </is>
       </c>
       <c r="D914" t="n">
-        <v>6679</v>
+        <v>7743.8</v>
       </c>
       <c r="E914" t="inlineStr">
         <is>
@@ -23288,7 +23288,7 @@
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>01/05/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="B915" t="inlineStr">
@@ -23302,7 +23302,7 @@
         </is>
       </c>
       <c r="D915" t="n">
-        <v>6777</v>
+        <v>6753.2</v>
       </c>
       <c r="E915" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>01/03/2017</t>
+          <t>01/06/2017</t>
         </is>
       </c>
       <c r="B916" t="inlineStr">
@@ -23327,7 +23327,7 @@
         </is>
       </c>
       <c r="D916" t="n">
-        <v>7180</v>
+        <v>6679</v>
       </c>
       <c r="E916" t="inlineStr">
         <is>
@@ -23338,7 +23338,7 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>01/11/2017</t>
+          <t>01/05/2017</t>
         </is>
       </c>
       <c r="B917" t="inlineStr">
@@ -23352,7 +23352,7 @@
         </is>
       </c>
       <c r="D917" t="n">
-        <v>7720.9</v>
+        <v>6777</v>
       </c>
       <c r="E917" t="inlineStr">
         <is>
@@ -23363,7 +23363,7 @@
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/03/2017</t>
         </is>
       </c>
       <c r="B918" t="inlineStr">
@@ -23377,7 +23377,7 @@
         </is>
       </c>
       <c r="D918" t="n">
-        <v>7765.07</v>
+        <v>7180</v>
       </c>
       <c r="E918" t="inlineStr">
         <is>
@@ -23388,7 +23388,7 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>01/09/2017</t>
+          <t>01/11/2017</t>
         </is>
       </c>
       <c r="B919" t="inlineStr">
@@ -23402,7 +23402,7 @@
         </is>
       </c>
       <c r="D919" t="n">
-        <v>7191.4</v>
+        <v>7720.9</v>
       </c>
       <c r="E919" t="inlineStr">
         <is>
@@ -23413,7 +23413,7 @@
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>01/04/2018</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
@@ -23427,7 +23427,7 @@
         </is>
       </c>
       <c r="D920" t="n">
-        <v>6020</v>
+        <v>7765.07</v>
       </c>
       <c r="E920" t="inlineStr">
         <is>
@@ -23438,7 +23438,7 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>01/08/2018</t>
+          <t>01/09/2017</t>
         </is>
       </c>
       <c r="B921" t="inlineStr">
@@ -23452,7 +23452,7 @@
         </is>
       </c>
       <c r="D921" t="n">
-        <v>5969</v>
+        <v>7191.4</v>
       </c>
       <c r="E921" t="inlineStr">
         <is>
@@ -23463,7 +23463,7 @@
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>01/12/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="B922" t="inlineStr">
@@ -23477,7 +23477,7 @@
         </is>
       </c>
       <c r="D922" t="n">
-        <v>6061</v>
+        <v>6020</v>
       </c>
       <c r="E922" t="inlineStr">
         <is>
@@ -23488,7 +23488,7 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>01/02/2018</t>
+          <t>01/08/2018</t>
         </is>
       </c>
       <c r="B923" t="inlineStr">
@@ -23502,7 +23502,7 @@
         </is>
       </c>
       <c r="D923" t="n">
-        <v>6141.6</v>
+        <v>5969</v>
       </c>
       <c r="E923" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/12/2018</t>
         </is>
       </c>
       <c r="B924" t="inlineStr">
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D924" t="n">
-        <v>7289.478</v>
+        <v>6061</v>
       </c>
       <c r="E924" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>01/02/2018</t>
         </is>
       </c>
       <c r="B925" t="inlineStr">
@@ -23552,7 +23552,7 @@
         </is>
       </c>
       <c r="D925" t="n">
-        <v>5621.504</v>
+        <v>6141.6</v>
       </c>
       <c r="E925" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>01/06/2018</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="B926" t="inlineStr">
@@ -23577,7 +23577,7 @@
         </is>
       </c>
       <c r="D926" t="n">
-        <v>5487.042</v>
+        <v>7289.478</v>
       </c>
       <c r="E926" t="inlineStr">
         <is>
@@ -23588,7 +23588,7 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>01/05/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="B927" t="inlineStr">
@@ -23602,7 +23602,7 @@
         </is>
       </c>
       <c r="D927" t="n">
-        <v>5549.7</v>
+        <v>5621.504</v>
       </c>
       <c r="E927" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>01/03/2018</t>
+          <t>01/06/2018</t>
         </is>
       </c>
       <c r="B928" t="inlineStr">
@@ -23627,7 +23627,7 @@
         </is>
       </c>
       <c r="D928" t="n">
-        <v>6426.258</v>
+        <v>5487.042</v>
       </c>
       <c r="E928" t="inlineStr">
         <is>
@@ -23638,7 +23638,7 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>01/11/2018</t>
+          <t>01/05/2018</t>
         </is>
       </c>
       <c r="B929" t="inlineStr">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="D929" t="n">
-        <v>5685.5</v>
+        <v>5549.7</v>
       </c>
       <c r="E929" t="inlineStr">
         <is>
@@ -23663,7 +23663,7 @@
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/03/2018</t>
         </is>
       </c>
       <c r="B930" t="inlineStr">
@@ -23677,7 +23677,7 @@
         </is>
       </c>
       <c r="D930" t="n">
-        <v>5916.66</v>
+        <v>6426.258</v>
       </c>
       <c r="E930" t="inlineStr">
         <is>
@@ -23688,7 +23688,7 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>01/09/2018</t>
+          <t>01/11/2018</t>
         </is>
       </c>
       <c r="B931" t="inlineStr">
@@ -23702,7 +23702,7 @@
         </is>
       </c>
       <c r="D931" t="n">
-        <v>5970.399</v>
+        <v>5685.5</v>
       </c>
       <c r="E931" t="inlineStr">
         <is>
@@ -23713,7 +23713,7 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="B932" t="inlineStr">
@@ -23727,7 +23727,7 @@
         </is>
       </c>
       <c r="D932" t="n">
-        <v>5391.2</v>
+        <v>5916.66</v>
       </c>
       <c r="E932" t="inlineStr">
         <is>
@@ -23738,7 +23738,7 @@
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>01/08/2019</t>
+          <t>01/09/2018</t>
         </is>
       </c>
       <c r="B933" t="inlineStr">
@@ -23752,7 +23752,7 @@
         </is>
       </c>
       <c r="D933" t="n">
-        <v>4054.5</v>
+        <v>5970.399</v>
       </c>
       <c r="E933" t="inlineStr">
         <is>
@@ -23763,7 +23763,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>01/12/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="B934" t="inlineStr">
@@ -23777,7 +23777,7 @@
         </is>
       </c>
       <c r="D934" t="n">
-        <v>4830.4</v>
+        <v>5391.2</v>
       </c>
       <c r="E934" t="inlineStr">
         <is>
@@ -23788,7 +23788,7 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>01/02/2019</t>
+          <t>01/08/2019</t>
         </is>
       </c>
       <c r="B935" t="inlineStr">
@@ -23802,7 +23802,7 @@
         </is>
       </c>
       <c r="D935" t="n">
-        <v>3997.1</v>
+        <v>4054.5</v>
       </c>
       <c r="E935" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/12/2019</t>
         </is>
       </c>
       <c r="B936" t="inlineStr">
@@ -23827,7 +23827,7 @@
         </is>
       </c>
       <c r="D936" t="n">
-        <v>5711.1</v>
+        <v>4830.4</v>
       </c>
       <c r="E936" t="inlineStr">
         <is>
@@ -23838,7 +23838,7 @@
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/02/2019</t>
         </is>
       </c>
       <c r="B937" t="inlineStr">
@@ -23852,7 +23852,7 @@
         </is>
       </c>
       <c r="D937" t="n">
-        <v>4524.82</v>
+        <v>3997.1</v>
       </c>
       <c r="E937" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>01/06/2019</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="B938" t="inlineStr">
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D938" t="n">
-        <v>4716.577</v>
+        <v>5711.1</v>
       </c>
       <c r="E938" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>01/05/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="B939" t="inlineStr">
@@ -23902,7 +23902,7 @@
         </is>
       </c>
       <c r="D939" t="n">
-        <v>5361.2</v>
+        <v>4524.82</v>
       </c>
       <c r="E939" t="inlineStr">
         <is>
@@ -23913,7 +23913,7 @@
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>01/03/2019</t>
+          <t>01/06/2019</t>
         </is>
       </c>
       <c r="B940" t="inlineStr">
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D940" t="n">
-        <v>4734.9</v>
+        <v>4716.577</v>
       </c>
       <c r="E940" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>01/11/2019</t>
+          <t>01/05/2019</t>
         </is>
       </c>
       <c r="B941" t="inlineStr">
@@ -23952,7 +23952,7 @@
         </is>
       </c>
       <c r="D941" t="n">
-        <v>3812.4</v>
+        <v>5361.2</v>
       </c>
       <c r="E941" t="inlineStr">
         <is>
@@ -23963,7 +23963,7 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/03/2019</t>
         </is>
       </c>
       <c r="B942" t="inlineStr">
@@ -23977,7 +23977,7 @@
         </is>
       </c>
       <c r="D942" t="n">
-        <v>4339.8</v>
+        <v>4734.9</v>
       </c>
       <c r="E942" t="inlineStr">
         <is>
@@ -23988,7 +23988,7 @@
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>01/09/2019</t>
+          <t>01/11/2019</t>
         </is>
       </c>
       <c r="B943" t="inlineStr">
@@ -24002,7 +24002,7 @@
         </is>
       </c>
       <c r="D943" t="n">
-        <v>3820.9</v>
+        <v>3812.4</v>
       </c>
       <c r="E943" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="B944" t="inlineStr">
@@ -24027,7 +24027,7 @@
         </is>
       </c>
       <c r="D944" t="n">
-        <v>0</v>
+        <v>4339.8</v>
       </c>
       <c r="E944" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>01/08/2020</t>
+          <t>01/09/2019</t>
         </is>
       </c>
       <c r="B945" t="inlineStr">
@@ -24052,7 +24052,7 @@
         </is>
       </c>
       <c r="D945" t="n">
-        <v>0</v>
+        <v>3820.9</v>
       </c>
       <c r="E945" t="inlineStr">
         <is>
@@ -24063,7 +24063,7 @@
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>01/12/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="B946" t="inlineStr">
@@ -24088,7 +24088,7 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>01/02/2020</t>
+          <t>01/08/2020</t>
         </is>
       </c>
       <c r="B947" t="inlineStr">
@@ -24102,7 +24102,7 @@
         </is>
       </c>
       <c r="D947" t="n">
-        <v>5762.358</v>
+        <v>0</v>
       </c>
       <c r="E947" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/12/2020</t>
         </is>
       </c>
       <c r="B948" t="inlineStr">
@@ -24127,7 +24127,7 @@
         </is>
       </c>
       <c r="D948" t="n">
-        <v>5560.337</v>
+        <v>0</v>
       </c>
       <c r="E948" t="inlineStr">
         <is>
@@ -24138,7 +24138,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/02/2020</t>
         </is>
       </c>
       <c r="B949" t="inlineStr">
@@ -24152,7 +24152,7 @@
         </is>
       </c>
       <c r="D949" t="n">
-        <v>0</v>
+        <v>5762.358</v>
       </c>
       <c r="E949" t="inlineStr">
         <is>
@@ -24163,7 +24163,7 @@
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>01/06/2020</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="B950" t="inlineStr">
@@ -24177,7 +24177,7 @@
         </is>
       </c>
       <c r="D950" t="n">
-        <v>0</v>
+        <v>5560.337</v>
       </c>
       <c r="E950" t="inlineStr">
         <is>
@@ -24188,7 +24188,7 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>01/05/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="B951" t="inlineStr">
@@ -24213,7 +24213,7 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>01/03/2020</t>
+          <t>01/06/2020</t>
         </is>
       </c>
       <c r="B952" t="inlineStr">
@@ -24227,7 +24227,7 @@
         </is>
       </c>
       <c r="D952" t="n">
-        <v>5496</v>
+        <v>0</v>
       </c>
       <c r="E952" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>01/11/2020</t>
+          <t>01/05/2020</t>
         </is>
       </c>
       <c r="B953" t="inlineStr">
@@ -24263,7 +24263,7 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/03/2020</t>
         </is>
       </c>
       <c r="B954" t="inlineStr">
@@ -24277,7 +24277,7 @@
         </is>
       </c>
       <c r="D954" t="n">
-        <v>0</v>
+        <v>5496</v>
       </c>
       <c r="E954" t="inlineStr">
         <is>
@@ -24288,7 +24288,7 @@
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>01/09/2020</t>
+          <t>01/11/2020</t>
         </is>
       </c>
       <c r="B955" t="inlineStr">
@@ -24313,7 +24313,7 @@
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="B956" t="inlineStr">
@@ -24338,7 +24338,7 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>01/08/2021</t>
+          <t>01/09/2020</t>
         </is>
       </c>
       <c r="B957" t="inlineStr">
@@ -24363,7 +24363,7 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>01/12/2021</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="B958" t="inlineStr">
@@ -24388,7 +24388,7 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>01/02/2021</t>
+          <t>01/08/2021</t>
         </is>
       </c>
       <c r="B959" t="inlineStr">
@@ -24413,7 +24413,7 @@
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/12/2021</t>
         </is>
       </c>
       <c r="B960" t="inlineStr">
@@ -24438,7 +24438,7 @@
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/02/2021</t>
         </is>
       </c>
       <c r="B961" t="inlineStr">
@@ -24463,7 +24463,7 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>01/06/2021</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="B962" t="inlineStr">
@@ -24488,7 +24488,7 @@
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>01/05/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="B963" t="inlineStr">
@@ -24513,7 +24513,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>01/03/2021</t>
+          <t>01/06/2021</t>
         </is>
       </c>
       <c r="B964" t="inlineStr">
@@ -24538,7 +24538,7 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>01/11/2021</t>
+          <t>01/05/2021</t>
         </is>
       </c>
       <c r="B965" t="inlineStr">
@@ -24563,7 +24563,7 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/03/2021</t>
         </is>
       </c>
       <c r="B966" t="inlineStr">
@@ -24588,7 +24588,7 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>01/09/2021</t>
+          <t>01/11/2021</t>
         </is>
       </c>
       <c r="B967" t="inlineStr">
@@ -24613,7 +24613,7 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="B968" t="inlineStr">
@@ -24638,7 +24638,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>01/08/2022</t>
+          <t>01/09/2021</t>
         </is>
       </c>
       <c r="B969" t="inlineStr">
@@ -24663,7 +24663,7 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>01/12/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="B970" t="inlineStr">
@@ -24688,7 +24688,7 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>01/02/2022</t>
+          <t>01/08/2022</t>
         </is>
       </c>
       <c r="B971" t="inlineStr">
@@ -24713,7 +24713,7 @@
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/12/2022</t>
         </is>
       </c>
       <c r="B972" t="inlineStr">
@@ -24738,7 +24738,7 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/02/2022</t>
         </is>
       </c>
       <c r="B973" t="inlineStr">
@@ -24763,7 +24763,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>01/06/2022</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="B974" t="inlineStr">
@@ -24788,7 +24788,7 @@
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>01/05/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="B975" t="inlineStr">
@@ -24813,7 +24813,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>01/03/2022</t>
+          <t>01/06/2022</t>
         </is>
       </c>
       <c r="B976" t="inlineStr">
@@ -24838,7 +24838,7 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>01/11/2022</t>
+          <t>01/05/2022</t>
         </is>
       </c>
       <c r="B977" t="inlineStr">
@@ -24863,7 +24863,7 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/03/2022</t>
         </is>
       </c>
       <c r="B978" t="inlineStr">
@@ -24888,7 +24888,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>01/09/2022</t>
+          <t>01/11/2022</t>
         </is>
       </c>
       <c r="B979" t="inlineStr">
@@ -24913,7 +24913,7 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="B980" t="inlineStr">
@@ -24938,7 +24938,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01/09/2022</t>
         </is>
       </c>
       <c r="B981" t="inlineStr">
@@ -24963,7 +24963,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="B982" t="inlineStr">
@@ -24988,7 +24988,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>01/02/2023</t>
+          <t>01/08/2023</t>
         </is>
       </c>
       <c r="B983" t="inlineStr">
@@ -25013,7 +25013,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="B984" t="inlineStr">
@@ -25038,7 +25038,7 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/02/2023</t>
         </is>
       </c>
       <c r="B985" t="inlineStr">
@@ -25063,7 +25063,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>01/06/2023</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="B986" t="inlineStr">
@@ -25088,7 +25088,7 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>01/05/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="B987" t="inlineStr">
@@ -25113,7 +25113,7 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>01/03/2023</t>
+          <t>01/06/2023</t>
         </is>
       </c>
       <c r="B988" t="inlineStr">
@@ -25138,7 +25138,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>01/11/2023</t>
+          <t>01/05/2023</t>
         </is>
       </c>
       <c r="B989" t="inlineStr">
@@ -25163,7 +25163,7 @@
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/03/2023</t>
         </is>
       </c>
       <c r="B990" t="inlineStr">
@@ -25188,7 +25188,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>01/09/2023</t>
+          <t>01/11/2023</t>
         </is>
       </c>
       <c r="B991" t="inlineStr">
@@ -25213,7 +25213,7 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="B992" t="inlineStr">
@@ -25238,7 +25238,7 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>01/09/2023</t>
         </is>
       </c>
       <c r="B993" t="inlineStr">
@@ -25263,7 +25263,7 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>01/02/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="B994" t="inlineStr">
@@ -25288,7 +25288,7 @@
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B995" t="inlineStr">
@@ -25313,7 +25313,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
+          <t>01/02/2024</t>
         </is>
       </c>
       <c r="B996" t="inlineStr">
@@ -25338,7 +25338,7 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>01/06/2024</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="B997" t="inlineStr">
@@ -25363,7 +25363,7 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>01/05/2024</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="B998" t="inlineStr">
@@ -25388,7 +25388,7 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>01/03/2024</t>
+          <t>01/06/2024</t>
         </is>
       </c>
       <c r="B999" t="inlineStr">
@@ -25413,7 +25413,7 @@
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>01/09/2024</t>
+          <t>01/05/2024</t>
         </is>
       </c>
       <c r="B1000" t="inlineStr">
@@ -25430,6 +25430,81 @@
         <v>0</v>
       </c>
       <c r="E1000" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="inlineStr">
+        <is>
+          <t>01/03/2024</t>
+        </is>
+      </c>
+      <c r="B1001" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C1001" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1001" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="inlineStr">
+        <is>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="B1002" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C1002" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1002" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="B1003" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C1003" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1003" t="inlineStr">
         <is>
           <t>SERGIPE</t>
         </is>

--- a/Data/g8.2.xlsx
+++ b/Data/g8.2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1003"/>
+  <dimension ref="A1:E1006"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17063,7 +17063,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>01/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
@@ -17077,7 +17077,7 @@
         </is>
       </c>
       <c r="D666" t="n">
-        <v>69.205</v>
+        <v>60.481</v>
       </c>
       <c r="E666" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>01/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
@@ -17102,7 +17102,7 @@
         </is>
       </c>
       <c r="D667" t="n">
-        <v>1677.056</v>
+        <v>1827.636</v>
       </c>
       <c r="E667" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>01/09/2024</t>
+          <t>01/10/2024</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D668" t="n">
-        <v>57.802</v>
+        <v>69.205</v>
       </c>
       <c r="E668" t="inlineStr">
         <is>
@@ -17138,7 +17138,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>01/09/2024</t>
+          <t>01/10/2024</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
@@ -17152,7 +17152,7 @@
         </is>
       </c>
       <c r="D669" t="n">
-        <v>1610.794</v>
+        <v>1677.056</v>
       </c>
       <c r="E669" t="inlineStr">
         <is>
@@ -17163,21 +17163,21 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>01/04/1997</t>
+          <t>01/09/2024</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA</t>
+          <t>MAR</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t>LGN</t>
+          <t>GÁS NATURAL</t>
         </is>
       </c>
       <c r="D670" t="n">
-        <v>20951</v>
+        <v>57.802</v>
       </c>
       <c r="E670" t="inlineStr">
         <is>
@@ -17188,21 +17188,21 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>01/08/1997</t>
+          <t>01/09/2024</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA</t>
+          <t>TERRA</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>LGN</t>
+          <t>GÁS NATURAL</t>
         </is>
       </c>
       <c r="D671" t="n">
-        <v>24698</v>
+        <v>1610.794</v>
       </c>
       <c r="E671" t="inlineStr">
         <is>
@@ -17213,7 +17213,7 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>01/12/1997</t>
+          <t>01/04/1997</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="D672" t="n">
-        <v>23230</v>
+        <v>20951</v>
       </c>
       <c r="E672" t="inlineStr">
         <is>
@@ -17238,7 +17238,7 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>01/02/1997</t>
+          <t>01/08/1997</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
@@ -17252,7 +17252,7 @@
         </is>
       </c>
       <c r="D673" t="n">
-        <v>19007</v>
+        <v>24698</v>
       </c>
       <c r="E673" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>01/01/1997</t>
+          <t>01/12/1997</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
@@ -17277,7 +17277,7 @@
         </is>
       </c>
       <c r="D674" t="n">
-        <v>18978</v>
+        <v>23230</v>
       </c>
       <c r="E674" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>01/07/1997</t>
+          <t>01/02/1997</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
@@ -17302,7 +17302,7 @@
         </is>
       </c>
       <c r="D675" t="n">
-        <v>23232</v>
+        <v>19007</v>
       </c>
       <c r="E675" t="inlineStr">
         <is>
@@ -17313,7 +17313,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>01/06/1997</t>
+          <t>01/01/1997</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
@@ -17327,7 +17327,7 @@
         </is>
       </c>
       <c r="D676" t="n">
-        <v>22449</v>
+        <v>18978</v>
       </c>
       <c r="E676" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>01/05/1997</t>
+          <t>01/07/1997</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
@@ -17352,7 +17352,7 @@
         </is>
       </c>
       <c r="D677" t="n">
-        <v>24757</v>
+        <v>23232</v>
       </c>
       <c r="E677" t="inlineStr">
         <is>
@@ -17363,7 +17363,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>01/03/1997</t>
+          <t>01/06/1997</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
@@ -17377,7 +17377,7 @@
         </is>
       </c>
       <c r="D678" t="n">
-        <v>19807</v>
+        <v>22449</v>
       </c>
       <c r="E678" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>01/11/1997</t>
+          <t>01/05/1997</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
@@ -17402,7 +17402,7 @@
         </is>
       </c>
       <c r="D679" t="n">
-        <v>22027</v>
+        <v>24757</v>
       </c>
       <c r="E679" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>01/10/1997</t>
+          <t>01/03/1997</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
@@ -17427,7 +17427,7 @@
         </is>
       </c>
       <c r="D680" t="n">
-        <v>21890</v>
+        <v>19807</v>
       </c>
       <c r="E680" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>01/09/1997</t>
+          <t>01/11/1997</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
@@ -17452,7 +17452,7 @@
         </is>
       </c>
       <c r="D681" t="n">
-        <v>22749</v>
+        <v>22027</v>
       </c>
       <c r="E681" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>01/04/1998</t>
+          <t>01/10/1997</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
@@ -17477,7 +17477,7 @@
         </is>
       </c>
       <c r="D682" t="n">
-        <v>131778.0699</v>
+        <v>21890</v>
       </c>
       <c r="E682" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>01/08/1998</t>
+          <t>01/09/1997</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
@@ -17502,7 +17502,7 @@
         </is>
       </c>
       <c r="D683" t="n">
-        <v>155346.0346</v>
+        <v>22749</v>
       </c>
       <c r="E683" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>01/12/1998</t>
+          <t>01/04/1998</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D684" t="n">
-        <v>146112.5752</v>
+        <v>131778.0699</v>
       </c>
       <c r="E684" t="inlineStr">
         <is>
@@ -17538,7 +17538,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>01/02/1998</t>
+          <t>01/08/1998</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
@@ -17552,7 +17552,7 @@
         </is>
       </c>
       <c r="D685" t="n">
-        <v>119550.6551</v>
+        <v>155346.0346</v>
       </c>
       <c r="E685" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>01/01/1998</t>
+          <t>01/12/1998</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
@@ -17577,7 +17577,7 @@
         </is>
       </c>
       <c r="D686" t="n">
-        <v>119368.2502</v>
+        <v>146112.5752</v>
       </c>
       <c r="E686" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>01/07/1998</t>
+          <t>01/02/1998</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
@@ -17602,7 +17602,7 @@
         </is>
       </c>
       <c r="D687" t="n">
-        <v>146125.1549</v>
+        <v>119550.6551</v>
       </c>
       <c r="E687" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>01/06/1998</t>
+          <t>01/01/1998</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
@@ -17627,7 +17627,7 @@
         </is>
       </c>
       <c r="D688" t="n">
-        <v>141200.2239</v>
+        <v>119368.2502</v>
       </c>
       <c r="E688" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>01/05/1998</t>
+          <t>01/07/1998</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
@@ -17652,7 +17652,7 @@
         </is>
       </c>
       <c r="D689" t="n">
-        <v>155717.1341</v>
+        <v>146125.1549</v>
       </c>
       <c r="E689" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>01/03/1998</t>
+          <t>01/06/1998</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
@@ -17677,7 +17677,7 @@
         </is>
       </c>
       <c r="D690" t="n">
-        <v>124582.513</v>
+        <v>141200.2239</v>
       </c>
       <c r="E690" t="inlineStr">
         <is>
@@ -17688,7 +17688,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>01/11/1998</t>
+          <t>01/05/1998</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
@@ -17702,7 +17702,7 @@
         </is>
       </c>
       <c r="D691" t="n">
-        <v>138545.9188</v>
+        <v>155717.1341</v>
       </c>
       <c r="E691" t="inlineStr">
         <is>
@@ -17713,7 +17713,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>01/10/1998</t>
+          <t>01/03/1998</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
@@ -17727,7 +17727,7 @@
         </is>
       </c>
       <c r="D692" t="n">
-        <v>137684.2132</v>
+        <v>124582.513</v>
       </c>
       <c r="E692" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>01/09/1998</t>
+          <t>01/11/1998</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
@@ -17752,7 +17752,7 @@
         </is>
       </c>
       <c r="D693" t="n">
-        <v>143087.1706</v>
+        <v>138545.9188</v>
       </c>
       <c r="E693" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>01/04/1999</t>
+          <t>01/10/1998</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
@@ -17777,7 +17777,7 @@
         </is>
       </c>
       <c r="D694" t="n">
-        <v>24546</v>
+        <v>137684.2132</v>
       </c>
       <c r="E694" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>01/08/1999</t>
+          <t>01/09/1998</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
@@ -17802,7 +17802,7 @@
         </is>
       </c>
       <c r="D695" t="n">
-        <v>23247</v>
+        <v>143087.1706</v>
       </c>
       <c r="E695" t="inlineStr">
         <is>
@@ -17813,7 +17813,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>01/12/1999</t>
+          <t>01/04/1999</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
@@ -17827,7 +17827,7 @@
         </is>
       </c>
       <c r="D696" t="n">
-        <v>24640</v>
+        <v>24546</v>
       </c>
       <c r="E696" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>01/02/1999</t>
+          <t>01/08/1999</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
@@ -17852,7 +17852,7 @@
         </is>
       </c>
       <c r="D697" t="n">
-        <v>22448</v>
+        <v>23247</v>
       </c>
       <c r="E697" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>01/01/1999</t>
+          <t>01/12/1999</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
@@ -17877,7 +17877,7 @@
         </is>
       </c>
       <c r="D698" t="n">
-        <v>24629</v>
+        <v>24640</v>
       </c>
       <c r="E698" t="inlineStr">
         <is>
@@ -17888,7 +17888,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>01/07/1999</t>
+          <t>01/02/1999</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
@@ -17902,7 +17902,7 @@
         </is>
       </c>
       <c r="D699" t="n">
-        <v>22323</v>
+        <v>22448</v>
       </c>
       <c r="E699" t="inlineStr">
         <is>
@@ -17913,7 +17913,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>01/06/1999</t>
+          <t>01/01/1999</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D700" t="n">
-        <v>24653</v>
+        <v>24629</v>
       </c>
       <c r="E700" t="inlineStr">
         <is>
@@ -17938,7 +17938,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>01/05/1999</t>
+          <t>01/07/1999</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
@@ -17952,7 +17952,7 @@
         </is>
       </c>
       <c r="D701" t="n">
-        <v>25678</v>
+        <v>22323</v>
       </c>
       <c r="E701" t="inlineStr">
         <is>
@@ -17963,7 +17963,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>01/03/1999</t>
+          <t>01/06/1999</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
@@ -17977,7 +17977,7 @@
         </is>
       </c>
       <c r="D702" t="n">
-        <v>25737</v>
+        <v>24653</v>
       </c>
       <c r="E702" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>01/11/1999</t>
+          <t>01/05/1999</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
@@ -18002,7 +18002,7 @@
         </is>
       </c>
       <c r="D703" t="n">
-        <v>25481</v>
+        <v>25678</v>
       </c>
       <c r="E703" t="inlineStr">
         <is>
@@ -18013,7 +18013,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>01/10/1999</t>
+          <t>01/03/1999</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
@@ -18027,7 +18027,7 @@
         </is>
       </c>
       <c r="D704" t="n">
-        <v>25601</v>
+        <v>25737</v>
       </c>
       <c r="E704" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>01/09/1999</t>
+          <t>01/11/1999</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
@@ -18052,7 +18052,7 @@
         </is>
       </c>
       <c r="D705" t="n">
-        <v>24686</v>
+        <v>25481</v>
       </c>
       <c r="E705" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>01/04/2000</t>
+          <t>01/10/1999</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
@@ -18077,7 +18077,7 @@
         </is>
       </c>
       <c r="D706" t="n">
-        <v>25440</v>
+        <v>25601</v>
       </c>
       <c r="E706" t="inlineStr">
         <is>
@@ -18088,7 +18088,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>01/08/2000</t>
+          <t>01/09/1999</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
@@ -18102,7 +18102,7 @@
         </is>
       </c>
       <c r="D707" t="n">
-        <v>27353</v>
+        <v>24686</v>
       </c>
       <c r="E707" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>01/12/2000</t>
+          <t>01/04/2000</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
@@ -18127,7 +18127,7 @@
         </is>
       </c>
       <c r="D708" t="n">
-        <v>26071</v>
+        <v>25440</v>
       </c>
       <c r="E708" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>01/02/2000</t>
+          <t>01/08/2000</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
@@ -18152,7 +18152,7 @@
         </is>
       </c>
       <c r="D709" t="n">
-        <v>25123</v>
+        <v>27353</v>
       </c>
       <c r="E709" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>01/01/2000</t>
+          <t>01/12/2000</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
@@ -18177,7 +18177,7 @@
         </is>
       </c>
       <c r="D710" t="n">
-        <v>26480</v>
+        <v>26071</v>
       </c>
       <c r="E710" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>01/07/2000</t>
+          <t>01/02/2000</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
@@ -18202,7 +18202,7 @@
         </is>
       </c>
       <c r="D711" t="n">
-        <v>26914</v>
+        <v>25123</v>
       </c>
       <c r="E711" t="inlineStr">
         <is>
@@ -18213,7 +18213,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>01/06/2000</t>
+          <t>01/01/2000</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
@@ -18227,7 +18227,7 @@
         </is>
       </c>
       <c r="D712" t="n">
-        <v>26044</v>
+        <v>26480</v>
       </c>
       <c r="E712" t="inlineStr">
         <is>
@@ -18238,7 +18238,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>01/05/2000</t>
+          <t>01/07/2000</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
@@ -18252,7 +18252,7 @@
         </is>
       </c>
       <c r="D713" t="n">
-        <v>26406</v>
+        <v>26914</v>
       </c>
       <c r="E713" t="inlineStr">
         <is>
@@ -18263,7 +18263,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>01/03/2000</t>
+          <t>01/06/2000</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
@@ -18277,7 +18277,7 @@
         </is>
       </c>
       <c r="D714" t="n">
-        <v>26572</v>
+        <v>26044</v>
       </c>
       <c r="E714" t="inlineStr">
         <is>
@@ -18288,7 +18288,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>01/11/2000</t>
+          <t>01/05/2000</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
@@ -18302,7 +18302,7 @@
         </is>
       </c>
       <c r="D715" t="n">
-        <v>13928</v>
+        <v>26406</v>
       </c>
       <c r="E715" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>01/10/2000</t>
+          <t>01/03/2000</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D716" t="n">
-        <v>26965</v>
+        <v>26572</v>
       </c>
       <c r="E716" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>01/09/2000</t>
+          <t>01/11/2000</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
@@ -18352,7 +18352,7 @@
         </is>
       </c>
       <c r="D717" t="n">
-        <v>26129</v>
+        <v>13928</v>
       </c>
       <c r="E717" t="inlineStr">
         <is>
@@ -18363,7 +18363,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>01/04/2001</t>
+          <t>01/10/2000</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
@@ -18377,7 +18377,7 @@
         </is>
       </c>
       <c r="D718" t="n">
-        <v>18378</v>
+        <v>26965</v>
       </c>
       <c r="E718" t="inlineStr">
         <is>
@@ -18388,7 +18388,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>01/08/2001</t>
+          <t>01/09/2000</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
@@ -18402,7 +18402,7 @@
         </is>
       </c>
       <c r="D719" t="n">
-        <v>26465</v>
+        <v>26129</v>
       </c>
       <c r="E719" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>01/12/2001</t>
+          <t>01/04/2001</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
@@ -18427,7 +18427,7 @@
         </is>
       </c>
       <c r="D720" t="n">
-        <v>26876</v>
+        <v>18378</v>
       </c>
       <c r="E720" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>01/02/2001</t>
+          <t>01/08/2001</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
@@ -18452,7 +18452,7 @@
         </is>
       </c>
       <c r="D721" t="n">
-        <v>23797</v>
+        <v>26465</v>
       </c>
       <c r="E721" t="inlineStr">
         <is>
@@ -18463,7 +18463,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>01/01/2001</t>
+          <t>01/12/2001</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D722" t="n">
-        <v>26536</v>
+        <v>26876</v>
       </c>
       <c r="E722" t="inlineStr">
         <is>
@@ -18488,7 +18488,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>01/07/2001</t>
+          <t>01/02/2001</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
@@ -18502,7 +18502,7 @@
         </is>
       </c>
       <c r="D723" t="n">
-        <v>27236</v>
+        <v>23797</v>
       </c>
       <c r="E723" t="inlineStr">
         <is>
@@ -18513,7 +18513,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>01/06/2001</t>
+          <t>01/01/2001</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
@@ -18527,7 +18527,7 @@
         </is>
       </c>
       <c r="D724" t="n">
-        <v>25806</v>
+        <v>26536</v>
       </c>
       <c r="E724" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>01/05/2001</t>
+          <t>01/07/2001</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
@@ -18552,7 +18552,7 @@
         </is>
       </c>
       <c r="D725" t="n">
-        <v>22691</v>
+        <v>27236</v>
       </c>
       <c r="E725" t="inlineStr">
         <is>
@@ -18563,7 +18563,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>01/03/2001</t>
+          <t>01/06/2001</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
@@ -18577,7 +18577,7 @@
         </is>
       </c>
       <c r="D726" t="n">
-        <v>25605</v>
+        <v>25806</v>
       </c>
       <c r="E726" t="inlineStr">
         <is>
@@ -18588,7 +18588,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>01/11/2001</t>
+          <t>01/05/2001</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
@@ -18602,7 +18602,7 @@
         </is>
       </c>
       <c r="D727" t="n">
-        <v>25852</v>
+        <v>22691</v>
       </c>
       <c r="E727" t="inlineStr">
         <is>
@@ -18613,7 +18613,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>01/10/2001</t>
+          <t>01/03/2001</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
@@ -18627,7 +18627,7 @@
         </is>
       </c>
       <c r="D728" t="n">
-        <v>26322</v>
+        <v>25605</v>
       </c>
       <c r="E728" t="inlineStr">
         <is>
@@ -18638,7 +18638,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>01/09/2001</t>
+          <t>01/11/2001</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
@@ -18652,7 +18652,7 @@
         </is>
       </c>
       <c r="D729" t="n">
-        <v>23625</v>
+        <v>25852</v>
       </c>
       <c r="E729" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>01/04/2002</t>
+          <t>01/10/2001</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
@@ -18677,7 +18677,7 @@
         </is>
       </c>
       <c r="D730" t="n">
-        <v>23065</v>
+        <v>26322</v>
       </c>
       <c r="E730" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>01/08/2002</t>
+          <t>01/09/2001</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
@@ -18702,7 +18702,7 @@
         </is>
       </c>
       <c r="D731" t="n">
-        <v>25580</v>
+        <v>23625</v>
       </c>
       <c r="E731" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>01/12/2002</t>
+          <t>01/04/2002</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D732" t="n">
-        <v>24957</v>
+        <v>23065</v>
       </c>
       <c r="E732" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>01/02/2002</t>
+          <t>01/08/2002</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
@@ -18752,7 +18752,7 @@
         </is>
       </c>
       <c r="D733" t="n">
-        <v>24096</v>
+        <v>25580</v>
       </c>
       <c r="E733" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>01/01/2002</t>
+          <t>01/12/2002</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
@@ -18777,7 +18777,7 @@
         </is>
       </c>
       <c r="D734" t="n">
-        <v>27239</v>
+        <v>24957</v>
       </c>
       <c r="E734" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>01/07/2002</t>
+          <t>01/02/2002</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
@@ -18802,7 +18802,7 @@
         </is>
       </c>
       <c r="D735" t="n">
-        <v>25911</v>
+        <v>24096</v>
       </c>
       <c r="E735" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>01/06/2002</t>
+          <t>01/01/2002</t>
         </is>
       </c>
       <c r="B736" t="inlineStr">
@@ -18827,7 +18827,7 @@
         </is>
       </c>
       <c r="D736" t="n">
-        <v>24854</v>
+        <v>27239</v>
       </c>
       <c r="E736" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>01/05/2002</t>
+          <t>01/07/2002</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
@@ -18852,7 +18852,7 @@
         </is>
       </c>
       <c r="D737" t="n">
-        <v>24983</v>
+        <v>25911</v>
       </c>
       <c r="E737" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>01/03/2002</t>
+          <t>01/06/2002</t>
         </is>
       </c>
       <c r="B738" t="inlineStr">
@@ -18877,7 +18877,7 @@
         </is>
       </c>
       <c r="D738" t="n">
-        <v>25381</v>
+        <v>24854</v>
       </c>
       <c r="E738" t="inlineStr">
         <is>
@@ -18888,7 +18888,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>01/11/2002</t>
+          <t>01/05/2002</t>
         </is>
       </c>
       <c r="B739" t="inlineStr">
@@ -18902,7 +18902,7 @@
         </is>
       </c>
       <c r="D739" t="n">
-        <v>24648</v>
+        <v>24983</v>
       </c>
       <c r="E739" t="inlineStr">
         <is>
@@ -18913,7 +18913,7 @@
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>01/10/2002</t>
+          <t>01/03/2002</t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
@@ -18927,7 +18927,7 @@
         </is>
       </c>
       <c r="D740" t="n">
-        <v>24992</v>
+        <v>25381</v>
       </c>
       <c r="E740" t="inlineStr">
         <is>
@@ -18938,7 +18938,7 @@
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>01/09/2002</t>
+          <t>01/11/2002</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
@@ -18952,7 +18952,7 @@
         </is>
       </c>
       <c r="D741" t="n">
-        <v>24400</v>
+        <v>24648</v>
       </c>
       <c r="E741" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>01/04/2003</t>
+          <t>01/10/2002</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
@@ -18977,7 +18977,7 @@
         </is>
       </c>
       <c r="D742" t="n">
-        <v>20841</v>
+        <v>24992</v>
       </c>
       <c r="E742" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>01/08/2003</t>
+          <t>01/09/2002</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
@@ -19002,7 +19002,7 @@
         </is>
       </c>
       <c r="D743" t="n">
-        <v>25463</v>
+        <v>24400</v>
       </c>
       <c r="E743" t="inlineStr">
         <is>
@@ -19013,7 +19013,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>01/12/2003</t>
+          <t>01/04/2003</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="D744" t="n">
-        <v>24965</v>
+        <v>20841</v>
       </c>
       <c r="E744" t="inlineStr">
         <is>
@@ -19038,7 +19038,7 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>01/02/2003</t>
+          <t>01/08/2003</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
@@ -19052,7 +19052,7 @@
         </is>
       </c>
       <c r="D745" t="n">
-        <v>20388</v>
+        <v>25463</v>
       </c>
       <c r="E745" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>01/01/2003</t>
+          <t>01/12/2003</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
@@ -19077,7 +19077,7 @@
         </is>
       </c>
       <c r="D746" t="n">
-        <v>24971</v>
+        <v>24965</v>
       </c>
       <c r="E746" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>01/07/2003</t>
+          <t>01/02/2003</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
@@ -19102,7 +19102,7 @@
         </is>
       </c>
       <c r="D747" t="n">
-        <v>23560</v>
+        <v>20388</v>
       </c>
       <c r="E747" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>01/06/2003</t>
+          <t>01/01/2003</t>
         </is>
       </c>
       <c r="B748" t="inlineStr">
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D748" t="n">
-        <v>22761</v>
+        <v>24971</v>
       </c>
       <c r="E748" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>01/05/2003</t>
+          <t>01/07/2003</t>
         </is>
       </c>
       <c r="B749" t="inlineStr">
@@ -19152,7 +19152,7 @@
         </is>
       </c>
       <c r="D749" t="n">
-        <v>23510</v>
+        <v>23560</v>
       </c>
       <c r="E749" t="inlineStr">
         <is>
@@ -19163,7 +19163,7 @@
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>01/03/2003</t>
+          <t>01/06/2003</t>
         </is>
       </c>
       <c r="B750" t="inlineStr">
@@ -19177,7 +19177,7 @@
         </is>
       </c>
       <c r="D750" t="n">
-        <v>25907</v>
+        <v>22761</v>
       </c>
       <c r="E750" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>01/11/2003</t>
+          <t>01/05/2003</t>
         </is>
       </c>
       <c r="B751" t="inlineStr">
@@ -19202,7 +19202,7 @@
         </is>
       </c>
       <c r="D751" t="n">
-        <v>24041</v>
+        <v>23510</v>
       </c>
       <c r="E751" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>01/10/2003</t>
+          <t>01/03/2003</t>
         </is>
       </c>
       <c r="B752" t="inlineStr">
@@ -19227,7 +19227,7 @@
         </is>
       </c>
       <c r="D752" t="n">
-        <v>24023</v>
+        <v>25907</v>
       </c>
       <c r="E752" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>01/09/2003</t>
+          <t>01/11/2003</t>
         </is>
       </c>
       <c r="B753" t="inlineStr">
@@ -19252,7 +19252,7 @@
         </is>
       </c>
       <c r="D753" t="n">
-        <v>24294</v>
+        <v>24041</v>
       </c>
       <c r="E753" t="inlineStr">
         <is>
@@ -19263,7 +19263,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>01/04/2004</t>
+          <t>01/10/2003</t>
         </is>
       </c>
       <c r="B754" t="inlineStr">
@@ -19277,7 +19277,7 @@
         </is>
       </c>
       <c r="D754" t="n">
-        <v>24411</v>
+        <v>24023</v>
       </c>
       <c r="E754" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>01/08/2004</t>
+          <t>01/09/2003</t>
         </is>
       </c>
       <c r="B755" t="inlineStr">
@@ -19302,7 +19302,7 @@
         </is>
       </c>
       <c r="D755" t="n">
-        <v>25873</v>
+        <v>24294</v>
       </c>
       <c r="E755" t="inlineStr">
         <is>
@@ -19313,7 +19313,7 @@
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>01/12/2004</t>
+          <t>01/04/2004</t>
         </is>
       </c>
       <c r="B756" t="inlineStr">
@@ -19327,7 +19327,7 @@
         </is>
       </c>
       <c r="D756" t="n">
-        <v>25343</v>
+        <v>24411</v>
       </c>
       <c r="E756" t="inlineStr">
         <is>
@@ -19338,7 +19338,7 @@
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>01/02/2004</t>
+          <t>01/08/2004</t>
         </is>
       </c>
       <c r="B757" t="inlineStr">
@@ -19352,7 +19352,7 @@
         </is>
       </c>
       <c r="D757" t="n">
-        <v>23497</v>
+        <v>25873</v>
       </c>
       <c r="E757" t="inlineStr">
         <is>
@@ -19363,7 +19363,7 @@
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>01/01/2004</t>
+          <t>01/12/2004</t>
         </is>
       </c>
       <c r="B758" t="inlineStr">
@@ -19377,7 +19377,7 @@
         </is>
       </c>
       <c r="D758" t="n">
-        <v>23975</v>
+        <v>25343</v>
       </c>
       <c r="E758" t="inlineStr">
         <is>
@@ -19388,7 +19388,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>01/02/2004</t>
         </is>
       </c>
       <c r="B759" t="inlineStr">
@@ -19402,7 +19402,7 @@
         </is>
       </c>
       <c r="D759" t="n">
-        <v>24979</v>
+        <v>23497</v>
       </c>
       <c r="E759" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>01/06/2004</t>
+          <t>01/01/2004</t>
         </is>
       </c>
       <c r="B760" t="inlineStr">
@@ -19427,7 +19427,7 @@
         </is>
       </c>
       <c r="D760" t="n">
-        <v>23413</v>
+        <v>23975</v>
       </c>
       <c r="E760" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>01/05/2004</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="B761" t="inlineStr">
@@ -19452,7 +19452,7 @@
         </is>
       </c>
       <c r="D761" t="n">
-        <v>21313</v>
+        <v>24979</v>
       </c>
       <c r="E761" t="inlineStr">
         <is>
@@ -19463,7 +19463,7 @@
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>01/03/2004</t>
+          <t>01/06/2004</t>
         </is>
       </c>
       <c r="B762" t="inlineStr">
@@ -19477,7 +19477,7 @@
         </is>
       </c>
       <c r="D762" t="n">
-        <v>25118</v>
+        <v>23413</v>
       </c>
       <c r="E762" t="inlineStr">
         <is>
@@ -19488,7 +19488,7 @@
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>01/11/2004</t>
+          <t>01/05/2004</t>
         </is>
       </c>
       <c r="B763" t="inlineStr">
@@ -19502,7 +19502,7 @@
         </is>
       </c>
       <c r="D763" t="n">
-        <v>24463</v>
+        <v>21313</v>
       </c>
       <c r="E763" t="inlineStr">
         <is>
@@ -19513,7 +19513,7 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>01/10/2004</t>
+          <t>01/03/2004</t>
         </is>
       </c>
       <c r="B764" t="inlineStr">
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D764" t="n">
-        <v>25566</v>
+        <v>25118</v>
       </c>
       <c r="E764" t="inlineStr">
         <is>
@@ -19538,7 +19538,7 @@
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>01/09/2004</t>
+          <t>01/11/2004</t>
         </is>
       </c>
       <c r="B765" t="inlineStr">
@@ -19552,7 +19552,7 @@
         </is>
       </c>
       <c r="D765" t="n">
-        <v>24720</v>
+        <v>24463</v>
       </c>
       <c r="E765" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>01/04/2005</t>
+          <t>01/10/2004</t>
         </is>
       </c>
       <c r="B766" t="inlineStr">
@@ -19577,7 +19577,7 @@
         </is>
       </c>
       <c r="D766" t="n">
-        <v>23924</v>
+        <v>25566</v>
       </c>
       <c r="E766" t="inlineStr">
         <is>
@@ -19588,7 +19588,7 @@
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>01/08/2005</t>
+          <t>01/09/2004</t>
         </is>
       </c>
       <c r="B767" t="inlineStr">
@@ -19602,7 +19602,7 @@
         </is>
       </c>
       <c r="D767" t="n">
-        <v>25213</v>
+        <v>24720</v>
       </c>
       <c r="E767" t="inlineStr">
         <is>
@@ -19613,7 +19613,7 @@
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>01/12/2005</t>
+          <t>01/04/2005</t>
         </is>
       </c>
       <c r="B768" t="inlineStr">
@@ -19627,7 +19627,7 @@
         </is>
       </c>
       <c r="D768" t="n">
-        <v>24602</v>
+        <v>23924</v>
       </c>
       <c r="E768" t="inlineStr">
         <is>
@@ -19638,7 +19638,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>01/02/2005</t>
+          <t>01/08/2005</t>
         </is>
       </c>
       <c r="B769" t="inlineStr">
@@ -19652,7 +19652,7 @@
         </is>
       </c>
       <c r="D769" t="n">
-        <v>22710</v>
+        <v>25213</v>
       </c>
       <c r="E769" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>01/01/2005</t>
+          <t>01/12/2005</t>
         </is>
       </c>
       <c r="B770" t="inlineStr">
@@ -19677,7 +19677,7 @@
         </is>
       </c>
       <c r="D770" t="n">
-        <v>24972</v>
+        <v>24602</v>
       </c>
       <c r="E770" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>01/07/2005</t>
+          <t>01/02/2005</t>
         </is>
       </c>
       <c r="B771" t="inlineStr">
@@ -19702,7 +19702,7 @@
         </is>
       </c>
       <c r="D771" t="n">
-        <v>25582</v>
+        <v>22710</v>
       </c>
       <c r="E771" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>01/06/2005</t>
+          <t>01/01/2005</t>
         </is>
       </c>
       <c r="B772" t="inlineStr">
@@ -19727,7 +19727,7 @@
         </is>
       </c>
       <c r="D772" t="n">
-        <v>24359</v>
+        <v>24972</v>
       </c>
       <c r="E772" t="inlineStr">
         <is>
@@ -19738,7 +19738,7 @@
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>01/05/2005</t>
+          <t>01/07/2005</t>
         </is>
       </c>
       <c r="B773" t="inlineStr">
@@ -19752,7 +19752,7 @@
         </is>
       </c>
       <c r="D773" t="n">
-        <v>24053</v>
+        <v>25582</v>
       </c>
       <c r="E773" t="inlineStr">
         <is>
@@ -19763,7 +19763,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>01/03/2005</t>
+          <t>01/06/2005</t>
         </is>
       </c>
       <c r="B774" t="inlineStr">
@@ -19777,7 +19777,7 @@
         </is>
       </c>
       <c r="D774" t="n">
-        <v>24836</v>
+        <v>24359</v>
       </c>
       <c r="E774" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>01/11/2005</t>
+          <t>01/05/2005</t>
         </is>
       </c>
       <c r="B775" t="inlineStr">
@@ -19802,7 +19802,7 @@
         </is>
       </c>
       <c r="D775" t="n">
-        <v>24169</v>
+        <v>24053</v>
       </c>
       <c r="E775" t="inlineStr">
         <is>
@@ -19813,7 +19813,7 @@
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>01/10/2005</t>
+          <t>01/03/2005</t>
         </is>
       </c>
       <c r="B776" t="inlineStr">
@@ -19827,7 +19827,7 @@
         </is>
       </c>
       <c r="D776" t="n">
-        <v>26281</v>
+        <v>24836</v>
       </c>
       <c r="E776" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>01/09/2005</t>
+          <t>01/11/2005</t>
         </is>
       </c>
       <c r="B777" t="inlineStr">
@@ -19852,7 +19852,7 @@
         </is>
       </c>
       <c r="D777" t="n">
-        <v>24180</v>
+        <v>24169</v>
       </c>
       <c r="E777" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>01/04/2006</t>
+          <t>01/10/2005</t>
         </is>
       </c>
       <c r="B778" t="inlineStr">
@@ -19877,7 +19877,7 @@
         </is>
       </c>
       <c r="D778" t="n">
-        <v>24527</v>
+        <v>26281</v>
       </c>
       <c r="E778" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>01/08/2006</t>
+          <t>01/09/2005</t>
         </is>
       </c>
       <c r="B779" t="inlineStr">
@@ -19902,7 +19902,7 @@
         </is>
       </c>
       <c r="D779" t="n">
-        <v>25491</v>
+        <v>24180</v>
       </c>
       <c r="E779" t="inlineStr">
         <is>
@@ -19913,7 +19913,7 @@
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>01/12/2006</t>
+          <t>01/04/2006</t>
         </is>
       </c>
       <c r="B780" t="inlineStr">
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D780" t="n">
-        <v>25271</v>
+        <v>24527</v>
       </c>
       <c r="E780" t="inlineStr">
         <is>
@@ -19938,7 +19938,7 @@
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>01/02/2006</t>
+          <t>01/08/2006</t>
         </is>
       </c>
       <c r="B781" t="inlineStr">
@@ -19952,7 +19952,7 @@
         </is>
       </c>
       <c r="D781" t="n">
-        <v>23056</v>
+        <v>25491</v>
       </c>
       <c r="E781" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>01/01/2006</t>
+          <t>01/12/2006</t>
         </is>
       </c>
       <c r="B782" t="inlineStr">
@@ -19977,7 +19977,7 @@
         </is>
       </c>
       <c r="D782" t="n">
-        <v>24843</v>
+        <v>25271</v>
       </c>
       <c r="E782" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>01/07/2006</t>
+          <t>01/02/2006</t>
         </is>
       </c>
       <c r="B783" t="inlineStr">
@@ -20002,7 +20002,7 @@
         </is>
       </c>
       <c r="D783" t="n">
-        <v>25344</v>
+        <v>23056</v>
       </c>
       <c r="E783" t="inlineStr">
         <is>
@@ -20013,7 +20013,7 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>01/06/2006</t>
+          <t>01/01/2006</t>
         </is>
       </c>
       <c r="B784" t="inlineStr">
@@ -20027,7 +20027,7 @@
         </is>
       </c>
       <c r="D784" t="n">
-        <v>25090</v>
+        <v>24843</v>
       </c>
       <c r="E784" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>01/05/2006</t>
+          <t>01/07/2006</t>
         </is>
       </c>
       <c r="B785" t="inlineStr">
@@ -20052,7 +20052,7 @@
         </is>
       </c>
       <c r="D785" t="n">
-        <v>25719</v>
+        <v>25344</v>
       </c>
       <c r="E785" t="inlineStr">
         <is>
@@ -20063,7 +20063,7 @@
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>01/03/2006</t>
+          <t>01/06/2006</t>
         </is>
       </c>
       <c r="B786" t="inlineStr">
@@ -20077,7 +20077,7 @@
         </is>
       </c>
       <c r="D786" t="n">
-        <v>11740</v>
+        <v>25090</v>
       </c>
       <c r="E786" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>01/11/2006</t>
+          <t>01/05/2006</t>
         </is>
       </c>
       <c r="B787" t="inlineStr">
@@ -20102,7 +20102,7 @@
         </is>
       </c>
       <c r="D787" t="n">
-        <v>23278</v>
+        <v>25719</v>
       </c>
       <c r="E787" t="inlineStr">
         <is>
@@ -20113,7 +20113,7 @@
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>01/10/2006</t>
+          <t>01/03/2006</t>
         </is>
       </c>
       <c r="B788" t="inlineStr">
@@ -20127,7 +20127,7 @@
         </is>
       </c>
       <c r="D788" t="n">
-        <v>23622</v>
+        <v>11740</v>
       </c>
       <c r="E788" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>01/09/2006</t>
+          <t>01/11/2006</t>
         </is>
       </c>
       <c r="B789" t="inlineStr">
@@ -20152,7 +20152,7 @@
         </is>
       </c>
       <c r="D789" t="n">
-        <v>24562</v>
+        <v>23278</v>
       </c>
       <c r="E789" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>01/04/2007</t>
+          <t>01/10/2006</t>
         </is>
       </c>
       <c r="B790" t="inlineStr">
@@ -20177,7 +20177,7 @@
         </is>
       </c>
       <c r="D790" t="n">
-        <v>21384</v>
+        <v>23622</v>
       </c>
       <c r="E790" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>01/08/2007</t>
+          <t>01/09/2006</t>
         </is>
       </c>
       <c r="B791" t="inlineStr">
@@ -20202,7 +20202,7 @@
         </is>
       </c>
       <c r="D791" t="n">
-        <v>23805</v>
+        <v>24562</v>
       </c>
       <c r="E791" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>01/12/2007</t>
+          <t>01/04/2007</t>
         </is>
       </c>
       <c r="B792" t="inlineStr">
@@ -20227,7 +20227,7 @@
         </is>
       </c>
       <c r="D792" t="n">
-        <v>22898</v>
+        <v>21384</v>
       </c>
       <c r="E792" t="inlineStr">
         <is>
@@ -20238,7 +20238,7 @@
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>01/02/2007</t>
+          <t>01/08/2007</t>
         </is>
       </c>
       <c r="B793" t="inlineStr">
@@ -20252,7 +20252,7 @@
         </is>
       </c>
       <c r="D793" t="n">
-        <v>21968</v>
+        <v>23805</v>
       </c>
       <c r="E793" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>01/01/2007</t>
+          <t>01/12/2007</t>
         </is>
       </c>
       <c r="B794" t="inlineStr">
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D794" t="n">
-        <v>25496</v>
+        <v>22898</v>
       </c>
       <c r="E794" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>01/07/2007</t>
+          <t>01/02/2007</t>
         </is>
       </c>
       <c r="B795" t="inlineStr">
@@ -20302,7 +20302,7 @@
         </is>
       </c>
       <c r="D795" t="n">
-        <v>23875</v>
+        <v>21968</v>
       </c>
       <c r="E795" t="inlineStr">
         <is>
@@ -20313,7 +20313,7 @@
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>01/06/2007</t>
+          <t>01/01/2007</t>
         </is>
       </c>
       <c r="B796" t="inlineStr">
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D796" t="n">
-        <v>22080</v>
+        <v>25496</v>
       </c>
       <c r="E796" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>01/05/2007</t>
+          <t>01/07/2007</t>
         </is>
       </c>
       <c r="B797" t="inlineStr">
@@ -20352,7 +20352,7 @@
         </is>
       </c>
       <c r="D797" t="n">
-        <v>18737</v>
+        <v>23875</v>
       </c>
       <c r="E797" t="inlineStr">
         <is>
@@ -20363,7 +20363,7 @@
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>01/03/2007</t>
+          <t>01/06/2007</t>
         </is>
       </c>
       <c r="B798" t="inlineStr">
@@ -20377,7 +20377,7 @@
         </is>
       </c>
       <c r="D798" t="n">
-        <v>24212</v>
+        <v>22080</v>
       </c>
       <c r="E798" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>01/11/2007</t>
+          <t>01/05/2007</t>
         </is>
       </c>
       <c r="B799" t="inlineStr">
@@ -20402,7 +20402,7 @@
         </is>
       </c>
       <c r="D799" t="n">
-        <v>22033</v>
+        <v>18737</v>
       </c>
       <c r="E799" t="inlineStr">
         <is>
@@ -20413,7 +20413,7 @@
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>01/10/2007</t>
+          <t>01/03/2007</t>
         </is>
       </c>
       <c r="B800" t="inlineStr">
@@ -20427,7 +20427,7 @@
         </is>
       </c>
       <c r="D800" t="n">
-        <v>23866</v>
+        <v>24212</v>
       </c>
       <c r="E800" t="inlineStr">
         <is>
@@ -20438,7 +20438,7 @@
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>01/09/2007</t>
+          <t>01/11/2007</t>
         </is>
       </c>
       <c r="B801" t="inlineStr">
@@ -20452,7 +20452,7 @@
         </is>
       </c>
       <c r="D801" t="n">
-        <v>24017</v>
+        <v>22033</v>
       </c>
       <c r="E801" t="inlineStr">
         <is>
@@ -20463,7 +20463,7 @@
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>01/04/2008</t>
+          <t>01/10/2007</t>
         </is>
       </c>
       <c r="B802" t="inlineStr">
@@ -20477,7 +20477,7 @@
         </is>
       </c>
       <c r="D802" t="n">
-        <v>22341</v>
+        <v>23866</v>
       </c>
       <c r="E802" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>01/08/2008</t>
+          <t>01/09/2007</t>
         </is>
       </c>
       <c r="B803" t="inlineStr">
@@ -20502,7 +20502,7 @@
         </is>
       </c>
       <c r="D803" t="n">
-        <v>23413.9993</v>
+        <v>24017</v>
       </c>
       <c r="E803" t="inlineStr">
         <is>
@@ -20513,7 +20513,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>01/12/2008</t>
+          <t>01/04/2008</t>
         </is>
       </c>
       <c r="B804" t="inlineStr">
@@ -20527,7 +20527,7 @@
         </is>
       </c>
       <c r="D804" t="n">
-        <v>21243.0011</v>
+        <v>22341</v>
       </c>
       <c r="E804" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>01/02/2008</t>
+          <t>01/08/2008</t>
         </is>
       </c>
       <c r="B805" t="inlineStr">
@@ -20552,7 +20552,7 @@
         </is>
       </c>
       <c r="D805" t="n">
-        <v>20461</v>
+        <v>23413.9993</v>
       </c>
       <c r="E805" t="inlineStr">
         <is>
@@ -20563,7 +20563,7 @@
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>01/01/2008</t>
+          <t>01/12/2008</t>
         </is>
       </c>
       <c r="B806" t="inlineStr">
@@ -20577,7 +20577,7 @@
         </is>
       </c>
       <c r="D806" t="n">
-        <v>22454</v>
+        <v>21243.0011</v>
       </c>
       <c r="E806" t="inlineStr">
         <is>
@@ -20588,7 +20588,7 @@
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>01/07/2008</t>
+          <t>01/02/2008</t>
         </is>
       </c>
       <c r="B807" t="inlineStr">
@@ -20602,7 +20602,7 @@
         </is>
       </c>
       <c r="D807" t="n">
-        <v>22084.0001</v>
+        <v>20461</v>
       </c>
       <c r="E807" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>01/06/2008</t>
+          <t>01/01/2008</t>
         </is>
       </c>
       <c r="B808" t="inlineStr">
@@ -20627,7 +20627,7 @@
         </is>
       </c>
       <c r="D808" t="n">
-        <v>21446.001</v>
+        <v>22454</v>
       </c>
       <c r="E808" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>01/05/2008</t>
+          <t>01/07/2008</t>
         </is>
       </c>
       <c r="B809" t="inlineStr">
@@ -20652,7 +20652,7 @@
         </is>
       </c>
       <c r="D809" t="n">
-        <v>22333</v>
+        <v>22084.0001</v>
       </c>
       <c r="E809" t="inlineStr">
         <is>
@@ -20663,7 +20663,7 @@
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>01/03/2008</t>
+          <t>01/06/2008</t>
         </is>
       </c>
       <c r="B810" t="inlineStr">
@@ -20677,7 +20677,7 @@
         </is>
       </c>
       <c r="D810" t="n">
-        <v>22425</v>
+        <v>21446.001</v>
       </c>
       <c r="E810" t="inlineStr">
         <is>
@@ -20688,7 +20688,7 @@
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>01/11/2008</t>
+          <t>01/05/2008</t>
         </is>
       </c>
       <c r="B811" t="inlineStr">
@@ -20702,7 +20702,7 @@
         </is>
       </c>
       <c r="D811" t="n">
-        <v>20454</v>
+        <v>22333</v>
       </c>
       <c r="E811" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>01/03/2008</t>
         </is>
       </c>
       <c r="B812" t="inlineStr">
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D812" t="n">
-        <v>19738.9989</v>
+        <v>22425</v>
       </c>
       <c r="E812" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>01/09/2008</t>
+          <t>01/11/2008</t>
         </is>
       </c>
       <c r="B813" t="inlineStr">
@@ -20752,7 +20752,7 @@
         </is>
       </c>
       <c r="D813" t="n">
-        <v>21581.001</v>
+        <v>20454</v>
       </c>
       <c r="E813" t="inlineStr">
         <is>
@@ -20763,7 +20763,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>01/04/2009</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="B814" t="inlineStr">
@@ -20777,7 +20777,7 @@
         </is>
       </c>
       <c r="D814" t="n">
-        <v>20352.999</v>
+        <v>19738.9989</v>
       </c>
       <c r="E814" t="inlineStr">
         <is>
@@ -20788,7 +20788,7 @@
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>01/08/2009</t>
+          <t>01/09/2008</t>
         </is>
       </c>
       <c r="B815" t="inlineStr">
@@ -20802,7 +20802,7 @@
         </is>
       </c>
       <c r="D815" t="n">
-        <v>19636.0014</v>
+        <v>21581.001</v>
       </c>
       <c r="E815" t="inlineStr">
         <is>
@@ -20813,7 +20813,7 @@
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>01/12/2009</t>
+          <t>01/04/2009</t>
         </is>
       </c>
       <c r="B816" t="inlineStr">
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="D816" t="n">
-        <v>20058.9995</v>
+        <v>20352.999</v>
       </c>
       <c r="E816" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>01/02/2009</t>
+          <t>01/08/2009</t>
         </is>
       </c>
       <c r="B817" t="inlineStr">
@@ -20852,7 +20852,7 @@
         </is>
       </c>
       <c r="D817" t="n">
-        <v>18858.9996</v>
+        <v>19636.0014</v>
       </c>
       <c r="E817" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>01/01/2009</t>
+          <t>01/12/2009</t>
         </is>
       </c>
       <c r="B818" t="inlineStr">
@@ -20877,7 +20877,7 @@
         </is>
       </c>
       <c r="D818" t="n">
-        <v>22225.0005</v>
+        <v>20058.9995</v>
       </c>
       <c r="E818" t="inlineStr">
         <is>
@@ -20888,7 +20888,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>01/07/2009</t>
+          <t>01/02/2009</t>
         </is>
       </c>
       <c r="B819" t="inlineStr">
@@ -20902,7 +20902,7 @@
         </is>
       </c>
       <c r="D819" t="n">
-        <v>20578.0015</v>
+        <v>18858.9996</v>
       </c>
       <c r="E819" t="inlineStr">
         <is>
@@ -20913,7 +20913,7 @@
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>01/06/2009</t>
+          <t>01/01/2009</t>
         </is>
       </c>
       <c r="B820" t="inlineStr">
@@ -20927,7 +20927,7 @@
         </is>
       </c>
       <c r="D820" t="n">
-        <v>20096.001</v>
+        <v>22225.0005</v>
       </c>
       <c r="E820" t="inlineStr">
         <is>
@@ -20938,7 +20938,7 @@
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>01/05/2009</t>
+          <t>01/07/2009</t>
         </is>
       </c>
       <c r="B821" t="inlineStr">
@@ -20952,7 +20952,7 @@
         </is>
       </c>
       <c r="D821" t="n">
-        <v>20487.001</v>
+        <v>20578.0015</v>
       </c>
       <c r="E821" t="inlineStr">
         <is>
@@ -20963,7 +20963,7 @@
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>01/03/2009</t>
+          <t>01/06/2009</t>
         </is>
       </c>
       <c r="B822" t="inlineStr">
@@ -20977,7 +20977,7 @@
         </is>
       </c>
       <c r="D822" t="n">
-        <v>21078.9987</v>
+        <v>20096.001</v>
       </c>
       <c r="E822" t="inlineStr">
         <is>
@@ -20988,7 +20988,7 @@
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>01/11/2009</t>
+          <t>01/05/2009</t>
         </is>
       </c>
       <c r="B823" t="inlineStr">
@@ -21002,7 +21002,7 @@
         </is>
       </c>
       <c r="D823" t="n">
-        <v>19530</v>
+        <v>20487.001</v>
       </c>
       <c r="E823" t="inlineStr">
         <is>
@@ -21013,7 +21013,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>01/10/2009</t>
+          <t>01/03/2009</t>
         </is>
       </c>
       <c r="B824" t="inlineStr">
@@ -21027,7 +21027,7 @@
         </is>
       </c>
       <c r="D824" t="n">
-        <v>19538.0011</v>
+        <v>21078.9987</v>
       </c>
       <c r="E824" t="inlineStr">
         <is>
@@ -21038,7 +21038,7 @@
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>01/09/2009</t>
+          <t>01/11/2009</t>
         </is>
       </c>
       <c r="B825" t="inlineStr">
@@ -21052,7 +21052,7 @@
         </is>
       </c>
       <c r="D825" t="n">
-        <v>19464</v>
+        <v>19530</v>
       </c>
       <c r="E825" t="inlineStr">
         <is>
@@ -21063,7 +21063,7 @@
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>01/04/2010</t>
+          <t>01/10/2009</t>
         </is>
       </c>
       <c r="B826" t="inlineStr">
@@ -21077,7 +21077,7 @@
         </is>
       </c>
       <c r="D826" t="n">
-        <v>18477</v>
+        <v>19538.0011</v>
       </c>
       <c r="E826" t="inlineStr">
         <is>
@@ -21088,7 +21088,7 @@
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>01/08/2010</t>
+          <t>01/09/2009</t>
         </is>
       </c>
       <c r="B827" t="inlineStr">
@@ -21102,7 +21102,7 @@
         </is>
       </c>
       <c r="D827" t="n">
-        <v>19472</v>
+        <v>19464</v>
       </c>
       <c r="E827" t="inlineStr">
         <is>
@@ -21113,7 +21113,7 @@
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>01/12/2010</t>
+          <t>01/04/2010</t>
         </is>
       </c>
       <c r="B828" t="inlineStr">
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D828" t="n">
-        <v>19253</v>
+        <v>18477</v>
       </c>
       <c r="E828" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>01/02/2010</t>
+          <t>01/08/2010</t>
         </is>
       </c>
       <c r="B829" t="inlineStr">
@@ -21152,7 +21152,7 @@
         </is>
       </c>
       <c r="D829" t="n">
-        <v>17250</v>
+        <v>19472</v>
       </c>
       <c r="E829" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>01/01/2010</t>
+          <t>01/12/2010</t>
         </is>
       </c>
       <c r="B830" t="inlineStr">
@@ -21177,7 +21177,7 @@
         </is>
       </c>
       <c r="D830" t="n">
-        <v>19822</v>
+        <v>19253</v>
       </c>
       <c r="E830" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>01/07/2010</t>
+          <t>01/02/2010</t>
         </is>
       </c>
       <c r="B831" t="inlineStr">
@@ -21202,7 +21202,7 @@
         </is>
       </c>
       <c r="D831" t="n">
-        <v>19943</v>
+        <v>17250</v>
       </c>
       <c r="E831" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>01/06/2010</t>
+          <t>01/01/2010</t>
         </is>
       </c>
       <c r="B832" t="inlineStr">
@@ -21227,7 +21227,7 @@
         </is>
       </c>
       <c r="D832" t="n">
-        <v>18899</v>
+        <v>19822</v>
       </c>
       <c r="E832" t="inlineStr">
         <is>
@@ -21238,7 +21238,7 @@
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>01/05/2010</t>
+          <t>01/07/2010</t>
         </is>
       </c>
       <c r="B833" t="inlineStr">
@@ -21252,7 +21252,7 @@
         </is>
       </c>
       <c r="D833" t="n">
-        <v>19225</v>
+        <v>19943</v>
       </c>
       <c r="E833" t="inlineStr">
         <is>
@@ -21263,7 +21263,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>01/03/2010</t>
+          <t>01/06/2010</t>
         </is>
       </c>
       <c r="B834" t="inlineStr">
@@ -21277,7 +21277,7 @@
         </is>
       </c>
       <c r="D834" t="n">
-        <v>18557</v>
+        <v>18899</v>
       </c>
       <c r="E834" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>01/11/2010</t>
+          <t>01/05/2010</t>
         </is>
       </c>
       <c r="B835" t="inlineStr">
@@ -21302,7 +21302,7 @@
         </is>
       </c>
       <c r="D835" t="n">
-        <v>18252</v>
+        <v>19225</v>
       </c>
       <c r="E835" t="inlineStr">
         <is>
@@ -21313,7 +21313,7 @@
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>01/10/2010</t>
+          <t>01/03/2010</t>
         </is>
       </c>
       <c r="B836" t="inlineStr">
@@ -21327,7 +21327,7 @@
         </is>
       </c>
       <c r="D836" t="n">
-        <v>19679</v>
+        <v>18557</v>
       </c>
       <c r="E836" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>01/09/2010</t>
+          <t>01/11/2010</t>
         </is>
       </c>
       <c r="B837" t="inlineStr">
@@ -21352,7 +21352,7 @@
         </is>
       </c>
       <c r="D837" t="n">
-        <v>18162</v>
+        <v>18252</v>
       </c>
       <c r="E837" t="inlineStr">
         <is>
@@ -21363,7 +21363,7 @@
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>01/04/2011</t>
+          <t>01/10/2010</t>
         </is>
       </c>
       <c r="B838" t="inlineStr">
@@ -21377,7 +21377,7 @@
         </is>
       </c>
       <c r="D838" t="n">
-        <v>14211.9</v>
+        <v>19679</v>
       </c>
       <c r="E838" t="inlineStr">
         <is>
@@ -21388,7 +21388,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>01/08/2011</t>
+          <t>01/09/2010</t>
         </is>
       </c>
       <c r="B839" t="inlineStr">
@@ -21402,7 +21402,7 @@
         </is>
       </c>
       <c r="D839" t="n">
-        <v>15656.1</v>
+        <v>18162</v>
       </c>
       <c r="E839" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>01/12/2011</t>
+          <t>01/04/2011</t>
         </is>
       </c>
       <c r="B840" t="inlineStr">
@@ -21427,7 +21427,7 @@
         </is>
       </c>
       <c r="D840" t="n">
-        <v>16836.5</v>
+        <v>14211.9</v>
       </c>
       <c r="E840" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>01/02/2011</t>
+          <t>01/08/2011</t>
         </is>
       </c>
       <c r="B841" t="inlineStr">
@@ -21452,7 +21452,7 @@
         </is>
       </c>
       <c r="D841" t="n">
-        <v>15945.6</v>
+        <v>15656.1</v>
       </c>
       <c r="E841" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>01/01/2011</t>
+          <t>01/12/2011</t>
         </is>
       </c>
       <c r="B842" t="inlineStr">
@@ -21477,7 +21477,7 @@
         </is>
       </c>
       <c r="D842" t="n">
-        <v>18522.8</v>
+        <v>16836.5</v>
       </c>
       <c r="E842" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>01/07/2011</t>
+          <t>01/02/2011</t>
         </is>
       </c>
       <c r="B843" t="inlineStr">
@@ -21502,7 +21502,7 @@
         </is>
       </c>
       <c r="D843" t="n">
-        <v>14478.2</v>
+        <v>15945.6</v>
       </c>
       <c r="E843" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>01/06/2011</t>
+          <t>01/01/2011</t>
         </is>
       </c>
       <c r="B844" t="inlineStr">
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D844" t="n">
-        <v>15871.3</v>
+        <v>18522.8</v>
       </c>
       <c r="E844" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>01/05/2011</t>
+          <t>01/07/2011</t>
         </is>
       </c>
       <c r="B845" t="inlineStr">
@@ -21552,7 +21552,7 @@
         </is>
       </c>
       <c r="D845" t="n">
-        <v>17668.9</v>
+        <v>14478.2</v>
       </c>
       <c r="E845" t="inlineStr">
         <is>
@@ -21563,7 +21563,7 @@
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>01/03/2011</t>
+          <t>01/06/2011</t>
         </is>
       </c>
       <c r="B846" t="inlineStr">
@@ -21577,7 +21577,7 @@
         </is>
       </c>
       <c r="D846" t="n">
-        <v>10940.8</v>
+        <v>15871.3</v>
       </c>
       <c r="E846" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>01/11/2011</t>
+          <t>01/05/2011</t>
         </is>
       </c>
       <c r="B847" t="inlineStr">
@@ -21602,7 +21602,7 @@
         </is>
       </c>
       <c r="D847" t="n">
-        <v>15787.4</v>
+        <v>17668.9</v>
       </c>
       <c r="E847" t="inlineStr">
         <is>
@@ -21613,7 +21613,7 @@
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>01/10/2011</t>
+          <t>01/03/2011</t>
         </is>
       </c>
       <c r="B848" t="inlineStr">
@@ -21627,7 +21627,7 @@
         </is>
       </c>
       <c r="D848" t="n">
-        <v>16134.4</v>
+        <v>10940.8</v>
       </c>
       <c r="E848" t="inlineStr">
         <is>
@@ -21638,7 +21638,7 @@
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>01/09/2011</t>
+          <t>01/11/2011</t>
         </is>
       </c>
       <c r="B849" t="inlineStr">
@@ -21652,7 +21652,7 @@
         </is>
       </c>
       <c r="D849" t="n">
-        <v>15096.4</v>
+        <v>15787.4</v>
       </c>
       <c r="E849" t="inlineStr">
         <is>
@@ -21663,7 +21663,7 @@
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>01/04/2012</t>
+          <t>01/10/2011</t>
         </is>
       </c>
       <c r="B850" t="inlineStr">
@@ -21677,7 +21677,7 @@
         </is>
       </c>
       <c r="D850" t="n">
-        <v>10707.1</v>
+        <v>16134.4</v>
       </c>
       <c r="E850" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>01/08/2012</t>
+          <t>01/09/2011</t>
         </is>
       </c>
       <c r="B851" t="inlineStr">
@@ -21702,7 +21702,7 @@
         </is>
       </c>
       <c r="D851" t="n">
-        <v>16193.1</v>
+        <v>15096.4</v>
       </c>
       <c r="E851" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>01/12/2012</t>
+          <t>01/04/2012</t>
         </is>
       </c>
       <c r="B852" t="inlineStr">
@@ -21727,7 +21727,7 @@
         </is>
       </c>
       <c r="D852" t="n">
-        <v>17393.3</v>
+        <v>10707.1</v>
       </c>
       <c r="E852" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>01/02/2012</t>
+          <t>01/08/2012</t>
         </is>
       </c>
       <c r="B853" t="inlineStr">
@@ -21752,7 +21752,7 @@
         </is>
       </c>
       <c r="D853" t="n">
-        <v>14260.4</v>
+        <v>16193.1</v>
       </c>
       <c r="E853" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>01/12/2012</t>
         </is>
       </c>
       <c r="B854" t="inlineStr">
@@ -21777,7 +21777,7 @@
         </is>
       </c>
       <c r="D854" t="n">
-        <v>16058.3</v>
+        <v>17393.3</v>
       </c>
       <c r="E854" t="inlineStr">
         <is>
@@ -21788,7 +21788,7 @@
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>01/07/2012</t>
+          <t>01/02/2012</t>
         </is>
       </c>
       <c r="B855" t="inlineStr">
@@ -21802,7 +21802,7 @@
         </is>
       </c>
       <c r="D855" t="n">
-        <v>12701.4</v>
+        <v>14260.4</v>
       </c>
       <c r="E855" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>01/06/2012</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="B856" t="inlineStr">
@@ -21827,7 +21827,7 @@
         </is>
       </c>
       <c r="D856" t="n">
-        <v>10851.8</v>
+        <v>16058.3</v>
       </c>
       <c r="E856" t="inlineStr">
         <is>
@@ -21838,7 +21838,7 @@
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>01/05/2012</t>
+          <t>01/07/2012</t>
         </is>
       </c>
       <c r="B857" t="inlineStr">
@@ -21852,7 +21852,7 @@
         </is>
       </c>
       <c r="D857" t="n">
-        <v>10692</v>
+        <v>12701.4</v>
       </c>
       <c r="E857" t="inlineStr">
         <is>
@@ -21863,7 +21863,7 @@
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>01/03/2012</t>
+          <t>01/06/2012</t>
         </is>
       </c>
       <c r="B858" t="inlineStr">
@@ -21877,7 +21877,7 @@
         </is>
       </c>
       <c r="D858" t="n">
-        <v>14311.3</v>
+        <v>10851.8</v>
       </c>
       <c r="E858" t="inlineStr">
         <is>
@@ -21888,7 +21888,7 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>01/11/2012</t>
+          <t>01/05/2012</t>
         </is>
       </c>
       <c r="B859" t="inlineStr">
@@ -21902,7 +21902,7 @@
         </is>
       </c>
       <c r="D859" t="n">
-        <v>16574.9</v>
+        <v>10692</v>
       </c>
       <c r="E859" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>01/10/2012</t>
+          <t>01/03/2012</t>
         </is>
       </c>
       <c r="B860" t="inlineStr">
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D860" t="n">
-        <v>13682.2</v>
+        <v>14311.3</v>
       </c>
       <c r="E860" t="inlineStr">
         <is>
@@ -21938,7 +21938,7 @@
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>01/09/2012</t>
+          <t>01/11/2012</t>
         </is>
       </c>
       <c r="B861" t="inlineStr">
@@ -21952,7 +21952,7 @@
         </is>
       </c>
       <c r="D861" t="n">
-        <v>12246</v>
+        <v>16574.9</v>
       </c>
       <c r="E861" t="inlineStr">
         <is>
@@ -21963,7 +21963,7 @@
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>01/04/2013</t>
+          <t>01/10/2012</t>
         </is>
       </c>
       <c r="B862" t="inlineStr">
@@ -21977,7 +21977,7 @@
         </is>
       </c>
       <c r="D862" t="n">
-        <v>15186.2</v>
+        <v>13682.2</v>
       </c>
       <c r="E862" t="inlineStr">
         <is>
@@ -21988,7 +21988,7 @@
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>01/08/2013</t>
+          <t>01/09/2012</t>
         </is>
       </c>
       <c r="B863" t="inlineStr">
@@ -22002,7 +22002,7 @@
         </is>
       </c>
       <c r="D863" t="n">
-        <v>14998.4</v>
+        <v>12246</v>
       </c>
       <c r="E863" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>01/12/2013</t>
+          <t>01/04/2013</t>
         </is>
       </c>
       <c r="B864" t="inlineStr">
@@ -22027,7 +22027,7 @@
         </is>
       </c>
       <c r="D864" t="n">
-        <v>15576.1</v>
+        <v>15186.2</v>
       </c>
       <c r="E864" t="inlineStr">
         <is>
@@ -22038,7 +22038,7 @@
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>01/02/2013</t>
+          <t>01/08/2013</t>
         </is>
       </c>
       <c r="B865" t="inlineStr">
@@ -22052,7 +22052,7 @@
         </is>
       </c>
       <c r="D865" t="n">
-        <v>14992.1</v>
+        <v>14998.4</v>
       </c>
       <c r="E865" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/12/2013</t>
         </is>
       </c>
       <c r="B866" t="inlineStr">
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D866" t="n">
-        <v>16653.1</v>
+        <v>15576.1</v>
       </c>
       <c r="E866" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>01/07/2013</t>
+          <t>01/02/2013</t>
         </is>
       </c>
       <c r="B867" t="inlineStr">
@@ -22102,7 +22102,7 @@
         </is>
       </c>
       <c r="D867" t="n">
-        <v>15326.3</v>
+        <v>14992.1</v>
       </c>
       <c r="E867" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>01/06/2013</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="B868" t="inlineStr">
@@ -22127,7 +22127,7 @@
         </is>
       </c>
       <c r="D868" t="n">
-        <v>15355.6</v>
+        <v>16653.1</v>
       </c>
       <c r="E868" t="inlineStr">
         <is>
@@ -22138,7 +22138,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>01/05/2013</t>
+          <t>01/07/2013</t>
         </is>
       </c>
       <c r="B869" t="inlineStr">
@@ -22152,7 +22152,7 @@
         </is>
       </c>
       <c r="D869" t="n">
-        <v>14825.2</v>
+        <v>15326.3</v>
       </c>
       <c r="E869" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>01/03/2013</t>
+          <t>01/06/2013</t>
         </is>
       </c>
       <c r="B870" t="inlineStr">
@@ -22177,7 +22177,7 @@
         </is>
       </c>
       <c r="D870" t="n">
-        <v>15537.2</v>
+        <v>15355.6</v>
       </c>
       <c r="E870" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>01/11/2013</t>
+          <t>01/05/2013</t>
         </is>
       </c>
       <c r="B871" t="inlineStr">
@@ -22202,7 +22202,7 @@
         </is>
       </c>
       <c r="D871" t="n">
-        <v>14997.2</v>
+        <v>14825.2</v>
       </c>
       <c r="E871" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>01/03/2013</t>
         </is>
       </c>
       <c r="B872" t="inlineStr">
@@ -22227,7 +22227,7 @@
         </is>
       </c>
       <c r="D872" t="n">
-        <v>14495.7</v>
+        <v>15537.2</v>
       </c>
       <c r="E872" t="inlineStr">
         <is>
@@ -22238,7 +22238,7 @@
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>01/09/2013</t>
+          <t>01/11/2013</t>
         </is>
       </c>
       <c r="B873" t="inlineStr">
@@ -22252,7 +22252,7 @@
         </is>
       </c>
       <c r="D873" t="n">
-        <v>14777.2</v>
+        <v>14997.2</v>
       </c>
       <c r="E873" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>01/04/2014</t>
+          <t>01/10/2013</t>
         </is>
       </c>
       <c r="B874" t="inlineStr">
@@ -22277,7 +22277,7 @@
         </is>
       </c>
       <c r="D874" t="n">
-        <v>15228.7</v>
+        <v>14495.7</v>
       </c>
       <c r="E874" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>01/08/2014</t>
+          <t>01/09/2013</t>
         </is>
       </c>
       <c r="B875" t="inlineStr">
@@ -22302,7 +22302,7 @@
         </is>
       </c>
       <c r="D875" t="n">
-        <v>14545.5</v>
+        <v>14777.2</v>
       </c>
       <c r="E875" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>01/12/2014</t>
+          <t>01/04/2014</t>
         </is>
       </c>
       <c r="B876" t="inlineStr">
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D876" t="n">
-        <v>13264.2</v>
+        <v>15228.7</v>
       </c>
       <c r="E876" t="inlineStr">
         <is>
@@ -22338,7 +22338,7 @@
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>01/02/2014</t>
+          <t>01/08/2014</t>
         </is>
       </c>
       <c r="B877" t="inlineStr">
@@ -22352,7 +22352,7 @@
         </is>
       </c>
       <c r="D877" t="n">
-        <v>13542.3</v>
+        <v>14545.5</v>
       </c>
       <c r="E877" t="inlineStr">
         <is>
@@ -22363,7 +22363,7 @@
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/12/2014</t>
         </is>
       </c>
       <c r="B878" t="inlineStr">
@@ -22377,7 +22377,7 @@
         </is>
       </c>
       <c r="D878" t="n">
-        <v>15019.1</v>
+        <v>13264.2</v>
       </c>
       <c r="E878" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
+          <t>01/02/2014</t>
         </is>
       </c>
       <c r="B879" t="inlineStr">
@@ -22402,7 +22402,7 @@
         </is>
       </c>
       <c r="D879" t="n">
-        <v>14900.7</v>
+        <v>13542.3</v>
       </c>
       <c r="E879" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>01/06/2014</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="B880" t="inlineStr">
@@ -22427,7 +22427,7 @@
         </is>
       </c>
       <c r="D880" t="n">
-        <v>14977.9</v>
+        <v>15019.1</v>
       </c>
       <c r="E880" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>01/05/2014</t>
+          <t>01/07/2014</t>
         </is>
       </c>
       <c r="B881" t="inlineStr">
@@ -22452,7 +22452,7 @@
         </is>
       </c>
       <c r="D881" t="n">
-        <v>16141.5</v>
+        <v>14900.7</v>
       </c>
       <c r="E881" t="inlineStr">
         <is>
@@ -22463,7 +22463,7 @@
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>01/03/2014</t>
+          <t>01/06/2014</t>
         </is>
       </c>
       <c r="B882" t="inlineStr">
@@ -22477,7 +22477,7 @@
         </is>
       </c>
       <c r="D882" t="n">
-        <v>15178.7</v>
+        <v>14977.9</v>
       </c>
       <c r="E882" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>01/11/2014</t>
+          <t>01/05/2014</t>
         </is>
       </c>
       <c r="B883" t="inlineStr">
@@ -22502,7 +22502,7 @@
         </is>
       </c>
       <c r="D883" t="n">
-        <v>11227.8</v>
+        <v>16141.5</v>
       </c>
       <c r="E883" t="inlineStr">
         <is>
@@ -22513,7 +22513,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>01/10/2014</t>
+          <t>01/03/2014</t>
         </is>
       </c>
       <c r="B884" t="inlineStr">
@@ -22527,7 +22527,7 @@
         </is>
       </c>
       <c r="D884" t="n">
-        <v>14384.8</v>
+        <v>15178.7</v>
       </c>
       <c r="E884" t="inlineStr">
         <is>
@@ -22538,7 +22538,7 @@
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>01/09/2014</t>
+          <t>01/11/2014</t>
         </is>
       </c>
       <c r="B885" t="inlineStr">
@@ -22552,7 +22552,7 @@
         </is>
       </c>
       <c r="D885" t="n">
-        <v>13936.6</v>
+        <v>11227.8</v>
       </c>
       <c r="E885" t="inlineStr">
         <is>
@@ -22563,7 +22563,7 @@
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>01/04/2015</t>
+          <t>01/10/2014</t>
         </is>
       </c>
       <c r="B886" t="inlineStr">
@@ -22577,7 +22577,7 @@
         </is>
       </c>
       <c r="D886" t="n">
-        <v>13917.8</v>
+        <v>14384.8</v>
       </c>
       <c r="E886" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>01/08/2015</t>
+          <t>01/09/2014</t>
         </is>
       </c>
       <c r="B887" t="inlineStr">
@@ -22602,7 +22602,7 @@
         </is>
       </c>
       <c r="D887" t="n">
-        <v>11403.3</v>
+        <v>13936.6</v>
       </c>
       <c r="E887" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>01/12/2015</t>
+          <t>01/04/2015</t>
         </is>
       </c>
       <c r="B888" t="inlineStr">
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="D888" t="n">
-        <v>9425.700000000001</v>
+        <v>13917.8</v>
       </c>
       <c r="E888" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>01/02/2015</t>
+          <t>01/08/2015</t>
         </is>
       </c>
       <c r="B889" t="inlineStr">
@@ -22652,7 +22652,7 @@
         </is>
       </c>
       <c r="D889" t="n">
-        <v>13004.4</v>
+        <v>11403.3</v>
       </c>
       <c r="E889" t="inlineStr">
         <is>
@@ -22663,7 +22663,7 @@
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/12/2015</t>
         </is>
       </c>
       <c r="B890" t="inlineStr">
@@ -22677,7 +22677,7 @@
         </is>
       </c>
       <c r="D890" t="n">
-        <v>14478.2</v>
+        <v>9425.700000000001</v>
       </c>
       <c r="E890" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>01/07/2015</t>
+          <t>01/02/2015</t>
         </is>
       </c>
       <c r="B891" t="inlineStr">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="D891" t="n">
-        <v>11946.4</v>
+        <v>13004.4</v>
       </c>
       <c r="E891" t="inlineStr">
         <is>
@@ -22713,7 +22713,7 @@
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>01/06/2015</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="B892" t="inlineStr">
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D892" t="n">
-        <v>12385.6</v>
+        <v>14478.2</v>
       </c>
       <c r="E892" t="inlineStr">
         <is>
@@ -22738,7 +22738,7 @@
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>01/05/2015</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="B893" t="inlineStr">
@@ -22752,7 +22752,7 @@
         </is>
       </c>
       <c r="D893" t="n">
-        <v>12823.9</v>
+        <v>11946.4</v>
       </c>
       <c r="E893" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>01/03/2015</t>
+          <t>01/06/2015</t>
         </is>
       </c>
       <c r="B894" t="inlineStr">
@@ -22777,7 +22777,7 @@
         </is>
       </c>
       <c r="D894" t="n">
-        <v>14916.8</v>
+        <v>12385.6</v>
       </c>
       <c r="E894" t="inlineStr">
         <is>
@@ -22788,7 +22788,7 @@
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>01/11/2015</t>
+          <t>01/05/2015</t>
         </is>
       </c>
       <c r="B895" t="inlineStr">
@@ -22802,7 +22802,7 @@
         </is>
       </c>
       <c r="D895" t="n">
-        <v>5361.7</v>
+        <v>12823.9</v>
       </c>
       <c r="E895" t="inlineStr">
         <is>
@@ -22813,7 +22813,7 @@
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/03/2015</t>
         </is>
       </c>
       <c r="B896" t="inlineStr">
@@ -22827,7 +22827,7 @@
         </is>
       </c>
       <c r="D896" t="n">
-        <v>11384.7</v>
+        <v>14916.8</v>
       </c>
       <c r="E896" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>01/09/2015</t>
+          <t>01/11/2015</t>
         </is>
       </c>
       <c r="B897" t="inlineStr">
@@ -22852,7 +22852,7 @@
         </is>
       </c>
       <c r="D897" t="n">
-        <v>11927.3</v>
+        <v>5361.7</v>
       </c>
       <c r="E897" t="inlineStr">
         <is>
@@ -22863,7 +22863,7 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>01/04/2016</t>
+          <t>01/10/2015</t>
         </is>
       </c>
       <c r="B898" t="inlineStr">
@@ -22877,7 +22877,7 @@
         </is>
       </c>
       <c r="D898" t="n">
-        <v>9074.1</v>
+        <v>11384.7</v>
       </c>
       <c r="E898" t="inlineStr">
         <is>
@@ -22888,7 +22888,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>01/08/2016</t>
+          <t>01/09/2015</t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
@@ -22902,7 +22902,7 @@
         </is>
       </c>
       <c r="D899" t="n">
-        <v>9273.799999999999</v>
+        <v>11927.3</v>
       </c>
       <c r="E899" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>01/12/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
@@ -22927,7 +22927,7 @@
         </is>
       </c>
       <c r="D900" t="n">
-        <v>3213.5</v>
+        <v>9074.1</v>
       </c>
       <c r="E900" t="inlineStr">
         <is>
@@ -22938,7 +22938,7 @@
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>01/02/2016</t>
+          <t>01/08/2016</t>
         </is>
       </c>
       <c r="B901" t="inlineStr">
@@ -22952,7 +22952,7 @@
         </is>
       </c>
       <c r="D901" t="n">
-        <v>8886.4</v>
+        <v>9273.799999999999</v>
       </c>
       <c r="E901" t="inlineStr">
         <is>
@@ -22963,7 +22963,7 @@
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/12/2016</t>
         </is>
       </c>
       <c r="B902" t="inlineStr">
@@ -22977,7 +22977,7 @@
         </is>
       </c>
       <c r="D902" t="n">
-        <v>9118.200000000001</v>
+        <v>3213.5</v>
       </c>
       <c r="E902" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
+          <t>01/02/2016</t>
         </is>
       </c>
       <c r="B903" t="inlineStr">
@@ -23002,7 +23002,7 @@
         </is>
       </c>
       <c r="D903" t="n">
-        <v>9093.799999999999</v>
+        <v>8886.4</v>
       </c>
       <c r="E903" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>01/06/2016</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="B904" t="inlineStr">
@@ -23027,7 +23027,7 @@
         </is>
       </c>
       <c r="D904" t="n">
-        <v>8134.5</v>
+        <v>9118.200000000001</v>
       </c>
       <c r="E904" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>01/05/2016</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="B905" t="inlineStr">
@@ -23052,7 +23052,7 @@
         </is>
       </c>
       <c r="D905" t="n">
-        <v>9412.299999999999</v>
+        <v>9093.799999999999</v>
       </c>
       <c r="E905" t="inlineStr">
         <is>
@@ -23063,7 +23063,7 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>01/03/2016</t>
+          <t>01/06/2016</t>
         </is>
       </c>
       <c r="B906" t="inlineStr">
@@ -23077,7 +23077,7 @@
         </is>
       </c>
       <c r="D906" t="n">
-        <v>9861.1</v>
+        <v>8134.5</v>
       </c>
       <c r="E906" t="inlineStr">
         <is>
@@ -23088,7 +23088,7 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>01/11/2016</t>
+          <t>01/05/2016</t>
         </is>
       </c>
       <c r="B907" t="inlineStr">
@@ -23102,7 +23102,7 @@
         </is>
       </c>
       <c r="D907" t="n">
-        <v>7657.6</v>
+        <v>9412.299999999999</v>
       </c>
       <c r="E907" t="inlineStr">
         <is>
@@ -23113,7 +23113,7 @@
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/03/2016</t>
         </is>
       </c>
       <c r="B908" t="inlineStr">
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D908" t="n">
-        <v>8933.1</v>
+        <v>9861.1</v>
       </c>
       <c r="E908" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>01/09/2016</t>
+          <t>01/11/2016</t>
         </is>
       </c>
       <c r="B909" t="inlineStr">
@@ -23152,7 +23152,7 @@
         </is>
       </c>
       <c r="D909" t="n">
-        <v>8977.299999999999</v>
+        <v>7657.6</v>
       </c>
       <c r="E909" t="inlineStr">
         <is>
@@ -23163,7 +23163,7 @@
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>01/04/2017</t>
+          <t>01/10/2016</t>
         </is>
       </c>
       <c r="B910" t="inlineStr">
@@ -23177,7 +23177,7 @@
         </is>
       </c>
       <c r="D910" t="n">
-        <v>6856.1</v>
+        <v>8933.1</v>
       </c>
       <c r="E910" t="inlineStr">
         <is>
@@ -23188,7 +23188,7 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>01/08/2017</t>
+          <t>01/09/2016</t>
         </is>
       </c>
       <c r="B911" t="inlineStr">
@@ -23202,7 +23202,7 @@
         </is>
       </c>
       <c r="D911" t="n">
-        <v>7185.4</v>
+        <v>8977.299999999999</v>
       </c>
       <c r="E911" t="inlineStr">
         <is>
@@ -23213,7 +23213,7 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>01/12/2017</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="B912" t="inlineStr">
@@ -23227,7 +23227,7 @@
         </is>
       </c>
       <c r="D912" t="n">
-        <v>9617.700000000001</v>
+        <v>6856.1</v>
       </c>
       <c r="E912" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>01/02/2017</t>
+          <t>01/08/2017</t>
         </is>
       </c>
       <c r="B913" t="inlineStr">
@@ -23252,7 +23252,7 @@
         </is>
       </c>
       <c r="D913" t="n">
-        <v>6279.5</v>
+        <v>7185.4</v>
       </c>
       <c r="E913" t="inlineStr">
         <is>
@@ -23263,7 +23263,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/12/2017</t>
         </is>
       </c>
       <c r="B914" t="inlineStr">
@@ -23277,7 +23277,7 @@
         </is>
       </c>
       <c r="D914" t="n">
-        <v>7743.8</v>
+        <v>9617.700000000001</v>
       </c>
       <c r="E914" t="inlineStr">
         <is>
@@ -23288,7 +23288,7 @@
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
+          <t>01/02/2017</t>
         </is>
       </c>
       <c r="B915" t="inlineStr">
@@ -23302,7 +23302,7 @@
         </is>
       </c>
       <c r="D915" t="n">
-        <v>6753.2</v>
+        <v>6279.5</v>
       </c>
       <c r="E915" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>01/06/2017</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="B916" t="inlineStr">
@@ -23327,7 +23327,7 @@
         </is>
       </c>
       <c r="D916" t="n">
-        <v>6679</v>
+        <v>7743.8</v>
       </c>
       <c r="E916" t="inlineStr">
         <is>
@@ -23338,7 +23338,7 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>01/05/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="B917" t="inlineStr">
@@ -23352,7 +23352,7 @@
         </is>
       </c>
       <c r="D917" t="n">
-        <v>6777</v>
+        <v>6753.2</v>
       </c>
       <c r="E917" t="inlineStr">
         <is>
@@ -23363,7 +23363,7 @@
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>01/03/2017</t>
+          <t>01/06/2017</t>
         </is>
       </c>
       <c r="B918" t="inlineStr">
@@ -23377,7 +23377,7 @@
         </is>
       </c>
       <c r="D918" t="n">
-        <v>7180</v>
+        <v>6679</v>
       </c>
       <c r="E918" t="inlineStr">
         <is>
@@ -23388,7 +23388,7 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>01/11/2017</t>
+          <t>01/05/2017</t>
         </is>
       </c>
       <c r="B919" t="inlineStr">
@@ -23402,7 +23402,7 @@
         </is>
       </c>
       <c r="D919" t="n">
-        <v>7720.9</v>
+        <v>6777</v>
       </c>
       <c r="E919" t="inlineStr">
         <is>
@@ -23413,7 +23413,7 @@
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/03/2017</t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
@@ -23427,7 +23427,7 @@
         </is>
       </c>
       <c r="D920" t="n">
-        <v>7765.07</v>
+        <v>7180</v>
       </c>
       <c r="E920" t="inlineStr">
         <is>
@@ -23438,7 +23438,7 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>01/09/2017</t>
+          <t>01/11/2017</t>
         </is>
       </c>
       <c r="B921" t="inlineStr">
@@ -23452,7 +23452,7 @@
         </is>
       </c>
       <c r="D921" t="n">
-        <v>7191.4</v>
+        <v>7720.9</v>
       </c>
       <c r="E921" t="inlineStr">
         <is>
@@ -23463,7 +23463,7 @@
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>01/04/2018</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="B922" t="inlineStr">
@@ -23477,7 +23477,7 @@
         </is>
       </c>
       <c r="D922" t="n">
-        <v>6020</v>
+        <v>7765.07</v>
       </c>
       <c r="E922" t="inlineStr">
         <is>
@@ -23488,7 +23488,7 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>01/08/2018</t>
+          <t>01/09/2017</t>
         </is>
       </c>
       <c r="B923" t="inlineStr">
@@ -23502,7 +23502,7 @@
         </is>
       </c>
       <c r="D923" t="n">
-        <v>5969</v>
+        <v>7191.4</v>
       </c>
       <c r="E923" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>01/12/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="B924" t="inlineStr">
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D924" t="n">
-        <v>6061</v>
+        <v>6020</v>
       </c>
       <c r="E924" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>01/02/2018</t>
+          <t>01/08/2018</t>
         </is>
       </c>
       <c r="B925" t="inlineStr">
@@ -23552,7 +23552,7 @@
         </is>
       </c>
       <c r="D925" t="n">
-        <v>6141.6</v>
+        <v>5969</v>
       </c>
       <c r="E925" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/12/2018</t>
         </is>
       </c>
       <c r="B926" t="inlineStr">
@@ -23577,7 +23577,7 @@
         </is>
       </c>
       <c r="D926" t="n">
-        <v>7289.478</v>
+        <v>6061</v>
       </c>
       <c r="E926" t="inlineStr">
         <is>
@@ -23588,7 +23588,7 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>01/02/2018</t>
         </is>
       </c>
       <c r="B927" t="inlineStr">
@@ -23602,7 +23602,7 @@
         </is>
       </c>
       <c r="D927" t="n">
-        <v>5621.504</v>
+        <v>6141.6</v>
       </c>
       <c r="E927" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>01/06/2018</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="B928" t="inlineStr">
@@ -23627,7 +23627,7 @@
         </is>
       </c>
       <c r="D928" t="n">
-        <v>5487.042</v>
+        <v>7289.478</v>
       </c>
       <c r="E928" t="inlineStr">
         <is>
@@ -23638,7 +23638,7 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>01/05/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="B929" t="inlineStr">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="D929" t="n">
-        <v>5549.7</v>
+        <v>5621.504</v>
       </c>
       <c r="E929" t="inlineStr">
         <is>
@@ -23663,7 +23663,7 @@
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>01/03/2018</t>
+          <t>01/06/2018</t>
         </is>
       </c>
       <c r="B930" t="inlineStr">
@@ -23677,7 +23677,7 @@
         </is>
       </c>
       <c r="D930" t="n">
-        <v>6426.258</v>
+        <v>5487.042</v>
       </c>
       <c r="E930" t="inlineStr">
         <is>
@@ -23688,7 +23688,7 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>01/11/2018</t>
+          <t>01/05/2018</t>
         </is>
       </c>
       <c r="B931" t="inlineStr">
@@ -23702,7 +23702,7 @@
         </is>
       </c>
       <c r="D931" t="n">
-        <v>5685.5</v>
+        <v>5549.7</v>
       </c>
       <c r="E931" t="inlineStr">
         <is>
@@ -23713,7 +23713,7 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/03/2018</t>
         </is>
       </c>
       <c r="B932" t="inlineStr">
@@ -23727,7 +23727,7 @@
         </is>
       </c>
       <c r="D932" t="n">
-        <v>5916.66</v>
+        <v>6426.258</v>
       </c>
       <c r="E932" t="inlineStr">
         <is>
@@ -23738,7 +23738,7 @@
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>01/09/2018</t>
+          <t>01/11/2018</t>
         </is>
       </c>
       <c r="B933" t="inlineStr">
@@ -23752,7 +23752,7 @@
         </is>
       </c>
       <c r="D933" t="n">
-        <v>5970.399</v>
+        <v>5685.5</v>
       </c>
       <c r="E933" t="inlineStr">
         <is>
@@ -23763,7 +23763,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="B934" t="inlineStr">
@@ -23777,7 +23777,7 @@
         </is>
       </c>
       <c r="D934" t="n">
-        <v>5391.2</v>
+        <v>5916.66</v>
       </c>
       <c r="E934" t="inlineStr">
         <is>
@@ -23788,7 +23788,7 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>01/08/2019</t>
+          <t>01/09/2018</t>
         </is>
       </c>
       <c r="B935" t="inlineStr">
@@ -23802,7 +23802,7 @@
         </is>
       </c>
       <c r="D935" t="n">
-        <v>4054.5</v>
+        <v>5970.399</v>
       </c>
       <c r="E935" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>01/12/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="B936" t="inlineStr">
@@ -23827,7 +23827,7 @@
         </is>
       </c>
       <c r="D936" t="n">
-        <v>4830.4</v>
+        <v>5391.2</v>
       </c>
       <c r="E936" t="inlineStr">
         <is>
@@ -23838,7 +23838,7 @@
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>01/02/2019</t>
+          <t>01/08/2019</t>
         </is>
       </c>
       <c r="B937" t="inlineStr">
@@ -23852,7 +23852,7 @@
         </is>
       </c>
       <c r="D937" t="n">
-        <v>3997.1</v>
+        <v>4054.5</v>
       </c>
       <c r="E937" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/12/2019</t>
         </is>
       </c>
       <c r="B938" t="inlineStr">
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D938" t="n">
-        <v>5711.1</v>
+        <v>4830.4</v>
       </c>
       <c r="E938" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/02/2019</t>
         </is>
       </c>
       <c r="B939" t="inlineStr">
@@ -23902,7 +23902,7 @@
         </is>
       </c>
       <c r="D939" t="n">
-        <v>4524.82</v>
+        <v>3997.1</v>
       </c>
       <c r="E939" t="inlineStr">
         <is>
@@ -23913,7 +23913,7 @@
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>01/06/2019</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="B940" t="inlineStr">
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D940" t="n">
-        <v>4716.577</v>
+        <v>5711.1</v>
       </c>
       <c r="E940" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>01/05/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="B941" t="inlineStr">
@@ -23952,7 +23952,7 @@
         </is>
       </c>
       <c r="D941" t="n">
-        <v>5361.2</v>
+        <v>4524.82</v>
       </c>
       <c r="E941" t="inlineStr">
         <is>
@@ -23963,7 +23963,7 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>01/03/2019</t>
+          <t>01/06/2019</t>
         </is>
       </c>
       <c r="B942" t="inlineStr">
@@ -23977,7 +23977,7 @@
         </is>
       </c>
       <c r="D942" t="n">
-        <v>4734.9</v>
+        <v>4716.577</v>
       </c>
       <c r="E942" t="inlineStr">
         <is>
@@ -23988,7 +23988,7 @@
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>01/11/2019</t>
+          <t>01/05/2019</t>
         </is>
       </c>
       <c r="B943" t="inlineStr">
@@ -24002,7 +24002,7 @@
         </is>
       </c>
       <c r="D943" t="n">
-        <v>3812.4</v>
+        <v>5361.2</v>
       </c>
       <c r="E943" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/03/2019</t>
         </is>
       </c>
       <c r="B944" t="inlineStr">
@@ -24027,7 +24027,7 @@
         </is>
       </c>
       <c r="D944" t="n">
-        <v>4339.8</v>
+        <v>4734.9</v>
       </c>
       <c r="E944" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>01/09/2019</t>
+          <t>01/11/2019</t>
         </is>
       </c>
       <c r="B945" t="inlineStr">
@@ -24052,7 +24052,7 @@
         </is>
       </c>
       <c r="D945" t="n">
-        <v>3820.9</v>
+        <v>3812.4</v>
       </c>
       <c r="E945" t="inlineStr">
         <is>
@@ -24063,7 +24063,7 @@
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="B946" t="inlineStr">
@@ -24077,7 +24077,7 @@
         </is>
       </c>
       <c r="D946" t="n">
-        <v>0</v>
+        <v>4339.8</v>
       </c>
       <c r="E946" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>01/08/2020</t>
+          <t>01/09/2019</t>
         </is>
       </c>
       <c r="B947" t="inlineStr">
@@ -24102,7 +24102,7 @@
         </is>
       </c>
       <c r="D947" t="n">
-        <v>0</v>
+        <v>3820.9</v>
       </c>
       <c r="E947" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>01/12/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="B948" t="inlineStr">
@@ -24138,7 +24138,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>01/02/2020</t>
+          <t>01/08/2020</t>
         </is>
       </c>
       <c r="B949" t="inlineStr">
@@ -24152,7 +24152,7 @@
         </is>
       </c>
       <c r="D949" t="n">
-        <v>5762.358</v>
+        <v>0</v>
       </c>
       <c r="E949" t="inlineStr">
         <is>
@@ -24163,7 +24163,7 @@
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/12/2020</t>
         </is>
       </c>
       <c r="B950" t="inlineStr">
@@ -24177,7 +24177,7 @@
         </is>
       </c>
       <c r="D950" t="n">
-        <v>5560.337</v>
+        <v>0</v>
       </c>
       <c r="E950" t="inlineStr">
         <is>
@@ -24188,7 +24188,7 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/02/2020</t>
         </is>
       </c>
       <c r="B951" t="inlineStr">
@@ -24202,7 +24202,7 @@
         </is>
       </c>
       <c r="D951" t="n">
-        <v>0</v>
+        <v>5762.358</v>
       </c>
       <c r="E951" t="inlineStr">
         <is>
@@ -24213,7 +24213,7 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>01/06/2020</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="B952" t="inlineStr">
@@ -24227,7 +24227,7 @@
         </is>
       </c>
       <c r="D952" t="n">
-        <v>0</v>
+        <v>5560.337</v>
       </c>
       <c r="E952" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>01/05/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="B953" t="inlineStr">
@@ -24263,7 +24263,7 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>01/03/2020</t>
+          <t>01/06/2020</t>
         </is>
       </c>
       <c r="B954" t="inlineStr">
@@ -24277,7 +24277,7 @@
         </is>
       </c>
       <c r="D954" t="n">
-        <v>5496</v>
+        <v>0</v>
       </c>
       <c r="E954" t="inlineStr">
         <is>
@@ -24288,7 +24288,7 @@
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>01/11/2020</t>
+          <t>01/05/2020</t>
         </is>
       </c>
       <c r="B955" t="inlineStr">
@@ -24313,7 +24313,7 @@
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/03/2020</t>
         </is>
       </c>
       <c r="B956" t="inlineStr">
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D956" t="n">
-        <v>0</v>
+        <v>5496</v>
       </c>
       <c r="E956" t="inlineStr">
         <is>
@@ -24338,7 +24338,7 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>01/09/2020</t>
+          <t>01/11/2020</t>
         </is>
       </c>
       <c r="B957" t="inlineStr">
@@ -24363,7 +24363,7 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="B958" t="inlineStr">
@@ -24388,7 +24388,7 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>01/08/2021</t>
+          <t>01/09/2020</t>
         </is>
       </c>
       <c r="B959" t="inlineStr">
@@ -24413,7 +24413,7 @@
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>01/12/2021</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="B960" t="inlineStr">
@@ -24438,7 +24438,7 @@
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>01/02/2021</t>
+          <t>01/08/2021</t>
         </is>
       </c>
       <c r="B961" t="inlineStr">
@@ -24463,7 +24463,7 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/12/2021</t>
         </is>
       </c>
       <c r="B962" t="inlineStr">
@@ -24488,7 +24488,7 @@
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/02/2021</t>
         </is>
       </c>
       <c r="B963" t="inlineStr">
@@ -24513,7 +24513,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>01/06/2021</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="B964" t="inlineStr">
@@ -24538,7 +24538,7 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>01/05/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="B965" t="inlineStr">
@@ -24563,7 +24563,7 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>01/03/2021</t>
+          <t>01/06/2021</t>
         </is>
       </c>
       <c r="B966" t="inlineStr">
@@ -24588,7 +24588,7 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>01/11/2021</t>
+          <t>01/05/2021</t>
         </is>
       </c>
       <c r="B967" t="inlineStr">
@@ -24613,7 +24613,7 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/03/2021</t>
         </is>
       </c>
       <c r="B968" t="inlineStr">
@@ -24638,7 +24638,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>01/09/2021</t>
+          <t>01/11/2021</t>
         </is>
       </c>
       <c r="B969" t="inlineStr">
@@ -24663,7 +24663,7 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="B970" t="inlineStr">
@@ -24688,7 +24688,7 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>01/08/2022</t>
+          <t>01/09/2021</t>
         </is>
       </c>
       <c r="B971" t="inlineStr">
@@ -24713,7 +24713,7 @@
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>01/12/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="B972" t="inlineStr">
@@ -24738,7 +24738,7 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>01/02/2022</t>
+          <t>01/08/2022</t>
         </is>
       </c>
       <c r="B973" t="inlineStr">
@@ -24763,7 +24763,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/12/2022</t>
         </is>
       </c>
       <c r="B974" t="inlineStr">
@@ -24788,7 +24788,7 @@
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/02/2022</t>
         </is>
       </c>
       <c r="B975" t="inlineStr">
@@ -24813,7 +24813,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>01/06/2022</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="B976" t="inlineStr">
@@ -24838,7 +24838,7 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>01/05/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="B977" t="inlineStr">
@@ -24863,7 +24863,7 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>01/03/2022</t>
+          <t>01/06/2022</t>
         </is>
       </c>
       <c r="B978" t="inlineStr">
@@ -24888,7 +24888,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>01/11/2022</t>
+          <t>01/05/2022</t>
         </is>
       </c>
       <c r="B979" t="inlineStr">
@@ -24913,7 +24913,7 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/03/2022</t>
         </is>
       </c>
       <c r="B980" t="inlineStr">
@@ -24938,7 +24938,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>01/09/2022</t>
+          <t>01/11/2022</t>
         </is>
       </c>
       <c r="B981" t="inlineStr">
@@ -24963,7 +24963,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="B982" t="inlineStr">
@@ -24988,7 +24988,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01/09/2022</t>
         </is>
       </c>
       <c r="B983" t="inlineStr">
@@ -25013,7 +25013,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="B984" t="inlineStr">
@@ -25038,7 +25038,7 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>01/02/2023</t>
+          <t>01/08/2023</t>
         </is>
       </c>
       <c r="B985" t="inlineStr">
@@ -25063,7 +25063,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="B986" t="inlineStr">
@@ -25088,7 +25088,7 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/02/2023</t>
         </is>
       </c>
       <c r="B987" t="inlineStr">
@@ -25113,7 +25113,7 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>01/06/2023</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="B988" t="inlineStr">
@@ -25138,7 +25138,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>01/05/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="B989" t="inlineStr">
@@ -25163,7 +25163,7 @@
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>01/03/2023</t>
+          <t>01/06/2023</t>
         </is>
       </c>
       <c r="B990" t="inlineStr">
@@ -25188,7 +25188,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>01/11/2023</t>
+          <t>01/05/2023</t>
         </is>
       </c>
       <c r="B991" t="inlineStr">
@@ -25213,7 +25213,7 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/03/2023</t>
         </is>
       </c>
       <c r="B992" t="inlineStr">
@@ -25238,7 +25238,7 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>01/09/2023</t>
+          <t>01/11/2023</t>
         </is>
       </c>
       <c r="B993" t="inlineStr">
@@ -25263,7 +25263,7 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="B994" t="inlineStr">
@@ -25288,7 +25288,7 @@
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>01/09/2023</t>
         </is>
       </c>
       <c r="B995" t="inlineStr">
@@ -25313,7 +25313,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>01/02/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="B996" t="inlineStr">
@@ -25338,7 +25338,7 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B997" t="inlineStr">
@@ -25363,7 +25363,7 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
+          <t>01/02/2024</t>
         </is>
       </c>
       <c r="B998" t="inlineStr">
@@ -25388,7 +25388,7 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>01/06/2024</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="B999" t="inlineStr">
@@ -25413,7 +25413,7 @@
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>01/05/2024</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="B1000" t="inlineStr">
@@ -25438,7 +25438,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>01/03/2024</t>
+          <t>01/06/2024</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr">
@@ -25463,7 +25463,7 @@
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>01/10/2024</t>
+          <t>01/05/2024</t>
         </is>
       </c>
       <c r="B1002" t="inlineStr">
@@ -25488,7 +25488,7 @@
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>01/09/2024</t>
+          <t>01/03/2024</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr">
@@ -25505,6 +25505,81 @@
         <v>0</v>
       </c>
       <c r="E1003" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="B1004" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C1004" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1004" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="inlineStr">
+        <is>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="B1005" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C1005" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1005" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="B1006" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C1006" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1006" t="inlineStr">
         <is>
           <t>SERGIPE</t>
         </is>

--- a/Data/g8.2.xlsx
+++ b/Data/g8.2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1006"/>
+  <dimension ref="A1:E1009"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16763,7 +16763,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>01/02/2024</t>
+          <t>01/12/2024</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
@@ -16777,7 +16777,7 @@
         </is>
       </c>
       <c r="D654" t="n">
-        <v>69.839</v>
+        <v>57.416</v>
       </c>
       <c r="E654" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>01/02/2024</t>
+          <t>01/12/2024</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
@@ -16802,7 +16802,7 @@
         </is>
       </c>
       <c r="D655" t="n">
-        <v>1544.116</v>
+        <v>1900.435</v>
       </c>
       <c r="E655" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/02/2024</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
@@ -16827,7 +16827,7 @@
         </is>
       </c>
       <c r="D656" t="n">
-        <v>78.95999999999999</v>
+        <v>69.839</v>
       </c>
       <c r="E656" t="inlineStr">
         <is>
@@ -16838,7 +16838,7 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/02/2024</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
@@ -16852,7 +16852,7 @@
         </is>
       </c>
       <c r="D657" t="n">
-        <v>1774.621</v>
+        <v>1544.116</v>
       </c>
       <c r="E657" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
@@ -16877,7 +16877,7 @@
         </is>
       </c>
       <c r="D658" t="n">
-        <v>68.252</v>
+        <v>78.95999999999999</v>
       </c>
       <c r="E658" t="inlineStr">
         <is>
@@ -16888,7 +16888,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
@@ -16902,7 +16902,7 @@
         </is>
       </c>
       <c r="D659" t="n">
-        <v>2178.435</v>
+        <v>1774.621</v>
       </c>
       <c r="E659" t="inlineStr">
         <is>
@@ -16913,7 +16913,7 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>01/06/2024</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
@@ -16927,7 +16927,7 @@
         </is>
       </c>
       <c r="D660" t="n">
-        <v>64.83499999999999</v>
+        <v>68.252</v>
       </c>
       <c r="E660" t="inlineStr">
         <is>
@@ -16938,7 +16938,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>01/06/2024</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
@@ -16952,7 +16952,7 @@
         </is>
       </c>
       <c r="D661" t="n">
-        <v>1974.229</v>
+        <v>2178.435</v>
       </c>
       <c r="E661" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>01/05/2024</t>
+          <t>01/06/2024</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
@@ -16977,7 +16977,7 @@
         </is>
       </c>
       <c r="D662" t="n">
-        <v>68.96599999999999</v>
+        <v>64.83499999999999</v>
       </c>
       <c r="E662" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>01/05/2024</t>
+          <t>01/06/2024</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
@@ -17002,7 +17002,7 @@
         </is>
       </c>
       <c r="D663" t="n">
-        <v>1893.56</v>
+        <v>1974.229</v>
       </c>
       <c r="E663" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>01/03/2024</t>
+          <t>01/05/2024</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
@@ -17027,7 +17027,7 @@
         </is>
       </c>
       <c r="D664" t="n">
-        <v>72.51000000000001</v>
+        <v>68.96599999999999</v>
       </c>
       <c r="E664" t="inlineStr">
         <is>
@@ -17038,7 +17038,7 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>01/03/2024</t>
+          <t>01/05/2024</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
@@ -17052,7 +17052,7 @@
         </is>
       </c>
       <c r="D665" t="n">
-        <v>1639.846</v>
+        <v>1893.56</v>
       </c>
       <c r="E665" t="inlineStr">
         <is>
@@ -17063,7 +17063,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>01/11/2024</t>
+          <t>01/03/2024</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
@@ -17077,7 +17077,7 @@
         </is>
       </c>
       <c r="D666" t="n">
-        <v>60.481</v>
+        <v>72.51000000000001</v>
       </c>
       <c r="E666" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>01/11/2024</t>
+          <t>01/03/2024</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
@@ -17102,7 +17102,7 @@
         </is>
       </c>
       <c r="D667" t="n">
-        <v>1827.636</v>
+        <v>1639.846</v>
       </c>
       <c r="E667" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>01/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D668" t="n">
-        <v>69.205</v>
+        <v>60.481</v>
       </c>
       <c r="E668" t="inlineStr">
         <is>
@@ -17138,7 +17138,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>01/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
@@ -17152,7 +17152,7 @@
         </is>
       </c>
       <c r="D669" t="n">
-        <v>1677.056</v>
+        <v>1827.636</v>
       </c>
       <c r="E669" t="inlineStr">
         <is>
@@ -17163,7 +17163,7 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>01/09/2024</t>
+          <t>01/10/2024</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
@@ -17177,7 +17177,7 @@
         </is>
       </c>
       <c r="D670" t="n">
-        <v>57.802</v>
+        <v>69.205</v>
       </c>
       <c r="E670" t="inlineStr">
         <is>
@@ -17188,7 +17188,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>01/09/2024</t>
+          <t>01/10/2024</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
@@ -17202,7 +17202,7 @@
         </is>
       </c>
       <c r="D671" t="n">
-        <v>1610.794</v>
+        <v>1677.056</v>
       </c>
       <c r="E671" t="inlineStr">
         <is>
@@ -17213,21 +17213,21 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>01/04/1997</t>
+          <t>01/09/2024</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA</t>
+          <t>MAR</t>
         </is>
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t>LGN</t>
+          <t>GÁS NATURAL</t>
         </is>
       </c>
       <c r="D672" t="n">
-        <v>20951</v>
+        <v>57.802</v>
       </c>
       <c r="E672" t="inlineStr">
         <is>
@@ -17238,21 +17238,21 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>01/08/1997</t>
+          <t>01/09/2024</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA</t>
+          <t>TERRA</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>LGN</t>
+          <t>GÁS NATURAL</t>
         </is>
       </c>
       <c r="D673" t="n">
-        <v>24698</v>
+        <v>1610.794</v>
       </c>
       <c r="E673" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>01/12/1997</t>
+          <t>01/04/1997</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
@@ -17277,7 +17277,7 @@
         </is>
       </c>
       <c r="D674" t="n">
-        <v>23230</v>
+        <v>20951</v>
       </c>
       <c r="E674" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>01/02/1997</t>
+          <t>01/08/1997</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
@@ -17302,7 +17302,7 @@
         </is>
       </c>
       <c r="D675" t="n">
-        <v>19007</v>
+        <v>24698</v>
       </c>
       <c r="E675" t="inlineStr">
         <is>
@@ -17313,7 +17313,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>01/01/1997</t>
+          <t>01/12/1997</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
@@ -17327,7 +17327,7 @@
         </is>
       </c>
       <c r="D676" t="n">
-        <v>18978</v>
+        <v>23230</v>
       </c>
       <c r="E676" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>01/07/1997</t>
+          <t>01/02/1997</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
@@ -17352,7 +17352,7 @@
         </is>
       </c>
       <c r="D677" t="n">
-        <v>23232</v>
+        <v>19007</v>
       </c>
       <c r="E677" t="inlineStr">
         <is>
@@ -17363,7 +17363,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>01/06/1997</t>
+          <t>01/01/1997</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
@@ -17377,7 +17377,7 @@
         </is>
       </c>
       <c r="D678" t="n">
-        <v>22449</v>
+        <v>18978</v>
       </c>
       <c r="E678" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>01/05/1997</t>
+          <t>01/07/1997</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
@@ -17402,7 +17402,7 @@
         </is>
       </c>
       <c r="D679" t="n">
-        <v>24757</v>
+        <v>23232</v>
       </c>
       <c r="E679" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>01/03/1997</t>
+          <t>01/06/1997</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
@@ -17427,7 +17427,7 @@
         </is>
       </c>
       <c r="D680" t="n">
-        <v>19807</v>
+        <v>22449</v>
       </c>
       <c r="E680" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>01/11/1997</t>
+          <t>01/05/1997</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
@@ -17452,7 +17452,7 @@
         </is>
       </c>
       <c r="D681" t="n">
-        <v>22027</v>
+        <v>24757</v>
       </c>
       <c r="E681" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>01/10/1997</t>
+          <t>01/03/1997</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
@@ -17477,7 +17477,7 @@
         </is>
       </c>
       <c r="D682" t="n">
-        <v>21890</v>
+        <v>19807</v>
       </c>
       <c r="E682" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>01/09/1997</t>
+          <t>01/11/1997</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
@@ -17502,7 +17502,7 @@
         </is>
       </c>
       <c r="D683" t="n">
-        <v>22749</v>
+        <v>22027</v>
       </c>
       <c r="E683" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>01/04/1998</t>
+          <t>01/10/1997</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D684" t="n">
-        <v>131778.0699</v>
+        <v>21890</v>
       </c>
       <c r="E684" t="inlineStr">
         <is>
@@ -17538,7 +17538,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>01/08/1998</t>
+          <t>01/09/1997</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
@@ -17552,7 +17552,7 @@
         </is>
       </c>
       <c r="D685" t="n">
-        <v>155346.0346</v>
+        <v>22749</v>
       </c>
       <c r="E685" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>01/12/1998</t>
+          <t>01/04/1998</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
@@ -17577,7 +17577,7 @@
         </is>
       </c>
       <c r="D686" t="n">
-        <v>146112.5752</v>
+        <v>131778.0699</v>
       </c>
       <c r="E686" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>01/02/1998</t>
+          <t>01/08/1998</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
@@ -17602,7 +17602,7 @@
         </is>
       </c>
       <c r="D687" t="n">
-        <v>119550.6551</v>
+        <v>155346.0346</v>
       </c>
       <c r="E687" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>01/01/1998</t>
+          <t>01/12/1998</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
@@ -17627,7 +17627,7 @@
         </is>
       </c>
       <c r="D688" t="n">
-        <v>119368.2502</v>
+        <v>146112.5752</v>
       </c>
       <c r="E688" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>01/07/1998</t>
+          <t>01/02/1998</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
@@ -17652,7 +17652,7 @@
         </is>
       </c>
       <c r="D689" t="n">
-        <v>146125.1549</v>
+        <v>119550.6551</v>
       </c>
       <c r="E689" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>01/06/1998</t>
+          <t>01/01/1998</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
@@ -17677,7 +17677,7 @@
         </is>
       </c>
       <c r="D690" t="n">
-        <v>141200.2239</v>
+        <v>119368.2502</v>
       </c>
       <c r="E690" t="inlineStr">
         <is>
@@ -17688,7 +17688,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>01/05/1998</t>
+          <t>01/07/1998</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
@@ -17702,7 +17702,7 @@
         </is>
       </c>
       <c r="D691" t="n">
-        <v>155717.1341</v>
+        <v>146125.1549</v>
       </c>
       <c r="E691" t="inlineStr">
         <is>
@@ -17713,7 +17713,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>01/03/1998</t>
+          <t>01/06/1998</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
@@ -17727,7 +17727,7 @@
         </is>
       </c>
       <c r="D692" t="n">
-        <v>124582.513</v>
+        <v>141200.2239</v>
       </c>
       <c r="E692" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>01/11/1998</t>
+          <t>01/05/1998</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
@@ -17752,7 +17752,7 @@
         </is>
       </c>
       <c r="D693" t="n">
-        <v>138545.9188</v>
+        <v>155717.1341</v>
       </c>
       <c r="E693" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>01/10/1998</t>
+          <t>01/03/1998</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
@@ -17777,7 +17777,7 @@
         </is>
       </c>
       <c r="D694" t="n">
-        <v>137684.2132</v>
+        <v>124582.513</v>
       </c>
       <c r="E694" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>01/09/1998</t>
+          <t>01/11/1998</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
@@ -17802,7 +17802,7 @@
         </is>
       </c>
       <c r="D695" t="n">
-        <v>143087.1706</v>
+        <v>138545.9188</v>
       </c>
       <c r="E695" t="inlineStr">
         <is>
@@ -17813,7 +17813,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>01/04/1999</t>
+          <t>01/10/1998</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
@@ -17827,7 +17827,7 @@
         </is>
       </c>
       <c r="D696" t="n">
-        <v>24546</v>
+        <v>137684.2132</v>
       </c>
       <c r="E696" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>01/08/1999</t>
+          <t>01/09/1998</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
@@ -17852,7 +17852,7 @@
         </is>
       </c>
       <c r="D697" t="n">
-        <v>23247</v>
+        <v>143087.1706</v>
       </c>
       <c r="E697" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>01/12/1999</t>
+          <t>01/04/1999</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
@@ -17877,7 +17877,7 @@
         </is>
       </c>
       <c r="D698" t="n">
-        <v>24640</v>
+        <v>24546</v>
       </c>
       <c r="E698" t="inlineStr">
         <is>
@@ -17888,7 +17888,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>01/02/1999</t>
+          <t>01/08/1999</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
@@ -17902,7 +17902,7 @@
         </is>
       </c>
       <c r="D699" t="n">
-        <v>22448</v>
+        <v>23247</v>
       </c>
       <c r="E699" t="inlineStr">
         <is>
@@ -17913,7 +17913,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>01/01/1999</t>
+          <t>01/12/1999</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D700" t="n">
-        <v>24629</v>
+        <v>24640</v>
       </c>
       <c r="E700" t="inlineStr">
         <is>
@@ -17938,7 +17938,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>01/07/1999</t>
+          <t>01/02/1999</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
@@ -17952,7 +17952,7 @@
         </is>
       </c>
       <c r="D701" t="n">
-        <v>22323</v>
+        <v>22448</v>
       </c>
       <c r="E701" t="inlineStr">
         <is>
@@ -17963,7 +17963,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>01/06/1999</t>
+          <t>01/01/1999</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
@@ -17977,7 +17977,7 @@
         </is>
       </c>
       <c r="D702" t="n">
-        <v>24653</v>
+        <v>24629</v>
       </c>
       <c r="E702" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>01/05/1999</t>
+          <t>01/07/1999</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
@@ -18002,7 +18002,7 @@
         </is>
       </c>
       <c r="D703" t="n">
-        <v>25678</v>
+        <v>22323</v>
       </c>
       <c r="E703" t="inlineStr">
         <is>
@@ -18013,7 +18013,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>01/03/1999</t>
+          <t>01/06/1999</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
@@ -18027,7 +18027,7 @@
         </is>
       </c>
       <c r="D704" t="n">
-        <v>25737</v>
+        <v>24653</v>
       </c>
       <c r="E704" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>01/11/1999</t>
+          <t>01/05/1999</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
@@ -18052,7 +18052,7 @@
         </is>
       </c>
       <c r="D705" t="n">
-        <v>25481</v>
+        <v>25678</v>
       </c>
       <c r="E705" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>01/10/1999</t>
+          <t>01/03/1999</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
@@ -18077,7 +18077,7 @@
         </is>
       </c>
       <c r="D706" t="n">
-        <v>25601</v>
+        <v>25737</v>
       </c>
       <c r="E706" t="inlineStr">
         <is>
@@ -18088,7 +18088,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>01/09/1999</t>
+          <t>01/11/1999</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
@@ -18102,7 +18102,7 @@
         </is>
       </c>
       <c r="D707" t="n">
-        <v>24686</v>
+        <v>25481</v>
       </c>
       <c r="E707" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>01/04/2000</t>
+          <t>01/10/1999</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
@@ -18127,7 +18127,7 @@
         </is>
       </c>
       <c r="D708" t="n">
-        <v>25440</v>
+        <v>25601</v>
       </c>
       <c r="E708" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>01/08/2000</t>
+          <t>01/09/1999</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
@@ -18152,7 +18152,7 @@
         </is>
       </c>
       <c r="D709" t="n">
-        <v>27353</v>
+        <v>24686</v>
       </c>
       <c r="E709" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>01/12/2000</t>
+          <t>01/04/2000</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
@@ -18177,7 +18177,7 @@
         </is>
       </c>
       <c r="D710" t="n">
-        <v>26071</v>
+        <v>25440</v>
       </c>
       <c r="E710" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>01/02/2000</t>
+          <t>01/08/2000</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
@@ -18202,7 +18202,7 @@
         </is>
       </c>
       <c r="D711" t="n">
-        <v>25123</v>
+        <v>27353</v>
       </c>
       <c r="E711" t="inlineStr">
         <is>
@@ -18213,7 +18213,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>01/01/2000</t>
+          <t>01/12/2000</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
@@ -18227,7 +18227,7 @@
         </is>
       </c>
       <c r="D712" t="n">
-        <v>26480</v>
+        <v>26071</v>
       </c>
       <c r="E712" t="inlineStr">
         <is>
@@ -18238,7 +18238,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>01/07/2000</t>
+          <t>01/02/2000</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
@@ -18252,7 +18252,7 @@
         </is>
       </c>
       <c r="D713" t="n">
-        <v>26914</v>
+        <v>25123</v>
       </c>
       <c r="E713" t="inlineStr">
         <is>
@@ -18263,7 +18263,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>01/06/2000</t>
+          <t>01/01/2000</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
@@ -18277,7 +18277,7 @@
         </is>
       </c>
       <c r="D714" t="n">
-        <v>26044</v>
+        <v>26480</v>
       </c>
       <c r="E714" t="inlineStr">
         <is>
@@ -18288,7 +18288,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>01/05/2000</t>
+          <t>01/07/2000</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
@@ -18302,7 +18302,7 @@
         </is>
       </c>
       <c r="D715" t="n">
-        <v>26406</v>
+        <v>26914</v>
       </c>
       <c r="E715" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>01/03/2000</t>
+          <t>01/06/2000</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D716" t="n">
-        <v>26572</v>
+        <v>26044</v>
       </c>
       <c r="E716" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>01/11/2000</t>
+          <t>01/05/2000</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
@@ -18352,7 +18352,7 @@
         </is>
       </c>
       <c r="D717" t="n">
-        <v>13928</v>
+        <v>26406</v>
       </c>
       <c r="E717" t="inlineStr">
         <is>
@@ -18363,7 +18363,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>01/10/2000</t>
+          <t>01/03/2000</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
@@ -18377,7 +18377,7 @@
         </is>
       </c>
       <c r="D718" t="n">
-        <v>26965</v>
+        <v>26572</v>
       </c>
       <c r="E718" t="inlineStr">
         <is>
@@ -18388,7 +18388,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>01/09/2000</t>
+          <t>01/11/2000</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
@@ -18402,7 +18402,7 @@
         </is>
       </c>
       <c r="D719" t="n">
-        <v>26129</v>
+        <v>13928</v>
       </c>
       <c r="E719" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>01/04/2001</t>
+          <t>01/10/2000</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
@@ -18427,7 +18427,7 @@
         </is>
       </c>
       <c r="D720" t="n">
-        <v>18378</v>
+        <v>26965</v>
       </c>
       <c r="E720" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>01/08/2001</t>
+          <t>01/09/2000</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
@@ -18452,7 +18452,7 @@
         </is>
       </c>
       <c r="D721" t="n">
-        <v>26465</v>
+        <v>26129</v>
       </c>
       <c r="E721" t="inlineStr">
         <is>
@@ -18463,7 +18463,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>01/12/2001</t>
+          <t>01/04/2001</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D722" t="n">
-        <v>26876</v>
+        <v>18378</v>
       </c>
       <c r="E722" t="inlineStr">
         <is>
@@ -18488,7 +18488,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>01/02/2001</t>
+          <t>01/08/2001</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
@@ -18502,7 +18502,7 @@
         </is>
       </c>
       <c r="D723" t="n">
-        <v>23797</v>
+        <v>26465</v>
       </c>
       <c r="E723" t="inlineStr">
         <is>
@@ -18513,7 +18513,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>01/01/2001</t>
+          <t>01/12/2001</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
@@ -18527,7 +18527,7 @@
         </is>
       </c>
       <c r="D724" t="n">
-        <v>26536</v>
+        <v>26876</v>
       </c>
       <c r="E724" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>01/07/2001</t>
+          <t>01/02/2001</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
@@ -18552,7 +18552,7 @@
         </is>
       </c>
       <c r="D725" t="n">
-        <v>27236</v>
+        <v>23797</v>
       </c>
       <c r="E725" t="inlineStr">
         <is>
@@ -18563,7 +18563,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>01/06/2001</t>
+          <t>01/01/2001</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
@@ -18577,7 +18577,7 @@
         </is>
       </c>
       <c r="D726" t="n">
-        <v>25806</v>
+        <v>26536</v>
       </c>
       <c r="E726" t="inlineStr">
         <is>
@@ -18588,7 +18588,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>01/05/2001</t>
+          <t>01/07/2001</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
@@ -18602,7 +18602,7 @@
         </is>
       </c>
       <c r="D727" t="n">
-        <v>22691</v>
+        <v>27236</v>
       </c>
       <c r="E727" t="inlineStr">
         <is>
@@ -18613,7 +18613,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>01/03/2001</t>
+          <t>01/06/2001</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
@@ -18627,7 +18627,7 @@
         </is>
       </c>
       <c r="D728" t="n">
-        <v>25605</v>
+        <v>25806</v>
       </c>
       <c r="E728" t="inlineStr">
         <is>
@@ -18638,7 +18638,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>01/11/2001</t>
+          <t>01/05/2001</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
@@ -18652,7 +18652,7 @@
         </is>
       </c>
       <c r="D729" t="n">
-        <v>25852</v>
+        <v>22691</v>
       </c>
       <c r="E729" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>01/10/2001</t>
+          <t>01/03/2001</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
@@ -18677,7 +18677,7 @@
         </is>
       </c>
       <c r="D730" t="n">
-        <v>26322</v>
+        <v>25605</v>
       </c>
       <c r="E730" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>01/09/2001</t>
+          <t>01/11/2001</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
@@ -18702,7 +18702,7 @@
         </is>
       </c>
       <c r="D731" t="n">
-        <v>23625</v>
+        <v>25852</v>
       </c>
       <c r="E731" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>01/04/2002</t>
+          <t>01/10/2001</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D732" t="n">
-        <v>23065</v>
+        <v>26322</v>
       </c>
       <c r="E732" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>01/08/2002</t>
+          <t>01/09/2001</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
@@ -18752,7 +18752,7 @@
         </is>
       </c>
       <c r="D733" t="n">
-        <v>25580</v>
+        <v>23625</v>
       </c>
       <c r="E733" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>01/12/2002</t>
+          <t>01/04/2002</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
@@ -18777,7 +18777,7 @@
         </is>
       </c>
       <c r="D734" t="n">
-        <v>24957</v>
+        <v>23065</v>
       </c>
       <c r="E734" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>01/02/2002</t>
+          <t>01/08/2002</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
@@ -18802,7 +18802,7 @@
         </is>
       </c>
       <c r="D735" t="n">
-        <v>24096</v>
+        <v>25580</v>
       </c>
       <c r="E735" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>01/01/2002</t>
+          <t>01/12/2002</t>
         </is>
       </c>
       <c r="B736" t="inlineStr">
@@ -18827,7 +18827,7 @@
         </is>
       </c>
       <c r="D736" t="n">
-        <v>27239</v>
+        <v>24957</v>
       </c>
       <c r="E736" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>01/07/2002</t>
+          <t>01/02/2002</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
@@ -18852,7 +18852,7 @@
         </is>
       </c>
       <c r="D737" t="n">
-        <v>25911</v>
+        <v>24096</v>
       </c>
       <c r="E737" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>01/06/2002</t>
+          <t>01/01/2002</t>
         </is>
       </c>
       <c r="B738" t="inlineStr">
@@ -18877,7 +18877,7 @@
         </is>
       </c>
       <c r="D738" t="n">
-        <v>24854</v>
+        <v>27239</v>
       </c>
       <c r="E738" t="inlineStr">
         <is>
@@ -18888,7 +18888,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>01/05/2002</t>
+          <t>01/07/2002</t>
         </is>
       </c>
       <c r="B739" t="inlineStr">
@@ -18902,7 +18902,7 @@
         </is>
       </c>
       <c r="D739" t="n">
-        <v>24983</v>
+        <v>25911</v>
       </c>
       <c r="E739" t="inlineStr">
         <is>
@@ -18913,7 +18913,7 @@
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>01/03/2002</t>
+          <t>01/06/2002</t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
@@ -18927,7 +18927,7 @@
         </is>
       </c>
       <c r="D740" t="n">
-        <v>25381</v>
+        <v>24854</v>
       </c>
       <c r="E740" t="inlineStr">
         <is>
@@ -18938,7 +18938,7 @@
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>01/11/2002</t>
+          <t>01/05/2002</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
@@ -18952,7 +18952,7 @@
         </is>
       </c>
       <c r="D741" t="n">
-        <v>24648</v>
+        <v>24983</v>
       </c>
       <c r="E741" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>01/10/2002</t>
+          <t>01/03/2002</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
@@ -18977,7 +18977,7 @@
         </is>
       </c>
       <c r="D742" t="n">
-        <v>24992</v>
+        <v>25381</v>
       </c>
       <c r="E742" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>01/09/2002</t>
+          <t>01/11/2002</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
@@ -19002,7 +19002,7 @@
         </is>
       </c>
       <c r="D743" t="n">
-        <v>24400</v>
+        <v>24648</v>
       </c>
       <c r="E743" t="inlineStr">
         <is>
@@ -19013,7 +19013,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>01/04/2003</t>
+          <t>01/10/2002</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="D744" t="n">
-        <v>20841</v>
+        <v>24992</v>
       </c>
       <c r="E744" t="inlineStr">
         <is>
@@ -19038,7 +19038,7 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>01/08/2003</t>
+          <t>01/09/2002</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
@@ -19052,7 +19052,7 @@
         </is>
       </c>
       <c r="D745" t="n">
-        <v>25463</v>
+        <v>24400</v>
       </c>
       <c r="E745" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>01/12/2003</t>
+          <t>01/04/2003</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
@@ -19077,7 +19077,7 @@
         </is>
       </c>
       <c r="D746" t="n">
-        <v>24965</v>
+        <v>20841</v>
       </c>
       <c r="E746" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>01/02/2003</t>
+          <t>01/08/2003</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
@@ -19102,7 +19102,7 @@
         </is>
       </c>
       <c r="D747" t="n">
-        <v>20388</v>
+        <v>25463</v>
       </c>
       <c r="E747" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>01/01/2003</t>
+          <t>01/12/2003</t>
         </is>
       </c>
       <c r="B748" t="inlineStr">
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D748" t="n">
-        <v>24971</v>
+        <v>24965</v>
       </c>
       <c r="E748" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>01/07/2003</t>
+          <t>01/02/2003</t>
         </is>
       </c>
       <c r="B749" t="inlineStr">
@@ -19152,7 +19152,7 @@
         </is>
       </c>
       <c r="D749" t="n">
-        <v>23560</v>
+        <v>20388</v>
       </c>
       <c r="E749" t="inlineStr">
         <is>
@@ -19163,7 +19163,7 @@
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>01/06/2003</t>
+          <t>01/01/2003</t>
         </is>
       </c>
       <c r="B750" t="inlineStr">
@@ -19177,7 +19177,7 @@
         </is>
       </c>
       <c r="D750" t="n">
-        <v>22761</v>
+        <v>24971</v>
       </c>
       <c r="E750" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>01/05/2003</t>
+          <t>01/07/2003</t>
         </is>
       </c>
       <c r="B751" t="inlineStr">
@@ -19202,7 +19202,7 @@
         </is>
       </c>
       <c r="D751" t="n">
-        <v>23510</v>
+        <v>23560</v>
       </c>
       <c r="E751" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>01/03/2003</t>
+          <t>01/06/2003</t>
         </is>
       </c>
       <c r="B752" t="inlineStr">
@@ -19227,7 +19227,7 @@
         </is>
       </c>
       <c r="D752" t="n">
-        <v>25907</v>
+        <v>22761</v>
       </c>
       <c r="E752" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>01/11/2003</t>
+          <t>01/05/2003</t>
         </is>
       </c>
       <c r="B753" t="inlineStr">
@@ -19252,7 +19252,7 @@
         </is>
       </c>
       <c r="D753" t="n">
-        <v>24041</v>
+        <v>23510</v>
       </c>
       <c r="E753" t="inlineStr">
         <is>
@@ -19263,7 +19263,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>01/10/2003</t>
+          <t>01/03/2003</t>
         </is>
       </c>
       <c r="B754" t="inlineStr">
@@ -19277,7 +19277,7 @@
         </is>
       </c>
       <c r="D754" t="n">
-        <v>24023</v>
+        <v>25907</v>
       </c>
       <c r="E754" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>01/09/2003</t>
+          <t>01/11/2003</t>
         </is>
       </c>
       <c r="B755" t="inlineStr">
@@ -19302,7 +19302,7 @@
         </is>
       </c>
       <c r="D755" t="n">
-        <v>24294</v>
+        <v>24041</v>
       </c>
       <c r="E755" t="inlineStr">
         <is>
@@ -19313,7 +19313,7 @@
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>01/04/2004</t>
+          <t>01/10/2003</t>
         </is>
       </c>
       <c r="B756" t="inlineStr">
@@ -19327,7 +19327,7 @@
         </is>
       </c>
       <c r="D756" t="n">
-        <v>24411</v>
+        <v>24023</v>
       </c>
       <c r="E756" t="inlineStr">
         <is>
@@ -19338,7 +19338,7 @@
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>01/08/2004</t>
+          <t>01/09/2003</t>
         </is>
       </c>
       <c r="B757" t="inlineStr">
@@ -19352,7 +19352,7 @@
         </is>
       </c>
       <c r="D757" t="n">
-        <v>25873</v>
+        <v>24294</v>
       </c>
       <c r="E757" t="inlineStr">
         <is>
@@ -19363,7 +19363,7 @@
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>01/12/2004</t>
+          <t>01/04/2004</t>
         </is>
       </c>
       <c r="B758" t="inlineStr">
@@ -19377,7 +19377,7 @@
         </is>
       </c>
       <c r="D758" t="n">
-        <v>25343</v>
+        <v>24411</v>
       </c>
       <c r="E758" t="inlineStr">
         <is>
@@ -19388,7 +19388,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>01/02/2004</t>
+          <t>01/08/2004</t>
         </is>
       </c>
       <c r="B759" t="inlineStr">
@@ -19402,7 +19402,7 @@
         </is>
       </c>
       <c r="D759" t="n">
-        <v>23497</v>
+        <v>25873</v>
       </c>
       <c r="E759" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>01/01/2004</t>
+          <t>01/12/2004</t>
         </is>
       </c>
       <c r="B760" t="inlineStr">
@@ -19427,7 +19427,7 @@
         </is>
       </c>
       <c r="D760" t="n">
-        <v>23975</v>
+        <v>25343</v>
       </c>
       <c r="E760" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>01/02/2004</t>
         </is>
       </c>
       <c r="B761" t="inlineStr">
@@ -19452,7 +19452,7 @@
         </is>
       </c>
       <c r="D761" t="n">
-        <v>24979</v>
+        <v>23497</v>
       </c>
       <c r="E761" t="inlineStr">
         <is>
@@ -19463,7 +19463,7 @@
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>01/06/2004</t>
+          <t>01/01/2004</t>
         </is>
       </c>
       <c r="B762" t="inlineStr">
@@ -19477,7 +19477,7 @@
         </is>
       </c>
       <c r="D762" t="n">
-        <v>23413</v>
+        <v>23975</v>
       </c>
       <c r="E762" t="inlineStr">
         <is>
@@ -19488,7 +19488,7 @@
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>01/05/2004</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="B763" t="inlineStr">
@@ -19502,7 +19502,7 @@
         </is>
       </c>
       <c r="D763" t="n">
-        <v>21313</v>
+        <v>24979</v>
       </c>
       <c r="E763" t="inlineStr">
         <is>
@@ -19513,7 +19513,7 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>01/03/2004</t>
+          <t>01/06/2004</t>
         </is>
       </c>
       <c r="B764" t="inlineStr">
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D764" t="n">
-        <v>25118</v>
+        <v>23413</v>
       </c>
       <c r="E764" t="inlineStr">
         <is>
@@ -19538,7 +19538,7 @@
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>01/11/2004</t>
+          <t>01/05/2004</t>
         </is>
       </c>
       <c r="B765" t="inlineStr">
@@ -19552,7 +19552,7 @@
         </is>
       </c>
       <c r="D765" t="n">
-        <v>24463</v>
+        <v>21313</v>
       </c>
       <c r="E765" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>01/10/2004</t>
+          <t>01/03/2004</t>
         </is>
       </c>
       <c r="B766" t="inlineStr">
@@ -19577,7 +19577,7 @@
         </is>
       </c>
       <c r="D766" t="n">
-        <v>25566</v>
+        <v>25118</v>
       </c>
       <c r="E766" t="inlineStr">
         <is>
@@ -19588,7 +19588,7 @@
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>01/09/2004</t>
+          <t>01/11/2004</t>
         </is>
       </c>
       <c r="B767" t="inlineStr">
@@ -19602,7 +19602,7 @@
         </is>
       </c>
       <c r="D767" t="n">
-        <v>24720</v>
+        <v>24463</v>
       </c>
       <c r="E767" t="inlineStr">
         <is>
@@ -19613,7 +19613,7 @@
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>01/04/2005</t>
+          <t>01/10/2004</t>
         </is>
       </c>
       <c r="B768" t="inlineStr">
@@ -19627,7 +19627,7 @@
         </is>
       </c>
       <c r="D768" t="n">
-        <v>23924</v>
+        <v>25566</v>
       </c>
       <c r="E768" t="inlineStr">
         <is>
@@ -19638,7 +19638,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>01/08/2005</t>
+          <t>01/09/2004</t>
         </is>
       </c>
       <c r="B769" t="inlineStr">
@@ -19652,7 +19652,7 @@
         </is>
       </c>
       <c r="D769" t="n">
-        <v>25213</v>
+        <v>24720</v>
       </c>
       <c r="E769" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>01/12/2005</t>
+          <t>01/04/2005</t>
         </is>
       </c>
       <c r="B770" t="inlineStr">
@@ -19677,7 +19677,7 @@
         </is>
       </c>
       <c r="D770" t="n">
-        <v>24602</v>
+        <v>23924</v>
       </c>
       <c r="E770" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>01/02/2005</t>
+          <t>01/08/2005</t>
         </is>
       </c>
       <c r="B771" t="inlineStr">
@@ -19702,7 +19702,7 @@
         </is>
       </c>
       <c r="D771" t="n">
-        <v>22710</v>
+        <v>25213</v>
       </c>
       <c r="E771" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>01/01/2005</t>
+          <t>01/12/2005</t>
         </is>
       </c>
       <c r="B772" t="inlineStr">
@@ -19727,7 +19727,7 @@
         </is>
       </c>
       <c r="D772" t="n">
-        <v>24972</v>
+        <v>24602</v>
       </c>
       <c r="E772" t="inlineStr">
         <is>
@@ -19738,7 +19738,7 @@
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>01/07/2005</t>
+          <t>01/02/2005</t>
         </is>
       </c>
       <c r="B773" t="inlineStr">
@@ -19752,7 +19752,7 @@
         </is>
       </c>
       <c r="D773" t="n">
-        <v>25582</v>
+        <v>22710</v>
       </c>
       <c r="E773" t="inlineStr">
         <is>
@@ -19763,7 +19763,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>01/06/2005</t>
+          <t>01/01/2005</t>
         </is>
       </c>
       <c r="B774" t="inlineStr">
@@ -19777,7 +19777,7 @@
         </is>
       </c>
       <c r="D774" t="n">
-        <v>24359</v>
+        <v>24972</v>
       </c>
       <c r="E774" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>01/05/2005</t>
+          <t>01/07/2005</t>
         </is>
       </c>
       <c r="B775" t="inlineStr">
@@ -19802,7 +19802,7 @@
         </is>
       </c>
       <c r="D775" t="n">
-        <v>24053</v>
+        <v>25582</v>
       </c>
       <c r="E775" t="inlineStr">
         <is>
@@ -19813,7 +19813,7 @@
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>01/03/2005</t>
+          <t>01/06/2005</t>
         </is>
       </c>
       <c r="B776" t="inlineStr">
@@ -19827,7 +19827,7 @@
         </is>
       </c>
       <c r="D776" t="n">
-        <v>24836</v>
+        <v>24359</v>
       </c>
       <c r="E776" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>01/11/2005</t>
+          <t>01/05/2005</t>
         </is>
       </c>
       <c r="B777" t="inlineStr">
@@ -19852,7 +19852,7 @@
         </is>
       </c>
       <c r="D777" t="n">
-        <v>24169</v>
+        <v>24053</v>
       </c>
       <c r="E777" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>01/10/2005</t>
+          <t>01/03/2005</t>
         </is>
       </c>
       <c r="B778" t="inlineStr">
@@ -19877,7 +19877,7 @@
         </is>
       </c>
       <c r="D778" t="n">
-        <v>26281</v>
+        <v>24836</v>
       </c>
       <c r="E778" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>01/09/2005</t>
+          <t>01/11/2005</t>
         </is>
       </c>
       <c r="B779" t="inlineStr">
@@ -19902,7 +19902,7 @@
         </is>
       </c>
       <c r="D779" t="n">
-        <v>24180</v>
+        <v>24169</v>
       </c>
       <c r="E779" t="inlineStr">
         <is>
@@ -19913,7 +19913,7 @@
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>01/04/2006</t>
+          <t>01/10/2005</t>
         </is>
       </c>
       <c r="B780" t="inlineStr">
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D780" t="n">
-        <v>24527</v>
+        <v>26281</v>
       </c>
       <c r="E780" t="inlineStr">
         <is>
@@ -19938,7 +19938,7 @@
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>01/08/2006</t>
+          <t>01/09/2005</t>
         </is>
       </c>
       <c r="B781" t="inlineStr">
@@ -19952,7 +19952,7 @@
         </is>
       </c>
       <c r="D781" t="n">
-        <v>25491</v>
+        <v>24180</v>
       </c>
       <c r="E781" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>01/12/2006</t>
+          <t>01/04/2006</t>
         </is>
       </c>
       <c r="B782" t="inlineStr">
@@ -19977,7 +19977,7 @@
         </is>
       </c>
       <c r="D782" t="n">
-        <v>25271</v>
+        <v>24527</v>
       </c>
       <c r="E782" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>01/02/2006</t>
+          <t>01/08/2006</t>
         </is>
       </c>
       <c r="B783" t="inlineStr">
@@ -20002,7 +20002,7 @@
         </is>
       </c>
       <c r="D783" t="n">
-        <v>23056</v>
+        <v>25491</v>
       </c>
       <c r="E783" t="inlineStr">
         <is>
@@ -20013,7 +20013,7 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>01/01/2006</t>
+          <t>01/12/2006</t>
         </is>
       </c>
       <c r="B784" t="inlineStr">
@@ -20027,7 +20027,7 @@
         </is>
       </c>
       <c r="D784" t="n">
-        <v>24843</v>
+        <v>25271</v>
       </c>
       <c r="E784" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>01/07/2006</t>
+          <t>01/02/2006</t>
         </is>
       </c>
       <c r="B785" t="inlineStr">
@@ -20052,7 +20052,7 @@
         </is>
       </c>
       <c r="D785" t="n">
-        <v>25344</v>
+        <v>23056</v>
       </c>
       <c r="E785" t="inlineStr">
         <is>
@@ -20063,7 +20063,7 @@
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>01/06/2006</t>
+          <t>01/01/2006</t>
         </is>
       </c>
       <c r="B786" t="inlineStr">
@@ -20077,7 +20077,7 @@
         </is>
       </c>
       <c r="D786" t="n">
-        <v>25090</v>
+        <v>24843</v>
       </c>
       <c r="E786" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>01/05/2006</t>
+          <t>01/07/2006</t>
         </is>
       </c>
       <c r="B787" t="inlineStr">
@@ -20102,7 +20102,7 @@
         </is>
       </c>
       <c r="D787" t="n">
-        <v>25719</v>
+        <v>25344</v>
       </c>
       <c r="E787" t="inlineStr">
         <is>
@@ -20113,7 +20113,7 @@
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>01/03/2006</t>
+          <t>01/06/2006</t>
         </is>
       </c>
       <c r="B788" t="inlineStr">
@@ -20127,7 +20127,7 @@
         </is>
       </c>
       <c r="D788" t="n">
-        <v>11740</v>
+        <v>25090</v>
       </c>
       <c r="E788" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>01/11/2006</t>
+          <t>01/05/2006</t>
         </is>
       </c>
       <c r="B789" t="inlineStr">
@@ -20152,7 +20152,7 @@
         </is>
       </c>
       <c r="D789" t="n">
-        <v>23278</v>
+        <v>25719</v>
       </c>
       <c r="E789" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>01/10/2006</t>
+          <t>01/03/2006</t>
         </is>
       </c>
       <c r="B790" t="inlineStr">
@@ -20177,7 +20177,7 @@
         </is>
       </c>
       <c r="D790" t="n">
-        <v>23622</v>
+        <v>11740</v>
       </c>
       <c r="E790" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>01/09/2006</t>
+          <t>01/11/2006</t>
         </is>
       </c>
       <c r="B791" t="inlineStr">
@@ -20202,7 +20202,7 @@
         </is>
       </c>
       <c r="D791" t="n">
-        <v>24562</v>
+        <v>23278</v>
       </c>
       <c r="E791" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>01/04/2007</t>
+          <t>01/10/2006</t>
         </is>
       </c>
       <c r="B792" t="inlineStr">
@@ -20227,7 +20227,7 @@
         </is>
       </c>
       <c r="D792" t="n">
-        <v>21384</v>
+        <v>23622</v>
       </c>
       <c r="E792" t="inlineStr">
         <is>
@@ -20238,7 +20238,7 @@
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>01/08/2007</t>
+          <t>01/09/2006</t>
         </is>
       </c>
       <c r="B793" t="inlineStr">
@@ -20252,7 +20252,7 @@
         </is>
       </c>
       <c r="D793" t="n">
-        <v>23805</v>
+        <v>24562</v>
       </c>
       <c r="E793" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>01/12/2007</t>
+          <t>01/04/2007</t>
         </is>
       </c>
       <c r="B794" t="inlineStr">
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D794" t="n">
-        <v>22898</v>
+        <v>21384</v>
       </c>
       <c r="E794" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>01/02/2007</t>
+          <t>01/08/2007</t>
         </is>
       </c>
       <c r="B795" t="inlineStr">
@@ -20302,7 +20302,7 @@
         </is>
       </c>
       <c r="D795" t="n">
-        <v>21968</v>
+        <v>23805</v>
       </c>
       <c r="E795" t="inlineStr">
         <is>
@@ -20313,7 +20313,7 @@
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>01/01/2007</t>
+          <t>01/12/2007</t>
         </is>
       </c>
       <c r="B796" t="inlineStr">
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D796" t="n">
-        <v>25496</v>
+        <v>22898</v>
       </c>
       <c r="E796" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>01/07/2007</t>
+          <t>01/02/2007</t>
         </is>
       </c>
       <c r="B797" t="inlineStr">
@@ -20352,7 +20352,7 @@
         </is>
       </c>
       <c r="D797" t="n">
-        <v>23875</v>
+        <v>21968</v>
       </c>
       <c r="E797" t="inlineStr">
         <is>
@@ -20363,7 +20363,7 @@
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>01/06/2007</t>
+          <t>01/01/2007</t>
         </is>
       </c>
       <c r="B798" t="inlineStr">
@@ -20377,7 +20377,7 @@
         </is>
       </c>
       <c r="D798" t="n">
-        <v>22080</v>
+        <v>25496</v>
       </c>
       <c r="E798" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>01/05/2007</t>
+          <t>01/07/2007</t>
         </is>
       </c>
       <c r="B799" t="inlineStr">
@@ -20402,7 +20402,7 @@
         </is>
       </c>
       <c r="D799" t="n">
-        <v>18737</v>
+        <v>23875</v>
       </c>
       <c r="E799" t="inlineStr">
         <is>
@@ -20413,7 +20413,7 @@
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>01/03/2007</t>
+          <t>01/06/2007</t>
         </is>
       </c>
       <c r="B800" t="inlineStr">
@@ -20427,7 +20427,7 @@
         </is>
       </c>
       <c r="D800" t="n">
-        <v>24212</v>
+        <v>22080</v>
       </c>
       <c r="E800" t="inlineStr">
         <is>
@@ -20438,7 +20438,7 @@
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>01/11/2007</t>
+          <t>01/05/2007</t>
         </is>
       </c>
       <c r="B801" t="inlineStr">
@@ -20452,7 +20452,7 @@
         </is>
       </c>
       <c r="D801" t="n">
-        <v>22033</v>
+        <v>18737</v>
       </c>
       <c r="E801" t="inlineStr">
         <is>
@@ -20463,7 +20463,7 @@
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>01/10/2007</t>
+          <t>01/03/2007</t>
         </is>
       </c>
       <c r="B802" t="inlineStr">
@@ -20477,7 +20477,7 @@
         </is>
       </c>
       <c r="D802" t="n">
-        <v>23866</v>
+        <v>24212</v>
       </c>
       <c r="E802" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>01/09/2007</t>
+          <t>01/11/2007</t>
         </is>
       </c>
       <c r="B803" t="inlineStr">
@@ -20502,7 +20502,7 @@
         </is>
       </c>
       <c r="D803" t="n">
-        <v>24017</v>
+        <v>22033</v>
       </c>
       <c r="E803" t="inlineStr">
         <is>
@@ -20513,7 +20513,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>01/04/2008</t>
+          <t>01/10/2007</t>
         </is>
       </c>
       <c r="B804" t="inlineStr">
@@ -20527,7 +20527,7 @@
         </is>
       </c>
       <c r="D804" t="n">
-        <v>22341</v>
+        <v>23866</v>
       </c>
       <c r="E804" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>01/08/2008</t>
+          <t>01/09/2007</t>
         </is>
       </c>
       <c r="B805" t="inlineStr">
@@ -20552,7 +20552,7 @@
         </is>
       </c>
       <c r="D805" t="n">
-        <v>23413.9993</v>
+        <v>24017</v>
       </c>
       <c r="E805" t="inlineStr">
         <is>
@@ -20563,7 +20563,7 @@
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>01/12/2008</t>
+          <t>01/04/2008</t>
         </is>
       </c>
       <c r="B806" t="inlineStr">
@@ -20577,7 +20577,7 @@
         </is>
       </c>
       <c r="D806" t="n">
-        <v>21243.0011</v>
+        <v>22341</v>
       </c>
       <c r="E806" t="inlineStr">
         <is>
@@ -20588,7 +20588,7 @@
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>01/02/2008</t>
+          <t>01/08/2008</t>
         </is>
       </c>
       <c r="B807" t="inlineStr">
@@ -20602,7 +20602,7 @@
         </is>
       </c>
       <c r="D807" t="n">
-        <v>20461</v>
+        <v>23413.9993</v>
       </c>
       <c r="E807" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>01/01/2008</t>
+          <t>01/12/2008</t>
         </is>
       </c>
       <c r="B808" t="inlineStr">
@@ -20627,7 +20627,7 @@
         </is>
       </c>
       <c r="D808" t="n">
-        <v>22454</v>
+        <v>21243.0011</v>
       </c>
       <c r="E808" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>01/07/2008</t>
+          <t>01/02/2008</t>
         </is>
       </c>
       <c r="B809" t="inlineStr">
@@ -20652,7 +20652,7 @@
         </is>
       </c>
       <c r="D809" t="n">
-        <v>22084.0001</v>
+        <v>20461</v>
       </c>
       <c r="E809" t="inlineStr">
         <is>
@@ -20663,7 +20663,7 @@
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>01/06/2008</t>
+          <t>01/01/2008</t>
         </is>
       </c>
       <c r="B810" t="inlineStr">
@@ -20677,7 +20677,7 @@
         </is>
       </c>
       <c r="D810" t="n">
-        <v>21446.001</v>
+        <v>22454</v>
       </c>
       <c r="E810" t="inlineStr">
         <is>
@@ -20688,7 +20688,7 @@
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>01/05/2008</t>
+          <t>01/07/2008</t>
         </is>
       </c>
       <c r="B811" t="inlineStr">
@@ -20702,7 +20702,7 @@
         </is>
       </c>
       <c r="D811" t="n">
-        <v>22333</v>
+        <v>22084.0001</v>
       </c>
       <c r="E811" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>01/03/2008</t>
+          <t>01/06/2008</t>
         </is>
       </c>
       <c r="B812" t="inlineStr">
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D812" t="n">
-        <v>22425</v>
+        <v>21446.001</v>
       </c>
       <c r="E812" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>01/11/2008</t>
+          <t>01/05/2008</t>
         </is>
       </c>
       <c r="B813" t="inlineStr">
@@ -20752,7 +20752,7 @@
         </is>
       </c>
       <c r="D813" t="n">
-        <v>20454</v>
+        <v>22333</v>
       </c>
       <c r="E813" t="inlineStr">
         <is>
@@ -20763,7 +20763,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>01/03/2008</t>
         </is>
       </c>
       <c r="B814" t="inlineStr">
@@ -20777,7 +20777,7 @@
         </is>
       </c>
       <c r="D814" t="n">
-        <v>19738.9989</v>
+        <v>22425</v>
       </c>
       <c r="E814" t="inlineStr">
         <is>
@@ -20788,7 +20788,7 @@
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>01/09/2008</t>
+          <t>01/11/2008</t>
         </is>
       </c>
       <c r="B815" t="inlineStr">
@@ -20802,7 +20802,7 @@
         </is>
       </c>
       <c r="D815" t="n">
-        <v>21581.001</v>
+        <v>20454</v>
       </c>
       <c r="E815" t="inlineStr">
         <is>
@@ -20813,7 +20813,7 @@
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>01/04/2009</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="B816" t="inlineStr">
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="D816" t="n">
-        <v>20352.999</v>
+        <v>19738.9989</v>
       </c>
       <c r="E816" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>01/08/2009</t>
+          <t>01/09/2008</t>
         </is>
       </c>
       <c r="B817" t="inlineStr">
@@ -20852,7 +20852,7 @@
         </is>
       </c>
       <c r="D817" t="n">
-        <v>19636.0014</v>
+        <v>21581.001</v>
       </c>
       <c r="E817" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>01/12/2009</t>
+          <t>01/04/2009</t>
         </is>
       </c>
       <c r="B818" t="inlineStr">
@@ -20877,7 +20877,7 @@
         </is>
       </c>
       <c r="D818" t="n">
-        <v>20058.9995</v>
+        <v>20352.999</v>
       </c>
       <c r="E818" t="inlineStr">
         <is>
@@ -20888,7 +20888,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>01/02/2009</t>
+          <t>01/08/2009</t>
         </is>
       </c>
       <c r="B819" t="inlineStr">
@@ -20902,7 +20902,7 @@
         </is>
       </c>
       <c r="D819" t="n">
-        <v>18858.9996</v>
+        <v>19636.0014</v>
       </c>
       <c r="E819" t="inlineStr">
         <is>
@@ -20913,7 +20913,7 @@
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>01/01/2009</t>
+          <t>01/12/2009</t>
         </is>
       </c>
       <c r="B820" t="inlineStr">
@@ -20927,7 +20927,7 @@
         </is>
       </c>
       <c r="D820" t="n">
-        <v>22225.0005</v>
+        <v>20058.9995</v>
       </c>
       <c r="E820" t="inlineStr">
         <is>
@@ -20938,7 +20938,7 @@
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>01/07/2009</t>
+          <t>01/02/2009</t>
         </is>
       </c>
       <c r="B821" t="inlineStr">
@@ -20952,7 +20952,7 @@
         </is>
       </c>
       <c r="D821" t="n">
-        <v>20578.0015</v>
+        <v>18858.9996</v>
       </c>
       <c r="E821" t="inlineStr">
         <is>
@@ -20963,7 +20963,7 @@
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>01/06/2009</t>
+          <t>01/01/2009</t>
         </is>
       </c>
       <c r="B822" t="inlineStr">
@@ -20977,7 +20977,7 @@
         </is>
       </c>
       <c r="D822" t="n">
-        <v>20096.001</v>
+        <v>22225.0005</v>
       </c>
       <c r="E822" t="inlineStr">
         <is>
@@ -20988,7 +20988,7 @@
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>01/05/2009</t>
+          <t>01/07/2009</t>
         </is>
       </c>
       <c r="B823" t="inlineStr">
@@ -21002,7 +21002,7 @@
         </is>
       </c>
       <c r="D823" t="n">
-        <v>20487.001</v>
+        <v>20578.0015</v>
       </c>
       <c r="E823" t="inlineStr">
         <is>
@@ -21013,7 +21013,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>01/03/2009</t>
+          <t>01/06/2009</t>
         </is>
       </c>
       <c r="B824" t="inlineStr">
@@ -21027,7 +21027,7 @@
         </is>
       </c>
       <c r="D824" t="n">
-        <v>21078.9987</v>
+        <v>20096.001</v>
       </c>
       <c r="E824" t="inlineStr">
         <is>
@@ -21038,7 +21038,7 @@
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>01/11/2009</t>
+          <t>01/05/2009</t>
         </is>
       </c>
       <c r="B825" t="inlineStr">
@@ -21052,7 +21052,7 @@
         </is>
       </c>
       <c r="D825" t="n">
-        <v>19530</v>
+        <v>20487.001</v>
       </c>
       <c r="E825" t="inlineStr">
         <is>
@@ -21063,7 +21063,7 @@
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>01/10/2009</t>
+          <t>01/03/2009</t>
         </is>
       </c>
       <c r="B826" t="inlineStr">
@@ -21077,7 +21077,7 @@
         </is>
       </c>
       <c r="D826" t="n">
-        <v>19538.0011</v>
+        <v>21078.9987</v>
       </c>
       <c r="E826" t="inlineStr">
         <is>
@@ -21088,7 +21088,7 @@
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>01/09/2009</t>
+          <t>01/11/2009</t>
         </is>
       </c>
       <c r="B827" t="inlineStr">
@@ -21102,7 +21102,7 @@
         </is>
       </c>
       <c r="D827" t="n">
-        <v>19464</v>
+        <v>19530</v>
       </c>
       <c r="E827" t="inlineStr">
         <is>
@@ -21113,7 +21113,7 @@
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>01/04/2010</t>
+          <t>01/10/2009</t>
         </is>
       </c>
       <c r="B828" t="inlineStr">
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D828" t="n">
-        <v>18477</v>
+        <v>19538.0011</v>
       </c>
       <c r="E828" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>01/08/2010</t>
+          <t>01/09/2009</t>
         </is>
       </c>
       <c r="B829" t="inlineStr">
@@ -21152,7 +21152,7 @@
         </is>
       </c>
       <c r="D829" t="n">
-        <v>19472</v>
+        <v>19464</v>
       </c>
       <c r="E829" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>01/12/2010</t>
+          <t>01/04/2010</t>
         </is>
       </c>
       <c r="B830" t="inlineStr">
@@ -21177,7 +21177,7 @@
         </is>
       </c>
       <c r="D830" t="n">
-        <v>19253</v>
+        <v>18477</v>
       </c>
       <c r="E830" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>01/02/2010</t>
+          <t>01/08/2010</t>
         </is>
       </c>
       <c r="B831" t="inlineStr">
@@ -21202,7 +21202,7 @@
         </is>
       </c>
       <c r="D831" t="n">
-        <v>17250</v>
+        <v>19472</v>
       </c>
       <c r="E831" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>01/01/2010</t>
+          <t>01/12/2010</t>
         </is>
       </c>
       <c r="B832" t="inlineStr">
@@ -21227,7 +21227,7 @@
         </is>
       </c>
       <c r="D832" t="n">
-        <v>19822</v>
+        <v>19253</v>
       </c>
       <c r="E832" t="inlineStr">
         <is>
@@ -21238,7 +21238,7 @@
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>01/07/2010</t>
+          <t>01/02/2010</t>
         </is>
       </c>
       <c r="B833" t="inlineStr">
@@ -21252,7 +21252,7 @@
         </is>
       </c>
       <c r="D833" t="n">
-        <v>19943</v>
+        <v>17250</v>
       </c>
       <c r="E833" t="inlineStr">
         <is>
@@ -21263,7 +21263,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>01/06/2010</t>
+          <t>01/01/2010</t>
         </is>
       </c>
       <c r="B834" t="inlineStr">
@@ -21277,7 +21277,7 @@
         </is>
       </c>
       <c r="D834" t="n">
-        <v>18899</v>
+        <v>19822</v>
       </c>
       <c r="E834" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>01/05/2010</t>
+          <t>01/07/2010</t>
         </is>
       </c>
       <c r="B835" t="inlineStr">
@@ -21302,7 +21302,7 @@
         </is>
       </c>
       <c r="D835" t="n">
-        <v>19225</v>
+        <v>19943</v>
       </c>
       <c r="E835" t="inlineStr">
         <is>
@@ -21313,7 +21313,7 @@
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>01/03/2010</t>
+          <t>01/06/2010</t>
         </is>
       </c>
       <c r="B836" t="inlineStr">
@@ -21327,7 +21327,7 @@
         </is>
       </c>
       <c r="D836" t="n">
-        <v>18557</v>
+        <v>18899</v>
       </c>
       <c r="E836" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>01/11/2010</t>
+          <t>01/05/2010</t>
         </is>
       </c>
       <c r="B837" t="inlineStr">
@@ -21352,7 +21352,7 @@
         </is>
       </c>
       <c r="D837" t="n">
-        <v>18252</v>
+        <v>19225</v>
       </c>
       <c r="E837" t="inlineStr">
         <is>
@@ -21363,7 +21363,7 @@
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>01/10/2010</t>
+          <t>01/03/2010</t>
         </is>
       </c>
       <c r="B838" t="inlineStr">
@@ -21377,7 +21377,7 @@
         </is>
       </c>
       <c r="D838" t="n">
-        <v>19679</v>
+        <v>18557</v>
       </c>
       <c r="E838" t="inlineStr">
         <is>
@@ -21388,7 +21388,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>01/09/2010</t>
+          <t>01/11/2010</t>
         </is>
       </c>
       <c r="B839" t="inlineStr">
@@ -21402,7 +21402,7 @@
         </is>
       </c>
       <c r="D839" t="n">
-        <v>18162</v>
+        <v>18252</v>
       </c>
       <c r="E839" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>01/04/2011</t>
+          <t>01/10/2010</t>
         </is>
       </c>
       <c r="B840" t="inlineStr">
@@ -21427,7 +21427,7 @@
         </is>
       </c>
       <c r="D840" t="n">
-        <v>14211.9</v>
+        <v>19679</v>
       </c>
       <c r="E840" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>01/08/2011</t>
+          <t>01/09/2010</t>
         </is>
       </c>
       <c r="B841" t="inlineStr">
@@ -21452,7 +21452,7 @@
         </is>
       </c>
       <c r="D841" t="n">
-        <v>15656.1</v>
+        <v>18162</v>
       </c>
       <c r="E841" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>01/12/2011</t>
+          <t>01/04/2011</t>
         </is>
       </c>
       <c r="B842" t="inlineStr">
@@ -21477,7 +21477,7 @@
         </is>
       </c>
       <c r="D842" t="n">
-        <v>16836.5</v>
+        <v>14211.9</v>
       </c>
       <c r="E842" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>01/02/2011</t>
+          <t>01/08/2011</t>
         </is>
       </c>
       <c r="B843" t="inlineStr">
@@ -21502,7 +21502,7 @@
         </is>
       </c>
       <c r="D843" t="n">
-        <v>15945.6</v>
+        <v>15656.1</v>
       </c>
       <c r="E843" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>01/01/2011</t>
+          <t>01/12/2011</t>
         </is>
       </c>
       <c r="B844" t="inlineStr">
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D844" t="n">
-        <v>18522.8</v>
+        <v>16836.5</v>
       </c>
       <c r="E844" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>01/07/2011</t>
+          <t>01/02/2011</t>
         </is>
       </c>
       <c r="B845" t="inlineStr">
@@ -21552,7 +21552,7 @@
         </is>
       </c>
       <c r="D845" t="n">
-        <v>14478.2</v>
+        <v>15945.6</v>
       </c>
       <c r="E845" t="inlineStr">
         <is>
@@ -21563,7 +21563,7 @@
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>01/06/2011</t>
+          <t>01/01/2011</t>
         </is>
       </c>
       <c r="B846" t="inlineStr">
@@ -21577,7 +21577,7 @@
         </is>
       </c>
       <c r="D846" t="n">
-        <v>15871.3</v>
+        <v>18522.8</v>
       </c>
       <c r="E846" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>01/05/2011</t>
+          <t>01/07/2011</t>
         </is>
       </c>
       <c r="B847" t="inlineStr">
@@ -21602,7 +21602,7 @@
         </is>
       </c>
       <c r="D847" t="n">
-        <v>17668.9</v>
+        <v>14478.2</v>
       </c>
       <c r="E847" t="inlineStr">
         <is>
@@ -21613,7 +21613,7 @@
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>01/03/2011</t>
+          <t>01/06/2011</t>
         </is>
       </c>
       <c r="B848" t="inlineStr">
@@ -21627,7 +21627,7 @@
         </is>
       </c>
       <c r="D848" t="n">
-        <v>10940.8</v>
+        <v>15871.3</v>
       </c>
       <c r="E848" t="inlineStr">
         <is>
@@ -21638,7 +21638,7 @@
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>01/11/2011</t>
+          <t>01/05/2011</t>
         </is>
       </c>
       <c r="B849" t="inlineStr">
@@ -21652,7 +21652,7 @@
         </is>
       </c>
       <c r="D849" t="n">
-        <v>15787.4</v>
+        <v>17668.9</v>
       </c>
       <c r="E849" t="inlineStr">
         <is>
@@ -21663,7 +21663,7 @@
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>01/10/2011</t>
+          <t>01/03/2011</t>
         </is>
       </c>
       <c r="B850" t="inlineStr">
@@ -21677,7 +21677,7 @@
         </is>
       </c>
       <c r="D850" t="n">
-        <v>16134.4</v>
+        <v>10940.8</v>
       </c>
       <c r="E850" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>01/09/2011</t>
+          <t>01/11/2011</t>
         </is>
       </c>
       <c r="B851" t="inlineStr">
@@ -21702,7 +21702,7 @@
         </is>
       </c>
       <c r="D851" t="n">
-        <v>15096.4</v>
+        <v>15787.4</v>
       </c>
       <c r="E851" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>01/04/2012</t>
+          <t>01/10/2011</t>
         </is>
       </c>
       <c r="B852" t="inlineStr">
@@ -21727,7 +21727,7 @@
         </is>
       </c>
       <c r="D852" t="n">
-        <v>10707.1</v>
+        <v>16134.4</v>
       </c>
       <c r="E852" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>01/08/2012</t>
+          <t>01/09/2011</t>
         </is>
       </c>
       <c r="B853" t="inlineStr">
@@ -21752,7 +21752,7 @@
         </is>
       </c>
       <c r="D853" t="n">
-        <v>16193.1</v>
+        <v>15096.4</v>
       </c>
       <c r="E853" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>01/12/2012</t>
+          <t>01/04/2012</t>
         </is>
       </c>
       <c r="B854" t="inlineStr">
@@ -21777,7 +21777,7 @@
         </is>
       </c>
       <c r="D854" t="n">
-        <v>17393.3</v>
+        <v>10707.1</v>
       </c>
       <c r="E854" t="inlineStr">
         <is>
@@ -21788,7 +21788,7 @@
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>01/02/2012</t>
+          <t>01/08/2012</t>
         </is>
       </c>
       <c r="B855" t="inlineStr">
@@ -21802,7 +21802,7 @@
         </is>
       </c>
       <c r="D855" t="n">
-        <v>14260.4</v>
+        <v>16193.1</v>
       </c>
       <c r="E855" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>01/12/2012</t>
         </is>
       </c>
       <c r="B856" t="inlineStr">
@@ -21827,7 +21827,7 @@
         </is>
       </c>
       <c r="D856" t="n">
-        <v>16058.3</v>
+        <v>17393.3</v>
       </c>
       <c r="E856" t="inlineStr">
         <is>
@@ -21838,7 +21838,7 @@
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>01/07/2012</t>
+          <t>01/02/2012</t>
         </is>
       </c>
       <c r="B857" t="inlineStr">
@@ -21852,7 +21852,7 @@
         </is>
       </c>
       <c r="D857" t="n">
-        <v>12701.4</v>
+        <v>14260.4</v>
       </c>
       <c r="E857" t="inlineStr">
         <is>
@@ -21863,7 +21863,7 @@
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>01/06/2012</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="B858" t="inlineStr">
@@ -21877,7 +21877,7 @@
         </is>
       </c>
       <c r="D858" t="n">
-        <v>10851.8</v>
+        <v>16058.3</v>
       </c>
       <c r="E858" t="inlineStr">
         <is>
@@ -21888,7 +21888,7 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>01/05/2012</t>
+          <t>01/07/2012</t>
         </is>
       </c>
       <c r="B859" t="inlineStr">
@@ -21902,7 +21902,7 @@
         </is>
       </c>
       <c r="D859" t="n">
-        <v>10692</v>
+        <v>12701.4</v>
       </c>
       <c r="E859" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>01/03/2012</t>
+          <t>01/06/2012</t>
         </is>
       </c>
       <c r="B860" t="inlineStr">
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D860" t="n">
-        <v>14311.3</v>
+        <v>10851.8</v>
       </c>
       <c r="E860" t="inlineStr">
         <is>
@@ -21938,7 +21938,7 @@
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>01/11/2012</t>
+          <t>01/05/2012</t>
         </is>
       </c>
       <c r="B861" t="inlineStr">
@@ -21952,7 +21952,7 @@
         </is>
       </c>
       <c r="D861" t="n">
-        <v>16574.9</v>
+        <v>10692</v>
       </c>
       <c r="E861" t="inlineStr">
         <is>
@@ -21963,7 +21963,7 @@
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>01/10/2012</t>
+          <t>01/03/2012</t>
         </is>
       </c>
       <c r="B862" t="inlineStr">
@@ -21977,7 +21977,7 @@
         </is>
       </c>
       <c r="D862" t="n">
-        <v>13682.2</v>
+        <v>14311.3</v>
       </c>
       <c r="E862" t="inlineStr">
         <is>
@@ -21988,7 +21988,7 @@
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>01/09/2012</t>
+          <t>01/11/2012</t>
         </is>
       </c>
       <c r="B863" t="inlineStr">
@@ -22002,7 +22002,7 @@
         </is>
       </c>
       <c r="D863" t="n">
-        <v>12246</v>
+        <v>16574.9</v>
       </c>
       <c r="E863" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>01/04/2013</t>
+          <t>01/10/2012</t>
         </is>
       </c>
       <c r="B864" t="inlineStr">
@@ -22027,7 +22027,7 @@
         </is>
       </c>
       <c r="D864" t="n">
-        <v>15186.2</v>
+        <v>13682.2</v>
       </c>
       <c r="E864" t="inlineStr">
         <is>
@@ -22038,7 +22038,7 @@
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>01/08/2013</t>
+          <t>01/09/2012</t>
         </is>
       </c>
       <c r="B865" t="inlineStr">
@@ -22052,7 +22052,7 @@
         </is>
       </c>
       <c r="D865" t="n">
-        <v>14998.4</v>
+        <v>12246</v>
       </c>
       <c r="E865" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>01/12/2013</t>
+          <t>01/04/2013</t>
         </is>
       </c>
       <c r="B866" t="inlineStr">
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D866" t="n">
-        <v>15576.1</v>
+        <v>15186.2</v>
       </c>
       <c r="E866" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>01/02/2013</t>
+          <t>01/08/2013</t>
         </is>
       </c>
       <c r="B867" t="inlineStr">
@@ -22102,7 +22102,7 @@
         </is>
       </c>
       <c r="D867" t="n">
-        <v>14992.1</v>
+        <v>14998.4</v>
       </c>
       <c r="E867" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/12/2013</t>
         </is>
       </c>
       <c r="B868" t="inlineStr">
@@ -22127,7 +22127,7 @@
         </is>
       </c>
       <c r="D868" t="n">
-        <v>16653.1</v>
+        <v>15576.1</v>
       </c>
       <c r="E868" t="inlineStr">
         <is>
@@ -22138,7 +22138,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>01/07/2013</t>
+          <t>01/02/2013</t>
         </is>
       </c>
       <c r="B869" t="inlineStr">
@@ -22152,7 +22152,7 @@
         </is>
       </c>
       <c r="D869" t="n">
-        <v>15326.3</v>
+        <v>14992.1</v>
       </c>
       <c r="E869" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>01/06/2013</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="B870" t="inlineStr">
@@ -22177,7 +22177,7 @@
         </is>
       </c>
       <c r="D870" t="n">
-        <v>15355.6</v>
+        <v>16653.1</v>
       </c>
       <c r="E870" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>01/05/2013</t>
+          <t>01/07/2013</t>
         </is>
       </c>
       <c r="B871" t="inlineStr">
@@ -22202,7 +22202,7 @@
         </is>
       </c>
       <c r="D871" t="n">
-        <v>14825.2</v>
+        <v>15326.3</v>
       </c>
       <c r="E871" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>01/03/2013</t>
+          <t>01/06/2013</t>
         </is>
       </c>
       <c r="B872" t="inlineStr">
@@ -22227,7 +22227,7 @@
         </is>
       </c>
       <c r="D872" t="n">
-        <v>15537.2</v>
+        <v>15355.6</v>
       </c>
       <c r="E872" t="inlineStr">
         <is>
@@ -22238,7 +22238,7 @@
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>01/11/2013</t>
+          <t>01/05/2013</t>
         </is>
       </c>
       <c r="B873" t="inlineStr">
@@ -22252,7 +22252,7 @@
         </is>
       </c>
       <c r="D873" t="n">
-        <v>14997.2</v>
+        <v>14825.2</v>
       </c>
       <c r="E873" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>01/03/2013</t>
         </is>
       </c>
       <c r="B874" t="inlineStr">
@@ -22277,7 +22277,7 @@
         </is>
       </c>
       <c r="D874" t="n">
-        <v>14495.7</v>
+        <v>15537.2</v>
       </c>
       <c r="E874" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>01/09/2013</t>
+          <t>01/11/2013</t>
         </is>
       </c>
       <c r="B875" t="inlineStr">
@@ -22302,7 +22302,7 @@
         </is>
       </c>
       <c r="D875" t="n">
-        <v>14777.2</v>
+        <v>14997.2</v>
       </c>
       <c r="E875" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>01/04/2014</t>
+          <t>01/10/2013</t>
         </is>
       </c>
       <c r="B876" t="inlineStr">
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D876" t="n">
-        <v>15228.7</v>
+        <v>14495.7</v>
       </c>
       <c r="E876" t="inlineStr">
         <is>
@@ -22338,7 +22338,7 @@
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>01/08/2014</t>
+          <t>01/09/2013</t>
         </is>
       </c>
       <c r="B877" t="inlineStr">
@@ -22352,7 +22352,7 @@
         </is>
       </c>
       <c r="D877" t="n">
-        <v>14545.5</v>
+        <v>14777.2</v>
       </c>
       <c r="E877" t="inlineStr">
         <is>
@@ -22363,7 +22363,7 @@
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>01/12/2014</t>
+          <t>01/04/2014</t>
         </is>
       </c>
       <c r="B878" t="inlineStr">
@@ -22377,7 +22377,7 @@
         </is>
       </c>
       <c r="D878" t="n">
-        <v>13264.2</v>
+        <v>15228.7</v>
       </c>
       <c r="E878" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>01/02/2014</t>
+          <t>01/08/2014</t>
         </is>
       </c>
       <c r="B879" t="inlineStr">
@@ -22402,7 +22402,7 @@
         </is>
       </c>
       <c r="D879" t="n">
-        <v>13542.3</v>
+        <v>14545.5</v>
       </c>
       <c r="E879" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/12/2014</t>
         </is>
       </c>
       <c r="B880" t="inlineStr">
@@ -22427,7 +22427,7 @@
         </is>
       </c>
       <c r="D880" t="n">
-        <v>15019.1</v>
+        <v>13264.2</v>
       </c>
       <c r="E880" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
+          <t>01/02/2014</t>
         </is>
       </c>
       <c r="B881" t="inlineStr">
@@ -22452,7 +22452,7 @@
         </is>
       </c>
       <c r="D881" t="n">
-        <v>14900.7</v>
+        <v>13542.3</v>
       </c>
       <c r="E881" t="inlineStr">
         <is>
@@ -22463,7 +22463,7 @@
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>01/06/2014</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="B882" t="inlineStr">
@@ -22477,7 +22477,7 @@
         </is>
       </c>
       <c r="D882" t="n">
-        <v>14977.9</v>
+        <v>15019.1</v>
       </c>
       <c r="E882" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>01/05/2014</t>
+          <t>01/07/2014</t>
         </is>
       </c>
       <c r="B883" t="inlineStr">
@@ -22502,7 +22502,7 @@
         </is>
       </c>
       <c r="D883" t="n">
-        <v>16141.5</v>
+        <v>14900.7</v>
       </c>
       <c r="E883" t="inlineStr">
         <is>
@@ -22513,7 +22513,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>01/03/2014</t>
+          <t>01/06/2014</t>
         </is>
       </c>
       <c r="B884" t="inlineStr">
@@ -22527,7 +22527,7 @@
         </is>
       </c>
       <c r="D884" t="n">
-        <v>15178.7</v>
+        <v>14977.9</v>
       </c>
       <c r="E884" t="inlineStr">
         <is>
@@ -22538,7 +22538,7 @@
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>01/11/2014</t>
+          <t>01/05/2014</t>
         </is>
       </c>
       <c r="B885" t="inlineStr">
@@ -22552,7 +22552,7 @@
         </is>
       </c>
       <c r="D885" t="n">
-        <v>11227.8</v>
+        <v>16141.5</v>
       </c>
       <c r="E885" t="inlineStr">
         <is>
@@ -22563,7 +22563,7 @@
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>01/10/2014</t>
+          <t>01/03/2014</t>
         </is>
       </c>
       <c r="B886" t="inlineStr">
@@ -22577,7 +22577,7 @@
         </is>
       </c>
       <c r="D886" t="n">
-        <v>14384.8</v>
+        <v>15178.7</v>
       </c>
       <c r="E886" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>01/09/2014</t>
+          <t>01/11/2014</t>
         </is>
       </c>
       <c r="B887" t="inlineStr">
@@ -22602,7 +22602,7 @@
         </is>
       </c>
       <c r="D887" t="n">
-        <v>13936.6</v>
+        <v>11227.8</v>
       </c>
       <c r="E887" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>01/04/2015</t>
+          <t>01/10/2014</t>
         </is>
       </c>
       <c r="B888" t="inlineStr">
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="D888" t="n">
-        <v>13917.8</v>
+        <v>14384.8</v>
       </c>
       <c r="E888" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>01/08/2015</t>
+          <t>01/09/2014</t>
         </is>
       </c>
       <c r="B889" t="inlineStr">
@@ -22652,7 +22652,7 @@
         </is>
       </c>
       <c r="D889" t="n">
-        <v>11403.3</v>
+        <v>13936.6</v>
       </c>
       <c r="E889" t="inlineStr">
         <is>
@@ -22663,7 +22663,7 @@
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>01/12/2015</t>
+          <t>01/04/2015</t>
         </is>
       </c>
       <c r="B890" t="inlineStr">
@@ -22677,7 +22677,7 @@
         </is>
       </c>
       <c r="D890" t="n">
-        <v>9425.700000000001</v>
+        <v>13917.8</v>
       </c>
       <c r="E890" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>01/02/2015</t>
+          <t>01/08/2015</t>
         </is>
       </c>
       <c r="B891" t="inlineStr">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="D891" t="n">
-        <v>13004.4</v>
+        <v>11403.3</v>
       </c>
       <c r="E891" t="inlineStr">
         <is>
@@ -22713,7 +22713,7 @@
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/12/2015</t>
         </is>
       </c>
       <c r="B892" t="inlineStr">
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D892" t="n">
-        <v>14478.2</v>
+        <v>9425.700000000001</v>
       </c>
       <c r="E892" t="inlineStr">
         <is>
@@ -22738,7 +22738,7 @@
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>01/07/2015</t>
+          <t>01/02/2015</t>
         </is>
       </c>
       <c r="B893" t="inlineStr">
@@ -22752,7 +22752,7 @@
         </is>
       </c>
       <c r="D893" t="n">
-        <v>11946.4</v>
+        <v>13004.4</v>
       </c>
       <c r="E893" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>01/06/2015</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="B894" t="inlineStr">
@@ -22777,7 +22777,7 @@
         </is>
       </c>
       <c r="D894" t="n">
-        <v>12385.6</v>
+        <v>14478.2</v>
       </c>
       <c r="E894" t="inlineStr">
         <is>
@@ -22788,7 +22788,7 @@
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>01/05/2015</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="B895" t="inlineStr">
@@ -22802,7 +22802,7 @@
         </is>
       </c>
       <c r="D895" t="n">
-        <v>12823.9</v>
+        <v>11946.4</v>
       </c>
       <c r="E895" t="inlineStr">
         <is>
@@ -22813,7 +22813,7 @@
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>01/03/2015</t>
+          <t>01/06/2015</t>
         </is>
       </c>
       <c r="B896" t="inlineStr">
@@ -22827,7 +22827,7 @@
         </is>
       </c>
       <c r="D896" t="n">
-        <v>14916.8</v>
+        <v>12385.6</v>
       </c>
       <c r="E896" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>01/11/2015</t>
+          <t>01/05/2015</t>
         </is>
       </c>
       <c r="B897" t="inlineStr">
@@ -22852,7 +22852,7 @@
         </is>
       </c>
       <c r="D897" t="n">
-        <v>5361.7</v>
+        <v>12823.9</v>
       </c>
       <c r="E897" t="inlineStr">
         <is>
@@ -22863,7 +22863,7 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/03/2015</t>
         </is>
       </c>
       <c r="B898" t="inlineStr">
@@ -22877,7 +22877,7 @@
         </is>
       </c>
       <c r="D898" t="n">
-        <v>11384.7</v>
+        <v>14916.8</v>
       </c>
       <c r="E898" t="inlineStr">
         <is>
@@ -22888,7 +22888,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>01/09/2015</t>
+          <t>01/11/2015</t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
@@ -22902,7 +22902,7 @@
         </is>
       </c>
       <c r="D899" t="n">
-        <v>11927.3</v>
+        <v>5361.7</v>
       </c>
       <c r="E899" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>01/04/2016</t>
+          <t>01/10/2015</t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
@@ -22927,7 +22927,7 @@
         </is>
       </c>
       <c r="D900" t="n">
-        <v>9074.1</v>
+        <v>11384.7</v>
       </c>
       <c r="E900" t="inlineStr">
         <is>
@@ -22938,7 +22938,7 @@
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>01/08/2016</t>
+          <t>01/09/2015</t>
         </is>
       </c>
       <c r="B901" t="inlineStr">
@@ -22952,7 +22952,7 @@
         </is>
       </c>
       <c r="D901" t="n">
-        <v>9273.799999999999</v>
+        <v>11927.3</v>
       </c>
       <c r="E901" t="inlineStr">
         <is>
@@ -22963,7 +22963,7 @@
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>01/12/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="B902" t="inlineStr">
@@ -22977,7 +22977,7 @@
         </is>
       </c>
       <c r="D902" t="n">
-        <v>3213.5</v>
+        <v>9074.1</v>
       </c>
       <c r="E902" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>01/02/2016</t>
+          <t>01/08/2016</t>
         </is>
       </c>
       <c r="B903" t="inlineStr">
@@ -23002,7 +23002,7 @@
         </is>
       </c>
       <c r="D903" t="n">
-        <v>8886.4</v>
+        <v>9273.799999999999</v>
       </c>
       <c r="E903" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/12/2016</t>
         </is>
       </c>
       <c r="B904" t="inlineStr">
@@ -23027,7 +23027,7 @@
         </is>
       </c>
       <c r="D904" t="n">
-        <v>9118.200000000001</v>
+        <v>3213.5</v>
       </c>
       <c r="E904" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
+          <t>01/02/2016</t>
         </is>
       </c>
       <c r="B905" t="inlineStr">
@@ -23052,7 +23052,7 @@
         </is>
       </c>
       <c r="D905" t="n">
-        <v>9093.799999999999</v>
+        <v>8886.4</v>
       </c>
       <c r="E905" t="inlineStr">
         <is>
@@ -23063,7 +23063,7 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>01/06/2016</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="B906" t="inlineStr">
@@ -23077,7 +23077,7 @@
         </is>
       </c>
       <c r="D906" t="n">
-        <v>8134.5</v>
+        <v>9118.200000000001</v>
       </c>
       <c r="E906" t="inlineStr">
         <is>
@@ -23088,7 +23088,7 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>01/05/2016</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="B907" t="inlineStr">
@@ -23102,7 +23102,7 @@
         </is>
       </c>
       <c r="D907" t="n">
-        <v>9412.299999999999</v>
+        <v>9093.799999999999</v>
       </c>
       <c r="E907" t="inlineStr">
         <is>
@@ -23113,7 +23113,7 @@
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>01/03/2016</t>
+          <t>01/06/2016</t>
         </is>
       </c>
       <c r="B908" t="inlineStr">
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D908" t="n">
-        <v>9861.1</v>
+        <v>8134.5</v>
       </c>
       <c r="E908" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>01/11/2016</t>
+          <t>01/05/2016</t>
         </is>
       </c>
       <c r="B909" t="inlineStr">
@@ -23152,7 +23152,7 @@
         </is>
       </c>
       <c r="D909" t="n">
-        <v>7657.6</v>
+        <v>9412.299999999999</v>
       </c>
       <c r="E909" t="inlineStr">
         <is>
@@ -23163,7 +23163,7 @@
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/03/2016</t>
         </is>
       </c>
       <c r="B910" t="inlineStr">
@@ -23177,7 +23177,7 @@
         </is>
       </c>
       <c r="D910" t="n">
-        <v>8933.1</v>
+        <v>9861.1</v>
       </c>
       <c r="E910" t="inlineStr">
         <is>
@@ -23188,7 +23188,7 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>01/09/2016</t>
+          <t>01/11/2016</t>
         </is>
       </c>
       <c r="B911" t="inlineStr">
@@ -23202,7 +23202,7 @@
         </is>
       </c>
       <c r="D911" t="n">
-        <v>8977.299999999999</v>
+        <v>7657.6</v>
       </c>
       <c r="E911" t="inlineStr">
         <is>
@@ -23213,7 +23213,7 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>01/04/2017</t>
+          <t>01/10/2016</t>
         </is>
       </c>
       <c r="B912" t="inlineStr">
@@ -23227,7 +23227,7 @@
         </is>
       </c>
       <c r="D912" t="n">
-        <v>6856.1</v>
+        <v>8933.1</v>
       </c>
       <c r="E912" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>01/08/2017</t>
+          <t>01/09/2016</t>
         </is>
       </c>
       <c r="B913" t="inlineStr">
@@ -23252,7 +23252,7 @@
         </is>
       </c>
       <c r="D913" t="n">
-        <v>7185.4</v>
+        <v>8977.299999999999</v>
       </c>
       <c r="E913" t="inlineStr">
         <is>
@@ -23263,7 +23263,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>01/12/2017</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="B914" t="inlineStr">
@@ -23277,7 +23277,7 @@
         </is>
       </c>
       <c r="D914" t="n">
-        <v>9617.700000000001</v>
+        <v>6856.1</v>
       </c>
       <c r="E914" t="inlineStr">
         <is>
@@ -23288,7 +23288,7 @@
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>01/02/2017</t>
+          <t>01/08/2017</t>
         </is>
       </c>
       <c r="B915" t="inlineStr">
@@ -23302,7 +23302,7 @@
         </is>
       </c>
       <c r="D915" t="n">
-        <v>6279.5</v>
+        <v>7185.4</v>
       </c>
       <c r="E915" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/12/2017</t>
         </is>
       </c>
       <c r="B916" t="inlineStr">
@@ -23327,7 +23327,7 @@
         </is>
       </c>
       <c r="D916" t="n">
-        <v>7743.8</v>
+        <v>9617.700000000001</v>
       </c>
       <c r="E916" t="inlineStr">
         <is>
@@ -23338,7 +23338,7 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
+          <t>01/02/2017</t>
         </is>
       </c>
       <c r="B917" t="inlineStr">
@@ -23352,7 +23352,7 @@
         </is>
       </c>
       <c r="D917" t="n">
-        <v>6753.2</v>
+        <v>6279.5</v>
       </c>
       <c r="E917" t="inlineStr">
         <is>
@@ -23363,7 +23363,7 @@
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>01/06/2017</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="B918" t="inlineStr">
@@ -23377,7 +23377,7 @@
         </is>
       </c>
       <c r="D918" t="n">
-        <v>6679</v>
+        <v>7743.8</v>
       </c>
       <c r="E918" t="inlineStr">
         <is>
@@ -23388,7 +23388,7 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>01/05/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="B919" t="inlineStr">
@@ -23402,7 +23402,7 @@
         </is>
       </c>
       <c r="D919" t="n">
-        <v>6777</v>
+        <v>6753.2</v>
       </c>
       <c r="E919" t="inlineStr">
         <is>
@@ -23413,7 +23413,7 @@
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>01/03/2017</t>
+          <t>01/06/2017</t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
@@ -23427,7 +23427,7 @@
         </is>
       </c>
       <c r="D920" t="n">
-        <v>7180</v>
+        <v>6679</v>
       </c>
       <c r="E920" t="inlineStr">
         <is>
@@ -23438,7 +23438,7 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>01/11/2017</t>
+          <t>01/05/2017</t>
         </is>
       </c>
       <c r="B921" t="inlineStr">
@@ -23452,7 +23452,7 @@
         </is>
       </c>
       <c r="D921" t="n">
-        <v>7720.9</v>
+        <v>6777</v>
       </c>
       <c r="E921" t="inlineStr">
         <is>
@@ -23463,7 +23463,7 @@
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/03/2017</t>
         </is>
       </c>
       <c r="B922" t="inlineStr">
@@ -23477,7 +23477,7 @@
         </is>
       </c>
       <c r="D922" t="n">
-        <v>7765.07</v>
+        <v>7180</v>
       </c>
       <c r="E922" t="inlineStr">
         <is>
@@ -23488,7 +23488,7 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>01/09/2017</t>
+          <t>01/11/2017</t>
         </is>
       </c>
       <c r="B923" t="inlineStr">
@@ -23502,7 +23502,7 @@
         </is>
       </c>
       <c r="D923" t="n">
-        <v>7191.4</v>
+        <v>7720.9</v>
       </c>
       <c r="E923" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>01/04/2018</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="B924" t="inlineStr">
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D924" t="n">
-        <v>6020</v>
+        <v>7765.07</v>
       </c>
       <c r="E924" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>01/08/2018</t>
+          <t>01/09/2017</t>
         </is>
       </c>
       <c r="B925" t="inlineStr">
@@ -23552,7 +23552,7 @@
         </is>
       </c>
       <c r="D925" t="n">
-        <v>5969</v>
+        <v>7191.4</v>
       </c>
       <c r="E925" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>01/12/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="B926" t="inlineStr">
@@ -23577,7 +23577,7 @@
         </is>
       </c>
       <c r="D926" t="n">
-        <v>6061</v>
+        <v>6020</v>
       </c>
       <c r="E926" t="inlineStr">
         <is>
@@ -23588,7 +23588,7 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>01/02/2018</t>
+          <t>01/08/2018</t>
         </is>
       </c>
       <c r="B927" t="inlineStr">
@@ -23602,7 +23602,7 @@
         </is>
       </c>
       <c r="D927" t="n">
-        <v>6141.6</v>
+        <v>5969</v>
       </c>
       <c r="E927" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/12/2018</t>
         </is>
       </c>
       <c r="B928" t="inlineStr">
@@ -23627,7 +23627,7 @@
         </is>
       </c>
       <c r="D928" t="n">
-        <v>7289.478</v>
+        <v>6061</v>
       </c>
       <c r="E928" t="inlineStr">
         <is>
@@ -23638,7 +23638,7 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>01/02/2018</t>
         </is>
       </c>
       <c r="B929" t="inlineStr">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="D929" t="n">
-        <v>5621.504</v>
+        <v>6141.6</v>
       </c>
       <c r="E929" t="inlineStr">
         <is>
@@ -23663,7 +23663,7 @@
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>01/06/2018</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="B930" t="inlineStr">
@@ -23677,7 +23677,7 @@
         </is>
       </c>
       <c r="D930" t="n">
-        <v>5487.042</v>
+        <v>7289.478</v>
       </c>
       <c r="E930" t="inlineStr">
         <is>
@@ -23688,7 +23688,7 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>01/05/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="B931" t="inlineStr">
@@ -23702,7 +23702,7 @@
         </is>
       </c>
       <c r="D931" t="n">
-        <v>5549.7</v>
+        <v>5621.504</v>
       </c>
       <c r="E931" t="inlineStr">
         <is>
@@ -23713,7 +23713,7 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>01/03/2018</t>
+          <t>01/06/2018</t>
         </is>
       </c>
       <c r="B932" t="inlineStr">
@@ -23727,7 +23727,7 @@
         </is>
       </c>
       <c r="D932" t="n">
-        <v>6426.258</v>
+        <v>5487.042</v>
       </c>
       <c r="E932" t="inlineStr">
         <is>
@@ -23738,7 +23738,7 @@
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>01/11/2018</t>
+          <t>01/05/2018</t>
         </is>
       </c>
       <c r="B933" t="inlineStr">
@@ -23752,7 +23752,7 @@
         </is>
       </c>
       <c r="D933" t="n">
-        <v>5685.5</v>
+        <v>5549.7</v>
       </c>
       <c r="E933" t="inlineStr">
         <is>
@@ -23763,7 +23763,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/03/2018</t>
         </is>
       </c>
       <c r="B934" t="inlineStr">
@@ -23777,7 +23777,7 @@
         </is>
       </c>
       <c r="D934" t="n">
-        <v>5916.66</v>
+        <v>6426.258</v>
       </c>
       <c r="E934" t="inlineStr">
         <is>
@@ -23788,7 +23788,7 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>01/09/2018</t>
+          <t>01/11/2018</t>
         </is>
       </c>
       <c r="B935" t="inlineStr">
@@ -23802,7 +23802,7 @@
         </is>
       </c>
       <c r="D935" t="n">
-        <v>5970.399</v>
+        <v>5685.5</v>
       </c>
       <c r="E935" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="B936" t="inlineStr">
@@ -23827,7 +23827,7 @@
         </is>
       </c>
       <c r="D936" t="n">
-        <v>5391.2</v>
+        <v>5916.66</v>
       </c>
       <c r="E936" t="inlineStr">
         <is>
@@ -23838,7 +23838,7 @@
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>01/08/2019</t>
+          <t>01/09/2018</t>
         </is>
       </c>
       <c r="B937" t="inlineStr">
@@ -23852,7 +23852,7 @@
         </is>
       </c>
       <c r="D937" t="n">
-        <v>4054.5</v>
+        <v>5970.399</v>
       </c>
       <c r="E937" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>01/12/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="B938" t="inlineStr">
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D938" t="n">
-        <v>4830.4</v>
+        <v>5391.2</v>
       </c>
       <c r="E938" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>01/02/2019</t>
+          <t>01/08/2019</t>
         </is>
       </c>
       <c r="B939" t="inlineStr">
@@ -23902,7 +23902,7 @@
         </is>
       </c>
       <c r="D939" t="n">
-        <v>3997.1</v>
+        <v>4054.5</v>
       </c>
       <c r="E939" t="inlineStr">
         <is>
@@ -23913,7 +23913,7 @@
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/12/2019</t>
         </is>
       </c>
       <c r="B940" t="inlineStr">
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D940" t="n">
-        <v>5711.1</v>
+        <v>4830.4</v>
       </c>
       <c r="E940" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/02/2019</t>
         </is>
       </c>
       <c r="B941" t="inlineStr">
@@ -23952,7 +23952,7 @@
         </is>
       </c>
       <c r="D941" t="n">
-        <v>4524.82</v>
+        <v>3997.1</v>
       </c>
       <c r="E941" t="inlineStr">
         <is>
@@ -23963,7 +23963,7 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>01/06/2019</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="B942" t="inlineStr">
@@ -23977,7 +23977,7 @@
         </is>
       </c>
       <c r="D942" t="n">
-        <v>4716.577</v>
+        <v>5711.1</v>
       </c>
       <c r="E942" t="inlineStr">
         <is>
@@ -23988,7 +23988,7 @@
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>01/05/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="B943" t="inlineStr">
@@ -24002,7 +24002,7 @@
         </is>
       </c>
       <c r="D943" t="n">
-        <v>5361.2</v>
+        <v>4524.82</v>
       </c>
       <c r="E943" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>01/03/2019</t>
+          <t>01/06/2019</t>
         </is>
       </c>
       <c r="B944" t="inlineStr">
@@ -24027,7 +24027,7 @@
         </is>
       </c>
       <c r="D944" t="n">
-        <v>4734.9</v>
+        <v>4716.577</v>
       </c>
       <c r="E944" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>01/11/2019</t>
+          <t>01/05/2019</t>
         </is>
       </c>
       <c r="B945" t="inlineStr">
@@ -24052,7 +24052,7 @@
         </is>
       </c>
       <c r="D945" t="n">
-        <v>3812.4</v>
+        <v>5361.2</v>
       </c>
       <c r="E945" t="inlineStr">
         <is>
@@ -24063,7 +24063,7 @@
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/03/2019</t>
         </is>
       </c>
       <c r="B946" t="inlineStr">
@@ -24077,7 +24077,7 @@
         </is>
       </c>
       <c r="D946" t="n">
-        <v>4339.8</v>
+        <v>4734.9</v>
       </c>
       <c r="E946" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>01/09/2019</t>
+          <t>01/11/2019</t>
         </is>
       </c>
       <c r="B947" t="inlineStr">
@@ -24102,7 +24102,7 @@
         </is>
       </c>
       <c r="D947" t="n">
-        <v>3820.9</v>
+        <v>3812.4</v>
       </c>
       <c r="E947" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="B948" t="inlineStr">
@@ -24127,7 +24127,7 @@
         </is>
       </c>
       <c r="D948" t="n">
-        <v>0</v>
+        <v>4339.8</v>
       </c>
       <c r="E948" t="inlineStr">
         <is>
@@ -24138,7 +24138,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>01/08/2020</t>
+          <t>01/09/2019</t>
         </is>
       </c>
       <c r="B949" t="inlineStr">
@@ -24152,7 +24152,7 @@
         </is>
       </c>
       <c r="D949" t="n">
-        <v>0</v>
+        <v>3820.9</v>
       </c>
       <c r="E949" t="inlineStr">
         <is>
@@ -24163,7 +24163,7 @@
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>01/12/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="B950" t="inlineStr">
@@ -24188,7 +24188,7 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>01/02/2020</t>
+          <t>01/08/2020</t>
         </is>
       </c>
       <c r="B951" t="inlineStr">
@@ -24202,7 +24202,7 @@
         </is>
       </c>
       <c r="D951" t="n">
-        <v>5762.358</v>
+        <v>0</v>
       </c>
       <c r="E951" t="inlineStr">
         <is>
@@ -24213,7 +24213,7 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/12/2020</t>
         </is>
       </c>
       <c r="B952" t="inlineStr">
@@ -24227,7 +24227,7 @@
         </is>
       </c>
       <c r="D952" t="n">
-        <v>5560.337</v>
+        <v>0</v>
       </c>
       <c r="E952" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/02/2020</t>
         </is>
       </c>
       <c r="B953" t="inlineStr">
@@ -24252,7 +24252,7 @@
         </is>
       </c>
       <c r="D953" t="n">
-        <v>0</v>
+        <v>5762.358</v>
       </c>
       <c r="E953" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>01/06/2020</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="B954" t="inlineStr">
@@ -24277,7 +24277,7 @@
         </is>
       </c>
       <c r="D954" t="n">
-        <v>0</v>
+        <v>5560.337</v>
       </c>
       <c r="E954" t="inlineStr">
         <is>
@@ -24288,7 +24288,7 @@
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>01/05/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="B955" t="inlineStr">
@@ -24313,7 +24313,7 @@
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>01/03/2020</t>
+          <t>01/06/2020</t>
         </is>
       </c>
       <c r="B956" t="inlineStr">
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D956" t="n">
-        <v>5496</v>
+        <v>0</v>
       </c>
       <c r="E956" t="inlineStr">
         <is>
@@ -24338,7 +24338,7 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>01/11/2020</t>
+          <t>01/05/2020</t>
         </is>
       </c>
       <c r="B957" t="inlineStr">
@@ -24363,7 +24363,7 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/03/2020</t>
         </is>
       </c>
       <c r="B958" t="inlineStr">
@@ -24377,7 +24377,7 @@
         </is>
       </c>
       <c r="D958" t="n">
-        <v>0</v>
+        <v>5496</v>
       </c>
       <c r="E958" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>01/09/2020</t>
+          <t>01/11/2020</t>
         </is>
       </c>
       <c r="B959" t="inlineStr">
@@ -24413,7 +24413,7 @@
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="B960" t="inlineStr">
@@ -24438,7 +24438,7 @@
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>01/08/2021</t>
+          <t>01/09/2020</t>
         </is>
       </c>
       <c r="B961" t="inlineStr">
@@ -24463,7 +24463,7 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>01/12/2021</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="B962" t="inlineStr">
@@ -24488,7 +24488,7 @@
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>01/02/2021</t>
+          <t>01/08/2021</t>
         </is>
       </c>
       <c r="B963" t="inlineStr">
@@ -24513,7 +24513,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/12/2021</t>
         </is>
       </c>
       <c r="B964" t="inlineStr">
@@ -24538,7 +24538,7 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/02/2021</t>
         </is>
       </c>
       <c r="B965" t="inlineStr">
@@ -24563,7 +24563,7 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>01/06/2021</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="B966" t="inlineStr">
@@ -24588,7 +24588,7 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>01/05/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="B967" t="inlineStr">
@@ -24613,7 +24613,7 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>01/03/2021</t>
+          <t>01/06/2021</t>
         </is>
       </c>
       <c r="B968" t="inlineStr">
@@ -24638,7 +24638,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>01/11/2021</t>
+          <t>01/05/2021</t>
         </is>
       </c>
       <c r="B969" t="inlineStr">
@@ -24663,7 +24663,7 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/03/2021</t>
         </is>
       </c>
       <c r="B970" t="inlineStr">
@@ -24688,7 +24688,7 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>01/09/2021</t>
+          <t>01/11/2021</t>
         </is>
       </c>
       <c r="B971" t="inlineStr">
@@ -24713,7 +24713,7 @@
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="B972" t="inlineStr">
@@ -24738,7 +24738,7 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>01/08/2022</t>
+          <t>01/09/2021</t>
         </is>
       </c>
       <c r="B973" t="inlineStr">
@@ -24763,7 +24763,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>01/12/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="B974" t="inlineStr">
@@ -24788,7 +24788,7 @@
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>01/02/2022</t>
+          <t>01/08/2022</t>
         </is>
       </c>
       <c r="B975" t="inlineStr">
@@ -24813,7 +24813,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/12/2022</t>
         </is>
       </c>
       <c r="B976" t="inlineStr">
@@ -24838,7 +24838,7 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/02/2022</t>
         </is>
       </c>
       <c r="B977" t="inlineStr">
@@ -24863,7 +24863,7 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>01/06/2022</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="B978" t="inlineStr">
@@ -24888,7 +24888,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>01/05/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="B979" t="inlineStr">
@@ -24913,7 +24913,7 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>01/03/2022</t>
+          <t>01/06/2022</t>
         </is>
       </c>
       <c r="B980" t="inlineStr">
@@ -24938,7 +24938,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>01/11/2022</t>
+          <t>01/05/2022</t>
         </is>
       </c>
       <c r="B981" t="inlineStr">
@@ -24963,7 +24963,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/03/2022</t>
         </is>
       </c>
       <c r="B982" t="inlineStr">
@@ -24988,7 +24988,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>01/09/2022</t>
+          <t>01/11/2022</t>
         </is>
       </c>
       <c r="B983" t="inlineStr">
@@ -25013,7 +25013,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="B984" t="inlineStr">
@@ -25038,7 +25038,7 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01/09/2022</t>
         </is>
       </c>
       <c r="B985" t="inlineStr">
@@ -25063,7 +25063,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="B986" t="inlineStr">
@@ -25088,7 +25088,7 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>01/02/2023</t>
+          <t>01/08/2023</t>
         </is>
       </c>
       <c r="B987" t="inlineStr">
@@ -25113,7 +25113,7 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="B988" t="inlineStr">
@@ -25138,7 +25138,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/02/2023</t>
         </is>
       </c>
       <c r="B989" t="inlineStr">
@@ -25163,7 +25163,7 @@
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>01/06/2023</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="B990" t="inlineStr">
@@ -25188,7 +25188,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>01/05/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="B991" t="inlineStr">
@@ -25213,7 +25213,7 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>01/03/2023</t>
+          <t>01/06/2023</t>
         </is>
       </c>
       <c r="B992" t="inlineStr">
@@ -25238,7 +25238,7 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>01/11/2023</t>
+          <t>01/05/2023</t>
         </is>
       </c>
       <c r="B993" t="inlineStr">
@@ -25263,7 +25263,7 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/03/2023</t>
         </is>
       </c>
       <c r="B994" t="inlineStr">
@@ -25288,7 +25288,7 @@
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>01/09/2023</t>
+          <t>01/11/2023</t>
         </is>
       </c>
       <c r="B995" t="inlineStr">
@@ -25313,7 +25313,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="B996" t="inlineStr">
@@ -25338,7 +25338,7 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>01/09/2023</t>
         </is>
       </c>
       <c r="B997" t="inlineStr">
@@ -25363,7 +25363,7 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>01/02/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="B998" t="inlineStr">
@@ -25388,7 +25388,7 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B999" t="inlineStr">
@@ -25413,7 +25413,7 @@
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
+          <t>01/12/2024</t>
         </is>
       </c>
       <c r="B1000" t="inlineStr">
@@ -25438,7 +25438,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>01/06/2024</t>
+          <t>01/02/2024</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr">
@@ -25463,7 +25463,7 @@
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>01/05/2024</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="B1002" t="inlineStr">
@@ -25488,7 +25488,7 @@
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>01/03/2024</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr">
@@ -25513,7 +25513,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>01/11/2024</t>
+          <t>01/06/2024</t>
         </is>
       </c>
       <c r="B1004" t="inlineStr">
@@ -25538,7 +25538,7 @@
     <row r="1005">
       <c r="A1005" t="inlineStr">
         <is>
-          <t>01/10/2024</t>
+          <t>01/05/2024</t>
         </is>
       </c>
       <c r="B1005" t="inlineStr">
@@ -25563,7 +25563,7 @@
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>01/09/2024</t>
+          <t>01/03/2024</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr">
@@ -25580,6 +25580,81 @@
         <v>0</v>
       </c>
       <c r="E1006" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="B1007" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C1007" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1007" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="inlineStr">
+        <is>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="B1008" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C1008" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1008" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="B1009" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C1009" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1009" t="inlineStr">
         <is>
           <t>SERGIPE</t>
         </is>

--- a/Data/g8.2.xlsx
+++ b/Data/g8.2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1009"/>
+  <dimension ref="A1:E1015"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17263,21 +17263,21 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>01/04/1997</t>
+          <t>01/02/2025</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA</t>
+          <t>MAR</t>
         </is>
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>LGN</t>
+          <t>GÁS NATURAL</t>
         </is>
       </c>
       <c r="D674" t="n">
-        <v>20951</v>
+        <v>13.217</v>
       </c>
       <c r="E674" t="inlineStr">
         <is>
@@ -17288,21 +17288,21 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>01/08/1997</t>
+          <t>01/02/2025</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA</t>
+          <t>TERRA</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>LGN</t>
+          <t>GÁS NATURAL</t>
         </is>
       </c>
       <c r="D675" t="n">
-        <v>24698</v>
+        <v>1629.966</v>
       </c>
       <c r="E675" t="inlineStr">
         <is>
@@ -17313,21 +17313,21 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>01/12/1997</t>
+          <t>01/01/2025</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA</t>
+          <t>MAR</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
         <is>
-          <t>LGN</t>
+          <t>GÁS NATURAL</t>
         </is>
       </c>
       <c r="D676" t="n">
-        <v>23230</v>
+        <v>49.252</v>
       </c>
       <c r="E676" t="inlineStr">
         <is>
@@ -17338,21 +17338,21 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>01/02/1997</t>
+          <t>01/01/2025</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA</t>
+          <t>TERRA</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>LGN</t>
+          <t>GÁS NATURAL</t>
         </is>
       </c>
       <c r="D677" t="n">
-        <v>19007</v>
+        <v>1963.826</v>
       </c>
       <c r="E677" t="inlineStr">
         <is>
@@ -17363,7 +17363,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>01/01/1997</t>
+          <t>01/04/1997</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
@@ -17377,7 +17377,7 @@
         </is>
       </c>
       <c r="D678" t="n">
-        <v>18978</v>
+        <v>20951</v>
       </c>
       <c r="E678" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>01/07/1997</t>
+          <t>01/08/1997</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
@@ -17402,7 +17402,7 @@
         </is>
       </c>
       <c r="D679" t="n">
-        <v>23232</v>
+        <v>24698</v>
       </c>
       <c r="E679" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>01/06/1997</t>
+          <t>01/12/1997</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
@@ -17427,7 +17427,7 @@
         </is>
       </c>
       <c r="D680" t="n">
-        <v>22449</v>
+        <v>23230</v>
       </c>
       <c r="E680" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>01/05/1997</t>
+          <t>01/02/1997</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
@@ -17452,7 +17452,7 @@
         </is>
       </c>
       <c r="D681" t="n">
-        <v>24757</v>
+        <v>19007</v>
       </c>
       <c r="E681" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>01/03/1997</t>
+          <t>01/01/1997</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
@@ -17477,7 +17477,7 @@
         </is>
       </c>
       <c r="D682" t="n">
-        <v>19807</v>
+        <v>18978</v>
       </c>
       <c r="E682" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>01/11/1997</t>
+          <t>01/07/1997</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
@@ -17502,7 +17502,7 @@
         </is>
       </c>
       <c r="D683" t="n">
-        <v>22027</v>
+        <v>23232</v>
       </c>
       <c r="E683" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>01/10/1997</t>
+          <t>01/06/1997</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D684" t="n">
-        <v>21890</v>
+        <v>22449</v>
       </c>
       <c r="E684" t="inlineStr">
         <is>
@@ -17538,7 +17538,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>01/09/1997</t>
+          <t>01/05/1997</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
@@ -17552,7 +17552,7 @@
         </is>
       </c>
       <c r="D685" t="n">
-        <v>22749</v>
+        <v>24757</v>
       </c>
       <c r="E685" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>01/04/1998</t>
+          <t>01/03/1997</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
@@ -17577,7 +17577,7 @@
         </is>
       </c>
       <c r="D686" t="n">
-        <v>131778.0699</v>
+        <v>19807</v>
       </c>
       <c r="E686" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>01/08/1998</t>
+          <t>01/11/1997</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
@@ -17602,7 +17602,7 @@
         </is>
       </c>
       <c r="D687" t="n">
-        <v>155346.0346</v>
+        <v>22027</v>
       </c>
       <c r="E687" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>01/12/1998</t>
+          <t>01/10/1997</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
@@ -17627,7 +17627,7 @@
         </is>
       </c>
       <c r="D688" t="n">
-        <v>146112.5752</v>
+        <v>21890</v>
       </c>
       <c r="E688" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>01/02/1998</t>
+          <t>01/09/1997</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
@@ -17652,7 +17652,7 @@
         </is>
       </c>
       <c r="D689" t="n">
-        <v>119550.6551</v>
+        <v>22749</v>
       </c>
       <c r="E689" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>01/01/1998</t>
+          <t>01/04/1998</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
@@ -17677,7 +17677,7 @@
         </is>
       </c>
       <c r="D690" t="n">
-        <v>119368.2502</v>
+        <v>131778.0699</v>
       </c>
       <c r="E690" t="inlineStr">
         <is>
@@ -17688,7 +17688,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>01/07/1998</t>
+          <t>01/08/1998</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
@@ -17702,7 +17702,7 @@
         </is>
       </c>
       <c r="D691" t="n">
-        <v>146125.1549</v>
+        <v>155346.0346</v>
       </c>
       <c r="E691" t="inlineStr">
         <is>
@@ -17713,7 +17713,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>01/06/1998</t>
+          <t>01/12/1998</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
@@ -17727,7 +17727,7 @@
         </is>
       </c>
       <c r="D692" t="n">
-        <v>141200.2239</v>
+        <v>146112.5752</v>
       </c>
       <c r="E692" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>01/05/1998</t>
+          <t>01/02/1998</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
@@ -17752,7 +17752,7 @@
         </is>
       </c>
       <c r="D693" t="n">
-        <v>155717.1341</v>
+        <v>119550.6551</v>
       </c>
       <c r="E693" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>01/03/1998</t>
+          <t>01/01/1998</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
@@ -17777,7 +17777,7 @@
         </is>
       </c>
       <c r="D694" t="n">
-        <v>124582.513</v>
+        <v>119368.2502</v>
       </c>
       <c r="E694" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>01/11/1998</t>
+          <t>01/07/1998</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
@@ -17802,7 +17802,7 @@
         </is>
       </c>
       <c r="D695" t="n">
-        <v>138545.9188</v>
+        <v>146125.1549</v>
       </c>
       <c r="E695" t="inlineStr">
         <is>
@@ -17813,7 +17813,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>01/10/1998</t>
+          <t>01/06/1998</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
@@ -17827,7 +17827,7 @@
         </is>
       </c>
       <c r="D696" t="n">
-        <v>137684.2132</v>
+        <v>141200.2239</v>
       </c>
       <c r="E696" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>01/09/1998</t>
+          <t>01/05/1998</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
@@ -17852,7 +17852,7 @@
         </is>
       </c>
       <c r="D697" t="n">
-        <v>143087.1706</v>
+        <v>155717.1341</v>
       </c>
       <c r="E697" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>01/04/1999</t>
+          <t>01/03/1998</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
@@ -17877,7 +17877,7 @@
         </is>
       </c>
       <c r="D698" t="n">
-        <v>24546</v>
+        <v>124582.513</v>
       </c>
       <c r="E698" t="inlineStr">
         <is>
@@ -17888,7 +17888,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>01/08/1999</t>
+          <t>01/11/1998</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
@@ -17902,7 +17902,7 @@
         </is>
       </c>
       <c r="D699" t="n">
-        <v>23247</v>
+        <v>138545.9188</v>
       </c>
       <c r="E699" t="inlineStr">
         <is>
@@ -17913,7 +17913,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>01/12/1999</t>
+          <t>01/10/1998</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D700" t="n">
-        <v>24640</v>
+        <v>137684.2132</v>
       </c>
       <c r="E700" t="inlineStr">
         <is>
@@ -17938,7 +17938,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>01/02/1999</t>
+          <t>01/09/1998</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
@@ -17952,7 +17952,7 @@
         </is>
       </c>
       <c r="D701" t="n">
-        <v>22448</v>
+        <v>143087.1706</v>
       </c>
       <c r="E701" t="inlineStr">
         <is>
@@ -17963,7 +17963,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>01/01/1999</t>
+          <t>01/04/1999</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
@@ -17977,7 +17977,7 @@
         </is>
       </c>
       <c r="D702" t="n">
-        <v>24629</v>
+        <v>24546</v>
       </c>
       <c r="E702" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>01/07/1999</t>
+          <t>01/08/1999</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
@@ -18002,7 +18002,7 @@
         </is>
       </c>
       <c r="D703" t="n">
-        <v>22323</v>
+        <v>23247</v>
       </c>
       <c r="E703" t="inlineStr">
         <is>
@@ -18013,7 +18013,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>01/06/1999</t>
+          <t>01/12/1999</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
@@ -18027,7 +18027,7 @@
         </is>
       </c>
       <c r="D704" t="n">
-        <v>24653</v>
+        <v>24640</v>
       </c>
       <c r="E704" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>01/05/1999</t>
+          <t>01/02/1999</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
@@ -18052,7 +18052,7 @@
         </is>
       </c>
       <c r="D705" t="n">
-        <v>25678</v>
+        <v>22448</v>
       </c>
       <c r="E705" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>01/03/1999</t>
+          <t>01/01/1999</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
@@ -18077,7 +18077,7 @@
         </is>
       </c>
       <c r="D706" t="n">
-        <v>25737</v>
+        <v>24629</v>
       </c>
       <c r="E706" t="inlineStr">
         <is>
@@ -18088,7 +18088,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>01/11/1999</t>
+          <t>01/07/1999</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
@@ -18102,7 +18102,7 @@
         </is>
       </c>
       <c r="D707" t="n">
-        <v>25481</v>
+        <v>22323</v>
       </c>
       <c r="E707" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>01/10/1999</t>
+          <t>01/06/1999</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
@@ -18127,7 +18127,7 @@
         </is>
       </c>
       <c r="D708" t="n">
-        <v>25601</v>
+        <v>24653</v>
       </c>
       <c r="E708" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>01/09/1999</t>
+          <t>01/05/1999</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
@@ -18152,7 +18152,7 @@
         </is>
       </c>
       <c r="D709" t="n">
-        <v>24686</v>
+        <v>25678</v>
       </c>
       <c r="E709" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>01/04/2000</t>
+          <t>01/03/1999</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
@@ -18177,7 +18177,7 @@
         </is>
       </c>
       <c r="D710" t="n">
-        <v>25440</v>
+        <v>25737</v>
       </c>
       <c r="E710" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>01/08/2000</t>
+          <t>01/11/1999</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
@@ -18202,7 +18202,7 @@
         </is>
       </c>
       <c r="D711" t="n">
-        <v>27353</v>
+        <v>25481</v>
       </c>
       <c r="E711" t="inlineStr">
         <is>
@@ -18213,7 +18213,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>01/12/2000</t>
+          <t>01/10/1999</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
@@ -18227,7 +18227,7 @@
         </is>
       </c>
       <c r="D712" t="n">
-        <v>26071</v>
+        <v>25601</v>
       </c>
       <c r="E712" t="inlineStr">
         <is>
@@ -18238,7 +18238,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>01/02/2000</t>
+          <t>01/09/1999</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
@@ -18252,7 +18252,7 @@
         </is>
       </c>
       <c r="D713" t="n">
-        <v>25123</v>
+        <v>24686</v>
       </c>
       <c r="E713" t="inlineStr">
         <is>
@@ -18263,7 +18263,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>01/01/2000</t>
+          <t>01/04/2000</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
@@ -18277,7 +18277,7 @@
         </is>
       </c>
       <c r="D714" t="n">
-        <v>26480</v>
+        <v>25440</v>
       </c>
       <c r="E714" t="inlineStr">
         <is>
@@ -18288,7 +18288,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>01/07/2000</t>
+          <t>01/08/2000</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
@@ -18302,7 +18302,7 @@
         </is>
       </c>
       <c r="D715" t="n">
-        <v>26914</v>
+        <v>27353</v>
       </c>
       <c r="E715" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>01/06/2000</t>
+          <t>01/12/2000</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D716" t="n">
-        <v>26044</v>
+        <v>26071</v>
       </c>
       <c r="E716" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>01/05/2000</t>
+          <t>01/02/2000</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
@@ -18352,7 +18352,7 @@
         </is>
       </c>
       <c r="D717" t="n">
-        <v>26406</v>
+        <v>25123</v>
       </c>
       <c r="E717" t="inlineStr">
         <is>
@@ -18363,7 +18363,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>01/03/2000</t>
+          <t>01/01/2000</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
@@ -18377,7 +18377,7 @@
         </is>
       </c>
       <c r="D718" t="n">
-        <v>26572</v>
+        <v>26480</v>
       </c>
       <c r="E718" t="inlineStr">
         <is>
@@ -18388,7 +18388,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>01/11/2000</t>
+          <t>01/07/2000</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
@@ -18402,7 +18402,7 @@
         </is>
       </c>
       <c r="D719" t="n">
-        <v>13928</v>
+        <v>26914</v>
       </c>
       <c r="E719" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>01/10/2000</t>
+          <t>01/06/2000</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
@@ -18427,7 +18427,7 @@
         </is>
       </c>
       <c r="D720" t="n">
-        <v>26965</v>
+        <v>26044</v>
       </c>
       <c r="E720" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>01/09/2000</t>
+          <t>01/05/2000</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
@@ -18452,7 +18452,7 @@
         </is>
       </c>
       <c r="D721" t="n">
-        <v>26129</v>
+        <v>26406</v>
       </c>
       <c r="E721" t="inlineStr">
         <is>
@@ -18463,7 +18463,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>01/04/2001</t>
+          <t>01/03/2000</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D722" t="n">
-        <v>18378</v>
+        <v>26572</v>
       </c>
       <c r="E722" t="inlineStr">
         <is>
@@ -18488,7 +18488,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>01/08/2001</t>
+          <t>01/11/2000</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
@@ -18502,7 +18502,7 @@
         </is>
       </c>
       <c r="D723" t="n">
-        <v>26465</v>
+        <v>13928</v>
       </c>
       <c r="E723" t="inlineStr">
         <is>
@@ -18513,7 +18513,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>01/12/2001</t>
+          <t>01/10/2000</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
@@ -18527,7 +18527,7 @@
         </is>
       </c>
       <c r="D724" t="n">
-        <v>26876</v>
+        <v>26965</v>
       </c>
       <c r="E724" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>01/02/2001</t>
+          <t>01/09/2000</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
@@ -18552,7 +18552,7 @@
         </is>
       </c>
       <c r="D725" t="n">
-        <v>23797</v>
+        <v>26129</v>
       </c>
       <c r="E725" t="inlineStr">
         <is>
@@ -18563,7 +18563,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>01/01/2001</t>
+          <t>01/04/2001</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
@@ -18577,7 +18577,7 @@
         </is>
       </c>
       <c r="D726" t="n">
-        <v>26536</v>
+        <v>18378</v>
       </c>
       <c r="E726" t="inlineStr">
         <is>
@@ -18588,7 +18588,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>01/07/2001</t>
+          <t>01/08/2001</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
@@ -18602,7 +18602,7 @@
         </is>
       </c>
       <c r="D727" t="n">
-        <v>27236</v>
+        <v>26465</v>
       </c>
       <c r="E727" t="inlineStr">
         <is>
@@ -18613,7 +18613,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>01/06/2001</t>
+          <t>01/12/2001</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
@@ -18627,7 +18627,7 @@
         </is>
       </c>
       <c r="D728" t="n">
-        <v>25806</v>
+        <v>26876</v>
       </c>
       <c r="E728" t="inlineStr">
         <is>
@@ -18638,7 +18638,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>01/05/2001</t>
+          <t>01/02/2001</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
@@ -18652,7 +18652,7 @@
         </is>
       </c>
       <c r="D729" t="n">
-        <v>22691</v>
+        <v>23797</v>
       </c>
       <c r="E729" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>01/03/2001</t>
+          <t>01/01/2001</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
@@ -18677,7 +18677,7 @@
         </is>
       </c>
       <c r="D730" t="n">
-        <v>25605</v>
+        <v>26536</v>
       </c>
       <c r="E730" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>01/11/2001</t>
+          <t>01/07/2001</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
@@ -18702,7 +18702,7 @@
         </is>
       </c>
       <c r="D731" t="n">
-        <v>25852</v>
+        <v>27236</v>
       </c>
       <c r="E731" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>01/10/2001</t>
+          <t>01/06/2001</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D732" t="n">
-        <v>26322</v>
+        <v>25806</v>
       </c>
       <c r="E732" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>01/09/2001</t>
+          <t>01/05/2001</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
@@ -18752,7 +18752,7 @@
         </is>
       </c>
       <c r="D733" t="n">
-        <v>23625</v>
+        <v>22691</v>
       </c>
       <c r="E733" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>01/04/2002</t>
+          <t>01/03/2001</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
@@ -18777,7 +18777,7 @@
         </is>
       </c>
       <c r="D734" t="n">
-        <v>23065</v>
+        <v>25605</v>
       </c>
       <c r="E734" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>01/08/2002</t>
+          <t>01/11/2001</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
@@ -18802,7 +18802,7 @@
         </is>
       </c>
       <c r="D735" t="n">
-        <v>25580</v>
+        <v>25852</v>
       </c>
       <c r="E735" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>01/12/2002</t>
+          <t>01/10/2001</t>
         </is>
       </c>
       <c r="B736" t="inlineStr">
@@ -18827,7 +18827,7 @@
         </is>
       </c>
       <c r="D736" t="n">
-        <v>24957</v>
+        <v>26322</v>
       </c>
       <c r="E736" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>01/02/2002</t>
+          <t>01/09/2001</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
@@ -18852,7 +18852,7 @@
         </is>
       </c>
       <c r="D737" t="n">
-        <v>24096</v>
+        <v>23625</v>
       </c>
       <c r="E737" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>01/01/2002</t>
+          <t>01/04/2002</t>
         </is>
       </c>
       <c r="B738" t="inlineStr">
@@ -18877,7 +18877,7 @@
         </is>
       </c>
       <c r="D738" t="n">
-        <v>27239</v>
+        <v>23065</v>
       </c>
       <c r="E738" t="inlineStr">
         <is>
@@ -18888,7 +18888,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>01/07/2002</t>
+          <t>01/08/2002</t>
         </is>
       </c>
       <c r="B739" t="inlineStr">
@@ -18902,7 +18902,7 @@
         </is>
       </c>
       <c r="D739" t="n">
-        <v>25911</v>
+        <v>25580</v>
       </c>
       <c r="E739" t="inlineStr">
         <is>
@@ -18913,7 +18913,7 @@
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>01/06/2002</t>
+          <t>01/12/2002</t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
@@ -18927,7 +18927,7 @@
         </is>
       </c>
       <c r="D740" t="n">
-        <v>24854</v>
+        <v>24957</v>
       </c>
       <c r="E740" t="inlineStr">
         <is>
@@ -18938,7 +18938,7 @@
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>01/05/2002</t>
+          <t>01/02/2002</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
@@ -18952,7 +18952,7 @@
         </is>
       </c>
       <c r="D741" t="n">
-        <v>24983</v>
+        <v>24096</v>
       </c>
       <c r="E741" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>01/03/2002</t>
+          <t>01/01/2002</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
@@ -18977,7 +18977,7 @@
         </is>
       </c>
       <c r="D742" t="n">
-        <v>25381</v>
+        <v>27239</v>
       </c>
       <c r="E742" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>01/11/2002</t>
+          <t>01/07/2002</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
@@ -19002,7 +19002,7 @@
         </is>
       </c>
       <c r="D743" t="n">
-        <v>24648</v>
+        <v>25911</v>
       </c>
       <c r="E743" t="inlineStr">
         <is>
@@ -19013,7 +19013,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>01/10/2002</t>
+          <t>01/06/2002</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="D744" t="n">
-        <v>24992</v>
+        <v>24854</v>
       </c>
       <c r="E744" t="inlineStr">
         <is>
@@ -19038,7 +19038,7 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>01/09/2002</t>
+          <t>01/05/2002</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
@@ -19052,7 +19052,7 @@
         </is>
       </c>
       <c r="D745" t="n">
-        <v>24400</v>
+        <v>24983</v>
       </c>
       <c r="E745" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>01/04/2003</t>
+          <t>01/03/2002</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
@@ -19077,7 +19077,7 @@
         </is>
       </c>
       <c r="D746" t="n">
-        <v>20841</v>
+        <v>25381</v>
       </c>
       <c r="E746" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>01/08/2003</t>
+          <t>01/11/2002</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
@@ -19102,7 +19102,7 @@
         </is>
       </c>
       <c r="D747" t="n">
-        <v>25463</v>
+        <v>24648</v>
       </c>
       <c r="E747" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>01/12/2003</t>
+          <t>01/10/2002</t>
         </is>
       </c>
       <c r="B748" t="inlineStr">
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D748" t="n">
-        <v>24965</v>
+        <v>24992</v>
       </c>
       <c r="E748" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>01/02/2003</t>
+          <t>01/09/2002</t>
         </is>
       </c>
       <c r="B749" t="inlineStr">
@@ -19152,7 +19152,7 @@
         </is>
       </c>
       <c r="D749" t="n">
-        <v>20388</v>
+        <v>24400</v>
       </c>
       <c r="E749" t="inlineStr">
         <is>
@@ -19163,7 +19163,7 @@
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>01/01/2003</t>
+          <t>01/04/2003</t>
         </is>
       </c>
       <c r="B750" t="inlineStr">
@@ -19177,7 +19177,7 @@
         </is>
       </c>
       <c r="D750" t="n">
-        <v>24971</v>
+        <v>20841</v>
       </c>
       <c r="E750" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>01/07/2003</t>
+          <t>01/08/2003</t>
         </is>
       </c>
       <c r="B751" t="inlineStr">
@@ -19202,7 +19202,7 @@
         </is>
       </c>
       <c r="D751" t="n">
-        <v>23560</v>
+        <v>25463</v>
       </c>
       <c r="E751" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>01/06/2003</t>
+          <t>01/12/2003</t>
         </is>
       </c>
       <c r="B752" t="inlineStr">
@@ -19227,7 +19227,7 @@
         </is>
       </c>
       <c r="D752" t="n">
-        <v>22761</v>
+        <v>24965</v>
       </c>
       <c r="E752" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>01/05/2003</t>
+          <t>01/02/2003</t>
         </is>
       </c>
       <c r="B753" t="inlineStr">
@@ -19252,7 +19252,7 @@
         </is>
       </c>
       <c r="D753" t="n">
-        <v>23510</v>
+        <v>20388</v>
       </c>
       <c r="E753" t="inlineStr">
         <is>
@@ -19263,7 +19263,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>01/03/2003</t>
+          <t>01/01/2003</t>
         </is>
       </c>
       <c r="B754" t="inlineStr">
@@ -19277,7 +19277,7 @@
         </is>
       </c>
       <c r="D754" t="n">
-        <v>25907</v>
+        <v>24971</v>
       </c>
       <c r="E754" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>01/11/2003</t>
+          <t>01/07/2003</t>
         </is>
       </c>
       <c r="B755" t="inlineStr">
@@ -19302,7 +19302,7 @@
         </is>
       </c>
       <c r="D755" t="n">
-        <v>24041</v>
+        <v>23560</v>
       </c>
       <c r="E755" t="inlineStr">
         <is>
@@ -19313,7 +19313,7 @@
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>01/10/2003</t>
+          <t>01/06/2003</t>
         </is>
       </c>
       <c r="B756" t="inlineStr">
@@ -19327,7 +19327,7 @@
         </is>
       </c>
       <c r="D756" t="n">
-        <v>24023</v>
+        <v>22761</v>
       </c>
       <c r="E756" t="inlineStr">
         <is>
@@ -19338,7 +19338,7 @@
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>01/09/2003</t>
+          <t>01/05/2003</t>
         </is>
       </c>
       <c r="B757" t="inlineStr">
@@ -19352,7 +19352,7 @@
         </is>
       </c>
       <c r="D757" t="n">
-        <v>24294</v>
+        <v>23510</v>
       </c>
       <c r="E757" t="inlineStr">
         <is>
@@ -19363,7 +19363,7 @@
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>01/04/2004</t>
+          <t>01/03/2003</t>
         </is>
       </c>
       <c r="B758" t="inlineStr">
@@ -19377,7 +19377,7 @@
         </is>
       </c>
       <c r="D758" t="n">
-        <v>24411</v>
+        <v>25907</v>
       </c>
       <c r="E758" t="inlineStr">
         <is>
@@ -19388,7 +19388,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>01/08/2004</t>
+          <t>01/11/2003</t>
         </is>
       </c>
       <c r="B759" t="inlineStr">
@@ -19402,7 +19402,7 @@
         </is>
       </c>
       <c r="D759" t="n">
-        <v>25873</v>
+        <v>24041</v>
       </c>
       <c r="E759" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>01/12/2004</t>
+          <t>01/10/2003</t>
         </is>
       </c>
       <c r="B760" t="inlineStr">
@@ -19427,7 +19427,7 @@
         </is>
       </c>
       <c r="D760" t="n">
-        <v>25343</v>
+        <v>24023</v>
       </c>
       <c r="E760" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>01/02/2004</t>
+          <t>01/09/2003</t>
         </is>
       </c>
       <c r="B761" t="inlineStr">
@@ -19452,7 +19452,7 @@
         </is>
       </c>
       <c r="D761" t="n">
-        <v>23497</v>
+        <v>24294</v>
       </c>
       <c r="E761" t="inlineStr">
         <is>
@@ -19463,7 +19463,7 @@
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>01/01/2004</t>
+          <t>01/04/2004</t>
         </is>
       </c>
       <c r="B762" t="inlineStr">
@@ -19477,7 +19477,7 @@
         </is>
       </c>
       <c r="D762" t="n">
-        <v>23975</v>
+        <v>24411</v>
       </c>
       <c r="E762" t="inlineStr">
         <is>
@@ -19488,7 +19488,7 @@
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>01/08/2004</t>
         </is>
       </c>
       <c r="B763" t="inlineStr">
@@ -19502,7 +19502,7 @@
         </is>
       </c>
       <c r="D763" t="n">
-        <v>24979</v>
+        <v>25873</v>
       </c>
       <c r="E763" t="inlineStr">
         <is>
@@ -19513,7 +19513,7 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>01/06/2004</t>
+          <t>01/12/2004</t>
         </is>
       </c>
       <c r="B764" t="inlineStr">
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D764" t="n">
-        <v>23413</v>
+        <v>25343</v>
       </c>
       <c r="E764" t="inlineStr">
         <is>
@@ -19538,7 +19538,7 @@
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>01/05/2004</t>
+          <t>01/02/2004</t>
         </is>
       </c>
       <c r="B765" t="inlineStr">
@@ -19552,7 +19552,7 @@
         </is>
       </c>
       <c r="D765" t="n">
-        <v>21313</v>
+        <v>23497</v>
       </c>
       <c r="E765" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>01/03/2004</t>
+          <t>01/01/2004</t>
         </is>
       </c>
       <c r="B766" t="inlineStr">
@@ -19577,7 +19577,7 @@
         </is>
       </c>
       <c r="D766" t="n">
-        <v>25118</v>
+        <v>23975</v>
       </c>
       <c r="E766" t="inlineStr">
         <is>
@@ -19588,7 +19588,7 @@
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>01/11/2004</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="B767" t="inlineStr">
@@ -19602,7 +19602,7 @@
         </is>
       </c>
       <c r="D767" t="n">
-        <v>24463</v>
+        <v>24979</v>
       </c>
       <c r="E767" t="inlineStr">
         <is>
@@ -19613,7 +19613,7 @@
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>01/10/2004</t>
+          <t>01/06/2004</t>
         </is>
       </c>
       <c r="B768" t="inlineStr">
@@ -19627,7 +19627,7 @@
         </is>
       </c>
       <c r="D768" t="n">
-        <v>25566</v>
+        <v>23413</v>
       </c>
       <c r="E768" t="inlineStr">
         <is>
@@ -19638,7 +19638,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>01/09/2004</t>
+          <t>01/05/2004</t>
         </is>
       </c>
       <c r="B769" t="inlineStr">
@@ -19652,7 +19652,7 @@
         </is>
       </c>
       <c r="D769" t="n">
-        <v>24720</v>
+        <v>21313</v>
       </c>
       <c r="E769" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>01/04/2005</t>
+          <t>01/03/2004</t>
         </is>
       </c>
       <c r="B770" t="inlineStr">
@@ -19677,7 +19677,7 @@
         </is>
       </c>
       <c r="D770" t="n">
-        <v>23924</v>
+        <v>25118</v>
       </c>
       <c r="E770" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>01/08/2005</t>
+          <t>01/11/2004</t>
         </is>
       </c>
       <c r="B771" t="inlineStr">
@@ -19702,7 +19702,7 @@
         </is>
       </c>
       <c r="D771" t="n">
-        <v>25213</v>
+        <v>24463</v>
       </c>
       <c r="E771" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>01/12/2005</t>
+          <t>01/10/2004</t>
         </is>
       </c>
       <c r="B772" t="inlineStr">
@@ -19727,7 +19727,7 @@
         </is>
       </c>
       <c r="D772" t="n">
-        <v>24602</v>
+        <v>25566</v>
       </c>
       <c r="E772" t="inlineStr">
         <is>
@@ -19738,7 +19738,7 @@
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>01/02/2005</t>
+          <t>01/09/2004</t>
         </is>
       </c>
       <c r="B773" t="inlineStr">
@@ -19752,7 +19752,7 @@
         </is>
       </c>
       <c r="D773" t="n">
-        <v>22710</v>
+        <v>24720</v>
       </c>
       <c r="E773" t="inlineStr">
         <is>
@@ -19763,7 +19763,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>01/01/2005</t>
+          <t>01/04/2005</t>
         </is>
       </c>
       <c r="B774" t="inlineStr">
@@ -19777,7 +19777,7 @@
         </is>
       </c>
       <c r="D774" t="n">
-        <v>24972</v>
+        <v>23924</v>
       </c>
       <c r="E774" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>01/07/2005</t>
+          <t>01/08/2005</t>
         </is>
       </c>
       <c r="B775" t="inlineStr">
@@ -19802,7 +19802,7 @@
         </is>
       </c>
       <c r="D775" t="n">
-        <v>25582</v>
+        <v>25213</v>
       </c>
       <c r="E775" t="inlineStr">
         <is>
@@ -19813,7 +19813,7 @@
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>01/06/2005</t>
+          <t>01/12/2005</t>
         </is>
       </c>
       <c r="B776" t="inlineStr">
@@ -19827,7 +19827,7 @@
         </is>
       </c>
       <c r="D776" t="n">
-        <v>24359</v>
+        <v>24602</v>
       </c>
       <c r="E776" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>01/05/2005</t>
+          <t>01/02/2005</t>
         </is>
       </c>
       <c r="B777" t="inlineStr">
@@ -19852,7 +19852,7 @@
         </is>
       </c>
       <c r="D777" t="n">
-        <v>24053</v>
+        <v>22710</v>
       </c>
       <c r="E777" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>01/03/2005</t>
+          <t>01/01/2005</t>
         </is>
       </c>
       <c r="B778" t="inlineStr">
@@ -19877,7 +19877,7 @@
         </is>
       </c>
       <c r="D778" t="n">
-        <v>24836</v>
+        <v>24972</v>
       </c>
       <c r="E778" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>01/11/2005</t>
+          <t>01/07/2005</t>
         </is>
       </c>
       <c r="B779" t="inlineStr">
@@ -19902,7 +19902,7 @@
         </is>
       </c>
       <c r="D779" t="n">
-        <v>24169</v>
+        <v>25582</v>
       </c>
       <c r="E779" t="inlineStr">
         <is>
@@ -19913,7 +19913,7 @@
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>01/10/2005</t>
+          <t>01/06/2005</t>
         </is>
       </c>
       <c r="B780" t="inlineStr">
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D780" t="n">
-        <v>26281</v>
+        <v>24359</v>
       </c>
       <c r="E780" t="inlineStr">
         <is>
@@ -19938,7 +19938,7 @@
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>01/09/2005</t>
+          <t>01/05/2005</t>
         </is>
       </c>
       <c r="B781" t="inlineStr">
@@ -19952,7 +19952,7 @@
         </is>
       </c>
       <c r="D781" t="n">
-        <v>24180</v>
+        <v>24053</v>
       </c>
       <c r="E781" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>01/04/2006</t>
+          <t>01/03/2005</t>
         </is>
       </c>
       <c r="B782" t="inlineStr">
@@ -19977,7 +19977,7 @@
         </is>
       </c>
       <c r="D782" t="n">
-        <v>24527</v>
+        <v>24836</v>
       </c>
       <c r="E782" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>01/08/2006</t>
+          <t>01/11/2005</t>
         </is>
       </c>
       <c r="B783" t="inlineStr">
@@ -20002,7 +20002,7 @@
         </is>
       </c>
       <c r="D783" t="n">
-        <v>25491</v>
+        <v>24169</v>
       </c>
       <c r="E783" t="inlineStr">
         <is>
@@ -20013,7 +20013,7 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>01/12/2006</t>
+          <t>01/10/2005</t>
         </is>
       </c>
       <c r="B784" t="inlineStr">
@@ -20027,7 +20027,7 @@
         </is>
       </c>
       <c r="D784" t="n">
-        <v>25271</v>
+        <v>26281</v>
       </c>
       <c r="E784" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>01/02/2006</t>
+          <t>01/09/2005</t>
         </is>
       </c>
       <c r="B785" t="inlineStr">
@@ -20052,7 +20052,7 @@
         </is>
       </c>
       <c r="D785" t="n">
-        <v>23056</v>
+        <v>24180</v>
       </c>
       <c r="E785" t="inlineStr">
         <is>
@@ -20063,7 +20063,7 @@
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>01/01/2006</t>
+          <t>01/04/2006</t>
         </is>
       </c>
       <c r="B786" t="inlineStr">
@@ -20077,7 +20077,7 @@
         </is>
       </c>
       <c r="D786" t="n">
-        <v>24843</v>
+        <v>24527</v>
       </c>
       <c r="E786" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>01/07/2006</t>
+          <t>01/08/2006</t>
         </is>
       </c>
       <c r="B787" t="inlineStr">
@@ -20102,7 +20102,7 @@
         </is>
       </c>
       <c r="D787" t="n">
-        <v>25344</v>
+        <v>25491</v>
       </c>
       <c r="E787" t="inlineStr">
         <is>
@@ -20113,7 +20113,7 @@
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>01/06/2006</t>
+          <t>01/12/2006</t>
         </is>
       </c>
       <c r="B788" t="inlineStr">
@@ -20127,7 +20127,7 @@
         </is>
       </c>
       <c r="D788" t="n">
-        <v>25090</v>
+        <v>25271</v>
       </c>
       <c r="E788" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>01/05/2006</t>
+          <t>01/02/2006</t>
         </is>
       </c>
       <c r="B789" t="inlineStr">
@@ -20152,7 +20152,7 @@
         </is>
       </c>
       <c r="D789" t="n">
-        <v>25719</v>
+        <v>23056</v>
       </c>
       <c r="E789" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>01/03/2006</t>
+          <t>01/01/2006</t>
         </is>
       </c>
       <c r="B790" t="inlineStr">
@@ -20177,7 +20177,7 @@
         </is>
       </c>
       <c r="D790" t="n">
-        <v>11740</v>
+        <v>24843</v>
       </c>
       <c r="E790" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>01/11/2006</t>
+          <t>01/07/2006</t>
         </is>
       </c>
       <c r="B791" t="inlineStr">
@@ -20202,7 +20202,7 @@
         </is>
       </c>
       <c r="D791" t="n">
-        <v>23278</v>
+        <v>25344</v>
       </c>
       <c r="E791" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>01/10/2006</t>
+          <t>01/06/2006</t>
         </is>
       </c>
       <c r="B792" t="inlineStr">
@@ -20227,7 +20227,7 @@
         </is>
       </c>
       <c r="D792" t="n">
-        <v>23622</v>
+        <v>25090</v>
       </c>
       <c r="E792" t="inlineStr">
         <is>
@@ -20238,7 +20238,7 @@
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>01/09/2006</t>
+          <t>01/05/2006</t>
         </is>
       </c>
       <c r="B793" t="inlineStr">
@@ -20252,7 +20252,7 @@
         </is>
       </c>
       <c r="D793" t="n">
-        <v>24562</v>
+        <v>25719</v>
       </c>
       <c r="E793" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>01/04/2007</t>
+          <t>01/03/2006</t>
         </is>
       </c>
       <c r="B794" t="inlineStr">
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D794" t="n">
-        <v>21384</v>
+        <v>11740</v>
       </c>
       <c r="E794" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>01/08/2007</t>
+          <t>01/11/2006</t>
         </is>
       </c>
       <c r="B795" t="inlineStr">
@@ -20302,7 +20302,7 @@
         </is>
       </c>
       <c r="D795" t="n">
-        <v>23805</v>
+        <v>23278</v>
       </c>
       <c r="E795" t="inlineStr">
         <is>
@@ -20313,7 +20313,7 @@
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>01/12/2007</t>
+          <t>01/10/2006</t>
         </is>
       </c>
       <c r="B796" t="inlineStr">
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D796" t="n">
-        <v>22898</v>
+        <v>23622</v>
       </c>
       <c r="E796" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>01/02/2007</t>
+          <t>01/09/2006</t>
         </is>
       </c>
       <c r="B797" t="inlineStr">
@@ -20352,7 +20352,7 @@
         </is>
       </c>
       <c r="D797" t="n">
-        <v>21968</v>
+        <v>24562</v>
       </c>
       <c r="E797" t="inlineStr">
         <is>
@@ -20363,7 +20363,7 @@
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>01/01/2007</t>
+          <t>01/04/2007</t>
         </is>
       </c>
       <c r="B798" t="inlineStr">
@@ -20377,7 +20377,7 @@
         </is>
       </c>
       <c r="D798" t="n">
-        <v>25496</v>
+        <v>21384</v>
       </c>
       <c r="E798" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>01/07/2007</t>
+          <t>01/08/2007</t>
         </is>
       </c>
       <c r="B799" t="inlineStr">
@@ -20402,7 +20402,7 @@
         </is>
       </c>
       <c r="D799" t="n">
-        <v>23875</v>
+        <v>23805</v>
       </c>
       <c r="E799" t="inlineStr">
         <is>
@@ -20413,7 +20413,7 @@
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>01/06/2007</t>
+          <t>01/12/2007</t>
         </is>
       </c>
       <c r="B800" t="inlineStr">
@@ -20427,7 +20427,7 @@
         </is>
       </c>
       <c r="D800" t="n">
-        <v>22080</v>
+        <v>22898</v>
       </c>
       <c r="E800" t="inlineStr">
         <is>
@@ -20438,7 +20438,7 @@
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>01/05/2007</t>
+          <t>01/02/2007</t>
         </is>
       </c>
       <c r="B801" t="inlineStr">
@@ -20452,7 +20452,7 @@
         </is>
       </c>
       <c r="D801" t="n">
-        <v>18737</v>
+        <v>21968</v>
       </c>
       <c r="E801" t="inlineStr">
         <is>
@@ -20463,7 +20463,7 @@
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>01/03/2007</t>
+          <t>01/01/2007</t>
         </is>
       </c>
       <c r="B802" t="inlineStr">
@@ -20477,7 +20477,7 @@
         </is>
       </c>
       <c r="D802" t="n">
-        <v>24212</v>
+        <v>25496</v>
       </c>
       <c r="E802" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>01/11/2007</t>
+          <t>01/07/2007</t>
         </is>
       </c>
       <c r="B803" t="inlineStr">
@@ -20502,7 +20502,7 @@
         </is>
       </c>
       <c r="D803" t="n">
-        <v>22033</v>
+        <v>23875</v>
       </c>
       <c r="E803" t="inlineStr">
         <is>
@@ -20513,7 +20513,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>01/10/2007</t>
+          <t>01/06/2007</t>
         </is>
       </c>
       <c r="B804" t="inlineStr">
@@ -20527,7 +20527,7 @@
         </is>
       </c>
       <c r="D804" t="n">
-        <v>23866</v>
+        <v>22080</v>
       </c>
       <c r="E804" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>01/09/2007</t>
+          <t>01/05/2007</t>
         </is>
       </c>
       <c r="B805" t="inlineStr">
@@ -20552,7 +20552,7 @@
         </is>
       </c>
       <c r="D805" t="n">
-        <v>24017</v>
+        <v>18737</v>
       </c>
       <c r="E805" t="inlineStr">
         <is>
@@ -20563,7 +20563,7 @@
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>01/04/2008</t>
+          <t>01/03/2007</t>
         </is>
       </c>
       <c r="B806" t="inlineStr">
@@ -20577,7 +20577,7 @@
         </is>
       </c>
       <c r="D806" t="n">
-        <v>22341</v>
+        <v>24212</v>
       </c>
       <c r="E806" t="inlineStr">
         <is>
@@ -20588,7 +20588,7 @@
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>01/08/2008</t>
+          <t>01/11/2007</t>
         </is>
       </c>
       <c r="B807" t="inlineStr">
@@ -20602,7 +20602,7 @@
         </is>
       </c>
       <c r="D807" t="n">
-        <v>23413.9993</v>
+        <v>22033</v>
       </c>
       <c r="E807" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>01/12/2008</t>
+          <t>01/10/2007</t>
         </is>
       </c>
       <c r="B808" t="inlineStr">
@@ -20627,7 +20627,7 @@
         </is>
       </c>
       <c r="D808" t="n">
-        <v>21243.0011</v>
+        <v>23866</v>
       </c>
       <c r="E808" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>01/02/2008</t>
+          <t>01/09/2007</t>
         </is>
       </c>
       <c r="B809" t="inlineStr">
@@ -20652,7 +20652,7 @@
         </is>
       </c>
       <c r="D809" t="n">
-        <v>20461</v>
+        <v>24017</v>
       </c>
       <c r="E809" t="inlineStr">
         <is>
@@ -20663,7 +20663,7 @@
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>01/01/2008</t>
+          <t>01/04/2008</t>
         </is>
       </c>
       <c r="B810" t="inlineStr">
@@ -20677,7 +20677,7 @@
         </is>
       </c>
       <c r="D810" t="n">
-        <v>22454</v>
+        <v>22341</v>
       </c>
       <c r="E810" t="inlineStr">
         <is>
@@ -20688,7 +20688,7 @@
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>01/07/2008</t>
+          <t>01/08/2008</t>
         </is>
       </c>
       <c r="B811" t="inlineStr">
@@ -20702,7 +20702,7 @@
         </is>
       </c>
       <c r="D811" t="n">
-        <v>22084.0001</v>
+        <v>23413.9993</v>
       </c>
       <c r="E811" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>01/06/2008</t>
+          <t>01/12/2008</t>
         </is>
       </c>
       <c r="B812" t="inlineStr">
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D812" t="n">
-        <v>21446.001</v>
+        <v>21243.0011</v>
       </c>
       <c r="E812" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>01/05/2008</t>
+          <t>01/02/2008</t>
         </is>
       </c>
       <c r="B813" t="inlineStr">
@@ -20752,7 +20752,7 @@
         </is>
       </c>
       <c r="D813" t="n">
-        <v>22333</v>
+        <v>20461</v>
       </c>
       <c r="E813" t="inlineStr">
         <is>
@@ -20763,7 +20763,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>01/03/2008</t>
+          <t>01/01/2008</t>
         </is>
       </c>
       <c r="B814" t="inlineStr">
@@ -20777,7 +20777,7 @@
         </is>
       </c>
       <c r="D814" t="n">
-        <v>22425</v>
+        <v>22454</v>
       </c>
       <c r="E814" t="inlineStr">
         <is>
@@ -20788,7 +20788,7 @@
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>01/11/2008</t>
+          <t>01/07/2008</t>
         </is>
       </c>
       <c r="B815" t="inlineStr">
@@ -20802,7 +20802,7 @@
         </is>
       </c>
       <c r="D815" t="n">
-        <v>20454</v>
+        <v>22084.0001</v>
       </c>
       <c r="E815" t="inlineStr">
         <is>
@@ -20813,7 +20813,7 @@
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>01/06/2008</t>
         </is>
       </c>
       <c r="B816" t="inlineStr">
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="D816" t="n">
-        <v>19738.9989</v>
+        <v>21446.001</v>
       </c>
       <c r="E816" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>01/09/2008</t>
+          <t>01/05/2008</t>
         </is>
       </c>
       <c r="B817" t="inlineStr">
@@ -20852,7 +20852,7 @@
         </is>
       </c>
       <c r="D817" t="n">
-        <v>21581.001</v>
+        <v>22333</v>
       </c>
       <c r="E817" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>01/04/2009</t>
+          <t>01/03/2008</t>
         </is>
       </c>
       <c r="B818" t="inlineStr">
@@ -20877,7 +20877,7 @@
         </is>
       </c>
       <c r="D818" t="n">
-        <v>20352.999</v>
+        <v>22425</v>
       </c>
       <c r="E818" t="inlineStr">
         <is>
@@ -20888,7 +20888,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>01/08/2009</t>
+          <t>01/11/2008</t>
         </is>
       </c>
       <c r="B819" t="inlineStr">
@@ -20902,7 +20902,7 @@
         </is>
       </c>
       <c r="D819" t="n">
-        <v>19636.0014</v>
+        <v>20454</v>
       </c>
       <c r="E819" t="inlineStr">
         <is>
@@ -20913,7 +20913,7 @@
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>01/12/2009</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="B820" t="inlineStr">
@@ -20927,7 +20927,7 @@
         </is>
       </c>
       <c r="D820" t="n">
-        <v>20058.9995</v>
+        <v>19738.9989</v>
       </c>
       <c r="E820" t="inlineStr">
         <is>
@@ -20938,7 +20938,7 @@
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>01/02/2009</t>
+          <t>01/09/2008</t>
         </is>
       </c>
       <c r="B821" t="inlineStr">
@@ -20952,7 +20952,7 @@
         </is>
       </c>
       <c r="D821" t="n">
-        <v>18858.9996</v>
+        <v>21581.001</v>
       </c>
       <c r="E821" t="inlineStr">
         <is>
@@ -20963,7 +20963,7 @@
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>01/01/2009</t>
+          <t>01/04/2009</t>
         </is>
       </c>
       <c r="B822" t="inlineStr">
@@ -20977,7 +20977,7 @@
         </is>
       </c>
       <c r="D822" t="n">
-        <v>22225.0005</v>
+        <v>20352.999</v>
       </c>
       <c r="E822" t="inlineStr">
         <is>
@@ -20988,7 +20988,7 @@
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>01/07/2009</t>
+          <t>01/08/2009</t>
         </is>
       </c>
       <c r="B823" t="inlineStr">
@@ -21002,7 +21002,7 @@
         </is>
       </c>
       <c r="D823" t="n">
-        <v>20578.0015</v>
+        <v>19636.0014</v>
       </c>
       <c r="E823" t="inlineStr">
         <is>
@@ -21013,7 +21013,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>01/06/2009</t>
+          <t>01/12/2009</t>
         </is>
       </c>
       <c r="B824" t="inlineStr">
@@ -21027,7 +21027,7 @@
         </is>
       </c>
       <c r="D824" t="n">
-        <v>20096.001</v>
+        <v>20058.9995</v>
       </c>
       <c r="E824" t="inlineStr">
         <is>
@@ -21038,7 +21038,7 @@
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>01/05/2009</t>
+          <t>01/02/2009</t>
         </is>
       </c>
       <c r="B825" t="inlineStr">
@@ -21052,7 +21052,7 @@
         </is>
       </c>
       <c r="D825" t="n">
-        <v>20487.001</v>
+        <v>18858.9996</v>
       </c>
       <c r="E825" t="inlineStr">
         <is>
@@ -21063,7 +21063,7 @@
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>01/03/2009</t>
+          <t>01/01/2009</t>
         </is>
       </c>
       <c r="B826" t="inlineStr">
@@ -21077,7 +21077,7 @@
         </is>
       </c>
       <c r="D826" t="n">
-        <v>21078.9987</v>
+        <v>22225.0005</v>
       </c>
       <c r="E826" t="inlineStr">
         <is>
@@ -21088,7 +21088,7 @@
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>01/11/2009</t>
+          <t>01/07/2009</t>
         </is>
       </c>
       <c r="B827" t="inlineStr">
@@ -21102,7 +21102,7 @@
         </is>
       </c>
       <c r="D827" t="n">
-        <v>19530</v>
+        <v>20578.0015</v>
       </c>
       <c r="E827" t="inlineStr">
         <is>
@@ -21113,7 +21113,7 @@
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>01/10/2009</t>
+          <t>01/06/2009</t>
         </is>
       </c>
       <c r="B828" t="inlineStr">
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D828" t="n">
-        <v>19538.0011</v>
+        <v>20096.001</v>
       </c>
       <c r="E828" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>01/09/2009</t>
+          <t>01/05/2009</t>
         </is>
       </c>
       <c r="B829" t="inlineStr">
@@ -21152,7 +21152,7 @@
         </is>
       </c>
       <c r="D829" t="n">
-        <v>19464</v>
+        <v>20487.001</v>
       </c>
       <c r="E829" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>01/04/2010</t>
+          <t>01/03/2009</t>
         </is>
       </c>
       <c r="B830" t="inlineStr">
@@ -21177,7 +21177,7 @@
         </is>
       </c>
       <c r="D830" t="n">
-        <v>18477</v>
+        <v>21078.9987</v>
       </c>
       <c r="E830" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>01/08/2010</t>
+          <t>01/11/2009</t>
         </is>
       </c>
       <c r="B831" t="inlineStr">
@@ -21202,7 +21202,7 @@
         </is>
       </c>
       <c r="D831" t="n">
-        <v>19472</v>
+        <v>19530</v>
       </c>
       <c r="E831" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>01/12/2010</t>
+          <t>01/10/2009</t>
         </is>
       </c>
       <c r="B832" t="inlineStr">
@@ -21227,7 +21227,7 @@
         </is>
       </c>
       <c r="D832" t="n">
-        <v>19253</v>
+        <v>19538.0011</v>
       </c>
       <c r="E832" t="inlineStr">
         <is>
@@ -21238,7 +21238,7 @@
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>01/02/2010</t>
+          <t>01/09/2009</t>
         </is>
       </c>
       <c r="B833" t="inlineStr">
@@ -21252,7 +21252,7 @@
         </is>
       </c>
       <c r="D833" t="n">
-        <v>17250</v>
+        <v>19464</v>
       </c>
       <c r="E833" t="inlineStr">
         <is>
@@ -21263,7 +21263,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>01/01/2010</t>
+          <t>01/04/2010</t>
         </is>
       </c>
       <c r="B834" t="inlineStr">
@@ -21277,7 +21277,7 @@
         </is>
       </c>
       <c r="D834" t="n">
-        <v>19822</v>
+        <v>18477</v>
       </c>
       <c r="E834" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>01/07/2010</t>
+          <t>01/08/2010</t>
         </is>
       </c>
       <c r="B835" t="inlineStr">
@@ -21302,7 +21302,7 @@
         </is>
       </c>
       <c r="D835" t="n">
-        <v>19943</v>
+        <v>19472</v>
       </c>
       <c r="E835" t="inlineStr">
         <is>
@@ -21313,7 +21313,7 @@
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>01/06/2010</t>
+          <t>01/12/2010</t>
         </is>
       </c>
       <c r="B836" t="inlineStr">
@@ -21327,7 +21327,7 @@
         </is>
       </c>
       <c r="D836" t="n">
-        <v>18899</v>
+        <v>19253</v>
       </c>
       <c r="E836" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>01/05/2010</t>
+          <t>01/02/2010</t>
         </is>
       </c>
       <c r="B837" t="inlineStr">
@@ -21352,7 +21352,7 @@
         </is>
       </c>
       <c r="D837" t="n">
-        <v>19225</v>
+        <v>17250</v>
       </c>
       <c r="E837" t="inlineStr">
         <is>
@@ -21363,7 +21363,7 @@
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>01/03/2010</t>
+          <t>01/01/2010</t>
         </is>
       </c>
       <c r="B838" t="inlineStr">
@@ -21377,7 +21377,7 @@
         </is>
       </c>
       <c r="D838" t="n">
-        <v>18557</v>
+        <v>19822</v>
       </c>
       <c r="E838" t="inlineStr">
         <is>
@@ -21388,7 +21388,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>01/11/2010</t>
+          <t>01/07/2010</t>
         </is>
       </c>
       <c r="B839" t="inlineStr">
@@ -21402,7 +21402,7 @@
         </is>
       </c>
       <c r="D839" t="n">
-        <v>18252</v>
+        <v>19943</v>
       </c>
       <c r="E839" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>01/10/2010</t>
+          <t>01/06/2010</t>
         </is>
       </c>
       <c r="B840" t="inlineStr">
@@ -21427,7 +21427,7 @@
         </is>
       </c>
       <c r="D840" t="n">
-        <v>19679</v>
+        <v>18899</v>
       </c>
       <c r="E840" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>01/09/2010</t>
+          <t>01/05/2010</t>
         </is>
       </c>
       <c r="B841" t="inlineStr">
@@ -21452,7 +21452,7 @@
         </is>
       </c>
       <c r="D841" t="n">
-        <v>18162</v>
+        <v>19225</v>
       </c>
       <c r="E841" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>01/04/2011</t>
+          <t>01/03/2010</t>
         </is>
       </c>
       <c r="B842" t="inlineStr">
@@ -21477,7 +21477,7 @@
         </is>
       </c>
       <c r="D842" t="n">
-        <v>14211.9</v>
+        <v>18557</v>
       </c>
       <c r="E842" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>01/08/2011</t>
+          <t>01/11/2010</t>
         </is>
       </c>
       <c r="B843" t="inlineStr">
@@ -21502,7 +21502,7 @@
         </is>
       </c>
       <c r="D843" t="n">
-        <v>15656.1</v>
+        <v>18252</v>
       </c>
       <c r="E843" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>01/12/2011</t>
+          <t>01/10/2010</t>
         </is>
       </c>
       <c r="B844" t="inlineStr">
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D844" t="n">
-        <v>16836.5</v>
+        <v>19679</v>
       </c>
       <c r="E844" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>01/02/2011</t>
+          <t>01/09/2010</t>
         </is>
       </c>
       <c r="B845" t="inlineStr">
@@ -21552,7 +21552,7 @@
         </is>
       </c>
       <c r="D845" t="n">
-        <v>15945.6</v>
+        <v>18162</v>
       </c>
       <c r="E845" t="inlineStr">
         <is>
@@ -21563,7 +21563,7 @@
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>01/01/2011</t>
+          <t>01/04/2011</t>
         </is>
       </c>
       <c r="B846" t="inlineStr">
@@ -21577,7 +21577,7 @@
         </is>
       </c>
       <c r="D846" t="n">
-        <v>18522.8</v>
+        <v>14211.9</v>
       </c>
       <c r="E846" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>01/07/2011</t>
+          <t>01/08/2011</t>
         </is>
       </c>
       <c r="B847" t="inlineStr">
@@ -21602,7 +21602,7 @@
         </is>
       </c>
       <c r="D847" t="n">
-        <v>14478.2</v>
+        <v>15656.1</v>
       </c>
       <c r="E847" t="inlineStr">
         <is>
@@ -21613,7 +21613,7 @@
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>01/06/2011</t>
+          <t>01/12/2011</t>
         </is>
       </c>
       <c r="B848" t="inlineStr">
@@ -21627,7 +21627,7 @@
         </is>
       </c>
       <c r="D848" t="n">
-        <v>15871.3</v>
+        <v>16836.5</v>
       </c>
       <c r="E848" t="inlineStr">
         <is>
@@ -21638,7 +21638,7 @@
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>01/05/2011</t>
+          <t>01/02/2011</t>
         </is>
       </c>
       <c r="B849" t="inlineStr">
@@ -21652,7 +21652,7 @@
         </is>
       </c>
       <c r="D849" t="n">
-        <v>17668.9</v>
+        <v>15945.6</v>
       </c>
       <c r="E849" t="inlineStr">
         <is>
@@ -21663,7 +21663,7 @@
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>01/03/2011</t>
+          <t>01/01/2011</t>
         </is>
       </c>
       <c r="B850" t="inlineStr">
@@ -21677,7 +21677,7 @@
         </is>
       </c>
       <c r="D850" t="n">
-        <v>10940.8</v>
+        <v>18522.8</v>
       </c>
       <c r="E850" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>01/11/2011</t>
+          <t>01/07/2011</t>
         </is>
       </c>
       <c r="B851" t="inlineStr">
@@ -21702,7 +21702,7 @@
         </is>
       </c>
       <c r="D851" t="n">
-        <v>15787.4</v>
+        <v>14478.2</v>
       </c>
       <c r="E851" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>01/10/2011</t>
+          <t>01/06/2011</t>
         </is>
       </c>
       <c r="B852" t="inlineStr">
@@ -21727,7 +21727,7 @@
         </is>
       </c>
       <c r="D852" t="n">
-        <v>16134.4</v>
+        <v>15871.3</v>
       </c>
       <c r="E852" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>01/09/2011</t>
+          <t>01/05/2011</t>
         </is>
       </c>
       <c r="B853" t="inlineStr">
@@ -21752,7 +21752,7 @@
         </is>
       </c>
       <c r="D853" t="n">
-        <v>15096.4</v>
+        <v>17668.9</v>
       </c>
       <c r="E853" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>01/04/2012</t>
+          <t>01/03/2011</t>
         </is>
       </c>
       <c r="B854" t="inlineStr">
@@ -21777,7 +21777,7 @@
         </is>
       </c>
       <c r="D854" t="n">
-        <v>10707.1</v>
+        <v>10940.8</v>
       </c>
       <c r="E854" t="inlineStr">
         <is>
@@ -21788,7 +21788,7 @@
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>01/08/2012</t>
+          <t>01/11/2011</t>
         </is>
       </c>
       <c r="B855" t="inlineStr">
@@ -21802,7 +21802,7 @@
         </is>
       </c>
       <c r="D855" t="n">
-        <v>16193.1</v>
+        <v>15787.4</v>
       </c>
       <c r="E855" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>01/12/2012</t>
+          <t>01/10/2011</t>
         </is>
       </c>
       <c r="B856" t="inlineStr">
@@ -21827,7 +21827,7 @@
         </is>
       </c>
       <c r="D856" t="n">
-        <v>17393.3</v>
+        <v>16134.4</v>
       </c>
       <c r="E856" t="inlineStr">
         <is>
@@ -21838,7 +21838,7 @@
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>01/02/2012</t>
+          <t>01/09/2011</t>
         </is>
       </c>
       <c r="B857" t="inlineStr">
@@ -21852,7 +21852,7 @@
         </is>
       </c>
       <c r="D857" t="n">
-        <v>14260.4</v>
+        <v>15096.4</v>
       </c>
       <c r="E857" t="inlineStr">
         <is>
@@ -21863,7 +21863,7 @@
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>01/04/2012</t>
         </is>
       </c>
       <c r="B858" t="inlineStr">
@@ -21877,7 +21877,7 @@
         </is>
       </c>
       <c r="D858" t="n">
-        <v>16058.3</v>
+        <v>10707.1</v>
       </c>
       <c r="E858" t="inlineStr">
         <is>
@@ -21888,7 +21888,7 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>01/07/2012</t>
+          <t>01/08/2012</t>
         </is>
       </c>
       <c r="B859" t="inlineStr">
@@ -21902,7 +21902,7 @@
         </is>
       </c>
       <c r="D859" t="n">
-        <v>12701.4</v>
+        <v>16193.1</v>
       </c>
       <c r="E859" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>01/06/2012</t>
+          <t>01/12/2012</t>
         </is>
       </c>
       <c r="B860" t="inlineStr">
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D860" t="n">
-        <v>10851.8</v>
+        <v>17393.3</v>
       </c>
       <c r="E860" t="inlineStr">
         <is>
@@ -21938,7 +21938,7 @@
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>01/05/2012</t>
+          <t>01/02/2012</t>
         </is>
       </c>
       <c r="B861" t="inlineStr">
@@ -21952,7 +21952,7 @@
         </is>
       </c>
       <c r="D861" t="n">
-        <v>10692</v>
+        <v>14260.4</v>
       </c>
       <c r="E861" t="inlineStr">
         <is>
@@ -21963,7 +21963,7 @@
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>01/03/2012</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="B862" t="inlineStr">
@@ -21977,7 +21977,7 @@
         </is>
       </c>
       <c r="D862" t="n">
-        <v>14311.3</v>
+        <v>16058.3</v>
       </c>
       <c r="E862" t="inlineStr">
         <is>
@@ -21988,7 +21988,7 @@
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>01/11/2012</t>
+          <t>01/07/2012</t>
         </is>
       </c>
       <c r="B863" t="inlineStr">
@@ -22002,7 +22002,7 @@
         </is>
       </c>
       <c r="D863" t="n">
-        <v>16574.9</v>
+        <v>12701.4</v>
       </c>
       <c r="E863" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>01/10/2012</t>
+          <t>01/06/2012</t>
         </is>
       </c>
       <c r="B864" t="inlineStr">
@@ -22027,7 +22027,7 @@
         </is>
       </c>
       <c r="D864" t="n">
-        <v>13682.2</v>
+        <v>10851.8</v>
       </c>
       <c r="E864" t="inlineStr">
         <is>
@@ -22038,7 +22038,7 @@
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>01/09/2012</t>
+          <t>01/05/2012</t>
         </is>
       </c>
       <c r="B865" t="inlineStr">
@@ -22052,7 +22052,7 @@
         </is>
       </c>
       <c r="D865" t="n">
-        <v>12246</v>
+        <v>10692</v>
       </c>
       <c r="E865" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>01/04/2013</t>
+          <t>01/03/2012</t>
         </is>
       </c>
       <c r="B866" t="inlineStr">
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D866" t="n">
-        <v>15186.2</v>
+        <v>14311.3</v>
       </c>
       <c r="E866" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>01/08/2013</t>
+          <t>01/11/2012</t>
         </is>
       </c>
       <c r="B867" t="inlineStr">
@@ -22102,7 +22102,7 @@
         </is>
       </c>
       <c r="D867" t="n">
-        <v>14998.4</v>
+        <v>16574.9</v>
       </c>
       <c r="E867" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>01/12/2013</t>
+          <t>01/10/2012</t>
         </is>
       </c>
       <c r="B868" t="inlineStr">
@@ -22127,7 +22127,7 @@
         </is>
       </c>
       <c r="D868" t="n">
-        <v>15576.1</v>
+        <v>13682.2</v>
       </c>
       <c r="E868" t="inlineStr">
         <is>
@@ -22138,7 +22138,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>01/02/2013</t>
+          <t>01/09/2012</t>
         </is>
       </c>
       <c r="B869" t="inlineStr">
@@ -22152,7 +22152,7 @@
         </is>
       </c>
       <c r="D869" t="n">
-        <v>14992.1</v>
+        <v>12246</v>
       </c>
       <c r="E869" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/04/2013</t>
         </is>
       </c>
       <c r="B870" t="inlineStr">
@@ -22177,7 +22177,7 @@
         </is>
       </c>
       <c r="D870" t="n">
-        <v>16653.1</v>
+        <v>15186.2</v>
       </c>
       <c r="E870" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>01/07/2013</t>
+          <t>01/08/2013</t>
         </is>
       </c>
       <c r="B871" t="inlineStr">
@@ -22202,7 +22202,7 @@
         </is>
       </c>
       <c r="D871" t="n">
-        <v>15326.3</v>
+        <v>14998.4</v>
       </c>
       <c r="E871" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>01/06/2013</t>
+          <t>01/12/2013</t>
         </is>
       </c>
       <c r="B872" t="inlineStr">
@@ -22227,7 +22227,7 @@
         </is>
       </c>
       <c r="D872" t="n">
-        <v>15355.6</v>
+        <v>15576.1</v>
       </c>
       <c r="E872" t="inlineStr">
         <is>
@@ -22238,7 +22238,7 @@
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>01/05/2013</t>
+          <t>01/02/2013</t>
         </is>
       </c>
       <c r="B873" t="inlineStr">
@@ -22252,7 +22252,7 @@
         </is>
       </c>
       <c r="D873" t="n">
-        <v>14825.2</v>
+        <v>14992.1</v>
       </c>
       <c r="E873" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>01/03/2013</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="B874" t="inlineStr">
@@ -22277,7 +22277,7 @@
         </is>
       </c>
       <c r="D874" t="n">
-        <v>15537.2</v>
+        <v>16653.1</v>
       </c>
       <c r="E874" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>01/11/2013</t>
+          <t>01/07/2013</t>
         </is>
       </c>
       <c r="B875" t="inlineStr">
@@ -22302,7 +22302,7 @@
         </is>
       </c>
       <c r="D875" t="n">
-        <v>14997.2</v>
+        <v>15326.3</v>
       </c>
       <c r="E875" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>01/06/2013</t>
         </is>
       </c>
       <c r="B876" t="inlineStr">
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D876" t="n">
-        <v>14495.7</v>
+        <v>15355.6</v>
       </c>
       <c r="E876" t="inlineStr">
         <is>
@@ -22338,7 +22338,7 @@
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>01/09/2013</t>
+          <t>01/05/2013</t>
         </is>
       </c>
       <c r="B877" t="inlineStr">
@@ -22352,7 +22352,7 @@
         </is>
       </c>
       <c r="D877" t="n">
-        <v>14777.2</v>
+        <v>14825.2</v>
       </c>
       <c r="E877" t="inlineStr">
         <is>
@@ -22363,7 +22363,7 @@
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>01/04/2014</t>
+          <t>01/03/2013</t>
         </is>
       </c>
       <c r="B878" t="inlineStr">
@@ -22377,7 +22377,7 @@
         </is>
       </c>
       <c r="D878" t="n">
-        <v>15228.7</v>
+        <v>15537.2</v>
       </c>
       <c r="E878" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>01/08/2014</t>
+          <t>01/11/2013</t>
         </is>
       </c>
       <c r="B879" t="inlineStr">
@@ -22402,7 +22402,7 @@
         </is>
       </c>
       <c r="D879" t="n">
-        <v>14545.5</v>
+        <v>14997.2</v>
       </c>
       <c r="E879" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>01/12/2014</t>
+          <t>01/10/2013</t>
         </is>
       </c>
       <c r="B880" t="inlineStr">
@@ -22427,7 +22427,7 @@
         </is>
       </c>
       <c r="D880" t="n">
-        <v>13264.2</v>
+        <v>14495.7</v>
       </c>
       <c r="E880" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>01/02/2014</t>
+          <t>01/09/2013</t>
         </is>
       </c>
       <c r="B881" t="inlineStr">
@@ -22452,7 +22452,7 @@
         </is>
       </c>
       <c r="D881" t="n">
-        <v>13542.3</v>
+        <v>14777.2</v>
       </c>
       <c r="E881" t="inlineStr">
         <is>
@@ -22463,7 +22463,7 @@
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/04/2014</t>
         </is>
       </c>
       <c r="B882" t="inlineStr">
@@ -22477,7 +22477,7 @@
         </is>
       </c>
       <c r="D882" t="n">
-        <v>15019.1</v>
+        <v>15228.7</v>
       </c>
       <c r="E882" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
+          <t>01/08/2014</t>
         </is>
       </c>
       <c r="B883" t="inlineStr">
@@ -22502,7 +22502,7 @@
         </is>
       </c>
       <c r="D883" t="n">
-        <v>14900.7</v>
+        <v>14545.5</v>
       </c>
       <c r="E883" t="inlineStr">
         <is>
@@ -22513,7 +22513,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>01/06/2014</t>
+          <t>01/12/2014</t>
         </is>
       </c>
       <c r="B884" t="inlineStr">
@@ -22527,7 +22527,7 @@
         </is>
       </c>
       <c r="D884" t="n">
-        <v>14977.9</v>
+        <v>13264.2</v>
       </c>
       <c r="E884" t="inlineStr">
         <is>
@@ -22538,7 +22538,7 @@
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>01/05/2014</t>
+          <t>01/02/2014</t>
         </is>
       </c>
       <c r="B885" t="inlineStr">
@@ -22552,7 +22552,7 @@
         </is>
       </c>
       <c r="D885" t="n">
-        <v>16141.5</v>
+        <v>13542.3</v>
       </c>
       <c r="E885" t="inlineStr">
         <is>
@@ -22563,7 +22563,7 @@
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>01/03/2014</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="B886" t="inlineStr">
@@ -22577,7 +22577,7 @@
         </is>
       </c>
       <c r="D886" t="n">
-        <v>15178.7</v>
+        <v>15019.1</v>
       </c>
       <c r="E886" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>01/11/2014</t>
+          <t>01/07/2014</t>
         </is>
       </c>
       <c r="B887" t="inlineStr">
@@ -22602,7 +22602,7 @@
         </is>
       </c>
       <c r="D887" t="n">
-        <v>11227.8</v>
+        <v>14900.7</v>
       </c>
       <c r="E887" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>01/10/2014</t>
+          <t>01/06/2014</t>
         </is>
       </c>
       <c r="B888" t="inlineStr">
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="D888" t="n">
-        <v>14384.8</v>
+        <v>14977.9</v>
       </c>
       <c r="E888" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>01/09/2014</t>
+          <t>01/05/2014</t>
         </is>
       </c>
       <c r="B889" t="inlineStr">
@@ -22652,7 +22652,7 @@
         </is>
       </c>
       <c r="D889" t="n">
-        <v>13936.6</v>
+        <v>16141.5</v>
       </c>
       <c r="E889" t="inlineStr">
         <is>
@@ -22663,7 +22663,7 @@
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>01/04/2015</t>
+          <t>01/03/2014</t>
         </is>
       </c>
       <c r="B890" t="inlineStr">
@@ -22677,7 +22677,7 @@
         </is>
       </c>
       <c r="D890" t="n">
-        <v>13917.8</v>
+        <v>15178.7</v>
       </c>
       <c r="E890" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>01/08/2015</t>
+          <t>01/11/2014</t>
         </is>
       </c>
       <c r="B891" t="inlineStr">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="D891" t="n">
-        <v>11403.3</v>
+        <v>11227.8</v>
       </c>
       <c r="E891" t="inlineStr">
         <is>
@@ -22713,7 +22713,7 @@
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>01/12/2015</t>
+          <t>01/10/2014</t>
         </is>
       </c>
       <c r="B892" t="inlineStr">
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D892" t="n">
-        <v>9425.700000000001</v>
+        <v>14384.8</v>
       </c>
       <c r="E892" t="inlineStr">
         <is>
@@ -22738,7 +22738,7 @@
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>01/02/2015</t>
+          <t>01/09/2014</t>
         </is>
       </c>
       <c r="B893" t="inlineStr">
@@ -22752,7 +22752,7 @@
         </is>
       </c>
       <c r="D893" t="n">
-        <v>13004.4</v>
+        <v>13936.6</v>
       </c>
       <c r="E893" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/04/2015</t>
         </is>
       </c>
       <c r="B894" t="inlineStr">
@@ -22777,7 +22777,7 @@
         </is>
       </c>
       <c r="D894" t="n">
-        <v>14478.2</v>
+        <v>13917.8</v>
       </c>
       <c r="E894" t="inlineStr">
         <is>
@@ -22788,7 +22788,7 @@
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>01/07/2015</t>
+          <t>01/08/2015</t>
         </is>
       </c>
       <c r="B895" t="inlineStr">
@@ -22802,7 +22802,7 @@
         </is>
       </c>
       <c r="D895" t="n">
-        <v>11946.4</v>
+        <v>11403.3</v>
       </c>
       <c r="E895" t="inlineStr">
         <is>
@@ -22813,7 +22813,7 @@
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>01/06/2015</t>
+          <t>01/12/2015</t>
         </is>
       </c>
       <c r="B896" t="inlineStr">
@@ -22827,7 +22827,7 @@
         </is>
       </c>
       <c r="D896" t="n">
-        <v>12385.6</v>
+        <v>9425.700000000001</v>
       </c>
       <c r="E896" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>01/05/2015</t>
+          <t>01/02/2015</t>
         </is>
       </c>
       <c r="B897" t="inlineStr">
@@ -22852,7 +22852,7 @@
         </is>
       </c>
       <c r="D897" t="n">
-        <v>12823.9</v>
+        <v>13004.4</v>
       </c>
       <c r="E897" t="inlineStr">
         <is>
@@ -22863,7 +22863,7 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>01/03/2015</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="B898" t="inlineStr">
@@ -22877,7 +22877,7 @@
         </is>
       </c>
       <c r="D898" t="n">
-        <v>14916.8</v>
+        <v>14478.2</v>
       </c>
       <c r="E898" t="inlineStr">
         <is>
@@ -22888,7 +22888,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>01/11/2015</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
@@ -22902,7 +22902,7 @@
         </is>
       </c>
       <c r="D899" t="n">
-        <v>5361.7</v>
+        <v>11946.4</v>
       </c>
       <c r="E899" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/06/2015</t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
@@ -22927,7 +22927,7 @@
         </is>
       </c>
       <c r="D900" t="n">
-        <v>11384.7</v>
+        <v>12385.6</v>
       </c>
       <c r="E900" t="inlineStr">
         <is>
@@ -22938,7 +22938,7 @@
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>01/09/2015</t>
+          <t>01/05/2015</t>
         </is>
       </c>
       <c r="B901" t="inlineStr">
@@ -22952,7 +22952,7 @@
         </is>
       </c>
       <c r="D901" t="n">
-        <v>11927.3</v>
+        <v>12823.9</v>
       </c>
       <c r="E901" t="inlineStr">
         <is>
@@ -22963,7 +22963,7 @@
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>01/04/2016</t>
+          <t>01/03/2015</t>
         </is>
       </c>
       <c r="B902" t="inlineStr">
@@ -22977,7 +22977,7 @@
         </is>
       </c>
       <c r="D902" t="n">
-        <v>9074.1</v>
+        <v>14916.8</v>
       </c>
       <c r="E902" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>01/08/2016</t>
+          <t>01/11/2015</t>
         </is>
       </c>
       <c r="B903" t="inlineStr">
@@ -23002,7 +23002,7 @@
         </is>
       </c>
       <c r="D903" t="n">
-        <v>9273.799999999999</v>
+        <v>5361.7</v>
       </c>
       <c r="E903" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>01/12/2016</t>
+          <t>01/10/2015</t>
         </is>
       </c>
       <c r="B904" t="inlineStr">
@@ -23027,7 +23027,7 @@
         </is>
       </c>
       <c r="D904" t="n">
-        <v>3213.5</v>
+        <v>11384.7</v>
       </c>
       <c r="E904" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>01/02/2016</t>
+          <t>01/09/2015</t>
         </is>
       </c>
       <c r="B905" t="inlineStr">
@@ -23052,7 +23052,7 @@
         </is>
       </c>
       <c r="D905" t="n">
-        <v>8886.4</v>
+        <v>11927.3</v>
       </c>
       <c r="E905" t="inlineStr">
         <is>
@@ -23063,7 +23063,7 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="B906" t="inlineStr">
@@ -23077,7 +23077,7 @@
         </is>
       </c>
       <c r="D906" t="n">
-        <v>9118.200000000001</v>
+        <v>9074.1</v>
       </c>
       <c r="E906" t="inlineStr">
         <is>
@@ -23088,7 +23088,7 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
+          <t>01/08/2016</t>
         </is>
       </c>
       <c r="B907" t="inlineStr">
@@ -23102,7 +23102,7 @@
         </is>
       </c>
       <c r="D907" t="n">
-        <v>9093.799999999999</v>
+        <v>9273.799999999999</v>
       </c>
       <c r="E907" t="inlineStr">
         <is>
@@ -23113,7 +23113,7 @@
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>01/06/2016</t>
+          <t>01/12/2016</t>
         </is>
       </c>
       <c r="B908" t="inlineStr">
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D908" t="n">
-        <v>8134.5</v>
+        <v>3213.5</v>
       </c>
       <c r="E908" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>01/05/2016</t>
+          <t>01/02/2016</t>
         </is>
       </c>
       <c r="B909" t="inlineStr">
@@ -23152,7 +23152,7 @@
         </is>
       </c>
       <c r="D909" t="n">
-        <v>9412.299999999999</v>
+        <v>8886.4</v>
       </c>
       <c r="E909" t="inlineStr">
         <is>
@@ -23163,7 +23163,7 @@
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>01/03/2016</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="B910" t="inlineStr">
@@ -23177,7 +23177,7 @@
         </is>
       </c>
       <c r="D910" t="n">
-        <v>9861.1</v>
+        <v>9118.200000000001</v>
       </c>
       <c r="E910" t="inlineStr">
         <is>
@@ -23188,7 +23188,7 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>01/11/2016</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="B911" t="inlineStr">
@@ -23202,7 +23202,7 @@
         </is>
       </c>
       <c r="D911" t="n">
-        <v>7657.6</v>
+        <v>9093.799999999999</v>
       </c>
       <c r="E911" t="inlineStr">
         <is>
@@ -23213,7 +23213,7 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/06/2016</t>
         </is>
       </c>
       <c r="B912" t="inlineStr">
@@ -23227,7 +23227,7 @@
         </is>
       </c>
       <c r="D912" t="n">
-        <v>8933.1</v>
+        <v>8134.5</v>
       </c>
       <c r="E912" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>01/09/2016</t>
+          <t>01/05/2016</t>
         </is>
       </c>
       <c r="B913" t="inlineStr">
@@ -23252,7 +23252,7 @@
         </is>
       </c>
       <c r="D913" t="n">
-        <v>8977.299999999999</v>
+        <v>9412.299999999999</v>
       </c>
       <c r="E913" t="inlineStr">
         <is>
@@ -23263,7 +23263,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>01/04/2017</t>
+          <t>01/03/2016</t>
         </is>
       </c>
       <c r="B914" t="inlineStr">
@@ -23277,7 +23277,7 @@
         </is>
       </c>
       <c r="D914" t="n">
-        <v>6856.1</v>
+        <v>9861.1</v>
       </c>
       <c r="E914" t="inlineStr">
         <is>
@@ -23288,7 +23288,7 @@
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>01/08/2017</t>
+          <t>01/11/2016</t>
         </is>
       </c>
       <c r="B915" t="inlineStr">
@@ -23302,7 +23302,7 @@
         </is>
       </c>
       <c r="D915" t="n">
-        <v>7185.4</v>
+        <v>7657.6</v>
       </c>
       <c r="E915" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>01/12/2017</t>
+          <t>01/10/2016</t>
         </is>
       </c>
       <c r="B916" t="inlineStr">
@@ -23327,7 +23327,7 @@
         </is>
       </c>
       <c r="D916" t="n">
-        <v>9617.700000000001</v>
+        <v>8933.1</v>
       </c>
       <c r="E916" t="inlineStr">
         <is>
@@ -23338,7 +23338,7 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>01/02/2017</t>
+          <t>01/09/2016</t>
         </is>
       </c>
       <c r="B917" t="inlineStr">
@@ -23352,7 +23352,7 @@
         </is>
       </c>
       <c r="D917" t="n">
-        <v>6279.5</v>
+        <v>8977.299999999999</v>
       </c>
       <c r="E917" t="inlineStr">
         <is>
@@ -23363,7 +23363,7 @@
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="B918" t="inlineStr">
@@ -23377,7 +23377,7 @@
         </is>
       </c>
       <c r="D918" t="n">
-        <v>7743.8</v>
+        <v>6856.1</v>
       </c>
       <c r="E918" t="inlineStr">
         <is>
@@ -23388,7 +23388,7 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
+          <t>01/08/2017</t>
         </is>
       </c>
       <c r="B919" t="inlineStr">
@@ -23402,7 +23402,7 @@
         </is>
       </c>
       <c r="D919" t="n">
-        <v>6753.2</v>
+        <v>7185.4</v>
       </c>
       <c r="E919" t="inlineStr">
         <is>
@@ -23413,7 +23413,7 @@
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>01/06/2017</t>
+          <t>01/12/2017</t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
@@ -23427,7 +23427,7 @@
         </is>
       </c>
       <c r="D920" t="n">
-        <v>6679</v>
+        <v>9617.700000000001</v>
       </c>
       <c r="E920" t="inlineStr">
         <is>
@@ -23438,7 +23438,7 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>01/05/2017</t>
+          <t>01/02/2017</t>
         </is>
       </c>
       <c r="B921" t="inlineStr">
@@ -23452,7 +23452,7 @@
         </is>
       </c>
       <c r="D921" t="n">
-        <v>6777</v>
+        <v>6279.5</v>
       </c>
       <c r="E921" t="inlineStr">
         <is>
@@ -23463,7 +23463,7 @@
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>01/03/2017</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="B922" t="inlineStr">
@@ -23477,7 +23477,7 @@
         </is>
       </c>
       <c r="D922" t="n">
-        <v>7180</v>
+        <v>7743.8</v>
       </c>
       <c r="E922" t="inlineStr">
         <is>
@@ -23488,7 +23488,7 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>01/11/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="B923" t="inlineStr">
@@ -23502,7 +23502,7 @@
         </is>
       </c>
       <c r="D923" t="n">
-        <v>7720.9</v>
+        <v>6753.2</v>
       </c>
       <c r="E923" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/06/2017</t>
         </is>
       </c>
       <c r="B924" t="inlineStr">
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D924" t="n">
-        <v>7765.07</v>
+        <v>6679</v>
       </c>
       <c r="E924" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>01/09/2017</t>
+          <t>01/05/2017</t>
         </is>
       </c>
       <c r="B925" t="inlineStr">
@@ -23552,7 +23552,7 @@
         </is>
       </c>
       <c r="D925" t="n">
-        <v>7191.4</v>
+        <v>6777</v>
       </c>
       <c r="E925" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>01/04/2018</t>
+          <t>01/03/2017</t>
         </is>
       </c>
       <c r="B926" t="inlineStr">
@@ -23577,7 +23577,7 @@
         </is>
       </c>
       <c r="D926" t="n">
-        <v>6020</v>
+        <v>7180</v>
       </c>
       <c r="E926" t="inlineStr">
         <is>
@@ -23588,7 +23588,7 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>01/08/2018</t>
+          <t>01/11/2017</t>
         </is>
       </c>
       <c r="B927" t="inlineStr">
@@ -23602,7 +23602,7 @@
         </is>
       </c>
       <c r="D927" t="n">
-        <v>5969</v>
+        <v>7720.9</v>
       </c>
       <c r="E927" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>01/12/2018</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="B928" t="inlineStr">
@@ -23627,7 +23627,7 @@
         </is>
       </c>
       <c r="D928" t="n">
-        <v>6061</v>
+        <v>7765.07</v>
       </c>
       <c r="E928" t="inlineStr">
         <is>
@@ -23638,7 +23638,7 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>01/02/2018</t>
+          <t>01/09/2017</t>
         </is>
       </c>
       <c r="B929" t="inlineStr">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="D929" t="n">
-        <v>6141.6</v>
+        <v>7191.4</v>
       </c>
       <c r="E929" t="inlineStr">
         <is>
@@ -23663,7 +23663,7 @@
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="B930" t="inlineStr">
@@ -23677,7 +23677,7 @@
         </is>
       </c>
       <c r="D930" t="n">
-        <v>7289.478</v>
+        <v>6020</v>
       </c>
       <c r="E930" t="inlineStr">
         <is>
@@ -23688,7 +23688,7 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>01/08/2018</t>
         </is>
       </c>
       <c r="B931" t="inlineStr">
@@ -23702,7 +23702,7 @@
         </is>
       </c>
       <c r="D931" t="n">
-        <v>5621.504</v>
+        <v>5969</v>
       </c>
       <c r="E931" t="inlineStr">
         <is>
@@ -23713,7 +23713,7 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>01/06/2018</t>
+          <t>01/12/2018</t>
         </is>
       </c>
       <c r="B932" t="inlineStr">
@@ -23727,7 +23727,7 @@
         </is>
       </c>
       <c r="D932" t="n">
-        <v>5487.042</v>
+        <v>6061</v>
       </c>
       <c r="E932" t="inlineStr">
         <is>
@@ -23738,7 +23738,7 @@
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>01/05/2018</t>
+          <t>01/02/2018</t>
         </is>
       </c>
       <c r="B933" t="inlineStr">
@@ -23752,7 +23752,7 @@
         </is>
       </c>
       <c r="D933" t="n">
-        <v>5549.7</v>
+        <v>6141.6</v>
       </c>
       <c r="E933" t="inlineStr">
         <is>
@@ -23763,7 +23763,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>01/03/2018</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="B934" t="inlineStr">
@@ -23777,7 +23777,7 @@
         </is>
       </c>
       <c r="D934" t="n">
-        <v>6426.258</v>
+        <v>7289.478</v>
       </c>
       <c r="E934" t="inlineStr">
         <is>
@@ -23788,7 +23788,7 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>01/11/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="B935" t="inlineStr">
@@ -23802,7 +23802,7 @@
         </is>
       </c>
       <c r="D935" t="n">
-        <v>5685.5</v>
+        <v>5621.504</v>
       </c>
       <c r="E935" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/06/2018</t>
         </is>
       </c>
       <c r="B936" t="inlineStr">
@@ -23827,7 +23827,7 @@
         </is>
       </c>
       <c r="D936" t="n">
-        <v>5916.66</v>
+        <v>5487.042</v>
       </c>
       <c r="E936" t="inlineStr">
         <is>
@@ -23838,7 +23838,7 @@
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>01/09/2018</t>
+          <t>01/05/2018</t>
         </is>
       </c>
       <c r="B937" t="inlineStr">
@@ -23852,7 +23852,7 @@
         </is>
       </c>
       <c r="D937" t="n">
-        <v>5970.399</v>
+        <v>5549.7</v>
       </c>
       <c r="E937" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/03/2018</t>
         </is>
       </c>
       <c r="B938" t="inlineStr">
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D938" t="n">
-        <v>5391.2</v>
+        <v>6426.258</v>
       </c>
       <c r="E938" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>01/08/2019</t>
+          <t>01/11/2018</t>
         </is>
       </c>
       <c r="B939" t="inlineStr">
@@ -23902,7 +23902,7 @@
         </is>
       </c>
       <c r="D939" t="n">
-        <v>4054.5</v>
+        <v>5685.5</v>
       </c>
       <c r="E939" t="inlineStr">
         <is>
@@ -23913,7 +23913,7 @@
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>01/12/2019</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="B940" t="inlineStr">
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D940" t="n">
-        <v>4830.4</v>
+        <v>5916.66</v>
       </c>
       <c r="E940" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>01/02/2019</t>
+          <t>01/09/2018</t>
         </is>
       </c>
       <c r="B941" t="inlineStr">
@@ -23952,7 +23952,7 @@
         </is>
       </c>
       <c r="D941" t="n">
-        <v>3997.1</v>
+        <v>5970.399</v>
       </c>
       <c r="E941" t="inlineStr">
         <is>
@@ -23963,7 +23963,7 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="B942" t="inlineStr">
@@ -23977,7 +23977,7 @@
         </is>
       </c>
       <c r="D942" t="n">
-        <v>5711.1</v>
+        <v>5391.2</v>
       </c>
       <c r="E942" t="inlineStr">
         <is>
@@ -23988,7 +23988,7 @@
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/08/2019</t>
         </is>
       </c>
       <c r="B943" t="inlineStr">
@@ -24002,7 +24002,7 @@
         </is>
       </c>
       <c r="D943" t="n">
-        <v>4524.82</v>
+        <v>4054.5</v>
       </c>
       <c r="E943" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>01/06/2019</t>
+          <t>01/12/2019</t>
         </is>
       </c>
       <c r="B944" t="inlineStr">
@@ -24027,7 +24027,7 @@
         </is>
       </c>
       <c r="D944" t="n">
-        <v>4716.577</v>
+        <v>4830.4</v>
       </c>
       <c r="E944" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>01/05/2019</t>
+          <t>01/02/2019</t>
         </is>
       </c>
       <c r="B945" t="inlineStr">
@@ -24052,7 +24052,7 @@
         </is>
       </c>
       <c r="D945" t="n">
-        <v>5361.2</v>
+        <v>3997.1</v>
       </c>
       <c r="E945" t="inlineStr">
         <is>
@@ -24063,7 +24063,7 @@
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>01/03/2019</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="B946" t="inlineStr">
@@ -24077,7 +24077,7 @@
         </is>
       </c>
       <c r="D946" t="n">
-        <v>4734.9</v>
+        <v>5711.1</v>
       </c>
       <c r="E946" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>01/11/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="B947" t="inlineStr">
@@ -24102,7 +24102,7 @@
         </is>
       </c>
       <c r="D947" t="n">
-        <v>3812.4</v>
+        <v>4524.82</v>
       </c>
       <c r="E947" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/06/2019</t>
         </is>
       </c>
       <c r="B948" t="inlineStr">
@@ -24127,7 +24127,7 @@
         </is>
       </c>
       <c r="D948" t="n">
-        <v>4339.8</v>
+        <v>4716.577</v>
       </c>
       <c r="E948" t="inlineStr">
         <is>
@@ -24138,7 +24138,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>01/09/2019</t>
+          <t>01/05/2019</t>
         </is>
       </c>
       <c r="B949" t="inlineStr">
@@ -24152,7 +24152,7 @@
         </is>
       </c>
       <c r="D949" t="n">
-        <v>3820.9</v>
+        <v>5361.2</v>
       </c>
       <c r="E949" t="inlineStr">
         <is>
@@ -24163,7 +24163,7 @@
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/03/2019</t>
         </is>
       </c>
       <c r="B950" t="inlineStr">
@@ -24177,7 +24177,7 @@
         </is>
       </c>
       <c r="D950" t="n">
-        <v>0</v>
+        <v>4734.9</v>
       </c>
       <c r="E950" t="inlineStr">
         <is>
@@ -24188,7 +24188,7 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>01/08/2020</t>
+          <t>01/11/2019</t>
         </is>
       </c>
       <c r="B951" t="inlineStr">
@@ -24202,7 +24202,7 @@
         </is>
       </c>
       <c r="D951" t="n">
-        <v>0</v>
+        <v>3812.4</v>
       </c>
       <c r="E951" t="inlineStr">
         <is>
@@ -24213,7 +24213,7 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>01/12/2020</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="B952" t="inlineStr">
@@ -24227,7 +24227,7 @@
         </is>
       </c>
       <c r="D952" t="n">
-        <v>0</v>
+        <v>4339.8</v>
       </c>
       <c r="E952" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>01/02/2020</t>
+          <t>01/09/2019</t>
         </is>
       </c>
       <c r="B953" t="inlineStr">
@@ -24252,7 +24252,7 @@
         </is>
       </c>
       <c r="D953" t="n">
-        <v>5762.358</v>
+        <v>3820.9</v>
       </c>
       <c r="E953" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="B954" t="inlineStr">
@@ -24277,7 +24277,7 @@
         </is>
       </c>
       <c r="D954" t="n">
-        <v>5560.337</v>
+        <v>0</v>
       </c>
       <c r="E954" t="inlineStr">
         <is>
@@ -24288,7 +24288,7 @@
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/08/2020</t>
         </is>
       </c>
       <c r="B955" t="inlineStr">
@@ -24313,7 +24313,7 @@
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>01/06/2020</t>
+          <t>01/12/2020</t>
         </is>
       </c>
       <c r="B956" t="inlineStr">
@@ -24338,7 +24338,7 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>01/05/2020</t>
+          <t>01/02/2020</t>
         </is>
       </c>
       <c r="B957" t="inlineStr">
@@ -24352,7 +24352,7 @@
         </is>
       </c>
       <c r="D957" t="n">
-        <v>0</v>
+        <v>5762.358</v>
       </c>
       <c r="E957" t="inlineStr">
         <is>
@@ -24363,7 +24363,7 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>01/03/2020</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="B958" t="inlineStr">
@@ -24377,7 +24377,7 @@
         </is>
       </c>
       <c r="D958" t="n">
-        <v>5496</v>
+        <v>5560.337</v>
       </c>
       <c r="E958" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>01/11/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="B959" t="inlineStr">
@@ -24413,7 +24413,7 @@
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/06/2020</t>
         </is>
       </c>
       <c r="B960" t="inlineStr">
@@ -24438,7 +24438,7 @@
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>01/09/2020</t>
+          <t>01/05/2020</t>
         </is>
       </c>
       <c r="B961" t="inlineStr">
@@ -24463,7 +24463,7 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/03/2020</t>
         </is>
       </c>
       <c r="B962" t="inlineStr">
@@ -24477,7 +24477,7 @@
         </is>
       </c>
       <c r="D962" t="n">
-        <v>0</v>
+        <v>5496</v>
       </c>
       <c r="E962" t="inlineStr">
         <is>
@@ -24488,7 +24488,7 @@
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>01/08/2021</t>
+          <t>01/11/2020</t>
         </is>
       </c>
       <c r="B963" t="inlineStr">
@@ -24513,7 +24513,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>01/12/2021</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="B964" t="inlineStr">
@@ -24538,7 +24538,7 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>01/02/2021</t>
+          <t>01/09/2020</t>
         </is>
       </c>
       <c r="B965" t="inlineStr">
@@ -24563,7 +24563,7 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="B966" t="inlineStr">
@@ -24588,7 +24588,7 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/08/2021</t>
         </is>
       </c>
       <c r="B967" t="inlineStr">
@@ -24613,7 +24613,7 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>01/06/2021</t>
+          <t>01/12/2021</t>
         </is>
       </c>
       <c r="B968" t="inlineStr">
@@ -24638,7 +24638,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>01/05/2021</t>
+          <t>01/02/2021</t>
         </is>
       </c>
       <c r="B969" t="inlineStr">
@@ -24663,7 +24663,7 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>01/03/2021</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="B970" t="inlineStr">
@@ -24688,7 +24688,7 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>01/11/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="B971" t="inlineStr">
@@ -24713,7 +24713,7 @@
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/06/2021</t>
         </is>
       </c>
       <c r="B972" t="inlineStr">
@@ -24738,7 +24738,7 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>01/09/2021</t>
+          <t>01/05/2021</t>
         </is>
       </c>
       <c r="B973" t="inlineStr">
@@ -24763,7 +24763,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/03/2021</t>
         </is>
       </c>
       <c r="B974" t="inlineStr">
@@ -24788,7 +24788,7 @@
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>01/08/2022</t>
+          <t>01/11/2021</t>
         </is>
       </c>
       <c r="B975" t="inlineStr">
@@ -24813,7 +24813,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>01/12/2022</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="B976" t="inlineStr">
@@ -24838,7 +24838,7 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>01/02/2022</t>
+          <t>01/09/2021</t>
         </is>
       </c>
       <c r="B977" t="inlineStr">
@@ -24863,7 +24863,7 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="B978" t="inlineStr">
@@ -24888,7 +24888,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/08/2022</t>
         </is>
       </c>
       <c r="B979" t="inlineStr">
@@ -24913,7 +24913,7 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>01/06/2022</t>
+          <t>01/12/2022</t>
         </is>
       </c>
       <c r="B980" t="inlineStr">
@@ -24938,7 +24938,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>01/05/2022</t>
+          <t>01/02/2022</t>
         </is>
       </c>
       <c r="B981" t="inlineStr">
@@ -24963,7 +24963,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>01/03/2022</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="B982" t="inlineStr">
@@ -24988,7 +24988,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>01/11/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="B983" t="inlineStr">
@@ -25013,7 +25013,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/06/2022</t>
         </is>
       </c>
       <c r="B984" t="inlineStr">
@@ -25038,7 +25038,7 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>01/09/2022</t>
+          <t>01/05/2022</t>
         </is>
       </c>
       <c r="B985" t="inlineStr">
@@ -25063,7 +25063,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/03/2022</t>
         </is>
       </c>
       <c r="B986" t="inlineStr">
@@ -25088,7 +25088,7 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01/11/2022</t>
         </is>
       </c>
       <c r="B987" t="inlineStr">
@@ -25113,7 +25113,7 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="B988" t="inlineStr">
@@ -25138,7 +25138,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>01/02/2023</t>
+          <t>01/09/2022</t>
         </is>
       </c>
       <c r="B989" t="inlineStr">
@@ -25163,7 +25163,7 @@
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="B990" t="inlineStr">
@@ -25188,7 +25188,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/08/2023</t>
         </is>
       </c>
       <c r="B991" t="inlineStr">
@@ -25213,7 +25213,7 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>01/06/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="B992" t="inlineStr">
@@ -25238,7 +25238,7 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>01/05/2023</t>
+          <t>01/02/2023</t>
         </is>
       </c>
       <c r="B993" t="inlineStr">
@@ -25263,7 +25263,7 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>01/03/2023</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="B994" t="inlineStr">
@@ -25288,7 +25288,7 @@
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>01/11/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="B995" t="inlineStr">
@@ -25313,7 +25313,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/06/2023</t>
         </is>
       </c>
       <c r="B996" t="inlineStr">
@@ -25338,7 +25338,7 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>01/09/2023</t>
+          <t>01/05/2023</t>
         </is>
       </c>
       <c r="B997" t="inlineStr">
@@ -25363,7 +25363,7 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
+          <t>01/03/2023</t>
         </is>
       </c>
       <c r="B998" t="inlineStr">
@@ -25388,7 +25388,7 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>01/11/2023</t>
         </is>
       </c>
       <c r="B999" t="inlineStr">
@@ -25413,7 +25413,7 @@
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>01/12/2024</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="B1000" t="inlineStr">
@@ -25438,7 +25438,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>01/02/2024</t>
+          <t>01/09/2023</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr">
@@ -25463,7 +25463,7 @@
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="B1002" t="inlineStr">
@@ -25488,7 +25488,7 @@
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr">
@@ -25513,7 +25513,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>01/06/2024</t>
+          <t>01/12/2024</t>
         </is>
       </c>
       <c r="B1004" t="inlineStr">
@@ -25538,7 +25538,7 @@
     <row r="1005">
       <c r="A1005" t="inlineStr">
         <is>
-          <t>01/05/2024</t>
+          <t>01/02/2024</t>
         </is>
       </c>
       <c r="B1005" t="inlineStr">
@@ -25563,7 +25563,7 @@
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>01/03/2024</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr">
@@ -25588,7 +25588,7 @@
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>01/11/2024</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="B1007" t="inlineStr">
@@ -25613,7 +25613,7 @@
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>01/10/2024</t>
+          <t>01/06/2024</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr">
@@ -25638,7 +25638,7 @@
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>01/09/2024</t>
+          <t>01/05/2024</t>
         </is>
       </c>
       <c r="B1009" t="inlineStr">
@@ -25655,6 +25655,156 @@
         <v>0</v>
       </c>
       <c r="E1009" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="inlineStr">
+        <is>
+          <t>01/03/2024</t>
+        </is>
+      </c>
+      <c r="B1010" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C1010" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1010" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="inlineStr">
+        <is>
+          <t>01/11/2024</t>
+        </is>
+      </c>
+      <c r="B1011" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C1011" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1011" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="inlineStr">
+        <is>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="B1012" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C1012" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1012" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="B1013" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C1013" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1013" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="inlineStr">
+        <is>
+          <t>01/02/2025</t>
+        </is>
+      </c>
+      <c r="B1014" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C1014" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1014" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="B1015" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C1015" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1015" t="inlineStr">
         <is>
           <t>SERGIPE</t>
         </is>

--- a/Data/g8.2.xlsx
+++ b/Data/g8.2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1015"/>
+  <dimension ref="A1:E1017"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17363,21 +17363,21 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>01/04/1997</t>
+          <t>01/03/2025</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA</t>
+          <t>MAR</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>LGN</t>
+          <t>GÁS NATURAL</t>
         </is>
       </c>
       <c r="D678" t="n">
-        <v>20951</v>
+        <v>9.792</v>
       </c>
       <c r="E678" t="inlineStr">
         <is>
@@ -17388,21 +17388,21 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>01/08/1997</t>
+          <t>01/03/2025</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA</t>
+          <t>TERRA</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>LGN</t>
+          <t>GÁS NATURAL</t>
         </is>
       </c>
       <c r="D679" t="n">
-        <v>24698</v>
+        <v>1796.277</v>
       </c>
       <c r="E679" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>01/12/1997</t>
+          <t>01/04/1997</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
@@ -17427,7 +17427,7 @@
         </is>
       </c>
       <c r="D680" t="n">
-        <v>23230</v>
+        <v>20951</v>
       </c>
       <c r="E680" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>01/02/1997</t>
+          <t>01/08/1997</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
@@ -17452,7 +17452,7 @@
         </is>
       </c>
       <c r="D681" t="n">
-        <v>19007</v>
+        <v>24698</v>
       </c>
       <c r="E681" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>01/01/1997</t>
+          <t>01/12/1997</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
@@ -17477,7 +17477,7 @@
         </is>
       </c>
       <c r="D682" t="n">
-        <v>18978</v>
+        <v>23230</v>
       </c>
       <c r="E682" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>01/07/1997</t>
+          <t>01/02/1997</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
@@ -17502,7 +17502,7 @@
         </is>
       </c>
       <c r="D683" t="n">
-        <v>23232</v>
+        <v>19007</v>
       </c>
       <c r="E683" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>01/06/1997</t>
+          <t>01/01/1997</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D684" t="n">
-        <v>22449</v>
+        <v>18978</v>
       </c>
       <c r="E684" t="inlineStr">
         <is>
@@ -17538,7 +17538,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>01/05/1997</t>
+          <t>01/07/1997</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
@@ -17552,7 +17552,7 @@
         </is>
       </c>
       <c r="D685" t="n">
-        <v>24757</v>
+        <v>23232</v>
       </c>
       <c r="E685" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>01/03/1997</t>
+          <t>01/06/1997</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
@@ -17577,7 +17577,7 @@
         </is>
       </c>
       <c r="D686" t="n">
-        <v>19807</v>
+        <v>22449</v>
       </c>
       <c r="E686" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>01/11/1997</t>
+          <t>01/05/1997</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
@@ -17602,7 +17602,7 @@
         </is>
       </c>
       <c r="D687" t="n">
-        <v>22027</v>
+        <v>24757</v>
       </c>
       <c r="E687" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>01/10/1997</t>
+          <t>01/03/1997</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
@@ -17627,7 +17627,7 @@
         </is>
       </c>
       <c r="D688" t="n">
-        <v>21890</v>
+        <v>19807</v>
       </c>
       <c r="E688" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>01/09/1997</t>
+          <t>01/11/1997</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
@@ -17652,7 +17652,7 @@
         </is>
       </c>
       <c r="D689" t="n">
-        <v>22749</v>
+        <v>22027</v>
       </c>
       <c r="E689" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>01/04/1998</t>
+          <t>01/10/1997</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
@@ -17677,7 +17677,7 @@
         </is>
       </c>
       <c r="D690" t="n">
-        <v>131778.0699</v>
+        <v>21890</v>
       </c>
       <c r="E690" t="inlineStr">
         <is>
@@ -17688,7 +17688,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>01/08/1998</t>
+          <t>01/09/1997</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
@@ -17702,7 +17702,7 @@
         </is>
       </c>
       <c r="D691" t="n">
-        <v>155346.0346</v>
+        <v>22749</v>
       </c>
       <c r="E691" t="inlineStr">
         <is>
@@ -17713,7 +17713,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>01/12/1998</t>
+          <t>01/04/1998</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
@@ -17727,7 +17727,7 @@
         </is>
       </c>
       <c r="D692" t="n">
-        <v>146112.5752</v>
+        <v>131778.0699</v>
       </c>
       <c r="E692" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>01/02/1998</t>
+          <t>01/08/1998</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
@@ -17752,7 +17752,7 @@
         </is>
       </c>
       <c r="D693" t="n">
-        <v>119550.6551</v>
+        <v>155346.0346</v>
       </c>
       <c r="E693" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>01/01/1998</t>
+          <t>01/12/1998</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
@@ -17777,7 +17777,7 @@
         </is>
       </c>
       <c r="D694" t="n">
-        <v>119368.2502</v>
+        <v>146112.5752</v>
       </c>
       <c r="E694" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>01/07/1998</t>
+          <t>01/02/1998</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
@@ -17802,7 +17802,7 @@
         </is>
       </c>
       <c r="D695" t="n">
-        <v>146125.1549</v>
+        <v>119550.6551</v>
       </c>
       <c r="E695" t="inlineStr">
         <is>
@@ -17813,7 +17813,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>01/06/1998</t>
+          <t>01/01/1998</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
@@ -17827,7 +17827,7 @@
         </is>
       </c>
       <c r="D696" t="n">
-        <v>141200.2239</v>
+        <v>119368.2502</v>
       </c>
       <c r="E696" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>01/05/1998</t>
+          <t>01/07/1998</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
@@ -17852,7 +17852,7 @@
         </is>
       </c>
       <c r="D697" t="n">
-        <v>155717.1341</v>
+        <v>146125.1549</v>
       </c>
       <c r="E697" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>01/03/1998</t>
+          <t>01/06/1998</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
@@ -17877,7 +17877,7 @@
         </is>
       </c>
       <c r="D698" t="n">
-        <v>124582.513</v>
+        <v>141200.2239</v>
       </c>
       <c r="E698" t="inlineStr">
         <is>
@@ -17888,7 +17888,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>01/11/1998</t>
+          <t>01/05/1998</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
@@ -17902,7 +17902,7 @@
         </is>
       </c>
       <c r="D699" t="n">
-        <v>138545.9188</v>
+        <v>155717.1341</v>
       </c>
       <c r="E699" t="inlineStr">
         <is>
@@ -17913,7 +17913,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>01/10/1998</t>
+          <t>01/03/1998</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D700" t="n">
-        <v>137684.2132</v>
+        <v>124582.513</v>
       </c>
       <c r="E700" t="inlineStr">
         <is>
@@ -17938,7 +17938,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>01/09/1998</t>
+          <t>01/11/1998</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
@@ -17952,7 +17952,7 @@
         </is>
       </c>
       <c r="D701" t="n">
-        <v>143087.1706</v>
+        <v>138545.9188</v>
       </c>
       <c r="E701" t="inlineStr">
         <is>
@@ -17963,7 +17963,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>01/04/1999</t>
+          <t>01/10/1998</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
@@ -17977,7 +17977,7 @@
         </is>
       </c>
       <c r="D702" t="n">
-        <v>24546</v>
+        <v>137684.2132</v>
       </c>
       <c r="E702" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>01/08/1999</t>
+          <t>01/09/1998</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
@@ -18002,7 +18002,7 @@
         </is>
       </c>
       <c r="D703" t="n">
-        <v>23247</v>
+        <v>143087.1706</v>
       </c>
       <c r="E703" t="inlineStr">
         <is>
@@ -18013,7 +18013,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>01/12/1999</t>
+          <t>01/04/1999</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
@@ -18027,7 +18027,7 @@
         </is>
       </c>
       <c r="D704" t="n">
-        <v>24640</v>
+        <v>24546</v>
       </c>
       <c r="E704" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>01/02/1999</t>
+          <t>01/08/1999</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
@@ -18052,7 +18052,7 @@
         </is>
       </c>
       <c r="D705" t="n">
-        <v>22448</v>
+        <v>23247</v>
       </c>
       <c r="E705" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>01/01/1999</t>
+          <t>01/12/1999</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
@@ -18077,7 +18077,7 @@
         </is>
       </c>
       <c r="D706" t="n">
-        <v>24629</v>
+        <v>24640</v>
       </c>
       <c r="E706" t="inlineStr">
         <is>
@@ -18088,7 +18088,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>01/07/1999</t>
+          <t>01/02/1999</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
@@ -18102,7 +18102,7 @@
         </is>
       </c>
       <c r="D707" t="n">
-        <v>22323</v>
+        <v>22448</v>
       </c>
       <c r="E707" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>01/06/1999</t>
+          <t>01/01/1999</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
@@ -18127,7 +18127,7 @@
         </is>
       </c>
       <c r="D708" t="n">
-        <v>24653</v>
+        <v>24629</v>
       </c>
       <c r="E708" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>01/05/1999</t>
+          <t>01/07/1999</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
@@ -18152,7 +18152,7 @@
         </is>
       </c>
       <c r="D709" t="n">
-        <v>25678</v>
+        <v>22323</v>
       </c>
       <c r="E709" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>01/03/1999</t>
+          <t>01/06/1999</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
@@ -18177,7 +18177,7 @@
         </is>
       </c>
       <c r="D710" t="n">
-        <v>25737</v>
+        <v>24653</v>
       </c>
       <c r="E710" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>01/11/1999</t>
+          <t>01/05/1999</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
@@ -18202,7 +18202,7 @@
         </is>
       </c>
       <c r="D711" t="n">
-        <v>25481</v>
+        <v>25678</v>
       </c>
       <c r="E711" t="inlineStr">
         <is>
@@ -18213,7 +18213,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>01/10/1999</t>
+          <t>01/03/1999</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
@@ -18227,7 +18227,7 @@
         </is>
       </c>
       <c r="D712" t="n">
-        <v>25601</v>
+        <v>25737</v>
       </c>
       <c r="E712" t="inlineStr">
         <is>
@@ -18238,7 +18238,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>01/09/1999</t>
+          <t>01/11/1999</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
@@ -18252,7 +18252,7 @@
         </is>
       </c>
       <c r="D713" t="n">
-        <v>24686</v>
+        <v>25481</v>
       </c>
       <c r="E713" t="inlineStr">
         <is>
@@ -18263,7 +18263,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>01/04/2000</t>
+          <t>01/10/1999</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
@@ -18277,7 +18277,7 @@
         </is>
       </c>
       <c r="D714" t="n">
-        <v>25440</v>
+        <v>25601</v>
       </c>
       <c r="E714" t="inlineStr">
         <is>
@@ -18288,7 +18288,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>01/08/2000</t>
+          <t>01/09/1999</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
@@ -18302,7 +18302,7 @@
         </is>
       </c>
       <c r="D715" t="n">
-        <v>27353</v>
+        <v>24686</v>
       </c>
       <c r="E715" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>01/12/2000</t>
+          <t>01/04/2000</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D716" t="n">
-        <v>26071</v>
+        <v>25440</v>
       </c>
       <c r="E716" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>01/02/2000</t>
+          <t>01/08/2000</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
@@ -18352,7 +18352,7 @@
         </is>
       </c>
       <c r="D717" t="n">
-        <v>25123</v>
+        <v>27353</v>
       </c>
       <c r="E717" t="inlineStr">
         <is>
@@ -18363,7 +18363,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>01/01/2000</t>
+          <t>01/12/2000</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
@@ -18377,7 +18377,7 @@
         </is>
       </c>
       <c r="D718" t="n">
-        <v>26480</v>
+        <v>26071</v>
       </c>
       <c r="E718" t="inlineStr">
         <is>
@@ -18388,7 +18388,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>01/07/2000</t>
+          <t>01/02/2000</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
@@ -18402,7 +18402,7 @@
         </is>
       </c>
       <c r="D719" t="n">
-        <v>26914</v>
+        <v>25123</v>
       </c>
       <c r="E719" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>01/06/2000</t>
+          <t>01/01/2000</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
@@ -18427,7 +18427,7 @@
         </is>
       </c>
       <c r="D720" t="n">
-        <v>26044</v>
+        <v>26480</v>
       </c>
       <c r="E720" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>01/05/2000</t>
+          <t>01/07/2000</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
@@ -18452,7 +18452,7 @@
         </is>
       </c>
       <c r="D721" t="n">
-        <v>26406</v>
+        <v>26914</v>
       </c>
       <c r="E721" t="inlineStr">
         <is>
@@ -18463,7 +18463,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>01/03/2000</t>
+          <t>01/06/2000</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D722" t="n">
-        <v>26572</v>
+        <v>26044</v>
       </c>
       <c r="E722" t="inlineStr">
         <is>
@@ -18488,7 +18488,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>01/11/2000</t>
+          <t>01/05/2000</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
@@ -18502,7 +18502,7 @@
         </is>
       </c>
       <c r="D723" t="n">
-        <v>13928</v>
+        <v>26406</v>
       </c>
       <c r="E723" t="inlineStr">
         <is>
@@ -18513,7 +18513,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>01/10/2000</t>
+          <t>01/03/2000</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
@@ -18527,7 +18527,7 @@
         </is>
       </c>
       <c r="D724" t="n">
-        <v>26965</v>
+        <v>26572</v>
       </c>
       <c r="E724" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>01/09/2000</t>
+          <t>01/11/2000</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
@@ -18552,7 +18552,7 @@
         </is>
       </c>
       <c r="D725" t="n">
-        <v>26129</v>
+        <v>13928</v>
       </c>
       <c r="E725" t="inlineStr">
         <is>
@@ -18563,7 +18563,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>01/04/2001</t>
+          <t>01/10/2000</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
@@ -18577,7 +18577,7 @@
         </is>
       </c>
       <c r="D726" t="n">
-        <v>18378</v>
+        <v>26965</v>
       </c>
       <c r="E726" t="inlineStr">
         <is>
@@ -18588,7 +18588,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>01/08/2001</t>
+          <t>01/09/2000</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
@@ -18602,7 +18602,7 @@
         </is>
       </c>
       <c r="D727" t="n">
-        <v>26465</v>
+        <v>26129</v>
       </c>
       <c r="E727" t="inlineStr">
         <is>
@@ -18613,7 +18613,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>01/12/2001</t>
+          <t>01/04/2001</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
@@ -18627,7 +18627,7 @@
         </is>
       </c>
       <c r="D728" t="n">
-        <v>26876</v>
+        <v>18378</v>
       </c>
       <c r="E728" t="inlineStr">
         <is>
@@ -18638,7 +18638,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>01/02/2001</t>
+          <t>01/08/2001</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
@@ -18652,7 +18652,7 @@
         </is>
       </c>
       <c r="D729" t="n">
-        <v>23797</v>
+        <v>26465</v>
       </c>
       <c r="E729" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>01/01/2001</t>
+          <t>01/12/2001</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
@@ -18677,7 +18677,7 @@
         </is>
       </c>
       <c r="D730" t="n">
-        <v>26536</v>
+        <v>26876</v>
       </c>
       <c r="E730" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>01/07/2001</t>
+          <t>01/02/2001</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
@@ -18702,7 +18702,7 @@
         </is>
       </c>
       <c r="D731" t="n">
-        <v>27236</v>
+        <v>23797</v>
       </c>
       <c r="E731" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>01/06/2001</t>
+          <t>01/01/2001</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D732" t="n">
-        <v>25806</v>
+        <v>26536</v>
       </c>
       <c r="E732" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>01/05/2001</t>
+          <t>01/07/2001</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
@@ -18752,7 +18752,7 @@
         </is>
       </c>
       <c r="D733" t="n">
-        <v>22691</v>
+        <v>27236</v>
       </c>
       <c r="E733" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>01/03/2001</t>
+          <t>01/06/2001</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
@@ -18777,7 +18777,7 @@
         </is>
       </c>
       <c r="D734" t="n">
-        <v>25605</v>
+        <v>25806</v>
       </c>
       <c r="E734" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>01/11/2001</t>
+          <t>01/05/2001</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
@@ -18802,7 +18802,7 @@
         </is>
       </c>
       <c r="D735" t="n">
-        <v>25852</v>
+        <v>22691</v>
       </c>
       <c r="E735" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>01/10/2001</t>
+          <t>01/03/2001</t>
         </is>
       </c>
       <c r="B736" t="inlineStr">
@@ -18827,7 +18827,7 @@
         </is>
       </c>
       <c r="D736" t="n">
-        <v>26322</v>
+        <v>25605</v>
       </c>
       <c r="E736" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>01/09/2001</t>
+          <t>01/11/2001</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
@@ -18852,7 +18852,7 @@
         </is>
       </c>
       <c r="D737" t="n">
-        <v>23625</v>
+        <v>25852</v>
       </c>
       <c r="E737" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>01/04/2002</t>
+          <t>01/10/2001</t>
         </is>
       </c>
       <c r="B738" t="inlineStr">
@@ -18877,7 +18877,7 @@
         </is>
       </c>
       <c r="D738" t="n">
-        <v>23065</v>
+        <v>26322</v>
       </c>
       <c r="E738" t="inlineStr">
         <is>
@@ -18888,7 +18888,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>01/08/2002</t>
+          <t>01/09/2001</t>
         </is>
       </c>
       <c r="B739" t="inlineStr">
@@ -18902,7 +18902,7 @@
         </is>
       </c>
       <c r="D739" t="n">
-        <v>25580</v>
+        <v>23625</v>
       </c>
       <c r="E739" t="inlineStr">
         <is>
@@ -18913,7 +18913,7 @@
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>01/12/2002</t>
+          <t>01/04/2002</t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
@@ -18927,7 +18927,7 @@
         </is>
       </c>
       <c r="D740" t="n">
-        <v>24957</v>
+        <v>23065</v>
       </c>
       <c r="E740" t="inlineStr">
         <is>
@@ -18938,7 +18938,7 @@
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>01/02/2002</t>
+          <t>01/08/2002</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
@@ -18952,7 +18952,7 @@
         </is>
       </c>
       <c r="D741" t="n">
-        <v>24096</v>
+        <v>25580</v>
       </c>
       <c r="E741" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>01/01/2002</t>
+          <t>01/12/2002</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
@@ -18977,7 +18977,7 @@
         </is>
       </c>
       <c r="D742" t="n">
-        <v>27239</v>
+        <v>24957</v>
       </c>
       <c r="E742" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>01/07/2002</t>
+          <t>01/02/2002</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
@@ -19002,7 +19002,7 @@
         </is>
       </c>
       <c r="D743" t="n">
-        <v>25911</v>
+        <v>24096</v>
       </c>
       <c r="E743" t="inlineStr">
         <is>
@@ -19013,7 +19013,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>01/06/2002</t>
+          <t>01/01/2002</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="D744" t="n">
-        <v>24854</v>
+        <v>27239</v>
       </c>
       <c r="E744" t="inlineStr">
         <is>
@@ -19038,7 +19038,7 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>01/05/2002</t>
+          <t>01/07/2002</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
@@ -19052,7 +19052,7 @@
         </is>
       </c>
       <c r="D745" t="n">
-        <v>24983</v>
+        <v>25911</v>
       </c>
       <c r="E745" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>01/03/2002</t>
+          <t>01/06/2002</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
@@ -19077,7 +19077,7 @@
         </is>
       </c>
       <c r="D746" t="n">
-        <v>25381</v>
+        <v>24854</v>
       </c>
       <c r="E746" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>01/11/2002</t>
+          <t>01/05/2002</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
@@ -19102,7 +19102,7 @@
         </is>
       </c>
       <c r="D747" t="n">
-        <v>24648</v>
+        <v>24983</v>
       </c>
       <c r="E747" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>01/10/2002</t>
+          <t>01/03/2002</t>
         </is>
       </c>
       <c r="B748" t="inlineStr">
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D748" t="n">
-        <v>24992</v>
+        <v>25381</v>
       </c>
       <c r="E748" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>01/09/2002</t>
+          <t>01/11/2002</t>
         </is>
       </c>
       <c r="B749" t="inlineStr">
@@ -19152,7 +19152,7 @@
         </is>
       </c>
       <c r="D749" t="n">
-        <v>24400</v>
+        <v>24648</v>
       </c>
       <c r="E749" t="inlineStr">
         <is>
@@ -19163,7 +19163,7 @@
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>01/04/2003</t>
+          <t>01/10/2002</t>
         </is>
       </c>
       <c r="B750" t="inlineStr">
@@ -19177,7 +19177,7 @@
         </is>
       </c>
       <c r="D750" t="n">
-        <v>20841</v>
+        <v>24992</v>
       </c>
       <c r="E750" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>01/08/2003</t>
+          <t>01/09/2002</t>
         </is>
       </c>
       <c r="B751" t="inlineStr">
@@ -19202,7 +19202,7 @@
         </is>
       </c>
       <c r="D751" t="n">
-        <v>25463</v>
+        <v>24400</v>
       </c>
       <c r="E751" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>01/12/2003</t>
+          <t>01/04/2003</t>
         </is>
       </c>
       <c r="B752" t="inlineStr">
@@ -19227,7 +19227,7 @@
         </is>
       </c>
       <c r="D752" t="n">
-        <v>24965</v>
+        <v>20841</v>
       </c>
       <c r="E752" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>01/02/2003</t>
+          <t>01/08/2003</t>
         </is>
       </c>
       <c r="B753" t="inlineStr">
@@ -19252,7 +19252,7 @@
         </is>
       </c>
       <c r="D753" t="n">
-        <v>20388</v>
+        <v>25463</v>
       </c>
       <c r="E753" t="inlineStr">
         <is>
@@ -19263,7 +19263,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>01/01/2003</t>
+          <t>01/12/2003</t>
         </is>
       </c>
       <c r="B754" t="inlineStr">
@@ -19277,7 +19277,7 @@
         </is>
       </c>
       <c r="D754" t="n">
-        <v>24971</v>
+        <v>24965</v>
       </c>
       <c r="E754" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>01/07/2003</t>
+          <t>01/02/2003</t>
         </is>
       </c>
       <c r="B755" t="inlineStr">
@@ -19302,7 +19302,7 @@
         </is>
       </c>
       <c r="D755" t="n">
-        <v>23560</v>
+        <v>20388</v>
       </c>
       <c r="E755" t="inlineStr">
         <is>
@@ -19313,7 +19313,7 @@
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>01/06/2003</t>
+          <t>01/01/2003</t>
         </is>
       </c>
       <c r="B756" t="inlineStr">
@@ -19327,7 +19327,7 @@
         </is>
       </c>
       <c r="D756" t="n">
-        <v>22761</v>
+        <v>24971</v>
       </c>
       <c r="E756" t="inlineStr">
         <is>
@@ -19338,7 +19338,7 @@
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>01/05/2003</t>
+          <t>01/07/2003</t>
         </is>
       </c>
       <c r="B757" t="inlineStr">
@@ -19352,7 +19352,7 @@
         </is>
       </c>
       <c r="D757" t="n">
-        <v>23510</v>
+        <v>23560</v>
       </c>
       <c r="E757" t="inlineStr">
         <is>
@@ -19363,7 +19363,7 @@
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>01/03/2003</t>
+          <t>01/06/2003</t>
         </is>
       </c>
       <c r="B758" t="inlineStr">
@@ -19377,7 +19377,7 @@
         </is>
       </c>
       <c r="D758" t="n">
-        <v>25907</v>
+        <v>22761</v>
       </c>
       <c r="E758" t="inlineStr">
         <is>
@@ -19388,7 +19388,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>01/11/2003</t>
+          <t>01/05/2003</t>
         </is>
       </c>
       <c r="B759" t="inlineStr">
@@ -19402,7 +19402,7 @@
         </is>
       </c>
       <c r="D759" t="n">
-        <v>24041</v>
+        <v>23510</v>
       </c>
       <c r="E759" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>01/10/2003</t>
+          <t>01/03/2003</t>
         </is>
       </c>
       <c r="B760" t="inlineStr">
@@ -19427,7 +19427,7 @@
         </is>
       </c>
       <c r="D760" t="n">
-        <v>24023</v>
+        <v>25907</v>
       </c>
       <c r="E760" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>01/09/2003</t>
+          <t>01/11/2003</t>
         </is>
       </c>
       <c r="B761" t="inlineStr">
@@ -19452,7 +19452,7 @@
         </is>
       </c>
       <c r="D761" t="n">
-        <v>24294</v>
+        <v>24041</v>
       </c>
       <c r="E761" t="inlineStr">
         <is>
@@ -19463,7 +19463,7 @@
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>01/04/2004</t>
+          <t>01/10/2003</t>
         </is>
       </c>
       <c r="B762" t="inlineStr">
@@ -19477,7 +19477,7 @@
         </is>
       </c>
       <c r="D762" t="n">
-        <v>24411</v>
+        <v>24023</v>
       </c>
       <c r="E762" t="inlineStr">
         <is>
@@ -19488,7 +19488,7 @@
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>01/08/2004</t>
+          <t>01/09/2003</t>
         </is>
       </c>
       <c r="B763" t="inlineStr">
@@ -19502,7 +19502,7 @@
         </is>
       </c>
       <c r="D763" t="n">
-        <v>25873</v>
+        <v>24294</v>
       </c>
       <c r="E763" t="inlineStr">
         <is>
@@ -19513,7 +19513,7 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>01/12/2004</t>
+          <t>01/04/2004</t>
         </is>
       </c>
       <c r="B764" t="inlineStr">
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D764" t="n">
-        <v>25343</v>
+        <v>24411</v>
       </c>
       <c r="E764" t="inlineStr">
         <is>
@@ -19538,7 +19538,7 @@
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>01/02/2004</t>
+          <t>01/08/2004</t>
         </is>
       </c>
       <c r="B765" t="inlineStr">
@@ -19552,7 +19552,7 @@
         </is>
       </c>
       <c r="D765" t="n">
-        <v>23497</v>
+        <v>25873</v>
       </c>
       <c r="E765" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>01/01/2004</t>
+          <t>01/12/2004</t>
         </is>
       </c>
       <c r="B766" t="inlineStr">
@@ -19577,7 +19577,7 @@
         </is>
       </c>
       <c r="D766" t="n">
-        <v>23975</v>
+        <v>25343</v>
       </c>
       <c r="E766" t="inlineStr">
         <is>
@@ -19588,7 +19588,7 @@
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>01/02/2004</t>
         </is>
       </c>
       <c r="B767" t="inlineStr">
@@ -19602,7 +19602,7 @@
         </is>
       </c>
       <c r="D767" t="n">
-        <v>24979</v>
+        <v>23497</v>
       </c>
       <c r="E767" t="inlineStr">
         <is>
@@ -19613,7 +19613,7 @@
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>01/06/2004</t>
+          <t>01/01/2004</t>
         </is>
       </c>
       <c r="B768" t="inlineStr">
@@ -19627,7 +19627,7 @@
         </is>
       </c>
       <c r="D768" t="n">
-        <v>23413</v>
+        <v>23975</v>
       </c>
       <c r="E768" t="inlineStr">
         <is>
@@ -19638,7 +19638,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>01/05/2004</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="B769" t="inlineStr">
@@ -19652,7 +19652,7 @@
         </is>
       </c>
       <c r="D769" t="n">
-        <v>21313</v>
+        <v>24979</v>
       </c>
       <c r="E769" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>01/03/2004</t>
+          <t>01/06/2004</t>
         </is>
       </c>
       <c r="B770" t="inlineStr">
@@ -19677,7 +19677,7 @@
         </is>
       </c>
       <c r="D770" t="n">
-        <v>25118</v>
+        <v>23413</v>
       </c>
       <c r="E770" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>01/11/2004</t>
+          <t>01/05/2004</t>
         </is>
       </c>
       <c r="B771" t="inlineStr">
@@ -19702,7 +19702,7 @@
         </is>
       </c>
       <c r="D771" t="n">
-        <v>24463</v>
+        <v>21313</v>
       </c>
       <c r="E771" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>01/10/2004</t>
+          <t>01/03/2004</t>
         </is>
       </c>
       <c r="B772" t="inlineStr">
@@ -19727,7 +19727,7 @@
         </is>
       </c>
       <c r="D772" t="n">
-        <v>25566</v>
+        <v>25118</v>
       </c>
       <c r="E772" t="inlineStr">
         <is>
@@ -19738,7 +19738,7 @@
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>01/09/2004</t>
+          <t>01/11/2004</t>
         </is>
       </c>
       <c r="B773" t="inlineStr">
@@ -19752,7 +19752,7 @@
         </is>
       </c>
       <c r="D773" t="n">
-        <v>24720</v>
+        <v>24463</v>
       </c>
       <c r="E773" t="inlineStr">
         <is>
@@ -19763,7 +19763,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>01/04/2005</t>
+          <t>01/10/2004</t>
         </is>
       </c>
       <c r="B774" t="inlineStr">
@@ -19777,7 +19777,7 @@
         </is>
       </c>
       <c r="D774" t="n">
-        <v>23924</v>
+        <v>25566</v>
       </c>
       <c r="E774" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>01/08/2005</t>
+          <t>01/09/2004</t>
         </is>
       </c>
       <c r="B775" t="inlineStr">
@@ -19802,7 +19802,7 @@
         </is>
       </c>
       <c r="D775" t="n">
-        <v>25213</v>
+        <v>24720</v>
       </c>
       <c r="E775" t="inlineStr">
         <is>
@@ -19813,7 +19813,7 @@
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>01/12/2005</t>
+          <t>01/04/2005</t>
         </is>
       </c>
       <c r="B776" t="inlineStr">
@@ -19827,7 +19827,7 @@
         </is>
       </c>
       <c r="D776" t="n">
-        <v>24602</v>
+        <v>23924</v>
       </c>
       <c r="E776" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>01/02/2005</t>
+          <t>01/08/2005</t>
         </is>
       </c>
       <c r="B777" t="inlineStr">
@@ -19852,7 +19852,7 @@
         </is>
       </c>
       <c r="D777" t="n">
-        <v>22710</v>
+        <v>25213</v>
       </c>
       <c r="E777" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>01/01/2005</t>
+          <t>01/12/2005</t>
         </is>
       </c>
       <c r="B778" t="inlineStr">
@@ -19877,7 +19877,7 @@
         </is>
       </c>
       <c r="D778" t="n">
-        <v>24972</v>
+        <v>24602</v>
       </c>
       <c r="E778" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>01/07/2005</t>
+          <t>01/02/2005</t>
         </is>
       </c>
       <c r="B779" t="inlineStr">
@@ -19902,7 +19902,7 @@
         </is>
       </c>
       <c r="D779" t="n">
-        <v>25582</v>
+        <v>22710</v>
       </c>
       <c r="E779" t="inlineStr">
         <is>
@@ -19913,7 +19913,7 @@
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>01/06/2005</t>
+          <t>01/01/2005</t>
         </is>
       </c>
       <c r="B780" t="inlineStr">
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D780" t="n">
-        <v>24359</v>
+        <v>24972</v>
       </c>
       <c r="E780" t="inlineStr">
         <is>
@@ -19938,7 +19938,7 @@
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>01/05/2005</t>
+          <t>01/07/2005</t>
         </is>
       </c>
       <c r="B781" t="inlineStr">
@@ -19952,7 +19952,7 @@
         </is>
       </c>
       <c r="D781" t="n">
-        <v>24053</v>
+        <v>25582</v>
       </c>
       <c r="E781" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>01/03/2005</t>
+          <t>01/06/2005</t>
         </is>
       </c>
       <c r="B782" t="inlineStr">
@@ -19977,7 +19977,7 @@
         </is>
       </c>
       <c r="D782" t="n">
-        <v>24836</v>
+        <v>24359</v>
       </c>
       <c r="E782" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>01/11/2005</t>
+          <t>01/05/2005</t>
         </is>
       </c>
       <c r="B783" t="inlineStr">
@@ -20002,7 +20002,7 @@
         </is>
       </c>
       <c r="D783" t="n">
-        <v>24169</v>
+        <v>24053</v>
       </c>
       <c r="E783" t="inlineStr">
         <is>
@@ -20013,7 +20013,7 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>01/10/2005</t>
+          <t>01/03/2005</t>
         </is>
       </c>
       <c r="B784" t="inlineStr">
@@ -20027,7 +20027,7 @@
         </is>
       </c>
       <c r="D784" t="n">
-        <v>26281</v>
+        <v>24836</v>
       </c>
       <c r="E784" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>01/09/2005</t>
+          <t>01/11/2005</t>
         </is>
       </c>
       <c r="B785" t="inlineStr">
@@ -20052,7 +20052,7 @@
         </is>
       </c>
       <c r="D785" t="n">
-        <v>24180</v>
+        <v>24169</v>
       </c>
       <c r="E785" t="inlineStr">
         <is>
@@ -20063,7 +20063,7 @@
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>01/04/2006</t>
+          <t>01/10/2005</t>
         </is>
       </c>
       <c r="B786" t="inlineStr">
@@ -20077,7 +20077,7 @@
         </is>
       </c>
       <c r="D786" t="n">
-        <v>24527</v>
+        <v>26281</v>
       </c>
       <c r="E786" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>01/08/2006</t>
+          <t>01/09/2005</t>
         </is>
       </c>
       <c r="B787" t="inlineStr">
@@ -20102,7 +20102,7 @@
         </is>
       </c>
       <c r="D787" t="n">
-        <v>25491</v>
+        <v>24180</v>
       </c>
       <c r="E787" t="inlineStr">
         <is>
@@ -20113,7 +20113,7 @@
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>01/12/2006</t>
+          <t>01/04/2006</t>
         </is>
       </c>
       <c r="B788" t="inlineStr">
@@ -20127,7 +20127,7 @@
         </is>
       </c>
       <c r="D788" t="n">
-        <v>25271</v>
+        <v>24527</v>
       </c>
       <c r="E788" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>01/02/2006</t>
+          <t>01/08/2006</t>
         </is>
       </c>
       <c r="B789" t="inlineStr">
@@ -20152,7 +20152,7 @@
         </is>
       </c>
       <c r="D789" t="n">
-        <v>23056</v>
+        <v>25491</v>
       </c>
       <c r="E789" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>01/01/2006</t>
+          <t>01/12/2006</t>
         </is>
       </c>
       <c r="B790" t="inlineStr">
@@ -20177,7 +20177,7 @@
         </is>
       </c>
       <c r="D790" t="n">
-        <v>24843</v>
+        <v>25271</v>
       </c>
       <c r="E790" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>01/07/2006</t>
+          <t>01/02/2006</t>
         </is>
       </c>
       <c r="B791" t="inlineStr">
@@ -20202,7 +20202,7 @@
         </is>
       </c>
       <c r="D791" t="n">
-        <v>25344</v>
+        <v>23056</v>
       </c>
       <c r="E791" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>01/06/2006</t>
+          <t>01/01/2006</t>
         </is>
       </c>
       <c r="B792" t="inlineStr">
@@ -20227,7 +20227,7 @@
         </is>
       </c>
       <c r="D792" t="n">
-        <v>25090</v>
+        <v>24843</v>
       </c>
       <c r="E792" t="inlineStr">
         <is>
@@ -20238,7 +20238,7 @@
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>01/05/2006</t>
+          <t>01/07/2006</t>
         </is>
       </c>
       <c r="B793" t="inlineStr">
@@ -20252,7 +20252,7 @@
         </is>
       </c>
       <c r="D793" t="n">
-        <v>25719</v>
+        <v>25344</v>
       </c>
       <c r="E793" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>01/03/2006</t>
+          <t>01/06/2006</t>
         </is>
       </c>
       <c r="B794" t="inlineStr">
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D794" t="n">
-        <v>11740</v>
+        <v>25090</v>
       </c>
       <c r="E794" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>01/11/2006</t>
+          <t>01/05/2006</t>
         </is>
       </c>
       <c r="B795" t="inlineStr">
@@ -20302,7 +20302,7 @@
         </is>
       </c>
       <c r="D795" t="n">
-        <v>23278</v>
+        <v>25719</v>
       </c>
       <c r="E795" t="inlineStr">
         <is>
@@ -20313,7 +20313,7 @@
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>01/10/2006</t>
+          <t>01/03/2006</t>
         </is>
       </c>
       <c r="B796" t="inlineStr">
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D796" t="n">
-        <v>23622</v>
+        <v>11740</v>
       </c>
       <c r="E796" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>01/09/2006</t>
+          <t>01/11/2006</t>
         </is>
       </c>
       <c r="B797" t="inlineStr">
@@ -20352,7 +20352,7 @@
         </is>
       </c>
       <c r="D797" t="n">
-        <v>24562</v>
+        <v>23278</v>
       </c>
       <c r="E797" t="inlineStr">
         <is>
@@ -20363,7 +20363,7 @@
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>01/04/2007</t>
+          <t>01/10/2006</t>
         </is>
       </c>
       <c r="B798" t="inlineStr">
@@ -20377,7 +20377,7 @@
         </is>
       </c>
       <c r="D798" t="n">
-        <v>21384</v>
+        <v>23622</v>
       </c>
       <c r="E798" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>01/08/2007</t>
+          <t>01/09/2006</t>
         </is>
       </c>
       <c r="B799" t="inlineStr">
@@ -20402,7 +20402,7 @@
         </is>
       </c>
       <c r="D799" t="n">
-        <v>23805</v>
+        <v>24562</v>
       </c>
       <c r="E799" t="inlineStr">
         <is>
@@ -20413,7 +20413,7 @@
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>01/12/2007</t>
+          <t>01/04/2007</t>
         </is>
       </c>
       <c r="B800" t="inlineStr">
@@ -20427,7 +20427,7 @@
         </is>
       </c>
       <c r="D800" t="n">
-        <v>22898</v>
+        <v>21384</v>
       </c>
       <c r="E800" t="inlineStr">
         <is>
@@ -20438,7 +20438,7 @@
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>01/02/2007</t>
+          <t>01/08/2007</t>
         </is>
       </c>
       <c r="B801" t="inlineStr">
@@ -20452,7 +20452,7 @@
         </is>
       </c>
       <c r="D801" t="n">
-        <v>21968</v>
+        <v>23805</v>
       </c>
       <c r="E801" t="inlineStr">
         <is>
@@ -20463,7 +20463,7 @@
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>01/01/2007</t>
+          <t>01/12/2007</t>
         </is>
       </c>
       <c r="B802" t="inlineStr">
@@ -20477,7 +20477,7 @@
         </is>
       </c>
       <c r="D802" t="n">
-        <v>25496</v>
+        <v>22898</v>
       </c>
       <c r="E802" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>01/07/2007</t>
+          <t>01/02/2007</t>
         </is>
       </c>
       <c r="B803" t="inlineStr">
@@ -20502,7 +20502,7 @@
         </is>
       </c>
       <c r="D803" t="n">
-        <v>23875</v>
+        <v>21968</v>
       </c>
       <c r="E803" t="inlineStr">
         <is>
@@ -20513,7 +20513,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>01/06/2007</t>
+          <t>01/01/2007</t>
         </is>
       </c>
       <c r="B804" t="inlineStr">
@@ -20527,7 +20527,7 @@
         </is>
       </c>
       <c r="D804" t="n">
-        <v>22080</v>
+        <v>25496</v>
       </c>
       <c r="E804" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>01/05/2007</t>
+          <t>01/07/2007</t>
         </is>
       </c>
       <c r="B805" t="inlineStr">
@@ -20552,7 +20552,7 @@
         </is>
       </c>
       <c r="D805" t="n">
-        <v>18737</v>
+        <v>23875</v>
       </c>
       <c r="E805" t="inlineStr">
         <is>
@@ -20563,7 +20563,7 @@
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>01/03/2007</t>
+          <t>01/06/2007</t>
         </is>
       </c>
       <c r="B806" t="inlineStr">
@@ -20577,7 +20577,7 @@
         </is>
       </c>
       <c r="D806" t="n">
-        <v>24212</v>
+        <v>22080</v>
       </c>
       <c r="E806" t="inlineStr">
         <is>
@@ -20588,7 +20588,7 @@
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>01/11/2007</t>
+          <t>01/05/2007</t>
         </is>
       </c>
       <c r="B807" t="inlineStr">
@@ -20602,7 +20602,7 @@
         </is>
       </c>
       <c r="D807" t="n">
-        <v>22033</v>
+        <v>18737</v>
       </c>
       <c r="E807" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>01/10/2007</t>
+          <t>01/03/2007</t>
         </is>
       </c>
       <c r="B808" t="inlineStr">
@@ -20627,7 +20627,7 @@
         </is>
       </c>
       <c r="D808" t="n">
-        <v>23866</v>
+        <v>24212</v>
       </c>
       <c r="E808" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>01/09/2007</t>
+          <t>01/11/2007</t>
         </is>
       </c>
       <c r="B809" t="inlineStr">
@@ -20652,7 +20652,7 @@
         </is>
       </c>
       <c r="D809" t="n">
-        <v>24017</v>
+        <v>22033</v>
       </c>
       <c r="E809" t="inlineStr">
         <is>
@@ -20663,7 +20663,7 @@
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>01/04/2008</t>
+          <t>01/10/2007</t>
         </is>
       </c>
       <c r="B810" t="inlineStr">
@@ -20677,7 +20677,7 @@
         </is>
       </c>
       <c r="D810" t="n">
-        <v>22341</v>
+        <v>23866</v>
       </c>
       <c r="E810" t="inlineStr">
         <is>
@@ -20688,7 +20688,7 @@
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>01/08/2008</t>
+          <t>01/09/2007</t>
         </is>
       </c>
       <c r="B811" t="inlineStr">
@@ -20702,7 +20702,7 @@
         </is>
       </c>
       <c r="D811" t="n">
-        <v>23413.9993</v>
+        <v>24017</v>
       </c>
       <c r="E811" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>01/12/2008</t>
+          <t>01/04/2008</t>
         </is>
       </c>
       <c r="B812" t="inlineStr">
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D812" t="n">
-        <v>21243.0011</v>
+        <v>22341</v>
       </c>
       <c r="E812" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>01/02/2008</t>
+          <t>01/08/2008</t>
         </is>
       </c>
       <c r="B813" t="inlineStr">
@@ -20752,7 +20752,7 @@
         </is>
       </c>
       <c r="D813" t="n">
-        <v>20461</v>
+        <v>23413.9993</v>
       </c>
       <c r="E813" t="inlineStr">
         <is>
@@ -20763,7 +20763,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>01/01/2008</t>
+          <t>01/12/2008</t>
         </is>
       </c>
       <c r="B814" t="inlineStr">
@@ -20777,7 +20777,7 @@
         </is>
       </c>
       <c r="D814" t="n">
-        <v>22454</v>
+        <v>21243.0011</v>
       </c>
       <c r="E814" t="inlineStr">
         <is>
@@ -20788,7 +20788,7 @@
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>01/07/2008</t>
+          <t>01/02/2008</t>
         </is>
       </c>
       <c r="B815" t="inlineStr">
@@ -20802,7 +20802,7 @@
         </is>
       </c>
       <c r="D815" t="n">
-        <v>22084.0001</v>
+        <v>20461</v>
       </c>
       <c r="E815" t="inlineStr">
         <is>
@@ -20813,7 +20813,7 @@
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>01/06/2008</t>
+          <t>01/01/2008</t>
         </is>
       </c>
       <c r="B816" t="inlineStr">
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="D816" t="n">
-        <v>21446.001</v>
+        <v>22454</v>
       </c>
       <c r="E816" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>01/05/2008</t>
+          <t>01/07/2008</t>
         </is>
       </c>
       <c r="B817" t="inlineStr">
@@ -20852,7 +20852,7 @@
         </is>
       </c>
       <c r="D817" t="n">
-        <v>22333</v>
+        <v>22084.0001</v>
       </c>
       <c r="E817" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>01/03/2008</t>
+          <t>01/06/2008</t>
         </is>
       </c>
       <c r="B818" t="inlineStr">
@@ -20877,7 +20877,7 @@
         </is>
       </c>
       <c r="D818" t="n">
-        <v>22425</v>
+        <v>21446.001</v>
       </c>
       <c r="E818" t="inlineStr">
         <is>
@@ -20888,7 +20888,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>01/11/2008</t>
+          <t>01/05/2008</t>
         </is>
       </c>
       <c r="B819" t="inlineStr">
@@ -20902,7 +20902,7 @@
         </is>
       </c>
       <c r="D819" t="n">
-        <v>20454</v>
+        <v>22333</v>
       </c>
       <c r="E819" t="inlineStr">
         <is>
@@ -20913,7 +20913,7 @@
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>01/03/2008</t>
         </is>
       </c>
       <c r="B820" t="inlineStr">
@@ -20927,7 +20927,7 @@
         </is>
       </c>
       <c r="D820" t="n">
-        <v>19738.9989</v>
+        <v>22425</v>
       </c>
       <c r="E820" t="inlineStr">
         <is>
@@ -20938,7 +20938,7 @@
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>01/09/2008</t>
+          <t>01/11/2008</t>
         </is>
       </c>
       <c r="B821" t="inlineStr">
@@ -20952,7 +20952,7 @@
         </is>
       </c>
       <c r="D821" t="n">
-        <v>21581.001</v>
+        <v>20454</v>
       </c>
       <c r="E821" t="inlineStr">
         <is>
@@ -20963,7 +20963,7 @@
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>01/04/2009</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="B822" t="inlineStr">
@@ -20977,7 +20977,7 @@
         </is>
       </c>
       <c r="D822" t="n">
-        <v>20352.999</v>
+        <v>19738.9989</v>
       </c>
       <c r="E822" t="inlineStr">
         <is>
@@ -20988,7 +20988,7 @@
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>01/08/2009</t>
+          <t>01/09/2008</t>
         </is>
       </c>
       <c r="B823" t="inlineStr">
@@ -21002,7 +21002,7 @@
         </is>
       </c>
       <c r="D823" t="n">
-        <v>19636.0014</v>
+        <v>21581.001</v>
       </c>
       <c r="E823" t="inlineStr">
         <is>
@@ -21013,7 +21013,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>01/12/2009</t>
+          <t>01/04/2009</t>
         </is>
       </c>
       <c r="B824" t="inlineStr">
@@ -21027,7 +21027,7 @@
         </is>
       </c>
       <c r="D824" t="n">
-        <v>20058.9995</v>
+        <v>20352.999</v>
       </c>
       <c r="E824" t="inlineStr">
         <is>
@@ -21038,7 +21038,7 @@
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>01/02/2009</t>
+          <t>01/08/2009</t>
         </is>
       </c>
       <c r="B825" t="inlineStr">
@@ -21052,7 +21052,7 @@
         </is>
       </c>
       <c r="D825" t="n">
-        <v>18858.9996</v>
+        <v>19636.0014</v>
       </c>
       <c r="E825" t="inlineStr">
         <is>
@@ -21063,7 +21063,7 @@
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>01/01/2009</t>
+          <t>01/12/2009</t>
         </is>
       </c>
       <c r="B826" t="inlineStr">
@@ -21077,7 +21077,7 @@
         </is>
       </c>
       <c r="D826" t="n">
-        <v>22225.0005</v>
+        <v>20058.9995</v>
       </c>
       <c r="E826" t="inlineStr">
         <is>
@@ -21088,7 +21088,7 @@
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>01/07/2009</t>
+          <t>01/02/2009</t>
         </is>
       </c>
       <c r="B827" t="inlineStr">
@@ -21102,7 +21102,7 @@
         </is>
       </c>
       <c r="D827" t="n">
-        <v>20578.0015</v>
+        <v>18858.9996</v>
       </c>
       <c r="E827" t="inlineStr">
         <is>
@@ -21113,7 +21113,7 @@
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>01/06/2009</t>
+          <t>01/01/2009</t>
         </is>
       </c>
       <c r="B828" t="inlineStr">
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D828" t="n">
-        <v>20096.001</v>
+        <v>22225.0005</v>
       </c>
       <c r="E828" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>01/05/2009</t>
+          <t>01/07/2009</t>
         </is>
       </c>
       <c r="B829" t="inlineStr">
@@ -21152,7 +21152,7 @@
         </is>
       </c>
       <c r="D829" t="n">
-        <v>20487.001</v>
+        <v>20578.0015</v>
       </c>
       <c r="E829" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>01/03/2009</t>
+          <t>01/06/2009</t>
         </is>
       </c>
       <c r="B830" t="inlineStr">
@@ -21177,7 +21177,7 @@
         </is>
       </c>
       <c r="D830" t="n">
-        <v>21078.9987</v>
+        <v>20096.001</v>
       </c>
       <c r="E830" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>01/11/2009</t>
+          <t>01/05/2009</t>
         </is>
       </c>
       <c r="B831" t="inlineStr">
@@ -21202,7 +21202,7 @@
         </is>
       </c>
       <c r="D831" t="n">
-        <v>19530</v>
+        <v>20487.001</v>
       </c>
       <c r="E831" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>01/10/2009</t>
+          <t>01/03/2009</t>
         </is>
       </c>
       <c r="B832" t="inlineStr">
@@ -21227,7 +21227,7 @@
         </is>
       </c>
       <c r="D832" t="n">
-        <v>19538.0011</v>
+        <v>21078.9987</v>
       </c>
       <c r="E832" t="inlineStr">
         <is>
@@ -21238,7 +21238,7 @@
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>01/09/2009</t>
+          <t>01/11/2009</t>
         </is>
       </c>
       <c r="B833" t="inlineStr">
@@ -21252,7 +21252,7 @@
         </is>
       </c>
       <c r="D833" t="n">
-        <v>19464</v>
+        <v>19530</v>
       </c>
       <c r="E833" t="inlineStr">
         <is>
@@ -21263,7 +21263,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>01/04/2010</t>
+          <t>01/10/2009</t>
         </is>
       </c>
       <c r="B834" t="inlineStr">
@@ -21277,7 +21277,7 @@
         </is>
       </c>
       <c r="D834" t="n">
-        <v>18477</v>
+        <v>19538.0011</v>
       </c>
       <c r="E834" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>01/08/2010</t>
+          <t>01/09/2009</t>
         </is>
       </c>
       <c r="B835" t="inlineStr">
@@ -21302,7 +21302,7 @@
         </is>
       </c>
       <c r="D835" t="n">
-        <v>19472</v>
+        <v>19464</v>
       </c>
       <c r="E835" t="inlineStr">
         <is>
@@ -21313,7 +21313,7 @@
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>01/12/2010</t>
+          <t>01/04/2010</t>
         </is>
       </c>
       <c r="B836" t="inlineStr">
@@ -21327,7 +21327,7 @@
         </is>
       </c>
       <c r="D836" t="n">
-        <v>19253</v>
+        <v>18477</v>
       </c>
       <c r="E836" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>01/02/2010</t>
+          <t>01/08/2010</t>
         </is>
       </c>
       <c r="B837" t="inlineStr">
@@ -21352,7 +21352,7 @@
         </is>
       </c>
       <c r="D837" t="n">
-        <v>17250</v>
+        <v>19472</v>
       </c>
       <c r="E837" t="inlineStr">
         <is>
@@ -21363,7 +21363,7 @@
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>01/01/2010</t>
+          <t>01/12/2010</t>
         </is>
       </c>
       <c r="B838" t="inlineStr">
@@ -21377,7 +21377,7 @@
         </is>
       </c>
       <c r="D838" t="n">
-        <v>19822</v>
+        <v>19253</v>
       </c>
       <c r="E838" t="inlineStr">
         <is>
@@ -21388,7 +21388,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>01/07/2010</t>
+          <t>01/02/2010</t>
         </is>
       </c>
       <c r="B839" t="inlineStr">
@@ -21402,7 +21402,7 @@
         </is>
       </c>
       <c r="D839" t="n">
-        <v>19943</v>
+        <v>17250</v>
       </c>
       <c r="E839" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>01/06/2010</t>
+          <t>01/01/2010</t>
         </is>
       </c>
       <c r="B840" t="inlineStr">
@@ -21427,7 +21427,7 @@
         </is>
       </c>
       <c r="D840" t="n">
-        <v>18899</v>
+        <v>19822</v>
       </c>
       <c r="E840" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>01/05/2010</t>
+          <t>01/07/2010</t>
         </is>
       </c>
       <c r="B841" t="inlineStr">
@@ -21452,7 +21452,7 @@
         </is>
       </c>
       <c r="D841" t="n">
-        <v>19225</v>
+        <v>19943</v>
       </c>
       <c r="E841" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>01/03/2010</t>
+          <t>01/06/2010</t>
         </is>
       </c>
       <c r="B842" t="inlineStr">
@@ -21477,7 +21477,7 @@
         </is>
       </c>
       <c r="D842" t="n">
-        <v>18557</v>
+        <v>18899</v>
       </c>
       <c r="E842" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>01/11/2010</t>
+          <t>01/05/2010</t>
         </is>
       </c>
       <c r="B843" t="inlineStr">
@@ -21502,7 +21502,7 @@
         </is>
       </c>
       <c r="D843" t="n">
-        <v>18252</v>
+        <v>19225</v>
       </c>
       <c r="E843" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>01/10/2010</t>
+          <t>01/03/2010</t>
         </is>
       </c>
       <c r="B844" t="inlineStr">
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D844" t="n">
-        <v>19679</v>
+        <v>18557</v>
       </c>
       <c r="E844" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>01/09/2010</t>
+          <t>01/11/2010</t>
         </is>
       </c>
       <c r="B845" t="inlineStr">
@@ -21552,7 +21552,7 @@
         </is>
       </c>
       <c r="D845" t="n">
-        <v>18162</v>
+        <v>18252</v>
       </c>
       <c r="E845" t="inlineStr">
         <is>
@@ -21563,7 +21563,7 @@
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>01/04/2011</t>
+          <t>01/10/2010</t>
         </is>
       </c>
       <c r="B846" t="inlineStr">
@@ -21577,7 +21577,7 @@
         </is>
       </c>
       <c r="D846" t="n">
-        <v>14211.9</v>
+        <v>19679</v>
       </c>
       <c r="E846" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>01/08/2011</t>
+          <t>01/09/2010</t>
         </is>
       </c>
       <c r="B847" t="inlineStr">
@@ -21602,7 +21602,7 @@
         </is>
       </c>
       <c r="D847" t="n">
-        <v>15656.1</v>
+        <v>18162</v>
       </c>
       <c r="E847" t="inlineStr">
         <is>
@@ -21613,7 +21613,7 @@
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>01/12/2011</t>
+          <t>01/04/2011</t>
         </is>
       </c>
       <c r="B848" t="inlineStr">
@@ -21627,7 +21627,7 @@
         </is>
       </c>
       <c r="D848" t="n">
-        <v>16836.5</v>
+        <v>14211.9</v>
       </c>
       <c r="E848" t="inlineStr">
         <is>
@@ -21638,7 +21638,7 @@
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>01/02/2011</t>
+          <t>01/08/2011</t>
         </is>
       </c>
       <c r="B849" t="inlineStr">
@@ -21652,7 +21652,7 @@
         </is>
       </c>
       <c r="D849" t="n">
-        <v>15945.6</v>
+        <v>15656.1</v>
       </c>
       <c r="E849" t="inlineStr">
         <is>
@@ -21663,7 +21663,7 @@
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>01/01/2011</t>
+          <t>01/12/2011</t>
         </is>
       </c>
       <c r="B850" t="inlineStr">
@@ -21677,7 +21677,7 @@
         </is>
       </c>
       <c r="D850" t="n">
-        <v>18522.8</v>
+        <v>16836.5</v>
       </c>
       <c r="E850" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>01/07/2011</t>
+          <t>01/02/2011</t>
         </is>
       </c>
       <c r="B851" t="inlineStr">
@@ -21702,7 +21702,7 @@
         </is>
       </c>
       <c r="D851" t="n">
-        <v>14478.2</v>
+        <v>15945.6</v>
       </c>
       <c r="E851" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>01/06/2011</t>
+          <t>01/01/2011</t>
         </is>
       </c>
       <c r="B852" t="inlineStr">
@@ -21727,7 +21727,7 @@
         </is>
       </c>
       <c r="D852" t="n">
-        <v>15871.3</v>
+        <v>18522.8</v>
       </c>
       <c r="E852" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>01/05/2011</t>
+          <t>01/07/2011</t>
         </is>
       </c>
       <c r="B853" t="inlineStr">
@@ -21752,7 +21752,7 @@
         </is>
       </c>
       <c r="D853" t="n">
-        <v>17668.9</v>
+        <v>14478.2</v>
       </c>
       <c r="E853" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>01/03/2011</t>
+          <t>01/06/2011</t>
         </is>
       </c>
       <c r="B854" t="inlineStr">
@@ -21777,7 +21777,7 @@
         </is>
       </c>
       <c r="D854" t="n">
-        <v>10940.8</v>
+        <v>15871.3</v>
       </c>
       <c r="E854" t="inlineStr">
         <is>
@@ -21788,7 +21788,7 @@
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>01/11/2011</t>
+          <t>01/05/2011</t>
         </is>
       </c>
       <c r="B855" t="inlineStr">
@@ -21802,7 +21802,7 @@
         </is>
       </c>
       <c r="D855" t="n">
-        <v>15787.4</v>
+        <v>17668.9</v>
       </c>
       <c r="E855" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>01/10/2011</t>
+          <t>01/03/2011</t>
         </is>
       </c>
       <c r="B856" t="inlineStr">
@@ -21827,7 +21827,7 @@
         </is>
       </c>
       <c r="D856" t="n">
-        <v>16134.4</v>
+        <v>10940.8</v>
       </c>
       <c r="E856" t="inlineStr">
         <is>
@@ -21838,7 +21838,7 @@
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>01/09/2011</t>
+          <t>01/11/2011</t>
         </is>
       </c>
       <c r="B857" t="inlineStr">
@@ -21852,7 +21852,7 @@
         </is>
       </c>
       <c r="D857" t="n">
-        <v>15096.4</v>
+        <v>15787.4</v>
       </c>
       <c r="E857" t="inlineStr">
         <is>
@@ -21863,7 +21863,7 @@
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>01/04/2012</t>
+          <t>01/10/2011</t>
         </is>
       </c>
       <c r="B858" t="inlineStr">
@@ -21877,7 +21877,7 @@
         </is>
       </c>
       <c r="D858" t="n">
-        <v>10707.1</v>
+        <v>16134.4</v>
       </c>
       <c r="E858" t="inlineStr">
         <is>
@@ -21888,7 +21888,7 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>01/08/2012</t>
+          <t>01/09/2011</t>
         </is>
       </c>
       <c r="B859" t="inlineStr">
@@ -21902,7 +21902,7 @@
         </is>
       </c>
       <c r="D859" t="n">
-        <v>16193.1</v>
+        <v>15096.4</v>
       </c>
       <c r="E859" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>01/12/2012</t>
+          <t>01/04/2012</t>
         </is>
       </c>
       <c r="B860" t="inlineStr">
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D860" t="n">
-        <v>17393.3</v>
+        <v>10707.1</v>
       </c>
       <c r="E860" t="inlineStr">
         <is>
@@ -21938,7 +21938,7 @@
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>01/02/2012</t>
+          <t>01/08/2012</t>
         </is>
       </c>
       <c r="B861" t="inlineStr">
@@ -21952,7 +21952,7 @@
         </is>
       </c>
       <c r="D861" t="n">
-        <v>14260.4</v>
+        <v>16193.1</v>
       </c>
       <c r="E861" t="inlineStr">
         <is>
@@ -21963,7 +21963,7 @@
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>01/12/2012</t>
         </is>
       </c>
       <c r="B862" t="inlineStr">
@@ -21977,7 +21977,7 @@
         </is>
       </c>
       <c r="D862" t="n">
-        <v>16058.3</v>
+        <v>17393.3</v>
       </c>
       <c r="E862" t="inlineStr">
         <is>
@@ -21988,7 +21988,7 @@
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>01/07/2012</t>
+          <t>01/02/2012</t>
         </is>
       </c>
       <c r="B863" t="inlineStr">
@@ -22002,7 +22002,7 @@
         </is>
       </c>
       <c r="D863" t="n">
-        <v>12701.4</v>
+        <v>14260.4</v>
       </c>
       <c r="E863" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>01/06/2012</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="B864" t="inlineStr">
@@ -22027,7 +22027,7 @@
         </is>
       </c>
       <c r="D864" t="n">
-        <v>10851.8</v>
+        <v>16058.3</v>
       </c>
       <c r="E864" t="inlineStr">
         <is>
@@ -22038,7 +22038,7 @@
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>01/05/2012</t>
+          <t>01/07/2012</t>
         </is>
       </c>
       <c r="B865" t="inlineStr">
@@ -22052,7 +22052,7 @@
         </is>
       </c>
       <c r="D865" t="n">
-        <v>10692</v>
+        <v>12701.4</v>
       </c>
       <c r="E865" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>01/03/2012</t>
+          <t>01/06/2012</t>
         </is>
       </c>
       <c r="B866" t="inlineStr">
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D866" t="n">
-        <v>14311.3</v>
+        <v>10851.8</v>
       </c>
       <c r="E866" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>01/11/2012</t>
+          <t>01/05/2012</t>
         </is>
       </c>
       <c r="B867" t="inlineStr">
@@ -22102,7 +22102,7 @@
         </is>
       </c>
       <c r="D867" t="n">
-        <v>16574.9</v>
+        <v>10692</v>
       </c>
       <c r="E867" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>01/10/2012</t>
+          <t>01/03/2012</t>
         </is>
       </c>
       <c r="B868" t="inlineStr">
@@ -22127,7 +22127,7 @@
         </is>
       </c>
       <c r="D868" t="n">
-        <v>13682.2</v>
+        <v>14311.3</v>
       </c>
       <c r="E868" t="inlineStr">
         <is>
@@ -22138,7 +22138,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>01/09/2012</t>
+          <t>01/11/2012</t>
         </is>
       </c>
       <c r="B869" t="inlineStr">
@@ -22152,7 +22152,7 @@
         </is>
       </c>
       <c r="D869" t="n">
-        <v>12246</v>
+        <v>16574.9</v>
       </c>
       <c r="E869" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>01/04/2013</t>
+          <t>01/10/2012</t>
         </is>
       </c>
       <c r="B870" t="inlineStr">
@@ -22177,7 +22177,7 @@
         </is>
       </c>
       <c r="D870" t="n">
-        <v>15186.2</v>
+        <v>13682.2</v>
       </c>
       <c r="E870" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>01/08/2013</t>
+          <t>01/09/2012</t>
         </is>
       </c>
       <c r="B871" t="inlineStr">
@@ -22202,7 +22202,7 @@
         </is>
       </c>
       <c r="D871" t="n">
-        <v>14998.4</v>
+        <v>12246</v>
       </c>
       <c r="E871" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>01/12/2013</t>
+          <t>01/04/2013</t>
         </is>
       </c>
       <c r="B872" t="inlineStr">
@@ -22227,7 +22227,7 @@
         </is>
       </c>
       <c r="D872" t="n">
-        <v>15576.1</v>
+        <v>15186.2</v>
       </c>
       <c r="E872" t="inlineStr">
         <is>
@@ -22238,7 +22238,7 @@
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>01/02/2013</t>
+          <t>01/08/2013</t>
         </is>
       </c>
       <c r="B873" t="inlineStr">
@@ -22252,7 +22252,7 @@
         </is>
       </c>
       <c r="D873" t="n">
-        <v>14992.1</v>
+        <v>14998.4</v>
       </c>
       <c r="E873" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/12/2013</t>
         </is>
       </c>
       <c r="B874" t="inlineStr">
@@ -22277,7 +22277,7 @@
         </is>
       </c>
       <c r="D874" t="n">
-        <v>16653.1</v>
+        <v>15576.1</v>
       </c>
       <c r="E874" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>01/07/2013</t>
+          <t>01/02/2013</t>
         </is>
       </c>
       <c r="B875" t="inlineStr">
@@ -22302,7 +22302,7 @@
         </is>
       </c>
       <c r="D875" t="n">
-        <v>15326.3</v>
+        <v>14992.1</v>
       </c>
       <c r="E875" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>01/06/2013</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="B876" t="inlineStr">
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D876" t="n">
-        <v>15355.6</v>
+        <v>16653.1</v>
       </c>
       <c r="E876" t="inlineStr">
         <is>
@@ -22338,7 +22338,7 @@
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>01/05/2013</t>
+          <t>01/07/2013</t>
         </is>
       </c>
       <c r="B877" t="inlineStr">
@@ -22352,7 +22352,7 @@
         </is>
       </c>
       <c r="D877" t="n">
-        <v>14825.2</v>
+        <v>15326.3</v>
       </c>
       <c r="E877" t="inlineStr">
         <is>
@@ -22363,7 +22363,7 @@
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>01/03/2013</t>
+          <t>01/06/2013</t>
         </is>
       </c>
       <c r="B878" t="inlineStr">
@@ -22377,7 +22377,7 @@
         </is>
       </c>
       <c r="D878" t="n">
-        <v>15537.2</v>
+        <v>15355.6</v>
       </c>
       <c r="E878" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>01/11/2013</t>
+          <t>01/05/2013</t>
         </is>
       </c>
       <c r="B879" t="inlineStr">
@@ -22402,7 +22402,7 @@
         </is>
       </c>
       <c r="D879" t="n">
-        <v>14997.2</v>
+        <v>14825.2</v>
       </c>
       <c r="E879" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>01/03/2013</t>
         </is>
       </c>
       <c r="B880" t="inlineStr">
@@ -22427,7 +22427,7 @@
         </is>
       </c>
       <c r="D880" t="n">
-        <v>14495.7</v>
+        <v>15537.2</v>
       </c>
       <c r="E880" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>01/09/2013</t>
+          <t>01/11/2013</t>
         </is>
       </c>
       <c r="B881" t="inlineStr">
@@ -22452,7 +22452,7 @@
         </is>
       </c>
       <c r="D881" t="n">
-        <v>14777.2</v>
+        <v>14997.2</v>
       </c>
       <c r="E881" t="inlineStr">
         <is>
@@ -22463,7 +22463,7 @@
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>01/04/2014</t>
+          <t>01/10/2013</t>
         </is>
       </c>
       <c r="B882" t="inlineStr">
@@ -22477,7 +22477,7 @@
         </is>
       </c>
       <c r="D882" t="n">
-        <v>15228.7</v>
+        <v>14495.7</v>
       </c>
       <c r="E882" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>01/08/2014</t>
+          <t>01/09/2013</t>
         </is>
       </c>
       <c r="B883" t="inlineStr">
@@ -22502,7 +22502,7 @@
         </is>
       </c>
       <c r="D883" t="n">
-        <v>14545.5</v>
+        <v>14777.2</v>
       </c>
       <c r="E883" t="inlineStr">
         <is>
@@ -22513,7 +22513,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>01/12/2014</t>
+          <t>01/04/2014</t>
         </is>
       </c>
       <c r="B884" t="inlineStr">
@@ -22527,7 +22527,7 @@
         </is>
       </c>
       <c r="D884" t="n">
-        <v>13264.2</v>
+        <v>15228.7</v>
       </c>
       <c r="E884" t="inlineStr">
         <is>
@@ -22538,7 +22538,7 @@
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>01/02/2014</t>
+          <t>01/08/2014</t>
         </is>
       </c>
       <c r="B885" t="inlineStr">
@@ -22552,7 +22552,7 @@
         </is>
       </c>
       <c r="D885" t="n">
-        <v>13542.3</v>
+        <v>14545.5</v>
       </c>
       <c r="E885" t="inlineStr">
         <is>
@@ -22563,7 +22563,7 @@
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/12/2014</t>
         </is>
       </c>
       <c r="B886" t="inlineStr">
@@ -22577,7 +22577,7 @@
         </is>
       </c>
       <c r="D886" t="n">
-        <v>15019.1</v>
+        <v>13264.2</v>
       </c>
       <c r="E886" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
+          <t>01/02/2014</t>
         </is>
       </c>
       <c r="B887" t="inlineStr">
@@ -22602,7 +22602,7 @@
         </is>
       </c>
       <c r="D887" t="n">
-        <v>14900.7</v>
+        <v>13542.3</v>
       </c>
       <c r="E887" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>01/06/2014</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="B888" t="inlineStr">
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="D888" t="n">
-        <v>14977.9</v>
+        <v>15019.1</v>
       </c>
       <c r="E888" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>01/05/2014</t>
+          <t>01/07/2014</t>
         </is>
       </c>
       <c r="B889" t="inlineStr">
@@ -22652,7 +22652,7 @@
         </is>
       </c>
       <c r="D889" t="n">
-        <v>16141.5</v>
+        <v>14900.7</v>
       </c>
       <c r="E889" t="inlineStr">
         <is>
@@ -22663,7 +22663,7 @@
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>01/03/2014</t>
+          <t>01/06/2014</t>
         </is>
       </c>
       <c r="B890" t="inlineStr">
@@ -22677,7 +22677,7 @@
         </is>
       </c>
       <c r="D890" t="n">
-        <v>15178.7</v>
+        <v>14977.9</v>
       </c>
       <c r="E890" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>01/11/2014</t>
+          <t>01/05/2014</t>
         </is>
       </c>
       <c r="B891" t="inlineStr">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="D891" t="n">
-        <v>11227.8</v>
+        <v>16141.5</v>
       </c>
       <c r="E891" t="inlineStr">
         <is>
@@ -22713,7 +22713,7 @@
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>01/10/2014</t>
+          <t>01/03/2014</t>
         </is>
       </c>
       <c r="B892" t="inlineStr">
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D892" t="n">
-        <v>14384.8</v>
+        <v>15178.7</v>
       </c>
       <c r="E892" t="inlineStr">
         <is>
@@ -22738,7 +22738,7 @@
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>01/09/2014</t>
+          <t>01/11/2014</t>
         </is>
       </c>
       <c r="B893" t="inlineStr">
@@ -22752,7 +22752,7 @@
         </is>
       </c>
       <c r="D893" t="n">
-        <v>13936.6</v>
+        <v>11227.8</v>
       </c>
       <c r="E893" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>01/04/2015</t>
+          <t>01/10/2014</t>
         </is>
       </c>
       <c r="B894" t="inlineStr">
@@ -22777,7 +22777,7 @@
         </is>
       </c>
       <c r="D894" t="n">
-        <v>13917.8</v>
+        <v>14384.8</v>
       </c>
       <c r="E894" t="inlineStr">
         <is>
@@ -22788,7 +22788,7 @@
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>01/08/2015</t>
+          <t>01/09/2014</t>
         </is>
       </c>
       <c r="B895" t="inlineStr">
@@ -22802,7 +22802,7 @@
         </is>
       </c>
       <c r="D895" t="n">
-        <v>11403.3</v>
+        <v>13936.6</v>
       </c>
       <c r="E895" t="inlineStr">
         <is>
@@ -22813,7 +22813,7 @@
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>01/12/2015</t>
+          <t>01/04/2015</t>
         </is>
       </c>
       <c r="B896" t="inlineStr">
@@ -22827,7 +22827,7 @@
         </is>
       </c>
       <c r="D896" t="n">
-        <v>9425.700000000001</v>
+        <v>13917.8</v>
       </c>
       <c r="E896" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>01/02/2015</t>
+          <t>01/08/2015</t>
         </is>
       </c>
       <c r="B897" t="inlineStr">
@@ -22852,7 +22852,7 @@
         </is>
       </c>
       <c r="D897" t="n">
-        <v>13004.4</v>
+        <v>11403.3</v>
       </c>
       <c r="E897" t="inlineStr">
         <is>
@@ -22863,7 +22863,7 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/12/2015</t>
         </is>
       </c>
       <c r="B898" t="inlineStr">
@@ -22877,7 +22877,7 @@
         </is>
       </c>
       <c r="D898" t="n">
-        <v>14478.2</v>
+        <v>9425.700000000001</v>
       </c>
       <c r="E898" t="inlineStr">
         <is>
@@ -22888,7 +22888,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>01/07/2015</t>
+          <t>01/02/2015</t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
@@ -22902,7 +22902,7 @@
         </is>
       </c>
       <c r="D899" t="n">
-        <v>11946.4</v>
+        <v>13004.4</v>
       </c>
       <c r="E899" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>01/06/2015</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
@@ -22927,7 +22927,7 @@
         </is>
       </c>
       <c r="D900" t="n">
-        <v>12385.6</v>
+        <v>14478.2</v>
       </c>
       <c r="E900" t="inlineStr">
         <is>
@@ -22938,7 +22938,7 @@
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>01/05/2015</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="B901" t="inlineStr">
@@ -22952,7 +22952,7 @@
         </is>
       </c>
       <c r="D901" t="n">
-        <v>12823.9</v>
+        <v>11946.4</v>
       </c>
       <c r="E901" t="inlineStr">
         <is>
@@ -22963,7 +22963,7 @@
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>01/03/2015</t>
+          <t>01/06/2015</t>
         </is>
       </c>
       <c r="B902" t="inlineStr">
@@ -22977,7 +22977,7 @@
         </is>
       </c>
       <c r="D902" t="n">
-        <v>14916.8</v>
+        <v>12385.6</v>
       </c>
       <c r="E902" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>01/11/2015</t>
+          <t>01/05/2015</t>
         </is>
       </c>
       <c r="B903" t="inlineStr">
@@ -23002,7 +23002,7 @@
         </is>
       </c>
       <c r="D903" t="n">
-        <v>5361.7</v>
+        <v>12823.9</v>
       </c>
       <c r="E903" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/03/2015</t>
         </is>
       </c>
       <c r="B904" t="inlineStr">
@@ -23027,7 +23027,7 @@
         </is>
       </c>
       <c r="D904" t="n">
-        <v>11384.7</v>
+        <v>14916.8</v>
       </c>
       <c r="E904" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>01/09/2015</t>
+          <t>01/11/2015</t>
         </is>
       </c>
       <c r="B905" t="inlineStr">
@@ -23052,7 +23052,7 @@
         </is>
       </c>
       <c r="D905" t="n">
-        <v>11927.3</v>
+        <v>5361.7</v>
       </c>
       <c r="E905" t="inlineStr">
         <is>
@@ -23063,7 +23063,7 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>01/04/2016</t>
+          <t>01/10/2015</t>
         </is>
       </c>
       <c r="B906" t="inlineStr">
@@ -23077,7 +23077,7 @@
         </is>
       </c>
       <c r="D906" t="n">
-        <v>9074.1</v>
+        <v>11384.7</v>
       </c>
       <c r="E906" t="inlineStr">
         <is>
@@ -23088,7 +23088,7 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>01/08/2016</t>
+          <t>01/09/2015</t>
         </is>
       </c>
       <c r="B907" t="inlineStr">
@@ -23102,7 +23102,7 @@
         </is>
       </c>
       <c r="D907" t="n">
-        <v>9273.799999999999</v>
+        <v>11927.3</v>
       </c>
       <c r="E907" t="inlineStr">
         <is>
@@ -23113,7 +23113,7 @@
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>01/12/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="B908" t="inlineStr">
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D908" t="n">
-        <v>3213.5</v>
+        <v>9074.1</v>
       </c>
       <c r="E908" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>01/02/2016</t>
+          <t>01/08/2016</t>
         </is>
       </c>
       <c r="B909" t="inlineStr">
@@ -23152,7 +23152,7 @@
         </is>
       </c>
       <c r="D909" t="n">
-        <v>8886.4</v>
+        <v>9273.799999999999</v>
       </c>
       <c r="E909" t="inlineStr">
         <is>
@@ -23163,7 +23163,7 @@
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/12/2016</t>
         </is>
       </c>
       <c r="B910" t="inlineStr">
@@ -23177,7 +23177,7 @@
         </is>
       </c>
       <c r="D910" t="n">
-        <v>9118.200000000001</v>
+        <v>3213.5</v>
       </c>
       <c r="E910" t="inlineStr">
         <is>
@@ -23188,7 +23188,7 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
+          <t>01/02/2016</t>
         </is>
       </c>
       <c r="B911" t="inlineStr">
@@ -23202,7 +23202,7 @@
         </is>
       </c>
       <c r="D911" t="n">
-        <v>9093.799999999999</v>
+        <v>8886.4</v>
       </c>
       <c r="E911" t="inlineStr">
         <is>
@@ -23213,7 +23213,7 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>01/06/2016</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="B912" t="inlineStr">
@@ -23227,7 +23227,7 @@
         </is>
       </c>
       <c r="D912" t="n">
-        <v>8134.5</v>
+        <v>9118.200000000001</v>
       </c>
       <c r="E912" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>01/05/2016</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="B913" t="inlineStr">
@@ -23252,7 +23252,7 @@
         </is>
       </c>
       <c r="D913" t="n">
-        <v>9412.299999999999</v>
+        <v>9093.799999999999</v>
       </c>
       <c r="E913" t="inlineStr">
         <is>
@@ -23263,7 +23263,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>01/03/2016</t>
+          <t>01/06/2016</t>
         </is>
       </c>
       <c r="B914" t="inlineStr">
@@ -23277,7 +23277,7 @@
         </is>
       </c>
       <c r="D914" t="n">
-        <v>9861.1</v>
+        <v>8134.5</v>
       </c>
       <c r="E914" t="inlineStr">
         <is>
@@ -23288,7 +23288,7 @@
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>01/11/2016</t>
+          <t>01/05/2016</t>
         </is>
       </c>
       <c r="B915" t="inlineStr">
@@ -23302,7 +23302,7 @@
         </is>
       </c>
       <c r="D915" t="n">
-        <v>7657.6</v>
+        <v>9412.299999999999</v>
       </c>
       <c r="E915" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/03/2016</t>
         </is>
       </c>
       <c r="B916" t="inlineStr">
@@ -23327,7 +23327,7 @@
         </is>
       </c>
       <c r="D916" t="n">
-        <v>8933.1</v>
+        <v>9861.1</v>
       </c>
       <c r="E916" t="inlineStr">
         <is>
@@ -23338,7 +23338,7 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>01/09/2016</t>
+          <t>01/11/2016</t>
         </is>
       </c>
       <c r="B917" t="inlineStr">
@@ -23352,7 +23352,7 @@
         </is>
       </c>
       <c r="D917" t="n">
-        <v>8977.299999999999</v>
+        <v>7657.6</v>
       </c>
       <c r="E917" t="inlineStr">
         <is>
@@ -23363,7 +23363,7 @@
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>01/04/2017</t>
+          <t>01/10/2016</t>
         </is>
       </c>
       <c r="B918" t="inlineStr">
@@ -23377,7 +23377,7 @@
         </is>
       </c>
       <c r="D918" t="n">
-        <v>6856.1</v>
+        <v>8933.1</v>
       </c>
       <c r="E918" t="inlineStr">
         <is>
@@ -23388,7 +23388,7 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>01/08/2017</t>
+          <t>01/09/2016</t>
         </is>
       </c>
       <c r="B919" t="inlineStr">
@@ -23402,7 +23402,7 @@
         </is>
       </c>
       <c r="D919" t="n">
-        <v>7185.4</v>
+        <v>8977.299999999999</v>
       </c>
       <c r="E919" t="inlineStr">
         <is>
@@ -23413,7 +23413,7 @@
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>01/12/2017</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
@@ -23427,7 +23427,7 @@
         </is>
       </c>
       <c r="D920" t="n">
-        <v>9617.700000000001</v>
+        <v>6856.1</v>
       </c>
       <c r="E920" t="inlineStr">
         <is>
@@ -23438,7 +23438,7 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>01/02/2017</t>
+          <t>01/08/2017</t>
         </is>
       </c>
       <c r="B921" t="inlineStr">
@@ -23452,7 +23452,7 @@
         </is>
       </c>
       <c r="D921" t="n">
-        <v>6279.5</v>
+        <v>7185.4</v>
       </c>
       <c r="E921" t="inlineStr">
         <is>
@@ -23463,7 +23463,7 @@
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/12/2017</t>
         </is>
       </c>
       <c r="B922" t="inlineStr">
@@ -23477,7 +23477,7 @@
         </is>
       </c>
       <c r="D922" t="n">
-        <v>7743.8</v>
+        <v>9617.700000000001</v>
       </c>
       <c r="E922" t="inlineStr">
         <is>
@@ -23488,7 +23488,7 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
+          <t>01/02/2017</t>
         </is>
       </c>
       <c r="B923" t="inlineStr">
@@ -23502,7 +23502,7 @@
         </is>
       </c>
       <c r="D923" t="n">
-        <v>6753.2</v>
+        <v>6279.5</v>
       </c>
       <c r="E923" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>01/06/2017</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="B924" t="inlineStr">
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D924" t="n">
-        <v>6679</v>
+        <v>7743.8</v>
       </c>
       <c r="E924" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>01/05/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="B925" t="inlineStr">
@@ -23552,7 +23552,7 @@
         </is>
       </c>
       <c r="D925" t="n">
-        <v>6777</v>
+        <v>6753.2</v>
       </c>
       <c r="E925" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>01/03/2017</t>
+          <t>01/06/2017</t>
         </is>
       </c>
       <c r="B926" t="inlineStr">
@@ -23577,7 +23577,7 @@
         </is>
       </c>
       <c r="D926" t="n">
-        <v>7180</v>
+        <v>6679</v>
       </c>
       <c r="E926" t="inlineStr">
         <is>
@@ -23588,7 +23588,7 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>01/11/2017</t>
+          <t>01/05/2017</t>
         </is>
       </c>
       <c r="B927" t="inlineStr">
@@ -23602,7 +23602,7 @@
         </is>
       </c>
       <c r="D927" t="n">
-        <v>7720.9</v>
+        <v>6777</v>
       </c>
       <c r="E927" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/03/2017</t>
         </is>
       </c>
       <c r="B928" t="inlineStr">
@@ -23627,7 +23627,7 @@
         </is>
       </c>
       <c r="D928" t="n">
-        <v>7765.07</v>
+        <v>7180</v>
       </c>
       <c r="E928" t="inlineStr">
         <is>
@@ -23638,7 +23638,7 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>01/09/2017</t>
+          <t>01/11/2017</t>
         </is>
       </c>
       <c r="B929" t="inlineStr">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="D929" t="n">
-        <v>7191.4</v>
+        <v>7720.9</v>
       </c>
       <c r="E929" t="inlineStr">
         <is>
@@ -23663,7 +23663,7 @@
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>01/04/2018</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="B930" t="inlineStr">
@@ -23677,7 +23677,7 @@
         </is>
       </c>
       <c r="D930" t="n">
-        <v>6020</v>
+        <v>7765.07</v>
       </c>
       <c r="E930" t="inlineStr">
         <is>
@@ -23688,7 +23688,7 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>01/08/2018</t>
+          <t>01/09/2017</t>
         </is>
       </c>
       <c r="B931" t="inlineStr">
@@ -23702,7 +23702,7 @@
         </is>
       </c>
       <c r="D931" t="n">
-        <v>5969</v>
+        <v>7191.4</v>
       </c>
       <c r="E931" t="inlineStr">
         <is>
@@ -23713,7 +23713,7 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>01/12/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="B932" t="inlineStr">
@@ -23727,7 +23727,7 @@
         </is>
       </c>
       <c r="D932" t="n">
-        <v>6061</v>
+        <v>6020</v>
       </c>
       <c r="E932" t="inlineStr">
         <is>
@@ -23738,7 +23738,7 @@
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>01/02/2018</t>
+          <t>01/08/2018</t>
         </is>
       </c>
       <c r="B933" t="inlineStr">
@@ -23752,7 +23752,7 @@
         </is>
       </c>
       <c r="D933" t="n">
-        <v>6141.6</v>
+        <v>5969</v>
       </c>
       <c r="E933" t="inlineStr">
         <is>
@@ -23763,7 +23763,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/12/2018</t>
         </is>
       </c>
       <c r="B934" t="inlineStr">
@@ -23777,7 +23777,7 @@
         </is>
       </c>
       <c r="D934" t="n">
-        <v>7289.478</v>
+        <v>6061</v>
       </c>
       <c r="E934" t="inlineStr">
         <is>
@@ -23788,7 +23788,7 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>01/02/2018</t>
         </is>
       </c>
       <c r="B935" t="inlineStr">
@@ -23802,7 +23802,7 @@
         </is>
       </c>
       <c r="D935" t="n">
-        <v>5621.504</v>
+        <v>6141.6</v>
       </c>
       <c r="E935" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>01/06/2018</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="B936" t="inlineStr">
@@ -23827,7 +23827,7 @@
         </is>
       </c>
       <c r="D936" t="n">
-        <v>5487.042</v>
+        <v>7289.478</v>
       </c>
       <c r="E936" t="inlineStr">
         <is>
@@ -23838,7 +23838,7 @@
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>01/05/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="B937" t="inlineStr">
@@ -23852,7 +23852,7 @@
         </is>
       </c>
       <c r="D937" t="n">
-        <v>5549.7</v>
+        <v>5621.504</v>
       </c>
       <c r="E937" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>01/03/2018</t>
+          <t>01/06/2018</t>
         </is>
       </c>
       <c r="B938" t="inlineStr">
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D938" t="n">
-        <v>6426.258</v>
+        <v>5487.042</v>
       </c>
       <c r="E938" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>01/11/2018</t>
+          <t>01/05/2018</t>
         </is>
       </c>
       <c r="B939" t="inlineStr">
@@ -23902,7 +23902,7 @@
         </is>
       </c>
       <c r="D939" t="n">
-        <v>5685.5</v>
+        <v>5549.7</v>
       </c>
       <c r="E939" t="inlineStr">
         <is>
@@ -23913,7 +23913,7 @@
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/03/2018</t>
         </is>
       </c>
       <c r="B940" t="inlineStr">
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D940" t="n">
-        <v>5916.66</v>
+        <v>6426.258</v>
       </c>
       <c r="E940" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>01/09/2018</t>
+          <t>01/11/2018</t>
         </is>
       </c>
       <c r="B941" t="inlineStr">
@@ -23952,7 +23952,7 @@
         </is>
       </c>
       <c r="D941" t="n">
-        <v>5970.399</v>
+        <v>5685.5</v>
       </c>
       <c r="E941" t="inlineStr">
         <is>
@@ -23963,7 +23963,7 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="B942" t="inlineStr">
@@ -23977,7 +23977,7 @@
         </is>
       </c>
       <c r="D942" t="n">
-        <v>5391.2</v>
+        <v>5916.66</v>
       </c>
       <c r="E942" t="inlineStr">
         <is>
@@ -23988,7 +23988,7 @@
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>01/08/2019</t>
+          <t>01/09/2018</t>
         </is>
       </c>
       <c r="B943" t="inlineStr">
@@ -24002,7 +24002,7 @@
         </is>
       </c>
       <c r="D943" t="n">
-        <v>4054.5</v>
+        <v>5970.399</v>
       </c>
       <c r="E943" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>01/12/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="B944" t="inlineStr">
@@ -24027,7 +24027,7 @@
         </is>
       </c>
       <c r="D944" t="n">
-        <v>4830.4</v>
+        <v>5391.2</v>
       </c>
       <c r="E944" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>01/02/2019</t>
+          <t>01/08/2019</t>
         </is>
       </c>
       <c r="B945" t="inlineStr">
@@ -24052,7 +24052,7 @@
         </is>
       </c>
       <c r="D945" t="n">
-        <v>3997.1</v>
+        <v>4054.5</v>
       </c>
       <c r="E945" t="inlineStr">
         <is>
@@ -24063,7 +24063,7 @@
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/12/2019</t>
         </is>
       </c>
       <c r="B946" t="inlineStr">
@@ -24077,7 +24077,7 @@
         </is>
       </c>
       <c r="D946" t="n">
-        <v>5711.1</v>
+        <v>4830.4</v>
       </c>
       <c r="E946" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/02/2019</t>
         </is>
       </c>
       <c r="B947" t="inlineStr">
@@ -24102,7 +24102,7 @@
         </is>
       </c>
       <c r="D947" t="n">
-        <v>4524.82</v>
+        <v>3997.1</v>
       </c>
       <c r="E947" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>01/06/2019</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="B948" t="inlineStr">
@@ -24127,7 +24127,7 @@
         </is>
       </c>
       <c r="D948" t="n">
-        <v>4716.577</v>
+        <v>5711.1</v>
       </c>
       <c r="E948" t="inlineStr">
         <is>
@@ -24138,7 +24138,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>01/05/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="B949" t="inlineStr">
@@ -24152,7 +24152,7 @@
         </is>
       </c>
       <c r="D949" t="n">
-        <v>5361.2</v>
+        <v>4524.82</v>
       </c>
       <c r="E949" t="inlineStr">
         <is>
@@ -24163,7 +24163,7 @@
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>01/03/2019</t>
+          <t>01/06/2019</t>
         </is>
       </c>
       <c r="B950" t="inlineStr">
@@ -24177,7 +24177,7 @@
         </is>
       </c>
       <c r="D950" t="n">
-        <v>4734.9</v>
+        <v>4716.577</v>
       </c>
       <c r="E950" t="inlineStr">
         <is>
@@ -24188,7 +24188,7 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>01/11/2019</t>
+          <t>01/05/2019</t>
         </is>
       </c>
       <c r="B951" t="inlineStr">
@@ -24202,7 +24202,7 @@
         </is>
       </c>
       <c r="D951" t="n">
-        <v>3812.4</v>
+        <v>5361.2</v>
       </c>
       <c r="E951" t="inlineStr">
         <is>
@@ -24213,7 +24213,7 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/03/2019</t>
         </is>
       </c>
       <c r="B952" t="inlineStr">
@@ -24227,7 +24227,7 @@
         </is>
       </c>
       <c r="D952" t="n">
-        <v>4339.8</v>
+        <v>4734.9</v>
       </c>
       <c r="E952" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>01/09/2019</t>
+          <t>01/11/2019</t>
         </is>
       </c>
       <c r="B953" t="inlineStr">
@@ -24252,7 +24252,7 @@
         </is>
       </c>
       <c r="D953" t="n">
-        <v>3820.9</v>
+        <v>3812.4</v>
       </c>
       <c r="E953" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="B954" t="inlineStr">
@@ -24277,7 +24277,7 @@
         </is>
       </c>
       <c r="D954" t="n">
-        <v>0</v>
+        <v>4339.8</v>
       </c>
       <c r="E954" t="inlineStr">
         <is>
@@ -24288,7 +24288,7 @@
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>01/08/2020</t>
+          <t>01/09/2019</t>
         </is>
       </c>
       <c r="B955" t="inlineStr">
@@ -24302,7 +24302,7 @@
         </is>
       </c>
       <c r="D955" t="n">
-        <v>0</v>
+        <v>3820.9</v>
       </c>
       <c r="E955" t="inlineStr">
         <is>
@@ -24313,7 +24313,7 @@
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>01/12/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="B956" t="inlineStr">
@@ -24338,7 +24338,7 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>01/02/2020</t>
+          <t>01/08/2020</t>
         </is>
       </c>
       <c r="B957" t="inlineStr">
@@ -24352,7 +24352,7 @@
         </is>
       </c>
       <c r="D957" t="n">
-        <v>5762.358</v>
+        <v>0</v>
       </c>
       <c r="E957" t="inlineStr">
         <is>
@@ -24363,7 +24363,7 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/12/2020</t>
         </is>
       </c>
       <c r="B958" t="inlineStr">
@@ -24377,7 +24377,7 @@
         </is>
       </c>
       <c r="D958" t="n">
-        <v>5560.337</v>
+        <v>0</v>
       </c>
       <c r="E958" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/02/2020</t>
         </is>
       </c>
       <c r="B959" t="inlineStr">
@@ -24402,7 +24402,7 @@
         </is>
       </c>
       <c r="D959" t="n">
-        <v>0</v>
+        <v>5762.358</v>
       </c>
       <c r="E959" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>01/06/2020</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="B960" t="inlineStr">
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="D960" t="n">
-        <v>0</v>
+        <v>5560.337</v>
       </c>
       <c r="E960" t="inlineStr">
         <is>
@@ -24438,7 +24438,7 @@
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>01/05/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="B961" t="inlineStr">
@@ -24463,7 +24463,7 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>01/03/2020</t>
+          <t>01/06/2020</t>
         </is>
       </c>
       <c r="B962" t="inlineStr">
@@ -24477,7 +24477,7 @@
         </is>
       </c>
       <c r="D962" t="n">
-        <v>5496</v>
+        <v>0</v>
       </c>
       <c r="E962" t="inlineStr">
         <is>
@@ -24488,7 +24488,7 @@
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>01/11/2020</t>
+          <t>01/05/2020</t>
         </is>
       </c>
       <c r="B963" t="inlineStr">
@@ -24513,7 +24513,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/03/2020</t>
         </is>
       </c>
       <c r="B964" t="inlineStr">
@@ -24527,7 +24527,7 @@
         </is>
       </c>
       <c r="D964" t="n">
-        <v>0</v>
+        <v>5496</v>
       </c>
       <c r="E964" t="inlineStr">
         <is>
@@ -24538,7 +24538,7 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>01/09/2020</t>
+          <t>01/11/2020</t>
         </is>
       </c>
       <c r="B965" t="inlineStr">
@@ -24563,7 +24563,7 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="B966" t="inlineStr">
@@ -24588,7 +24588,7 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>01/08/2021</t>
+          <t>01/09/2020</t>
         </is>
       </c>
       <c r="B967" t="inlineStr">
@@ -24613,7 +24613,7 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>01/12/2021</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="B968" t="inlineStr">
@@ -24638,7 +24638,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>01/02/2021</t>
+          <t>01/08/2021</t>
         </is>
       </c>
       <c r="B969" t="inlineStr">
@@ -24663,7 +24663,7 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/12/2021</t>
         </is>
       </c>
       <c r="B970" t="inlineStr">
@@ -24688,7 +24688,7 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/02/2021</t>
         </is>
       </c>
       <c r="B971" t="inlineStr">
@@ -24713,7 +24713,7 @@
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>01/06/2021</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="B972" t="inlineStr">
@@ -24738,7 +24738,7 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>01/05/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="B973" t="inlineStr">
@@ -24763,7 +24763,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>01/03/2021</t>
+          <t>01/06/2021</t>
         </is>
       </c>
       <c r="B974" t="inlineStr">
@@ -24788,7 +24788,7 @@
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>01/11/2021</t>
+          <t>01/05/2021</t>
         </is>
       </c>
       <c r="B975" t="inlineStr">
@@ -24813,7 +24813,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/03/2021</t>
         </is>
       </c>
       <c r="B976" t="inlineStr">
@@ -24838,7 +24838,7 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>01/09/2021</t>
+          <t>01/11/2021</t>
         </is>
       </c>
       <c r="B977" t="inlineStr">
@@ -24863,7 +24863,7 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="B978" t="inlineStr">
@@ -24888,7 +24888,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>01/08/2022</t>
+          <t>01/09/2021</t>
         </is>
       </c>
       <c r="B979" t="inlineStr">
@@ -24913,7 +24913,7 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>01/12/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="B980" t="inlineStr">
@@ -24938,7 +24938,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>01/02/2022</t>
+          <t>01/08/2022</t>
         </is>
       </c>
       <c r="B981" t="inlineStr">
@@ -24963,7 +24963,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/12/2022</t>
         </is>
       </c>
       <c r="B982" t="inlineStr">
@@ -24988,7 +24988,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/02/2022</t>
         </is>
       </c>
       <c r="B983" t="inlineStr">
@@ -25013,7 +25013,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>01/06/2022</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="B984" t="inlineStr">
@@ -25038,7 +25038,7 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>01/05/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="B985" t="inlineStr">
@@ -25063,7 +25063,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>01/03/2022</t>
+          <t>01/06/2022</t>
         </is>
       </c>
       <c r="B986" t="inlineStr">
@@ -25088,7 +25088,7 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>01/11/2022</t>
+          <t>01/05/2022</t>
         </is>
       </c>
       <c r="B987" t="inlineStr">
@@ -25113,7 +25113,7 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/03/2022</t>
         </is>
       </c>
       <c r="B988" t="inlineStr">
@@ -25138,7 +25138,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>01/09/2022</t>
+          <t>01/11/2022</t>
         </is>
       </c>
       <c r="B989" t="inlineStr">
@@ -25163,7 +25163,7 @@
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="B990" t="inlineStr">
@@ -25188,7 +25188,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01/09/2022</t>
         </is>
       </c>
       <c r="B991" t="inlineStr">
@@ -25213,7 +25213,7 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="B992" t="inlineStr">
@@ -25238,7 +25238,7 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>01/02/2023</t>
+          <t>01/08/2023</t>
         </is>
       </c>
       <c r="B993" t="inlineStr">
@@ -25263,7 +25263,7 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="B994" t="inlineStr">
@@ -25288,7 +25288,7 @@
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/02/2023</t>
         </is>
       </c>
       <c r="B995" t="inlineStr">
@@ -25313,7 +25313,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>01/06/2023</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="B996" t="inlineStr">
@@ -25338,7 +25338,7 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>01/05/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="B997" t="inlineStr">
@@ -25363,7 +25363,7 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>01/03/2023</t>
+          <t>01/06/2023</t>
         </is>
       </c>
       <c r="B998" t="inlineStr">
@@ -25388,7 +25388,7 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>01/11/2023</t>
+          <t>01/05/2023</t>
         </is>
       </c>
       <c r="B999" t="inlineStr">
@@ -25413,7 +25413,7 @@
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/03/2023</t>
         </is>
       </c>
       <c r="B1000" t="inlineStr">
@@ -25438,7 +25438,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>01/09/2023</t>
+          <t>01/11/2023</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr">
@@ -25463,7 +25463,7 @@
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="B1002" t="inlineStr">
@@ -25488,7 +25488,7 @@
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>01/09/2023</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr">
@@ -25513,7 +25513,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>01/12/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="B1004" t="inlineStr">
@@ -25538,7 +25538,7 @@
     <row r="1005">
       <c r="A1005" t="inlineStr">
         <is>
-          <t>01/02/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B1005" t="inlineStr">
@@ -25563,7 +25563,7 @@
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/12/2024</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr">
@@ -25588,7 +25588,7 @@
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
+          <t>01/02/2024</t>
         </is>
       </c>
       <c r="B1007" t="inlineStr">
@@ -25613,7 +25613,7 @@
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>01/06/2024</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr">
@@ -25638,7 +25638,7 @@
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>01/05/2024</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="B1009" t="inlineStr">
@@ -25663,7 +25663,7 @@
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>01/03/2024</t>
+          <t>01/06/2024</t>
         </is>
       </c>
       <c r="B1010" t="inlineStr">
@@ -25688,7 +25688,7 @@
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>01/11/2024</t>
+          <t>01/05/2024</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr">
@@ -25713,7 +25713,7 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>01/10/2024</t>
+          <t>01/03/2024</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr">
@@ -25738,7 +25738,7 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>01/09/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr">
@@ -25763,7 +25763,7 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>01/02/2025</t>
+          <t>01/10/2024</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr">
@@ -25788,7 +25788,7 @@
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>01/09/2024</t>
         </is>
       </c>
       <c r="B1015" t="inlineStr">
@@ -25805,6 +25805,56 @@
         <v>0</v>
       </c>
       <c r="E1015" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="inlineStr">
+        <is>
+          <t>01/02/2025</t>
+        </is>
+      </c>
+      <c r="B1016" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C1016" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1016" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="B1017" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C1017" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1017" t="inlineStr">
         <is>
           <t>SERGIPE</t>
         </is>

--- a/Data/g8.2.xlsx
+++ b/Data/g8.2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1017"/>
+  <dimension ref="A1:E1021"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17263,7 +17263,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>01/02/2025</t>
+          <t>01/04/2025</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
@@ -17277,7 +17277,7 @@
         </is>
       </c>
       <c r="D674" t="n">
-        <v>13.217</v>
+        <v>40.941</v>
       </c>
       <c r="E674" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>01/02/2025</t>
+          <t>01/04/2025</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
@@ -17302,7 +17302,7 @@
         </is>
       </c>
       <c r="D675" t="n">
-        <v>1629.966</v>
+        <v>1808.704</v>
       </c>
       <c r="E675" t="inlineStr">
         <is>
@@ -17313,7 +17313,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>01/02/2025</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
@@ -17327,7 +17327,7 @@
         </is>
       </c>
       <c r="D676" t="n">
-        <v>49.252</v>
+        <v>13.217</v>
       </c>
       <c r="E676" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>01/02/2025</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
@@ -17352,7 +17352,7 @@
         </is>
       </c>
       <c r="D677" t="n">
-        <v>1963.826</v>
+        <v>1629.966</v>
       </c>
       <c r="E677" t="inlineStr">
         <is>
@@ -17363,7 +17363,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>01/03/2025</t>
+          <t>01/01/2025</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
@@ -17377,7 +17377,7 @@
         </is>
       </c>
       <c r="D678" t="n">
-        <v>9.792</v>
+        <v>49.252</v>
       </c>
       <c r="E678" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>01/03/2025</t>
+          <t>01/01/2025</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
@@ -17402,7 +17402,7 @@
         </is>
       </c>
       <c r="D679" t="n">
-        <v>1796.277</v>
+        <v>1963.826</v>
       </c>
       <c r="E679" t="inlineStr">
         <is>
@@ -17413,21 +17413,21 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>01/04/1997</t>
+          <t>01/03/2025</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA</t>
+          <t>MAR</t>
         </is>
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>LGN</t>
+          <t>GÁS NATURAL</t>
         </is>
       </c>
       <c r="D680" t="n">
-        <v>20951</v>
+        <v>9.792</v>
       </c>
       <c r="E680" t="inlineStr">
         <is>
@@ -17438,21 +17438,21 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>01/08/1997</t>
+          <t>01/03/2025</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA</t>
+          <t>TERRA</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t>LGN</t>
+          <t>GÁS NATURAL</t>
         </is>
       </c>
       <c r="D681" t="n">
-        <v>24698</v>
+        <v>1796.277</v>
       </c>
       <c r="E681" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>01/12/1997</t>
+          <t>01/04/1997</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
@@ -17477,7 +17477,7 @@
         </is>
       </c>
       <c r="D682" t="n">
-        <v>23230</v>
+        <v>20951</v>
       </c>
       <c r="E682" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>01/02/1997</t>
+          <t>01/08/1997</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
@@ -17502,7 +17502,7 @@
         </is>
       </c>
       <c r="D683" t="n">
-        <v>19007</v>
+        <v>24698</v>
       </c>
       <c r="E683" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>01/01/1997</t>
+          <t>01/12/1997</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D684" t="n">
-        <v>18978</v>
+        <v>23230</v>
       </c>
       <c r="E684" t="inlineStr">
         <is>
@@ -17538,7 +17538,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>01/07/1997</t>
+          <t>01/02/1997</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
@@ -17552,7 +17552,7 @@
         </is>
       </c>
       <c r="D685" t="n">
-        <v>23232</v>
+        <v>19007</v>
       </c>
       <c r="E685" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>01/06/1997</t>
+          <t>01/01/1997</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
@@ -17577,7 +17577,7 @@
         </is>
       </c>
       <c r="D686" t="n">
-        <v>22449</v>
+        <v>18978</v>
       </c>
       <c r="E686" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>01/05/1997</t>
+          <t>01/07/1997</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
@@ -17602,7 +17602,7 @@
         </is>
       </c>
       <c r="D687" t="n">
-        <v>24757</v>
+        <v>23232</v>
       </c>
       <c r="E687" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>01/03/1997</t>
+          <t>01/06/1997</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
@@ -17627,7 +17627,7 @@
         </is>
       </c>
       <c r="D688" t="n">
-        <v>19807</v>
+        <v>22449</v>
       </c>
       <c r="E688" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>01/11/1997</t>
+          <t>01/05/1997</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
@@ -17652,7 +17652,7 @@
         </is>
       </c>
       <c r="D689" t="n">
-        <v>22027</v>
+        <v>24757</v>
       </c>
       <c r="E689" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>01/10/1997</t>
+          <t>01/03/1997</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
@@ -17677,7 +17677,7 @@
         </is>
       </c>
       <c r="D690" t="n">
-        <v>21890</v>
+        <v>19807</v>
       </c>
       <c r="E690" t="inlineStr">
         <is>
@@ -17688,7 +17688,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>01/09/1997</t>
+          <t>01/11/1997</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
@@ -17702,7 +17702,7 @@
         </is>
       </c>
       <c r="D691" t="n">
-        <v>22749</v>
+        <v>22027</v>
       </c>
       <c r="E691" t="inlineStr">
         <is>
@@ -17713,7 +17713,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>01/04/1998</t>
+          <t>01/10/1997</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
@@ -17727,7 +17727,7 @@
         </is>
       </c>
       <c r="D692" t="n">
-        <v>131778.0699</v>
+        <v>21890</v>
       </c>
       <c r="E692" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>01/08/1998</t>
+          <t>01/09/1997</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
@@ -17752,7 +17752,7 @@
         </is>
       </c>
       <c r="D693" t="n">
-        <v>155346.0346</v>
+        <v>22749</v>
       </c>
       <c r="E693" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>01/12/1998</t>
+          <t>01/04/1998</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
@@ -17777,7 +17777,7 @@
         </is>
       </c>
       <c r="D694" t="n">
-        <v>146112.5752</v>
+        <v>131778.0699</v>
       </c>
       <c r="E694" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>01/02/1998</t>
+          <t>01/08/1998</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
@@ -17802,7 +17802,7 @@
         </is>
       </c>
       <c r="D695" t="n">
-        <v>119550.6551</v>
+        <v>155346.0346</v>
       </c>
       <c r="E695" t="inlineStr">
         <is>
@@ -17813,7 +17813,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>01/01/1998</t>
+          <t>01/12/1998</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
@@ -17827,7 +17827,7 @@
         </is>
       </c>
       <c r="D696" t="n">
-        <v>119368.2502</v>
+        <v>146112.5752</v>
       </c>
       <c r="E696" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>01/07/1998</t>
+          <t>01/02/1998</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
@@ -17852,7 +17852,7 @@
         </is>
       </c>
       <c r="D697" t="n">
-        <v>146125.1549</v>
+        <v>119550.6551</v>
       </c>
       <c r="E697" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>01/06/1998</t>
+          <t>01/01/1998</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
@@ -17877,7 +17877,7 @@
         </is>
       </c>
       <c r="D698" t="n">
-        <v>141200.2239</v>
+        <v>119368.2502</v>
       </c>
       <c r="E698" t="inlineStr">
         <is>
@@ -17888,7 +17888,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>01/05/1998</t>
+          <t>01/07/1998</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
@@ -17902,7 +17902,7 @@
         </is>
       </c>
       <c r="D699" t="n">
-        <v>155717.1341</v>
+        <v>146125.1549</v>
       </c>
       <c r="E699" t="inlineStr">
         <is>
@@ -17913,7 +17913,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>01/03/1998</t>
+          <t>01/06/1998</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D700" t="n">
-        <v>124582.513</v>
+        <v>141200.2239</v>
       </c>
       <c r="E700" t="inlineStr">
         <is>
@@ -17938,7 +17938,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>01/11/1998</t>
+          <t>01/05/1998</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
@@ -17952,7 +17952,7 @@
         </is>
       </c>
       <c r="D701" t="n">
-        <v>138545.9188</v>
+        <v>155717.1341</v>
       </c>
       <c r="E701" t="inlineStr">
         <is>
@@ -17963,7 +17963,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>01/10/1998</t>
+          <t>01/03/1998</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
@@ -17977,7 +17977,7 @@
         </is>
       </c>
       <c r="D702" t="n">
-        <v>137684.2132</v>
+        <v>124582.513</v>
       </c>
       <c r="E702" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>01/09/1998</t>
+          <t>01/11/1998</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
@@ -18002,7 +18002,7 @@
         </is>
       </c>
       <c r="D703" t="n">
-        <v>143087.1706</v>
+        <v>138545.9188</v>
       </c>
       <c r="E703" t="inlineStr">
         <is>
@@ -18013,7 +18013,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>01/04/1999</t>
+          <t>01/10/1998</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
@@ -18027,7 +18027,7 @@
         </is>
       </c>
       <c r="D704" t="n">
-        <v>24546</v>
+        <v>137684.2132</v>
       </c>
       <c r="E704" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>01/08/1999</t>
+          <t>01/09/1998</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
@@ -18052,7 +18052,7 @@
         </is>
       </c>
       <c r="D705" t="n">
-        <v>23247</v>
+        <v>143087.1706</v>
       </c>
       <c r="E705" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>01/12/1999</t>
+          <t>01/04/1999</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
@@ -18077,7 +18077,7 @@
         </is>
       </c>
       <c r="D706" t="n">
-        <v>24640</v>
+        <v>24546</v>
       </c>
       <c r="E706" t="inlineStr">
         <is>
@@ -18088,7 +18088,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>01/02/1999</t>
+          <t>01/08/1999</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
@@ -18102,7 +18102,7 @@
         </is>
       </c>
       <c r="D707" t="n">
-        <v>22448</v>
+        <v>23247</v>
       </c>
       <c r="E707" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>01/01/1999</t>
+          <t>01/12/1999</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
@@ -18127,7 +18127,7 @@
         </is>
       </c>
       <c r="D708" t="n">
-        <v>24629</v>
+        <v>24640</v>
       </c>
       <c r="E708" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>01/07/1999</t>
+          <t>01/02/1999</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
@@ -18152,7 +18152,7 @@
         </is>
       </c>
       <c r="D709" t="n">
-        <v>22323</v>
+        <v>22448</v>
       </c>
       <c r="E709" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>01/06/1999</t>
+          <t>01/01/1999</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
@@ -18177,7 +18177,7 @@
         </is>
       </c>
       <c r="D710" t="n">
-        <v>24653</v>
+        <v>24629</v>
       </c>
       <c r="E710" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>01/05/1999</t>
+          <t>01/07/1999</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
@@ -18202,7 +18202,7 @@
         </is>
       </c>
       <c r="D711" t="n">
-        <v>25678</v>
+        <v>22323</v>
       </c>
       <c r="E711" t="inlineStr">
         <is>
@@ -18213,7 +18213,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>01/03/1999</t>
+          <t>01/06/1999</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
@@ -18227,7 +18227,7 @@
         </is>
       </c>
       <c r="D712" t="n">
-        <v>25737</v>
+        <v>24653</v>
       </c>
       <c r="E712" t="inlineStr">
         <is>
@@ -18238,7 +18238,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>01/11/1999</t>
+          <t>01/05/1999</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
@@ -18252,7 +18252,7 @@
         </is>
       </c>
       <c r="D713" t="n">
-        <v>25481</v>
+        <v>25678</v>
       </c>
       <c r="E713" t="inlineStr">
         <is>
@@ -18263,7 +18263,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>01/10/1999</t>
+          <t>01/03/1999</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
@@ -18277,7 +18277,7 @@
         </is>
       </c>
       <c r="D714" t="n">
-        <v>25601</v>
+        <v>25737</v>
       </c>
       <c r="E714" t="inlineStr">
         <is>
@@ -18288,7 +18288,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>01/09/1999</t>
+          <t>01/11/1999</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
@@ -18302,7 +18302,7 @@
         </is>
       </c>
       <c r="D715" t="n">
-        <v>24686</v>
+        <v>25481</v>
       </c>
       <c r="E715" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>01/04/2000</t>
+          <t>01/10/1999</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D716" t="n">
-        <v>25440</v>
+        <v>25601</v>
       </c>
       <c r="E716" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>01/08/2000</t>
+          <t>01/09/1999</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
@@ -18352,7 +18352,7 @@
         </is>
       </c>
       <c r="D717" t="n">
-        <v>27353</v>
+        <v>24686</v>
       </c>
       <c r="E717" t="inlineStr">
         <is>
@@ -18363,7 +18363,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>01/12/2000</t>
+          <t>01/04/2000</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
@@ -18377,7 +18377,7 @@
         </is>
       </c>
       <c r="D718" t="n">
-        <v>26071</v>
+        <v>25440</v>
       </c>
       <c r="E718" t="inlineStr">
         <is>
@@ -18388,7 +18388,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>01/02/2000</t>
+          <t>01/08/2000</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
@@ -18402,7 +18402,7 @@
         </is>
       </c>
       <c r="D719" t="n">
-        <v>25123</v>
+        <v>27353</v>
       </c>
       <c r="E719" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>01/01/2000</t>
+          <t>01/12/2000</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
@@ -18427,7 +18427,7 @@
         </is>
       </c>
       <c r="D720" t="n">
-        <v>26480</v>
+        <v>26071</v>
       </c>
       <c r="E720" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>01/07/2000</t>
+          <t>01/02/2000</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
@@ -18452,7 +18452,7 @@
         </is>
       </c>
       <c r="D721" t="n">
-        <v>26914</v>
+        <v>25123</v>
       </c>
       <c r="E721" t="inlineStr">
         <is>
@@ -18463,7 +18463,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>01/06/2000</t>
+          <t>01/01/2000</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D722" t="n">
-        <v>26044</v>
+        <v>26480</v>
       </c>
       <c r="E722" t="inlineStr">
         <is>
@@ -18488,7 +18488,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>01/05/2000</t>
+          <t>01/07/2000</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
@@ -18502,7 +18502,7 @@
         </is>
       </c>
       <c r="D723" t="n">
-        <v>26406</v>
+        <v>26914</v>
       </c>
       <c r="E723" t="inlineStr">
         <is>
@@ -18513,7 +18513,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>01/03/2000</t>
+          <t>01/06/2000</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
@@ -18527,7 +18527,7 @@
         </is>
       </c>
       <c r="D724" t="n">
-        <v>26572</v>
+        <v>26044</v>
       </c>
       <c r="E724" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>01/11/2000</t>
+          <t>01/05/2000</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
@@ -18552,7 +18552,7 @@
         </is>
       </c>
       <c r="D725" t="n">
-        <v>13928</v>
+        <v>26406</v>
       </c>
       <c r="E725" t="inlineStr">
         <is>
@@ -18563,7 +18563,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>01/10/2000</t>
+          <t>01/03/2000</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
@@ -18577,7 +18577,7 @@
         </is>
       </c>
       <c r="D726" t="n">
-        <v>26965</v>
+        <v>26572</v>
       </c>
       <c r="E726" t="inlineStr">
         <is>
@@ -18588,7 +18588,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>01/09/2000</t>
+          <t>01/11/2000</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
@@ -18602,7 +18602,7 @@
         </is>
       </c>
       <c r="D727" t="n">
-        <v>26129</v>
+        <v>13928</v>
       </c>
       <c r="E727" t="inlineStr">
         <is>
@@ -18613,7 +18613,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>01/04/2001</t>
+          <t>01/10/2000</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
@@ -18627,7 +18627,7 @@
         </is>
       </c>
       <c r="D728" t="n">
-        <v>18378</v>
+        <v>26965</v>
       </c>
       <c r="E728" t="inlineStr">
         <is>
@@ -18638,7 +18638,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>01/08/2001</t>
+          <t>01/09/2000</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
@@ -18652,7 +18652,7 @@
         </is>
       </c>
       <c r="D729" t="n">
-        <v>26465</v>
+        <v>26129</v>
       </c>
       <c r="E729" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>01/12/2001</t>
+          <t>01/04/2001</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
@@ -18677,7 +18677,7 @@
         </is>
       </c>
       <c r="D730" t="n">
-        <v>26876</v>
+        <v>18378</v>
       </c>
       <c r="E730" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>01/02/2001</t>
+          <t>01/08/2001</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
@@ -18702,7 +18702,7 @@
         </is>
       </c>
       <c r="D731" t="n">
-        <v>23797</v>
+        <v>26465</v>
       </c>
       <c r="E731" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>01/01/2001</t>
+          <t>01/12/2001</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D732" t="n">
-        <v>26536</v>
+        <v>26876</v>
       </c>
       <c r="E732" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>01/07/2001</t>
+          <t>01/02/2001</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
@@ -18752,7 +18752,7 @@
         </is>
       </c>
       <c r="D733" t="n">
-        <v>27236</v>
+        <v>23797</v>
       </c>
       <c r="E733" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>01/06/2001</t>
+          <t>01/01/2001</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
@@ -18777,7 +18777,7 @@
         </is>
       </c>
       <c r="D734" t="n">
-        <v>25806</v>
+        <v>26536</v>
       </c>
       <c r="E734" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>01/05/2001</t>
+          <t>01/07/2001</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
@@ -18802,7 +18802,7 @@
         </is>
       </c>
       <c r="D735" t="n">
-        <v>22691</v>
+        <v>27236</v>
       </c>
       <c r="E735" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>01/03/2001</t>
+          <t>01/06/2001</t>
         </is>
       </c>
       <c r="B736" t="inlineStr">
@@ -18827,7 +18827,7 @@
         </is>
       </c>
       <c r="D736" t="n">
-        <v>25605</v>
+        <v>25806</v>
       </c>
       <c r="E736" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>01/11/2001</t>
+          <t>01/05/2001</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
@@ -18852,7 +18852,7 @@
         </is>
       </c>
       <c r="D737" t="n">
-        <v>25852</v>
+        <v>22691</v>
       </c>
       <c r="E737" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>01/10/2001</t>
+          <t>01/03/2001</t>
         </is>
       </c>
       <c r="B738" t="inlineStr">
@@ -18877,7 +18877,7 @@
         </is>
       </c>
       <c r="D738" t="n">
-        <v>26322</v>
+        <v>25605</v>
       </c>
       <c r="E738" t="inlineStr">
         <is>
@@ -18888,7 +18888,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>01/09/2001</t>
+          <t>01/11/2001</t>
         </is>
       </c>
       <c r="B739" t="inlineStr">
@@ -18902,7 +18902,7 @@
         </is>
       </c>
       <c r="D739" t="n">
-        <v>23625</v>
+        <v>25852</v>
       </c>
       <c r="E739" t="inlineStr">
         <is>
@@ -18913,7 +18913,7 @@
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>01/04/2002</t>
+          <t>01/10/2001</t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
@@ -18927,7 +18927,7 @@
         </is>
       </c>
       <c r="D740" t="n">
-        <v>23065</v>
+        <v>26322</v>
       </c>
       <c r="E740" t="inlineStr">
         <is>
@@ -18938,7 +18938,7 @@
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>01/08/2002</t>
+          <t>01/09/2001</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
@@ -18952,7 +18952,7 @@
         </is>
       </c>
       <c r="D741" t="n">
-        <v>25580</v>
+        <v>23625</v>
       </c>
       <c r="E741" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>01/12/2002</t>
+          <t>01/04/2002</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
@@ -18977,7 +18977,7 @@
         </is>
       </c>
       <c r="D742" t="n">
-        <v>24957</v>
+        <v>23065</v>
       </c>
       <c r="E742" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>01/02/2002</t>
+          <t>01/08/2002</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
@@ -19002,7 +19002,7 @@
         </is>
       </c>
       <c r="D743" t="n">
-        <v>24096</v>
+        <v>25580</v>
       </c>
       <c r="E743" t="inlineStr">
         <is>
@@ -19013,7 +19013,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>01/01/2002</t>
+          <t>01/12/2002</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="D744" t="n">
-        <v>27239</v>
+        <v>24957</v>
       </c>
       <c r="E744" t="inlineStr">
         <is>
@@ -19038,7 +19038,7 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>01/07/2002</t>
+          <t>01/02/2002</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
@@ -19052,7 +19052,7 @@
         </is>
       </c>
       <c r="D745" t="n">
-        <v>25911</v>
+        <v>24096</v>
       </c>
       <c r="E745" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>01/06/2002</t>
+          <t>01/01/2002</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
@@ -19077,7 +19077,7 @@
         </is>
       </c>
       <c r="D746" t="n">
-        <v>24854</v>
+        <v>27239</v>
       </c>
       <c r="E746" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>01/05/2002</t>
+          <t>01/07/2002</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
@@ -19102,7 +19102,7 @@
         </is>
       </c>
       <c r="D747" t="n">
-        <v>24983</v>
+        <v>25911</v>
       </c>
       <c r="E747" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>01/03/2002</t>
+          <t>01/06/2002</t>
         </is>
       </c>
       <c r="B748" t="inlineStr">
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D748" t="n">
-        <v>25381</v>
+        <v>24854</v>
       </c>
       <c r="E748" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>01/11/2002</t>
+          <t>01/05/2002</t>
         </is>
       </c>
       <c r="B749" t="inlineStr">
@@ -19152,7 +19152,7 @@
         </is>
       </c>
       <c r="D749" t="n">
-        <v>24648</v>
+        <v>24983</v>
       </c>
       <c r="E749" t="inlineStr">
         <is>
@@ -19163,7 +19163,7 @@
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>01/10/2002</t>
+          <t>01/03/2002</t>
         </is>
       </c>
       <c r="B750" t="inlineStr">
@@ -19177,7 +19177,7 @@
         </is>
       </c>
       <c r="D750" t="n">
-        <v>24992</v>
+        <v>25381</v>
       </c>
       <c r="E750" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>01/09/2002</t>
+          <t>01/11/2002</t>
         </is>
       </c>
       <c r="B751" t="inlineStr">
@@ -19202,7 +19202,7 @@
         </is>
       </c>
       <c r="D751" t="n">
-        <v>24400</v>
+        <v>24648</v>
       </c>
       <c r="E751" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>01/04/2003</t>
+          <t>01/10/2002</t>
         </is>
       </c>
       <c r="B752" t="inlineStr">
@@ -19227,7 +19227,7 @@
         </is>
       </c>
       <c r="D752" t="n">
-        <v>20841</v>
+        <v>24992</v>
       </c>
       <c r="E752" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>01/08/2003</t>
+          <t>01/09/2002</t>
         </is>
       </c>
       <c r="B753" t="inlineStr">
@@ -19252,7 +19252,7 @@
         </is>
       </c>
       <c r="D753" t="n">
-        <v>25463</v>
+        <v>24400</v>
       </c>
       <c r="E753" t="inlineStr">
         <is>
@@ -19263,7 +19263,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>01/12/2003</t>
+          <t>01/04/2003</t>
         </is>
       </c>
       <c r="B754" t="inlineStr">
@@ -19277,7 +19277,7 @@
         </is>
       </c>
       <c r="D754" t="n">
-        <v>24965</v>
+        <v>20841</v>
       </c>
       <c r="E754" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>01/02/2003</t>
+          <t>01/08/2003</t>
         </is>
       </c>
       <c r="B755" t="inlineStr">
@@ -19302,7 +19302,7 @@
         </is>
       </c>
       <c r="D755" t="n">
-        <v>20388</v>
+        <v>25463</v>
       </c>
       <c r="E755" t="inlineStr">
         <is>
@@ -19313,7 +19313,7 @@
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>01/01/2003</t>
+          <t>01/12/2003</t>
         </is>
       </c>
       <c r="B756" t="inlineStr">
@@ -19327,7 +19327,7 @@
         </is>
       </c>
       <c r="D756" t="n">
-        <v>24971</v>
+        <v>24965</v>
       </c>
       <c r="E756" t="inlineStr">
         <is>
@@ -19338,7 +19338,7 @@
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>01/07/2003</t>
+          <t>01/02/2003</t>
         </is>
       </c>
       <c r="B757" t="inlineStr">
@@ -19352,7 +19352,7 @@
         </is>
       </c>
       <c r="D757" t="n">
-        <v>23560</v>
+        <v>20388</v>
       </c>
       <c r="E757" t="inlineStr">
         <is>
@@ -19363,7 +19363,7 @@
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>01/06/2003</t>
+          <t>01/01/2003</t>
         </is>
       </c>
       <c r="B758" t="inlineStr">
@@ -19377,7 +19377,7 @@
         </is>
       </c>
       <c r="D758" t="n">
-        <v>22761</v>
+        <v>24971</v>
       </c>
       <c r="E758" t="inlineStr">
         <is>
@@ -19388,7 +19388,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>01/05/2003</t>
+          <t>01/07/2003</t>
         </is>
       </c>
       <c r="B759" t="inlineStr">
@@ -19402,7 +19402,7 @@
         </is>
       </c>
       <c r="D759" t="n">
-        <v>23510</v>
+        <v>23560</v>
       </c>
       <c r="E759" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>01/03/2003</t>
+          <t>01/06/2003</t>
         </is>
       </c>
       <c r="B760" t="inlineStr">
@@ -19427,7 +19427,7 @@
         </is>
       </c>
       <c r="D760" t="n">
-        <v>25907</v>
+        <v>22761</v>
       </c>
       <c r="E760" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>01/11/2003</t>
+          <t>01/05/2003</t>
         </is>
       </c>
       <c r="B761" t="inlineStr">
@@ -19452,7 +19452,7 @@
         </is>
       </c>
       <c r="D761" t="n">
-        <v>24041</v>
+        <v>23510</v>
       </c>
       <c r="E761" t="inlineStr">
         <is>
@@ -19463,7 +19463,7 @@
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>01/10/2003</t>
+          <t>01/03/2003</t>
         </is>
       </c>
       <c r="B762" t="inlineStr">
@@ -19477,7 +19477,7 @@
         </is>
       </c>
       <c r="D762" t="n">
-        <v>24023</v>
+        <v>25907</v>
       </c>
       <c r="E762" t="inlineStr">
         <is>
@@ -19488,7 +19488,7 @@
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>01/09/2003</t>
+          <t>01/11/2003</t>
         </is>
       </c>
       <c r="B763" t="inlineStr">
@@ -19502,7 +19502,7 @@
         </is>
       </c>
       <c r="D763" t="n">
-        <v>24294</v>
+        <v>24041</v>
       </c>
       <c r="E763" t="inlineStr">
         <is>
@@ -19513,7 +19513,7 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>01/04/2004</t>
+          <t>01/10/2003</t>
         </is>
       </c>
       <c r="B764" t="inlineStr">
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D764" t="n">
-        <v>24411</v>
+        <v>24023</v>
       </c>
       <c r="E764" t="inlineStr">
         <is>
@@ -19538,7 +19538,7 @@
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>01/08/2004</t>
+          <t>01/09/2003</t>
         </is>
       </c>
       <c r="B765" t="inlineStr">
@@ -19552,7 +19552,7 @@
         </is>
       </c>
       <c r="D765" t="n">
-        <v>25873</v>
+        <v>24294</v>
       </c>
       <c r="E765" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>01/12/2004</t>
+          <t>01/04/2004</t>
         </is>
       </c>
       <c r="B766" t="inlineStr">
@@ -19577,7 +19577,7 @@
         </is>
       </c>
       <c r="D766" t="n">
-        <v>25343</v>
+        <v>24411</v>
       </c>
       <c r="E766" t="inlineStr">
         <is>
@@ -19588,7 +19588,7 @@
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>01/02/2004</t>
+          <t>01/08/2004</t>
         </is>
       </c>
       <c r="B767" t="inlineStr">
@@ -19602,7 +19602,7 @@
         </is>
       </c>
       <c r="D767" t="n">
-        <v>23497</v>
+        <v>25873</v>
       </c>
       <c r="E767" t="inlineStr">
         <is>
@@ -19613,7 +19613,7 @@
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>01/01/2004</t>
+          <t>01/12/2004</t>
         </is>
       </c>
       <c r="B768" t="inlineStr">
@@ -19627,7 +19627,7 @@
         </is>
       </c>
       <c r="D768" t="n">
-        <v>23975</v>
+        <v>25343</v>
       </c>
       <c r="E768" t="inlineStr">
         <is>
@@ -19638,7 +19638,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>01/02/2004</t>
         </is>
       </c>
       <c r="B769" t="inlineStr">
@@ -19652,7 +19652,7 @@
         </is>
       </c>
       <c r="D769" t="n">
-        <v>24979</v>
+        <v>23497</v>
       </c>
       <c r="E769" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>01/06/2004</t>
+          <t>01/01/2004</t>
         </is>
       </c>
       <c r="B770" t="inlineStr">
@@ -19677,7 +19677,7 @@
         </is>
       </c>
       <c r="D770" t="n">
-        <v>23413</v>
+        <v>23975</v>
       </c>
       <c r="E770" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>01/05/2004</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="B771" t="inlineStr">
@@ -19702,7 +19702,7 @@
         </is>
       </c>
       <c r="D771" t="n">
-        <v>21313</v>
+        <v>24979</v>
       </c>
       <c r="E771" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>01/03/2004</t>
+          <t>01/06/2004</t>
         </is>
       </c>
       <c r="B772" t="inlineStr">
@@ -19727,7 +19727,7 @@
         </is>
       </c>
       <c r="D772" t="n">
-        <v>25118</v>
+        <v>23413</v>
       </c>
       <c r="E772" t="inlineStr">
         <is>
@@ -19738,7 +19738,7 @@
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>01/11/2004</t>
+          <t>01/05/2004</t>
         </is>
       </c>
       <c r="B773" t="inlineStr">
@@ -19752,7 +19752,7 @@
         </is>
       </c>
       <c r="D773" t="n">
-        <v>24463</v>
+        <v>21313</v>
       </c>
       <c r="E773" t="inlineStr">
         <is>
@@ -19763,7 +19763,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>01/10/2004</t>
+          <t>01/03/2004</t>
         </is>
       </c>
       <c r="B774" t="inlineStr">
@@ -19777,7 +19777,7 @@
         </is>
       </c>
       <c r="D774" t="n">
-        <v>25566</v>
+        <v>25118</v>
       </c>
       <c r="E774" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>01/09/2004</t>
+          <t>01/11/2004</t>
         </is>
       </c>
       <c r="B775" t="inlineStr">
@@ -19802,7 +19802,7 @@
         </is>
       </c>
       <c r="D775" t="n">
-        <v>24720</v>
+        <v>24463</v>
       </c>
       <c r="E775" t="inlineStr">
         <is>
@@ -19813,7 +19813,7 @@
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>01/04/2005</t>
+          <t>01/10/2004</t>
         </is>
       </c>
       <c r="B776" t="inlineStr">
@@ -19827,7 +19827,7 @@
         </is>
       </c>
       <c r="D776" t="n">
-        <v>23924</v>
+        <v>25566</v>
       </c>
       <c r="E776" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>01/08/2005</t>
+          <t>01/09/2004</t>
         </is>
       </c>
       <c r="B777" t="inlineStr">
@@ -19852,7 +19852,7 @@
         </is>
       </c>
       <c r="D777" t="n">
-        <v>25213</v>
+        <v>24720</v>
       </c>
       <c r="E777" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>01/12/2005</t>
+          <t>01/04/2005</t>
         </is>
       </c>
       <c r="B778" t="inlineStr">
@@ -19877,7 +19877,7 @@
         </is>
       </c>
       <c r="D778" t="n">
-        <v>24602</v>
+        <v>23924</v>
       </c>
       <c r="E778" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>01/02/2005</t>
+          <t>01/08/2005</t>
         </is>
       </c>
       <c r="B779" t="inlineStr">
@@ -19902,7 +19902,7 @@
         </is>
       </c>
       <c r="D779" t="n">
-        <v>22710</v>
+        <v>25213</v>
       </c>
       <c r="E779" t="inlineStr">
         <is>
@@ -19913,7 +19913,7 @@
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>01/01/2005</t>
+          <t>01/12/2005</t>
         </is>
       </c>
       <c r="B780" t="inlineStr">
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D780" t="n">
-        <v>24972</v>
+        <v>24602</v>
       </c>
       <c r="E780" t="inlineStr">
         <is>
@@ -19938,7 +19938,7 @@
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>01/07/2005</t>
+          <t>01/02/2005</t>
         </is>
       </c>
       <c r="B781" t="inlineStr">
@@ -19952,7 +19952,7 @@
         </is>
       </c>
       <c r="D781" t="n">
-        <v>25582</v>
+        <v>22710</v>
       </c>
       <c r="E781" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>01/06/2005</t>
+          <t>01/01/2005</t>
         </is>
       </c>
       <c r="B782" t="inlineStr">
@@ -19977,7 +19977,7 @@
         </is>
       </c>
       <c r="D782" t="n">
-        <v>24359</v>
+        <v>24972</v>
       </c>
       <c r="E782" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>01/05/2005</t>
+          <t>01/07/2005</t>
         </is>
       </c>
       <c r="B783" t="inlineStr">
@@ -20002,7 +20002,7 @@
         </is>
       </c>
       <c r="D783" t="n">
-        <v>24053</v>
+        <v>25582</v>
       </c>
       <c r="E783" t="inlineStr">
         <is>
@@ -20013,7 +20013,7 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>01/03/2005</t>
+          <t>01/06/2005</t>
         </is>
       </c>
       <c r="B784" t="inlineStr">
@@ -20027,7 +20027,7 @@
         </is>
       </c>
       <c r="D784" t="n">
-        <v>24836</v>
+        <v>24359</v>
       </c>
       <c r="E784" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>01/11/2005</t>
+          <t>01/05/2005</t>
         </is>
       </c>
       <c r="B785" t="inlineStr">
@@ -20052,7 +20052,7 @@
         </is>
       </c>
       <c r="D785" t="n">
-        <v>24169</v>
+        <v>24053</v>
       </c>
       <c r="E785" t="inlineStr">
         <is>
@@ -20063,7 +20063,7 @@
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>01/10/2005</t>
+          <t>01/03/2005</t>
         </is>
       </c>
       <c r="B786" t="inlineStr">
@@ -20077,7 +20077,7 @@
         </is>
       </c>
       <c r="D786" t="n">
-        <v>26281</v>
+        <v>24836</v>
       </c>
       <c r="E786" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>01/09/2005</t>
+          <t>01/11/2005</t>
         </is>
       </c>
       <c r="B787" t="inlineStr">
@@ -20102,7 +20102,7 @@
         </is>
       </c>
       <c r="D787" t="n">
-        <v>24180</v>
+        <v>24169</v>
       </c>
       <c r="E787" t="inlineStr">
         <is>
@@ -20113,7 +20113,7 @@
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>01/04/2006</t>
+          <t>01/10/2005</t>
         </is>
       </c>
       <c r="B788" t="inlineStr">
@@ -20127,7 +20127,7 @@
         </is>
       </c>
       <c r="D788" t="n">
-        <v>24527</v>
+        <v>26281</v>
       </c>
       <c r="E788" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>01/08/2006</t>
+          <t>01/09/2005</t>
         </is>
       </c>
       <c r="B789" t="inlineStr">
@@ -20152,7 +20152,7 @@
         </is>
       </c>
       <c r="D789" t="n">
-        <v>25491</v>
+        <v>24180</v>
       </c>
       <c r="E789" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>01/12/2006</t>
+          <t>01/04/2006</t>
         </is>
       </c>
       <c r="B790" t="inlineStr">
@@ -20177,7 +20177,7 @@
         </is>
       </c>
       <c r="D790" t="n">
-        <v>25271</v>
+        <v>24527</v>
       </c>
       <c r="E790" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>01/02/2006</t>
+          <t>01/08/2006</t>
         </is>
       </c>
       <c r="B791" t="inlineStr">
@@ -20202,7 +20202,7 @@
         </is>
       </c>
       <c r="D791" t="n">
-        <v>23056</v>
+        <v>25491</v>
       </c>
       <c r="E791" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>01/01/2006</t>
+          <t>01/12/2006</t>
         </is>
       </c>
       <c r="B792" t="inlineStr">
@@ -20227,7 +20227,7 @@
         </is>
       </c>
       <c r="D792" t="n">
-        <v>24843</v>
+        <v>25271</v>
       </c>
       <c r="E792" t="inlineStr">
         <is>
@@ -20238,7 +20238,7 @@
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>01/07/2006</t>
+          <t>01/02/2006</t>
         </is>
       </c>
       <c r="B793" t="inlineStr">
@@ -20252,7 +20252,7 @@
         </is>
       </c>
       <c r="D793" t="n">
-        <v>25344</v>
+        <v>23056</v>
       </c>
       <c r="E793" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>01/06/2006</t>
+          <t>01/01/2006</t>
         </is>
       </c>
       <c r="B794" t="inlineStr">
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D794" t="n">
-        <v>25090</v>
+        <v>24843</v>
       </c>
       <c r="E794" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>01/05/2006</t>
+          <t>01/07/2006</t>
         </is>
       </c>
       <c r="B795" t="inlineStr">
@@ -20302,7 +20302,7 @@
         </is>
       </c>
       <c r="D795" t="n">
-        <v>25719</v>
+        <v>25344</v>
       </c>
       <c r="E795" t="inlineStr">
         <is>
@@ -20313,7 +20313,7 @@
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>01/03/2006</t>
+          <t>01/06/2006</t>
         </is>
       </c>
       <c r="B796" t="inlineStr">
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D796" t="n">
-        <v>11740</v>
+        <v>25090</v>
       </c>
       <c r="E796" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>01/11/2006</t>
+          <t>01/05/2006</t>
         </is>
       </c>
       <c r="B797" t="inlineStr">
@@ -20352,7 +20352,7 @@
         </is>
       </c>
       <c r="D797" t="n">
-        <v>23278</v>
+        <v>25719</v>
       </c>
       <c r="E797" t="inlineStr">
         <is>
@@ -20363,7 +20363,7 @@
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>01/10/2006</t>
+          <t>01/03/2006</t>
         </is>
       </c>
       <c r="B798" t="inlineStr">
@@ -20377,7 +20377,7 @@
         </is>
       </c>
       <c r="D798" t="n">
-        <v>23622</v>
+        <v>11740</v>
       </c>
       <c r="E798" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>01/09/2006</t>
+          <t>01/11/2006</t>
         </is>
       </c>
       <c r="B799" t="inlineStr">
@@ -20402,7 +20402,7 @@
         </is>
       </c>
       <c r="D799" t="n">
-        <v>24562</v>
+        <v>23278</v>
       </c>
       <c r="E799" t="inlineStr">
         <is>
@@ -20413,7 +20413,7 @@
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>01/04/2007</t>
+          <t>01/10/2006</t>
         </is>
       </c>
       <c r="B800" t="inlineStr">
@@ -20427,7 +20427,7 @@
         </is>
       </c>
       <c r="D800" t="n">
-        <v>21384</v>
+        <v>23622</v>
       </c>
       <c r="E800" t="inlineStr">
         <is>
@@ -20438,7 +20438,7 @@
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>01/08/2007</t>
+          <t>01/09/2006</t>
         </is>
       </c>
       <c r="B801" t="inlineStr">
@@ -20452,7 +20452,7 @@
         </is>
       </c>
       <c r="D801" t="n">
-        <v>23805</v>
+        <v>24562</v>
       </c>
       <c r="E801" t="inlineStr">
         <is>
@@ -20463,7 +20463,7 @@
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>01/12/2007</t>
+          <t>01/04/2007</t>
         </is>
       </c>
       <c r="B802" t="inlineStr">
@@ -20477,7 +20477,7 @@
         </is>
       </c>
       <c r="D802" t="n">
-        <v>22898</v>
+        <v>21384</v>
       </c>
       <c r="E802" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>01/02/2007</t>
+          <t>01/08/2007</t>
         </is>
       </c>
       <c r="B803" t="inlineStr">
@@ -20502,7 +20502,7 @@
         </is>
       </c>
       <c r="D803" t="n">
-        <v>21968</v>
+        <v>23805</v>
       </c>
       <c r="E803" t="inlineStr">
         <is>
@@ -20513,7 +20513,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>01/01/2007</t>
+          <t>01/12/2007</t>
         </is>
       </c>
       <c r="B804" t="inlineStr">
@@ -20527,7 +20527,7 @@
         </is>
       </c>
       <c r="D804" t="n">
-        <v>25496</v>
+        <v>22898</v>
       </c>
       <c r="E804" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>01/07/2007</t>
+          <t>01/02/2007</t>
         </is>
       </c>
       <c r="B805" t="inlineStr">
@@ -20552,7 +20552,7 @@
         </is>
       </c>
       <c r="D805" t="n">
-        <v>23875</v>
+        <v>21968</v>
       </c>
       <c r="E805" t="inlineStr">
         <is>
@@ -20563,7 +20563,7 @@
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>01/06/2007</t>
+          <t>01/01/2007</t>
         </is>
       </c>
       <c r="B806" t="inlineStr">
@@ -20577,7 +20577,7 @@
         </is>
       </c>
       <c r="D806" t="n">
-        <v>22080</v>
+        <v>25496</v>
       </c>
       <c r="E806" t="inlineStr">
         <is>
@@ -20588,7 +20588,7 @@
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>01/05/2007</t>
+          <t>01/07/2007</t>
         </is>
       </c>
       <c r="B807" t="inlineStr">
@@ -20602,7 +20602,7 @@
         </is>
       </c>
       <c r="D807" t="n">
-        <v>18737</v>
+        <v>23875</v>
       </c>
       <c r="E807" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>01/03/2007</t>
+          <t>01/06/2007</t>
         </is>
       </c>
       <c r="B808" t="inlineStr">
@@ -20627,7 +20627,7 @@
         </is>
       </c>
       <c r="D808" t="n">
-        <v>24212</v>
+        <v>22080</v>
       </c>
       <c r="E808" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>01/11/2007</t>
+          <t>01/05/2007</t>
         </is>
       </c>
       <c r="B809" t="inlineStr">
@@ -20652,7 +20652,7 @@
         </is>
       </c>
       <c r="D809" t="n">
-        <v>22033</v>
+        <v>18737</v>
       </c>
       <c r="E809" t="inlineStr">
         <is>
@@ -20663,7 +20663,7 @@
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>01/10/2007</t>
+          <t>01/03/2007</t>
         </is>
       </c>
       <c r="B810" t="inlineStr">
@@ -20677,7 +20677,7 @@
         </is>
       </c>
       <c r="D810" t="n">
-        <v>23866</v>
+        <v>24212</v>
       </c>
       <c r="E810" t="inlineStr">
         <is>
@@ -20688,7 +20688,7 @@
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>01/09/2007</t>
+          <t>01/11/2007</t>
         </is>
       </c>
       <c r="B811" t="inlineStr">
@@ -20702,7 +20702,7 @@
         </is>
       </c>
       <c r="D811" t="n">
-        <v>24017</v>
+        <v>22033</v>
       </c>
       <c r="E811" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>01/04/2008</t>
+          <t>01/10/2007</t>
         </is>
       </c>
       <c r="B812" t="inlineStr">
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D812" t="n">
-        <v>22341</v>
+        <v>23866</v>
       </c>
       <c r="E812" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>01/08/2008</t>
+          <t>01/09/2007</t>
         </is>
       </c>
       <c r="B813" t="inlineStr">
@@ -20752,7 +20752,7 @@
         </is>
       </c>
       <c r="D813" t="n">
-        <v>23413.9993</v>
+        <v>24017</v>
       </c>
       <c r="E813" t="inlineStr">
         <is>
@@ -20763,7 +20763,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>01/12/2008</t>
+          <t>01/04/2008</t>
         </is>
       </c>
       <c r="B814" t="inlineStr">
@@ -20777,7 +20777,7 @@
         </is>
       </c>
       <c r="D814" t="n">
-        <v>21243.0011</v>
+        <v>22341</v>
       </c>
       <c r="E814" t="inlineStr">
         <is>
@@ -20788,7 +20788,7 @@
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>01/02/2008</t>
+          <t>01/08/2008</t>
         </is>
       </c>
       <c r="B815" t="inlineStr">
@@ -20802,7 +20802,7 @@
         </is>
       </c>
       <c r="D815" t="n">
-        <v>20461</v>
+        <v>23413.9993</v>
       </c>
       <c r="E815" t="inlineStr">
         <is>
@@ -20813,7 +20813,7 @@
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>01/01/2008</t>
+          <t>01/12/2008</t>
         </is>
       </c>
       <c r="B816" t="inlineStr">
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="D816" t="n">
-        <v>22454</v>
+        <v>21243.0011</v>
       </c>
       <c r="E816" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>01/07/2008</t>
+          <t>01/02/2008</t>
         </is>
       </c>
       <c r="B817" t="inlineStr">
@@ -20852,7 +20852,7 @@
         </is>
       </c>
       <c r="D817" t="n">
-        <v>22084.0001</v>
+        <v>20461</v>
       </c>
       <c r="E817" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>01/06/2008</t>
+          <t>01/01/2008</t>
         </is>
       </c>
       <c r="B818" t="inlineStr">
@@ -20877,7 +20877,7 @@
         </is>
       </c>
       <c r="D818" t="n">
-        <v>21446.001</v>
+        <v>22454</v>
       </c>
       <c r="E818" t="inlineStr">
         <is>
@@ -20888,7 +20888,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>01/05/2008</t>
+          <t>01/07/2008</t>
         </is>
       </c>
       <c r="B819" t="inlineStr">
@@ -20902,7 +20902,7 @@
         </is>
       </c>
       <c r="D819" t="n">
-        <v>22333</v>
+        <v>22084.0001</v>
       </c>
       <c r="E819" t="inlineStr">
         <is>
@@ -20913,7 +20913,7 @@
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>01/03/2008</t>
+          <t>01/06/2008</t>
         </is>
       </c>
       <c r="B820" t="inlineStr">
@@ -20927,7 +20927,7 @@
         </is>
       </c>
       <c r="D820" t="n">
-        <v>22425</v>
+        <v>21446.001</v>
       </c>
       <c r="E820" t="inlineStr">
         <is>
@@ -20938,7 +20938,7 @@
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>01/11/2008</t>
+          <t>01/05/2008</t>
         </is>
       </c>
       <c r="B821" t="inlineStr">
@@ -20952,7 +20952,7 @@
         </is>
       </c>
       <c r="D821" t="n">
-        <v>20454</v>
+        <v>22333</v>
       </c>
       <c r="E821" t="inlineStr">
         <is>
@@ -20963,7 +20963,7 @@
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>01/03/2008</t>
         </is>
       </c>
       <c r="B822" t="inlineStr">
@@ -20977,7 +20977,7 @@
         </is>
       </c>
       <c r="D822" t="n">
-        <v>19738.9989</v>
+        <v>22425</v>
       </c>
       <c r="E822" t="inlineStr">
         <is>
@@ -20988,7 +20988,7 @@
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>01/09/2008</t>
+          <t>01/11/2008</t>
         </is>
       </c>
       <c r="B823" t="inlineStr">
@@ -21002,7 +21002,7 @@
         </is>
       </c>
       <c r="D823" t="n">
-        <v>21581.001</v>
+        <v>20454</v>
       </c>
       <c r="E823" t="inlineStr">
         <is>
@@ -21013,7 +21013,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>01/04/2009</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="B824" t="inlineStr">
@@ -21027,7 +21027,7 @@
         </is>
       </c>
       <c r="D824" t="n">
-        <v>20352.999</v>
+        <v>19738.9989</v>
       </c>
       <c r="E824" t="inlineStr">
         <is>
@@ -21038,7 +21038,7 @@
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>01/08/2009</t>
+          <t>01/09/2008</t>
         </is>
       </c>
       <c r="B825" t="inlineStr">
@@ -21052,7 +21052,7 @@
         </is>
       </c>
       <c r="D825" t="n">
-        <v>19636.0014</v>
+        <v>21581.001</v>
       </c>
       <c r="E825" t="inlineStr">
         <is>
@@ -21063,7 +21063,7 @@
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>01/12/2009</t>
+          <t>01/04/2009</t>
         </is>
       </c>
       <c r="B826" t="inlineStr">
@@ -21077,7 +21077,7 @@
         </is>
       </c>
       <c r="D826" t="n">
-        <v>20058.9995</v>
+        <v>20352.999</v>
       </c>
       <c r="E826" t="inlineStr">
         <is>
@@ -21088,7 +21088,7 @@
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>01/02/2009</t>
+          <t>01/08/2009</t>
         </is>
       </c>
       <c r="B827" t="inlineStr">
@@ -21102,7 +21102,7 @@
         </is>
       </c>
       <c r="D827" t="n">
-        <v>18858.9996</v>
+        <v>19636.0014</v>
       </c>
       <c r="E827" t="inlineStr">
         <is>
@@ -21113,7 +21113,7 @@
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>01/01/2009</t>
+          <t>01/12/2009</t>
         </is>
       </c>
       <c r="B828" t="inlineStr">
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D828" t="n">
-        <v>22225.0005</v>
+        <v>20058.9995</v>
       </c>
       <c r="E828" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>01/07/2009</t>
+          <t>01/02/2009</t>
         </is>
       </c>
       <c r="B829" t="inlineStr">
@@ -21152,7 +21152,7 @@
         </is>
       </c>
       <c r="D829" t="n">
-        <v>20578.0015</v>
+        <v>18858.9996</v>
       </c>
       <c r="E829" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>01/06/2009</t>
+          <t>01/01/2009</t>
         </is>
       </c>
       <c r="B830" t="inlineStr">
@@ -21177,7 +21177,7 @@
         </is>
       </c>
       <c r="D830" t="n">
-        <v>20096.001</v>
+        <v>22225.0005</v>
       </c>
       <c r="E830" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>01/05/2009</t>
+          <t>01/07/2009</t>
         </is>
       </c>
       <c r="B831" t="inlineStr">
@@ -21202,7 +21202,7 @@
         </is>
       </c>
       <c r="D831" t="n">
-        <v>20487.001</v>
+        <v>20578.0015</v>
       </c>
       <c r="E831" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>01/03/2009</t>
+          <t>01/06/2009</t>
         </is>
       </c>
       <c r="B832" t="inlineStr">
@@ -21227,7 +21227,7 @@
         </is>
       </c>
       <c r="D832" t="n">
-        <v>21078.9987</v>
+        <v>20096.001</v>
       </c>
       <c r="E832" t="inlineStr">
         <is>
@@ -21238,7 +21238,7 @@
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>01/11/2009</t>
+          <t>01/05/2009</t>
         </is>
       </c>
       <c r="B833" t="inlineStr">
@@ -21252,7 +21252,7 @@
         </is>
       </c>
       <c r="D833" t="n">
-        <v>19530</v>
+        <v>20487.001</v>
       </c>
       <c r="E833" t="inlineStr">
         <is>
@@ -21263,7 +21263,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>01/10/2009</t>
+          <t>01/03/2009</t>
         </is>
       </c>
       <c r="B834" t="inlineStr">
@@ -21277,7 +21277,7 @@
         </is>
       </c>
       <c r="D834" t="n">
-        <v>19538.0011</v>
+        <v>21078.9987</v>
       </c>
       <c r="E834" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>01/09/2009</t>
+          <t>01/11/2009</t>
         </is>
       </c>
       <c r="B835" t="inlineStr">
@@ -21302,7 +21302,7 @@
         </is>
       </c>
       <c r="D835" t="n">
-        <v>19464</v>
+        <v>19530</v>
       </c>
       <c r="E835" t="inlineStr">
         <is>
@@ -21313,7 +21313,7 @@
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>01/04/2010</t>
+          <t>01/10/2009</t>
         </is>
       </c>
       <c r="B836" t="inlineStr">
@@ -21327,7 +21327,7 @@
         </is>
       </c>
       <c r="D836" t="n">
-        <v>18477</v>
+        <v>19538.0011</v>
       </c>
       <c r="E836" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>01/08/2010</t>
+          <t>01/09/2009</t>
         </is>
       </c>
       <c r="B837" t="inlineStr">
@@ -21352,7 +21352,7 @@
         </is>
       </c>
       <c r="D837" t="n">
-        <v>19472</v>
+        <v>19464</v>
       </c>
       <c r="E837" t="inlineStr">
         <is>
@@ -21363,7 +21363,7 @@
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>01/12/2010</t>
+          <t>01/04/2010</t>
         </is>
       </c>
       <c r="B838" t="inlineStr">
@@ -21377,7 +21377,7 @@
         </is>
       </c>
       <c r="D838" t="n">
-        <v>19253</v>
+        <v>18477</v>
       </c>
       <c r="E838" t="inlineStr">
         <is>
@@ -21388,7 +21388,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>01/02/2010</t>
+          <t>01/08/2010</t>
         </is>
       </c>
       <c r="B839" t="inlineStr">
@@ -21402,7 +21402,7 @@
         </is>
       </c>
       <c r="D839" t="n">
-        <v>17250</v>
+        <v>19472</v>
       </c>
       <c r="E839" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>01/01/2010</t>
+          <t>01/12/2010</t>
         </is>
       </c>
       <c r="B840" t="inlineStr">
@@ -21427,7 +21427,7 @@
         </is>
       </c>
       <c r="D840" t="n">
-        <v>19822</v>
+        <v>19253</v>
       </c>
       <c r="E840" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>01/07/2010</t>
+          <t>01/02/2010</t>
         </is>
       </c>
       <c r="B841" t="inlineStr">
@@ -21452,7 +21452,7 @@
         </is>
       </c>
       <c r="D841" t="n">
-        <v>19943</v>
+        <v>17250</v>
       </c>
       <c r="E841" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>01/06/2010</t>
+          <t>01/01/2010</t>
         </is>
       </c>
       <c r="B842" t="inlineStr">
@@ -21477,7 +21477,7 @@
         </is>
       </c>
       <c r="D842" t="n">
-        <v>18899</v>
+        <v>19822</v>
       </c>
       <c r="E842" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>01/05/2010</t>
+          <t>01/07/2010</t>
         </is>
       </c>
       <c r="B843" t="inlineStr">
@@ -21502,7 +21502,7 @@
         </is>
       </c>
       <c r="D843" t="n">
-        <v>19225</v>
+        <v>19943</v>
       </c>
       <c r="E843" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>01/03/2010</t>
+          <t>01/06/2010</t>
         </is>
       </c>
       <c r="B844" t="inlineStr">
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D844" t="n">
-        <v>18557</v>
+        <v>18899</v>
       </c>
       <c r="E844" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>01/11/2010</t>
+          <t>01/05/2010</t>
         </is>
       </c>
       <c r="B845" t="inlineStr">
@@ -21552,7 +21552,7 @@
         </is>
       </c>
       <c r="D845" t="n">
-        <v>18252</v>
+        <v>19225</v>
       </c>
       <c r="E845" t="inlineStr">
         <is>
@@ -21563,7 +21563,7 @@
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>01/10/2010</t>
+          <t>01/03/2010</t>
         </is>
       </c>
       <c r="B846" t="inlineStr">
@@ -21577,7 +21577,7 @@
         </is>
       </c>
       <c r="D846" t="n">
-        <v>19679</v>
+        <v>18557</v>
       </c>
       <c r="E846" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>01/09/2010</t>
+          <t>01/11/2010</t>
         </is>
       </c>
       <c r="B847" t="inlineStr">
@@ -21602,7 +21602,7 @@
         </is>
       </c>
       <c r="D847" t="n">
-        <v>18162</v>
+        <v>18252</v>
       </c>
       <c r="E847" t="inlineStr">
         <is>
@@ -21613,7 +21613,7 @@
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>01/04/2011</t>
+          <t>01/10/2010</t>
         </is>
       </c>
       <c r="B848" t="inlineStr">
@@ -21627,7 +21627,7 @@
         </is>
       </c>
       <c r="D848" t="n">
-        <v>14211.9</v>
+        <v>19679</v>
       </c>
       <c r="E848" t="inlineStr">
         <is>
@@ -21638,7 +21638,7 @@
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>01/08/2011</t>
+          <t>01/09/2010</t>
         </is>
       </c>
       <c r="B849" t="inlineStr">
@@ -21652,7 +21652,7 @@
         </is>
       </c>
       <c r="D849" t="n">
-        <v>15656.1</v>
+        <v>18162</v>
       </c>
       <c r="E849" t="inlineStr">
         <is>
@@ -21663,7 +21663,7 @@
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>01/12/2011</t>
+          <t>01/04/2011</t>
         </is>
       </c>
       <c r="B850" t="inlineStr">
@@ -21677,7 +21677,7 @@
         </is>
       </c>
       <c r="D850" t="n">
-        <v>16836.5</v>
+        <v>14211.9</v>
       </c>
       <c r="E850" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>01/02/2011</t>
+          <t>01/08/2011</t>
         </is>
       </c>
       <c r="B851" t="inlineStr">
@@ -21702,7 +21702,7 @@
         </is>
       </c>
       <c r="D851" t="n">
-        <v>15945.6</v>
+        <v>15656.1</v>
       </c>
       <c r="E851" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>01/01/2011</t>
+          <t>01/12/2011</t>
         </is>
       </c>
       <c r="B852" t="inlineStr">
@@ -21727,7 +21727,7 @@
         </is>
       </c>
       <c r="D852" t="n">
-        <v>18522.8</v>
+        <v>16836.5</v>
       </c>
       <c r="E852" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>01/07/2011</t>
+          <t>01/02/2011</t>
         </is>
       </c>
       <c r="B853" t="inlineStr">
@@ -21752,7 +21752,7 @@
         </is>
       </c>
       <c r="D853" t="n">
-        <v>14478.2</v>
+        <v>15945.6</v>
       </c>
       <c r="E853" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>01/06/2011</t>
+          <t>01/01/2011</t>
         </is>
       </c>
       <c r="B854" t="inlineStr">
@@ -21777,7 +21777,7 @@
         </is>
       </c>
       <c r="D854" t="n">
-        <v>15871.3</v>
+        <v>18522.8</v>
       </c>
       <c r="E854" t="inlineStr">
         <is>
@@ -21788,7 +21788,7 @@
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>01/05/2011</t>
+          <t>01/07/2011</t>
         </is>
       </c>
       <c r="B855" t="inlineStr">
@@ -21802,7 +21802,7 @@
         </is>
       </c>
       <c r="D855" t="n">
-        <v>17668.9</v>
+        <v>14478.2</v>
       </c>
       <c r="E855" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>01/03/2011</t>
+          <t>01/06/2011</t>
         </is>
       </c>
       <c r="B856" t="inlineStr">
@@ -21827,7 +21827,7 @@
         </is>
       </c>
       <c r="D856" t="n">
-        <v>10940.8</v>
+        <v>15871.3</v>
       </c>
       <c r="E856" t="inlineStr">
         <is>
@@ -21838,7 +21838,7 @@
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>01/11/2011</t>
+          <t>01/05/2011</t>
         </is>
       </c>
       <c r="B857" t="inlineStr">
@@ -21852,7 +21852,7 @@
         </is>
       </c>
       <c r="D857" t="n">
-        <v>15787.4</v>
+        <v>17668.9</v>
       </c>
       <c r="E857" t="inlineStr">
         <is>
@@ -21863,7 +21863,7 @@
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>01/10/2011</t>
+          <t>01/03/2011</t>
         </is>
       </c>
       <c r="B858" t="inlineStr">
@@ -21877,7 +21877,7 @@
         </is>
       </c>
       <c r="D858" t="n">
-        <v>16134.4</v>
+        <v>10940.8</v>
       </c>
       <c r="E858" t="inlineStr">
         <is>
@@ -21888,7 +21888,7 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>01/09/2011</t>
+          <t>01/11/2011</t>
         </is>
       </c>
       <c r="B859" t="inlineStr">
@@ -21902,7 +21902,7 @@
         </is>
       </c>
       <c r="D859" t="n">
-        <v>15096.4</v>
+        <v>15787.4</v>
       </c>
       <c r="E859" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>01/04/2012</t>
+          <t>01/10/2011</t>
         </is>
       </c>
       <c r="B860" t="inlineStr">
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D860" t="n">
-        <v>10707.1</v>
+        <v>16134.4</v>
       </c>
       <c r="E860" t="inlineStr">
         <is>
@@ -21938,7 +21938,7 @@
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>01/08/2012</t>
+          <t>01/09/2011</t>
         </is>
       </c>
       <c r="B861" t="inlineStr">
@@ -21952,7 +21952,7 @@
         </is>
       </c>
       <c r="D861" t="n">
-        <v>16193.1</v>
+        <v>15096.4</v>
       </c>
       <c r="E861" t="inlineStr">
         <is>
@@ -21963,7 +21963,7 @@
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>01/12/2012</t>
+          <t>01/04/2012</t>
         </is>
       </c>
       <c r="B862" t="inlineStr">
@@ -21977,7 +21977,7 @@
         </is>
       </c>
       <c r="D862" t="n">
-        <v>17393.3</v>
+        <v>10707.1</v>
       </c>
       <c r="E862" t="inlineStr">
         <is>
@@ -21988,7 +21988,7 @@
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>01/02/2012</t>
+          <t>01/08/2012</t>
         </is>
       </c>
       <c r="B863" t="inlineStr">
@@ -22002,7 +22002,7 @@
         </is>
       </c>
       <c r="D863" t="n">
-        <v>14260.4</v>
+        <v>16193.1</v>
       </c>
       <c r="E863" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>01/12/2012</t>
         </is>
       </c>
       <c r="B864" t="inlineStr">
@@ -22027,7 +22027,7 @@
         </is>
       </c>
       <c r="D864" t="n">
-        <v>16058.3</v>
+        <v>17393.3</v>
       </c>
       <c r="E864" t="inlineStr">
         <is>
@@ -22038,7 +22038,7 @@
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>01/07/2012</t>
+          <t>01/02/2012</t>
         </is>
       </c>
       <c r="B865" t="inlineStr">
@@ -22052,7 +22052,7 @@
         </is>
       </c>
       <c r="D865" t="n">
-        <v>12701.4</v>
+        <v>14260.4</v>
       </c>
       <c r="E865" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>01/06/2012</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="B866" t="inlineStr">
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D866" t="n">
-        <v>10851.8</v>
+        <v>16058.3</v>
       </c>
       <c r="E866" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>01/05/2012</t>
+          <t>01/07/2012</t>
         </is>
       </c>
       <c r="B867" t="inlineStr">
@@ -22102,7 +22102,7 @@
         </is>
       </c>
       <c r="D867" t="n">
-        <v>10692</v>
+        <v>12701.4</v>
       </c>
       <c r="E867" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>01/03/2012</t>
+          <t>01/06/2012</t>
         </is>
       </c>
       <c r="B868" t="inlineStr">
@@ -22127,7 +22127,7 @@
         </is>
       </c>
       <c r="D868" t="n">
-        <v>14311.3</v>
+        <v>10851.8</v>
       </c>
       <c r="E868" t="inlineStr">
         <is>
@@ -22138,7 +22138,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>01/11/2012</t>
+          <t>01/05/2012</t>
         </is>
       </c>
       <c r="B869" t="inlineStr">
@@ -22152,7 +22152,7 @@
         </is>
       </c>
       <c r="D869" t="n">
-        <v>16574.9</v>
+        <v>10692</v>
       </c>
       <c r="E869" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>01/10/2012</t>
+          <t>01/03/2012</t>
         </is>
       </c>
       <c r="B870" t="inlineStr">
@@ -22177,7 +22177,7 @@
         </is>
       </c>
       <c r="D870" t="n">
-        <v>13682.2</v>
+        <v>14311.3</v>
       </c>
       <c r="E870" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>01/09/2012</t>
+          <t>01/11/2012</t>
         </is>
       </c>
       <c r="B871" t="inlineStr">
@@ -22202,7 +22202,7 @@
         </is>
       </c>
       <c r="D871" t="n">
-        <v>12246</v>
+        <v>16574.9</v>
       </c>
       <c r="E871" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>01/04/2013</t>
+          <t>01/10/2012</t>
         </is>
       </c>
       <c r="B872" t="inlineStr">
@@ -22227,7 +22227,7 @@
         </is>
       </c>
       <c r="D872" t="n">
-        <v>15186.2</v>
+        <v>13682.2</v>
       </c>
       <c r="E872" t="inlineStr">
         <is>
@@ -22238,7 +22238,7 @@
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>01/08/2013</t>
+          <t>01/09/2012</t>
         </is>
       </c>
       <c r="B873" t="inlineStr">
@@ -22252,7 +22252,7 @@
         </is>
       </c>
       <c r="D873" t="n">
-        <v>14998.4</v>
+        <v>12246</v>
       </c>
       <c r="E873" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>01/12/2013</t>
+          <t>01/04/2013</t>
         </is>
       </c>
       <c r="B874" t="inlineStr">
@@ -22277,7 +22277,7 @@
         </is>
       </c>
       <c r="D874" t="n">
-        <v>15576.1</v>
+        <v>15186.2</v>
       </c>
       <c r="E874" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>01/02/2013</t>
+          <t>01/08/2013</t>
         </is>
       </c>
       <c r="B875" t="inlineStr">
@@ -22302,7 +22302,7 @@
         </is>
       </c>
       <c r="D875" t="n">
-        <v>14992.1</v>
+        <v>14998.4</v>
       </c>
       <c r="E875" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/12/2013</t>
         </is>
       </c>
       <c r="B876" t="inlineStr">
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D876" t="n">
-        <v>16653.1</v>
+        <v>15576.1</v>
       </c>
       <c r="E876" t="inlineStr">
         <is>
@@ -22338,7 +22338,7 @@
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>01/07/2013</t>
+          <t>01/02/2013</t>
         </is>
       </c>
       <c r="B877" t="inlineStr">
@@ -22352,7 +22352,7 @@
         </is>
       </c>
       <c r="D877" t="n">
-        <v>15326.3</v>
+        <v>14992.1</v>
       </c>
       <c r="E877" t="inlineStr">
         <is>
@@ -22363,7 +22363,7 @@
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>01/06/2013</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="B878" t="inlineStr">
@@ -22377,7 +22377,7 @@
         </is>
       </c>
       <c r="D878" t="n">
-        <v>15355.6</v>
+        <v>16653.1</v>
       </c>
       <c r="E878" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>01/05/2013</t>
+          <t>01/07/2013</t>
         </is>
       </c>
       <c r="B879" t="inlineStr">
@@ -22402,7 +22402,7 @@
         </is>
       </c>
       <c r="D879" t="n">
-        <v>14825.2</v>
+        <v>15326.3</v>
       </c>
       <c r="E879" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>01/03/2013</t>
+          <t>01/06/2013</t>
         </is>
       </c>
       <c r="B880" t="inlineStr">
@@ -22427,7 +22427,7 @@
         </is>
       </c>
       <c r="D880" t="n">
-        <v>15537.2</v>
+        <v>15355.6</v>
       </c>
       <c r="E880" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>01/11/2013</t>
+          <t>01/05/2013</t>
         </is>
       </c>
       <c r="B881" t="inlineStr">
@@ -22452,7 +22452,7 @@
         </is>
       </c>
       <c r="D881" t="n">
-        <v>14997.2</v>
+        <v>14825.2</v>
       </c>
       <c r="E881" t="inlineStr">
         <is>
@@ -22463,7 +22463,7 @@
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>01/03/2013</t>
         </is>
       </c>
       <c r="B882" t="inlineStr">
@@ -22477,7 +22477,7 @@
         </is>
       </c>
       <c r="D882" t="n">
-        <v>14495.7</v>
+        <v>15537.2</v>
       </c>
       <c r="E882" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>01/09/2013</t>
+          <t>01/11/2013</t>
         </is>
       </c>
       <c r="B883" t="inlineStr">
@@ -22502,7 +22502,7 @@
         </is>
       </c>
       <c r="D883" t="n">
-        <v>14777.2</v>
+        <v>14997.2</v>
       </c>
       <c r="E883" t="inlineStr">
         <is>
@@ -22513,7 +22513,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>01/04/2014</t>
+          <t>01/10/2013</t>
         </is>
       </c>
       <c r="B884" t="inlineStr">
@@ -22527,7 +22527,7 @@
         </is>
       </c>
       <c r="D884" t="n">
-        <v>15228.7</v>
+        <v>14495.7</v>
       </c>
       <c r="E884" t="inlineStr">
         <is>
@@ -22538,7 +22538,7 @@
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>01/08/2014</t>
+          <t>01/09/2013</t>
         </is>
       </c>
       <c r="B885" t="inlineStr">
@@ -22552,7 +22552,7 @@
         </is>
       </c>
       <c r="D885" t="n">
-        <v>14545.5</v>
+        <v>14777.2</v>
       </c>
       <c r="E885" t="inlineStr">
         <is>
@@ -22563,7 +22563,7 @@
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>01/12/2014</t>
+          <t>01/04/2014</t>
         </is>
       </c>
       <c r="B886" t="inlineStr">
@@ -22577,7 +22577,7 @@
         </is>
       </c>
       <c r="D886" t="n">
-        <v>13264.2</v>
+        <v>15228.7</v>
       </c>
       <c r="E886" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>01/02/2014</t>
+          <t>01/08/2014</t>
         </is>
       </c>
       <c r="B887" t="inlineStr">
@@ -22602,7 +22602,7 @@
         </is>
       </c>
       <c r="D887" t="n">
-        <v>13542.3</v>
+        <v>14545.5</v>
       </c>
       <c r="E887" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/12/2014</t>
         </is>
       </c>
       <c r="B888" t="inlineStr">
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="D888" t="n">
-        <v>15019.1</v>
+        <v>13264.2</v>
       </c>
       <c r="E888" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
+          <t>01/02/2014</t>
         </is>
       </c>
       <c r="B889" t="inlineStr">
@@ -22652,7 +22652,7 @@
         </is>
       </c>
       <c r="D889" t="n">
-        <v>14900.7</v>
+        <v>13542.3</v>
       </c>
       <c r="E889" t="inlineStr">
         <is>
@@ -22663,7 +22663,7 @@
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>01/06/2014</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="B890" t="inlineStr">
@@ -22677,7 +22677,7 @@
         </is>
       </c>
       <c r="D890" t="n">
-        <v>14977.9</v>
+        <v>15019.1</v>
       </c>
       <c r="E890" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>01/05/2014</t>
+          <t>01/07/2014</t>
         </is>
       </c>
       <c r="B891" t="inlineStr">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="D891" t="n">
-        <v>16141.5</v>
+        <v>14900.7</v>
       </c>
       <c r="E891" t="inlineStr">
         <is>
@@ -22713,7 +22713,7 @@
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>01/03/2014</t>
+          <t>01/06/2014</t>
         </is>
       </c>
       <c r="B892" t="inlineStr">
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D892" t="n">
-        <v>15178.7</v>
+        <v>14977.9</v>
       </c>
       <c r="E892" t="inlineStr">
         <is>
@@ -22738,7 +22738,7 @@
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>01/11/2014</t>
+          <t>01/05/2014</t>
         </is>
       </c>
       <c r="B893" t="inlineStr">
@@ -22752,7 +22752,7 @@
         </is>
       </c>
       <c r="D893" t="n">
-        <v>11227.8</v>
+        <v>16141.5</v>
       </c>
       <c r="E893" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>01/10/2014</t>
+          <t>01/03/2014</t>
         </is>
       </c>
       <c r="B894" t="inlineStr">
@@ -22777,7 +22777,7 @@
         </is>
       </c>
       <c r="D894" t="n">
-        <v>14384.8</v>
+        <v>15178.7</v>
       </c>
       <c r="E894" t="inlineStr">
         <is>
@@ -22788,7 +22788,7 @@
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>01/09/2014</t>
+          <t>01/11/2014</t>
         </is>
       </c>
       <c r="B895" t="inlineStr">
@@ -22802,7 +22802,7 @@
         </is>
       </c>
       <c r="D895" t="n">
-        <v>13936.6</v>
+        <v>11227.8</v>
       </c>
       <c r="E895" t="inlineStr">
         <is>
@@ -22813,7 +22813,7 @@
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>01/04/2015</t>
+          <t>01/10/2014</t>
         </is>
       </c>
       <c r="B896" t="inlineStr">
@@ -22827,7 +22827,7 @@
         </is>
       </c>
       <c r="D896" t="n">
-        <v>13917.8</v>
+        <v>14384.8</v>
       </c>
       <c r="E896" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>01/08/2015</t>
+          <t>01/09/2014</t>
         </is>
       </c>
       <c r="B897" t="inlineStr">
@@ -22852,7 +22852,7 @@
         </is>
       </c>
       <c r="D897" t="n">
-        <v>11403.3</v>
+        <v>13936.6</v>
       </c>
       <c r="E897" t="inlineStr">
         <is>
@@ -22863,7 +22863,7 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>01/12/2015</t>
+          <t>01/04/2015</t>
         </is>
       </c>
       <c r="B898" t="inlineStr">
@@ -22877,7 +22877,7 @@
         </is>
       </c>
       <c r="D898" t="n">
-        <v>9425.700000000001</v>
+        <v>13917.8</v>
       </c>
       <c r="E898" t="inlineStr">
         <is>
@@ -22888,7 +22888,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>01/02/2015</t>
+          <t>01/08/2015</t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
@@ -22902,7 +22902,7 @@
         </is>
       </c>
       <c r="D899" t="n">
-        <v>13004.4</v>
+        <v>11403.3</v>
       </c>
       <c r="E899" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/12/2015</t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
@@ -22927,7 +22927,7 @@
         </is>
       </c>
       <c r="D900" t="n">
-        <v>14478.2</v>
+        <v>9425.700000000001</v>
       </c>
       <c r="E900" t="inlineStr">
         <is>
@@ -22938,7 +22938,7 @@
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>01/07/2015</t>
+          <t>01/02/2015</t>
         </is>
       </c>
       <c r="B901" t="inlineStr">
@@ -22952,7 +22952,7 @@
         </is>
       </c>
       <c r="D901" t="n">
-        <v>11946.4</v>
+        <v>13004.4</v>
       </c>
       <c r="E901" t="inlineStr">
         <is>
@@ -22963,7 +22963,7 @@
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>01/06/2015</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="B902" t="inlineStr">
@@ -22977,7 +22977,7 @@
         </is>
       </c>
       <c r="D902" t="n">
-        <v>12385.6</v>
+        <v>14478.2</v>
       </c>
       <c r="E902" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>01/05/2015</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="B903" t="inlineStr">
@@ -23002,7 +23002,7 @@
         </is>
       </c>
       <c r="D903" t="n">
-        <v>12823.9</v>
+        <v>11946.4</v>
       </c>
       <c r="E903" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>01/03/2015</t>
+          <t>01/06/2015</t>
         </is>
       </c>
       <c r="B904" t="inlineStr">
@@ -23027,7 +23027,7 @@
         </is>
       </c>
       <c r="D904" t="n">
-        <v>14916.8</v>
+        <v>12385.6</v>
       </c>
       <c r="E904" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>01/11/2015</t>
+          <t>01/05/2015</t>
         </is>
       </c>
       <c r="B905" t="inlineStr">
@@ -23052,7 +23052,7 @@
         </is>
       </c>
       <c r="D905" t="n">
-        <v>5361.7</v>
+        <v>12823.9</v>
       </c>
       <c r="E905" t="inlineStr">
         <is>
@@ -23063,7 +23063,7 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/03/2015</t>
         </is>
       </c>
       <c r="B906" t="inlineStr">
@@ -23077,7 +23077,7 @@
         </is>
       </c>
       <c r="D906" t="n">
-        <v>11384.7</v>
+        <v>14916.8</v>
       </c>
       <c r="E906" t="inlineStr">
         <is>
@@ -23088,7 +23088,7 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>01/09/2015</t>
+          <t>01/11/2015</t>
         </is>
       </c>
       <c r="B907" t="inlineStr">
@@ -23102,7 +23102,7 @@
         </is>
       </c>
       <c r="D907" t="n">
-        <v>11927.3</v>
+        <v>5361.7</v>
       </c>
       <c r="E907" t="inlineStr">
         <is>
@@ -23113,7 +23113,7 @@
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>01/04/2016</t>
+          <t>01/10/2015</t>
         </is>
       </c>
       <c r="B908" t="inlineStr">
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D908" t="n">
-        <v>9074.1</v>
+        <v>11384.7</v>
       </c>
       <c r="E908" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>01/08/2016</t>
+          <t>01/09/2015</t>
         </is>
       </c>
       <c r="B909" t="inlineStr">
@@ -23152,7 +23152,7 @@
         </is>
       </c>
       <c r="D909" t="n">
-        <v>9273.799999999999</v>
+        <v>11927.3</v>
       </c>
       <c r="E909" t="inlineStr">
         <is>
@@ -23163,7 +23163,7 @@
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>01/12/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="B910" t="inlineStr">
@@ -23177,7 +23177,7 @@
         </is>
       </c>
       <c r="D910" t="n">
-        <v>3213.5</v>
+        <v>9074.1</v>
       </c>
       <c r="E910" t="inlineStr">
         <is>
@@ -23188,7 +23188,7 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>01/02/2016</t>
+          <t>01/08/2016</t>
         </is>
       </c>
       <c r="B911" t="inlineStr">
@@ -23202,7 +23202,7 @@
         </is>
       </c>
       <c r="D911" t="n">
-        <v>8886.4</v>
+        <v>9273.799999999999</v>
       </c>
       <c r="E911" t="inlineStr">
         <is>
@@ -23213,7 +23213,7 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/12/2016</t>
         </is>
       </c>
       <c r="B912" t="inlineStr">
@@ -23227,7 +23227,7 @@
         </is>
       </c>
       <c r="D912" t="n">
-        <v>9118.200000000001</v>
+        <v>3213.5</v>
       </c>
       <c r="E912" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
+          <t>01/02/2016</t>
         </is>
       </c>
       <c r="B913" t="inlineStr">
@@ -23252,7 +23252,7 @@
         </is>
       </c>
       <c r="D913" t="n">
-        <v>9093.799999999999</v>
+        <v>8886.4</v>
       </c>
       <c r="E913" t="inlineStr">
         <is>
@@ -23263,7 +23263,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>01/06/2016</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="B914" t="inlineStr">
@@ -23277,7 +23277,7 @@
         </is>
       </c>
       <c r="D914" t="n">
-        <v>8134.5</v>
+        <v>9118.200000000001</v>
       </c>
       <c r="E914" t="inlineStr">
         <is>
@@ -23288,7 +23288,7 @@
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>01/05/2016</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="B915" t="inlineStr">
@@ -23302,7 +23302,7 @@
         </is>
       </c>
       <c r="D915" t="n">
-        <v>9412.299999999999</v>
+        <v>9093.799999999999</v>
       </c>
       <c r="E915" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>01/03/2016</t>
+          <t>01/06/2016</t>
         </is>
       </c>
       <c r="B916" t="inlineStr">
@@ -23327,7 +23327,7 @@
         </is>
       </c>
       <c r="D916" t="n">
-        <v>9861.1</v>
+        <v>8134.5</v>
       </c>
       <c r="E916" t="inlineStr">
         <is>
@@ -23338,7 +23338,7 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>01/11/2016</t>
+          <t>01/05/2016</t>
         </is>
       </c>
       <c r="B917" t="inlineStr">
@@ -23352,7 +23352,7 @@
         </is>
       </c>
       <c r="D917" t="n">
-        <v>7657.6</v>
+        <v>9412.299999999999</v>
       </c>
       <c r="E917" t="inlineStr">
         <is>
@@ -23363,7 +23363,7 @@
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/03/2016</t>
         </is>
       </c>
       <c r="B918" t="inlineStr">
@@ -23377,7 +23377,7 @@
         </is>
       </c>
       <c r="D918" t="n">
-        <v>8933.1</v>
+        <v>9861.1</v>
       </c>
       <c r="E918" t="inlineStr">
         <is>
@@ -23388,7 +23388,7 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>01/09/2016</t>
+          <t>01/11/2016</t>
         </is>
       </c>
       <c r="B919" t="inlineStr">
@@ -23402,7 +23402,7 @@
         </is>
       </c>
       <c r="D919" t="n">
-        <v>8977.299999999999</v>
+        <v>7657.6</v>
       </c>
       <c r="E919" t="inlineStr">
         <is>
@@ -23413,7 +23413,7 @@
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>01/04/2017</t>
+          <t>01/10/2016</t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
@@ -23427,7 +23427,7 @@
         </is>
       </c>
       <c r="D920" t="n">
-        <v>6856.1</v>
+        <v>8933.1</v>
       </c>
       <c r="E920" t="inlineStr">
         <is>
@@ -23438,7 +23438,7 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>01/08/2017</t>
+          <t>01/09/2016</t>
         </is>
       </c>
       <c r="B921" t="inlineStr">
@@ -23452,7 +23452,7 @@
         </is>
       </c>
       <c r="D921" t="n">
-        <v>7185.4</v>
+        <v>8977.299999999999</v>
       </c>
       <c r="E921" t="inlineStr">
         <is>
@@ -23463,7 +23463,7 @@
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>01/12/2017</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="B922" t="inlineStr">
@@ -23477,7 +23477,7 @@
         </is>
       </c>
       <c r="D922" t="n">
-        <v>9617.700000000001</v>
+        <v>6856.1</v>
       </c>
       <c r="E922" t="inlineStr">
         <is>
@@ -23488,7 +23488,7 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>01/02/2017</t>
+          <t>01/08/2017</t>
         </is>
       </c>
       <c r="B923" t="inlineStr">
@@ -23502,7 +23502,7 @@
         </is>
       </c>
       <c r="D923" t="n">
-        <v>6279.5</v>
+        <v>7185.4</v>
       </c>
       <c r="E923" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/12/2017</t>
         </is>
       </c>
       <c r="B924" t="inlineStr">
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D924" t="n">
-        <v>7743.8</v>
+        <v>9617.700000000001</v>
       </c>
       <c r="E924" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
+          <t>01/02/2017</t>
         </is>
       </c>
       <c r="B925" t="inlineStr">
@@ -23552,7 +23552,7 @@
         </is>
       </c>
       <c r="D925" t="n">
-        <v>6753.2</v>
+        <v>6279.5</v>
       </c>
       <c r="E925" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>01/06/2017</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="B926" t="inlineStr">
@@ -23577,7 +23577,7 @@
         </is>
       </c>
       <c r="D926" t="n">
-        <v>6679</v>
+        <v>7743.8</v>
       </c>
       <c r="E926" t="inlineStr">
         <is>
@@ -23588,7 +23588,7 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>01/05/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="B927" t="inlineStr">
@@ -23602,7 +23602,7 @@
         </is>
       </c>
       <c r="D927" t="n">
-        <v>6777</v>
+        <v>6753.2</v>
       </c>
       <c r="E927" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>01/03/2017</t>
+          <t>01/06/2017</t>
         </is>
       </c>
       <c r="B928" t="inlineStr">
@@ -23627,7 +23627,7 @@
         </is>
       </c>
       <c r="D928" t="n">
-        <v>7180</v>
+        <v>6679</v>
       </c>
       <c r="E928" t="inlineStr">
         <is>
@@ -23638,7 +23638,7 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>01/11/2017</t>
+          <t>01/05/2017</t>
         </is>
       </c>
       <c r="B929" t="inlineStr">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="D929" t="n">
-        <v>7720.9</v>
+        <v>6777</v>
       </c>
       <c r="E929" t="inlineStr">
         <is>
@@ -23663,7 +23663,7 @@
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/03/2017</t>
         </is>
       </c>
       <c r="B930" t="inlineStr">
@@ -23677,7 +23677,7 @@
         </is>
       </c>
       <c r="D930" t="n">
-        <v>7765.07</v>
+        <v>7180</v>
       </c>
       <c r="E930" t="inlineStr">
         <is>
@@ -23688,7 +23688,7 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>01/09/2017</t>
+          <t>01/11/2017</t>
         </is>
       </c>
       <c r="B931" t="inlineStr">
@@ -23702,7 +23702,7 @@
         </is>
       </c>
       <c r="D931" t="n">
-        <v>7191.4</v>
+        <v>7720.9</v>
       </c>
       <c r="E931" t="inlineStr">
         <is>
@@ -23713,7 +23713,7 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>01/04/2018</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="B932" t="inlineStr">
@@ -23727,7 +23727,7 @@
         </is>
       </c>
       <c r="D932" t="n">
-        <v>6020</v>
+        <v>7765.07</v>
       </c>
       <c r="E932" t="inlineStr">
         <is>
@@ -23738,7 +23738,7 @@
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>01/08/2018</t>
+          <t>01/09/2017</t>
         </is>
       </c>
       <c r="B933" t="inlineStr">
@@ -23752,7 +23752,7 @@
         </is>
       </c>
       <c r="D933" t="n">
-        <v>5969</v>
+        <v>7191.4</v>
       </c>
       <c r="E933" t="inlineStr">
         <is>
@@ -23763,7 +23763,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>01/12/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="B934" t="inlineStr">
@@ -23777,7 +23777,7 @@
         </is>
       </c>
       <c r="D934" t="n">
-        <v>6061</v>
+        <v>6020</v>
       </c>
       <c r="E934" t="inlineStr">
         <is>
@@ -23788,7 +23788,7 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>01/02/2018</t>
+          <t>01/08/2018</t>
         </is>
       </c>
       <c r="B935" t="inlineStr">
@@ -23802,7 +23802,7 @@
         </is>
       </c>
       <c r="D935" t="n">
-        <v>6141.6</v>
+        <v>5969</v>
       </c>
       <c r="E935" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/12/2018</t>
         </is>
       </c>
       <c r="B936" t="inlineStr">
@@ -23827,7 +23827,7 @@
         </is>
       </c>
       <c r="D936" t="n">
-        <v>7289.478</v>
+        <v>6061</v>
       </c>
       <c r="E936" t="inlineStr">
         <is>
@@ -23838,7 +23838,7 @@
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>01/02/2018</t>
         </is>
       </c>
       <c r="B937" t="inlineStr">
@@ -23852,7 +23852,7 @@
         </is>
       </c>
       <c r="D937" t="n">
-        <v>5621.504</v>
+        <v>6141.6</v>
       </c>
       <c r="E937" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>01/06/2018</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="B938" t="inlineStr">
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D938" t="n">
-        <v>5487.042</v>
+        <v>7289.478</v>
       </c>
       <c r="E938" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>01/05/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="B939" t="inlineStr">
@@ -23902,7 +23902,7 @@
         </is>
       </c>
       <c r="D939" t="n">
-        <v>5549.7</v>
+        <v>5621.504</v>
       </c>
       <c r="E939" t="inlineStr">
         <is>
@@ -23913,7 +23913,7 @@
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>01/03/2018</t>
+          <t>01/06/2018</t>
         </is>
       </c>
       <c r="B940" t="inlineStr">
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D940" t="n">
-        <v>6426.258</v>
+        <v>5487.042</v>
       </c>
       <c r="E940" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>01/11/2018</t>
+          <t>01/05/2018</t>
         </is>
       </c>
       <c r="B941" t="inlineStr">
@@ -23952,7 +23952,7 @@
         </is>
       </c>
       <c r="D941" t="n">
-        <v>5685.5</v>
+        <v>5549.7</v>
       </c>
       <c r="E941" t="inlineStr">
         <is>
@@ -23963,7 +23963,7 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/03/2018</t>
         </is>
       </c>
       <c r="B942" t="inlineStr">
@@ -23977,7 +23977,7 @@
         </is>
       </c>
       <c r="D942" t="n">
-        <v>5916.66</v>
+        <v>6426.258</v>
       </c>
       <c r="E942" t="inlineStr">
         <is>
@@ -23988,7 +23988,7 @@
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>01/09/2018</t>
+          <t>01/11/2018</t>
         </is>
       </c>
       <c r="B943" t="inlineStr">
@@ -24002,7 +24002,7 @@
         </is>
       </c>
       <c r="D943" t="n">
-        <v>5970.399</v>
+        <v>5685.5</v>
       </c>
       <c r="E943" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="B944" t="inlineStr">
@@ -24027,7 +24027,7 @@
         </is>
       </c>
       <c r="D944" t="n">
-        <v>5391.2</v>
+        <v>5916.66</v>
       </c>
       <c r="E944" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>01/08/2019</t>
+          <t>01/09/2018</t>
         </is>
       </c>
       <c r="B945" t="inlineStr">
@@ -24052,7 +24052,7 @@
         </is>
       </c>
       <c r="D945" t="n">
-        <v>4054.5</v>
+        <v>5970.399</v>
       </c>
       <c r="E945" t="inlineStr">
         <is>
@@ -24063,7 +24063,7 @@
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>01/12/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="B946" t="inlineStr">
@@ -24077,7 +24077,7 @@
         </is>
       </c>
       <c r="D946" t="n">
-        <v>4830.4</v>
+        <v>5391.2</v>
       </c>
       <c r="E946" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>01/02/2019</t>
+          <t>01/08/2019</t>
         </is>
       </c>
       <c r="B947" t="inlineStr">
@@ -24102,7 +24102,7 @@
         </is>
       </c>
       <c r="D947" t="n">
-        <v>3997.1</v>
+        <v>4054.5</v>
       </c>
       <c r="E947" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/12/2019</t>
         </is>
       </c>
       <c r="B948" t="inlineStr">
@@ -24127,7 +24127,7 @@
         </is>
       </c>
       <c r="D948" t="n">
-        <v>5711.1</v>
+        <v>4830.4</v>
       </c>
       <c r="E948" t="inlineStr">
         <is>
@@ -24138,7 +24138,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/02/2019</t>
         </is>
       </c>
       <c r="B949" t="inlineStr">
@@ -24152,7 +24152,7 @@
         </is>
       </c>
       <c r="D949" t="n">
-        <v>4524.82</v>
+        <v>3997.1</v>
       </c>
       <c r="E949" t="inlineStr">
         <is>
@@ -24163,7 +24163,7 @@
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>01/06/2019</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="B950" t="inlineStr">
@@ -24177,7 +24177,7 @@
         </is>
       </c>
       <c r="D950" t="n">
-        <v>4716.577</v>
+        <v>5711.1</v>
       </c>
       <c r="E950" t="inlineStr">
         <is>
@@ -24188,7 +24188,7 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>01/05/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="B951" t="inlineStr">
@@ -24202,7 +24202,7 @@
         </is>
       </c>
       <c r="D951" t="n">
-        <v>5361.2</v>
+        <v>4524.82</v>
       </c>
       <c r="E951" t="inlineStr">
         <is>
@@ -24213,7 +24213,7 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>01/03/2019</t>
+          <t>01/06/2019</t>
         </is>
       </c>
       <c r="B952" t="inlineStr">
@@ -24227,7 +24227,7 @@
         </is>
       </c>
       <c r="D952" t="n">
-        <v>4734.9</v>
+        <v>4716.577</v>
       </c>
       <c r="E952" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>01/11/2019</t>
+          <t>01/05/2019</t>
         </is>
       </c>
       <c r="B953" t="inlineStr">
@@ -24252,7 +24252,7 @@
         </is>
       </c>
       <c r="D953" t="n">
-        <v>3812.4</v>
+        <v>5361.2</v>
       </c>
       <c r="E953" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/03/2019</t>
         </is>
       </c>
       <c r="B954" t="inlineStr">
@@ -24277,7 +24277,7 @@
         </is>
       </c>
       <c r="D954" t="n">
-        <v>4339.8</v>
+        <v>4734.9</v>
       </c>
       <c r="E954" t="inlineStr">
         <is>
@@ -24288,7 +24288,7 @@
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>01/09/2019</t>
+          <t>01/11/2019</t>
         </is>
       </c>
       <c r="B955" t="inlineStr">
@@ -24302,7 +24302,7 @@
         </is>
       </c>
       <c r="D955" t="n">
-        <v>3820.9</v>
+        <v>3812.4</v>
       </c>
       <c r="E955" t="inlineStr">
         <is>
@@ -24313,7 +24313,7 @@
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="B956" t="inlineStr">
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D956" t="n">
-        <v>0</v>
+        <v>4339.8</v>
       </c>
       <c r="E956" t="inlineStr">
         <is>
@@ -24338,7 +24338,7 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>01/08/2020</t>
+          <t>01/09/2019</t>
         </is>
       </c>
       <c r="B957" t="inlineStr">
@@ -24352,7 +24352,7 @@
         </is>
       </c>
       <c r="D957" t="n">
-        <v>0</v>
+        <v>3820.9</v>
       </c>
       <c r="E957" t="inlineStr">
         <is>
@@ -24363,7 +24363,7 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>01/12/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="B958" t="inlineStr">
@@ -24388,7 +24388,7 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>01/02/2020</t>
+          <t>01/08/2020</t>
         </is>
       </c>
       <c r="B959" t="inlineStr">
@@ -24402,7 +24402,7 @@
         </is>
       </c>
       <c r="D959" t="n">
-        <v>5762.358</v>
+        <v>0</v>
       </c>
       <c r="E959" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/12/2020</t>
         </is>
       </c>
       <c r="B960" t="inlineStr">
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="D960" t="n">
-        <v>5560.337</v>
+        <v>0</v>
       </c>
       <c r="E960" t="inlineStr">
         <is>
@@ -24438,7 +24438,7 @@
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/02/2020</t>
         </is>
       </c>
       <c r="B961" t="inlineStr">
@@ -24452,7 +24452,7 @@
         </is>
       </c>
       <c r="D961" t="n">
-        <v>0</v>
+        <v>5762.358</v>
       </c>
       <c r="E961" t="inlineStr">
         <is>
@@ -24463,7 +24463,7 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>01/06/2020</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="B962" t="inlineStr">
@@ -24477,7 +24477,7 @@
         </is>
       </c>
       <c r="D962" t="n">
-        <v>0</v>
+        <v>5560.337</v>
       </c>
       <c r="E962" t="inlineStr">
         <is>
@@ -24488,7 +24488,7 @@
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>01/05/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="B963" t="inlineStr">
@@ -24513,7 +24513,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>01/03/2020</t>
+          <t>01/06/2020</t>
         </is>
       </c>
       <c r="B964" t="inlineStr">
@@ -24527,7 +24527,7 @@
         </is>
       </c>
       <c r="D964" t="n">
-        <v>5496</v>
+        <v>0</v>
       </c>
       <c r="E964" t="inlineStr">
         <is>
@@ -24538,7 +24538,7 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>01/11/2020</t>
+          <t>01/05/2020</t>
         </is>
       </c>
       <c r="B965" t="inlineStr">
@@ -24563,7 +24563,7 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/03/2020</t>
         </is>
       </c>
       <c r="B966" t="inlineStr">
@@ -24577,7 +24577,7 @@
         </is>
       </c>
       <c r="D966" t="n">
-        <v>0</v>
+        <v>5496</v>
       </c>
       <c r="E966" t="inlineStr">
         <is>
@@ -24588,7 +24588,7 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>01/09/2020</t>
+          <t>01/11/2020</t>
         </is>
       </c>
       <c r="B967" t="inlineStr">
@@ -24613,7 +24613,7 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="B968" t="inlineStr">
@@ -24638,7 +24638,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>01/08/2021</t>
+          <t>01/09/2020</t>
         </is>
       </c>
       <c r="B969" t="inlineStr">
@@ -24663,7 +24663,7 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>01/12/2021</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="B970" t="inlineStr">
@@ -24688,7 +24688,7 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>01/02/2021</t>
+          <t>01/08/2021</t>
         </is>
       </c>
       <c r="B971" t="inlineStr">
@@ -24713,7 +24713,7 @@
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/12/2021</t>
         </is>
       </c>
       <c r="B972" t="inlineStr">
@@ -24738,7 +24738,7 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/02/2021</t>
         </is>
       </c>
       <c r="B973" t="inlineStr">
@@ -24763,7 +24763,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>01/06/2021</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="B974" t="inlineStr">
@@ -24788,7 +24788,7 @@
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>01/05/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="B975" t="inlineStr">
@@ -24813,7 +24813,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>01/03/2021</t>
+          <t>01/06/2021</t>
         </is>
       </c>
       <c r="B976" t="inlineStr">
@@ -24838,7 +24838,7 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>01/11/2021</t>
+          <t>01/05/2021</t>
         </is>
       </c>
       <c r="B977" t="inlineStr">
@@ -24863,7 +24863,7 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/03/2021</t>
         </is>
       </c>
       <c r="B978" t="inlineStr">
@@ -24888,7 +24888,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>01/09/2021</t>
+          <t>01/11/2021</t>
         </is>
       </c>
       <c r="B979" t="inlineStr">
@@ -24913,7 +24913,7 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="B980" t="inlineStr">
@@ -24938,7 +24938,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>01/08/2022</t>
+          <t>01/09/2021</t>
         </is>
       </c>
       <c r="B981" t="inlineStr">
@@ -24963,7 +24963,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>01/12/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="B982" t="inlineStr">
@@ -24988,7 +24988,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>01/02/2022</t>
+          <t>01/08/2022</t>
         </is>
       </c>
       <c r="B983" t="inlineStr">
@@ -25013,7 +25013,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/12/2022</t>
         </is>
       </c>
       <c r="B984" t="inlineStr">
@@ -25038,7 +25038,7 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/02/2022</t>
         </is>
       </c>
       <c r="B985" t="inlineStr">
@@ -25063,7 +25063,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>01/06/2022</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="B986" t="inlineStr">
@@ -25088,7 +25088,7 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>01/05/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="B987" t="inlineStr">
@@ -25113,7 +25113,7 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>01/03/2022</t>
+          <t>01/06/2022</t>
         </is>
       </c>
       <c r="B988" t="inlineStr">
@@ -25138,7 +25138,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>01/11/2022</t>
+          <t>01/05/2022</t>
         </is>
       </c>
       <c r="B989" t="inlineStr">
@@ -25163,7 +25163,7 @@
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/03/2022</t>
         </is>
       </c>
       <c r="B990" t="inlineStr">
@@ -25188,7 +25188,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>01/09/2022</t>
+          <t>01/11/2022</t>
         </is>
       </c>
       <c r="B991" t="inlineStr">
@@ -25213,7 +25213,7 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="B992" t="inlineStr">
@@ -25238,7 +25238,7 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01/09/2022</t>
         </is>
       </c>
       <c r="B993" t="inlineStr">
@@ -25263,7 +25263,7 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="B994" t="inlineStr">
@@ -25288,7 +25288,7 @@
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>01/02/2023</t>
+          <t>01/08/2023</t>
         </is>
       </c>
       <c r="B995" t="inlineStr">
@@ -25313,7 +25313,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="B996" t="inlineStr">
@@ -25338,7 +25338,7 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/02/2023</t>
         </is>
       </c>
       <c r="B997" t="inlineStr">
@@ -25363,7 +25363,7 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>01/06/2023</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="B998" t="inlineStr">
@@ -25388,7 +25388,7 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>01/05/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="B999" t="inlineStr">
@@ -25413,7 +25413,7 @@
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>01/03/2023</t>
+          <t>01/06/2023</t>
         </is>
       </c>
       <c r="B1000" t="inlineStr">
@@ -25438,7 +25438,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>01/11/2023</t>
+          <t>01/05/2023</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr">
@@ -25463,7 +25463,7 @@
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/03/2023</t>
         </is>
       </c>
       <c r="B1002" t="inlineStr">
@@ -25488,7 +25488,7 @@
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>01/09/2023</t>
+          <t>01/11/2023</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr">
@@ -25513,7 +25513,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="B1004" t="inlineStr">
@@ -25538,7 +25538,7 @@
     <row r="1005">
       <c r="A1005" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>01/09/2023</t>
         </is>
       </c>
       <c r="B1005" t="inlineStr">
@@ -25563,7 +25563,7 @@
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>01/12/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr">
@@ -25588,7 +25588,7 @@
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>01/02/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B1007" t="inlineStr">
@@ -25613,7 +25613,7 @@
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/12/2024</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr">
@@ -25638,7 +25638,7 @@
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
+          <t>01/02/2024</t>
         </is>
       </c>
       <c r="B1009" t="inlineStr">
@@ -25663,7 +25663,7 @@
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>01/06/2024</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="B1010" t="inlineStr">
@@ -25688,7 +25688,7 @@
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>01/05/2024</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr">
@@ -25713,7 +25713,7 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>01/03/2024</t>
+          <t>01/06/2024</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr">
@@ -25738,7 +25738,7 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>01/11/2024</t>
+          <t>01/05/2024</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr">
@@ -25763,7 +25763,7 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>01/10/2024</t>
+          <t>01/03/2024</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr">
@@ -25788,7 +25788,7 @@
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>01/09/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="B1015" t="inlineStr">
@@ -25813,7 +25813,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>01/02/2025</t>
+          <t>01/10/2024</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr">
@@ -25838,7 +25838,7 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>01/09/2024</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr">
@@ -25855,6 +25855,106 @@
         <v>0</v>
       </c>
       <c r="E1017" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="inlineStr">
+        <is>
+          <t>01/04/2025</t>
+        </is>
+      </c>
+      <c r="B1018" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C1018" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1018" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="inlineStr">
+        <is>
+          <t>01/02/2025</t>
+        </is>
+      </c>
+      <c r="B1019" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C1019" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1019" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="B1020" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C1020" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1020" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="inlineStr">
+        <is>
+          <t>01/03/2025</t>
+        </is>
+      </c>
+      <c r="B1021" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C1021" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1021" t="inlineStr">
         <is>
           <t>SERGIPE</t>
         </is>

--- a/Data/g8.2.xlsx
+++ b/Data/g8.2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1021"/>
+  <dimension ref="A1:E1030"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17413,7 +17413,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>01/03/2025</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
@@ -17427,7 +17427,7 @@
         </is>
       </c>
       <c r="D680" t="n">
-        <v>9.792</v>
+        <v>29.758</v>
       </c>
       <c r="E680" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>01/03/2025</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
@@ -17452,7 +17452,7 @@
         </is>
       </c>
       <c r="D681" t="n">
-        <v>1796.277</v>
+        <v>2116.76</v>
       </c>
       <c r="E681" t="inlineStr">
         <is>
@@ -17463,21 +17463,21 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>01/04/1997</t>
+          <t>01/06/2025</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA</t>
+          <t>MAR</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t>LGN</t>
+          <t>GÁS NATURAL</t>
         </is>
       </c>
       <c r="D682" t="n">
-        <v>20951</v>
+        <v>32.324</v>
       </c>
       <c r="E682" t="inlineStr">
         <is>
@@ -17488,21 +17488,21 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>01/08/1997</t>
+          <t>01/06/2025</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA</t>
+          <t>TERRA</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>LGN</t>
+          <t>GÁS NATURAL</t>
         </is>
       </c>
       <c r="D683" t="n">
-        <v>24698</v>
+        <v>2155.94</v>
       </c>
       <c r="E683" t="inlineStr">
         <is>
@@ -17513,21 +17513,21 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>01/12/1997</t>
+          <t>01/05/2025</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA</t>
+          <t>MAR</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>LGN</t>
+          <t>GÁS NATURAL</t>
         </is>
       </c>
       <c r="D684" t="n">
-        <v>23230</v>
+        <v>34.575</v>
       </c>
       <c r="E684" t="inlineStr">
         <is>
@@ -17538,21 +17538,21 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>01/02/1997</t>
+          <t>01/05/2025</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA</t>
+          <t>TERRA</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>LGN</t>
+          <t>GÁS NATURAL</t>
         </is>
       </c>
       <c r="D685" t="n">
-        <v>19007</v>
+        <v>2002.332</v>
       </c>
       <c r="E685" t="inlineStr">
         <is>
@@ -17563,21 +17563,21 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>01/01/1997</t>
+          <t>01/03/2025</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA</t>
+          <t>MAR</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t>LGN</t>
+          <t>GÁS NATURAL</t>
         </is>
       </c>
       <c r="D686" t="n">
-        <v>18978</v>
+        <v>9.792</v>
       </c>
       <c r="E686" t="inlineStr">
         <is>
@@ -17588,21 +17588,21 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>01/07/1997</t>
+          <t>01/03/2025</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA</t>
+          <t>TERRA</t>
         </is>
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>LGN</t>
+          <t>GÁS NATURAL</t>
         </is>
       </c>
       <c r="D687" t="n">
-        <v>23232</v>
+        <v>1796.277</v>
       </c>
       <c r="E687" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>01/06/1997</t>
+          <t>01/04/1997</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
@@ -17627,7 +17627,7 @@
         </is>
       </c>
       <c r="D688" t="n">
-        <v>22449</v>
+        <v>20951</v>
       </c>
       <c r="E688" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>01/05/1997</t>
+          <t>01/08/1997</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
@@ -17652,7 +17652,7 @@
         </is>
       </c>
       <c r="D689" t="n">
-        <v>24757</v>
+        <v>24698</v>
       </c>
       <c r="E689" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>01/03/1997</t>
+          <t>01/12/1997</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
@@ -17677,7 +17677,7 @@
         </is>
       </c>
       <c r="D690" t="n">
-        <v>19807</v>
+        <v>23230</v>
       </c>
       <c r="E690" t="inlineStr">
         <is>
@@ -17688,7 +17688,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>01/11/1997</t>
+          <t>01/02/1997</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
@@ -17702,7 +17702,7 @@
         </is>
       </c>
       <c r="D691" t="n">
-        <v>22027</v>
+        <v>19007</v>
       </c>
       <c r="E691" t="inlineStr">
         <is>
@@ -17713,7 +17713,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>01/10/1997</t>
+          <t>01/01/1997</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
@@ -17727,7 +17727,7 @@
         </is>
       </c>
       <c r="D692" t="n">
-        <v>21890</v>
+        <v>18978</v>
       </c>
       <c r="E692" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>01/09/1997</t>
+          <t>01/07/1997</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
@@ -17752,7 +17752,7 @@
         </is>
       </c>
       <c r="D693" t="n">
-        <v>22749</v>
+        <v>23232</v>
       </c>
       <c r="E693" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>01/04/1998</t>
+          <t>01/06/1997</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
@@ -17777,7 +17777,7 @@
         </is>
       </c>
       <c r="D694" t="n">
-        <v>131778.0699</v>
+        <v>22449</v>
       </c>
       <c r="E694" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>01/08/1998</t>
+          <t>01/05/1997</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
@@ -17802,7 +17802,7 @@
         </is>
       </c>
       <c r="D695" t="n">
-        <v>155346.0346</v>
+        <v>24757</v>
       </c>
       <c r="E695" t="inlineStr">
         <is>
@@ -17813,7 +17813,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>01/12/1998</t>
+          <t>01/03/1997</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
@@ -17827,7 +17827,7 @@
         </is>
       </c>
       <c r="D696" t="n">
-        <v>146112.5752</v>
+        <v>19807</v>
       </c>
       <c r="E696" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>01/02/1998</t>
+          <t>01/11/1997</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
@@ -17852,7 +17852,7 @@
         </is>
       </c>
       <c r="D697" t="n">
-        <v>119550.6551</v>
+        <v>22027</v>
       </c>
       <c r="E697" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>01/01/1998</t>
+          <t>01/10/1997</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
@@ -17877,7 +17877,7 @@
         </is>
       </c>
       <c r="D698" t="n">
-        <v>119368.2502</v>
+        <v>21890</v>
       </c>
       <c r="E698" t="inlineStr">
         <is>
@@ -17888,7 +17888,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>01/07/1998</t>
+          <t>01/09/1997</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
@@ -17902,7 +17902,7 @@
         </is>
       </c>
       <c r="D699" t="n">
-        <v>146125.1549</v>
+        <v>22749</v>
       </c>
       <c r="E699" t="inlineStr">
         <is>
@@ -17913,7 +17913,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>01/06/1998</t>
+          <t>01/04/1998</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D700" t="n">
-        <v>141200.2239</v>
+        <v>131778.0699</v>
       </c>
       <c r="E700" t="inlineStr">
         <is>
@@ -17938,7 +17938,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>01/05/1998</t>
+          <t>01/08/1998</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
@@ -17952,7 +17952,7 @@
         </is>
       </c>
       <c r="D701" t="n">
-        <v>155717.1341</v>
+        <v>155346.0346</v>
       </c>
       <c r="E701" t="inlineStr">
         <is>
@@ -17963,7 +17963,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>01/03/1998</t>
+          <t>01/12/1998</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
@@ -17977,7 +17977,7 @@
         </is>
       </c>
       <c r="D702" t="n">
-        <v>124582.513</v>
+        <v>146112.5752</v>
       </c>
       <c r="E702" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>01/11/1998</t>
+          <t>01/02/1998</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
@@ -18002,7 +18002,7 @@
         </is>
       </c>
       <c r="D703" t="n">
-        <v>138545.9188</v>
+        <v>119550.6551</v>
       </c>
       <c r="E703" t="inlineStr">
         <is>
@@ -18013,7 +18013,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>01/10/1998</t>
+          <t>01/01/1998</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
@@ -18027,7 +18027,7 @@
         </is>
       </c>
       <c r="D704" t="n">
-        <v>137684.2132</v>
+        <v>119368.2502</v>
       </c>
       <c r="E704" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>01/09/1998</t>
+          <t>01/07/1998</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
@@ -18052,7 +18052,7 @@
         </is>
       </c>
       <c r="D705" t="n">
-        <v>143087.1706</v>
+        <v>146125.1549</v>
       </c>
       <c r="E705" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>01/04/1999</t>
+          <t>01/06/1998</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
@@ -18077,7 +18077,7 @@
         </is>
       </c>
       <c r="D706" t="n">
-        <v>24546</v>
+        <v>141200.2239</v>
       </c>
       <c r="E706" t="inlineStr">
         <is>
@@ -18088,7 +18088,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>01/08/1999</t>
+          <t>01/05/1998</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
@@ -18102,7 +18102,7 @@
         </is>
       </c>
       <c r="D707" t="n">
-        <v>23247</v>
+        <v>155717.1341</v>
       </c>
       <c r="E707" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>01/12/1999</t>
+          <t>01/03/1998</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
@@ -18127,7 +18127,7 @@
         </is>
       </c>
       <c r="D708" t="n">
-        <v>24640</v>
+        <v>124582.513</v>
       </c>
       <c r="E708" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>01/02/1999</t>
+          <t>01/11/1998</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
@@ -18152,7 +18152,7 @@
         </is>
       </c>
       <c r="D709" t="n">
-        <v>22448</v>
+        <v>138545.9188</v>
       </c>
       <c r="E709" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>01/01/1999</t>
+          <t>01/10/1998</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
@@ -18177,7 +18177,7 @@
         </is>
       </c>
       <c r="D710" t="n">
-        <v>24629</v>
+        <v>137684.2132</v>
       </c>
       <c r="E710" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>01/07/1999</t>
+          <t>01/09/1998</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
@@ -18202,7 +18202,7 @@
         </is>
       </c>
       <c r="D711" t="n">
-        <v>22323</v>
+        <v>143087.1706</v>
       </c>
       <c r="E711" t="inlineStr">
         <is>
@@ -18213,7 +18213,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>01/06/1999</t>
+          <t>01/04/1999</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
@@ -18227,7 +18227,7 @@
         </is>
       </c>
       <c r="D712" t="n">
-        <v>24653</v>
+        <v>24546</v>
       </c>
       <c r="E712" t="inlineStr">
         <is>
@@ -18238,7 +18238,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>01/05/1999</t>
+          <t>01/08/1999</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
@@ -18252,7 +18252,7 @@
         </is>
       </c>
       <c r="D713" t="n">
-        <v>25678</v>
+        <v>23247</v>
       </c>
       <c r="E713" t="inlineStr">
         <is>
@@ -18263,7 +18263,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>01/03/1999</t>
+          <t>01/12/1999</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
@@ -18277,7 +18277,7 @@
         </is>
       </c>
       <c r="D714" t="n">
-        <v>25737</v>
+        <v>24640</v>
       </c>
       <c r="E714" t="inlineStr">
         <is>
@@ -18288,7 +18288,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>01/11/1999</t>
+          <t>01/02/1999</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
@@ -18302,7 +18302,7 @@
         </is>
       </c>
       <c r="D715" t="n">
-        <v>25481</v>
+        <v>22448</v>
       </c>
       <c r="E715" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>01/10/1999</t>
+          <t>01/01/1999</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D716" t="n">
-        <v>25601</v>
+        <v>24629</v>
       </c>
       <c r="E716" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>01/09/1999</t>
+          <t>01/07/1999</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
@@ -18352,7 +18352,7 @@
         </is>
       </c>
       <c r="D717" t="n">
-        <v>24686</v>
+        <v>22323</v>
       </c>
       <c r="E717" t="inlineStr">
         <is>
@@ -18363,7 +18363,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>01/04/2000</t>
+          <t>01/06/1999</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
@@ -18377,7 +18377,7 @@
         </is>
       </c>
       <c r="D718" t="n">
-        <v>25440</v>
+        <v>24653</v>
       </c>
       <c r="E718" t="inlineStr">
         <is>
@@ -18388,7 +18388,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>01/08/2000</t>
+          <t>01/05/1999</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
@@ -18402,7 +18402,7 @@
         </is>
       </c>
       <c r="D719" t="n">
-        <v>27353</v>
+        <v>25678</v>
       </c>
       <c r="E719" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>01/12/2000</t>
+          <t>01/03/1999</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
@@ -18427,7 +18427,7 @@
         </is>
       </c>
       <c r="D720" t="n">
-        <v>26071</v>
+        <v>25737</v>
       </c>
       <c r="E720" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>01/02/2000</t>
+          <t>01/11/1999</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
@@ -18452,7 +18452,7 @@
         </is>
       </c>
       <c r="D721" t="n">
-        <v>25123</v>
+        <v>25481</v>
       </c>
       <c r="E721" t="inlineStr">
         <is>
@@ -18463,7 +18463,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>01/01/2000</t>
+          <t>01/10/1999</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D722" t="n">
-        <v>26480</v>
+        <v>25601</v>
       </c>
       <c r="E722" t="inlineStr">
         <is>
@@ -18488,7 +18488,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>01/07/2000</t>
+          <t>01/09/1999</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
@@ -18502,7 +18502,7 @@
         </is>
       </c>
       <c r="D723" t="n">
-        <v>26914</v>
+        <v>24686</v>
       </c>
       <c r="E723" t="inlineStr">
         <is>
@@ -18513,7 +18513,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>01/06/2000</t>
+          <t>01/04/2000</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
@@ -18527,7 +18527,7 @@
         </is>
       </c>
       <c r="D724" t="n">
-        <v>26044</v>
+        <v>25440</v>
       </c>
       <c r="E724" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>01/05/2000</t>
+          <t>01/08/2000</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
@@ -18552,7 +18552,7 @@
         </is>
       </c>
       <c r="D725" t="n">
-        <v>26406</v>
+        <v>27353</v>
       </c>
       <c r="E725" t="inlineStr">
         <is>
@@ -18563,7 +18563,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>01/03/2000</t>
+          <t>01/12/2000</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
@@ -18577,7 +18577,7 @@
         </is>
       </c>
       <c r="D726" t="n">
-        <v>26572</v>
+        <v>26071</v>
       </c>
       <c r="E726" t="inlineStr">
         <is>
@@ -18588,7 +18588,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>01/11/2000</t>
+          <t>01/02/2000</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
@@ -18602,7 +18602,7 @@
         </is>
       </c>
       <c r="D727" t="n">
-        <v>13928</v>
+        <v>25123</v>
       </c>
       <c r="E727" t="inlineStr">
         <is>
@@ -18613,7 +18613,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>01/10/2000</t>
+          <t>01/01/2000</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
@@ -18627,7 +18627,7 @@
         </is>
       </c>
       <c r="D728" t="n">
-        <v>26965</v>
+        <v>26480</v>
       </c>
       <c r="E728" t="inlineStr">
         <is>
@@ -18638,7 +18638,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>01/09/2000</t>
+          <t>01/07/2000</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
@@ -18652,7 +18652,7 @@
         </is>
       </c>
       <c r="D729" t="n">
-        <v>26129</v>
+        <v>26914</v>
       </c>
       <c r="E729" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>01/04/2001</t>
+          <t>01/06/2000</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
@@ -18677,7 +18677,7 @@
         </is>
       </c>
       <c r="D730" t="n">
-        <v>18378</v>
+        <v>26044</v>
       </c>
       <c r="E730" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>01/08/2001</t>
+          <t>01/05/2000</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
@@ -18702,7 +18702,7 @@
         </is>
       </c>
       <c r="D731" t="n">
-        <v>26465</v>
+        <v>26406</v>
       </c>
       <c r="E731" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>01/12/2001</t>
+          <t>01/03/2000</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D732" t="n">
-        <v>26876</v>
+        <v>26572</v>
       </c>
       <c r="E732" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>01/02/2001</t>
+          <t>01/11/2000</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
@@ -18752,7 +18752,7 @@
         </is>
       </c>
       <c r="D733" t="n">
-        <v>23797</v>
+        <v>13928</v>
       </c>
       <c r="E733" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>01/01/2001</t>
+          <t>01/10/2000</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
@@ -18777,7 +18777,7 @@
         </is>
       </c>
       <c r="D734" t="n">
-        <v>26536</v>
+        <v>26965</v>
       </c>
       <c r="E734" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>01/07/2001</t>
+          <t>01/09/2000</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
@@ -18802,7 +18802,7 @@
         </is>
       </c>
       <c r="D735" t="n">
-        <v>27236</v>
+        <v>26129</v>
       </c>
       <c r="E735" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>01/06/2001</t>
+          <t>01/04/2001</t>
         </is>
       </c>
       <c r="B736" t="inlineStr">
@@ -18827,7 +18827,7 @@
         </is>
       </c>
       <c r="D736" t="n">
-        <v>25806</v>
+        <v>18378</v>
       </c>
       <c r="E736" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>01/05/2001</t>
+          <t>01/08/2001</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
@@ -18852,7 +18852,7 @@
         </is>
       </c>
       <c r="D737" t="n">
-        <v>22691</v>
+        <v>26465</v>
       </c>
       <c r="E737" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>01/03/2001</t>
+          <t>01/12/2001</t>
         </is>
       </c>
       <c r="B738" t="inlineStr">
@@ -18877,7 +18877,7 @@
         </is>
       </c>
       <c r="D738" t="n">
-        <v>25605</v>
+        <v>26876</v>
       </c>
       <c r="E738" t="inlineStr">
         <is>
@@ -18888,7 +18888,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>01/11/2001</t>
+          <t>01/02/2001</t>
         </is>
       </c>
       <c r="B739" t="inlineStr">
@@ -18902,7 +18902,7 @@
         </is>
       </c>
       <c r="D739" t="n">
-        <v>25852</v>
+        <v>23797</v>
       </c>
       <c r="E739" t="inlineStr">
         <is>
@@ -18913,7 +18913,7 @@
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>01/10/2001</t>
+          <t>01/01/2001</t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
@@ -18927,7 +18927,7 @@
         </is>
       </c>
       <c r="D740" t="n">
-        <v>26322</v>
+        <v>26536</v>
       </c>
       <c r="E740" t="inlineStr">
         <is>
@@ -18938,7 +18938,7 @@
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>01/09/2001</t>
+          <t>01/07/2001</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
@@ -18952,7 +18952,7 @@
         </is>
       </c>
       <c r="D741" t="n">
-        <v>23625</v>
+        <v>27236</v>
       </c>
       <c r="E741" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>01/04/2002</t>
+          <t>01/06/2001</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
@@ -18977,7 +18977,7 @@
         </is>
       </c>
       <c r="D742" t="n">
-        <v>23065</v>
+        <v>25806</v>
       </c>
       <c r="E742" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>01/08/2002</t>
+          <t>01/05/2001</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
@@ -19002,7 +19002,7 @@
         </is>
       </c>
       <c r="D743" t="n">
-        <v>25580</v>
+        <v>22691</v>
       </c>
       <c r="E743" t="inlineStr">
         <is>
@@ -19013,7 +19013,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>01/12/2002</t>
+          <t>01/03/2001</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="D744" t="n">
-        <v>24957</v>
+        <v>25605</v>
       </c>
       <c r="E744" t="inlineStr">
         <is>
@@ -19038,7 +19038,7 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>01/02/2002</t>
+          <t>01/11/2001</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
@@ -19052,7 +19052,7 @@
         </is>
       </c>
       <c r="D745" t="n">
-        <v>24096</v>
+        <v>25852</v>
       </c>
       <c r="E745" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>01/01/2002</t>
+          <t>01/10/2001</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
@@ -19077,7 +19077,7 @@
         </is>
       </c>
       <c r="D746" t="n">
-        <v>27239</v>
+        <v>26322</v>
       </c>
       <c r="E746" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>01/07/2002</t>
+          <t>01/09/2001</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
@@ -19102,7 +19102,7 @@
         </is>
       </c>
       <c r="D747" t="n">
-        <v>25911</v>
+        <v>23625</v>
       </c>
       <c r="E747" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>01/06/2002</t>
+          <t>01/04/2002</t>
         </is>
       </c>
       <c r="B748" t="inlineStr">
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D748" t="n">
-        <v>24854</v>
+        <v>23065</v>
       </c>
       <c r="E748" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>01/05/2002</t>
+          <t>01/08/2002</t>
         </is>
       </c>
       <c r="B749" t="inlineStr">
@@ -19152,7 +19152,7 @@
         </is>
       </c>
       <c r="D749" t="n">
-        <v>24983</v>
+        <v>25580</v>
       </c>
       <c r="E749" t="inlineStr">
         <is>
@@ -19163,7 +19163,7 @@
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>01/03/2002</t>
+          <t>01/12/2002</t>
         </is>
       </c>
       <c r="B750" t="inlineStr">
@@ -19177,7 +19177,7 @@
         </is>
       </c>
       <c r="D750" t="n">
-        <v>25381</v>
+        <v>24957</v>
       </c>
       <c r="E750" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>01/11/2002</t>
+          <t>01/02/2002</t>
         </is>
       </c>
       <c r="B751" t="inlineStr">
@@ -19202,7 +19202,7 @@
         </is>
       </c>
       <c r="D751" t="n">
-        <v>24648</v>
+        <v>24096</v>
       </c>
       <c r="E751" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>01/10/2002</t>
+          <t>01/01/2002</t>
         </is>
       </c>
       <c r="B752" t="inlineStr">
@@ -19227,7 +19227,7 @@
         </is>
       </c>
       <c r="D752" t="n">
-        <v>24992</v>
+        <v>27239</v>
       </c>
       <c r="E752" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>01/09/2002</t>
+          <t>01/07/2002</t>
         </is>
       </c>
       <c r="B753" t="inlineStr">
@@ -19252,7 +19252,7 @@
         </is>
       </c>
       <c r="D753" t="n">
-        <v>24400</v>
+        <v>25911</v>
       </c>
       <c r="E753" t="inlineStr">
         <is>
@@ -19263,7 +19263,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>01/04/2003</t>
+          <t>01/06/2002</t>
         </is>
       </c>
       <c r="B754" t="inlineStr">
@@ -19277,7 +19277,7 @@
         </is>
       </c>
       <c r="D754" t="n">
-        <v>20841</v>
+        <v>24854</v>
       </c>
       <c r="E754" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>01/08/2003</t>
+          <t>01/05/2002</t>
         </is>
       </c>
       <c r="B755" t="inlineStr">
@@ -19302,7 +19302,7 @@
         </is>
       </c>
       <c r="D755" t="n">
-        <v>25463</v>
+        <v>24983</v>
       </c>
       <c r="E755" t="inlineStr">
         <is>
@@ -19313,7 +19313,7 @@
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>01/12/2003</t>
+          <t>01/03/2002</t>
         </is>
       </c>
       <c r="B756" t="inlineStr">
@@ -19327,7 +19327,7 @@
         </is>
       </c>
       <c r="D756" t="n">
-        <v>24965</v>
+        <v>25381</v>
       </c>
       <c r="E756" t="inlineStr">
         <is>
@@ -19338,7 +19338,7 @@
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>01/02/2003</t>
+          <t>01/11/2002</t>
         </is>
       </c>
       <c r="B757" t="inlineStr">
@@ -19352,7 +19352,7 @@
         </is>
       </c>
       <c r="D757" t="n">
-        <v>20388</v>
+        <v>24648</v>
       </c>
       <c r="E757" t="inlineStr">
         <is>
@@ -19363,7 +19363,7 @@
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>01/01/2003</t>
+          <t>01/10/2002</t>
         </is>
       </c>
       <c r="B758" t="inlineStr">
@@ -19377,7 +19377,7 @@
         </is>
       </c>
       <c r="D758" t="n">
-        <v>24971</v>
+        <v>24992</v>
       </c>
       <c r="E758" t="inlineStr">
         <is>
@@ -19388,7 +19388,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>01/07/2003</t>
+          <t>01/09/2002</t>
         </is>
       </c>
       <c r="B759" t="inlineStr">
@@ -19402,7 +19402,7 @@
         </is>
       </c>
       <c r="D759" t="n">
-        <v>23560</v>
+        <v>24400</v>
       </c>
       <c r="E759" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>01/06/2003</t>
+          <t>01/04/2003</t>
         </is>
       </c>
       <c r="B760" t="inlineStr">
@@ -19427,7 +19427,7 @@
         </is>
       </c>
       <c r="D760" t="n">
-        <v>22761</v>
+        <v>20841</v>
       </c>
       <c r="E760" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>01/05/2003</t>
+          <t>01/08/2003</t>
         </is>
       </c>
       <c r="B761" t="inlineStr">
@@ -19452,7 +19452,7 @@
         </is>
       </c>
       <c r="D761" t="n">
-        <v>23510</v>
+        <v>25463</v>
       </c>
       <c r="E761" t="inlineStr">
         <is>
@@ -19463,7 +19463,7 @@
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>01/03/2003</t>
+          <t>01/12/2003</t>
         </is>
       </c>
       <c r="B762" t="inlineStr">
@@ -19477,7 +19477,7 @@
         </is>
       </c>
       <c r="D762" t="n">
-        <v>25907</v>
+        <v>24965</v>
       </c>
       <c r="E762" t="inlineStr">
         <is>
@@ -19488,7 +19488,7 @@
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>01/11/2003</t>
+          <t>01/02/2003</t>
         </is>
       </c>
       <c r="B763" t="inlineStr">
@@ -19502,7 +19502,7 @@
         </is>
       </c>
       <c r="D763" t="n">
-        <v>24041</v>
+        <v>20388</v>
       </c>
       <c r="E763" t="inlineStr">
         <is>
@@ -19513,7 +19513,7 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>01/10/2003</t>
+          <t>01/01/2003</t>
         </is>
       </c>
       <c r="B764" t="inlineStr">
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D764" t="n">
-        <v>24023</v>
+        <v>24971</v>
       </c>
       <c r="E764" t="inlineStr">
         <is>
@@ -19538,7 +19538,7 @@
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>01/09/2003</t>
+          <t>01/07/2003</t>
         </is>
       </c>
       <c r="B765" t="inlineStr">
@@ -19552,7 +19552,7 @@
         </is>
       </c>
       <c r="D765" t="n">
-        <v>24294</v>
+        <v>23560</v>
       </c>
       <c r="E765" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>01/04/2004</t>
+          <t>01/06/2003</t>
         </is>
       </c>
       <c r="B766" t="inlineStr">
@@ -19577,7 +19577,7 @@
         </is>
       </c>
       <c r="D766" t="n">
-        <v>24411</v>
+        <v>22761</v>
       </c>
       <c r="E766" t="inlineStr">
         <is>
@@ -19588,7 +19588,7 @@
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>01/08/2004</t>
+          <t>01/05/2003</t>
         </is>
       </c>
       <c r="B767" t="inlineStr">
@@ -19602,7 +19602,7 @@
         </is>
       </c>
       <c r="D767" t="n">
-        <v>25873</v>
+        <v>23510</v>
       </c>
       <c r="E767" t="inlineStr">
         <is>
@@ -19613,7 +19613,7 @@
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>01/12/2004</t>
+          <t>01/03/2003</t>
         </is>
       </c>
       <c r="B768" t="inlineStr">
@@ -19627,7 +19627,7 @@
         </is>
       </c>
       <c r="D768" t="n">
-        <v>25343</v>
+        <v>25907</v>
       </c>
       <c r="E768" t="inlineStr">
         <is>
@@ -19638,7 +19638,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>01/02/2004</t>
+          <t>01/11/2003</t>
         </is>
       </c>
       <c r="B769" t="inlineStr">
@@ -19652,7 +19652,7 @@
         </is>
       </c>
       <c r="D769" t="n">
-        <v>23497</v>
+        <v>24041</v>
       </c>
       <c r="E769" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>01/01/2004</t>
+          <t>01/10/2003</t>
         </is>
       </c>
       <c r="B770" t="inlineStr">
@@ -19677,7 +19677,7 @@
         </is>
       </c>
       <c r="D770" t="n">
-        <v>23975</v>
+        <v>24023</v>
       </c>
       <c r="E770" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>01/09/2003</t>
         </is>
       </c>
       <c r="B771" t="inlineStr">
@@ -19702,7 +19702,7 @@
         </is>
       </c>
       <c r="D771" t="n">
-        <v>24979</v>
+        <v>24294</v>
       </c>
       <c r="E771" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>01/06/2004</t>
+          <t>01/04/2004</t>
         </is>
       </c>
       <c r="B772" t="inlineStr">
@@ -19727,7 +19727,7 @@
         </is>
       </c>
       <c r="D772" t="n">
-        <v>23413</v>
+        <v>24411</v>
       </c>
       <c r="E772" t="inlineStr">
         <is>
@@ -19738,7 +19738,7 @@
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>01/05/2004</t>
+          <t>01/08/2004</t>
         </is>
       </c>
       <c r="B773" t="inlineStr">
@@ -19752,7 +19752,7 @@
         </is>
       </c>
       <c r="D773" t="n">
-        <v>21313</v>
+        <v>25873</v>
       </c>
       <c r="E773" t="inlineStr">
         <is>
@@ -19763,7 +19763,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>01/03/2004</t>
+          <t>01/12/2004</t>
         </is>
       </c>
       <c r="B774" t="inlineStr">
@@ -19777,7 +19777,7 @@
         </is>
       </c>
       <c r="D774" t="n">
-        <v>25118</v>
+        <v>25343</v>
       </c>
       <c r="E774" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>01/11/2004</t>
+          <t>01/02/2004</t>
         </is>
       </c>
       <c r="B775" t="inlineStr">
@@ -19802,7 +19802,7 @@
         </is>
       </c>
       <c r="D775" t="n">
-        <v>24463</v>
+        <v>23497</v>
       </c>
       <c r="E775" t="inlineStr">
         <is>
@@ -19813,7 +19813,7 @@
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>01/10/2004</t>
+          <t>01/01/2004</t>
         </is>
       </c>
       <c r="B776" t="inlineStr">
@@ -19827,7 +19827,7 @@
         </is>
       </c>
       <c r="D776" t="n">
-        <v>25566</v>
+        <v>23975</v>
       </c>
       <c r="E776" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>01/09/2004</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="B777" t="inlineStr">
@@ -19852,7 +19852,7 @@
         </is>
       </c>
       <c r="D777" t="n">
-        <v>24720</v>
+        <v>24979</v>
       </c>
       <c r="E777" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>01/04/2005</t>
+          <t>01/06/2004</t>
         </is>
       </c>
       <c r="B778" t="inlineStr">
@@ -19877,7 +19877,7 @@
         </is>
       </c>
       <c r="D778" t="n">
-        <v>23924</v>
+        <v>23413</v>
       </c>
       <c r="E778" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>01/08/2005</t>
+          <t>01/05/2004</t>
         </is>
       </c>
       <c r="B779" t="inlineStr">
@@ -19902,7 +19902,7 @@
         </is>
       </c>
       <c r="D779" t="n">
-        <v>25213</v>
+        <v>21313</v>
       </c>
       <c r="E779" t="inlineStr">
         <is>
@@ -19913,7 +19913,7 @@
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>01/12/2005</t>
+          <t>01/03/2004</t>
         </is>
       </c>
       <c r="B780" t="inlineStr">
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D780" t="n">
-        <v>24602</v>
+        <v>25118</v>
       </c>
       <c r="E780" t="inlineStr">
         <is>
@@ -19938,7 +19938,7 @@
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>01/02/2005</t>
+          <t>01/11/2004</t>
         </is>
       </c>
       <c r="B781" t="inlineStr">
@@ -19952,7 +19952,7 @@
         </is>
       </c>
       <c r="D781" t="n">
-        <v>22710</v>
+        <v>24463</v>
       </c>
       <c r="E781" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>01/01/2005</t>
+          <t>01/10/2004</t>
         </is>
       </c>
       <c r="B782" t="inlineStr">
@@ -19977,7 +19977,7 @@
         </is>
       </c>
       <c r="D782" t="n">
-        <v>24972</v>
+        <v>25566</v>
       </c>
       <c r="E782" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>01/07/2005</t>
+          <t>01/09/2004</t>
         </is>
       </c>
       <c r="B783" t="inlineStr">
@@ -20002,7 +20002,7 @@
         </is>
       </c>
       <c r="D783" t="n">
-        <v>25582</v>
+        <v>24720</v>
       </c>
       <c r="E783" t="inlineStr">
         <is>
@@ -20013,7 +20013,7 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>01/06/2005</t>
+          <t>01/04/2005</t>
         </is>
       </c>
       <c r="B784" t="inlineStr">
@@ -20027,7 +20027,7 @@
         </is>
       </c>
       <c r="D784" t="n">
-        <v>24359</v>
+        <v>23924</v>
       </c>
       <c r="E784" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>01/05/2005</t>
+          <t>01/08/2005</t>
         </is>
       </c>
       <c r="B785" t="inlineStr">
@@ -20052,7 +20052,7 @@
         </is>
       </c>
       <c r="D785" t="n">
-        <v>24053</v>
+        <v>25213</v>
       </c>
       <c r="E785" t="inlineStr">
         <is>
@@ -20063,7 +20063,7 @@
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>01/03/2005</t>
+          <t>01/12/2005</t>
         </is>
       </c>
       <c r="B786" t="inlineStr">
@@ -20077,7 +20077,7 @@
         </is>
       </c>
       <c r="D786" t="n">
-        <v>24836</v>
+        <v>24602</v>
       </c>
       <c r="E786" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>01/11/2005</t>
+          <t>01/02/2005</t>
         </is>
       </c>
       <c r="B787" t="inlineStr">
@@ -20102,7 +20102,7 @@
         </is>
       </c>
       <c r="D787" t="n">
-        <v>24169</v>
+        <v>22710</v>
       </c>
       <c r="E787" t="inlineStr">
         <is>
@@ -20113,7 +20113,7 @@
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>01/10/2005</t>
+          <t>01/01/2005</t>
         </is>
       </c>
       <c r="B788" t="inlineStr">
@@ -20127,7 +20127,7 @@
         </is>
       </c>
       <c r="D788" t="n">
-        <v>26281</v>
+        <v>24972</v>
       </c>
       <c r="E788" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>01/09/2005</t>
+          <t>01/07/2005</t>
         </is>
       </c>
       <c r="B789" t="inlineStr">
@@ -20152,7 +20152,7 @@
         </is>
       </c>
       <c r="D789" t="n">
-        <v>24180</v>
+        <v>25582</v>
       </c>
       <c r="E789" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>01/04/2006</t>
+          <t>01/06/2005</t>
         </is>
       </c>
       <c r="B790" t="inlineStr">
@@ -20177,7 +20177,7 @@
         </is>
       </c>
       <c r="D790" t="n">
-        <v>24527</v>
+        <v>24359</v>
       </c>
       <c r="E790" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>01/08/2006</t>
+          <t>01/05/2005</t>
         </is>
       </c>
       <c r="B791" t="inlineStr">
@@ -20202,7 +20202,7 @@
         </is>
       </c>
       <c r="D791" t="n">
-        <v>25491</v>
+        <v>24053</v>
       </c>
       <c r="E791" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>01/12/2006</t>
+          <t>01/03/2005</t>
         </is>
       </c>
       <c r="B792" t="inlineStr">
@@ -20227,7 +20227,7 @@
         </is>
       </c>
       <c r="D792" t="n">
-        <v>25271</v>
+        <v>24836</v>
       </c>
       <c r="E792" t="inlineStr">
         <is>
@@ -20238,7 +20238,7 @@
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>01/02/2006</t>
+          <t>01/11/2005</t>
         </is>
       </c>
       <c r="B793" t="inlineStr">
@@ -20252,7 +20252,7 @@
         </is>
       </c>
       <c r="D793" t="n">
-        <v>23056</v>
+        <v>24169</v>
       </c>
       <c r="E793" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>01/01/2006</t>
+          <t>01/10/2005</t>
         </is>
       </c>
       <c r="B794" t="inlineStr">
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D794" t="n">
-        <v>24843</v>
+        <v>26281</v>
       </c>
       <c r="E794" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>01/07/2006</t>
+          <t>01/09/2005</t>
         </is>
       </c>
       <c r="B795" t="inlineStr">
@@ -20302,7 +20302,7 @@
         </is>
       </c>
       <c r="D795" t="n">
-        <v>25344</v>
+        <v>24180</v>
       </c>
       <c r="E795" t="inlineStr">
         <is>
@@ -20313,7 +20313,7 @@
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>01/06/2006</t>
+          <t>01/04/2006</t>
         </is>
       </c>
       <c r="B796" t="inlineStr">
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D796" t="n">
-        <v>25090</v>
+        <v>24527</v>
       </c>
       <c r="E796" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>01/05/2006</t>
+          <t>01/08/2006</t>
         </is>
       </c>
       <c r="B797" t="inlineStr">
@@ -20352,7 +20352,7 @@
         </is>
       </c>
       <c r="D797" t="n">
-        <v>25719</v>
+        <v>25491</v>
       </c>
       <c r="E797" t="inlineStr">
         <is>
@@ -20363,7 +20363,7 @@
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>01/03/2006</t>
+          <t>01/12/2006</t>
         </is>
       </c>
       <c r="B798" t="inlineStr">
@@ -20377,7 +20377,7 @@
         </is>
       </c>
       <c r="D798" t="n">
-        <v>11740</v>
+        <v>25271</v>
       </c>
       <c r="E798" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>01/11/2006</t>
+          <t>01/02/2006</t>
         </is>
       </c>
       <c r="B799" t="inlineStr">
@@ -20402,7 +20402,7 @@
         </is>
       </c>
       <c r="D799" t="n">
-        <v>23278</v>
+        <v>23056</v>
       </c>
       <c r="E799" t="inlineStr">
         <is>
@@ -20413,7 +20413,7 @@
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>01/10/2006</t>
+          <t>01/01/2006</t>
         </is>
       </c>
       <c r="B800" t="inlineStr">
@@ -20427,7 +20427,7 @@
         </is>
       </c>
       <c r="D800" t="n">
-        <v>23622</v>
+        <v>24843</v>
       </c>
       <c r="E800" t="inlineStr">
         <is>
@@ -20438,7 +20438,7 @@
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>01/09/2006</t>
+          <t>01/07/2006</t>
         </is>
       </c>
       <c r="B801" t="inlineStr">
@@ -20452,7 +20452,7 @@
         </is>
       </c>
       <c r="D801" t="n">
-        <v>24562</v>
+        <v>25344</v>
       </c>
       <c r="E801" t="inlineStr">
         <is>
@@ -20463,7 +20463,7 @@
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>01/04/2007</t>
+          <t>01/06/2006</t>
         </is>
       </c>
       <c r="B802" t="inlineStr">
@@ -20477,7 +20477,7 @@
         </is>
       </c>
       <c r="D802" t="n">
-        <v>21384</v>
+        <v>25090</v>
       </c>
       <c r="E802" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>01/08/2007</t>
+          <t>01/05/2006</t>
         </is>
       </c>
       <c r="B803" t="inlineStr">
@@ -20502,7 +20502,7 @@
         </is>
       </c>
       <c r="D803" t="n">
-        <v>23805</v>
+        <v>25719</v>
       </c>
       <c r="E803" t="inlineStr">
         <is>
@@ -20513,7 +20513,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>01/12/2007</t>
+          <t>01/03/2006</t>
         </is>
       </c>
       <c r="B804" t="inlineStr">
@@ -20527,7 +20527,7 @@
         </is>
       </c>
       <c r="D804" t="n">
-        <v>22898</v>
+        <v>11740</v>
       </c>
       <c r="E804" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>01/02/2007</t>
+          <t>01/11/2006</t>
         </is>
       </c>
       <c r="B805" t="inlineStr">
@@ -20552,7 +20552,7 @@
         </is>
       </c>
       <c r="D805" t="n">
-        <v>21968</v>
+        <v>23278</v>
       </c>
       <c r="E805" t="inlineStr">
         <is>
@@ -20563,7 +20563,7 @@
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>01/01/2007</t>
+          <t>01/10/2006</t>
         </is>
       </c>
       <c r="B806" t="inlineStr">
@@ -20577,7 +20577,7 @@
         </is>
       </c>
       <c r="D806" t="n">
-        <v>25496</v>
+        <v>23622</v>
       </c>
       <c r="E806" t="inlineStr">
         <is>
@@ -20588,7 +20588,7 @@
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>01/07/2007</t>
+          <t>01/09/2006</t>
         </is>
       </c>
       <c r="B807" t="inlineStr">
@@ -20602,7 +20602,7 @@
         </is>
       </c>
       <c r="D807" t="n">
-        <v>23875</v>
+        <v>24562</v>
       </c>
       <c r="E807" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>01/06/2007</t>
+          <t>01/04/2007</t>
         </is>
       </c>
       <c r="B808" t="inlineStr">
@@ -20627,7 +20627,7 @@
         </is>
       </c>
       <c r="D808" t="n">
-        <v>22080</v>
+        <v>21384</v>
       </c>
       <c r="E808" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>01/05/2007</t>
+          <t>01/08/2007</t>
         </is>
       </c>
       <c r="B809" t="inlineStr">
@@ -20652,7 +20652,7 @@
         </is>
       </c>
       <c r="D809" t="n">
-        <v>18737</v>
+        <v>23805</v>
       </c>
       <c r="E809" t="inlineStr">
         <is>
@@ -20663,7 +20663,7 @@
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>01/03/2007</t>
+          <t>01/12/2007</t>
         </is>
       </c>
       <c r="B810" t="inlineStr">
@@ -20677,7 +20677,7 @@
         </is>
       </c>
       <c r="D810" t="n">
-        <v>24212</v>
+        <v>22898</v>
       </c>
       <c r="E810" t="inlineStr">
         <is>
@@ -20688,7 +20688,7 @@
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>01/11/2007</t>
+          <t>01/02/2007</t>
         </is>
       </c>
       <c r="B811" t="inlineStr">
@@ -20702,7 +20702,7 @@
         </is>
       </c>
       <c r="D811" t="n">
-        <v>22033</v>
+        <v>21968</v>
       </c>
       <c r="E811" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>01/10/2007</t>
+          <t>01/01/2007</t>
         </is>
       </c>
       <c r="B812" t="inlineStr">
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D812" t="n">
-        <v>23866</v>
+        <v>25496</v>
       </c>
       <c r="E812" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>01/09/2007</t>
+          <t>01/07/2007</t>
         </is>
       </c>
       <c r="B813" t="inlineStr">
@@ -20752,7 +20752,7 @@
         </is>
       </c>
       <c r="D813" t="n">
-        <v>24017</v>
+        <v>23875</v>
       </c>
       <c r="E813" t="inlineStr">
         <is>
@@ -20763,7 +20763,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>01/04/2008</t>
+          <t>01/06/2007</t>
         </is>
       </c>
       <c r="B814" t="inlineStr">
@@ -20777,7 +20777,7 @@
         </is>
       </c>
       <c r="D814" t="n">
-        <v>22341</v>
+        <v>22080</v>
       </c>
       <c r="E814" t="inlineStr">
         <is>
@@ -20788,7 +20788,7 @@
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>01/08/2008</t>
+          <t>01/05/2007</t>
         </is>
       </c>
       <c r="B815" t="inlineStr">
@@ -20802,7 +20802,7 @@
         </is>
       </c>
       <c r="D815" t="n">
-        <v>23413.9993</v>
+        <v>18737</v>
       </c>
       <c r="E815" t="inlineStr">
         <is>
@@ -20813,7 +20813,7 @@
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>01/12/2008</t>
+          <t>01/03/2007</t>
         </is>
       </c>
       <c r="B816" t="inlineStr">
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="D816" t="n">
-        <v>21243.0011</v>
+        <v>24212</v>
       </c>
       <c r="E816" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>01/02/2008</t>
+          <t>01/11/2007</t>
         </is>
       </c>
       <c r="B817" t="inlineStr">
@@ -20852,7 +20852,7 @@
         </is>
       </c>
       <c r="D817" t="n">
-        <v>20461</v>
+        <v>22033</v>
       </c>
       <c r="E817" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>01/01/2008</t>
+          <t>01/10/2007</t>
         </is>
       </c>
       <c r="B818" t="inlineStr">
@@ -20877,7 +20877,7 @@
         </is>
       </c>
       <c r="D818" t="n">
-        <v>22454</v>
+        <v>23866</v>
       </c>
       <c r="E818" t="inlineStr">
         <is>
@@ -20888,7 +20888,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>01/07/2008</t>
+          <t>01/09/2007</t>
         </is>
       </c>
       <c r="B819" t="inlineStr">
@@ -20902,7 +20902,7 @@
         </is>
       </c>
       <c r="D819" t="n">
-        <v>22084.0001</v>
+        <v>24017</v>
       </c>
       <c r="E819" t="inlineStr">
         <is>
@@ -20913,7 +20913,7 @@
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>01/06/2008</t>
+          <t>01/04/2008</t>
         </is>
       </c>
       <c r="B820" t="inlineStr">
@@ -20927,7 +20927,7 @@
         </is>
       </c>
       <c r="D820" t="n">
-        <v>21446.001</v>
+        <v>22341</v>
       </c>
       <c r="E820" t="inlineStr">
         <is>
@@ -20938,7 +20938,7 @@
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>01/05/2008</t>
+          <t>01/08/2008</t>
         </is>
       </c>
       <c r="B821" t="inlineStr">
@@ -20952,7 +20952,7 @@
         </is>
       </c>
       <c r="D821" t="n">
-        <v>22333</v>
+        <v>23413.9993</v>
       </c>
       <c r="E821" t="inlineStr">
         <is>
@@ -20963,7 +20963,7 @@
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>01/03/2008</t>
+          <t>01/12/2008</t>
         </is>
       </c>
       <c r="B822" t="inlineStr">
@@ -20977,7 +20977,7 @@
         </is>
       </c>
       <c r="D822" t="n">
-        <v>22425</v>
+        <v>21243.0011</v>
       </c>
       <c r="E822" t="inlineStr">
         <is>
@@ -20988,7 +20988,7 @@
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>01/11/2008</t>
+          <t>01/02/2008</t>
         </is>
       </c>
       <c r="B823" t="inlineStr">
@@ -21002,7 +21002,7 @@
         </is>
       </c>
       <c r="D823" t="n">
-        <v>20454</v>
+        <v>20461</v>
       </c>
       <c r="E823" t="inlineStr">
         <is>
@@ -21013,7 +21013,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>01/01/2008</t>
         </is>
       </c>
       <c r="B824" t="inlineStr">
@@ -21027,7 +21027,7 @@
         </is>
       </c>
       <c r="D824" t="n">
-        <v>19738.9989</v>
+        <v>22454</v>
       </c>
       <c r="E824" t="inlineStr">
         <is>
@@ -21038,7 +21038,7 @@
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>01/09/2008</t>
+          <t>01/07/2008</t>
         </is>
       </c>
       <c r="B825" t="inlineStr">
@@ -21052,7 +21052,7 @@
         </is>
       </c>
       <c r="D825" t="n">
-        <v>21581.001</v>
+        <v>22084.0001</v>
       </c>
       <c r="E825" t="inlineStr">
         <is>
@@ -21063,7 +21063,7 @@
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>01/04/2009</t>
+          <t>01/06/2008</t>
         </is>
       </c>
       <c r="B826" t="inlineStr">
@@ -21077,7 +21077,7 @@
         </is>
       </c>
       <c r="D826" t="n">
-        <v>20352.999</v>
+        <v>21446.001</v>
       </c>
       <c r="E826" t="inlineStr">
         <is>
@@ -21088,7 +21088,7 @@
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>01/08/2009</t>
+          <t>01/05/2008</t>
         </is>
       </c>
       <c r="B827" t="inlineStr">
@@ -21102,7 +21102,7 @@
         </is>
       </c>
       <c r="D827" t="n">
-        <v>19636.0014</v>
+        <v>22333</v>
       </c>
       <c r="E827" t="inlineStr">
         <is>
@@ -21113,7 +21113,7 @@
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>01/12/2009</t>
+          <t>01/03/2008</t>
         </is>
       </c>
       <c r="B828" t="inlineStr">
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D828" t="n">
-        <v>20058.9995</v>
+        <v>22425</v>
       </c>
       <c r="E828" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>01/02/2009</t>
+          <t>01/11/2008</t>
         </is>
       </c>
       <c r="B829" t="inlineStr">
@@ -21152,7 +21152,7 @@
         </is>
       </c>
       <c r="D829" t="n">
-        <v>18858.9996</v>
+        <v>20454</v>
       </c>
       <c r="E829" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>01/01/2009</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="B830" t="inlineStr">
@@ -21177,7 +21177,7 @@
         </is>
       </c>
       <c r="D830" t="n">
-        <v>22225.0005</v>
+        <v>19738.9989</v>
       </c>
       <c r="E830" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>01/07/2009</t>
+          <t>01/09/2008</t>
         </is>
       </c>
       <c r="B831" t="inlineStr">
@@ -21202,7 +21202,7 @@
         </is>
       </c>
       <c r="D831" t="n">
-        <v>20578.0015</v>
+        <v>21581.001</v>
       </c>
       <c r="E831" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>01/06/2009</t>
+          <t>01/04/2009</t>
         </is>
       </c>
       <c r="B832" t="inlineStr">
@@ -21227,7 +21227,7 @@
         </is>
       </c>
       <c r="D832" t="n">
-        <v>20096.001</v>
+        <v>20352.999</v>
       </c>
       <c r="E832" t="inlineStr">
         <is>
@@ -21238,7 +21238,7 @@
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>01/05/2009</t>
+          <t>01/08/2009</t>
         </is>
       </c>
       <c r="B833" t="inlineStr">
@@ -21252,7 +21252,7 @@
         </is>
       </c>
       <c r="D833" t="n">
-        <v>20487.001</v>
+        <v>19636.0014</v>
       </c>
       <c r="E833" t="inlineStr">
         <is>
@@ -21263,7 +21263,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>01/03/2009</t>
+          <t>01/12/2009</t>
         </is>
       </c>
       <c r="B834" t="inlineStr">
@@ -21277,7 +21277,7 @@
         </is>
       </c>
       <c r="D834" t="n">
-        <v>21078.9987</v>
+        <v>20058.9995</v>
       </c>
       <c r="E834" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>01/11/2009</t>
+          <t>01/02/2009</t>
         </is>
       </c>
       <c r="B835" t="inlineStr">
@@ -21302,7 +21302,7 @@
         </is>
       </c>
       <c r="D835" t="n">
-        <v>19530</v>
+        <v>18858.9996</v>
       </c>
       <c r="E835" t="inlineStr">
         <is>
@@ -21313,7 +21313,7 @@
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>01/10/2009</t>
+          <t>01/01/2009</t>
         </is>
       </c>
       <c r="B836" t="inlineStr">
@@ -21327,7 +21327,7 @@
         </is>
       </c>
       <c r="D836" t="n">
-        <v>19538.0011</v>
+        <v>22225.0005</v>
       </c>
       <c r="E836" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>01/09/2009</t>
+          <t>01/07/2009</t>
         </is>
       </c>
       <c r="B837" t="inlineStr">
@@ -21352,7 +21352,7 @@
         </is>
       </c>
       <c r="D837" t="n">
-        <v>19464</v>
+        <v>20578.0015</v>
       </c>
       <c r="E837" t="inlineStr">
         <is>
@@ -21363,7 +21363,7 @@
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>01/04/2010</t>
+          <t>01/06/2009</t>
         </is>
       </c>
       <c r="B838" t="inlineStr">
@@ -21377,7 +21377,7 @@
         </is>
       </c>
       <c r="D838" t="n">
-        <v>18477</v>
+        <v>20096.001</v>
       </c>
       <c r="E838" t="inlineStr">
         <is>
@@ -21388,7 +21388,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>01/08/2010</t>
+          <t>01/05/2009</t>
         </is>
       </c>
       <c r="B839" t="inlineStr">
@@ -21402,7 +21402,7 @@
         </is>
       </c>
       <c r="D839" t="n">
-        <v>19472</v>
+        <v>20487.001</v>
       </c>
       <c r="E839" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>01/12/2010</t>
+          <t>01/03/2009</t>
         </is>
       </c>
       <c r="B840" t="inlineStr">
@@ -21427,7 +21427,7 @@
         </is>
       </c>
       <c r="D840" t="n">
-        <v>19253</v>
+        <v>21078.9987</v>
       </c>
       <c r="E840" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>01/02/2010</t>
+          <t>01/11/2009</t>
         </is>
       </c>
       <c r="B841" t="inlineStr">
@@ -21452,7 +21452,7 @@
         </is>
       </c>
       <c r="D841" t="n">
-        <v>17250</v>
+        <v>19530</v>
       </c>
       <c r="E841" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>01/01/2010</t>
+          <t>01/10/2009</t>
         </is>
       </c>
       <c r="B842" t="inlineStr">
@@ -21477,7 +21477,7 @@
         </is>
       </c>
       <c r="D842" t="n">
-        <v>19822</v>
+        <v>19538.0011</v>
       </c>
       <c r="E842" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>01/07/2010</t>
+          <t>01/09/2009</t>
         </is>
       </c>
       <c r="B843" t="inlineStr">
@@ -21502,7 +21502,7 @@
         </is>
       </c>
       <c r="D843" t="n">
-        <v>19943</v>
+        <v>19464</v>
       </c>
       <c r="E843" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>01/06/2010</t>
+          <t>01/04/2010</t>
         </is>
       </c>
       <c r="B844" t="inlineStr">
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D844" t="n">
-        <v>18899</v>
+        <v>18477</v>
       </c>
       <c r="E844" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>01/05/2010</t>
+          <t>01/08/2010</t>
         </is>
       </c>
       <c r="B845" t="inlineStr">
@@ -21552,7 +21552,7 @@
         </is>
       </c>
       <c r="D845" t="n">
-        <v>19225</v>
+        <v>19472</v>
       </c>
       <c r="E845" t="inlineStr">
         <is>
@@ -21563,7 +21563,7 @@
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>01/03/2010</t>
+          <t>01/12/2010</t>
         </is>
       </c>
       <c r="B846" t="inlineStr">
@@ -21577,7 +21577,7 @@
         </is>
       </c>
       <c r="D846" t="n">
-        <v>18557</v>
+        <v>19253</v>
       </c>
       <c r="E846" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>01/11/2010</t>
+          <t>01/02/2010</t>
         </is>
       </c>
       <c r="B847" t="inlineStr">
@@ -21602,7 +21602,7 @@
         </is>
       </c>
       <c r="D847" t="n">
-        <v>18252</v>
+        <v>17250</v>
       </c>
       <c r="E847" t="inlineStr">
         <is>
@@ -21613,7 +21613,7 @@
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>01/10/2010</t>
+          <t>01/01/2010</t>
         </is>
       </c>
       <c r="B848" t="inlineStr">
@@ -21627,7 +21627,7 @@
         </is>
       </c>
       <c r="D848" t="n">
-        <v>19679</v>
+        <v>19822</v>
       </c>
       <c r="E848" t="inlineStr">
         <is>
@@ -21638,7 +21638,7 @@
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>01/09/2010</t>
+          <t>01/07/2010</t>
         </is>
       </c>
       <c r="B849" t="inlineStr">
@@ -21652,7 +21652,7 @@
         </is>
       </c>
       <c r="D849" t="n">
-        <v>18162</v>
+        <v>19943</v>
       </c>
       <c r="E849" t="inlineStr">
         <is>
@@ -21663,7 +21663,7 @@
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>01/04/2011</t>
+          <t>01/06/2010</t>
         </is>
       </c>
       <c r="B850" t="inlineStr">
@@ -21677,7 +21677,7 @@
         </is>
       </c>
       <c r="D850" t="n">
-        <v>14211.9</v>
+        <v>18899</v>
       </c>
       <c r="E850" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>01/08/2011</t>
+          <t>01/05/2010</t>
         </is>
       </c>
       <c r="B851" t="inlineStr">
@@ -21702,7 +21702,7 @@
         </is>
       </c>
       <c r="D851" t="n">
-        <v>15656.1</v>
+        <v>19225</v>
       </c>
       <c r="E851" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>01/12/2011</t>
+          <t>01/03/2010</t>
         </is>
       </c>
       <c r="B852" t="inlineStr">
@@ -21727,7 +21727,7 @@
         </is>
       </c>
       <c r="D852" t="n">
-        <v>16836.5</v>
+        <v>18557</v>
       </c>
       <c r="E852" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>01/02/2011</t>
+          <t>01/11/2010</t>
         </is>
       </c>
       <c r="B853" t="inlineStr">
@@ -21752,7 +21752,7 @@
         </is>
       </c>
       <c r="D853" t="n">
-        <v>15945.6</v>
+        <v>18252</v>
       </c>
       <c r="E853" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>01/01/2011</t>
+          <t>01/10/2010</t>
         </is>
       </c>
       <c r="B854" t="inlineStr">
@@ -21777,7 +21777,7 @@
         </is>
       </c>
       <c r="D854" t="n">
-        <v>18522.8</v>
+        <v>19679</v>
       </c>
       <c r="E854" t="inlineStr">
         <is>
@@ -21788,7 +21788,7 @@
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>01/07/2011</t>
+          <t>01/09/2010</t>
         </is>
       </c>
       <c r="B855" t="inlineStr">
@@ -21802,7 +21802,7 @@
         </is>
       </c>
       <c r="D855" t="n">
-        <v>14478.2</v>
+        <v>18162</v>
       </c>
       <c r="E855" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>01/06/2011</t>
+          <t>01/04/2011</t>
         </is>
       </c>
       <c r="B856" t="inlineStr">
@@ -21827,7 +21827,7 @@
         </is>
       </c>
       <c r="D856" t="n">
-        <v>15871.3</v>
+        <v>14211.9</v>
       </c>
       <c r="E856" t="inlineStr">
         <is>
@@ -21838,7 +21838,7 @@
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>01/05/2011</t>
+          <t>01/08/2011</t>
         </is>
       </c>
       <c r="B857" t="inlineStr">
@@ -21852,7 +21852,7 @@
         </is>
       </c>
       <c r="D857" t="n">
-        <v>17668.9</v>
+        <v>15656.1</v>
       </c>
       <c r="E857" t="inlineStr">
         <is>
@@ -21863,7 +21863,7 @@
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>01/03/2011</t>
+          <t>01/12/2011</t>
         </is>
       </c>
       <c r="B858" t="inlineStr">
@@ -21877,7 +21877,7 @@
         </is>
       </c>
       <c r="D858" t="n">
-        <v>10940.8</v>
+        <v>16836.5</v>
       </c>
       <c r="E858" t="inlineStr">
         <is>
@@ -21888,7 +21888,7 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>01/11/2011</t>
+          <t>01/02/2011</t>
         </is>
       </c>
       <c r="B859" t="inlineStr">
@@ -21902,7 +21902,7 @@
         </is>
       </c>
       <c r="D859" t="n">
-        <v>15787.4</v>
+        <v>15945.6</v>
       </c>
       <c r="E859" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>01/10/2011</t>
+          <t>01/01/2011</t>
         </is>
       </c>
       <c r="B860" t="inlineStr">
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D860" t="n">
-        <v>16134.4</v>
+        <v>18522.8</v>
       </c>
       <c r="E860" t="inlineStr">
         <is>
@@ -21938,7 +21938,7 @@
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>01/09/2011</t>
+          <t>01/07/2011</t>
         </is>
       </c>
       <c r="B861" t="inlineStr">
@@ -21952,7 +21952,7 @@
         </is>
       </c>
       <c r="D861" t="n">
-        <v>15096.4</v>
+        <v>14478.2</v>
       </c>
       <c r="E861" t="inlineStr">
         <is>
@@ -21963,7 +21963,7 @@
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>01/04/2012</t>
+          <t>01/06/2011</t>
         </is>
       </c>
       <c r="B862" t="inlineStr">
@@ -21977,7 +21977,7 @@
         </is>
       </c>
       <c r="D862" t="n">
-        <v>10707.1</v>
+        <v>15871.3</v>
       </c>
       <c r="E862" t="inlineStr">
         <is>
@@ -21988,7 +21988,7 @@
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>01/08/2012</t>
+          <t>01/05/2011</t>
         </is>
       </c>
       <c r="B863" t="inlineStr">
@@ -22002,7 +22002,7 @@
         </is>
       </c>
       <c r="D863" t="n">
-        <v>16193.1</v>
+        <v>17668.9</v>
       </c>
       <c r="E863" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>01/12/2012</t>
+          <t>01/03/2011</t>
         </is>
       </c>
       <c r="B864" t="inlineStr">
@@ -22027,7 +22027,7 @@
         </is>
       </c>
       <c r="D864" t="n">
-        <v>17393.3</v>
+        <v>10940.8</v>
       </c>
       <c r="E864" t="inlineStr">
         <is>
@@ -22038,7 +22038,7 @@
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>01/02/2012</t>
+          <t>01/11/2011</t>
         </is>
       </c>
       <c r="B865" t="inlineStr">
@@ -22052,7 +22052,7 @@
         </is>
       </c>
       <c r="D865" t="n">
-        <v>14260.4</v>
+        <v>15787.4</v>
       </c>
       <c r="E865" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>01/10/2011</t>
         </is>
       </c>
       <c r="B866" t="inlineStr">
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D866" t="n">
-        <v>16058.3</v>
+        <v>16134.4</v>
       </c>
       <c r="E866" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>01/07/2012</t>
+          <t>01/09/2011</t>
         </is>
       </c>
       <c r="B867" t="inlineStr">
@@ -22102,7 +22102,7 @@
         </is>
       </c>
       <c r="D867" t="n">
-        <v>12701.4</v>
+        <v>15096.4</v>
       </c>
       <c r="E867" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>01/06/2012</t>
+          <t>01/04/2012</t>
         </is>
       </c>
       <c r="B868" t="inlineStr">
@@ -22127,7 +22127,7 @@
         </is>
       </c>
       <c r="D868" t="n">
-        <v>10851.8</v>
+        <v>10707.1</v>
       </c>
       <c r="E868" t="inlineStr">
         <is>
@@ -22138,7 +22138,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>01/05/2012</t>
+          <t>01/08/2012</t>
         </is>
       </c>
       <c r="B869" t="inlineStr">
@@ -22152,7 +22152,7 @@
         </is>
       </c>
       <c r="D869" t="n">
-        <v>10692</v>
+        <v>16193.1</v>
       </c>
       <c r="E869" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>01/03/2012</t>
+          <t>01/12/2012</t>
         </is>
       </c>
       <c r="B870" t="inlineStr">
@@ -22177,7 +22177,7 @@
         </is>
       </c>
       <c r="D870" t="n">
-        <v>14311.3</v>
+        <v>17393.3</v>
       </c>
       <c r="E870" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>01/11/2012</t>
+          <t>01/02/2012</t>
         </is>
       </c>
       <c r="B871" t="inlineStr">
@@ -22202,7 +22202,7 @@
         </is>
       </c>
       <c r="D871" t="n">
-        <v>16574.9</v>
+        <v>14260.4</v>
       </c>
       <c r="E871" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>01/10/2012</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="B872" t="inlineStr">
@@ -22227,7 +22227,7 @@
         </is>
       </c>
       <c r="D872" t="n">
-        <v>13682.2</v>
+        <v>16058.3</v>
       </c>
       <c r="E872" t="inlineStr">
         <is>
@@ -22238,7 +22238,7 @@
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>01/09/2012</t>
+          <t>01/07/2012</t>
         </is>
       </c>
       <c r="B873" t="inlineStr">
@@ -22252,7 +22252,7 @@
         </is>
       </c>
       <c r="D873" t="n">
-        <v>12246</v>
+        <v>12701.4</v>
       </c>
       <c r="E873" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>01/04/2013</t>
+          <t>01/06/2012</t>
         </is>
       </c>
       <c r="B874" t="inlineStr">
@@ -22277,7 +22277,7 @@
         </is>
       </c>
       <c r="D874" t="n">
-        <v>15186.2</v>
+        <v>10851.8</v>
       </c>
       <c r="E874" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>01/08/2013</t>
+          <t>01/05/2012</t>
         </is>
       </c>
       <c r="B875" t="inlineStr">
@@ -22302,7 +22302,7 @@
         </is>
       </c>
       <c r="D875" t="n">
-        <v>14998.4</v>
+        <v>10692</v>
       </c>
       <c r="E875" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>01/12/2013</t>
+          <t>01/03/2012</t>
         </is>
       </c>
       <c r="B876" t="inlineStr">
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D876" t="n">
-        <v>15576.1</v>
+        <v>14311.3</v>
       </c>
       <c r="E876" t="inlineStr">
         <is>
@@ -22338,7 +22338,7 @@
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>01/02/2013</t>
+          <t>01/11/2012</t>
         </is>
       </c>
       <c r="B877" t="inlineStr">
@@ -22352,7 +22352,7 @@
         </is>
       </c>
       <c r="D877" t="n">
-        <v>14992.1</v>
+        <v>16574.9</v>
       </c>
       <c r="E877" t="inlineStr">
         <is>
@@ -22363,7 +22363,7 @@
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/10/2012</t>
         </is>
       </c>
       <c r="B878" t="inlineStr">
@@ -22377,7 +22377,7 @@
         </is>
       </c>
       <c r="D878" t="n">
-        <v>16653.1</v>
+        <v>13682.2</v>
       </c>
       <c r="E878" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>01/07/2013</t>
+          <t>01/09/2012</t>
         </is>
       </c>
       <c r="B879" t="inlineStr">
@@ -22402,7 +22402,7 @@
         </is>
       </c>
       <c r="D879" t="n">
-        <v>15326.3</v>
+        <v>12246</v>
       </c>
       <c r="E879" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>01/06/2013</t>
+          <t>01/04/2013</t>
         </is>
       </c>
       <c r="B880" t="inlineStr">
@@ -22427,7 +22427,7 @@
         </is>
       </c>
       <c r="D880" t="n">
-        <v>15355.6</v>
+        <v>15186.2</v>
       </c>
       <c r="E880" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>01/05/2013</t>
+          <t>01/08/2013</t>
         </is>
       </c>
       <c r="B881" t="inlineStr">
@@ -22452,7 +22452,7 @@
         </is>
       </c>
       <c r="D881" t="n">
-        <v>14825.2</v>
+        <v>14998.4</v>
       </c>
       <c r="E881" t="inlineStr">
         <is>
@@ -22463,7 +22463,7 @@
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>01/03/2013</t>
+          <t>01/12/2013</t>
         </is>
       </c>
       <c r="B882" t="inlineStr">
@@ -22477,7 +22477,7 @@
         </is>
       </c>
       <c r="D882" t="n">
-        <v>15537.2</v>
+        <v>15576.1</v>
       </c>
       <c r="E882" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>01/11/2013</t>
+          <t>01/02/2013</t>
         </is>
       </c>
       <c r="B883" t="inlineStr">
@@ -22502,7 +22502,7 @@
         </is>
       </c>
       <c r="D883" t="n">
-        <v>14997.2</v>
+        <v>14992.1</v>
       </c>
       <c r="E883" t="inlineStr">
         <is>
@@ -22513,7 +22513,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="B884" t="inlineStr">
@@ -22527,7 +22527,7 @@
         </is>
       </c>
       <c r="D884" t="n">
-        <v>14495.7</v>
+        <v>16653.1</v>
       </c>
       <c r="E884" t="inlineStr">
         <is>
@@ -22538,7 +22538,7 @@
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>01/09/2013</t>
+          <t>01/07/2013</t>
         </is>
       </c>
       <c r="B885" t="inlineStr">
@@ -22552,7 +22552,7 @@
         </is>
       </c>
       <c r="D885" t="n">
-        <v>14777.2</v>
+        <v>15326.3</v>
       </c>
       <c r="E885" t="inlineStr">
         <is>
@@ -22563,7 +22563,7 @@
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>01/04/2014</t>
+          <t>01/06/2013</t>
         </is>
       </c>
       <c r="B886" t="inlineStr">
@@ -22577,7 +22577,7 @@
         </is>
       </c>
       <c r="D886" t="n">
-        <v>15228.7</v>
+        <v>15355.6</v>
       </c>
       <c r="E886" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>01/08/2014</t>
+          <t>01/05/2013</t>
         </is>
       </c>
       <c r="B887" t="inlineStr">
@@ -22602,7 +22602,7 @@
         </is>
       </c>
       <c r="D887" t="n">
-        <v>14545.5</v>
+        <v>14825.2</v>
       </c>
       <c r="E887" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>01/12/2014</t>
+          <t>01/03/2013</t>
         </is>
       </c>
       <c r="B888" t="inlineStr">
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="D888" t="n">
-        <v>13264.2</v>
+        <v>15537.2</v>
       </c>
       <c r="E888" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>01/02/2014</t>
+          <t>01/11/2013</t>
         </is>
       </c>
       <c r="B889" t="inlineStr">
@@ -22652,7 +22652,7 @@
         </is>
       </c>
       <c r="D889" t="n">
-        <v>13542.3</v>
+        <v>14997.2</v>
       </c>
       <c r="E889" t="inlineStr">
         <is>
@@ -22663,7 +22663,7 @@
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/10/2013</t>
         </is>
       </c>
       <c r="B890" t="inlineStr">
@@ -22677,7 +22677,7 @@
         </is>
       </c>
       <c r="D890" t="n">
-        <v>15019.1</v>
+        <v>14495.7</v>
       </c>
       <c r="E890" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
+          <t>01/09/2013</t>
         </is>
       </c>
       <c r="B891" t="inlineStr">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="D891" t="n">
-        <v>14900.7</v>
+        <v>14777.2</v>
       </c>
       <c r="E891" t="inlineStr">
         <is>
@@ -22713,7 +22713,7 @@
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>01/06/2014</t>
+          <t>01/04/2014</t>
         </is>
       </c>
       <c r="B892" t="inlineStr">
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D892" t="n">
-        <v>14977.9</v>
+        <v>15228.7</v>
       </c>
       <c r="E892" t="inlineStr">
         <is>
@@ -22738,7 +22738,7 @@
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>01/05/2014</t>
+          <t>01/08/2014</t>
         </is>
       </c>
       <c r="B893" t="inlineStr">
@@ -22752,7 +22752,7 @@
         </is>
       </c>
       <c r="D893" t="n">
-        <v>16141.5</v>
+        <v>14545.5</v>
       </c>
       <c r="E893" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>01/03/2014</t>
+          <t>01/12/2014</t>
         </is>
       </c>
       <c r="B894" t="inlineStr">
@@ -22777,7 +22777,7 @@
         </is>
       </c>
       <c r="D894" t="n">
-        <v>15178.7</v>
+        <v>13264.2</v>
       </c>
       <c r="E894" t="inlineStr">
         <is>
@@ -22788,7 +22788,7 @@
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>01/11/2014</t>
+          <t>01/02/2014</t>
         </is>
       </c>
       <c r="B895" t="inlineStr">
@@ -22802,7 +22802,7 @@
         </is>
       </c>
       <c r="D895" t="n">
-        <v>11227.8</v>
+        <v>13542.3</v>
       </c>
       <c r="E895" t="inlineStr">
         <is>
@@ -22813,7 +22813,7 @@
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>01/10/2014</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="B896" t="inlineStr">
@@ -22827,7 +22827,7 @@
         </is>
       </c>
       <c r="D896" t="n">
-        <v>14384.8</v>
+        <v>15019.1</v>
       </c>
       <c r="E896" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>01/09/2014</t>
+          <t>01/07/2014</t>
         </is>
       </c>
       <c r="B897" t="inlineStr">
@@ -22852,7 +22852,7 @@
         </is>
       </c>
       <c r="D897" t="n">
-        <v>13936.6</v>
+        <v>14900.7</v>
       </c>
       <c r="E897" t="inlineStr">
         <is>
@@ -22863,7 +22863,7 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>01/04/2015</t>
+          <t>01/06/2014</t>
         </is>
       </c>
       <c r="B898" t="inlineStr">
@@ -22877,7 +22877,7 @@
         </is>
       </c>
       <c r="D898" t="n">
-        <v>13917.8</v>
+        <v>14977.9</v>
       </c>
       <c r="E898" t="inlineStr">
         <is>
@@ -22888,7 +22888,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>01/08/2015</t>
+          <t>01/05/2014</t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
@@ -22902,7 +22902,7 @@
         </is>
       </c>
       <c r="D899" t="n">
-        <v>11403.3</v>
+        <v>16141.5</v>
       </c>
       <c r="E899" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>01/12/2015</t>
+          <t>01/03/2014</t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
@@ -22927,7 +22927,7 @@
         </is>
       </c>
       <c r="D900" t="n">
-        <v>9425.700000000001</v>
+        <v>15178.7</v>
       </c>
       <c r="E900" t="inlineStr">
         <is>
@@ -22938,7 +22938,7 @@
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>01/02/2015</t>
+          <t>01/11/2014</t>
         </is>
       </c>
       <c r="B901" t="inlineStr">
@@ -22952,7 +22952,7 @@
         </is>
       </c>
       <c r="D901" t="n">
-        <v>13004.4</v>
+        <v>11227.8</v>
       </c>
       <c r="E901" t="inlineStr">
         <is>
@@ -22963,7 +22963,7 @@
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/10/2014</t>
         </is>
       </c>
       <c r="B902" t="inlineStr">
@@ -22977,7 +22977,7 @@
         </is>
       </c>
       <c r="D902" t="n">
-        <v>14478.2</v>
+        <v>14384.8</v>
       </c>
       <c r="E902" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>01/07/2015</t>
+          <t>01/09/2014</t>
         </is>
       </c>
       <c r="B903" t="inlineStr">
@@ -23002,7 +23002,7 @@
         </is>
       </c>
       <c r="D903" t="n">
-        <v>11946.4</v>
+        <v>13936.6</v>
       </c>
       <c r="E903" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>01/06/2015</t>
+          <t>01/04/2015</t>
         </is>
       </c>
       <c r="B904" t="inlineStr">
@@ -23027,7 +23027,7 @@
         </is>
       </c>
       <c r="D904" t="n">
-        <v>12385.6</v>
+        <v>13917.8</v>
       </c>
       <c r="E904" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>01/05/2015</t>
+          <t>01/08/2015</t>
         </is>
       </c>
       <c r="B905" t="inlineStr">
@@ -23052,7 +23052,7 @@
         </is>
       </c>
       <c r="D905" t="n">
-        <v>12823.9</v>
+        <v>11403.3</v>
       </c>
       <c r="E905" t="inlineStr">
         <is>
@@ -23063,7 +23063,7 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>01/03/2015</t>
+          <t>01/12/2015</t>
         </is>
       </c>
       <c r="B906" t="inlineStr">
@@ -23077,7 +23077,7 @@
         </is>
       </c>
       <c r="D906" t="n">
-        <v>14916.8</v>
+        <v>9425.700000000001</v>
       </c>
       <c r="E906" t="inlineStr">
         <is>
@@ -23088,7 +23088,7 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>01/11/2015</t>
+          <t>01/02/2015</t>
         </is>
       </c>
       <c r="B907" t="inlineStr">
@@ -23102,7 +23102,7 @@
         </is>
       </c>
       <c r="D907" t="n">
-        <v>5361.7</v>
+        <v>13004.4</v>
       </c>
       <c r="E907" t="inlineStr">
         <is>
@@ -23113,7 +23113,7 @@
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="B908" t="inlineStr">
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D908" t="n">
-        <v>11384.7</v>
+        <v>14478.2</v>
       </c>
       <c r="E908" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>01/09/2015</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="B909" t="inlineStr">
@@ -23152,7 +23152,7 @@
         </is>
       </c>
       <c r="D909" t="n">
-        <v>11927.3</v>
+        <v>11946.4</v>
       </c>
       <c r="E909" t="inlineStr">
         <is>
@@ -23163,7 +23163,7 @@
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>01/04/2016</t>
+          <t>01/06/2015</t>
         </is>
       </c>
       <c r="B910" t="inlineStr">
@@ -23177,7 +23177,7 @@
         </is>
       </c>
       <c r="D910" t="n">
-        <v>9074.1</v>
+        <v>12385.6</v>
       </c>
       <c r="E910" t="inlineStr">
         <is>
@@ -23188,7 +23188,7 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>01/08/2016</t>
+          <t>01/05/2015</t>
         </is>
       </c>
       <c r="B911" t="inlineStr">
@@ -23202,7 +23202,7 @@
         </is>
       </c>
       <c r="D911" t="n">
-        <v>9273.799999999999</v>
+        <v>12823.9</v>
       </c>
       <c r="E911" t="inlineStr">
         <is>
@@ -23213,7 +23213,7 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>01/12/2016</t>
+          <t>01/03/2015</t>
         </is>
       </c>
       <c r="B912" t="inlineStr">
@@ -23227,7 +23227,7 @@
         </is>
       </c>
       <c r="D912" t="n">
-        <v>3213.5</v>
+        <v>14916.8</v>
       </c>
       <c r="E912" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>01/02/2016</t>
+          <t>01/11/2015</t>
         </is>
       </c>
       <c r="B913" t="inlineStr">
@@ -23252,7 +23252,7 @@
         </is>
       </c>
       <c r="D913" t="n">
-        <v>8886.4</v>
+        <v>5361.7</v>
       </c>
       <c r="E913" t="inlineStr">
         <is>
@@ -23263,7 +23263,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/10/2015</t>
         </is>
       </c>
       <c r="B914" t="inlineStr">
@@ -23277,7 +23277,7 @@
         </is>
       </c>
       <c r="D914" t="n">
-        <v>9118.200000000001</v>
+        <v>11384.7</v>
       </c>
       <c r="E914" t="inlineStr">
         <is>
@@ -23288,7 +23288,7 @@
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
+          <t>01/09/2015</t>
         </is>
       </c>
       <c r="B915" t="inlineStr">
@@ -23302,7 +23302,7 @@
         </is>
       </c>
       <c r="D915" t="n">
-        <v>9093.799999999999</v>
+        <v>11927.3</v>
       </c>
       <c r="E915" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>01/06/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="B916" t="inlineStr">
@@ -23327,7 +23327,7 @@
         </is>
       </c>
       <c r="D916" t="n">
-        <v>8134.5</v>
+        <v>9074.1</v>
       </c>
       <c r="E916" t="inlineStr">
         <is>
@@ -23338,7 +23338,7 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>01/05/2016</t>
+          <t>01/08/2016</t>
         </is>
       </c>
       <c r="B917" t="inlineStr">
@@ -23352,7 +23352,7 @@
         </is>
       </c>
       <c r="D917" t="n">
-        <v>9412.299999999999</v>
+        <v>9273.799999999999</v>
       </c>
       <c r="E917" t="inlineStr">
         <is>
@@ -23363,7 +23363,7 @@
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>01/03/2016</t>
+          <t>01/12/2016</t>
         </is>
       </c>
       <c r="B918" t="inlineStr">
@@ -23377,7 +23377,7 @@
         </is>
       </c>
       <c r="D918" t="n">
-        <v>9861.1</v>
+        <v>3213.5</v>
       </c>
       <c r="E918" t="inlineStr">
         <is>
@@ -23388,7 +23388,7 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>01/11/2016</t>
+          <t>01/02/2016</t>
         </is>
       </c>
       <c r="B919" t="inlineStr">
@@ -23402,7 +23402,7 @@
         </is>
       </c>
       <c r="D919" t="n">
-        <v>7657.6</v>
+        <v>8886.4</v>
       </c>
       <c r="E919" t="inlineStr">
         <is>
@@ -23413,7 +23413,7 @@
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
@@ -23427,7 +23427,7 @@
         </is>
       </c>
       <c r="D920" t="n">
-        <v>8933.1</v>
+        <v>9118.200000000001</v>
       </c>
       <c r="E920" t="inlineStr">
         <is>
@@ -23438,7 +23438,7 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>01/09/2016</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="B921" t="inlineStr">
@@ -23452,7 +23452,7 @@
         </is>
       </c>
       <c r="D921" t="n">
-        <v>8977.299999999999</v>
+        <v>9093.799999999999</v>
       </c>
       <c r="E921" t="inlineStr">
         <is>
@@ -23463,7 +23463,7 @@
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>01/04/2017</t>
+          <t>01/06/2016</t>
         </is>
       </c>
       <c r="B922" t="inlineStr">
@@ -23477,7 +23477,7 @@
         </is>
       </c>
       <c r="D922" t="n">
-        <v>6856.1</v>
+        <v>8134.5</v>
       </c>
       <c r="E922" t="inlineStr">
         <is>
@@ -23488,7 +23488,7 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>01/08/2017</t>
+          <t>01/05/2016</t>
         </is>
       </c>
       <c r="B923" t="inlineStr">
@@ -23502,7 +23502,7 @@
         </is>
       </c>
       <c r="D923" t="n">
-        <v>7185.4</v>
+        <v>9412.299999999999</v>
       </c>
       <c r="E923" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>01/12/2017</t>
+          <t>01/03/2016</t>
         </is>
       </c>
       <c r="B924" t="inlineStr">
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D924" t="n">
-        <v>9617.700000000001</v>
+        <v>9861.1</v>
       </c>
       <c r="E924" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>01/02/2017</t>
+          <t>01/11/2016</t>
         </is>
       </c>
       <c r="B925" t="inlineStr">
@@ -23552,7 +23552,7 @@
         </is>
       </c>
       <c r="D925" t="n">
-        <v>6279.5</v>
+        <v>7657.6</v>
       </c>
       <c r="E925" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/10/2016</t>
         </is>
       </c>
       <c r="B926" t="inlineStr">
@@ -23577,7 +23577,7 @@
         </is>
       </c>
       <c r="D926" t="n">
-        <v>7743.8</v>
+        <v>8933.1</v>
       </c>
       <c r="E926" t="inlineStr">
         <is>
@@ -23588,7 +23588,7 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
+          <t>01/09/2016</t>
         </is>
       </c>
       <c r="B927" t="inlineStr">
@@ -23602,7 +23602,7 @@
         </is>
       </c>
       <c r="D927" t="n">
-        <v>6753.2</v>
+        <v>8977.299999999999</v>
       </c>
       <c r="E927" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>01/06/2017</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="B928" t="inlineStr">
@@ -23627,7 +23627,7 @@
         </is>
       </c>
       <c r="D928" t="n">
-        <v>6679</v>
+        <v>6856.1</v>
       </c>
       <c r="E928" t="inlineStr">
         <is>
@@ -23638,7 +23638,7 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>01/05/2017</t>
+          <t>01/08/2017</t>
         </is>
       </c>
       <c r="B929" t="inlineStr">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="D929" t="n">
-        <v>6777</v>
+        <v>7185.4</v>
       </c>
       <c r="E929" t="inlineStr">
         <is>
@@ -23663,7 +23663,7 @@
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>01/03/2017</t>
+          <t>01/12/2017</t>
         </is>
       </c>
       <c r="B930" t="inlineStr">
@@ -23677,7 +23677,7 @@
         </is>
       </c>
       <c r="D930" t="n">
-        <v>7180</v>
+        <v>9617.700000000001</v>
       </c>
       <c r="E930" t="inlineStr">
         <is>
@@ -23688,7 +23688,7 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>01/11/2017</t>
+          <t>01/02/2017</t>
         </is>
       </c>
       <c r="B931" t="inlineStr">
@@ -23702,7 +23702,7 @@
         </is>
       </c>
       <c r="D931" t="n">
-        <v>7720.9</v>
+        <v>6279.5</v>
       </c>
       <c r="E931" t="inlineStr">
         <is>
@@ -23713,7 +23713,7 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="B932" t="inlineStr">
@@ -23727,7 +23727,7 @@
         </is>
       </c>
       <c r="D932" t="n">
-        <v>7765.07</v>
+        <v>7743.8</v>
       </c>
       <c r="E932" t="inlineStr">
         <is>
@@ -23738,7 +23738,7 @@
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>01/09/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="B933" t="inlineStr">
@@ -23752,7 +23752,7 @@
         </is>
       </c>
       <c r="D933" t="n">
-        <v>7191.4</v>
+        <v>6753.2</v>
       </c>
       <c r="E933" t="inlineStr">
         <is>
@@ -23763,7 +23763,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>01/04/2018</t>
+          <t>01/06/2017</t>
         </is>
       </c>
       <c r="B934" t="inlineStr">
@@ -23777,7 +23777,7 @@
         </is>
       </c>
       <c r="D934" t="n">
-        <v>6020</v>
+        <v>6679</v>
       </c>
       <c r="E934" t="inlineStr">
         <is>
@@ -23788,7 +23788,7 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>01/08/2018</t>
+          <t>01/05/2017</t>
         </is>
       </c>
       <c r="B935" t="inlineStr">
@@ -23802,7 +23802,7 @@
         </is>
       </c>
       <c r="D935" t="n">
-        <v>5969</v>
+        <v>6777</v>
       </c>
       <c r="E935" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>01/12/2018</t>
+          <t>01/03/2017</t>
         </is>
       </c>
       <c r="B936" t="inlineStr">
@@ -23827,7 +23827,7 @@
         </is>
       </c>
       <c r="D936" t="n">
-        <v>6061</v>
+        <v>7180</v>
       </c>
       <c r="E936" t="inlineStr">
         <is>
@@ -23838,7 +23838,7 @@
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>01/02/2018</t>
+          <t>01/11/2017</t>
         </is>
       </c>
       <c r="B937" t="inlineStr">
@@ -23852,7 +23852,7 @@
         </is>
       </c>
       <c r="D937" t="n">
-        <v>6141.6</v>
+        <v>7720.9</v>
       </c>
       <c r="E937" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="B938" t="inlineStr">
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D938" t="n">
-        <v>7289.478</v>
+        <v>7765.07</v>
       </c>
       <c r="E938" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>01/09/2017</t>
         </is>
       </c>
       <c r="B939" t="inlineStr">
@@ -23902,7 +23902,7 @@
         </is>
       </c>
       <c r="D939" t="n">
-        <v>5621.504</v>
+        <v>7191.4</v>
       </c>
       <c r="E939" t="inlineStr">
         <is>
@@ -23913,7 +23913,7 @@
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>01/06/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="B940" t="inlineStr">
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D940" t="n">
-        <v>5487.042</v>
+        <v>6020</v>
       </c>
       <c r="E940" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>01/05/2018</t>
+          <t>01/08/2018</t>
         </is>
       </c>
       <c r="B941" t="inlineStr">
@@ -23952,7 +23952,7 @@
         </is>
       </c>
       <c r="D941" t="n">
-        <v>5549.7</v>
+        <v>5969</v>
       </c>
       <c r="E941" t="inlineStr">
         <is>
@@ -23963,7 +23963,7 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>01/03/2018</t>
+          <t>01/12/2018</t>
         </is>
       </c>
       <c r="B942" t="inlineStr">
@@ -23977,7 +23977,7 @@
         </is>
       </c>
       <c r="D942" t="n">
-        <v>6426.258</v>
+        <v>6061</v>
       </c>
       <c r="E942" t="inlineStr">
         <is>
@@ -23988,7 +23988,7 @@
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>01/11/2018</t>
+          <t>01/02/2018</t>
         </is>
       </c>
       <c r="B943" t="inlineStr">
@@ -24002,7 +24002,7 @@
         </is>
       </c>
       <c r="D943" t="n">
-        <v>5685.5</v>
+        <v>6141.6</v>
       </c>
       <c r="E943" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="B944" t="inlineStr">
@@ -24027,7 +24027,7 @@
         </is>
       </c>
       <c r="D944" t="n">
-        <v>5916.66</v>
+        <v>7289.478</v>
       </c>
       <c r="E944" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>01/09/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="B945" t="inlineStr">
@@ -24052,7 +24052,7 @@
         </is>
       </c>
       <c r="D945" t="n">
-        <v>5970.399</v>
+        <v>5621.504</v>
       </c>
       <c r="E945" t="inlineStr">
         <is>
@@ -24063,7 +24063,7 @@
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/06/2018</t>
         </is>
       </c>
       <c r="B946" t="inlineStr">
@@ -24077,7 +24077,7 @@
         </is>
       </c>
       <c r="D946" t="n">
-        <v>5391.2</v>
+        <v>5487.042</v>
       </c>
       <c r="E946" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>01/08/2019</t>
+          <t>01/05/2018</t>
         </is>
       </c>
       <c r="B947" t="inlineStr">
@@ -24102,7 +24102,7 @@
         </is>
       </c>
       <c r="D947" t="n">
-        <v>4054.5</v>
+        <v>5549.7</v>
       </c>
       <c r="E947" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>01/12/2019</t>
+          <t>01/03/2018</t>
         </is>
       </c>
       <c r="B948" t="inlineStr">
@@ -24127,7 +24127,7 @@
         </is>
       </c>
       <c r="D948" t="n">
-        <v>4830.4</v>
+        <v>6426.258</v>
       </c>
       <c r="E948" t="inlineStr">
         <is>
@@ -24138,7 +24138,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>01/02/2019</t>
+          <t>01/11/2018</t>
         </is>
       </c>
       <c r="B949" t="inlineStr">
@@ -24152,7 +24152,7 @@
         </is>
       </c>
       <c r="D949" t="n">
-        <v>3997.1</v>
+        <v>5685.5</v>
       </c>
       <c r="E949" t="inlineStr">
         <is>
@@ -24163,7 +24163,7 @@
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="B950" t="inlineStr">
@@ -24177,7 +24177,7 @@
         </is>
       </c>
       <c r="D950" t="n">
-        <v>5711.1</v>
+        <v>5916.66</v>
       </c>
       <c r="E950" t="inlineStr">
         <is>
@@ -24188,7 +24188,7 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/09/2018</t>
         </is>
       </c>
       <c r="B951" t="inlineStr">
@@ -24202,7 +24202,7 @@
         </is>
       </c>
       <c r="D951" t="n">
-        <v>4524.82</v>
+        <v>5970.399</v>
       </c>
       <c r="E951" t="inlineStr">
         <is>
@@ -24213,7 +24213,7 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>01/06/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="B952" t="inlineStr">
@@ -24227,7 +24227,7 @@
         </is>
       </c>
       <c r="D952" t="n">
-        <v>4716.577</v>
+        <v>5391.2</v>
       </c>
       <c r="E952" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>01/05/2019</t>
+          <t>01/08/2019</t>
         </is>
       </c>
       <c r="B953" t="inlineStr">
@@ -24252,7 +24252,7 @@
         </is>
       </c>
       <c r="D953" t="n">
-        <v>5361.2</v>
+        <v>4054.5</v>
       </c>
       <c r="E953" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>01/03/2019</t>
+          <t>01/12/2019</t>
         </is>
       </c>
       <c r="B954" t="inlineStr">
@@ -24277,7 +24277,7 @@
         </is>
       </c>
       <c r="D954" t="n">
-        <v>4734.9</v>
+        <v>4830.4</v>
       </c>
       <c r="E954" t="inlineStr">
         <is>
@@ -24288,7 +24288,7 @@
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>01/11/2019</t>
+          <t>01/02/2019</t>
         </is>
       </c>
       <c r="B955" t="inlineStr">
@@ -24302,7 +24302,7 @@
         </is>
       </c>
       <c r="D955" t="n">
-        <v>3812.4</v>
+        <v>3997.1</v>
       </c>
       <c r="E955" t="inlineStr">
         <is>
@@ -24313,7 +24313,7 @@
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="B956" t="inlineStr">
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D956" t="n">
-        <v>4339.8</v>
+        <v>5711.1</v>
       </c>
       <c r="E956" t="inlineStr">
         <is>
@@ -24338,7 +24338,7 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>01/09/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="B957" t="inlineStr">
@@ -24352,7 +24352,7 @@
         </is>
       </c>
       <c r="D957" t="n">
-        <v>3820.9</v>
+        <v>4524.82</v>
       </c>
       <c r="E957" t="inlineStr">
         <is>
@@ -24363,7 +24363,7 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/06/2019</t>
         </is>
       </c>
       <c r="B958" t="inlineStr">
@@ -24377,7 +24377,7 @@
         </is>
       </c>
       <c r="D958" t="n">
-        <v>0</v>
+        <v>4716.577</v>
       </c>
       <c r="E958" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>01/08/2020</t>
+          <t>01/05/2019</t>
         </is>
       </c>
       <c r="B959" t="inlineStr">
@@ -24402,7 +24402,7 @@
         </is>
       </c>
       <c r="D959" t="n">
-        <v>0</v>
+        <v>5361.2</v>
       </c>
       <c r="E959" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>01/12/2020</t>
+          <t>01/03/2019</t>
         </is>
       </c>
       <c r="B960" t="inlineStr">
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="D960" t="n">
-        <v>0</v>
+        <v>4734.9</v>
       </c>
       <c r="E960" t="inlineStr">
         <is>
@@ -24438,7 +24438,7 @@
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>01/02/2020</t>
+          <t>01/11/2019</t>
         </is>
       </c>
       <c r="B961" t="inlineStr">
@@ -24452,7 +24452,7 @@
         </is>
       </c>
       <c r="D961" t="n">
-        <v>5762.358</v>
+        <v>3812.4</v>
       </c>
       <c r="E961" t="inlineStr">
         <is>
@@ -24463,7 +24463,7 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="B962" t="inlineStr">
@@ -24477,7 +24477,7 @@
         </is>
       </c>
       <c r="D962" t="n">
-        <v>5560.337</v>
+        <v>4339.8</v>
       </c>
       <c r="E962" t="inlineStr">
         <is>
@@ -24488,7 +24488,7 @@
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/09/2019</t>
         </is>
       </c>
       <c r="B963" t="inlineStr">
@@ -24502,7 +24502,7 @@
         </is>
       </c>
       <c r="D963" t="n">
-        <v>0</v>
+        <v>3820.9</v>
       </c>
       <c r="E963" t="inlineStr">
         <is>
@@ -24513,7 +24513,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>01/06/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="B964" t="inlineStr">
@@ -24538,7 +24538,7 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>01/05/2020</t>
+          <t>01/08/2020</t>
         </is>
       </c>
       <c r="B965" t="inlineStr">
@@ -24563,7 +24563,7 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>01/03/2020</t>
+          <t>01/12/2020</t>
         </is>
       </c>
       <c r="B966" t="inlineStr">
@@ -24577,7 +24577,7 @@
         </is>
       </c>
       <c r="D966" t="n">
-        <v>5496</v>
+        <v>0</v>
       </c>
       <c r="E966" t="inlineStr">
         <is>
@@ -24588,7 +24588,7 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>01/11/2020</t>
+          <t>01/02/2020</t>
         </is>
       </c>
       <c r="B967" t="inlineStr">
@@ -24602,7 +24602,7 @@
         </is>
       </c>
       <c r="D967" t="n">
-        <v>0</v>
+        <v>5762.358</v>
       </c>
       <c r="E967" t="inlineStr">
         <is>
@@ -24613,7 +24613,7 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="B968" t="inlineStr">
@@ -24627,7 +24627,7 @@
         </is>
       </c>
       <c r="D968" t="n">
-        <v>0</v>
+        <v>5560.337</v>
       </c>
       <c r="E968" t="inlineStr">
         <is>
@@ -24638,7 +24638,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>01/09/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="B969" t="inlineStr">
@@ -24663,7 +24663,7 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/06/2020</t>
         </is>
       </c>
       <c r="B970" t="inlineStr">
@@ -24688,7 +24688,7 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>01/08/2021</t>
+          <t>01/05/2020</t>
         </is>
       </c>
       <c r="B971" t="inlineStr">
@@ -24713,7 +24713,7 @@
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>01/12/2021</t>
+          <t>01/03/2020</t>
         </is>
       </c>
       <c r="B972" t="inlineStr">
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D972" t="n">
-        <v>0</v>
+        <v>5496</v>
       </c>
       <c r="E972" t="inlineStr">
         <is>
@@ -24738,7 +24738,7 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>01/02/2021</t>
+          <t>01/11/2020</t>
         </is>
       </c>
       <c r="B973" t="inlineStr">
@@ -24763,7 +24763,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="B974" t="inlineStr">
@@ -24788,7 +24788,7 @@
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/09/2020</t>
         </is>
       </c>
       <c r="B975" t="inlineStr">
@@ -24813,7 +24813,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>01/06/2021</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="B976" t="inlineStr">
@@ -24838,7 +24838,7 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>01/05/2021</t>
+          <t>01/08/2021</t>
         </is>
       </c>
       <c r="B977" t="inlineStr">
@@ -24863,7 +24863,7 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>01/03/2021</t>
+          <t>01/12/2021</t>
         </is>
       </c>
       <c r="B978" t="inlineStr">
@@ -24888,7 +24888,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>01/11/2021</t>
+          <t>01/02/2021</t>
         </is>
       </c>
       <c r="B979" t="inlineStr">
@@ -24913,7 +24913,7 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="B980" t="inlineStr">
@@ -24938,7 +24938,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>01/09/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="B981" t="inlineStr">
@@ -24963,7 +24963,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/06/2021</t>
         </is>
       </c>
       <c r="B982" t="inlineStr">
@@ -24988,7 +24988,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>01/08/2022</t>
+          <t>01/05/2021</t>
         </is>
       </c>
       <c r="B983" t="inlineStr">
@@ -25013,7 +25013,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>01/12/2022</t>
+          <t>01/03/2021</t>
         </is>
       </c>
       <c r="B984" t="inlineStr">
@@ -25038,7 +25038,7 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>01/02/2022</t>
+          <t>01/11/2021</t>
         </is>
       </c>
       <c r="B985" t="inlineStr">
@@ -25063,7 +25063,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="B986" t="inlineStr">
@@ -25088,7 +25088,7 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/09/2021</t>
         </is>
       </c>
       <c r="B987" t="inlineStr">
@@ -25113,7 +25113,7 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>01/06/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="B988" t="inlineStr">
@@ -25138,7 +25138,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>01/05/2022</t>
+          <t>01/08/2022</t>
         </is>
       </c>
       <c r="B989" t="inlineStr">
@@ -25163,7 +25163,7 @@
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>01/03/2022</t>
+          <t>01/12/2022</t>
         </is>
       </c>
       <c r="B990" t="inlineStr">
@@ -25188,7 +25188,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>01/11/2022</t>
+          <t>01/02/2022</t>
         </is>
       </c>
       <c r="B991" t="inlineStr">
@@ -25213,7 +25213,7 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="B992" t="inlineStr">
@@ -25238,7 +25238,7 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>01/09/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="B993" t="inlineStr">
@@ -25263,7 +25263,7 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/06/2022</t>
         </is>
       </c>
       <c r="B994" t="inlineStr">
@@ -25288,7 +25288,7 @@
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01/05/2022</t>
         </is>
       </c>
       <c r="B995" t="inlineStr">
@@ -25313,7 +25313,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>01/03/2022</t>
         </is>
       </c>
       <c r="B996" t="inlineStr">
@@ -25338,7 +25338,7 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>01/02/2023</t>
+          <t>01/11/2022</t>
         </is>
       </c>
       <c r="B997" t="inlineStr">
@@ -25363,7 +25363,7 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="B998" t="inlineStr">
@@ -25388,7 +25388,7 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/09/2022</t>
         </is>
       </c>
       <c r="B999" t="inlineStr">
@@ -25413,7 +25413,7 @@
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>01/06/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="B1000" t="inlineStr">
@@ -25438,7 +25438,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>01/05/2023</t>
+          <t>01/08/2023</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr">
@@ -25463,7 +25463,7 @@
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>01/03/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="B1002" t="inlineStr">
@@ -25488,7 +25488,7 @@
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>01/11/2023</t>
+          <t>01/02/2023</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr">
@@ -25513,7 +25513,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="B1004" t="inlineStr">
@@ -25538,7 +25538,7 @@
     <row r="1005">
       <c r="A1005" t="inlineStr">
         <is>
-          <t>01/09/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="B1005" t="inlineStr">
@@ -25563,7 +25563,7 @@
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
+          <t>01/06/2023</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr">
@@ -25588,7 +25588,7 @@
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>01/05/2023</t>
         </is>
       </c>
       <c r="B1007" t="inlineStr">
@@ -25613,7 +25613,7 @@
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>01/12/2024</t>
+          <t>01/03/2023</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr">
@@ -25638,7 +25638,7 @@
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>01/02/2024</t>
+          <t>01/11/2023</t>
         </is>
       </c>
       <c r="B1009" t="inlineStr">
@@ -25663,7 +25663,7 @@
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="B1010" t="inlineStr">
@@ -25688,7 +25688,7 @@
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
+          <t>01/09/2023</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr">
@@ -25713,7 +25713,7 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>01/06/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr">
@@ -25738,7 +25738,7 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>01/05/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr">
@@ -25763,7 +25763,7 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>01/03/2024</t>
+          <t>01/12/2024</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr">
@@ -25788,7 +25788,7 @@
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>01/11/2024</t>
+          <t>01/02/2024</t>
         </is>
       </c>
       <c r="B1015" t="inlineStr">
@@ -25813,7 +25813,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>01/10/2024</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr">
@@ -25838,7 +25838,7 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>01/09/2024</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr">
@@ -25863,7 +25863,7 @@
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>01/04/2025</t>
+          <t>01/06/2024</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr">
@@ -25888,7 +25888,7 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>01/02/2025</t>
+          <t>01/05/2024</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr">
@@ -25913,7 +25913,7 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>01/03/2024</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr">
@@ -25938,7 +25938,7 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>01/03/2025</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr">
@@ -25955,6 +25955,231 @@
         <v>0</v>
       </c>
       <c r="E1021" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="inlineStr">
+        <is>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="B1022" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C1022" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1022" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="B1023" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C1023" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1023" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="inlineStr">
+        <is>
+          <t>01/04/2025</t>
+        </is>
+      </c>
+      <c r="B1024" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C1024" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1024" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="inlineStr">
+        <is>
+          <t>01/02/2025</t>
+        </is>
+      </c>
+      <c r="B1025" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C1025" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1025" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="B1026" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C1026" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1026" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="inlineStr">
+        <is>
+          <t>01/07/2025</t>
+        </is>
+      </c>
+      <c r="B1027" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C1027" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1027" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="inlineStr">
+        <is>
+          <t>01/06/2025</t>
+        </is>
+      </c>
+      <c r="B1028" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C1028" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1028" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="inlineStr">
+        <is>
+          <t>01/05/2025</t>
+        </is>
+      </c>
+      <c r="B1029" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C1029" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1029" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="inlineStr">
+        <is>
+          <t>01/03/2025</t>
+        </is>
+      </c>
+      <c r="B1030" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C1030" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1030" t="inlineStr">
         <is>
           <t>SERGIPE</t>
         </is>

--- a/Data/g8.2.xlsx
+++ b/Data/g8.2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1030"/>
+  <dimension ref="A1:E1033"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17313,7 +17313,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>01/02/2025</t>
+          <t>01/08/2025</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
@@ -17327,7 +17327,7 @@
         </is>
       </c>
       <c r="D676" t="n">
-        <v>13.217</v>
+        <v>27.832</v>
       </c>
       <c r="E676" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>01/02/2025</t>
+          <t>01/08/2025</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
@@ -17352,7 +17352,7 @@
         </is>
       </c>
       <c r="D677" t="n">
-        <v>1629.966</v>
+        <v>2133.644</v>
       </c>
       <c r="E677" t="inlineStr">
         <is>
@@ -17363,7 +17363,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>01/02/2025</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
@@ -17377,7 +17377,7 @@
         </is>
       </c>
       <c r="D678" t="n">
-        <v>49.252</v>
+        <v>13.217</v>
       </c>
       <c r="E678" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>01/02/2025</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
@@ -17402,7 +17402,7 @@
         </is>
       </c>
       <c r="D679" t="n">
-        <v>1963.826</v>
+        <v>1629.966</v>
       </c>
       <c r="E679" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>01/07/2025</t>
+          <t>01/01/2025</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
@@ -17427,7 +17427,7 @@
         </is>
       </c>
       <c r="D680" t="n">
-        <v>29.758</v>
+        <v>49.252</v>
       </c>
       <c r="E680" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>01/07/2025</t>
+          <t>01/01/2025</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
@@ -17452,7 +17452,7 @@
         </is>
       </c>
       <c r="D681" t="n">
-        <v>2116.76</v>
+        <v>1963.826</v>
       </c>
       <c r="E681" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>01/06/2025</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
@@ -17477,7 +17477,7 @@
         </is>
       </c>
       <c r="D682" t="n">
-        <v>32.324</v>
+        <v>29.758</v>
       </c>
       <c r="E682" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>01/06/2025</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
@@ -17502,7 +17502,7 @@
         </is>
       </c>
       <c r="D683" t="n">
-        <v>2155.94</v>
+        <v>2116.76</v>
       </c>
       <c r="E683" t="inlineStr">
         <is>
@@ -17513,7 +17513,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>01/05/2025</t>
+          <t>01/06/2025</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D684" t="n">
-        <v>34.575</v>
+        <v>32.324</v>
       </c>
       <c r="E684" t="inlineStr">
         <is>
@@ -17538,7 +17538,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>01/05/2025</t>
+          <t>01/06/2025</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
@@ -17552,7 +17552,7 @@
         </is>
       </c>
       <c r="D685" t="n">
-        <v>2002.332</v>
+        <v>2155.94</v>
       </c>
       <c r="E685" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>01/03/2025</t>
+          <t>01/05/2025</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
@@ -17577,7 +17577,7 @@
         </is>
       </c>
       <c r="D686" t="n">
-        <v>9.792</v>
+        <v>34.575</v>
       </c>
       <c r="E686" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>01/03/2025</t>
+          <t>01/05/2025</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
@@ -17602,7 +17602,7 @@
         </is>
       </c>
       <c r="D687" t="n">
-        <v>1796.277</v>
+        <v>2002.332</v>
       </c>
       <c r="E687" t="inlineStr">
         <is>
@@ -17613,21 +17613,21 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>01/04/1997</t>
+          <t>01/03/2025</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA</t>
+          <t>MAR</t>
         </is>
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>LGN</t>
+          <t>GÁS NATURAL</t>
         </is>
       </c>
       <c r="D688" t="n">
-        <v>20951</v>
+        <v>9.792</v>
       </c>
       <c r="E688" t="inlineStr">
         <is>
@@ -17638,21 +17638,21 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>01/08/1997</t>
+          <t>01/03/2025</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>NÃO SE APLICA</t>
+          <t>TERRA</t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>LGN</t>
+          <t>GÁS NATURAL</t>
         </is>
       </c>
       <c r="D689" t="n">
-        <v>24698</v>
+        <v>1796.277</v>
       </c>
       <c r="E689" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>01/12/1997</t>
+          <t>01/04/1997</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
@@ -17677,7 +17677,7 @@
         </is>
       </c>
       <c r="D690" t="n">
-        <v>23230</v>
+        <v>20951</v>
       </c>
       <c r="E690" t="inlineStr">
         <is>
@@ -17688,7 +17688,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>01/02/1997</t>
+          <t>01/08/1997</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
@@ -17702,7 +17702,7 @@
         </is>
       </c>
       <c r="D691" t="n">
-        <v>19007</v>
+        <v>24698</v>
       </c>
       <c r="E691" t="inlineStr">
         <is>
@@ -17713,7 +17713,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>01/01/1997</t>
+          <t>01/12/1997</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
@@ -17727,7 +17727,7 @@
         </is>
       </c>
       <c r="D692" t="n">
-        <v>18978</v>
+        <v>23230</v>
       </c>
       <c r="E692" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>01/07/1997</t>
+          <t>01/02/1997</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
@@ -17752,7 +17752,7 @@
         </is>
       </c>
       <c r="D693" t="n">
-        <v>23232</v>
+        <v>19007</v>
       </c>
       <c r="E693" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>01/06/1997</t>
+          <t>01/01/1997</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
@@ -17777,7 +17777,7 @@
         </is>
       </c>
       <c r="D694" t="n">
-        <v>22449</v>
+        <v>18978</v>
       </c>
       <c r="E694" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>01/05/1997</t>
+          <t>01/07/1997</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
@@ -17802,7 +17802,7 @@
         </is>
       </c>
       <c r="D695" t="n">
-        <v>24757</v>
+        <v>23232</v>
       </c>
       <c r="E695" t="inlineStr">
         <is>
@@ -17813,7 +17813,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>01/03/1997</t>
+          <t>01/06/1997</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
@@ -17827,7 +17827,7 @@
         </is>
       </c>
       <c r="D696" t="n">
-        <v>19807</v>
+        <v>22449</v>
       </c>
       <c r="E696" t="inlineStr">
         <is>
@@ -17838,7 +17838,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>01/11/1997</t>
+          <t>01/05/1997</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
@@ -17852,7 +17852,7 @@
         </is>
       </c>
       <c r="D697" t="n">
-        <v>22027</v>
+        <v>24757</v>
       </c>
       <c r="E697" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>01/10/1997</t>
+          <t>01/03/1997</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
@@ -17877,7 +17877,7 @@
         </is>
       </c>
       <c r="D698" t="n">
-        <v>21890</v>
+        <v>19807</v>
       </c>
       <c r="E698" t="inlineStr">
         <is>
@@ -17888,7 +17888,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>01/09/1997</t>
+          <t>01/11/1997</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
@@ -17902,7 +17902,7 @@
         </is>
       </c>
       <c r="D699" t="n">
-        <v>22749</v>
+        <v>22027</v>
       </c>
       <c r="E699" t="inlineStr">
         <is>
@@ -17913,7 +17913,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>01/04/1998</t>
+          <t>01/10/1997</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D700" t="n">
-        <v>131778.0699</v>
+        <v>21890</v>
       </c>
       <c r="E700" t="inlineStr">
         <is>
@@ -17938,7 +17938,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>01/08/1998</t>
+          <t>01/09/1997</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
@@ -17952,7 +17952,7 @@
         </is>
       </c>
       <c r="D701" t="n">
-        <v>155346.0346</v>
+        <v>22749</v>
       </c>
       <c r="E701" t="inlineStr">
         <is>
@@ -17963,7 +17963,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>01/12/1998</t>
+          <t>01/04/1998</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
@@ -17977,7 +17977,7 @@
         </is>
       </c>
       <c r="D702" t="n">
-        <v>146112.5752</v>
+        <v>131778.0699</v>
       </c>
       <c r="E702" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>01/02/1998</t>
+          <t>01/08/1998</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
@@ -18002,7 +18002,7 @@
         </is>
       </c>
       <c r="D703" t="n">
-        <v>119550.6551</v>
+        <v>155346.0346</v>
       </c>
       <c r="E703" t="inlineStr">
         <is>
@@ -18013,7 +18013,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>01/01/1998</t>
+          <t>01/12/1998</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
@@ -18027,7 +18027,7 @@
         </is>
       </c>
       <c r="D704" t="n">
-        <v>119368.2502</v>
+        <v>146112.5752</v>
       </c>
       <c r="E704" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>01/07/1998</t>
+          <t>01/02/1998</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
@@ -18052,7 +18052,7 @@
         </is>
       </c>
       <c r="D705" t="n">
-        <v>146125.1549</v>
+        <v>119550.6551</v>
       </c>
       <c r="E705" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>01/06/1998</t>
+          <t>01/01/1998</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
@@ -18077,7 +18077,7 @@
         </is>
       </c>
       <c r="D706" t="n">
-        <v>141200.2239</v>
+        <v>119368.2502</v>
       </c>
       <c r="E706" t="inlineStr">
         <is>
@@ -18088,7 +18088,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>01/05/1998</t>
+          <t>01/07/1998</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
@@ -18102,7 +18102,7 @@
         </is>
       </c>
       <c r="D707" t="n">
-        <v>155717.1341</v>
+        <v>146125.1549</v>
       </c>
       <c r="E707" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>01/03/1998</t>
+          <t>01/06/1998</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
@@ -18127,7 +18127,7 @@
         </is>
       </c>
       <c r="D708" t="n">
-        <v>124582.513</v>
+        <v>141200.2239</v>
       </c>
       <c r="E708" t="inlineStr">
         <is>
@@ -18138,7 +18138,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>01/11/1998</t>
+          <t>01/05/1998</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
@@ -18152,7 +18152,7 @@
         </is>
       </c>
       <c r="D709" t="n">
-        <v>138545.9188</v>
+        <v>155717.1341</v>
       </c>
       <c r="E709" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>01/10/1998</t>
+          <t>01/03/1998</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
@@ -18177,7 +18177,7 @@
         </is>
       </c>
       <c r="D710" t="n">
-        <v>137684.2132</v>
+        <v>124582.513</v>
       </c>
       <c r="E710" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>01/09/1998</t>
+          <t>01/11/1998</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
@@ -18202,7 +18202,7 @@
         </is>
       </c>
       <c r="D711" t="n">
-        <v>143087.1706</v>
+        <v>138545.9188</v>
       </c>
       <c r="E711" t="inlineStr">
         <is>
@@ -18213,7 +18213,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>01/04/1999</t>
+          <t>01/10/1998</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
@@ -18227,7 +18227,7 @@
         </is>
       </c>
       <c r="D712" t="n">
-        <v>24546</v>
+        <v>137684.2132</v>
       </c>
       <c r="E712" t="inlineStr">
         <is>
@@ -18238,7 +18238,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>01/08/1999</t>
+          <t>01/09/1998</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
@@ -18252,7 +18252,7 @@
         </is>
       </c>
       <c r="D713" t="n">
-        <v>23247</v>
+        <v>143087.1706</v>
       </c>
       <c r="E713" t="inlineStr">
         <is>
@@ -18263,7 +18263,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>01/12/1999</t>
+          <t>01/04/1999</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
@@ -18277,7 +18277,7 @@
         </is>
       </c>
       <c r="D714" t="n">
-        <v>24640</v>
+        <v>24546</v>
       </c>
       <c r="E714" t="inlineStr">
         <is>
@@ -18288,7 +18288,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>01/02/1999</t>
+          <t>01/08/1999</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
@@ -18302,7 +18302,7 @@
         </is>
       </c>
       <c r="D715" t="n">
-        <v>22448</v>
+        <v>23247</v>
       </c>
       <c r="E715" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>01/01/1999</t>
+          <t>01/12/1999</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D716" t="n">
-        <v>24629</v>
+        <v>24640</v>
       </c>
       <c r="E716" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>01/07/1999</t>
+          <t>01/02/1999</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
@@ -18352,7 +18352,7 @@
         </is>
       </c>
       <c r="D717" t="n">
-        <v>22323</v>
+        <v>22448</v>
       </c>
       <c r="E717" t="inlineStr">
         <is>
@@ -18363,7 +18363,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>01/06/1999</t>
+          <t>01/01/1999</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
@@ -18377,7 +18377,7 @@
         </is>
       </c>
       <c r="D718" t="n">
-        <v>24653</v>
+        <v>24629</v>
       </c>
       <c r="E718" t="inlineStr">
         <is>
@@ -18388,7 +18388,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>01/05/1999</t>
+          <t>01/07/1999</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
@@ -18402,7 +18402,7 @@
         </is>
       </c>
       <c r="D719" t="n">
-        <v>25678</v>
+        <v>22323</v>
       </c>
       <c r="E719" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>01/03/1999</t>
+          <t>01/06/1999</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
@@ -18427,7 +18427,7 @@
         </is>
       </c>
       <c r="D720" t="n">
-        <v>25737</v>
+        <v>24653</v>
       </c>
       <c r="E720" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>01/11/1999</t>
+          <t>01/05/1999</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
@@ -18452,7 +18452,7 @@
         </is>
       </c>
       <c r="D721" t="n">
-        <v>25481</v>
+        <v>25678</v>
       </c>
       <c r="E721" t="inlineStr">
         <is>
@@ -18463,7 +18463,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>01/10/1999</t>
+          <t>01/03/1999</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D722" t="n">
-        <v>25601</v>
+        <v>25737</v>
       </c>
       <c r="E722" t="inlineStr">
         <is>
@@ -18488,7 +18488,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>01/09/1999</t>
+          <t>01/11/1999</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
@@ -18502,7 +18502,7 @@
         </is>
       </c>
       <c r="D723" t="n">
-        <v>24686</v>
+        <v>25481</v>
       </c>
       <c r="E723" t="inlineStr">
         <is>
@@ -18513,7 +18513,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>01/04/2000</t>
+          <t>01/10/1999</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
@@ -18527,7 +18527,7 @@
         </is>
       </c>
       <c r="D724" t="n">
-        <v>25440</v>
+        <v>25601</v>
       </c>
       <c r="E724" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>01/08/2000</t>
+          <t>01/09/1999</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
@@ -18552,7 +18552,7 @@
         </is>
       </c>
       <c r="D725" t="n">
-        <v>27353</v>
+        <v>24686</v>
       </c>
       <c r="E725" t="inlineStr">
         <is>
@@ -18563,7 +18563,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>01/12/2000</t>
+          <t>01/04/2000</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
@@ -18577,7 +18577,7 @@
         </is>
       </c>
       <c r="D726" t="n">
-        <v>26071</v>
+        <v>25440</v>
       </c>
       <c r="E726" t="inlineStr">
         <is>
@@ -18588,7 +18588,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>01/02/2000</t>
+          <t>01/08/2000</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
@@ -18602,7 +18602,7 @@
         </is>
       </c>
       <c r="D727" t="n">
-        <v>25123</v>
+        <v>27353</v>
       </c>
       <c r="E727" t="inlineStr">
         <is>
@@ -18613,7 +18613,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>01/01/2000</t>
+          <t>01/12/2000</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
@@ -18627,7 +18627,7 @@
         </is>
       </c>
       <c r="D728" t="n">
-        <v>26480</v>
+        <v>26071</v>
       </c>
       <c r="E728" t="inlineStr">
         <is>
@@ -18638,7 +18638,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>01/07/2000</t>
+          <t>01/02/2000</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
@@ -18652,7 +18652,7 @@
         </is>
       </c>
       <c r="D729" t="n">
-        <v>26914</v>
+        <v>25123</v>
       </c>
       <c r="E729" t="inlineStr">
         <is>
@@ -18663,7 +18663,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>01/06/2000</t>
+          <t>01/01/2000</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
@@ -18677,7 +18677,7 @@
         </is>
       </c>
       <c r="D730" t="n">
-        <v>26044</v>
+        <v>26480</v>
       </c>
       <c r="E730" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>01/05/2000</t>
+          <t>01/07/2000</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
@@ -18702,7 +18702,7 @@
         </is>
       </c>
       <c r="D731" t="n">
-        <v>26406</v>
+        <v>26914</v>
       </c>
       <c r="E731" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>01/03/2000</t>
+          <t>01/06/2000</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D732" t="n">
-        <v>26572</v>
+        <v>26044</v>
       </c>
       <c r="E732" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>01/11/2000</t>
+          <t>01/05/2000</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
@@ -18752,7 +18752,7 @@
         </is>
       </c>
       <c r="D733" t="n">
-        <v>13928</v>
+        <v>26406</v>
       </c>
       <c r="E733" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>01/10/2000</t>
+          <t>01/03/2000</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
@@ -18777,7 +18777,7 @@
         </is>
       </c>
       <c r="D734" t="n">
-        <v>26965</v>
+        <v>26572</v>
       </c>
       <c r="E734" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>01/09/2000</t>
+          <t>01/11/2000</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
@@ -18802,7 +18802,7 @@
         </is>
       </c>
       <c r="D735" t="n">
-        <v>26129</v>
+        <v>13928</v>
       </c>
       <c r="E735" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>01/04/2001</t>
+          <t>01/10/2000</t>
         </is>
       </c>
       <c r="B736" t="inlineStr">
@@ -18827,7 +18827,7 @@
         </is>
       </c>
       <c r="D736" t="n">
-        <v>18378</v>
+        <v>26965</v>
       </c>
       <c r="E736" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>01/08/2001</t>
+          <t>01/09/2000</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
@@ -18852,7 +18852,7 @@
         </is>
       </c>
       <c r="D737" t="n">
-        <v>26465</v>
+        <v>26129</v>
       </c>
       <c r="E737" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>01/12/2001</t>
+          <t>01/04/2001</t>
         </is>
       </c>
       <c r="B738" t="inlineStr">
@@ -18877,7 +18877,7 @@
         </is>
       </c>
       <c r="D738" t="n">
-        <v>26876</v>
+        <v>18378</v>
       </c>
       <c r="E738" t="inlineStr">
         <is>
@@ -18888,7 +18888,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>01/02/2001</t>
+          <t>01/08/2001</t>
         </is>
       </c>
       <c r="B739" t="inlineStr">
@@ -18902,7 +18902,7 @@
         </is>
       </c>
       <c r="D739" t="n">
-        <v>23797</v>
+        <v>26465</v>
       </c>
       <c r="E739" t="inlineStr">
         <is>
@@ -18913,7 +18913,7 @@
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>01/01/2001</t>
+          <t>01/12/2001</t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
@@ -18927,7 +18927,7 @@
         </is>
       </c>
       <c r="D740" t="n">
-        <v>26536</v>
+        <v>26876</v>
       </c>
       <c r="E740" t="inlineStr">
         <is>
@@ -18938,7 +18938,7 @@
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>01/07/2001</t>
+          <t>01/02/2001</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
@@ -18952,7 +18952,7 @@
         </is>
       </c>
       <c r="D741" t="n">
-        <v>27236</v>
+        <v>23797</v>
       </c>
       <c r="E741" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>01/06/2001</t>
+          <t>01/01/2001</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
@@ -18977,7 +18977,7 @@
         </is>
       </c>
       <c r="D742" t="n">
-        <v>25806</v>
+        <v>26536</v>
       </c>
       <c r="E742" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>01/05/2001</t>
+          <t>01/07/2001</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
@@ -19002,7 +19002,7 @@
         </is>
       </c>
       <c r="D743" t="n">
-        <v>22691</v>
+        <v>27236</v>
       </c>
       <c r="E743" t="inlineStr">
         <is>
@@ -19013,7 +19013,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>01/03/2001</t>
+          <t>01/06/2001</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="D744" t="n">
-        <v>25605</v>
+        <v>25806</v>
       </c>
       <c r="E744" t="inlineStr">
         <is>
@@ -19038,7 +19038,7 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>01/11/2001</t>
+          <t>01/05/2001</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
@@ -19052,7 +19052,7 @@
         </is>
       </c>
       <c r="D745" t="n">
-        <v>25852</v>
+        <v>22691</v>
       </c>
       <c r="E745" t="inlineStr">
         <is>
@@ -19063,7 +19063,7 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>01/10/2001</t>
+          <t>01/03/2001</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
@@ -19077,7 +19077,7 @@
         </is>
       </c>
       <c r="D746" t="n">
-        <v>26322</v>
+        <v>25605</v>
       </c>
       <c r="E746" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>01/09/2001</t>
+          <t>01/11/2001</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
@@ -19102,7 +19102,7 @@
         </is>
       </c>
       <c r="D747" t="n">
-        <v>23625</v>
+        <v>25852</v>
       </c>
       <c r="E747" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>01/04/2002</t>
+          <t>01/10/2001</t>
         </is>
       </c>
       <c r="B748" t="inlineStr">
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D748" t="n">
-        <v>23065</v>
+        <v>26322</v>
       </c>
       <c r="E748" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>01/08/2002</t>
+          <t>01/09/2001</t>
         </is>
       </c>
       <c r="B749" t="inlineStr">
@@ -19152,7 +19152,7 @@
         </is>
       </c>
       <c r="D749" t="n">
-        <v>25580</v>
+        <v>23625</v>
       </c>
       <c r="E749" t="inlineStr">
         <is>
@@ -19163,7 +19163,7 @@
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>01/12/2002</t>
+          <t>01/04/2002</t>
         </is>
       </c>
       <c r="B750" t="inlineStr">
@@ -19177,7 +19177,7 @@
         </is>
       </c>
       <c r="D750" t="n">
-        <v>24957</v>
+        <v>23065</v>
       </c>
       <c r="E750" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>01/02/2002</t>
+          <t>01/08/2002</t>
         </is>
       </c>
       <c r="B751" t="inlineStr">
@@ -19202,7 +19202,7 @@
         </is>
       </c>
       <c r="D751" t="n">
-        <v>24096</v>
+        <v>25580</v>
       </c>
       <c r="E751" t="inlineStr">
         <is>
@@ -19213,7 +19213,7 @@
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>01/01/2002</t>
+          <t>01/12/2002</t>
         </is>
       </c>
       <c r="B752" t="inlineStr">
@@ -19227,7 +19227,7 @@
         </is>
       </c>
       <c r="D752" t="n">
-        <v>27239</v>
+        <v>24957</v>
       </c>
       <c r="E752" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>01/07/2002</t>
+          <t>01/02/2002</t>
         </is>
       </c>
       <c r="B753" t="inlineStr">
@@ -19252,7 +19252,7 @@
         </is>
       </c>
       <c r="D753" t="n">
-        <v>25911</v>
+        <v>24096</v>
       </c>
       <c r="E753" t="inlineStr">
         <is>
@@ -19263,7 +19263,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>01/06/2002</t>
+          <t>01/01/2002</t>
         </is>
       </c>
       <c r="B754" t="inlineStr">
@@ -19277,7 +19277,7 @@
         </is>
       </c>
       <c r="D754" t="n">
-        <v>24854</v>
+        <v>27239</v>
       </c>
       <c r="E754" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>01/05/2002</t>
+          <t>01/07/2002</t>
         </is>
       </c>
       <c r="B755" t="inlineStr">
@@ -19302,7 +19302,7 @@
         </is>
       </c>
       <c r="D755" t="n">
-        <v>24983</v>
+        <v>25911</v>
       </c>
       <c r="E755" t="inlineStr">
         <is>
@@ -19313,7 +19313,7 @@
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>01/03/2002</t>
+          <t>01/06/2002</t>
         </is>
       </c>
       <c r="B756" t="inlineStr">
@@ -19327,7 +19327,7 @@
         </is>
       </c>
       <c r="D756" t="n">
-        <v>25381</v>
+        <v>24854</v>
       </c>
       <c r="E756" t="inlineStr">
         <is>
@@ -19338,7 +19338,7 @@
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>01/11/2002</t>
+          <t>01/05/2002</t>
         </is>
       </c>
       <c r="B757" t="inlineStr">
@@ -19352,7 +19352,7 @@
         </is>
       </c>
       <c r="D757" t="n">
-        <v>24648</v>
+        <v>24983</v>
       </c>
       <c r="E757" t="inlineStr">
         <is>
@@ -19363,7 +19363,7 @@
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>01/10/2002</t>
+          <t>01/03/2002</t>
         </is>
       </c>
       <c r="B758" t="inlineStr">
@@ -19377,7 +19377,7 @@
         </is>
       </c>
       <c r="D758" t="n">
-        <v>24992</v>
+        <v>25381</v>
       </c>
       <c r="E758" t="inlineStr">
         <is>
@@ -19388,7 +19388,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>01/09/2002</t>
+          <t>01/11/2002</t>
         </is>
       </c>
       <c r="B759" t="inlineStr">
@@ -19402,7 +19402,7 @@
         </is>
       </c>
       <c r="D759" t="n">
-        <v>24400</v>
+        <v>24648</v>
       </c>
       <c r="E759" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>01/04/2003</t>
+          <t>01/10/2002</t>
         </is>
       </c>
       <c r="B760" t="inlineStr">
@@ -19427,7 +19427,7 @@
         </is>
       </c>
       <c r="D760" t="n">
-        <v>20841</v>
+        <v>24992</v>
       </c>
       <c r="E760" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>01/08/2003</t>
+          <t>01/09/2002</t>
         </is>
       </c>
       <c r="B761" t="inlineStr">
@@ -19452,7 +19452,7 @@
         </is>
       </c>
       <c r="D761" t="n">
-        <v>25463</v>
+        <v>24400</v>
       </c>
       <c r="E761" t="inlineStr">
         <is>
@@ -19463,7 +19463,7 @@
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>01/12/2003</t>
+          <t>01/04/2003</t>
         </is>
       </c>
       <c r="B762" t="inlineStr">
@@ -19477,7 +19477,7 @@
         </is>
       </c>
       <c r="D762" t="n">
-        <v>24965</v>
+        <v>20841</v>
       </c>
       <c r="E762" t="inlineStr">
         <is>
@@ -19488,7 +19488,7 @@
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>01/02/2003</t>
+          <t>01/08/2003</t>
         </is>
       </c>
       <c r="B763" t="inlineStr">
@@ -19502,7 +19502,7 @@
         </is>
       </c>
       <c r="D763" t="n">
-        <v>20388</v>
+        <v>25463</v>
       </c>
       <c r="E763" t="inlineStr">
         <is>
@@ -19513,7 +19513,7 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>01/01/2003</t>
+          <t>01/12/2003</t>
         </is>
       </c>
       <c r="B764" t="inlineStr">
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D764" t="n">
-        <v>24971</v>
+        <v>24965</v>
       </c>
       <c r="E764" t="inlineStr">
         <is>
@@ -19538,7 +19538,7 @@
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>01/07/2003</t>
+          <t>01/02/2003</t>
         </is>
       </c>
       <c r="B765" t="inlineStr">
@@ -19552,7 +19552,7 @@
         </is>
       </c>
       <c r="D765" t="n">
-        <v>23560</v>
+        <v>20388</v>
       </c>
       <c r="E765" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>01/06/2003</t>
+          <t>01/01/2003</t>
         </is>
       </c>
       <c r="B766" t="inlineStr">
@@ -19577,7 +19577,7 @@
         </is>
       </c>
       <c r="D766" t="n">
-        <v>22761</v>
+        <v>24971</v>
       </c>
       <c r="E766" t="inlineStr">
         <is>
@@ -19588,7 +19588,7 @@
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>01/05/2003</t>
+          <t>01/07/2003</t>
         </is>
       </c>
       <c r="B767" t="inlineStr">
@@ -19602,7 +19602,7 @@
         </is>
       </c>
       <c r="D767" t="n">
-        <v>23510</v>
+        <v>23560</v>
       </c>
       <c r="E767" t="inlineStr">
         <is>
@@ -19613,7 +19613,7 @@
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>01/03/2003</t>
+          <t>01/06/2003</t>
         </is>
       </c>
       <c r="B768" t="inlineStr">
@@ -19627,7 +19627,7 @@
         </is>
       </c>
       <c r="D768" t="n">
-        <v>25907</v>
+        <v>22761</v>
       </c>
       <c r="E768" t="inlineStr">
         <is>
@@ -19638,7 +19638,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>01/11/2003</t>
+          <t>01/05/2003</t>
         </is>
       </c>
       <c r="B769" t="inlineStr">
@@ -19652,7 +19652,7 @@
         </is>
       </c>
       <c r="D769" t="n">
-        <v>24041</v>
+        <v>23510</v>
       </c>
       <c r="E769" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>01/10/2003</t>
+          <t>01/03/2003</t>
         </is>
       </c>
       <c r="B770" t="inlineStr">
@@ -19677,7 +19677,7 @@
         </is>
       </c>
       <c r="D770" t="n">
-        <v>24023</v>
+        <v>25907</v>
       </c>
       <c r="E770" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>01/09/2003</t>
+          <t>01/11/2003</t>
         </is>
       </c>
       <c r="B771" t="inlineStr">
@@ -19702,7 +19702,7 @@
         </is>
       </c>
       <c r="D771" t="n">
-        <v>24294</v>
+        <v>24041</v>
       </c>
       <c r="E771" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>01/04/2004</t>
+          <t>01/10/2003</t>
         </is>
       </c>
       <c r="B772" t="inlineStr">
@@ -19727,7 +19727,7 @@
         </is>
       </c>
       <c r="D772" t="n">
-        <v>24411</v>
+        <v>24023</v>
       </c>
       <c r="E772" t="inlineStr">
         <is>
@@ -19738,7 +19738,7 @@
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>01/08/2004</t>
+          <t>01/09/2003</t>
         </is>
       </c>
       <c r="B773" t="inlineStr">
@@ -19752,7 +19752,7 @@
         </is>
       </c>
       <c r="D773" t="n">
-        <v>25873</v>
+        <v>24294</v>
       </c>
       <c r="E773" t="inlineStr">
         <is>
@@ -19763,7 +19763,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>01/12/2004</t>
+          <t>01/04/2004</t>
         </is>
       </c>
       <c r="B774" t="inlineStr">
@@ -19777,7 +19777,7 @@
         </is>
       </c>
       <c r="D774" t="n">
-        <v>25343</v>
+        <v>24411</v>
       </c>
       <c r="E774" t="inlineStr">
         <is>
@@ -19788,7 +19788,7 @@
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>01/02/2004</t>
+          <t>01/08/2004</t>
         </is>
       </c>
       <c r="B775" t="inlineStr">
@@ -19802,7 +19802,7 @@
         </is>
       </c>
       <c r="D775" t="n">
-        <v>23497</v>
+        <v>25873</v>
       </c>
       <c r="E775" t="inlineStr">
         <is>
@@ -19813,7 +19813,7 @@
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>01/01/2004</t>
+          <t>01/12/2004</t>
         </is>
       </c>
       <c r="B776" t="inlineStr">
@@ -19827,7 +19827,7 @@
         </is>
       </c>
       <c r="D776" t="n">
-        <v>23975</v>
+        <v>25343</v>
       </c>
       <c r="E776" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>01/02/2004</t>
         </is>
       </c>
       <c r="B777" t="inlineStr">
@@ -19852,7 +19852,7 @@
         </is>
       </c>
       <c r="D777" t="n">
-        <v>24979</v>
+        <v>23497</v>
       </c>
       <c r="E777" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>01/06/2004</t>
+          <t>01/01/2004</t>
         </is>
       </c>
       <c r="B778" t="inlineStr">
@@ -19877,7 +19877,7 @@
         </is>
       </c>
       <c r="D778" t="n">
-        <v>23413</v>
+        <v>23975</v>
       </c>
       <c r="E778" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>01/05/2004</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="B779" t="inlineStr">
@@ -19902,7 +19902,7 @@
         </is>
       </c>
       <c r="D779" t="n">
-        <v>21313</v>
+        <v>24979</v>
       </c>
       <c r="E779" t="inlineStr">
         <is>
@@ -19913,7 +19913,7 @@
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>01/03/2004</t>
+          <t>01/06/2004</t>
         </is>
       </c>
       <c r="B780" t="inlineStr">
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D780" t="n">
-        <v>25118</v>
+        <v>23413</v>
       </c>
       <c r="E780" t="inlineStr">
         <is>
@@ -19938,7 +19938,7 @@
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>01/11/2004</t>
+          <t>01/05/2004</t>
         </is>
       </c>
       <c r="B781" t="inlineStr">
@@ -19952,7 +19952,7 @@
         </is>
       </c>
       <c r="D781" t="n">
-        <v>24463</v>
+        <v>21313</v>
       </c>
       <c r="E781" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>01/10/2004</t>
+          <t>01/03/2004</t>
         </is>
       </c>
       <c r="B782" t="inlineStr">
@@ -19977,7 +19977,7 @@
         </is>
       </c>
       <c r="D782" t="n">
-        <v>25566</v>
+        <v>25118</v>
       </c>
       <c r="E782" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>01/09/2004</t>
+          <t>01/11/2004</t>
         </is>
       </c>
       <c r="B783" t="inlineStr">
@@ -20002,7 +20002,7 @@
         </is>
       </c>
       <c r="D783" t="n">
-        <v>24720</v>
+        <v>24463</v>
       </c>
       <c r="E783" t="inlineStr">
         <is>
@@ -20013,7 +20013,7 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>01/04/2005</t>
+          <t>01/10/2004</t>
         </is>
       </c>
       <c r="B784" t="inlineStr">
@@ -20027,7 +20027,7 @@
         </is>
       </c>
       <c r="D784" t="n">
-        <v>23924</v>
+        <v>25566</v>
       </c>
       <c r="E784" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>01/08/2005</t>
+          <t>01/09/2004</t>
         </is>
       </c>
       <c r="B785" t="inlineStr">
@@ -20052,7 +20052,7 @@
         </is>
       </c>
       <c r="D785" t="n">
-        <v>25213</v>
+        <v>24720</v>
       </c>
       <c r="E785" t="inlineStr">
         <is>
@@ -20063,7 +20063,7 @@
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>01/12/2005</t>
+          <t>01/04/2005</t>
         </is>
       </c>
       <c r="B786" t="inlineStr">
@@ -20077,7 +20077,7 @@
         </is>
       </c>
       <c r="D786" t="n">
-        <v>24602</v>
+        <v>23924</v>
       </c>
       <c r="E786" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>01/02/2005</t>
+          <t>01/08/2005</t>
         </is>
       </c>
       <c r="B787" t="inlineStr">
@@ -20102,7 +20102,7 @@
         </is>
       </c>
       <c r="D787" t="n">
-        <v>22710</v>
+        <v>25213</v>
       </c>
       <c r="E787" t="inlineStr">
         <is>
@@ -20113,7 +20113,7 @@
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>01/01/2005</t>
+          <t>01/12/2005</t>
         </is>
       </c>
       <c r="B788" t="inlineStr">
@@ -20127,7 +20127,7 @@
         </is>
       </c>
       <c r="D788" t="n">
-        <v>24972</v>
+        <v>24602</v>
       </c>
       <c r="E788" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>01/07/2005</t>
+          <t>01/02/2005</t>
         </is>
       </c>
       <c r="B789" t="inlineStr">
@@ -20152,7 +20152,7 @@
         </is>
       </c>
       <c r="D789" t="n">
-        <v>25582</v>
+        <v>22710</v>
       </c>
       <c r="E789" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>01/06/2005</t>
+          <t>01/01/2005</t>
         </is>
       </c>
       <c r="B790" t="inlineStr">
@@ -20177,7 +20177,7 @@
         </is>
       </c>
       <c r="D790" t="n">
-        <v>24359</v>
+        <v>24972</v>
       </c>
       <c r="E790" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>01/05/2005</t>
+          <t>01/07/2005</t>
         </is>
       </c>
       <c r="B791" t="inlineStr">
@@ -20202,7 +20202,7 @@
         </is>
       </c>
       <c r="D791" t="n">
-        <v>24053</v>
+        <v>25582</v>
       </c>
       <c r="E791" t="inlineStr">
         <is>
@@ -20213,7 +20213,7 @@
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>01/03/2005</t>
+          <t>01/06/2005</t>
         </is>
       </c>
       <c r="B792" t="inlineStr">
@@ -20227,7 +20227,7 @@
         </is>
       </c>
       <c r="D792" t="n">
-        <v>24836</v>
+        <v>24359</v>
       </c>
       <c r="E792" t="inlineStr">
         <is>
@@ -20238,7 +20238,7 @@
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>01/11/2005</t>
+          <t>01/05/2005</t>
         </is>
       </c>
       <c r="B793" t="inlineStr">
@@ -20252,7 +20252,7 @@
         </is>
       </c>
       <c r="D793" t="n">
-        <v>24169</v>
+        <v>24053</v>
       </c>
       <c r="E793" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>01/10/2005</t>
+          <t>01/03/2005</t>
         </is>
       </c>
       <c r="B794" t="inlineStr">
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D794" t="n">
-        <v>26281</v>
+        <v>24836</v>
       </c>
       <c r="E794" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>01/09/2005</t>
+          <t>01/11/2005</t>
         </is>
       </c>
       <c r="B795" t="inlineStr">
@@ -20302,7 +20302,7 @@
         </is>
       </c>
       <c r="D795" t="n">
-        <v>24180</v>
+        <v>24169</v>
       </c>
       <c r="E795" t="inlineStr">
         <is>
@@ -20313,7 +20313,7 @@
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>01/04/2006</t>
+          <t>01/10/2005</t>
         </is>
       </c>
       <c r="B796" t="inlineStr">
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D796" t="n">
-        <v>24527</v>
+        <v>26281</v>
       </c>
       <c r="E796" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>01/08/2006</t>
+          <t>01/09/2005</t>
         </is>
       </c>
       <c r="B797" t="inlineStr">
@@ -20352,7 +20352,7 @@
         </is>
       </c>
       <c r="D797" t="n">
-        <v>25491</v>
+        <v>24180</v>
       </c>
       <c r="E797" t="inlineStr">
         <is>
@@ -20363,7 +20363,7 @@
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>01/12/2006</t>
+          <t>01/04/2006</t>
         </is>
       </c>
       <c r="B798" t="inlineStr">
@@ -20377,7 +20377,7 @@
         </is>
       </c>
       <c r="D798" t="n">
-        <v>25271</v>
+        <v>24527</v>
       </c>
       <c r="E798" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>01/02/2006</t>
+          <t>01/08/2006</t>
         </is>
       </c>
       <c r="B799" t="inlineStr">
@@ -20402,7 +20402,7 @@
         </is>
       </c>
       <c r="D799" t="n">
-        <v>23056</v>
+        <v>25491</v>
       </c>
       <c r="E799" t="inlineStr">
         <is>
@@ -20413,7 +20413,7 @@
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>01/01/2006</t>
+          <t>01/12/2006</t>
         </is>
       </c>
       <c r="B800" t="inlineStr">
@@ -20427,7 +20427,7 @@
         </is>
       </c>
       <c r="D800" t="n">
-        <v>24843</v>
+        <v>25271</v>
       </c>
       <c r="E800" t="inlineStr">
         <is>
@@ -20438,7 +20438,7 @@
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>01/07/2006</t>
+          <t>01/02/2006</t>
         </is>
       </c>
       <c r="B801" t="inlineStr">
@@ -20452,7 +20452,7 @@
         </is>
       </c>
       <c r="D801" t="n">
-        <v>25344</v>
+        <v>23056</v>
       </c>
       <c r="E801" t="inlineStr">
         <is>
@@ -20463,7 +20463,7 @@
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>01/06/2006</t>
+          <t>01/01/2006</t>
         </is>
       </c>
       <c r="B802" t="inlineStr">
@@ -20477,7 +20477,7 @@
         </is>
       </c>
       <c r="D802" t="n">
-        <v>25090</v>
+        <v>24843</v>
       </c>
       <c r="E802" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>01/05/2006</t>
+          <t>01/07/2006</t>
         </is>
       </c>
       <c r="B803" t="inlineStr">
@@ -20502,7 +20502,7 @@
         </is>
       </c>
       <c r="D803" t="n">
-        <v>25719</v>
+        <v>25344</v>
       </c>
       <c r="E803" t="inlineStr">
         <is>
@@ -20513,7 +20513,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>01/03/2006</t>
+          <t>01/06/2006</t>
         </is>
       </c>
       <c r="B804" t="inlineStr">
@@ -20527,7 +20527,7 @@
         </is>
       </c>
       <c r="D804" t="n">
-        <v>11740</v>
+        <v>25090</v>
       </c>
       <c r="E804" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>01/11/2006</t>
+          <t>01/05/2006</t>
         </is>
       </c>
       <c r="B805" t="inlineStr">
@@ -20552,7 +20552,7 @@
         </is>
       </c>
       <c r="D805" t="n">
-        <v>23278</v>
+        <v>25719</v>
       </c>
       <c r="E805" t="inlineStr">
         <is>
@@ -20563,7 +20563,7 @@
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>01/10/2006</t>
+          <t>01/03/2006</t>
         </is>
       </c>
       <c r="B806" t="inlineStr">
@@ -20577,7 +20577,7 @@
         </is>
       </c>
       <c r="D806" t="n">
-        <v>23622</v>
+        <v>11740</v>
       </c>
       <c r="E806" t="inlineStr">
         <is>
@@ -20588,7 +20588,7 @@
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>01/09/2006</t>
+          <t>01/11/2006</t>
         </is>
       </c>
       <c r="B807" t="inlineStr">
@@ -20602,7 +20602,7 @@
         </is>
       </c>
       <c r="D807" t="n">
-        <v>24562</v>
+        <v>23278</v>
       </c>
       <c r="E807" t="inlineStr">
         <is>
@@ -20613,7 +20613,7 @@
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>01/04/2007</t>
+          <t>01/10/2006</t>
         </is>
       </c>
       <c r="B808" t="inlineStr">
@@ -20627,7 +20627,7 @@
         </is>
       </c>
       <c r="D808" t="n">
-        <v>21384</v>
+        <v>23622</v>
       </c>
       <c r="E808" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>01/08/2007</t>
+          <t>01/09/2006</t>
         </is>
       </c>
       <c r="B809" t="inlineStr">
@@ -20652,7 +20652,7 @@
         </is>
       </c>
       <c r="D809" t="n">
-        <v>23805</v>
+        <v>24562</v>
       </c>
       <c r="E809" t="inlineStr">
         <is>
@@ -20663,7 +20663,7 @@
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>01/12/2007</t>
+          <t>01/04/2007</t>
         </is>
       </c>
       <c r="B810" t="inlineStr">
@@ -20677,7 +20677,7 @@
         </is>
       </c>
       <c r="D810" t="n">
-        <v>22898</v>
+        <v>21384</v>
       </c>
       <c r="E810" t="inlineStr">
         <is>
@@ -20688,7 +20688,7 @@
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>01/02/2007</t>
+          <t>01/08/2007</t>
         </is>
       </c>
       <c r="B811" t="inlineStr">
@@ -20702,7 +20702,7 @@
         </is>
       </c>
       <c r="D811" t="n">
-        <v>21968</v>
+        <v>23805</v>
       </c>
       <c r="E811" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>01/01/2007</t>
+          <t>01/12/2007</t>
         </is>
       </c>
       <c r="B812" t="inlineStr">
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D812" t="n">
-        <v>25496</v>
+        <v>22898</v>
       </c>
       <c r="E812" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>01/07/2007</t>
+          <t>01/02/2007</t>
         </is>
       </c>
       <c r="B813" t="inlineStr">
@@ -20752,7 +20752,7 @@
         </is>
       </c>
       <c r="D813" t="n">
-        <v>23875</v>
+        <v>21968</v>
       </c>
       <c r="E813" t="inlineStr">
         <is>
@@ -20763,7 +20763,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>01/06/2007</t>
+          <t>01/01/2007</t>
         </is>
       </c>
       <c r="B814" t="inlineStr">
@@ -20777,7 +20777,7 @@
         </is>
       </c>
       <c r="D814" t="n">
-        <v>22080</v>
+        <v>25496</v>
       </c>
       <c r="E814" t="inlineStr">
         <is>
@@ -20788,7 +20788,7 @@
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>01/05/2007</t>
+          <t>01/07/2007</t>
         </is>
       </c>
       <c r="B815" t="inlineStr">
@@ -20802,7 +20802,7 @@
         </is>
       </c>
       <c r="D815" t="n">
-        <v>18737</v>
+        <v>23875</v>
       </c>
       <c r="E815" t="inlineStr">
         <is>
@@ -20813,7 +20813,7 @@
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>01/03/2007</t>
+          <t>01/06/2007</t>
         </is>
       </c>
       <c r="B816" t="inlineStr">
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="D816" t="n">
-        <v>24212</v>
+        <v>22080</v>
       </c>
       <c r="E816" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>01/11/2007</t>
+          <t>01/05/2007</t>
         </is>
       </c>
       <c r="B817" t="inlineStr">
@@ -20852,7 +20852,7 @@
         </is>
       </c>
       <c r="D817" t="n">
-        <v>22033</v>
+        <v>18737</v>
       </c>
       <c r="E817" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>01/10/2007</t>
+          <t>01/03/2007</t>
         </is>
       </c>
       <c r="B818" t="inlineStr">
@@ -20877,7 +20877,7 @@
         </is>
       </c>
       <c r="D818" t="n">
-        <v>23866</v>
+        <v>24212</v>
       </c>
       <c r="E818" t="inlineStr">
         <is>
@@ -20888,7 +20888,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>01/09/2007</t>
+          <t>01/11/2007</t>
         </is>
       </c>
       <c r="B819" t="inlineStr">
@@ -20902,7 +20902,7 @@
         </is>
       </c>
       <c r="D819" t="n">
-        <v>24017</v>
+        <v>22033</v>
       </c>
       <c r="E819" t="inlineStr">
         <is>
@@ -20913,7 +20913,7 @@
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>01/04/2008</t>
+          <t>01/10/2007</t>
         </is>
       </c>
       <c r="B820" t="inlineStr">
@@ -20927,7 +20927,7 @@
         </is>
       </c>
       <c r="D820" t="n">
-        <v>22341</v>
+        <v>23866</v>
       </c>
       <c r="E820" t="inlineStr">
         <is>
@@ -20938,7 +20938,7 @@
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>01/08/2008</t>
+          <t>01/09/2007</t>
         </is>
       </c>
       <c r="B821" t="inlineStr">
@@ -20952,7 +20952,7 @@
         </is>
       </c>
       <c r="D821" t="n">
-        <v>23413.9993</v>
+        <v>24017</v>
       </c>
       <c r="E821" t="inlineStr">
         <is>
@@ -20963,7 +20963,7 @@
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>01/12/2008</t>
+          <t>01/04/2008</t>
         </is>
       </c>
       <c r="B822" t="inlineStr">
@@ -20977,7 +20977,7 @@
         </is>
       </c>
       <c r="D822" t="n">
-        <v>21243.0011</v>
+        <v>22341</v>
       </c>
       <c r="E822" t="inlineStr">
         <is>
@@ -20988,7 +20988,7 @@
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>01/02/2008</t>
+          <t>01/08/2008</t>
         </is>
       </c>
       <c r="B823" t="inlineStr">
@@ -21002,7 +21002,7 @@
         </is>
       </c>
       <c r="D823" t="n">
-        <v>20461</v>
+        <v>23413.9993</v>
       </c>
       <c r="E823" t="inlineStr">
         <is>
@@ -21013,7 +21013,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>01/01/2008</t>
+          <t>01/12/2008</t>
         </is>
       </c>
       <c r="B824" t="inlineStr">
@@ -21027,7 +21027,7 @@
         </is>
       </c>
       <c r="D824" t="n">
-        <v>22454</v>
+        <v>21243.0011</v>
       </c>
       <c r="E824" t="inlineStr">
         <is>
@@ -21038,7 +21038,7 @@
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>01/07/2008</t>
+          <t>01/02/2008</t>
         </is>
       </c>
       <c r="B825" t="inlineStr">
@@ -21052,7 +21052,7 @@
         </is>
       </c>
       <c r="D825" t="n">
-        <v>22084.0001</v>
+        <v>20461</v>
       </c>
       <c r="E825" t="inlineStr">
         <is>
@@ -21063,7 +21063,7 @@
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>01/06/2008</t>
+          <t>01/01/2008</t>
         </is>
       </c>
       <c r="B826" t="inlineStr">
@@ -21077,7 +21077,7 @@
         </is>
       </c>
       <c r="D826" t="n">
-        <v>21446.001</v>
+        <v>22454</v>
       </c>
       <c r="E826" t="inlineStr">
         <is>
@@ -21088,7 +21088,7 @@
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>01/05/2008</t>
+          <t>01/07/2008</t>
         </is>
       </c>
       <c r="B827" t="inlineStr">
@@ -21102,7 +21102,7 @@
         </is>
       </c>
       <c r="D827" t="n">
-        <v>22333</v>
+        <v>22084.0001</v>
       </c>
       <c r="E827" t="inlineStr">
         <is>
@@ -21113,7 +21113,7 @@
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>01/03/2008</t>
+          <t>01/06/2008</t>
         </is>
       </c>
       <c r="B828" t="inlineStr">
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D828" t="n">
-        <v>22425</v>
+        <v>21446.001</v>
       </c>
       <c r="E828" t="inlineStr">
         <is>
@@ -21138,7 +21138,7 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>01/11/2008</t>
+          <t>01/05/2008</t>
         </is>
       </c>
       <c r="B829" t="inlineStr">
@@ -21152,7 +21152,7 @@
         </is>
       </c>
       <c r="D829" t="n">
-        <v>20454</v>
+        <v>22333</v>
       </c>
       <c r="E829" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>01/03/2008</t>
         </is>
       </c>
       <c r="B830" t="inlineStr">
@@ -21177,7 +21177,7 @@
         </is>
       </c>
       <c r="D830" t="n">
-        <v>19738.9989</v>
+        <v>22425</v>
       </c>
       <c r="E830" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>01/09/2008</t>
+          <t>01/11/2008</t>
         </is>
       </c>
       <c r="B831" t="inlineStr">
@@ -21202,7 +21202,7 @@
         </is>
       </c>
       <c r="D831" t="n">
-        <v>21581.001</v>
+        <v>20454</v>
       </c>
       <c r="E831" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>01/04/2009</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="B832" t="inlineStr">
@@ -21227,7 +21227,7 @@
         </is>
       </c>
       <c r="D832" t="n">
-        <v>20352.999</v>
+        <v>19738.9989</v>
       </c>
       <c r="E832" t="inlineStr">
         <is>
@@ -21238,7 +21238,7 @@
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>01/08/2009</t>
+          <t>01/09/2008</t>
         </is>
       </c>
       <c r="B833" t="inlineStr">
@@ -21252,7 +21252,7 @@
         </is>
       </c>
       <c r="D833" t="n">
-        <v>19636.0014</v>
+        <v>21581.001</v>
       </c>
       <c r="E833" t="inlineStr">
         <is>
@@ -21263,7 +21263,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>01/12/2009</t>
+          <t>01/04/2009</t>
         </is>
       </c>
       <c r="B834" t="inlineStr">
@@ -21277,7 +21277,7 @@
         </is>
       </c>
       <c r="D834" t="n">
-        <v>20058.9995</v>
+        <v>20352.999</v>
       </c>
       <c r="E834" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>01/02/2009</t>
+          <t>01/08/2009</t>
         </is>
       </c>
       <c r="B835" t="inlineStr">
@@ -21302,7 +21302,7 @@
         </is>
       </c>
       <c r="D835" t="n">
-        <v>18858.9996</v>
+        <v>19636.0014</v>
       </c>
       <c r="E835" t="inlineStr">
         <is>
@@ -21313,7 +21313,7 @@
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>01/01/2009</t>
+          <t>01/12/2009</t>
         </is>
       </c>
       <c r="B836" t="inlineStr">
@@ -21327,7 +21327,7 @@
         </is>
       </c>
       <c r="D836" t="n">
-        <v>22225.0005</v>
+        <v>20058.9995</v>
       </c>
       <c r="E836" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>01/07/2009</t>
+          <t>01/02/2009</t>
         </is>
       </c>
       <c r="B837" t="inlineStr">
@@ -21352,7 +21352,7 @@
         </is>
       </c>
       <c r="D837" t="n">
-        <v>20578.0015</v>
+        <v>18858.9996</v>
       </c>
       <c r="E837" t="inlineStr">
         <is>
@@ -21363,7 +21363,7 @@
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>01/06/2009</t>
+          <t>01/01/2009</t>
         </is>
       </c>
       <c r="B838" t="inlineStr">
@@ -21377,7 +21377,7 @@
         </is>
       </c>
       <c r="D838" t="n">
-        <v>20096.001</v>
+        <v>22225.0005</v>
       </c>
       <c r="E838" t="inlineStr">
         <is>
@@ -21388,7 +21388,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>01/05/2009</t>
+          <t>01/07/2009</t>
         </is>
       </c>
       <c r="B839" t="inlineStr">
@@ -21402,7 +21402,7 @@
         </is>
       </c>
       <c r="D839" t="n">
-        <v>20487.001</v>
+        <v>20578.0015</v>
       </c>
       <c r="E839" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>01/03/2009</t>
+          <t>01/06/2009</t>
         </is>
       </c>
       <c r="B840" t="inlineStr">
@@ -21427,7 +21427,7 @@
         </is>
       </c>
       <c r="D840" t="n">
-        <v>21078.9987</v>
+        <v>20096.001</v>
       </c>
       <c r="E840" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>01/11/2009</t>
+          <t>01/05/2009</t>
         </is>
       </c>
       <c r="B841" t="inlineStr">
@@ -21452,7 +21452,7 @@
         </is>
       </c>
       <c r="D841" t="n">
-        <v>19530</v>
+        <v>20487.001</v>
       </c>
       <c r="E841" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>01/10/2009</t>
+          <t>01/03/2009</t>
         </is>
       </c>
       <c r="B842" t="inlineStr">
@@ -21477,7 +21477,7 @@
         </is>
       </c>
       <c r="D842" t="n">
-        <v>19538.0011</v>
+        <v>21078.9987</v>
       </c>
       <c r="E842" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>01/09/2009</t>
+          <t>01/11/2009</t>
         </is>
       </c>
       <c r="B843" t="inlineStr">
@@ -21502,7 +21502,7 @@
         </is>
       </c>
       <c r="D843" t="n">
-        <v>19464</v>
+        <v>19530</v>
       </c>
       <c r="E843" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>01/04/2010</t>
+          <t>01/10/2009</t>
         </is>
       </c>
       <c r="B844" t="inlineStr">
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D844" t="n">
-        <v>18477</v>
+        <v>19538.0011</v>
       </c>
       <c r="E844" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>01/08/2010</t>
+          <t>01/09/2009</t>
         </is>
       </c>
       <c r="B845" t="inlineStr">
@@ -21552,7 +21552,7 @@
         </is>
       </c>
       <c r="D845" t="n">
-        <v>19472</v>
+        <v>19464</v>
       </c>
       <c r="E845" t="inlineStr">
         <is>
@@ -21563,7 +21563,7 @@
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>01/12/2010</t>
+          <t>01/04/2010</t>
         </is>
       </c>
       <c r="B846" t="inlineStr">
@@ -21577,7 +21577,7 @@
         </is>
       </c>
       <c r="D846" t="n">
-        <v>19253</v>
+        <v>18477</v>
       </c>
       <c r="E846" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>01/02/2010</t>
+          <t>01/08/2010</t>
         </is>
       </c>
       <c r="B847" t="inlineStr">
@@ -21602,7 +21602,7 @@
         </is>
       </c>
       <c r="D847" t="n">
-        <v>17250</v>
+        <v>19472</v>
       </c>
       <c r="E847" t="inlineStr">
         <is>
@@ -21613,7 +21613,7 @@
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>01/01/2010</t>
+          <t>01/12/2010</t>
         </is>
       </c>
       <c r="B848" t="inlineStr">
@@ -21627,7 +21627,7 @@
         </is>
       </c>
       <c r="D848" t="n">
-        <v>19822</v>
+        <v>19253</v>
       </c>
       <c r="E848" t="inlineStr">
         <is>
@@ -21638,7 +21638,7 @@
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>01/07/2010</t>
+          <t>01/02/2010</t>
         </is>
       </c>
       <c r="B849" t="inlineStr">
@@ -21652,7 +21652,7 @@
         </is>
       </c>
       <c r="D849" t="n">
-        <v>19943</v>
+        <v>17250</v>
       </c>
       <c r="E849" t="inlineStr">
         <is>
@@ -21663,7 +21663,7 @@
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>01/06/2010</t>
+          <t>01/01/2010</t>
         </is>
       </c>
       <c r="B850" t="inlineStr">
@@ -21677,7 +21677,7 @@
         </is>
       </c>
       <c r="D850" t="n">
-        <v>18899</v>
+        <v>19822</v>
       </c>
       <c r="E850" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>01/05/2010</t>
+          <t>01/07/2010</t>
         </is>
       </c>
       <c r="B851" t="inlineStr">
@@ -21702,7 +21702,7 @@
         </is>
       </c>
       <c r="D851" t="n">
-        <v>19225</v>
+        <v>19943</v>
       </c>
       <c r="E851" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>01/03/2010</t>
+          <t>01/06/2010</t>
         </is>
       </c>
       <c r="B852" t="inlineStr">
@@ -21727,7 +21727,7 @@
         </is>
       </c>
       <c r="D852" t="n">
-        <v>18557</v>
+        <v>18899</v>
       </c>
       <c r="E852" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>01/11/2010</t>
+          <t>01/05/2010</t>
         </is>
       </c>
       <c r="B853" t="inlineStr">
@@ -21752,7 +21752,7 @@
         </is>
       </c>
       <c r="D853" t="n">
-        <v>18252</v>
+        <v>19225</v>
       </c>
       <c r="E853" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>01/10/2010</t>
+          <t>01/03/2010</t>
         </is>
       </c>
       <c r="B854" t="inlineStr">
@@ -21777,7 +21777,7 @@
         </is>
       </c>
       <c r="D854" t="n">
-        <v>19679</v>
+        <v>18557</v>
       </c>
       <c r="E854" t="inlineStr">
         <is>
@@ -21788,7 +21788,7 @@
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>01/09/2010</t>
+          <t>01/11/2010</t>
         </is>
       </c>
       <c r="B855" t="inlineStr">
@@ -21802,7 +21802,7 @@
         </is>
       </c>
       <c r="D855" t="n">
-        <v>18162</v>
+        <v>18252</v>
       </c>
       <c r="E855" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>01/04/2011</t>
+          <t>01/10/2010</t>
         </is>
       </c>
       <c r="B856" t="inlineStr">
@@ -21827,7 +21827,7 @@
         </is>
       </c>
       <c r="D856" t="n">
-        <v>14211.9</v>
+        <v>19679</v>
       </c>
       <c r="E856" t="inlineStr">
         <is>
@@ -21838,7 +21838,7 @@
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>01/08/2011</t>
+          <t>01/09/2010</t>
         </is>
       </c>
       <c r="B857" t="inlineStr">
@@ -21852,7 +21852,7 @@
         </is>
       </c>
       <c r="D857" t="n">
-        <v>15656.1</v>
+        <v>18162</v>
       </c>
       <c r="E857" t="inlineStr">
         <is>
@@ -21863,7 +21863,7 @@
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>01/12/2011</t>
+          <t>01/04/2011</t>
         </is>
       </c>
       <c r="B858" t="inlineStr">
@@ -21877,7 +21877,7 @@
         </is>
       </c>
       <c r="D858" t="n">
-        <v>16836.5</v>
+        <v>14211.9</v>
       </c>
       <c r="E858" t="inlineStr">
         <is>
@@ -21888,7 +21888,7 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>01/02/2011</t>
+          <t>01/08/2011</t>
         </is>
       </c>
       <c r="B859" t="inlineStr">
@@ -21902,7 +21902,7 @@
         </is>
       </c>
       <c r="D859" t="n">
-        <v>15945.6</v>
+        <v>15656.1</v>
       </c>
       <c r="E859" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>01/01/2011</t>
+          <t>01/12/2011</t>
         </is>
       </c>
       <c r="B860" t="inlineStr">
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D860" t="n">
-        <v>18522.8</v>
+        <v>16836.5</v>
       </c>
       <c r="E860" t="inlineStr">
         <is>
@@ -21938,7 +21938,7 @@
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>01/07/2011</t>
+          <t>01/02/2011</t>
         </is>
       </c>
       <c r="B861" t="inlineStr">
@@ -21952,7 +21952,7 @@
         </is>
       </c>
       <c r="D861" t="n">
-        <v>14478.2</v>
+        <v>15945.6</v>
       </c>
       <c r="E861" t="inlineStr">
         <is>
@@ -21963,7 +21963,7 @@
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>01/06/2011</t>
+          <t>01/01/2011</t>
         </is>
       </c>
       <c r="B862" t="inlineStr">
@@ -21977,7 +21977,7 @@
         </is>
       </c>
       <c r="D862" t="n">
-        <v>15871.3</v>
+        <v>18522.8</v>
       </c>
       <c r="E862" t="inlineStr">
         <is>
@@ -21988,7 +21988,7 @@
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>01/05/2011</t>
+          <t>01/07/2011</t>
         </is>
       </c>
       <c r="B863" t="inlineStr">
@@ -22002,7 +22002,7 @@
         </is>
       </c>
       <c r="D863" t="n">
-        <v>17668.9</v>
+        <v>14478.2</v>
       </c>
       <c r="E863" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>01/03/2011</t>
+          <t>01/06/2011</t>
         </is>
       </c>
       <c r="B864" t="inlineStr">
@@ -22027,7 +22027,7 @@
         </is>
       </c>
       <c r="D864" t="n">
-        <v>10940.8</v>
+        <v>15871.3</v>
       </c>
       <c r="E864" t="inlineStr">
         <is>
@@ -22038,7 +22038,7 @@
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>01/11/2011</t>
+          <t>01/05/2011</t>
         </is>
       </c>
       <c r="B865" t="inlineStr">
@@ -22052,7 +22052,7 @@
         </is>
       </c>
       <c r="D865" t="n">
-        <v>15787.4</v>
+        <v>17668.9</v>
       </c>
       <c r="E865" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>01/10/2011</t>
+          <t>01/03/2011</t>
         </is>
       </c>
       <c r="B866" t="inlineStr">
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D866" t="n">
-        <v>16134.4</v>
+        <v>10940.8</v>
       </c>
       <c r="E866" t="inlineStr">
         <is>
@@ -22088,7 +22088,7 @@
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>01/09/2011</t>
+          <t>01/11/2011</t>
         </is>
       </c>
       <c r="B867" t="inlineStr">
@@ -22102,7 +22102,7 @@
         </is>
       </c>
       <c r="D867" t="n">
-        <v>15096.4</v>
+        <v>15787.4</v>
       </c>
       <c r="E867" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>01/04/2012</t>
+          <t>01/10/2011</t>
         </is>
       </c>
       <c r="B868" t="inlineStr">
@@ -22127,7 +22127,7 @@
         </is>
       </c>
       <c r="D868" t="n">
-        <v>10707.1</v>
+        <v>16134.4</v>
       </c>
       <c r="E868" t="inlineStr">
         <is>
@@ -22138,7 +22138,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>01/08/2012</t>
+          <t>01/09/2011</t>
         </is>
       </c>
       <c r="B869" t="inlineStr">
@@ -22152,7 +22152,7 @@
         </is>
       </c>
       <c r="D869" t="n">
-        <v>16193.1</v>
+        <v>15096.4</v>
       </c>
       <c r="E869" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>01/12/2012</t>
+          <t>01/04/2012</t>
         </is>
       </c>
       <c r="B870" t="inlineStr">
@@ -22177,7 +22177,7 @@
         </is>
       </c>
       <c r="D870" t="n">
-        <v>17393.3</v>
+        <v>10707.1</v>
       </c>
       <c r="E870" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>01/02/2012</t>
+          <t>01/08/2012</t>
         </is>
       </c>
       <c r="B871" t="inlineStr">
@@ -22202,7 +22202,7 @@
         </is>
       </c>
       <c r="D871" t="n">
-        <v>14260.4</v>
+        <v>16193.1</v>
       </c>
       <c r="E871" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>01/12/2012</t>
         </is>
       </c>
       <c r="B872" t="inlineStr">
@@ -22227,7 +22227,7 @@
         </is>
       </c>
       <c r="D872" t="n">
-        <v>16058.3</v>
+        <v>17393.3</v>
       </c>
       <c r="E872" t="inlineStr">
         <is>
@@ -22238,7 +22238,7 @@
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>01/07/2012</t>
+          <t>01/02/2012</t>
         </is>
       </c>
       <c r="B873" t="inlineStr">
@@ -22252,7 +22252,7 @@
         </is>
       </c>
       <c r="D873" t="n">
-        <v>12701.4</v>
+        <v>14260.4</v>
       </c>
       <c r="E873" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>01/06/2012</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="B874" t="inlineStr">
@@ -22277,7 +22277,7 @@
         </is>
       </c>
       <c r="D874" t="n">
-        <v>10851.8</v>
+        <v>16058.3</v>
       </c>
       <c r="E874" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>01/05/2012</t>
+          <t>01/07/2012</t>
         </is>
       </c>
       <c r="B875" t="inlineStr">
@@ -22302,7 +22302,7 @@
         </is>
       </c>
       <c r="D875" t="n">
-        <v>10692</v>
+        <v>12701.4</v>
       </c>
       <c r="E875" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>01/03/2012</t>
+          <t>01/06/2012</t>
         </is>
       </c>
       <c r="B876" t="inlineStr">
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D876" t="n">
-        <v>14311.3</v>
+        <v>10851.8</v>
       </c>
       <c r="E876" t="inlineStr">
         <is>
@@ -22338,7 +22338,7 @@
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>01/11/2012</t>
+          <t>01/05/2012</t>
         </is>
       </c>
       <c r="B877" t="inlineStr">
@@ -22352,7 +22352,7 @@
         </is>
       </c>
       <c r="D877" t="n">
-        <v>16574.9</v>
+        <v>10692</v>
       </c>
       <c r="E877" t="inlineStr">
         <is>
@@ -22363,7 +22363,7 @@
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>01/10/2012</t>
+          <t>01/03/2012</t>
         </is>
       </c>
       <c r="B878" t="inlineStr">
@@ -22377,7 +22377,7 @@
         </is>
       </c>
       <c r="D878" t="n">
-        <v>13682.2</v>
+        <v>14311.3</v>
       </c>
       <c r="E878" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>01/09/2012</t>
+          <t>01/11/2012</t>
         </is>
       </c>
       <c r="B879" t="inlineStr">
@@ -22402,7 +22402,7 @@
         </is>
       </c>
       <c r="D879" t="n">
-        <v>12246</v>
+        <v>16574.9</v>
       </c>
       <c r="E879" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>01/04/2013</t>
+          <t>01/10/2012</t>
         </is>
       </c>
       <c r="B880" t="inlineStr">
@@ -22427,7 +22427,7 @@
         </is>
       </c>
       <c r="D880" t="n">
-        <v>15186.2</v>
+        <v>13682.2</v>
       </c>
       <c r="E880" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>01/08/2013</t>
+          <t>01/09/2012</t>
         </is>
       </c>
       <c r="B881" t="inlineStr">
@@ -22452,7 +22452,7 @@
         </is>
       </c>
       <c r="D881" t="n">
-        <v>14998.4</v>
+        <v>12246</v>
       </c>
       <c r="E881" t="inlineStr">
         <is>
@@ -22463,7 +22463,7 @@
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>01/12/2013</t>
+          <t>01/04/2013</t>
         </is>
       </c>
       <c r="B882" t="inlineStr">
@@ -22477,7 +22477,7 @@
         </is>
       </c>
       <c r="D882" t="n">
-        <v>15576.1</v>
+        <v>15186.2</v>
       </c>
       <c r="E882" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>01/02/2013</t>
+          <t>01/08/2013</t>
         </is>
       </c>
       <c r="B883" t="inlineStr">
@@ -22502,7 +22502,7 @@
         </is>
       </c>
       <c r="D883" t="n">
-        <v>14992.1</v>
+        <v>14998.4</v>
       </c>
       <c r="E883" t="inlineStr">
         <is>
@@ -22513,7 +22513,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/12/2013</t>
         </is>
       </c>
       <c r="B884" t="inlineStr">
@@ -22527,7 +22527,7 @@
         </is>
       </c>
       <c r="D884" t="n">
-        <v>16653.1</v>
+        <v>15576.1</v>
       </c>
       <c r="E884" t="inlineStr">
         <is>
@@ -22538,7 +22538,7 @@
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>01/07/2013</t>
+          <t>01/02/2013</t>
         </is>
       </c>
       <c r="B885" t="inlineStr">
@@ -22552,7 +22552,7 @@
         </is>
       </c>
       <c r="D885" t="n">
-        <v>15326.3</v>
+        <v>14992.1</v>
       </c>
       <c r="E885" t="inlineStr">
         <is>
@@ -22563,7 +22563,7 @@
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>01/06/2013</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="B886" t="inlineStr">
@@ -22577,7 +22577,7 @@
         </is>
       </c>
       <c r="D886" t="n">
-        <v>15355.6</v>
+        <v>16653.1</v>
       </c>
       <c r="E886" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>01/05/2013</t>
+          <t>01/07/2013</t>
         </is>
       </c>
       <c r="B887" t="inlineStr">
@@ -22602,7 +22602,7 @@
         </is>
       </c>
       <c r="D887" t="n">
-        <v>14825.2</v>
+        <v>15326.3</v>
       </c>
       <c r="E887" t="inlineStr">
         <is>
@@ -22613,7 +22613,7 @@
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>01/03/2013</t>
+          <t>01/06/2013</t>
         </is>
       </c>
       <c r="B888" t="inlineStr">
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="D888" t="n">
-        <v>15537.2</v>
+        <v>15355.6</v>
       </c>
       <c r="E888" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>01/11/2013</t>
+          <t>01/05/2013</t>
         </is>
       </c>
       <c r="B889" t="inlineStr">
@@ -22652,7 +22652,7 @@
         </is>
       </c>
       <c r="D889" t="n">
-        <v>14997.2</v>
+        <v>14825.2</v>
       </c>
       <c r="E889" t="inlineStr">
         <is>
@@ -22663,7 +22663,7 @@
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>01/03/2013</t>
         </is>
       </c>
       <c r="B890" t="inlineStr">
@@ -22677,7 +22677,7 @@
         </is>
       </c>
       <c r="D890" t="n">
-        <v>14495.7</v>
+        <v>15537.2</v>
       </c>
       <c r="E890" t="inlineStr">
         <is>
@@ -22688,7 +22688,7 @@
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>01/09/2013</t>
+          <t>01/11/2013</t>
         </is>
       </c>
       <c r="B891" t="inlineStr">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="D891" t="n">
-        <v>14777.2</v>
+        <v>14997.2</v>
       </c>
       <c r="E891" t="inlineStr">
         <is>
@@ -22713,7 +22713,7 @@
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>01/04/2014</t>
+          <t>01/10/2013</t>
         </is>
       </c>
       <c r="B892" t="inlineStr">
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D892" t="n">
-        <v>15228.7</v>
+        <v>14495.7</v>
       </c>
       <c r="E892" t="inlineStr">
         <is>
@@ -22738,7 +22738,7 @@
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>01/08/2014</t>
+          <t>01/09/2013</t>
         </is>
       </c>
       <c r="B893" t="inlineStr">
@@ -22752,7 +22752,7 @@
         </is>
       </c>
       <c r="D893" t="n">
-        <v>14545.5</v>
+        <v>14777.2</v>
       </c>
       <c r="E893" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>01/12/2014</t>
+          <t>01/04/2014</t>
         </is>
       </c>
       <c r="B894" t="inlineStr">
@@ -22777,7 +22777,7 @@
         </is>
       </c>
       <c r="D894" t="n">
-        <v>13264.2</v>
+        <v>15228.7</v>
       </c>
       <c r="E894" t="inlineStr">
         <is>
@@ -22788,7 +22788,7 @@
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>01/02/2014</t>
+          <t>01/08/2014</t>
         </is>
       </c>
       <c r="B895" t="inlineStr">
@@ -22802,7 +22802,7 @@
         </is>
       </c>
       <c r="D895" t="n">
-        <v>13542.3</v>
+        <v>14545.5</v>
       </c>
       <c r="E895" t="inlineStr">
         <is>
@@ -22813,7 +22813,7 @@
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/12/2014</t>
         </is>
       </c>
       <c r="B896" t="inlineStr">
@@ -22827,7 +22827,7 @@
         </is>
       </c>
       <c r="D896" t="n">
-        <v>15019.1</v>
+        <v>13264.2</v>
       </c>
       <c r="E896" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
+          <t>01/02/2014</t>
         </is>
       </c>
       <c r="B897" t="inlineStr">
@@ -22852,7 +22852,7 @@
         </is>
       </c>
       <c r="D897" t="n">
-        <v>14900.7</v>
+        <v>13542.3</v>
       </c>
       <c r="E897" t="inlineStr">
         <is>
@@ -22863,7 +22863,7 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>01/06/2014</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="B898" t="inlineStr">
@@ -22877,7 +22877,7 @@
         </is>
       </c>
       <c r="D898" t="n">
-        <v>14977.9</v>
+        <v>15019.1</v>
       </c>
       <c r="E898" t="inlineStr">
         <is>
@@ -22888,7 +22888,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>01/05/2014</t>
+          <t>01/07/2014</t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
@@ -22902,7 +22902,7 @@
         </is>
       </c>
       <c r="D899" t="n">
-        <v>16141.5</v>
+        <v>14900.7</v>
       </c>
       <c r="E899" t="inlineStr">
         <is>
@@ -22913,7 +22913,7 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>01/03/2014</t>
+          <t>01/06/2014</t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
@@ -22927,7 +22927,7 @@
         </is>
       </c>
       <c r="D900" t="n">
-        <v>15178.7</v>
+        <v>14977.9</v>
       </c>
       <c r="E900" t="inlineStr">
         <is>
@@ -22938,7 +22938,7 @@
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>01/11/2014</t>
+          <t>01/05/2014</t>
         </is>
       </c>
       <c r="B901" t="inlineStr">
@@ -22952,7 +22952,7 @@
         </is>
       </c>
       <c r="D901" t="n">
-        <v>11227.8</v>
+        <v>16141.5</v>
       </c>
       <c r="E901" t="inlineStr">
         <is>
@@ -22963,7 +22963,7 @@
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>01/10/2014</t>
+          <t>01/03/2014</t>
         </is>
       </c>
       <c r="B902" t="inlineStr">
@@ -22977,7 +22977,7 @@
         </is>
       </c>
       <c r="D902" t="n">
-        <v>14384.8</v>
+        <v>15178.7</v>
       </c>
       <c r="E902" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>01/09/2014</t>
+          <t>01/11/2014</t>
         </is>
       </c>
       <c r="B903" t="inlineStr">
@@ -23002,7 +23002,7 @@
         </is>
       </c>
       <c r="D903" t="n">
-        <v>13936.6</v>
+        <v>11227.8</v>
       </c>
       <c r="E903" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>01/04/2015</t>
+          <t>01/10/2014</t>
         </is>
       </c>
       <c r="B904" t="inlineStr">
@@ -23027,7 +23027,7 @@
         </is>
       </c>
       <c r="D904" t="n">
-        <v>13917.8</v>
+        <v>14384.8</v>
       </c>
       <c r="E904" t="inlineStr">
         <is>
@@ -23038,7 +23038,7 @@
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>01/08/2015</t>
+          <t>01/09/2014</t>
         </is>
       </c>
       <c r="B905" t="inlineStr">
@@ -23052,7 +23052,7 @@
         </is>
       </c>
       <c r="D905" t="n">
-        <v>11403.3</v>
+        <v>13936.6</v>
       </c>
       <c r="E905" t="inlineStr">
         <is>
@@ -23063,7 +23063,7 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>01/12/2015</t>
+          <t>01/04/2015</t>
         </is>
       </c>
       <c r="B906" t="inlineStr">
@@ -23077,7 +23077,7 @@
         </is>
       </c>
       <c r="D906" t="n">
-        <v>9425.700000000001</v>
+        <v>13917.8</v>
       </c>
       <c r="E906" t="inlineStr">
         <is>
@@ -23088,7 +23088,7 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>01/02/2015</t>
+          <t>01/08/2015</t>
         </is>
       </c>
       <c r="B907" t="inlineStr">
@@ -23102,7 +23102,7 @@
         </is>
       </c>
       <c r="D907" t="n">
-        <v>13004.4</v>
+        <v>11403.3</v>
       </c>
       <c r="E907" t="inlineStr">
         <is>
@@ -23113,7 +23113,7 @@
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/12/2015</t>
         </is>
       </c>
       <c r="B908" t="inlineStr">
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D908" t="n">
-        <v>14478.2</v>
+        <v>9425.700000000001</v>
       </c>
       <c r="E908" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>01/07/2015</t>
+          <t>01/02/2015</t>
         </is>
       </c>
       <c r="B909" t="inlineStr">
@@ -23152,7 +23152,7 @@
         </is>
       </c>
       <c r="D909" t="n">
-        <v>11946.4</v>
+        <v>13004.4</v>
       </c>
       <c r="E909" t="inlineStr">
         <is>
@@ -23163,7 +23163,7 @@
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>01/06/2015</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="B910" t="inlineStr">
@@ -23177,7 +23177,7 @@
         </is>
       </c>
       <c r="D910" t="n">
-        <v>12385.6</v>
+        <v>14478.2</v>
       </c>
       <c r="E910" t="inlineStr">
         <is>
@@ -23188,7 +23188,7 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>01/05/2015</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="B911" t="inlineStr">
@@ -23202,7 +23202,7 @@
         </is>
       </c>
       <c r="D911" t="n">
-        <v>12823.9</v>
+        <v>11946.4</v>
       </c>
       <c r="E911" t="inlineStr">
         <is>
@@ -23213,7 +23213,7 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>01/03/2015</t>
+          <t>01/06/2015</t>
         </is>
       </c>
       <c r="B912" t="inlineStr">
@@ -23227,7 +23227,7 @@
         </is>
       </c>
       <c r="D912" t="n">
-        <v>14916.8</v>
+        <v>12385.6</v>
       </c>
       <c r="E912" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>01/11/2015</t>
+          <t>01/05/2015</t>
         </is>
       </c>
       <c r="B913" t="inlineStr">
@@ -23252,7 +23252,7 @@
         </is>
       </c>
       <c r="D913" t="n">
-        <v>5361.7</v>
+        <v>12823.9</v>
       </c>
       <c r="E913" t="inlineStr">
         <is>
@@ -23263,7 +23263,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/03/2015</t>
         </is>
       </c>
       <c r="B914" t="inlineStr">
@@ -23277,7 +23277,7 @@
         </is>
       </c>
       <c r="D914" t="n">
-        <v>11384.7</v>
+        <v>14916.8</v>
       </c>
       <c r="E914" t="inlineStr">
         <is>
@@ -23288,7 +23288,7 @@
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>01/09/2015</t>
+          <t>01/11/2015</t>
         </is>
       </c>
       <c r="B915" t="inlineStr">
@@ -23302,7 +23302,7 @@
         </is>
       </c>
       <c r="D915" t="n">
-        <v>11927.3</v>
+        <v>5361.7</v>
       </c>
       <c r="E915" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>01/04/2016</t>
+          <t>01/10/2015</t>
         </is>
       </c>
       <c r="B916" t="inlineStr">
@@ -23327,7 +23327,7 @@
         </is>
       </c>
       <c r="D916" t="n">
-        <v>9074.1</v>
+        <v>11384.7</v>
       </c>
       <c r="E916" t="inlineStr">
         <is>
@@ -23338,7 +23338,7 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>01/08/2016</t>
+          <t>01/09/2015</t>
         </is>
       </c>
       <c r="B917" t="inlineStr">
@@ -23352,7 +23352,7 @@
         </is>
       </c>
       <c r="D917" t="n">
-        <v>9273.799999999999</v>
+        <v>11927.3</v>
       </c>
       <c r="E917" t="inlineStr">
         <is>
@@ -23363,7 +23363,7 @@
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>01/12/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="B918" t="inlineStr">
@@ -23377,7 +23377,7 @@
         </is>
       </c>
       <c r="D918" t="n">
-        <v>3213.5</v>
+        <v>9074.1</v>
       </c>
       <c r="E918" t="inlineStr">
         <is>
@@ -23388,7 +23388,7 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>01/02/2016</t>
+          <t>01/08/2016</t>
         </is>
       </c>
       <c r="B919" t="inlineStr">
@@ -23402,7 +23402,7 @@
         </is>
       </c>
       <c r="D919" t="n">
-        <v>8886.4</v>
+        <v>9273.799999999999</v>
       </c>
       <c r="E919" t="inlineStr">
         <is>
@@ -23413,7 +23413,7 @@
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/12/2016</t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
@@ -23427,7 +23427,7 @@
         </is>
       </c>
       <c r="D920" t="n">
-        <v>9118.200000000001</v>
+        <v>3213.5</v>
       </c>
       <c r="E920" t="inlineStr">
         <is>
@@ -23438,7 +23438,7 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
+          <t>01/02/2016</t>
         </is>
       </c>
       <c r="B921" t="inlineStr">
@@ -23452,7 +23452,7 @@
         </is>
       </c>
       <c r="D921" t="n">
-        <v>9093.799999999999</v>
+        <v>8886.4</v>
       </c>
       <c r="E921" t="inlineStr">
         <is>
@@ -23463,7 +23463,7 @@
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>01/06/2016</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="B922" t="inlineStr">
@@ -23477,7 +23477,7 @@
         </is>
       </c>
       <c r="D922" t="n">
-        <v>8134.5</v>
+        <v>9118.200000000001</v>
       </c>
       <c r="E922" t="inlineStr">
         <is>
@@ -23488,7 +23488,7 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>01/05/2016</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="B923" t="inlineStr">
@@ -23502,7 +23502,7 @@
         </is>
       </c>
       <c r="D923" t="n">
-        <v>9412.299999999999</v>
+        <v>9093.799999999999</v>
       </c>
       <c r="E923" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>01/03/2016</t>
+          <t>01/06/2016</t>
         </is>
       </c>
       <c r="B924" t="inlineStr">
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D924" t="n">
-        <v>9861.1</v>
+        <v>8134.5</v>
       </c>
       <c r="E924" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>01/11/2016</t>
+          <t>01/05/2016</t>
         </is>
       </c>
       <c r="B925" t="inlineStr">
@@ -23552,7 +23552,7 @@
         </is>
       </c>
       <c r="D925" t="n">
-        <v>7657.6</v>
+        <v>9412.299999999999</v>
       </c>
       <c r="E925" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/03/2016</t>
         </is>
       </c>
       <c r="B926" t="inlineStr">
@@ -23577,7 +23577,7 @@
         </is>
       </c>
       <c r="D926" t="n">
-        <v>8933.1</v>
+        <v>9861.1</v>
       </c>
       <c r="E926" t="inlineStr">
         <is>
@@ -23588,7 +23588,7 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>01/09/2016</t>
+          <t>01/11/2016</t>
         </is>
       </c>
       <c r="B927" t="inlineStr">
@@ -23602,7 +23602,7 @@
         </is>
       </c>
       <c r="D927" t="n">
-        <v>8977.299999999999</v>
+        <v>7657.6</v>
       </c>
       <c r="E927" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>01/04/2017</t>
+          <t>01/10/2016</t>
         </is>
       </c>
       <c r="B928" t="inlineStr">
@@ -23627,7 +23627,7 @@
         </is>
       </c>
       <c r="D928" t="n">
-        <v>6856.1</v>
+        <v>8933.1</v>
       </c>
       <c r="E928" t="inlineStr">
         <is>
@@ -23638,7 +23638,7 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>01/08/2017</t>
+          <t>01/09/2016</t>
         </is>
       </c>
       <c r="B929" t="inlineStr">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="D929" t="n">
-        <v>7185.4</v>
+        <v>8977.299999999999</v>
       </c>
       <c r="E929" t="inlineStr">
         <is>
@@ -23663,7 +23663,7 @@
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>01/12/2017</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="B930" t="inlineStr">
@@ -23677,7 +23677,7 @@
         </is>
       </c>
       <c r="D930" t="n">
-        <v>9617.700000000001</v>
+        <v>6856.1</v>
       </c>
       <c r="E930" t="inlineStr">
         <is>
@@ -23688,7 +23688,7 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>01/02/2017</t>
+          <t>01/08/2017</t>
         </is>
       </c>
       <c r="B931" t="inlineStr">
@@ -23702,7 +23702,7 @@
         </is>
       </c>
       <c r="D931" t="n">
-        <v>6279.5</v>
+        <v>7185.4</v>
       </c>
       <c r="E931" t="inlineStr">
         <is>
@@ -23713,7 +23713,7 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/12/2017</t>
         </is>
       </c>
       <c r="B932" t="inlineStr">
@@ -23727,7 +23727,7 @@
         </is>
       </c>
       <c r="D932" t="n">
-        <v>7743.8</v>
+        <v>9617.700000000001</v>
       </c>
       <c r="E932" t="inlineStr">
         <is>
@@ -23738,7 +23738,7 @@
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
+          <t>01/02/2017</t>
         </is>
       </c>
       <c r="B933" t="inlineStr">
@@ -23752,7 +23752,7 @@
         </is>
       </c>
       <c r="D933" t="n">
-        <v>6753.2</v>
+        <v>6279.5</v>
       </c>
       <c r="E933" t="inlineStr">
         <is>
@@ -23763,7 +23763,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>01/06/2017</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="B934" t="inlineStr">
@@ -23777,7 +23777,7 @@
         </is>
       </c>
       <c r="D934" t="n">
-        <v>6679</v>
+        <v>7743.8</v>
       </c>
       <c r="E934" t="inlineStr">
         <is>
@@ -23788,7 +23788,7 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>01/05/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="B935" t="inlineStr">
@@ -23802,7 +23802,7 @@
         </is>
       </c>
       <c r="D935" t="n">
-        <v>6777</v>
+        <v>6753.2</v>
       </c>
       <c r="E935" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>01/03/2017</t>
+          <t>01/06/2017</t>
         </is>
       </c>
       <c r="B936" t="inlineStr">
@@ -23827,7 +23827,7 @@
         </is>
       </c>
       <c r="D936" t="n">
-        <v>7180</v>
+        <v>6679</v>
       </c>
       <c r="E936" t="inlineStr">
         <is>
@@ -23838,7 +23838,7 @@
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>01/11/2017</t>
+          <t>01/05/2017</t>
         </is>
       </c>
       <c r="B937" t="inlineStr">
@@ -23852,7 +23852,7 @@
         </is>
       </c>
       <c r="D937" t="n">
-        <v>7720.9</v>
+        <v>6777</v>
       </c>
       <c r="E937" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/03/2017</t>
         </is>
       </c>
       <c r="B938" t="inlineStr">
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D938" t="n">
-        <v>7765.07</v>
+        <v>7180</v>
       </c>
       <c r="E938" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>01/09/2017</t>
+          <t>01/11/2017</t>
         </is>
       </c>
       <c r="B939" t="inlineStr">
@@ -23902,7 +23902,7 @@
         </is>
       </c>
       <c r="D939" t="n">
-        <v>7191.4</v>
+        <v>7720.9</v>
       </c>
       <c r="E939" t="inlineStr">
         <is>
@@ -23913,7 +23913,7 @@
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>01/04/2018</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="B940" t="inlineStr">
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D940" t="n">
-        <v>6020</v>
+        <v>7765.07</v>
       </c>
       <c r="E940" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>01/08/2018</t>
+          <t>01/09/2017</t>
         </is>
       </c>
       <c r="B941" t="inlineStr">
@@ -23952,7 +23952,7 @@
         </is>
       </c>
       <c r="D941" t="n">
-        <v>5969</v>
+        <v>7191.4</v>
       </c>
       <c r="E941" t="inlineStr">
         <is>
@@ -23963,7 +23963,7 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>01/12/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="B942" t="inlineStr">
@@ -23977,7 +23977,7 @@
         </is>
       </c>
       <c r="D942" t="n">
-        <v>6061</v>
+        <v>6020</v>
       </c>
       <c r="E942" t="inlineStr">
         <is>
@@ -23988,7 +23988,7 @@
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>01/02/2018</t>
+          <t>01/08/2018</t>
         </is>
       </c>
       <c r="B943" t="inlineStr">
@@ -24002,7 +24002,7 @@
         </is>
       </c>
       <c r="D943" t="n">
-        <v>6141.6</v>
+        <v>5969</v>
       </c>
       <c r="E943" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/12/2018</t>
         </is>
       </c>
       <c r="B944" t="inlineStr">
@@ -24027,7 +24027,7 @@
         </is>
       </c>
       <c r="D944" t="n">
-        <v>7289.478</v>
+        <v>6061</v>
       </c>
       <c r="E944" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>01/02/2018</t>
         </is>
       </c>
       <c r="B945" t="inlineStr">
@@ -24052,7 +24052,7 @@
         </is>
       </c>
       <c r="D945" t="n">
-        <v>5621.504</v>
+        <v>6141.6</v>
       </c>
       <c r="E945" t="inlineStr">
         <is>
@@ -24063,7 +24063,7 @@
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>01/06/2018</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="B946" t="inlineStr">
@@ -24077,7 +24077,7 @@
         </is>
       </c>
       <c r="D946" t="n">
-        <v>5487.042</v>
+        <v>7289.478</v>
       </c>
       <c r="E946" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>01/05/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="B947" t="inlineStr">
@@ -24102,7 +24102,7 @@
         </is>
       </c>
       <c r="D947" t="n">
-        <v>5549.7</v>
+        <v>5621.504</v>
       </c>
       <c r="E947" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>01/03/2018</t>
+          <t>01/06/2018</t>
         </is>
       </c>
       <c r="B948" t="inlineStr">
@@ -24127,7 +24127,7 @@
         </is>
       </c>
       <c r="D948" t="n">
-        <v>6426.258</v>
+        <v>5487.042</v>
       </c>
       <c r="E948" t="inlineStr">
         <is>
@@ -24138,7 +24138,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>01/11/2018</t>
+          <t>01/05/2018</t>
         </is>
       </c>
       <c r="B949" t="inlineStr">
@@ -24152,7 +24152,7 @@
         </is>
       </c>
       <c r="D949" t="n">
-        <v>5685.5</v>
+        <v>5549.7</v>
       </c>
       <c r="E949" t="inlineStr">
         <is>
@@ -24163,7 +24163,7 @@
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/03/2018</t>
         </is>
       </c>
       <c r="B950" t="inlineStr">
@@ -24177,7 +24177,7 @@
         </is>
       </c>
       <c r="D950" t="n">
-        <v>5916.66</v>
+        <v>6426.258</v>
       </c>
       <c r="E950" t="inlineStr">
         <is>
@@ -24188,7 +24188,7 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>01/09/2018</t>
+          <t>01/11/2018</t>
         </is>
       </c>
       <c r="B951" t="inlineStr">
@@ -24202,7 +24202,7 @@
         </is>
       </c>
       <c r="D951" t="n">
-        <v>5970.399</v>
+        <v>5685.5</v>
       </c>
       <c r="E951" t="inlineStr">
         <is>
@@ -24213,7 +24213,7 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="B952" t="inlineStr">
@@ -24227,7 +24227,7 @@
         </is>
       </c>
       <c r="D952" t="n">
-        <v>5391.2</v>
+        <v>5916.66</v>
       </c>
       <c r="E952" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>01/08/2019</t>
+          <t>01/09/2018</t>
         </is>
       </c>
       <c r="B953" t="inlineStr">
@@ -24252,7 +24252,7 @@
         </is>
       </c>
       <c r="D953" t="n">
-        <v>4054.5</v>
+        <v>5970.399</v>
       </c>
       <c r="E953" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>01/12/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="B954" t="inlineStr">
@@ -24277,7 +24277,7 @@
         </is>
       </c>
       <c r="D954" t="n">
-        <v>4830.4</v>
+        <v>5391.2</v>
       </c>
       <c r="E954" t="inlineStr">
         <is>
@@ -24288,7 +24288,7 @@
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>01/02/2019</t>
+          <t>01/08/2019</t>
         </is>
       </c>
       <c r="B955" t="inlineStr">
@@ -24302,7 +24302,7 @@
         </is>
       </c>
       <c r="D955" t="n">
-        <v>3997.1</v>
+        <v>4054.5</v>
       </c>
       <c r="E955" t="inlineStr">
         <is>
@@ -24313,7 +24313,7 @@
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/12/2019</t>
         </is>
       </c>
       <c r="B956" t="inlineStr">
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D956" t="n">
-        <v>5711.1</v>
+        <v>4830.4</v>
       </c>
       <c r="E956" t="inlineStr">
         <is>
@@ -24338,7 +24338,7 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/02/2019</t>
         </is>
       </c>
       <c r="B957" t="inlineStr">
@@ -24352,7 +24352,7 @@
         </is>
       </c>
       <c r="D957" t="n">
-        <v>4524.82</v>
+        <v>3997.1</v>
       </c>
       <c r="E957" t="inlineStr">
         <is>
@@ -24363,7 +24363,7 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>01/06/2019</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="B958" t="inlineStr">
@@ -24377,7 +24377,7 @@
         </is>
       </c>
       <c r="D958" t="n">
-        <v>4716.577</v>
+        <v>5711.1</v>
       </c>
       <c r="E958" t="inlineStr">
         <is>
@@ -24388,7 +24388,7 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>01/05/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="B959" t="inlineStr">
@@ -24402,7 +24402,7 @@
         </is>
       </c>
       <c r="D959" t="n">
-        <v>5361.2</v>
+        <v>4524.82</v>
       </c>
       <c r="E959" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>01/03/2019</t>
+          <t>01/06/2019</t>
         </is>
       </c>
       <c r="B960" t="inlineStr">
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="D960" t="n">
-        <v>4734.9</v>
+        <v>4716.577</v>
       </c>
       <c r="E960" t="inlineStr">
         <is>
@@ -24438,7 +24438,7 @@
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>01/11/2019</t>
+          <t>01/05/2019</t>
         </is>
       </c>
       <c r="B961" t="inlineStr">
@@ -24452,7 +24452,7 @@
         </is>
       </c>
       <c r="D961" t="n">
-        <v>3812.4</v>
+        <v>5361.2</v>
       </c>
       <c r="E961" t="inlineStr">
         <is>
@@ -24463,7 +24463,7 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/03/2019</t>
         </is>
       </c>
       <c r="B962" t="inlineStr">
@@ -24477,7 +24477,7 @@
         </is>
       </c>
       <c r="D962" t="n">
-        <v>4339.8</v>
+        <v>4734.9</v>
       </c>
       <c r="E962" t="inlineStr">
         <is>
@@ -24488,7 +24488,7 @@
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>01/09/2019</t>
+          <t>01/11/2019</t>
         </is>
       </c>
       <c r="B963" t="inlineStr">
@@ -24502,7 +24502,7 @@
         </is>
       </c>
       <c r="D963" t="n">
-        <v>3820.9</v>
+        <v>3812.4</v>
       </c>
       <c r="E963" t="inlineStr">
         <is>
@@ -24513,7 +24513,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="B964" t="inlineStr">
@@ -24527,7 +24527,7 @@
         </is>
       </c>
       <c r="D964" t="n">
-        <v>0</v>
+        <v>4339.8</v>
       </c>
       <c r="E964" t="inlineStr">
         <is>
@@ -24538,7 +24538,7 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>01/08/2020</t>
+          <t>01/09/2019</t>
         </is>
       </c>
       <c r="B965" t="inlineStr">
@@ -24552,7 +24552,7 @@
         </is>
       </c>
       <c r="D965" t="n">
-        <v>0</v>
+        <v>3820.9</v>
       </c>
       <c r="E965" t="inlineStr">
         <is>
@@ -24563,7 +24563,7 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>01/12/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="B966" t="inlineStr">
@@ -24588,7 +24588,7 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>01/02/2020</t>
+          <t>01/08/2020</t>
         </is>
       </c>
       <c r="B967" t="inlineStr">
@@ -24602,7 +24602,7 @@
         </is>
       </c>
       <c r="D967" t="n">
-        <v>5762.358</v>
+        <v>0</v>
       </c>
       <c r="E967" t="inlineStr">
         <is>
@@ -24613,7 +24613,7 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/12/2020</t>
         </is>
       </c>
       <c r="B968" t="inlineStr">
@@ -24627,7 +24627,7 @@
         </is>
       </c>
       <c r="D968" t="n">
-        <v>5560.337</v>
+        <v>0</v>
       </c>
       <c r="E968" t="inlineStr">
         <is>
@@ -24638,7 +24638,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/02/2020</t>
         </is>
       </c>
       <c r="B969" t="inlineStr">
@@ -24652,7 +24652,7 @@
         </is>
       </c>
       <c r="D969" t="n">
-        <v>0</v>
+        <v>5762.358</v>
       </c>
       <c r="E969" t="inlineStr">
         <is>
@@ -24663,7 +24663,7 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>01/06/2020</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="B970" t="inlineStr">
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="D970" t="n">
-        <v>0</v>
+        <v>5560.337</v>
       </c>
       <c r="E970" t="inlineStr">
         <is>
@@ -24688,7 +24688,7 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>01/05/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="B971" t="inlineStr">
@@ -24713,7 +24713,7 @@
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>01/03/2020</t>
+          <t>01/06/2020</t>
         </is>
       </c>
       <c r="B972" t="inlineStr">
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D972" t="n">
-        <v>5496</v>
+        <v>0</v>
       </c>
       <c r="E972" t="inlineStr">
         <is>
@@ -24738,7 +24738,7 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>01/11/2020</t>
+          <t>01/05/2020</t>
         </is>
       </c>
       <c r="B973" t="inlineStr">
@@ -24763,7 +24763,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/03/2020</t>
         </is>
       </c>
       <c r="B974" t="inlineStr">
@@ -24777,7 +24777,7 @@
         </is>
       </c>
       <c r="D974" t="n">
-        <v>0</v>
+        <v>5496</v>
       </c>
       <c r="E974" t="inlineStr">
         <is>
@@ -24788,7 +24788,7 @@
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>01/09/2020</t>
+          <t>01/11/2020</t>
         </is>
       </c>
       <c r="B975" t="inlineStr">
@@ -24813,7 +24813,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="B976" t="inlineStr">
@@ -24838,7 +24838,7 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>01/08/2021</t>
+          <t>01/09/2020</t>
         </is>
       </c>
       <c r="B977" t="inlineStr">
@@ -24863,7 +24863,7 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>01/12/2021</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="B978" t="inlineStr">
@@ -24888,7 +24888,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>01/02/2021</t>
+          <t>01/08/2021</t>
         </is>
       </c>
       <c r="B979" t="inlineStr">
@@ -24913,7 +24913,7 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/12/2021</t>
         </is>
       </c>
       <c r="B980" t="inlineStr">
@@ -24938,7 +24938,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/02/2021</t>
         </is>
       </c>
       <c r="B981" t="inlineStr">
@@ -24963,7 +24963,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>01/06/2021</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="B982" t="inlineStr">
@@ -24988,7 +24988,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>01/05/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="B983" t="inlineStr">
@@ -25013,7 +25013,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>01/03/2021</t>
+          <t>01/06/2021</t>
         </is>
       </c>
       <c r="B984" t="inlineStr">
@@ -25038,7 +25038,7 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>01/11/2021</t>
+          <t>01/05/2021</t>
         </is>
       </c>
       <c r="B985" t="inlineStr">
@@ -25063,7 +25063,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/03/2021</t>
         </is>
       </c>
       <c r="B986" t="inlineStr">
@@ -25088,7 +25088,7 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>01/09/2021</t>
+          <t>01/11/2021</t>
         </is>
       </c>
       <c r="B987" t="inlineStr">
@@ -25113,7 +25113,7 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="B988" t="inlineStr">
@@ -25138,7 +25138,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>01/08/2022</t>
+          <t>01/09/2021</t>
         </is>
       </c>
       <c r="B989" t="inlineStr">
@@ -25163,7 +25163,7 @@
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>01/12/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="B990" t="inlineStr">
@@ -25188,7 +25188,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>01/02/2022</t>
+          <t>01/08/2022</t>
         </is>
       </c>
       <c r="B991" t="inlineStr">
@@ -25213,7 +25213,7 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/12/2022</t>
         </is>
       </c>
       <c r="B992" t="inlineStr">
@@ -25238,7 +25238,7 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/02/2022</t>
         </is>
       </c>
       <c r="B993" t="inlineStr">
@@ -25263,7 +25263,7 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>01/06/2022</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="B994" t="inlineStr">
@@ -25288,7 +25288,7 @@
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>01/05/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="B995" t="inlineStr">
@@ -25313,7 +25313,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>01/03/2022</t>
+          <t>01/06/2022</t>
         </is>
       </c>
       <c r="B996" t="inlineStr">
@@ -25338,7 +25338,7 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>01/11/2022</t>
+          <t>01/05/2022</t>
         </is>
       </c>
       <c r="B997" t="inlineStr">
@@ -25363,7 +25363,7 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/03/2022</t>
         </is>
       </c>
       <c r="B998" t="inlineStr">
@@ -25388,7 +25388,7 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>01/09/2022</t>
+          <t>01/11/2022</t>
         </is>
       </c>
       <c r="B999" t="inlineStr">
@@ -25413,7 +25413,7 @@
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="B1000" t="inlineStr">
@@ -25438,7 +25438,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01/09/2022</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr">
@@ -25463,7 +25463,7 @@
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>01/12/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="B1002" t="inlineStr">
@@ -25488,7 +25488,7 @@
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>01/02/2023</t>
+          <t>01/08/2023</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr">
@@ -25513,7 +25513,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/12/2023</t>
         </is>
       </c>
       <c r="B1004" t="inlineStr">
@@ -25538,7 +25538,7 @@
     <row r="1005">
       <c r="A1005" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/02/2023</t>
         </is>
       </c>
       <c r="B1005" t="inlineStr">
@@ -25563,7 +25563,7 @@
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>01/06/2023</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr">
@@ -25588,7 +25588,7 @@
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>01/05/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="B1007" t="inlineStr">
@@ -25613,7 +25613,7 @@
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>01/03/2023</t>
+          <t>01/06/2023</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr">
@@ -25638,7 +25638,7 @@
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>01/11/2023</t>
+          <t>01/05/2023</t>
         </is>
       </c>
       <c r="B1009" t="inlineStr">
@@ -25663,7 +25663,7 @@
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/03/2023</t>
         </is>
       </c>
       <c r="B1010" t="inlineStr">
@@ -25688,7 +25688,7 @@
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>01/09/2023</t>
+          <t>01/11/2023</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr">
@@ -25713,7 +25713,7 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr">
@@ -25738,7 +25738,7 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>01/09/2023</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr">
@@ -25763,7 +25763,7 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>01/12/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr">
@@ -25788,7 +25788,7 @@
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>01/02/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B1015" t="inlineStr">
@@ -25813,7 +25813,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/12/2024</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr">
@@ -25838,7 +25838,7 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
+          <t>01/02/2024</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr">
@@ -25863,7 +25863,7 @@
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>01/06/2024</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr">
@@ -25888,7 +25888,7 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>01/05/2024</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr">
@@ -25913,7 +25913,7 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>01/03/2024</t>
+          <t>01/06/2024</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr">
@@ -25938,7 +25938,7 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>01/11/2024</t>
+          <t>01/05/2024</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr">
@@ -25963,7 +25963,7 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>01/10/2024</t>
+          <t>01/03/2024</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr">
@@ -25988,7 +25988,7 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>01/09/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr">
@@ -26013,7 +26013,7 @@
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>01/04/2025</t>
+          <t>01/10/2024</t>
         </is>
       </c>
       <c r="B1024" t="inlineStr">
@@ -26038,7 +26038,7 @@
     <row r="1025">
       <c r="A1025" t="inlineStr">
         <is>
-          <t>01/02/2025</t>
+          <t>01/09/2024</t>
         </is>
       </c>
       <c r="B1025" t="inlineStr">
@@ -26063,7 +26063,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>01/04/2025</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr">
@@ -26088,7 +26088,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>01/07/2025</t>
+          <t>01/08/2025</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr">
@@ -26113,7 +26113,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>01/06/2025</t>
+          <t>01/02/2025</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr">
@@ -26138,7 +26138,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>01/05/2025</t>
+          <t>01/01/2025</t>
         </is>
       </c>
       <c r="B1029" t="inlineStr">
@@ -26163,7 +26163,7 @@
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>01/03/2025</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="B1030" t="inlineStr">
@@ -26180,6 +26180,81 @@
         <v>0</v>
       </c>
       <c r="E1030" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="inlineStr">
+        <is>
+          <t>01/06/2025</t>
+        </is>
+      </c>
+      <c r="B1031" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C1031" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1031" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="inlineStr">
+        <is>
+          <t>01/05/2025</t>
+        </is>
+      </c>
+      <c r="B1032" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C1032" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1032" t="inlineStr">
+        <is>
+          <t>SERGIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="inlineStr">
+        <is>
+          <t>01/03/2025</t>
+        </is>
+      </c>
+      <c r="B1033" t="inlineStr">
+        <is>
+          <t>NÃO SE APLICA</t>
+        </is>
+      </c>
+      <c r="C1033" t="inlineStr">
+        <is>
+          <t>LGN</t>
+        </is>
+      </c>
+      <c r="D1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1033" t="inlineStr">
         <is>
           <t>SERGIPE</t>
         </is>
